--- a/excels/config/difficulty_config.xlsx
+++ b/excels/config/difficulty_config.xlsx
@@ -4,15 +4,16 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="13395" tabRatio="804"/>
+    <workbookView windowWidth="18285" windowHeight="10155" tabRatio="804"/>
   </bookViews>
   <sheets>
-    <sheet name="map_info" sheetId="1" r:id="rId1"/>
-    <sheet name="map_info_difficulty" sheetId="5" r:id="rId2"/>
-    <sheet name="map_info_round" sheetId="6" r:id="rId3"/>
+    <sheet name="chapter_1" sheetId="7" r:id="rId1"/>
+    <sheet name="map_info" sheetId="1" r:id="rId2"/>
+    <sheet name="map_info_difficulty" sheetId="5" r:id="rId3"/>
+    <sheet name="map_info_round" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">map_info_round!$C$1:$C$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">map_info_round!$C$1:$C$22</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,21 +33,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="184">
-  <si>
-    <t>地图编号</t>
-  </si>
-  <si>
-    <t>地图名字</t>
-  </si>
-  <si>
-    <t>地图介绍</t>
-  </si>
-  <si>
-    <t>地图name</t>
-  </si>
-  <si>
-    <t>地图key</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="187">
+  <si>
+    <t>章节编号</t>
+  </si>
+  <si>
+    <t>章节名字</t>
+  </si>
+  <si>
+    <t>章节介绍</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -57,7 +52,7 @@
 5 通关后会出现深渊挑战</t>
   </si>
   <si>
-    <t>当前地图最大难度</t>
+    <t>当前章节最大难度</t>
   </si>
   <si>
     <t>默认难度</t>
@@ -72,6 +67,78 @@
     <t>玩家初始难度</t>
   </si>
   <si>
+    <t>chapter_key</t>
+  </si>
+  <si>
+    <t>pattern_type</t>
+  </si>
+  <si>
+    <t>default_max</t>
+  </si>
+  <si>
+    <t>default_difficulty</t>
+  </si>
+  <si>
+    <t>is_open</t>
+  </si>
+  <si>
+    <t>unlock_difficulty</t>
+  </si>
+  <si>
+    <t>is_initial</t>
+  </si>
+  <si>
+    <t>z1</t>
+  </si>
+  <si>
+    <t>第一章</t>
+  </si>
+  <si>
+    <t>z2</t>
+  </si>
+  <si>
+    <t>第二章</t>
+  </si>
+  <si>
+    <t>1,2</t>
+  </si>
+  <si>
+    <t>z3</t>
+  </si>
+  <si>
+    <t>第三章</t>
+  </si>
+  <si>
+    <t>1,2,3</t>
+  </si>
+  <si>
+    <t>z4</t>
+  </si>
+  <si>
+    <t>第四章</t>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
+  </si>
+  <si>
+    <t>z5</t>
+  </si>
+  <si>
+    <t>第五章</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5</t>
+  </si>
+  <si>
+    <t>地图编号</t>
+  </si>
+  <si>
+    <t>地图name</t>
+  </si>
+  <si>
+    <t>地图key</t>
+  </si>
+  <si>
     <t>地图大小x</t>
   </si>
   <si>
@@ -84,7 +151,7 @@
     <t>地图中心y</t>
   </si>
   <si>
-    <t>map_index</t>
+    <t>map_key</t>
   </si>
   <si>
     <t>map_name</t>
@@ -93,24 +160,6 @@
     <t>map_path</t>
   </si>
   <si>
-    <t>pattern_type</t>
-  </si>
-  <si>
-    <t>default_max</t>
-  </si>
-  <si>
-    <t>default_difficulty</t>
-  </si>
-  <si>
-    <t>is_open</t>
-  </si>
-  <si>
-    <t>unlock_difficulty</t>
-  </si>
-  <si>
-    <t>is_initial</t>
-  </si>
-  <si>
     <t>map_x</t>
   </si>
   <si>
@@ -126,70 +175,31 @@
     <t>m1</t>
   </si>
   <si>
-    <t>第一章</t>
-  </si>
-  <si>
     <t>wuren</t>
   </si>
   <si>
     <t>m2</t>
   </si>
   <si>
-    <t>第二章</t>
-  </si>
-  <si>
     <t>chapter_2</t>
   </si>
   <si>
-    <t>1,2</t>
-  </si>
-  <si>
     <t>m3</t>
   </si>
   <si>
-    <t>第三章</t>
-  </si>
-  <si>
     <t>chapter_3</t>
   </si>
   <si>
-    <t>1,2,3</t>
-  </si>
-  <si>
     <t>m4</t>
   </si>
   <si>
-    <t>第四章</t>
-  </si>
-  <si>
     <t>chapter_4</t>
   </si>
   <si>
-    <t>1,2,3,4</t>
-  </si>
-  <si>
     <t>m5</t>
   </si>
   <si>
-    <t>第五章</t>
-  </si>
-  <si>
     <t>chapter_5</t>
-  </si>
-  <si>
-    <t>1,2,3,4,5</t>
-  </si>
-  <si>
-    <t>m100</t>
-  </si>
-  <si>
-    <t>???</t>
-  </si>
-  <si>
-    <t>自定义关卡1</t>
-  </si>
-  <si>
-    <t>chapter_6</t>
   </si>
   <si>
     <t>地图内容配置编号</t>
@@ -601,7 +611,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -640,6 +650,26 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei UI"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1011,7 +1041,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -1218,6 +1248,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thick">
+        <color rgb="FF595959"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF595959"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF595959"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF595959"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF595959"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF5A5A5A"/>
       </left>
@@ -1236,6 +1305,19 @@
       </left>
       <right style="thin">
         <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF5A5A5A"/>
       </right>
       <top/>
       <bottom style="thin">
@@ -1275,13 +1357,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF5A5A5A"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FF5A5A5A"/>
       </right>
       <top style="thin">
-        <color rgb="FF5A5A5A"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF5A5A5A"/>
@@ -1290,26 +1372,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FF5A5A5A"/>
       </left>
       <right style="thin">
-        <color rgb="FF5A5A5A"/>
-      </right>
-      <top/>
-      <bottom style="thin">
         <color rgb="FFFFFFFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF5A5A5A"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FF5A5A5A"/>
       </top>
       <bottom style="thin">
         <color rgb="FF5A5A5A"/>
@@ -1449,137 +1518,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1646,52 +1715,85 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1841,7 +1943,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{6ABA3136-46A4-4AE2-A595-92BBD530A105}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{984A15E9-E249-4A1C-B6CB-CAF8DB6ACCE3}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
@@ -2142,404 +2244,406 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="15.375" customWidth="1"/>
+    <col min="3" max="3" width="13.75" customWidth="1"/>
+    <col min="4" max="4" width="18.125" customWidth="1"/>
+    <col min="5" max="5" width="16.75" customWidth="1"/>
+    <col min="6" max="9" width="12.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="122" customHeight="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" ht="30" spans="1:9">
+      <c r="A2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" ht="68" customHeight="1" spans="1:9">
+      <c r="A3" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="26">
+        <v>1</v>
+      </c>
+      <c r="E3" s="26">
+        <v>5</v>
+      </c>
+      <c r="F3" s="26">
+        <v>101</v>
+      </c>
+      <c r="G3" s="26">
+        <v>1</v>
+      </c>
+      <c r="H3" s="26">
+        <v>0</v>
+      </c>
+      <c r="I3" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" ht="68" customHeight="1" spans="1:9">
+      <c r="A4" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="7">
+        <v>5</v>
+      </c>
+      <c r="F4" s="7">
+        <v>201</v>
+      </c>
+      <c r="G4" s="7">
+        <v>1</v>
+      </c>
+      <c r="H4" s="7">
+        <v>105</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" ht="68" customHeight="1" spans="1:9">
+      <c r="A5" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="26">
+        <v>5</v>
+      </c>
+      <c r="F5" s="26">
+        <v>301</v>
+      </c>
+      <c r="G5" s="26">
+        <v>1</v>
+      </c>
+      <c r="H5" s="26">
+        <v>205</v>
+      </c>
+      <c r="I5" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" ht="68" customHeight="1" spans="1:9">
+      <c r="A6" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="7">
+        <v>5</v>
+      </c>
+      <c r="F6" s="7">
+        <v>401</v>
+      </c>
+      <c r="G6" s="7">
+        <v>1</v>
+      </c>
+      <c r="H6" s="7">
+        <v>305</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" ht="68" customHeight="1" spans="1:9">
+      <c r="A7" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="26">
+        <v>1</v>
+      </c>
+      <c r="F7" s="26">
+        <v>501</v>
+      </c>
+      <c r="G7" s="26">
+        <v>1</v>
+      </c>
+      <c r="H7" s="26">
+        <v>405</v>
+      </c>
+      <c r="I7" s="26">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="14.5083333333333" customWidth="1"/>
-    <col min="2" max="2" width="13.3416666666667" customWidth="1"/>
-    <col min="3" max="3" width="50.625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="27.875" style="30" customWidth="1"/>
-    <col min="5" max="5" width="22.675" customWidth="1"/>
-    <col min="6" max="6" width="31.5" customWidth="1"/>
-    <col min="7" max="7" width="20.5" customWidth="1"/>
-    <col min="8" max="8" width="21.8416666666667" customWidth="1"/>
-    <col min="9" max="9" width="12.3416666666667" customWidth="1"/>
-    <col min="10" max="10" width="21.675" customWidth="1"/>
-    <col min="11" max="11" width="13" customWidth="1"/>
-    <col min="12" max="13" width="13.3416666666667" customWidth="1"/>
-    <col min="14" max="14" width="16" customWidth="1"/>
-    <col min="15" max="15" width="17.625" customWidth="1"/>
+    <col min="2" max="2" width="27.875" style="34" customWidth="1"/>
+    <col min="3" max="3" width="22.675" customWidth="1"/>
+    <col min="4" max="5" width="13.3416666666667" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="95" customHeight="1" spans="1:15">
-      <c r="A1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="33" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" ht="22.5" customHeight="1" spans="1:15">
-      <c r="A2" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="O2" s="33" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" ht="51" customHeight="1" spans="1:15">
-      <c r="A3" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="27" t="s">
+    <row r="1" ht="95" customHeight="1" spans="1:7">
+      <c r="A1" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="27">
-        <v>1</v>
-      </c>
-      <c r="G3" s="27">
-        <v>5</v>
-      </c>
-      <c r="H3" s="27">
-        <v>101</v>
-      </c>
-      <c r="I3" s="27">
-        <v>1</v>
-      </c>
-      <c r="J3" s="27">
-        <v>0</v>
-      </c>
-      <c r="K3" s="27">
-        <v>1</v>
-      </c>
-      <c r="L3" s="27">
+      <c r="B1" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" ht="22.5" customHeight="1" spans="1:7">
+      <c r="A2" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="38" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" ht="51" customHeight="1" spans="1:7">
+      <c r="A3" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="43">
         <v>8192</v>
       </c>
-      <c r="M3" s="35">
+      <c r="E3" s="44">
         <v>8192</v>
       </c>
-      <c r="N3" s="36">
+      <c r="F3" s="45">
         <v>6144</v>
       </c>
-      <c r="O3" s="36">
+      <c r="G3" s="45">
         <v>6144</v>
       </c>
     </row>
-    <row r="4" ht="48" customHeight="1" spans="1:15">
-      <c r="A4" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="29">
-        <v>5</v>
-      </c>
-      <c r="H4" s="29">
-        <v>201</v>
-      </c>
-      <c r="I4" s="29">
-        <v>1</v>
-      </c>
-      <c r="J4" s="29">
-        <v>105</v>
-      </c>
-      <c r="K4" s="29">
-        <v>0</v>
-      </c>
-      <c r="L4" s="29">
+    <row r="4" ht="48" customHeight="1" spans="1:7">
+      <c r="A4" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="47">
         <v>8192</v>
       </c>
-      <c r="M4" s="37">
+      <c r="E4" s="48">
         <v>8192</v>
       </c>
-      <c r="N4" s="36">
+      <c r="F4" s="45">
         <v>6144</v>
       </c>
-      <c r="O4" s="36">
+      <c r="G4" s="45">
         <v>6144</v>
       </c>
     </row>
-    <row r="5" s="21" customFormat="1" ht="55.5" customHeight="1" spans="1:15">
-      <c r="A5" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="27">
-        <v>5</v>
-      </c>
-      <c r="H5" s="27">
-        <v>301</v>
-      </c>
-      <c r="I5" s="27">
-        <v>1</v>
-      </c>
-      <c r="J5" s="27">
-        <v>205</v>
-      </c>
-      <c r="K5" s="27">
-        <v>0</v>
-      </c>
-      <c r="L5" s="27">
+    <row r="5" s="21" customFormat="1" ht="55.5" customHeight="1" spans="1:7">
+      <c r="A5" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="43">
         <v>8192</v>
       </c>
-      <c r="M5" s="35">
+      <c r="E5" s="44">
         <v>8192</v>
       </c>
-      <c r="N5" s="36">
+      <c r="F5" s="45">
         <v>6144</v>
       </c>
-      <c r="O5" s="36">
+      <c r="G5" s="45">
         <v>6144</v>
       </c>
     </row>
-    <row r="6" s="21" customFormat="1" ht="55.5" customHeight="1" spans="1:15">
-      <c r="A6" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" s="29">
-        <v>5</v>
-      </c>
-      <c r="H6" s="29">
-        <v>401</v>
-      </c>
-      <c r="I6" s="29">
-        <v>1</v>
-      </c>
-      <c r="J6" s="29">
-        <v>305</v>
-      </c>
-      <c r="K6" s="29">
-        <v>0</v>
-      </c>
-      <c r="L6" s="29">
+    <row r="6" s="21" customFormat="1" ht="55.5" customHeight="1" spans="1:7">
+      <c r="A6" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="47">
         <v>8192</v>
       </c>
-      <c r="M6" s="37">
+      <c r="E6" s="48">
         <v>8192</v>
       </c>
-      <c r="N6" s="36">
+      <c r="F6" s="45">
         <v>6144</v>
       </c>
-      <c r="O6" s="36">
+      <c r="G6" s="45">
         <v>6144</v>
       </c>
     </row>
-    <row r="7" s="21" customFormat="1" ht="39" customHeight="1" spans="1:15">
-      <c r="A7" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" s="27">
-        <v>1</v>
-      </c>
-      <c r="H7" s="27">
-        <v>501</v>
-      </c>
-      <c r="I7" s="27">
-        <v>1</v>
-      </c>
-      <c r="J7" s="27">
-        <v>405</v>
-      </c>
-      <c r="K7" s="27">
-        <v>0</v>
-      </c>
-      <c r="L7" s="27">
+    <row r="7" s="21" customFormat="1" ht="39" customHeight="1" spans="1:7">
+      <c r="A7" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="43">
         <v>8192</v>
       </c>
-      <c r="M7" s="35">
+      <c r="E7" s="44">
         <v>8192</v>
       </c>
-      <c r="N7" s="36">
+      <c r="F7" s="45">
         <v>6144</v>
       </c>
-      <c r="O7" s="36">
+      <c r="G7" s="45">
         <v>6144</v>
       </c>
-    </row>
-    <row r="8" s="21" customFormat="1" ht="22.5" customHeight="1" spans="1:15">
-      <c r="A8" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="29">
-        <v>1</v>
-      </c>
-      <c r="H8" s="29">
-        <v>10001</v>
-      </c>
-      <c r="I8" s="29">
-        <v>1</v>
-      </c>
-      <c r="J8" s="29">
-        <v>305</v>
-      </c>
-      <c r="K8" s="29">
-        <v>0</v>
-      </c>
-      <c r="L8" s="29">
-        <v>8192</v>
-      </c>
-      <c r="M8" s="37">
-        <v>8192</v>
-      </c>
-      <c r="N8" s="36">
-        <v>6144</v>
-      </c>
-      <c r="O8" s="36">
-        <v>6144</v>
-      </c>
-    </row>
-    <row r="9" ht="16.5" spans="15:15">
-      <c r="O9" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2548,978 +2652,1060 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="A14" sqref="A14"/>
+      <selection pane="topRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="21.675" customWidth="1"/>
     <col min="2" max="2" width="14.5083333333333" customWidth="1"/>
-    <col min="3" max="3" width="15.8666666666667" customWidth="1"/>
-    <col min="4" max="4" width="21.675" customWidth="1"/>
-    <col min="5" max="5" width="14.8416666666667" customWidth="1"/>
-    <col min="6" max="6" width="15.625" customWidth="1"/>
-    <col min="7" max="7" width="24.3416666666667" customWidth="1"/>
-    <col min="8" max="9" width="21.9583333333333" customWidth="1"/>
-    <col min="10" max="10" width="21.7416666666667" customWidth="1"/>
-    <col min="11" max="11" width="19.35" customWidth="1"/>
+    <col min="3" max="3" width="21.5166666666667" style="22" customWidth="1"/>
+    <col min="4" max="4" width="15.8666666666667" customWidth="1"/>
+    <col min="5" max="5" width="21.675" customWidth="1"/>
+    <col min="6" max="6" width="14.8416666666667" customWidth="1"/>
+    <col min="7" max="7" width="15.625" customWidth="1"/>
+    <col min="8" max="8" width="24.3416666666667" customWidth="1"/>
+    <col min="9" max="10" width="21.9583333333333" customWidth="1"/>
+    <col min="11" max="11" width="21.7416666666667" customWidth="1"/>
+    <col min="12" max="12" width="19.35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="39" customHeight="1" spans="1:11">
-      <c r="A1" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="23" t="s">
+    <row r="1" ht="39" customHeight="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" ht="39" customHeight="1" spans="1:12">
+      <c r="A2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" ht="39" customHeight="1" spans="1:12">
+      <c r="A3" s="25">
+        <v>101</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="26">
+        <v>10</v>
+      </c>
+      <c r="E3" s="26">
         <v>0</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="F3" s="26">
+        <v>20</v>
+      </c>
+      <c r="G3" s="26">
+        <v>160</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="I3" s="26">
+        <v>10</v>
+      </c>
+      <c r="J3" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="K3" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="L3" s="32" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" ht="39" customHeight="1" spans="1:12">
+      <c r="A4" s="18">
+        <v>102</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="7">
+        <v>10</v>
+      </c>
+      <c r="E4" s="7">
+        <v>101</v>
+      </c>
+      <c r="F4" s="7">
+        <v>20</v>
+      </c>
+      <c r="G4" s="7">
+        <v>160</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="I4" s="7">
+        <v>10</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L4" s="19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" ht="39" customHeight="1" spans="1:12">
+      <c r="A5" s="25">
+        <v>103</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="26">
+        <v>10</v>
+      </c>
+      <c r="E5" s="26">
+        <v>102</v>
+      </c>
+      <c r="F5" s="26">
+        <v>20</v>
+      </c>
+      <c r="G5" s="26">
+        <v>160</v>
+      </c>
+      <c r="H5" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="I5" s="26">
+        <v>10</v>
+      </c>
+      <c r="J5" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="K5" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="L5" s="32" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" ht="39" customHeight="1" spans="1:12">
+      <c r="A6" s="18">
+        <v>104</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="7">
+        <v>10</v>
+      </c>
+      <c r="E6" s="7">
+        <v>103</v>
+      </c>
+      <c r="F6" s="7">
+        <v>20</v>
+      </c>
+      <c r="G6" s="7">
+        <v>160</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="I6" s="7">
+        <v>10</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L6" s="19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" ht="39" customHeight="1" spans="1:12">
+      <c r="A7" s="25">
+        <v>105</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="26">
+        <v>10</v>
+      </c>
+      <c r="E7" s="26">
+        <v>104</v>
+      </c>
+      <c r="F7" s="26">
+        <v>20</v>
+      </c>
+      <c r="G7" s="26">
+        <v>160</v>
+      </c>
+      <c r="H7" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="I7" s="26">
+        <v>10</v>
+      </c>
+      <c r="J7" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="K7" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="L7" s="32" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" ht="39" customHeight="1" spans="1:12">
+      <c r="A8" s="18">
+        <v>201</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="7">
+        <v>10</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0</v>
+      </c>
+      <c r="F8" s="7">
+        <v>20</v>
+      </c>
+      <c r="G8" s="7">
+        <v>160</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="I8" s="7">
+        <v>10</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L8" s="19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" ht="39" customHeight="1" spans="1:12">
+      <c r="A9" s="25">
+        <v>202</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="26">
+        <v>10</v>
+      </c>
+      <c r="E9" s="26">
+        <v>201</v>
+      </c>
+      <c r="F9" s="26">
+        <v>20</v>
+      </c>
+      <c r="G9" s="26">
+        <v>160</v>
+      </c>
+      <c r="H9" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="I9" s="26">
+        <v>10</v>
+      </c>
+      <c r="J9" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="K9" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="L9" s="32" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" ht="39" customHeight="1" spans="1:12">
+      <c r="A10" s="18">
+        <v>203</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="7">
+        <v>10</v>
+      </c>
+      <c r="E10" s="7">
+        <v>202</v>
+      </c>
+      <c r="F10" s="7">
+        <v>20</v>
+      </c>
+      <c r="G10" s="7">
+        <v>160</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="I10" s="7">
+        <v>10</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L10" s="19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" ht="39" customHeight="1" spans="1:12">
+      <c r="A11" s="25">
+        <v>204</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="26">
+        <v>10</v>
+      </c>
+      <c r="E11" s="26">
+        <v>203</v>
+      </c>
+      <c r="F11" s="26">
+        <v>20</v>
+      </c>
+      <c r="G11" s="26">
+        <v>160</v>
+      </c>
+      <c r="H11" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="I11" s="26">
+        <v>10</v>
+      </c>
+      <c r="J11" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="K11" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="L11" s="32" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" ht="39" customHeight="1" spans="1:12">
+      <c r="A12" s="18">
+        <v>205</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="7">
+        <v>10</v>
+      </c>
+      <c r="E12" s="7">
+        <v>204</v>
+      </c>
+      <c r="F12" s="7">
+        <v>20</v>
+      </c>
+      <c r="G12" s="7">
+        <v>160</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="I12" s="7">
+        <v>10</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="L12" s="19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" s="21" customFormat="1" ht="39" customHeight="1" spans="1:12">
+      <c r="A13" s="25">
+        <v>301</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="26">
+        <v>10</v>
+      </c>
+      <c r="E13" s="26">
+        <v>0</v>
+      </c>
+      <c r="F13" s="26">
+        <v>20</v>
+      </c>
+      <c r="G13" s="26">
+        <v>160</v>
+      </c>
+      <c r="H13" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="I13" s="26">
+        <v>10</v>
+      </c>
+      <c r="J13" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="K13" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="L13" s="32" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" s="21" customFormat="1" ht="39" customHeight="1" spans="1:12">
+      <c r="A14" s="18">
+        <v>302</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="7">
+        <v>10</v>
+      </c>
+      <c r="E14" s="7">
+        <v>301</v>
+      </c>
+      <c r="F14" s="7">
+        <v>20</v>
+      </c>
+      <c r="G14" s="7">
+        <v>160</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="I14" s="7">
+        <v>10</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L14" s="19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" s="21" customFormat="1" ht="39" customHeight="1" spans="1:12">
+      <c r="A15" s="25">
+        <v>303</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="26">
+        <v>10</v>
+      </c>
+      <c r="E15" s="26">
+        <v>302</v>
+      </c>
+      <c r="F15" s="26">
+        <v>20</v>
+      </c>
+      <c r="G15" s="26">
+        <v>160</v>
+      </c>
+      <c r="H15" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="I15" s="26">
+        <v>10</v>
+      </c>
+      <c r="J15" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="K15" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="L15" s="32" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" s="21" customFormat="1" ht="39" customHeight="1" spans="1:12">
+      <c r="A16" s="18">
+        <v>304</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="7">
+        <v>10</v>
+      </c>
+      <c r="E16" s="7">
+        <v>303</v>
+      </c>
+      <c r="F16" s="7">
+        <v>20</v>
+      </c>
+      <c r="G16" s="7">
+        <v>160</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="I16" s="7">
+        <v>10</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L16" s="19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" s="21" customFormat="1" ht="39" customHeight="1" spans="1:12">
+      <c r="A17" s="25">
+        <v>305</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="26">
+        <v>10</v>
+      </c>
+      <c r="E17" s="26">
+        <v>304</v>
+      </c>
+      <c r="F17" s="26">
+        <v>20</v>
+      </c>
+      <c r="G17" s="26">
+        <v>160</v>
+      </c>
+      <c r="H17" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="I17" s="26">
+        <v>10</v>
+      </c>
+      <c r="J17" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="K17" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="L17" s="32" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" s="21" customFormat="1" ht="39" customHeight="1" spans="1:12">
+      <c r="A18" s="18">
+        <v>401</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="7">
+        <v>10</v>
+      </c>
+      <c r="E18" s="7">
+        <v>0</v>
+      </c>
+      <c r="F18" s="7">
+        <v>20</v>
+      </c>
+      <c r="G18" s="7">
+        <v>160</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="I18" s="7">
+        <v>10</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="L18" s="19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" s="21" customFormat="1" ht="39" customHeight="1" spans="1:12">
+      <c r="A19" s="25">
+        <v>402</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="26">
+        <v>10</v>
+      </c>
+      <c r="E19" s="26">
+        <v>401</v>
+      </c>
+      <c r="F19" s="26">
+        <v>20</v>
+      </c>
+      <c r="G19" s="26">
+        <v>160</v>
+      </c>
+      <c r="H19" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="I19" s="26">
+        <v>10</v>
+      </c>
+      <c r="J19" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="K19" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="L19" s="32" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" s="21" customFormat="1" ht="39" customHeight="1" spans="1:12">
+      <c r="A20" s="18">
+        <v>403</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="7">
+        <v>10</v>
+      </c>
+      <c r="E20" s="7">
+        <v>402</v>
+      </c>
+      <c r="F20" s="7">
+        <v>20</v>
+      </c>
+      <c r="G20" s="7">
+        <v>160</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="I20" s="7">
+        <v>10</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L20" s="19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" s="21" customFormat="1" ht="39" customHeight="1" spans="1:12">
+      <c r="A21" s="25">
+        <v>404</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="26">
+        <v>10</v>
+      </c>
+      <c r="E21" s="26">
+        <v>403</v>
+      </c>
+      <c r="F21" s="26">
+        <v>20</v>
+      </c>
+      <c r="G21" s="26">
+        <v>160</v>
+      </c>
+      <c r="H21" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="I21" s="26">
+        <v>10</v>
+      </c>
+      <c r="J21" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="K21" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="L21" s="32" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" s="21" customFormat="1" ht="39" customHeight="1" spans="1:12">
+      <c r="A22" s="18">
+        <v>405</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="7">
+        <v>10</v>
+      </c>
+      <c r="E22" s="7">
+        <v>404</v>
+      </c>
+      <c r="F22" s="7">
+        <v>20</v>
+      </c>
+      <c r="G22" s="7">
+        <v>160</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="I22" s="7">
+        <v>10</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="L22" s="19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" s="21" customFormat="1" ht="39" customHeight="1" spans="1:12">
+      <c r="A23" s="25">
+        <v>501</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="H1" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="I1" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="J1" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="K1" s="23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" ht="39" customHeight="1" spans="1:11">
-      <c r="A2" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="F2" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="G2" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="H2" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="I2" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="J2" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="K2" s="25" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" ht="39" customHeight="1" spans="1:11">
-      <c r="A3" s="26">
-        <v>101</v>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="27">
-        <v>10</v>
-      </c>
-      <c r="D3" s="27">
+      <c r="D23" s="26">
+        <v>10</v>
+      </c>
+      <c r="E23" s="26">
         <v>0</v>
       </c>
-      <c r="E3" s="27">
+      <c r="F23" s="26">
         <v>20</v>
       </c>
-      <c r="F3" s="27">
+      <c r="G23" s="26">
         <v>160</v>
       </c>
-      <c r="G3" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="H3" s="27">
-        <v>10</v>
-      </c>
-      <c r="I3" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="J3" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="K3" s="27" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" ht="39" customHeight="1" spans="1:11">
-      <c r="A4" s="28">
-        <v>102</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="27">
-        <v>10</v>
-      </c>
-      <c r="D4" s="29">
-        <v>101</v>
-      </c>
-      <c r="E4" s="29">
+      <c r="H23" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="I23" s="26">
+        <v>10</v>
+      </c>
+      <c r="J23" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="K23" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="L23" s="32" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" s="21" customFormat="1" ht="39" customHeight="1" spans="1:12">
+      <c r="A24" s="18">
+        <v>502</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="7">
+        <v>10</v>
+      </c>
+      <c r="E24" s="7">
+        <v>501</v>
+      </c>
+      <c r="F24" s="7">
         <v>20</v>
       </c>
-      <c r="F4" s="29">
+      <c r="G24" s="7">
         <v>160</v>
       </c>
-      <c r="G4" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="H4" s="27">
-        <v>10</v>
-      </c>
-      <c r="I4" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="J4" s="29" t="s">
+      <c r="H24" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="I24" s="7">
+        <v>10</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L24" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="K4" s="29" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" ht="39" customHeight="1" spans="1:11">
-      <c r="A5" s="26">
-        <v>103</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="27">
-        <v>10</v>
-      </c>
-      <c r="D5" s="27">
-        <v>102</v>
-      </c>
-      <c r="E5" s="27">
+    </row>
+    <row r="25" s="21" customFormat="1" ht="39" customHeight="1" spans="1:12">
+      <c r="A25" s="25">
+        <v>503</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="26">
+        <v>10</v>
+      </c>
+      <c r="E25" s="26">
+        <v>502</v>
+      </c>
+      <c r="F25" s="26">
         <v>20</v>
       </c>
-      <c r="F5" s="27">
+      <c r="G25" s="26">
         <v>160</v>
       </c>
-      <c r="G5" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="H5" s="27">
-        <v>10</v>
-      </c>
-      <c r="I5" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="J5" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="K5" s="27" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" ht="39" customHeight="1" spans="1:11">
-      <c r="A6" s="28">
-        <v>104</v>
-      </c>
-      <c r="B6" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="27">
-        <v>10</v>
-      </c>
-      <c r="D6" s="29">
-        <v>103</v>
-      </c>
-      <c r="E6" s="29">
+      <c r="H25" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="I25" s="26">
+        <v>10</v>
+      </c>
+      <c r="J25" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="K25" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="L25" s="32" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" s="21" customFormat="1" ht="39" customHeight="1" spans="1:12">
+      <c r="A26" s="18">
+        <v>504</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="7">
+        <v>10</v>
+      </c>
+      <c r="E26" s="7">
+        <v>503</v>
+      </c>
+      <c r="F26" s="7">
         <v>20</v>
       </c>
-      <c r="F6" s="29">
+      <c r="G26" s="7">
         <v>160</v>
       </c>
-      <c r="G6" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="H6" s="27">
-        <v>10</v>
-      </c>
-      <c r="I6" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="J6" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="K6" s="29" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" ht="39" customHeight="1" spans="1:11">
-      <c r="A7" s="26">
-        <v>105</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="27">
-        <v>10</v>
-      </c>
-      <c r="D7" s="27">
-        <v>104</v>
-      </c>
-      <c r="E7" s="27">
+      <c r="H26" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="I26" s="7">
+        <v>10</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L26" s="19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" s="21" customFormat="1" ht="39" customHeight="1" spans="1:12">
+      <c r="A27" s="29">
+        <v>505</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="30">
+        <v>10</v>
+      </c>
+      <c r="E27" s="30">
+        <v>504</v>
+      </c>
+      <c r="F27" s="30">
         <v>20</v>
       </c>
-      <c r="F7" s="27">
+      <c r="G27" s="30">
         <v>160</v>
       </c>
-      <c r="G7" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="H7" s="27">
-        <v>10</v>
-      </c>
-      <c r="I7" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="J7" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="K7" s="27" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" ht="39" customHeight="1" spans="1:11">
-      <c r="A8" s="28">
-        <v>201</v>
-      </c>
-      <c r="B8" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="27">
-        <v>10</v>
-      </c>
-      <c r="D8" s="29">
-        <v>0</v>
-      </c>
-      <c r="E8" s="29">
-        <v>20</v>
-      </c>
-      <c r="F8" s="29">
-        <v>160</v>
-      </c>
-      <c r="G8" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="H8" s="27">
-        <v>10</v>
-      </c>
-      <c r="I8" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="J8" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="K8" s="29" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" ht="39" customHeight="1" spans="1:11">
-      <c r="A9" s="26">
-        <v>202</v>
-      </c>
-      <c r="B9" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="27">
-        <v>10</v>
-      </c>
-      <c r="D9" s="27">
-        <v>201</v>
-      </c>
-      <c r="E9" s="27">
-        <v>20</v>
-      </c>
-      <c r="F9" s="27">
-        <v>160</v>
-      </c>
-      <c r="G9" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="H9" s="27">
-        <v>10</v>
-      </c>
-      <c r="I9" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="J9" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="K9" s="27" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" ht="39" customHeight="1" spans="1:11">
-      <c r="A10" s="28">
-        <v>203</v>
-      </c>
-      <c r="B10" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="27">
-        <v>10</v>
-      </c>
-      <c r="D10" s="29">
-        <v>202</v>
-      </c>
-      <c r="E10" s="29">
-        <v>20</v>
-      </c>
-      <c r="F10" s="29">
-        <v>160</v>
-      </c>
-      <c r="G10" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="H10" s="27">
-        <v>10</v>
-      </c>
-      <c r="I10" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="J10" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="K10" s="29" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" ht="39" customHeight="1" spans="1:11">
-      <c r="A11" s="26">
-        <v>204</v>
-      </c>
-      <c r="B11" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="27">
-        <v>10</v>
-      </c>
-      <c r="D11" s="27">
-        <v>203</v>
-      </c>
-      <c r="E11" s="27">
-        <v>20</v>
-      </c>
-      <c r="F11" s="27">
-        <v>160</v>
-      </c>
-      <c r="G11" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="H11" s="27">
-        <v>10</v>
-      </c>
-      <c r="I11" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="J11" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="K11" s="27" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" customFormat="1" ht="39" customHeight="1" spans="1:11">
-      <c r="A12" s="28">
-        <v>205</v>
-      </c>
-      <c r="B12" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="27">
-        <v>10</v>
-      </c>
-      <c r="D12" s="29">
-        <v>204</v>
-      </c>
-      <c r="E12" s="29">
-        <v>20</v>
-      </c>
-      <c r="F12" s="29">
-        <v>160</v>
-      </c>
-      <c r="G12" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="H12" s="27">
-        <v>10</v>
-      </c>
-      <c r="I12" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="J12" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="K12" s="29" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" s="21" customFormat="1" ht="39" customHeight="1" spans="1:11">
-      <c r="A13" s="26">
-        <v>301</v>
-      </c>
-      <c r="B13" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="27">
-        <v>10</v>
-      </c>
-      <c r="D13" s="27">
-        <v>0</v>
-      </c>
-      <c r="E13" s="27">
-        <v>20</v>
-      </c>
-      <c r="F13" s="27">
-        <v>160</v>
-      </c>
-      <c r="G13" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="H13" s="27">
-        <v>10</v>
-      </c>
-      <c r="I13" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="J13" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="K13" s="27" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" s="21" customFormat="1" ht="39" customHeight="1" spans="1:11">
-      <c r="A14" s="28">
-        <v>302</v>
-      </c>
-      <c r="B14" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="27">
-        <v>10</v>
-      </c>
-      <c r="D14" s="29">
-        <v>301</v>
-      </c>
-      <c r="E14" s="29">
-        <v>20</v>
-      </c>
-      <c r="F14" s="29">
-        <v>160</v>
-      </c>
-      <c r="G14" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="H14" s="27">
-        <v>10</v>
-      </c>
-      <c r="I14" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="J14" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="K14" s="29" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" s="21" customFormat="1" ht="39" customHeight="1" spans="1:11">
-      <c r="A15" s="26">
-        <v>303</v>
-      </c>
-      <c r="B15" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="27">
-        <v>10</v>
-      </c>
-      <c r="D15" s="27">
-        <v>302</v>
-      </c>
-      <c r="E15" s="27">
-        <v>20</v>
-      </c>
-      <c r="F15" s="27">
-        <v>160</v>
-      </c>
-      <c r="G15" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="H15" s="27">
-        <v>10</v>
-      </c>
-      <c r="I15" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="J15" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="K15" s="27" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" s="21" customFormat="1" ht="39" customHeight="1" spans="1:11">
-      <c r="A16" s="28">
-        <v>304</v>
-      </c>
-      <c r="B16" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="27">
-        <v>10</v>
-      </c>
-      <c r="D16" s="29">
-        <v>303</v>
-      </c>
-      <c r="E16" s="29">
-        <v>20</v>
-      </c>
-      <c r="F16" s="29">
-        <v>160</v>
-      </c>
-      <c r="G16" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="H16" s="27">
-        <v>10</v>
-      </c>
-      <c r="I16" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="J16" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="K16" s="29" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" s="21" customFormat="1" ht="39" customHeight="1" spans="1:11">
-      <c r="A17" s="26">
-        <v>305</v>
-      </c>
-      <c r="B17" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="27">
-        <v>10</v>
-      </c>
-      <c r="D17" s="27">
-        <v>304</v>
-      </c>
-      <c r="E17" s="27">
-        <v>20</v>
-      </c>
-      <c r="F17" s="27">
-        <v>160</v>
-      </c>
-      <c r="G17" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="H17" s="27">
-        <v>10</v>
-      </c>
-      <c r="I17" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="J17" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="K17" s="27" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" s="21" customFormat="1" ht="39" customHeight="1" spans="1:11">
-      <c r="A18" s="28">
-        <v>401</v>
-      </c>
-      <c r="B18" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="27">
-        <v>10</v>
-      </c>
-      <c r="D18" s="29">
-        <v>0</v>
-      </c>
-      <c r="E18" s="29">
-        <v>20</v>
-      </c>
-      <c r="F18" s="29">
-        <v>160</v>
-      </c>
-      <c r="G18" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="H18" s="27">
-        <v>10</v>
-      </c>
-      <c r="I18" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="J18" s="29" t="s">
-        <v>118</v>
-      </c>
-      <c r="K18" s="29" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" s="21" customFormat="1" ht="39" customHeight="1" spans="1:11">
-      <c r="A19" s="26">
-        <v>402</v>
-      </c>
-      <c r="B19" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="27">
-        <v>10</v>
-      </c>
-      <c r="D19" s="27">
-        <v>401</v>
-      </c>
-      <c r="E19" s="27">
-        <v>20</v>
-      </c>
-      <c r="F19" s="27">
-        <v>160</v>
-      </c>
-      <c r="G19" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="H19" s="27">
-        <v>10</v>
-      </c>
-      <c r="I19" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="J19" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="K19" s="27" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" s="21" customFormat="1" ht="39" customHeight="1" spans="1:11">
-      <c r="A20" s="28">
-        <v>403</v>
-      </c>
-      <c r="B20" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="27">
-        <v>10</v>
-      </c>
-      <c r="D20" s="29">
-        <v>402</v>
-      </c>
-      <c r="E20" s="29">
-        <v>20</v>
-      </c>
-      <c r="F20" s="29">
-        <v>160</v>
-      </c>
-      <c r="G20" s="27" t="s">
-        <v>122</v>
-      </c>
-      <c r="H20" s="27">
-        <v>10</v>
-      </c>
-      <c r="I20" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="J20" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="K20" s="29" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" s="21" customFormat="1" ht="39" customHeight="1" spans="1:11">
-      <c r="A21" s="26">
-        <v>404</v>
-      </c>
-      <c r="B21" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="27">
-        <v>10</v>
-      </c>
-      <c r="D21" s="27">
-        <v>403</v>
-      </c>
-      <c r="E21" s="27">
-        <v>20</v>
-      </c>
-      <c r="F21" s="27">
-        <v>160</v>
-      </c>
-      <c r="G21" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="H21" s="27">
-        <v>10</v>
-      </c>
-      <c r="I21" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="J21" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="K21" s="27" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="22" s="21" customFormat="1" ht="39" customHeight="1" spans="1:11">
-      <c r="A22" s="28">
-        <v>405</v>
-      </c>
-      <c r="B22" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="27">
-        <v>10</v>
-      </c>
-      <c r="D22" s="29">
-        <v>404</v>
-      </c>
-      <c r="E22" s="29">
-        <v>20</v>
-      </c>
-      <c r="F22" s="29">
-        <v>160</v>
-      </c>
-      <c r="G22" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="H22" s="27">
-        <v>10</v>
-      </c>
-      <c r="I22" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="J22" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="K22" s="29" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="23" s="21" customFormat="1" ht="39" customHeight="1" spans="1:11">
-      <c r="A23" s="26">
-        <v>501</v>
-      </c>
-      <c r="B23" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="27">
-        <v>10</v>
-      </c>
-      <c r="D23" s="27">
-        <v>0</v>
-      </c>
-      <c r="E23" s="27">
-        <v>20</v>
-      </c>
-      <c r="F23" s="27">
-        <v>160</v>
-      </c>
-      <c r="G23" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="H23" s="27">
-        <v>10</v>
-      </c>
-      <c r="I23" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="J23" s="27" t="s">
-        <v>133</v>
-      </c>
-      <c r="K23" s="27" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="24" s="21" customFormat="1" ht="39" customHeight="1" spans="1:11">
-      <c r="A24" s="28">
-        <v>502</v>
-      </c>
-      <c r="B24" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" s="27">
-        <v>10</v>
-      </c>
-      <c r="D24" s="29">
-        <v>501</v>
-      </c>
-      <c r="E24" s="29">
-        <v>20</v>
-      </c>
-      <c r="F24" s="29">
-        <v>160</v>
-      </c>
-      <c r="G24" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="H24" s="27">
-        <v>10</v>
-      </c>
-      <c r="I24" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="J24" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="K24" s="29" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="25" s="21" customFormat="1" ht="39" customHeight="1" spans="1:11">
-      <c r="A25" s="26">
-        <v>503</v>
-      </c>
-      <c r="B25" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" s="27">
-        <v>10</v>
-      </c>
-      <c r="D25" s="27">
-        <v>502</v>
-      </c>
-      <c r="E25" s="27">
-        <v>20</v>
-      </c>
-      <c r="F25" s="27">
-        <v>160</v>
-      </c>
-      <c r="G25" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="H25" s="27">
-        <v>10</v>
-      </c>
-      <c r="I25" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="J25" s="27" t="s">
-        <v>133</v>
-      </c>
-      <c r="K25" s="27" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="26" s="21" customFormat="1" ht="39" customHeight="1" spans="1:11">
-      <c r="A26" s="28">
-        <v>504</v>
-      </c>
-      <c r="B26" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="27">
-        <v>10</v>
-      </c>
-      <c r="D26" s="29">
-        <v>503</v>
-      </c>
-      <c r="E26" s="29">
-        <v>20</v>
-      </c>
-      <c r="F26" s="29">
-        <v>160</v>
-      </c>
-      <c r="G26" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="H26" s="27">
-        <v>10</v>
-      </c>
-      <c r="I26" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="J26" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="K26" s="29" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="27" s="21" customFormat="1" ht="39" customHeight="1" spans="1:11">
-      <c r="A27" s="28">
-        <v>505</v>
-      </c>
-      <c r="B27" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="C27" s="27">
-        <v>10</v>
-      </c>
-      <c r="D27" s="29">
-        <v>504</v>
-      </c>
-      <c r="E27" s="29">
-        <v>20</v>
-      </c>
-      <c r="F27" s="29">
-        <v>160</v>
-      </c>
-      <c r="G27" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="H27" s="27">
-        <v>10</v>
-      </c>
-      <c r="I27" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="J27" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="K27" s="29" t="s">
-        <v>73</v>
+      <c r="H27" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="I27" s="30">
+        <v>10</v>
+      </c>
+      <c r="J27" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="K27" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="L27" s="33" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C$1:C$1048576">
+  <conditionalFormatting sqref="D$1:D$1048576">
     <cfRule type="cellIs" dxfId="0" priority="19" operator="equal">
       <formula>2</formula>
     </cfRule>
@@ -3533,7 +3719,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:O22"/>
@@ -3563,87 +3749,87 @@
   <sheetData>
     <row r="1" ht="60" customHeight="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="K1" s="8"/>
       <c r="L1" s="9"/>
       <c r="M1" s="10" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="N1" s="10"/>
     </row>
     <row r="2" ht="43" customHeight="1" spans="1:15">
       <c r="A2" s="3" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="K2" s="11">
         <v>1</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="N2" s="14">
         <v>1</v>
       </c>
       <c r="O2" s="15" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" ht="22.5" customHeight="1" spans="1:14">
@@ -3663,7 +3849,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="G3" s="6">
         <v>15</v>
@@ -3676,7 +3862,7 @@
       </c>
       <c r="J3" s="6"/>
       <c r="K3" s="16" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="L3" s="17"/>
       <c r="M3" s="18"/>
@@ -3701,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="G4" s="7">
         <v>0</v>
@@ -3714,7 +3900,7 @@
       </c>
       <c r="J4" s="7"/>
       <c r="K4" s="16" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L4" s="20"/>
       <c r="M4" s="5"/>
@@ -3739,7 +3925,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
@@ -3752,7 +3938,7 @@
       </c>
       <c r="J5" s="6"/>
       <c r="K5" s="16" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="L5" s="17"/>
       <c r="M5" s="18"/>
@@ -3777,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="G6" s="7">
         <v>0</v>
@@ -3790,7 +3976,7 @@
       </c>
       <c r="J6" s="7"/>
       <c r="K6" s="16" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="L6" s="20"/>
       <c r="M6" s="5"/>
@@ -3815,7 +4001,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="G7" s="6">
         <v>20</v>
@@ -3828,7 +4014,7 @@
       </c>
       <c r="J7" s="6"/>
       <c r="K7" s="16" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="L7" s="17"/>
       <c r="M7" s="18"/>
@@ -3853,7 +4039,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G8" s="7">
         <v>0</v>
@@ -3866,7 +4052,7 @@
       </c>
       <c r="J8" s="7"/>
       <c r="K8" s="16" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="L8" s="20"/>
       <c r="M8" s="5"/>
@@ -3891,7 +4077,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G9" s="6">
         <v>0</v>
@@ -3904,7 +4090,7 @@
       </c>
       <c r="J9" s="6"/>
       <c r="K9" s="16" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="L9" s="17"/>
       <c r="M9" s="18"/>
@@ -3929,7 +4115,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G10" s="7">
         <v>0</v>
@@ -3942,7 +4128,7 @@
       </c>
       <c r="J10" s="7"/>
       <c r="K10" s="16" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="L10" s="20"/>
       <c r="M10" s="5"/>
@@ -3967,7 +4153,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G11" s="6">
         <v>0</v>
@@ -3980,7 +4166,7 @@
       </c>
       <c r="J11" s="6"/>
       <c r="K11" s="16" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L11" s="17"/>
       <c r="M11" s="18"/>
@@ -4005,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G12" s="7">
         <v>20</v>
@@ -4018,7 +4204,7 @@
       </c>
       <c r="J12" s="7"/>
       <c r="K12" s="16" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="L12" s="20"/>
       <c r="M12" s="5"/>
@@ -4043,7 +4229,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="G13" s="6">
         <v>0</v>
@@ -4056,7 +4242,7 @@
       </c>
       <c r="J13" s="6"/>
       <c r="K13" s="16" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="L13" s="17"/>
       <c r="M13" s="18"/>
@@ -4081,7 +4267,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="G14" s="7">
         <v>0</v>
@@ -4094,7 +4280,7 @@
       </c>
       <c r="J14" s="7"/>
       <c r="K14" s="16" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="L14" s="20"/>
       <c r="M14" s="5"/>
@@ -4119,7 +4305,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="G15" s="6">
         <v>0</v>
@@ -4132,7 +4318,7 @@
       </c>
       <c r="J15" s="6"/>
       <c r="K15" s="16" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="L15" s="17"/>
       <c r="M15" s="18"/>
@@ -4157,7 +4343,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="G16" s="7">
         <v>0</v>
@@ -4170,7 +4356,7 @@
       </c>
       <c r="J16" s="7"/>
       <c r="K16" s="16" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="L16" s="20"/>
       <c r="M16" s="5"/>
@@ -4195,7 +4381,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="G17" s="6">
         <v>20</v>
@@ -4208,7 +4394,7 @@
       </c>
       <c r="J17" s="6"/>
       <c r="K17" s="16" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L17" s="17"/>
       <c r="M17" s="18"/>
@@ -4233,7 +4419,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="G18" s="7">
         <v>0</v>
@@ -4246,7 +4432,7 @@
       </c>
       <c r="J18" s="7"/>
       <c r="K18" s="16" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="L18" s="20"/>
       <c r="M18" s="5"/>
@@ -4271,7 +4457,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="G19" s="6">
         <v>0</v>
@@ -4284,7 +4470,7 @@
       </c>
       <c r="J19" s="6"/>
       <c r="K19" s="16" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="L19" s="17"/>
       <c r="M19" s="18"/>
@@ -4309,7 +4495,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="G20" s="7">
         <v>0</v>
@@ -4322,7 +4508,7 @@
       </c>
       <c r="J20" s="7"/>
       <c r="K20" s="16" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L20" s="20"/>
       <c r="M20" s="5"/>
@@ -4347,7 +4533,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="G21" s="6">
         <v>0</v>
@@ -4360,7 +4546,7 @@
       </c>
       <c r="J21" s="6"/>
       <c r="K21" s="16" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="L21" s="17"/>
       <c r="M21" s="18"/>
@@ -4385,7 +4571,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="G22" s="7">
         <v>20</v>
@@ -4398,7 +4584,7 @@
       </c>
       <c r="J22" s="7"/>
       <c r="K22" s="16" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="L22" s="20"/>
       <c r="M22" s="5"/>

--- a/excels/config/difficulty_config.xlsx
+++ b/excels/config/difficulty_config.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18285" windowHeight="10155" tabRatio="804"/>
+    <workbookView windowWidth="27945" windowHeight="12345" tabRatio="804"/>
   </bookViews>
   <sheets>
-    <sheet name="chapter_1" sheetId="7" r:id="rId1"/>
+    <sheet name="chapter_info" sheetId="7" r:id="rId1"/>
     <sheet name="map_info" sheetId="1" r:id="rId2"/>
     <sheet name="map_info_difficulty" sheetId="5" r:id="rId3"/>
     <sheet name="map_info_round" sheetId="6" r:id="rId4"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="188">
   <si>
     <t>章节编号</t>
   </si>
@@ -70,6 +70,9 @@
     <t>chapter_key</t>
   </si>
   <si>
+    <t>name</t>
+  </si>
+  <si>
     <t>pattern_type</t>
   </si>
   <si>
@@ -88,13 +91,13 @@
     <t>is_initial</t>
   </si>
   <si>
-    <t>z1</t>
+    <t>c1</t>
   </si>
   <si>
     <t>第一章</t>
   </si>
   <si>
-    <t>z2</t>
+    <t>c2</t>
   </si>
   <si>
     <t>第二章</t>
@@ -103,7 +106,7 @@
     <t>1,2</t>
   </si>
   <si>
-    <t>z3</t>
+    <t>c3</t>
   </si>
   <si>
     <t>第三章</t>
@@ -112,7 +115,7 @@
     <t>1,2,3</t>
   </si>
   <si>
-    <t>z4</t>
+    <t>c4</t>
   </si>
   <si>
     <t>第四章</t>
@@ -121,7 +124,7 @@
     <t>1,2,3,4</t>
   </si>
   <si>
-    <t>z5</t>
+    <t>c5</t>
   </si>
   <si>
     <t>第五章</t>
@@ -1648,7 +1651,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1724,12 +1727,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1739,13 +1736,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1943,7 +1937,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{984A15E9-E249-4A1C-B6CB-CAF8DB6ACCE3}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{D85B331F-7657-425F-BEF1-879BD7FAB237}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
@@ -2247,7 +2241,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -2293,68 +2287,70 @@
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="4"/>
+      <c r="B2" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" ht="68" customHeight="1" spans="1:9">
-      <c r="A3" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="26" t="s">
+      <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="26">
+      <c r="B3" s="6">
         <v>1</v>
       </c>
-      <c r="E3" s="26">
+      <c r="C3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="6">
+        <v>1</v>
+      </c>
+      <c r="E3" s="6">
         <v>5</v>
       </c>
-      <c r="F3" s="26">
+      <c r="F3" s="6">
         <v>101</v>
       </c>
-      <c r="G3" s="26">
+      <c r="G3" s="6">
         <v>1</v>
       </c>
-      <c r="H3" s="26">
+      <c r="H3" s="6">
         <v>0</v>
       </c>
-      <c r="I3" s="26">
+      <c r="I3" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="4" ht="68" customHeight="1" spans="1:9">
-      <c r="A4" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="7" t="s">
+      <c r="A4" s="5" t="s">
         <v>19</v>
       </c>
+      <c r="B4" s="7">
+        <v>2</v>
+      </c>
       <c r="C4" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" s="7">
         <v>5</v>
@@ -2373,46 +2369,46 @@
       </c>
     </row>
     <row r="5" ht="68" customHeight="1" spans="1:9">
-      <c r="A5" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="26" t="s">
+      <c r="A5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="26" t="s">
+      <c r="B5" s="6">
+        <v>3</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="26">
+      <c r="D5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="6">
         <v>5</v>
       </c>
-      <c r="F5" s="26">
+      <c r="F5" s="6">
         <v>301</v>
       </c>
-      <c r="G5" s="26">
+      <c r="G5" s="6">
         <v>1</v>
       </c>
-      <c r="H5" s="26">
+      <c r="H5" s="6">
         <v>205</v>
       </c>
-      <c r="I5" s="26">
+      <c r="I5" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="6" ht="68" customHeight="1" spans="1:9">
-      <c r="A6" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="5" t="s">
         <v>25</v>
       </c>
+      <c r="B6" s="7">
+        <v>4</v>
+      </c>
       <c r="C6" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E6" s="7">
         <v>5</v>
@@ -2431,31 +2427,31 @@
       </c>
     </row>
     <row r="7" ht="68" customHeight="1" spans="1:9">
-      <c r="A7" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="26" t="s">
+      <c r="A7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="26" t="s">
+      <c r="B7" s="6">
+        <v>5</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="26">
+      <c r="D7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="6">
         <v>1</v>
       </c>
-      <c r="F7" s="26">
+      <c r="F7" s="6">
         <v>501</v>
       </c>
-      <c r="G7" s="26">
+      <c r="G7" s="6">
         <v>1</v>
       </c>
-      <c r="H7" s="26">
+      <c r="H7" s="6">
         <v>405</v>
       </c>
-      <c r="I7" s="26">
+      <c r="I7" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2477,7 +2473,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="14.5083333333333" customWidth="1"/>
-    <col min="2" max="2" width="27.875" style="34" customWidth="1"/>
+    <col min="2" max="2" width="27.875" style="31" customWidth="1"/>
     <col min="3" max="3" width="22.675" customWidth="1"/>
     <col min="4" max="5" width="13.3416666666667" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
@@ -2485,163 +2481,163 @@
   </cols>
   <sheetData>
     <row r="1" ht="95" customHeight="1" spans="1:7">
-      <c r="A1" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="36" t="s">
+      <c r="A1" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="B1" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="C1" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="D1" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="E1" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="F1" s="35" t="s">
         <v>36</v>
       </c>
+      <c r="G1" s="35" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="2" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A2" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="40" t="s">
+      <c r="A2" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="B2" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="C2" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="D2" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="38" t="s">
+      <c r="E2" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="F2" s="35" t="s">
         <v>43</v>
       </c>
+      <c r="G2" s="35" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="3" ht="51" customHeight="1" spans="1:7">
-      <c r="A3" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="43" t="s">
+      <c r="A3" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="43" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="43">
+      <c r="B3" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="40">
         <v>8192</v>
       </c>
-      <c r="E3" s="44">
+      <c r="E3" s="41">
         <v>8192</v>
       </c>
-      <c r="F3" s="45">
+      <c r="F3" s="42">
         <v>6144</v>
       </c>
-      <c r="G3" s="45">
+      <c r="G3" s="42">
         <v>6144</v>
       </c>
     </row>
     <row r="4" ht="48" customHeight="1" spans="1:7">
-      <c r="A4" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="43" t="s">
+      <c r="A4" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="47">
+      <c r="B4" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="44">
         <v>8192</v>
       </c>
-      <c r="E4" s="48">
+      <c r="E4" s="45">
         <v>8192</v>
       </c>
-      <c r="F4" s="45">
+      <c r="F4" s="42">
         <v>6144</v>
       </c>
-      <c r="G4" s="45">
+      <c r="G4" s="42">
         <v>6144</v>
       </c>
     </row>
     <row r="5" s="21" customFormat="1" ht="55.5" customHeight="1" spans="1:7">
-      <c r="A5" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="43" t="s">
+      <c r="A5" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="43">
+      <c r="B5" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="40">
         <v>8192</v>
       </c>
-      <c r="E5" s="44">
+      <c r="E5" s="41">
         <v>8192</v>
       </c>
-      <c r="F5" s="45">
+      <c r="F5" s="42">
         <v>6144</v>
       </c>
-      <c r="G5" s="45">
+      <c r="G5" s="42">
         <v>6144</v>
       </c>
     </row>
     <row r="6" s="21" customFormat="1" ht="55.5" customHeight="1" spans="1:7">
-      <c r="A6" s="46" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" s="43" t="s">
+      <c r="A6" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="47">
+      <c r="B6" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="44">
         <v>8192</v>
       </c>
-      <c r="E6" s="48">
+      <c r="E6" s="45">
         <v>8192</v>
       </c>
-      <c r="F6" s="45">
+      <c r="F6" s="42">
         <v>6144</v>
       </c>
-      <c r="G6" s="45">
+      <c r="G6" s="42">
         <v>6144</v>
       </c>
     </row>
     <row r="7" s="21" customFormat="1" ht="39" customHeight="1" spans="1:7">
-      <c r="A7" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="43" t="s">
+      <c r="A7" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="43" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="43">
+      <c r="B7" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="40">
         <v>8192</v>
       </c>
-      <c r="E7" s="44">
+      <c r="E7" s="41">
         <v>8192</v>
       </c>
-      <c r="F7" s="45">
+      <c r="F7" s="42">
         <v>6144</v>
       </c>
-      <c r="G7" s="45">
+      <c r="G7" s="42">
         <v>6144</v>
       </c>
     </row>
@@ -2655,12 +2651,12 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="C8" sqref="C8"/>
+      <selection pane="topRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2680,127 +2676,127 @@
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" ht="39" customHeight="1" spans="1:12">
       <c r="A2" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" ht="39" customHeight="1" spans="1:12">
-      <c r="A3" s="25">
+      <c r="A3" s="5">
         <v>101</v>
       </c>
-      <c r="B3" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="26">
-        <v>10</v>
-      </c>
-      <c r="E3" s="26">
+      <c r="B3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="6">
+        <v>10</v>
+      </c>
+      <c r="E3" s="6">
         <v>0</v>
       </c>
-      <c r="F3" s="26">
+      <c r="F3" s="6">
         <v>20</v>
       </c>
-      <c r="G3" s="26">
+      <c r="G3" s="6">
         <v>160</v>
       </c>
-      <c r="H3" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="I3" s="26">
-        <v>10</v>
-      </c>
-      <c r="J3" s="26" t="s">
+      <c r="H3" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="K3" s="26" t="s">
+      <c r="I3" s="6">
+        <v>10</v>
+      </c>
+      <c r="J3" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="L3" s="32" t="s">
+      <c r="K3" s="6" t="s">
         <v>76</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="4" ht="39" customHeight="1" spans="1:12">
       <c r="A4" s="18">
         <v>102</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>16</v>
+      <c r="B4" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D4" s="7">
         <v>10</v>
@@ -2815,68 +2811,68 @@
         <v>160</v>
       </c>
       <c r="H4" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="I4" s="7">
+        <v>10</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L4" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="I4" s="7">
-        <v>10</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="L4" s="19" t="s">
-        <v>76</v>
-      </c>
     </row>
     <row r="5" ht="39" customHeight="1" spans="1:12">
-      <c r="A5" s="25">
+      <c r="A5" s="5">
         <v>103</v>
       </c>
-      <c r="B5" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="26">
-        <v>10</v>
-      </c>
-      <c r="E5" s="26">
+      <c r="B5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="6">
+        <v>10</v>
+      </c>
+      <c r="E5" s="6">
         <v>102</v>
       </c>
-      <c r="F5" s="26">
+      <c r="F5" s="6">
         <v>20</v>
       </c>
-      <c r="G5" s="26">
+      <c r="G5" s="6">
         <v>160</v>
       </c>
-      <c r="H5" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="I5" s="26">
-        <v>10</v>
-      </c>
-      <c r="J5" s="26" t="s">
+      <c r="H5" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="K5" s="26" t="s">
+      <c r="I5" s="6">
+        <v>10</v>
+      </c>
+      <c r="J5" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="L5" s="32" t="s">
-        <v>76</v>
+      <c r="K5" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="L5" s="16" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="6" ht="39" customHeight="1" spans="1:12">
       <c r="A6" s="18">
         <v>104</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>16</v>
+      <c r="B6" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D6" s="7">
         <v>10</v>
@@ -2891,57 +2887,57 @@
         <v>160</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I6" s="7">
         <v>10</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L6" s="19" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" ht="39" customHeight="1" spans="1:12">
-      <c r="A7" s="25">
+      <c r="A7" s="5">
         <v>105</v>
       </c>
-      <c r="B7" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="26">
-        <v>10</v>
-      </c>
-      <c r="E7" s="26">
+      <c r="B7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="6">
+        <v>10</v>
+      </c>
+      <c r="E7" s="6">
         <v>104</v>
       </c>
-      <c r="F7" s="26">
+      <c r="F7" s="6">
         <v>20</v>
       </c>
-      <c r="G7" s="26">
+      <c r="G7" s="6">
         <v>160</v>
       </c>
-      <c r="H7" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I7" s="26">
-        <v>10</v>
-      </c>
-      <c r="J7" s="26" t="s">
+      <c r="H7" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="K7" s="26" t="s">
+      <c r="I7" s="6">
+        <v>10</v>
+      </c>
+      <c r="J7" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="L7" s="32" t="s">
-        <v>76</v>
+      <c r="K7" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="L7" s="16" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="8" ht="39" customHeight="1" spans="1:12">
@@ -2949,10 +2945,10 @@
         <v>201</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D8" s="7">
         <v>10</v>
@@ -2967,57 +2963,57 @@
         <v>160</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I8" s="7">
         <v>10</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L8" s="19" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" ht="39" customHeight="1" spans="1:12">
-      <c r="A9" s="25">
+      <c r="A9" s="5">
         <v>202</v>
       </c>
-      <c r="B9" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="26">
-        <v>10</v>
-      </c>
-      <c r="E9" s="26">
+      <c r="B9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="6">
+        <v>10</v>
+      </c>
+      <c r="E9" s="6">
         <v>201</v>
       </c>
-      <c r="F9" s="26">
+      <c r="F9" s="6">
         <v>20</v>
       </c>
-      <c r="G9" s="26">
+      <c r="G9" s="6">
         <v>160</v>
       </c>
-      <c r="H9" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="I9" s="26">
-        <v>10</v>
-      </c>
-      <c r="J9" s="26" t="s">
+      <c r="H9" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="K9" s="26" t="s">
+      <c r="I9" s="6">
+        <v>10</v>
+      </c>
+      <c r="J9" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="L9" s="32" t="s">
-        <v>76</v>
+      <c r="K9" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="10" ht="39" customHeight="1" spans="1:12">
@@ -3025,10 +3021,10 @@
         <v>203</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D10" s="7">
         <v>10</v>
@@ -3043,57 +3039,57 @@
         <v>160</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I10" s="7">
         <v>10</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L10" s="19" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" ht="39" customHeight="1" spans="1:12">
-      <c r="A11" s="25">
+      <c r="A11" s="5">
         <v>204</v>
       </c>
-      <c r="B11" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="26">
-        <v>10</v>
-      </c>
-      <c r="E11" s="26">
+      <c r="B11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="6">
+        <v>10</v>
+      </c>
+      <c r="E11" s="6">
         <v>203</v>
       </c>
-      <c r="F11" s="26">
+      <c r="F11" s="6">
         <v>20</v>
       </c>
-      <c r="G11" s="26">
+      <c r="G11" s="6">
         <v>160</v>
       </c>
-      <c r="H11" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="I11" s="26">
-        <v>10</v>
-      </c>
-      <c r="J11" s="26" t="s">
+      <c r="H11" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="K11" s="26" t="s">
+      <c r="I11" s="6">
+        <v>10</v>
+      </c>
+      <c r="J11" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="L11" s="32" t="s">
-        <v>76</v>
+      <c r="K11" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="12" customFormat="1" ht="39" customHeight="1" spans="1:12">
@@ -3101,10 +3097,10 @@
         <v>205</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D12" s="7">
         <v>10</v>
@@ -3119,68 +3115,68 @@
         <v>160</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I12" s="7">
         <v>10</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L12" s="19" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" s="21" customFormat="1" ht="39" customHeight="1" spans="1:12">
-      <c r="A13" s="25">
+      <c r="A13" s="5">
         <v>301</v>
       </c>
-      <c r="B13" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="26">
-        <v>10</v>
-      </c>
-      <c r="E13" s="26">
+      <c r="B13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="6">
+        <v>10</v>
+      </c>
+      <c r="E13" s="6">
         <v>0</v>
       </c>
-      <c r="F13" s="26">
+      <c r="F13" s="6">
         <v>20</v>
       </c>
-      <c r="G13" s="26">
+      <c r="G13" s="6">
         <v>160</v>
       </c>
-      <c r="H13" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="I13" s="26">
-        <v>10</v>
-      </c>
-      <c r="J13" s="26" t="s">
+      <c r="H13" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="K13" s="26" t="s">
+      <c r="I13" s="6">
+        <v>10</v>
+      </c>
+      <c r="J13" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="L13" s="32" t="s">
-        <v>76</v>
+      <c r="K13" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="L13" s="16" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="14" s="21" customFormat="1" ht="39" customHeight="1" spans="1:12">
       <c r="A14" s="18">
         <v>302</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>48</v>
+      <c r="B14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>49</v>
       </c>
       <c r="D14" s="7">
         <v>10</v>
@@ -3195,68 +3191,68 @@
         <v>160</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I14" s="7">
         <v>10</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L14" s="19" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" s="21" customFormat="1" ht="39" customHeight="1" spans="1:12">
-      <c r="A15" s="25">
+      <c r="A15" s="5">
         <v>303</v>
       </c>
-      <c r="B15" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="26">
-        <v>10</v>
-      </c>
-      <c r="E15" s="26">
+      <c r="B15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="6">
+        <v>10</v>
+      </c>
+      <c r="E15" s="6">
         <v>302</v>
       </c>
-      <c r="F15" s="26">
+      <c r="F15" s="6">
         <v>20</v>
       </c>
-      <c r="G15" s="26">
+      <c r="G15" s="6">
         <v>160</v>
       </c>
-      <c r="H15" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="I15" s="26">
-        <v>10</v>
-      </c>
-      <c r="J15" s="26" t="s">
+      <c r="H15" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="K15" s="26" t="s">
+      <c r="I15" s="6">
+        <v>10</v>
+      </c>
+      <c r="J15" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="L15" s="32" t="s">
-        <v>76</v>
+      <c r="K15" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="L15" s="16" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="16" s="21" customFormat="1" ht="39" customHeight="1" spans="1:12">
       <c r="A16" s="18">
         <v>304</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="28" t="s">
-        <v>48</v>
+      <c r="B16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>49</v>
       </c>
       <c r="D16" s="7">
         <v>10</v>
@@ -3271,57 +3267,57 @@
         <v>160</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I16" s="7">
         <v>10</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L16" s="19" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" s="21" customFormat="1" ht="39" customHeight="1" spans="1:12">
-      <c r="A17" s="25">
+      <c r="A17" s="5">
         <v>305</v>
       </c>
-      <c r="B17" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="26">
-        <v>10</v>
-      </c>
-      <c r="E17" s="26">
+      <c r="B17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="6">
+        <v>10</v>
+      </c>
+      <c r="E17" s="6">
         <v>304</v>
       </c>
-      <c r="F17" s="26">
+      <c r="F17" s="6">
         <v>20</v>
       </c>
-      <c r="G17" s="26">
+      <c r="G17" s="6">
         <v>160</v>
       </c>
-      <c r="H17" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="I17" s="26">
-        <v>10</v>
-      </c>
-      <c r="J17" s="26" t="s">
+      <c r="H17" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="K17" s="26" t="s">
+      <c r="I17" s="6">
+        <v>10</v>
+      </c>
+      <c r="J17" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="L17" s="32" t="s">
-        <v>76</v>
+      <c r="K17" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="L17" s="16" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="18" s="21" customFormat="1" ht="39" customHeight="1" spans="1:12">
@@ -3329,10 +3325,10 @@
         <v>401</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="28" t="s">
-        <v>50</v>
+        <v>25</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>51</v>
       </c>
       <c r="D18" s="7">
         <v>10</v>
@@ -3347,57 +3343,57 @@
         <v>160</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I18" s="7">
         <v>10</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L18" s="19" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" s="21" customFormat="1" ht="39" customHeight="1" spans="1:12">
-      <c r="A19" s="25">
+      <c r="A19" s="5">
         <v>402</v>
       </c>
-      <c r="B19" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="26">
-        <v>10</v>
-      </c>
-      <c r="E19" s="26">
+      <c r="B19" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="6">
+        <v>10</v>
+      </c>
+      <c r="E19" s="6">
         <v>401</v>
       </c>
-      <c r="F19" s="26">
+      <c r="F19" s="6">
         <v>20</v>
       </c>
-      <c r="G19" s="26">
+      <c r="G19" s="6">
         <v>160</v>
       </c>
-      <c r="H19" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="I19" s="26">
-        <v>10</v>
-      </c>
-      <c r="J19" s="26" t="s">
+      <c r="H19" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="K19" s="26" t="s">
+      <c r="I19" s="6">
+        <v>10</v>
+      </c>
+      <c r="J19" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="L19" s="32" t="s">
-        <v>76</v>
+      <c r="K19" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="L19" s="16" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="20" s="21" customFormat="1" ht="39" customHeight="1" spans="1:12">
@@ -3405,10 +3401,10 @@
         <v>403</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="28" t="s">
-        <v>50</v>
+        <v>25</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>51</v>
       </c>
       <c r="D20" s="7">
         <v>10</v>
@@ -3423,57 +3419,57 @@
         <v>160</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I20" s="7">
         <v>10</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L20" s="19" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" s="21" customFormat="1" ht="39" customHeight="1" spans="1:12">
-      <c r="A21" s="25">
+      <c r="A21" s="5">
         <v>404</v>
       </c>
-      <c r="B21" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" s="26">
-        <v>10</v>
-      </c>
-      <c r="E21" s="26">
+      <c r="B21" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="6">
+        <v>10</v>
+      </c>
+      <c r="E21" s="6">
         <v>403</v>
       </c>
-      <c r="F21" s="26">
+      <c r="F21" s="6">
         <v>20</v>
       </c>
-      <c r="G21" s="26">
+      <c r="G21" s="6">
         <v>160</v>
       </c>
-      <c r="H21" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="I21" s="26">
-        <v>10</v>
-      </c>
-      <c r="J21" s="26" t="s">
+      <c r="H21" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="K21" s="26" t="s">
+      <c r="I21" s="6">
+        <v>10</v>
+      </c>
+      <c r="J21" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="L21" s="32" t="s">
-        <v>76</v>
+      <c r="K21" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="L21" s="16" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="22" s="21" customFormat="1" ht="39" customHeight="1" spans="1:12">
@@ -3481,10 +3477,10 @@
         <v>405</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="28" t="s">
-        <v>50</v>
+        <v>25</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>51</v>
       </c>
       <c r="D22" s="7">
         <v>10</v>
@@ -3499,68 +3495,68 @@
         <v>160</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I22" s="7">
         <v>10</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L22" s="19" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" s="21" customFormat="1" ht="39" customHeight="1" spans="1:12">
-      <c r="A23" s="25">
+      <c r="A23" s="5">
         <v>501</v>
       </c>
-      <c r="B23" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="D23" s="26">
-        <v>10</v>
-      </c>
-      <c r="E23" s="26">
+      <c r="B23" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="6">
+        <v>10</v>
+      </c>
+      <c r="E23" s="6">
         <v>0</v>
       </c>
-      <c r="F23" s="26">
+      <c r="F23" s="6">
         <v>20</v>
       </c>
-      <c r="G23" s="26">
+      <c r="G23" s="6">
         <v>160</v>
       </c>
-      <c r="H23" s="26" t="s">
-        <v>134</v>
-      </c>
-      <c r="I23" s="26">
-        <v>10</v>
-      </c>
-      <c r="J23" s="26" t="s">
+      <c r="H23" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="K23" s="26" t="s">
+      <c r="I23" s="6">
+        <v>10</v>
+      </c>
+      <c r="J23" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="L23" s="32" t="s">
-        <v>76</v>
+      <c r="K23" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="L23" s="16" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="24" s="21" customFormat="1" ht="39" customHeight="1" spans="1:12">
       <c r="A24" s="18">
         <v>502</v>
       </c>
-      <c r="B24" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="28" t="s">
-        <v>52</v>
+      <c r="B24" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>53</v>
       </c>
       <c r="D24" s="7">
         <v>10</v>
@@ -3575,68 +3571,68 @@
         <v>160</v>
       </c>
       <c r="H24" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="I24" s="7">
+        <v>10</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="I24" s="7">
-        <v>10</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" s="21" customFormat="1" ht="39" customHeight="1" spans="1:12">
+      <c r="A25" s="5">
+        <v>503</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="6">
+        <v>10</v>
+      </c>
+      <c r="E25" s="6">
+        <v>502</v>
+      </c>
+      <c r="F25" s="6">
+        <v>20</v>
+      </c>
+      <c r="G25" s="6">
+        <v>160</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="I25" s="6">
+        <v>10</v>
+      </c>
+      <c r="J25" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="L24" s="19" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="25" s="21" customFormat="1" ht="39" customHeight="1" spans="1:12">
-      <c r="A25" s="25">
-        <v>503</v>
-      </c>
-      <c r="B25" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="D25" s="26">
-        <v>10</v>
-      </c>
-      <c r="E25" s="26">
-        <v>502</v>
-      </c>
-      <c r="F25" s="26">
-        <v>20</v>
-      </c>
-      <c r="G25" s="26">
-        <v>160</v>
-      </c>
-      <c r="H25" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="I25" s="26">
-        <v>10</v>
-      </c>
-      <c r="J25" s="26" t="s">
-        <v>135</v>
-      </c>
-      <c r="K25" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="L25" s="32" t="s">
-        <v>76</v>
+      <c r="K25" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="L25" s="16" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="26" s="21" customFormat="1" ht="39" customHeight="1" spans="1:12">
       <c r="A26" s="18">
         <v>504</v>
       </c>
-      <c r="B26" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="28" t="s">
-        <v>52</v>
+      <c r="B26" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>53</v>
       </c>
       <c r="D26" s="7">
         <v>10</v>
@@ -3651,59 +3647,60 @@
         <v>160</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I26" s="7">
         <v>10</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L26" s="19" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" s="21" customFormat="1" ht="39" customHeight="1" spans="1:12">
-      <c r="A27" s="29">
+      <c r="A27" s="27">
         <v>505</v>
       </c>
-      <c r="B27" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="D27" s="30">
-        <v>10</v>
-      </c>
-      <c r="E27" s="30">
+      <c r="B27" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="29">
+        <v>10</v>
+      </c>
+      <c r="E27" s="29">
         <v>504</v>
       </c>
-      <c r="F27" s="30">
+      <c r="F27" s="29">
         <v>20</v>
       </c>
-      <c r="G27" s="30">
+      <c r="G27" s="29">
         <v>160</v>
       </c>
-      <c r="H27" s="30" t="s">
-        <v>140</v>
-      </c>
-      <c r="I27" s="30">
-        <v>10</v>
-      </c>
-      <c r="J27" s="30" t="s">
+      <c r="H27" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="K27" s="30" t="s">
+      <c r="I27" s="29">
+        <v>10</v>
+      </c>
+      <c r="J27" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="L27" s="33" t="s">
-        <v>76</v>
-      </c>
-    </row>
+      <c r="K27" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="L27" s="30" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" ht="14.25"/>
   </sheetData>
   <conditionalFormatting sqref="D$1:D$1048576">
     <cfRule type="cellIs" dxfId="0" priority="19" operator="equal">
@@ -3749,87 +3746,87 @@
   <sheetData>
     <row r="1" ht="60" customHeight="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K1" s="8"/>
       <c r="L1" s="9"/>
       <c r="M1" s="10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N1" s="10"/>
     </row>
     <row r="2" ht="43" customHeight="1" spans="1:15">
       <c r="A2" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K2" s="11">
         <v>1</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N2" s="14">
         <v>1</v>
       </c>
       <c r="O2" s="15" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" ht="22.5" customHeight="1" spans="1:14">
@@ -3849,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G3" s="6">
         <v>15</v>
@@ -3862,7 +3859,7 @@
       </c>
       <c r="J3" s="6"/>
       <c r="K3" s="16" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L3" s="17"/>
       <c r="M3" s="18"/>
@@ -3887,7 +3884,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G4" s="7">
         <v>0</v>
@@ -3900,7 +3897,7 @@
       </c>
       <c r="J4" s="7"/>
       <c r="K4" s="16" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L4" s="20"/>
       <c r="M4" s="5"/>
@@ -3925,7 +3922,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
@@ -3938,7 +3935,7 @@
       </c>
       <c r="J5" s="6"/>
       <c r="K5" s="16" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L5" s="17"/>
       <c r="M5" s="18"/>
@@ -3963,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G6" s="7">
         <v>0</v>
@@ -3976,7 +3973,7 @@
       </c>
       <c r="J6" s="7"/>
       <c r="K6" s="16" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L6" s="20"/>
       <c r="M6" s="5"/>
@@ -4001,7 +3998,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G7" s="6">
         <v>20</v>
@@ -4014,7 +4011,7 @@
       </c>
       <c r="J7" s="6"/>
       <c r="K7" s="16" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L7" s="17"/>
       <c r="M7" s="18"/>
@@ -4039,7 +4036,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G8" s="7">
         <v>0</v>
@@ -4052,7 +4049,7 @@
       </c>
       <c r="J8" s="7"/>
       <c r="K8" s="16" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L8" s="20"/>
       <c r="M8" s="5"/>
@@ -4077,7 +4074,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G9" s="6">
         <v>0</v>
@@ -4090,7 +4087,7 @@
       </c>
       <c r="J9" s="6"/>
       <c r="K9" s="16" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L9" s="17"/>
       <c r="M9" s="18"/>
@@ -4115,7 +4112,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G10" s="7">
         <v>0</v>
@@ -4128,7 +4125,7 @@
       </c>
       <c r="J10" s="7"/>
       <c r="K10" s="16" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L10" s="20"/>
       <c r="M10" s="5"/>
@@ -4153,7 +4150,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G11" s="6">
         <v>0</v>
@@ -4166,7 +4163,7 @@
       </c>
       <c r="J11" s="6"/>
       <c r="K11" s="16" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L11" s="17"/>
       <c r="M11" s="18"/>
@@ -4191,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G12" s="7">
         <v>20</v>
@@ -4204,7 +4201,7 @@
       </c>
       <c r="J12" s="7"/>
       <c r="K12" s="16" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L12" s="20"/>
       <c r="M12" s="5"/>
@@ -4229,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G13" s="6">
         <v>0</v>
@@ -4242,7 +4239,7 @@
       </c>
       <c r="J13" s="6"/>
       <c r="K13" s="16" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L13" s="17"/>
       <c r="M13" s="18"/>
@@ -4267,7 +4264,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G14" s="7">
         <v>0</v>
@@ -4280,7 +4277,7 @@
       </c>
       <c r="J14" s="7"/>
       <c r="K14" s="16" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L14" s="20"/>
       <c r="M14" s="5"/>
@@ -4305,7 +4302,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G15" s="6">
         <v>0</v>
@@ -4318,7 +4315,7 @@
       </c>
       <c r="J15" s="6"/>
       <c r="K15" s="16" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L15" s="17"/>
       <c r="M15" s="18"/>
@@ -4343,7 +4340,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G16" s="7">
         <v>0</v>
@@ -4356,7 +4353,7 @@
       </c>
       <c r="J16" s="7"/>
       <c r="K16" s="16" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L16" s="20"/>
       <c r="M16" s="5"/>
@@ -4381,7 +4378,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G17" s="6">
         <v>20</v>
@@ -4394,7 +4391,7 @@
       </c>
       <c r="J17" s="6"/>
       <c r="K17" s="16" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L17" s="17"/>
       <c r="M17" s="18"/>
@@ -4419,7 +4416,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G18" s="7">
         <v>0</v>
@@ -4432,7 +4429,7 @@
       </c>
       <c r="J18" s="7"/>
       <c r="K18" s="16" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L18" s="20"/>
       <c r="M18" s="5"/>
@@ -4457,7 +4454,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G19" s="6">
         <v>0</v>
@@ -4470,7 +4467,7 @@
       </c>
       <c r="J19" s="6"/>
       <c r="K19" s="16" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L19" s="17"/>
       <c r="M19" s="18"/>
@@ -4495,7 +4492,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G20" s="7">
         <v>0</v>
@@ -4508,7 +4505,7 @@
       </c>
       <c r="J20" s="7"/>
       <c r="K20" s="16" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L20" s="20"/>
       <c r="M20" s="5"/>
@@ -4533,7 +4530,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G21" s="6">
         <v>0</v>
@@ -4546,7 +4543,7 @@
       </c>
       <c r="J21" s="6"/>
       <c r="K21" s="16" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L21" s="17"/>
       <c r="M21" s="18"/>
@@ -4571,7 +4568,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G22" s="7">
         <v>20</v>
@@ -4584,7 +4581,7 @@
       </c>
       <c r="J22" s="7"/>
       <c r="K22" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L22" s="20"/>
       <c r="M22" s="5"/>

--- a/excels/config/difficulty_config.xlsx
+++ b/excels/config/difficulty_config.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12345" tabRatio="804"/>
+    <workbookView windowWidth="27945" windowHeight="13395" tabRatio="804" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="chapter_info" sheetId="7" r:id="rId1"/>
     <sheet name="map_info" sheetId="1" r:id="rId2"/>
     <sheet name="map_info_difficulty" sheetId="5" r:id="rId3"/>
     <sheet name="map_info_round" sheetId="6" r:id="rId4"/>
+    <sheet name="map_info_endless" sheetId="8" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">map_info_round!$C$1:$C$22</definedName>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="191">
   <si>
     <t>章节编号</t>
   </si>
@@ -602,6 +603,15 @@
   </si>
   <si>
     <t>npc_monster_normal_20</t>
+  </si>
+  <si>
+    <t>无尽编号</t>
+  </si>
+  <si>
+    <t>解锁难度</t>
+  </si>
+  <si>
+    <t>使用的地图</t>
   </si>
 </sst>
 </file>
@@ -625,6 +635,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <color theme="0"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
@@ -661,13 +678,6 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="0"/>
-      <name val="Microsoft YaHei"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1044,7 +1054,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -1056,6 +1066,17 @@
       <left style="thick">
         <color rgb="FF595959"/>
       </left>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF595959"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color theme="0"/>
       </right>
@@ -1090,6 +1111,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color theme="0"/>
       </left>
@@ -1112,6 +1142,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color rgb="FFFFFFFF"/>
       </left>
@@ -1120,6 +1159,34 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF595959"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF5A5A5A"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF5A5A5A"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF5A5A5A"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF5A5A5A"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1151,8 +1218,34 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF595959"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF595959"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF595959"/>
+      </right>
       <top style="thin">
         <color rgb="FF5A5A5A"/>
       </top>
@@ -1162,14 +1255,14 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color theme="0"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF595959"/>
-      </right>
-      <top/>
-      <bottom/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF5A5A5A"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF5A5A5A"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1203,47 +1296,6 @@
       <right/>
       <top style="thin">
         <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF5A5A5A"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF595959"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF595959"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF5A5A5A"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF5A5A5A"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF595959"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF5A5A5A"/>
       </top>
       <bottom style="thin">
         <color rgb="FF5A5A5A"/>
@@ -1527,7 +1579,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="32" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1539,34 +1591,34 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1651,7 +1703,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1661,133 +1713,145 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1937,7 +2001,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{D85B331F-7657-425F-BEF1-879BD7FAB237}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{66D16841-0881-4DA8-AE08-A009654A1F4D}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
@@ -2240,8 +2304,8 @@
   <sheetPr/>
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -2258,200 +2322,200 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" ht="30" spans="1:9">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4" t="s">
+      <c r="B2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" ht="68" customHeight="1" spans="1:9">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="11">
         <v>1</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="11">
         <v>1</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="11">
         <v>5</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="11">
         <v>101</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="11">
         <v>1</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="11">
         <v>0</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="4" ht="68" customHeight="1" spans="1:9">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="14">
         <v>2</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="14">
         <v>5</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="14">
         <v>201</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="14">
         <v>1</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="14">
         <v>105</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="5" ht="68" customHeight="1" spans="1:9">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="11">
         <v>3</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="11">
         <v>5</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="11">
         <v>301</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="11">
         <v>1</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="11">
         <v>205</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="6" ht="68" customHeight="1" spans="1:9">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="14">
         <v>4</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="14">
         <v>5</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="14">
         <v>401</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="14">
         <v>1</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="14">
         <v>305</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="7" ht="68" customHeight="1" spans="1:9">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="11">
         <v>5</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="11">
         <v>1</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="11">
         <v>501</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="11">
         <v>1</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="11">
         <v>405</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="11">
         <v>0</v>
       </c>
     </row>
@@ -2473,7 +2537,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="14.5083333333333" customWidth="1"/>
-    <col min="2" max="2" width="27.875" style="31" customWidth="1"/>
+    <col min="2" max="2" width="27.875" style="35" customWidth="1"/>
     <col min="3" max="3" width="22.675" customWidth="1"/>
     <col min="4" max="5" width="13.3416666666667" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
@@ -2481,163 +2545,163 @@
   </cols>
   <sheetData>
     <row r="1" ht="95" customHeight="1" spans="1:7">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="G1" s="39" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="E2" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="35" t="s">
+      <c r="F2" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="35" t="s">
+      <c r="G2" s="39" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="3" ht="51" customHeight="1" spans="1:7">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="40">
+      <c r="D3" s="44">
         <v>8192</v>
       </c>
-      <c r="E3" s="41">
+      <c r="E3" s="45">
         <v>8192</v>
       </c>
-      <c r="F3" s="42">
+      <c r="F3" s="46">
         <v>6144</v>
       </c>
-      <c r="G3" s="42">
+      <c r="G3" s="46">
         <v>6144</v>
       </c>
     </row>
     <row r="4" ht="48" customHeight="1" spans="1:7">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="44">
+      <c r="D4" s="48">
         <v>8192</v>
       </c>
-      <c r="E4" s="45">
+      <c r="E4" s="49">
         <v>8192</v>
       </c>
-      <c r="F4" s="42">
+      <c r="F4" s="46">
         <v>6144</v>
       </c>
-      <c r="G4" s="42">
+      <c r="G4" s="46">
         <v>6144</v>
       </c>
     </row>
-    <row r="5" s="21" customFormat="1" ht="55.5" customHeight="1" spans="1:7">
-      <c r="A5" s="39" t="s">
+    <row r="5" s="27" customFormat="1" ht="55.5" customHeight="1" spans="1:7">
+      <c r="A5" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="40">
+      <c r="D5" s="44">
         <v>8192</v>
       </c>
-      <c r="E5" s="41">
+      <c r="E5" s="45">
         <v>8192</v>
       </c>
-      <c r="F5" s="42">
+      <c r="F5" s="46">
         <v>6144</v>
       </c>
-      <c r="G5" s="42">
+      <c r="G5" s="46">
         <v>6144</v>
       </c>
     </row>
-    <row r="6" s="21" customFormat="1" ht="55.5" customHeight="1" spans="1:7">
-      <c r="A6" s="43" t="s">
+    <row r="6" s="27" customFormat="1" ht="55.5" customHeight="1" spans="1:7">
+      <c r="A6" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="44">
+      <c r="D6" s="48">
         <v>8192</v>
       </c>
-      <c r="E6" s="45">
+      <c r="E6" s="49">
         <v>8192</v>
       </c>
-      <c r="F6" s="42">
+      <c r="F6" s="46">
         <v>6144</v>
       </c>
-      <c r="G6" s="42">
+      <c r="G6" s="46">
         <v>6144</v>
       </c>
     </row>
-    <row r="7" s="21" customFormat="1" ht="39" customHeight="1" spans="1:7">
-      <c r="A7" s="39" t="s">
+    <row r="7" s="27" customFormat="1" ht="39" customHeight="1" spans="1:7">
+      <c r="A7" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="40">
+      <c r="D7" s="44">
         <v>8192</v>
       </c>
-      <c r="E7" s="41">
+      <c r="E7" s="45">
         <v>8192</v>
       </c>
-      <c r="F7" s="42">
+      <c r="F7" s="46">
         <v>6144</v>
       </c>
-      <c r="G7" s="42">
+      <c r="G7" s="46">
         <v>6144</v>
       </c>
     </row>
@@ -2656,14 +2720,14 @@
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="B2" sqref="B2"/>
+      <selection pane="topRight" activeCell="A1" sqref="$A1:$XFD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="21.675" customWidth="1"/>
     <col min="2" max="2" width="14.5083333333333" customWidth="1"/>
-    <col min="3" max="3" width="21.5166666666667" style="22" customWidth="1"/>
+    <col min="3" max="3" width="21.5166666666667" style="28" customWidth="1"/>
     <col min="4" max="4" width="15.8666666666667" customWidth="1"/>
     <col min="5" max="5" width="21.675" customWidth="1"/>
     <col min="6" max="6" width="14.8416666666667" customWidth="1"/>
@@ -2678,1025 +2742,1025 @@
       <c r="A1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="15" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="2" ht="39" customHeight="1" spans="1:12">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="16" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="3" ht="39" customHeight="1" spans="1:12">
-      <c r="A3" s="5">
+      <c r="A3" s="9">
         <v>101</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="6">
-        <v>10</v>
-      </c>
-      <c r="E3" s="6">
+      <c r="D3" s="11">
+        <v>10</v>
+      </c>
+      <c r="E3" s="11">
         <v>0</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="11">
         <v>20</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="11">
         <v>160</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="I3" s="6">
-        <v>10</v>
-      </c>
-      <c r="J3" s="6" t="s">
+      <c r="I3" s="11">
+        <v>10</v>
+      </c>
+      <c r="J3" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="L3" s="16" t="s">
+      <c r="L3" s="17" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="4" ht="39" customHeight="1" spans="1:12">
-      <c r="A4" s="18">
+      <c r="A4" s="12">
         <v>102</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="7">
-        <v>10</v>
-      </c>
-      <c r="E4" s="7">
+      <c r="D4" s="14">
+        <v>10</v>
+      </c>
+      <c r="E4" s="14">
         <v>101</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="14">
         <v>20</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="14">
         <v>160</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="I4" s="7">
-        <v>10</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="I4" s="14">
+        <v>10</v>
+      </c>
+      <c r="J4" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="L4" s="19" t="s">
+      <c r="L4" s="18" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="5" ht="39" customHeight="1" spans="1:12">
-      <c r="A5" s="5">
+      <c r="A5" s="9">
         <v>103</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="6">
-        <v>10</v>
-      </c>
-      <c r="E5" s="6">
+      <c r="D5" s="11">
+        <v>10</v>
+      </c>
+      <c r="E5" s="11">
         <v>102</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="11">
         <v>20</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="11">
         <v>160</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="I5" s="6">
-        <v>10</v>
-      </c>
-      <c r="J5" s="6" t="s">
+      <c r="I5" s="11">
+        <v>10</v>
+      </c>
+      <c r="J5" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="L5" s="16" t="s">
+      <c r="L5" s="17" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="6" ht="39" customHeight="1" spans="1:12">
-      <c r="A6" s="18">
+      <c r="A6" s="12">
         <v>104</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="7">
-        <v>10</v>
-      </c>
-      <c r="E6" s="7">
+      <c r="D6" s="14">
+        <v>10</v>
+      </c>
+      <c r="E6" s="14">
         <v>103</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="14">
         <v>20</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="14">
         <v>160</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="I6" s="7">
-        <v>10</v>
-      </c>
-      <c r="J6" s="7" t="s">
+      <c r="I6" s="14">
+        <v>10</v>
+      </c>
+      <c r="J6" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="L6" s="19" t="s">
+      <c r="L6" s="18" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="7" ht="39" customHeight="1" spans="1:12">
-      <c r="A7" s="5">
+      <c r="A7" s="9">
         <v>105</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="6">
-        <v>10</v>
-      </c>
-      <c r="E7" s="6">
+      <c r="D7" s="11">
+        <v>10</v>
+      </c>
+      <c r="E7" s="11">
         <v>104</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="11">
         <v>20</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="11">
         <v>160</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="I7" s="6">
-        <v>10</v>
-      </c>
-      <c r="J7" s="6" t="s">
+      <c r="I7" s="11">
+        <v>10</v>
+      </c>
+      <c r="J7" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="L7" s="16" t="s">
+      <c r="L7" s="17" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="8" ht="39" customHeight="1" spans="1:12">
-      <c r="A8" s="18">
+      <c r="A8" s="12">
         <v>201</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="7">
-        <v>10</v>
-      </c>
-      <c r="E8" s="7">
+      <c r="D8" s="14">
+        <v>10</v>
+      </c>
+      <c r="E8" s="14">
         <v>0</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="14">
         <v>20</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="14">
         <v>160</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="I8" s="7">
-        <v>10</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="I8" s="14">
+        <v>10</v>
+      </c>
+      <c r="J8" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="K8" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="L8" s="19" t="s">
+      <c r="L8" s="18" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="9" ht="39" customHeight="1" spans="1:12">
-      <c r="A9" s="5">
+      <c r="A9" s="9">
         <v>202</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="6">
-        <v>10</v>
-      </c>
-      <c r="E9" s="6">
+      <c r="D9" s="11">
+        <v>10</v>
+      </c>
+      <c r="E9" s="11">
         <v>201</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="11">
         <v>20</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="11">
         <v>160</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="I9" s="6">
-        <v>10</v>
-      </c>
-      <c r="J9" s="6" t="s">
+      <c r="I9" s="11">
+        <v>10</v>
+      </c>
+      <c r="J9" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="K9" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="L9" s="16" t="s">
+      <c r="L9" s="17" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="10" ht="39" customHeight="1" spans="1:12">
-      <c r="A10" s="18">
+      <c r="A10" s="12">
         <v>203</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="7">
-        <v>10</v>
-      </c>
-      <c r="E10" s="7">
+      <c r="D10" s="14">
+        <v>10</v>
+      </c>
+      <c r="E10" s="14">
         <v>202</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="14">
         <v>20</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="14">
         <v>160</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="I10" s="7">
-        <v>10</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="I10" s="14">
+        <v>10</v>
+      </c>
+      <c r="J10" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="K10" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="L10" s="19" t="s">
+      <c r="L10" s="18" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="11" ht="39" customHeight="1" spans="1:12">
-      <c r="A11" s="5">
+      <c r="A11" s="9">
         <v>204</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="6">
-        <v>10</v>
-      </c>
-      <c r="E11" s="6">
+      <c r="D11" s="11">
+        <v>10</v>
+      </c>
+      <c r="E11" s="11">
         <v>203</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="11">
         <v>20</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="11">
         <v>160</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="I11" s="6">
-        <v>10</v>
-      </c>
-      <c r="J11" s="6" t="s">
+      <c r="I11" s="11">
+        <v>10</v>
+      </c>
+      <c r="J11" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="K11" s="6" t="s">
+      <c r="K11" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="L11" s="16" t="s">
+      <c r="L11" s="17" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="12" customFormat="1" ht="39" customHeight="1" spans="1:12">
-      <c r="A12" s="18">
+      <c r="A12" s="12">
         <v>205</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="7">
-        <v>10</v>
-      </c>
-      <c r="E12" s="7">
+      <c r="D12" s="14">
+        <v>10</v>
+      </c>
+      <c r="E12" s="14">
         <v>204</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="14">
         <v>20</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="14">
         <v>160</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="I12" s="7">
-        <v>10</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="I12" s="14">
+        <v>10</v>
+      </c>
+      <c r="J12" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="K12" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="L12" s="19" t="s">
+      <c r="L12" s="18" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="13" s="21" customFormat="1" ht="39" customHeight="1" spans="1:12">
-      <c r="A13" s="5">
+    <row r="13" s="27" customFormat="1" ht="39" customHeight="1" spans="1:12">
+      <c r="A13" s="9">
         <v>301</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="6">
-        <v>10</v>
-      </c>
-      <c r="E13" s="6">
+      <c r="D13" s="11">
+        <v>10</v>
+      </c>
+      <c r="E13" s="11">
         <v>0</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="11">
         <v>20</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="11">
         <v>160</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="I13" s="6">
-        <v>10</v>
-      </c>
-      <c r="J13" s="6" t="s">
+      <c r="I13" s="11">
+        <v>10</v>
+      </c>
+      <c r="J13" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="K13" s="6" t="s">
+      <c r="K13" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="L13" s="16" t="s">
+      <c r="L13" s="17" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="14" s="21" customFormat="1" ht="39" customHeight="1" spans="1:12">
-      <c r="A14" s="18">
+    <row r="14" s="27" customFormat="1" ht="39" customHeight="1" spans="1:12">
+      <c r="A14" s="12">
         <v>302</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="7">
-        <v>10</v>
-      </c>
-      <c r="E14" s="7">
+      <c r="D14" s="14">
+        <v>10</v>
+      </c>
+      <c r="E14" s="14">
         <v>301</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="14">
         <v>20</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="14">
         <v>160</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="I14" s="7">
-        <v>10</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="I14" s="14">
+        <v>10</v>
+      </c>
+      <c r="J14" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="K14" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="L14" s="19" t="s">
+      <c r="L14" s="18" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="15" s="21" customFormat="1" ht="39" customHeight="1" spans="1:12">
-      <c r="A15" s="5">
+    <row r="15" s="27" customFormat="1" ht="39" customHeight="1" spans="1:12">
+      <c r="A15" s="9">
         <v>303</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="6">
-        <v>10</v>
-      </c>
-      <c r="E15" s="6">
+      <c r="D15" s="11">
+        <v>10</v>
+      </c>
+      <c r="E15" s="11">
         <v>302</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="11">
         <v>20</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="11">
         <v>160</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="H15" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="I15" s="6">
-        <v>10</v>
-      </c>
-      <c r="J15" s="6" t="s">
+      <c r="I15" s="11">
+        <v>10</v>
+      </c>
+      <c r="J15" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="K15" s="6" t="s">
+      <c r="K15" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="L15" s="16" t="s">
+      <c r="L15" s="17" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="16" s="21" customFormat="1" ht="39" customHeight="1" spans="1:12">
-      <c r="A16" s="18">
+    <row r="16" s="27" customFormat="1" ht="39" customHeight="1" spans="1:12">
+      <c r="A16" s="12">
         <v>304</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="7">
-        <v>10</v>
-      </c>
-      <c r="E16" s="7">
+      <c r="D16" s="14">
+        <v>10</v>
+      </c>
+      <c r="E16" s="14">
         <v>303</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="14">
         <v>20</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="14">
         <v>160</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="I16" s="7">
-        <v>10</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="I16" s="14">
+        <v>10</v>
+      </c>
+      <c r="J16" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="K16" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="L16" s="19" t="s">
+      <c r="L16" s="18" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="17" s="21" customFormat="1" ht="39" customHeight="1" spans="1:12">
-      <c r="A17" s="5">
+    <row r="17" s="27" customFormat="1" ht="39" customHeight="1" spans="1:12">
+      <c r="A17" s="9">
         <v>305</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="6">
-        <v>10</v>
-      </c>
-      <c r="E17" s="6">
+      <c r="D17" s="11">
+        <v>10</v>
+      </c>
+      <c r="E17" s="11">
         <v>304</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="11">
         <v>20</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="11">
         <v>160</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="H17" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="I17" s="6">
-        <v>10</v>
-      </c>
-      <c r="J17" s="6" t="s">
+      <c r="I17" s="11">
+        <v>10</v>
+      </c>
+      <c r="J17" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="K17" s="6" t="s">
+      <c r="K17" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="L17" s="16" t="s">
+      <c r="L17" s="17" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="18" s="21" customFormat="1" ht="39" customHeight="1" spans="1:12">
-      <c r="A18" s="18">
+    <row r="18" s="27" customFormat="1" ht="39" customHeight="1" spans="1:12">
+      <c r="A18" s="12">
         <v>401</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="D18" s="7">
-        <v>10</v>
-      </c>
-      <c r="E18" s="7">
+      <c r="D18" s="14">
+        <v>10</v>
+      </c>
+      <c r="E18" s="14">
         <v>0</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="14">
         <v>20</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="14">
         <v>160</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="H18" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="I18" s="7">
-        <v>10</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="I18" s="14">
+        <v>10</v>
+      </c>
+      <c r="J18" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="K18" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="L18" s="19" t="s">
+      <c r="L18" s="18" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="19" s="21" customFormat="1" ht="39" customHeight="1" spans="1:12">
-      <c r="A19" s="5">
+    <row r="19" s="27" customFormat="1" ht="39" customHeight="1" spans="1:12">
+      <c r="A19" s="9">
         <v>402</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="6">
-        <v>10</v>
-      </c>
-      <c r="E19" s="6">
+      <c r="D19" s="11">
+        <v>10</v>
+      </c>
+      <c r="E19" s="11">
         <v>401</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="11">
         <v>20</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="11">
         <v>160</v>
       </c>
-      <c r="H19" s="6" t="s">
+      <c r="H19" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="I19" s="6">
-        <v>10</v>
-      </c>
-      <c r="J19" s="6" t="s">
+      <c r="I19" s="11">
+        <v>10</v>
+      </c>
+      <c r="J19" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="K19" s="6" t="s">
+      <c r="K19" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="L19" s="16" t="s">
+      <c r="L19" s="17" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="20" s="21" customFormat="1" ht="39" customHeight="1" spans="1:12">
-      <c r="A20" s="18">
+    <row r="20" s="27" customFormat="1" ht="39" customHeight="1" spans="1:12">
+      <c r="A20" s="12">
         <v>403</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="7">
-        <v>10</v>
-      </c>
-      <c r="E20" s="7">
+      <c r="D20" s="14">
+        <v>10</v>
+      </c>
+      <c r="E20" s="14">
         <v>402</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="14">
         <v>20</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="14">
         <v>160</v>
       </c>
-      <c r="H20" s="7" t="s">
+      <c r="H20" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="I20" s="7">
-        <v>10</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="I20" s="14">
+        <v>10</v>
+      </c>
+      <c r="J20" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="K20" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="L20" s="19" t="s">
+      <c r="L20" s="18" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="21" s="21" customFormat="1" ht="39" customHeight="1" spans="1:12">
-      <c r="A21" s="5">
+    <row r="21" s="27" customFormat="1" ht="39" customHeight="1" spans="1:12">
+      <c r="A21" s="9">
         <v>404</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="C21" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="6">
-        <v>10</v>
-      </c>
-      <c r="E21" s="6">
+      <c r="D21" s="11">
+        <v>10</v>
+      </c>
+      <c r="E21" s="11">
         <v>403</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="11">
         <v>20</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="11">
         <v>160</v>
       </c>
-      <c r="H21" s="6" t="s">
+      <c r="H21" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="I21" s="6">
-        <v>10</v>
-      </c>
-      <c r="J21" s="6" t="s">
+      <c r="I21" s="11">
+        <v>10</v>
+      </c>
+      <c r="J21" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="K21" s="6" t="s">
+      <c r="K21" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="L21" s="16" t="s">
+      <c r="L21" s="17" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="22" s="21" customFormat="1" ht="39" customHeight="1" spans="1:12">
-      <c r="A22" s="18">
+    <row r="22" s="27" customFormat="1" ht="39" customHeight="1" spans="1:12">
+      <c r="A22" s="12">
         <v>405</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="7">
-        <v>10</v>
-      </c>
-      <c r="E22" s="7">
+      <c r="D22" s="14">
+        <v>10</v>
+      </c>
+      <c r="E22" s="14">
         <v>404</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="14">
         <v>20</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G22" s="14">
         <v>160</v>
       </c>
-      <c r="H22" s="7" t="s">
+      <c r="H22" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="I22" s="7">
-        <v>10</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="I22" s="14">
+        <v>10</v>
+      </c>
+      <c r="J22" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="K22" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="L22" s="19" t="s">
+      <c r="L22" s="18" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="23" s="21" customFormat="1" ht="39" customHeight="1" spans="1:12">
-      <c r="A23" s="5">
+    <row r="23" s="27" customFormat="1" ht="39" customHeight="1" spans="1:12">
+      <c r="A23" s="9">
         <v>501</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="6">
-        <v>10</v>
-      </c>
-      <c r="E23" s="6">
+      <c r="D23" s="11">
+        <v>10</v>
+      </c>
+      <c r="E23" s="11">
         <v>0</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="11">
         <v>20</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23" s="11">
         <v>160</v>
       </c>
-      <c r="H23" s="6" t="s">
+      <c r="H23" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="I23" s="6">
-        <v>10</v>
-      </c>
-      <c r="J23" s="6" t="s">
+      <c r="I23" s="11">
+        <v>10</v>
+      </c>
+      <c r="J23" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="K23" s="6" t="s">
+      <c r="K23" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="L23" s="16" t="s">
+      <c r="L23" s="17" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="24" s="21" customFormat="1" ht="39" customHeight="1" spans="1:12">
-      <c r="A24" s="18">
+    <row r="24" s="27" customFormat="1" ht="39" customHeight="1" spans="1:12">
+      <c r="A24" s="12">
         <v>502</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="D24" s="7">
-        <v>10</v>
-      </c>
-      <c r="E24" s="7">
+      <c r="D24" s="14">
+        <v>10</v>
+      </c>
+      <c r="E24" s="14">
         <v>501</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="14">
         <v>20</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G24" s="14">
         <v>160</v>
       </c>
-      <c r="H24" s="7" t="s">
+      <c r="H24" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="I24" s="7">
-        <v>10</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="I24" s="14">
+        <v>10</v>
+      </c>
+      <c r="J24" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="K24" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="L24" s="19" t="s">
+      <c r="L24" s="18" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="25" s="21" customFormat="1" ht="39" customHeight="1" spans="1:12">
-      <c r="A25" s="5">
+    <row r="25" s="27" customFormat="1" ht="39" customHeight="1" spans="1:12">
+      <c r="A25" s="9">
         <v>503</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="25" t="s">
+      <c r="C25" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="6">
-        <v>10</v>
-      </c>
-      <c r="E25" s="6">
+      <c r="D25" s="11">
+        <v>10</v>
+      </c>
+      <c r="E25" s="11">
         <v>502</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="11">
         <v>20</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25" s="11">
         <v>160</v>
       </c>
-      <c r="H25" s="6" t="s">
+      <c r="H25" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="I25" s="6">
-        <v>10</v>
-      </c>
-      <c r="J25" s="6" t="s">
+      <c r="I25" s="11">
+        <v>10</v>
+      </c>
+      <c r="J25" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="K25" s="6" t="s">
+      <c r="K25" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="L25" s="16" t="s">
+      <c r="L25" s="17" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="26" s="21" customFormat="1" ht="39" customHeight="1" spans="1:12">
-      <c r="A26" s="18">
+    <row r="26" s="27" customFormat="1" ht="39" customHeight="1" spans="1:12">
+      <c r="A26" s="12">
         <v>504</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="7">
-        <v>10</v>
-      </c>
-      <c r="E26" s="7">
+      <c r="D26" s="14">
+        <v>10</v>
+      </c>
+      <c r="E26" s="14">
         <v>503</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26" s="14">
         <v>20</v>
       </c>
-      <c r="G26" s="7">
+      <c r="G26" s="14">
         <v>160</v>
       </c>
-      <c r="H26" s="7" t="s">
+      <c r="H26" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="I26" s="7">
-        <v>10</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="I26" s="14">
+        <v>10</v>
+      </c>
+      <c r="J26" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="K26" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="L26" s="19" t="s">
+      <c r="L26" s="18" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="27" s="21" customFormat="1" ht="39" customHeight="1" spans="1:12">
-      <c r="A27" s="27">
+    <row r="27" s="27" customFormat="1" ht="39" customHeight="1" spans="1:12">
+      <c r="A27" s="31">
         <v>505</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="28" t="s">
+      <c r="C27" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="D27" s="29">
-        <v>10</v>
-      </c>
-      <c r="E27" s="29">
+      <c r="D27" s="33">
+        <v>10</v>
+      </c>
+      <c r="E27" s="33">
         <v>504</v>
       </c>
-      <c r="F27" s="29">
+      <c r="F27" s="33">
         <v>20</v>
       </c>
-      <c r="G27" s="29">
+      <c r="G27" s="33">
         <v>160</v>
       </c>
-      <c r="H27" s="29" t="s">
+      <c r="H27" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="I27" s="29">
-        <v>10</v>
-      </c>
-      <c r="J27" s="29" t="s">
+      <c r="I27" s="33">
+        <v>10</v>
+      </c>
+      <c r="J27" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="K27" s="29" t="s">
+      <c r="K27" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="L27" s="30" t="s">
+      <c r="L27" s="34" t="s">
         <v>77</v>
       </c>
     </row>
@@ -3748,844 +3812,844 @@
       <c r="A1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="K1" s="8"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="10" t="s">
+      <c r="K1" s="15"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="N1" s="10"/>
+      <c r="N1" s="20"/>
     </row>
     <row r="2" ht="43" customHeight="1" spans="1:15">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="K2" s="11">
+      <c r="K2" s="16">
         <v>1</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="M2" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="N2" s="14">
+      <c r="N2" s="23">
         <v>1</v>
       </c>
-      <c r="O2" s="15" t="s">
+      <c r="O2" s="24" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="3" ht="22.5" customHeight="1" spans="1:14">
-      <c r="A3" s="5">
+      <c r="A3" s="9">
         <v>1</v>
       </c>
-      <c r="B3" s="6">
-        <v>10</v>
-      </c>
-      <c r="C3" s="6">
+      <c r="B3" s="11">
+        <v>10</v>
+      </c>
+      <c r="C3" s="11">
         <v>1</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="11">
         <v>1</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="11">
         <v>0</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="11">
         <v>15</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="11">
         <v>2</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="11">
         <v>2</v>
       </c>
-      <c r="J3" s="6"/>
-      <c r="K3" s="16" t="s">
+      <c r="J3" s="11"/>
+      <c r="K3" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="L3" s="17"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="19">
+      <c r="L3" s="25"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="18">
         <v>5</v>
       </c>
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:14">
-      <c r="A4" s="5">
+      <c r="A4" s="9">
         <v>2</v>
       </c>
-      <c r="B4" s="7">
-        <v>10</v>
-      </c>
-      <c r="C4" s="7">
+      <c r="B4" s="14">
+        <v>10</v>
+      </c>
+      <c r="C4" s="14">
         <v>2</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="14">
         <v>1</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="14">
         <v>0</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="14">
         <v>0</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="14">
         <v>2</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="14">
         <v>2</v>
       </c>
-      <c r="J4" s="7"/>
-      <c r="K4" s="16" t="s">
+      <c r="J4" s="14"/>
+      <c r="K4" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="L4" s="20"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="16">
+      <c r="L4" s="26"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="17">
         <v>6</v>
       </c>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:14">
-      <c r="A5" s="5">
+      <c r="A5" s="9">
         <v>3</v>
       </c>
-      <c r="B5" s="6">
-        <v>10</v>
-      </c>
-      <c r="C5" s="6">
+      <c r="B5" s="11">
+        <v>10</v>
+      </c>
+      <c r="C5" s="11">
         <v>3</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="11">
         <v>1</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="11">
         <v>0</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="11">
         <v>0</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="11">
         <v>2</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="11">
         <v>2</v>
       </c>
-      <c r="J5" s="6"/>
-      <c r="K5" s="16" t="s">
+      <c r="J5" s="11"/>
+      <c r="K5" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="L5" s="17"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="19">
+      <c r="L5" s="25"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="18">
         <v>7</v>
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:14">
-      <c r="A6" s="5">
+      <c r="A6" s="9">
         <v>4</v>
       </c>
-      <c r="B6" s="7">
-        <v>10</v>
-      </c>
-      <c r="C6" s="7">
+      <c r="B6" s="14">
+        <v>10</v>
+      </c>
+      <c r="C6" s="14">
         <v>4</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="14">
         <v>5</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="14">
         <v>0</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="14">
         <v>0</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="14">
         <v>2</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="14">
         <v>2</v>
       </c>
-      <c r="J6" s="7"/>
-      <c r="K6" s="16" t="s">
+      <c r="J6" s="14"/>
+      <c r="K6" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="L6" s="20"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="16">
+      <c r="L6" s="26"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="17">
         <v>8</v>
       </c>
     </row>
     <row r="7" ht="22.5" customHeight="1" spans="1:14">
-      <c r="A7" s="5">
+      <c r="A7" s="9">
         <v>5</v>
       </c>
-      <c r="B7" s="6">
-        <v>10</v>
-      </c>
-      <c r="C7" s="6">
+      <c r="B7" s="11">
+        <v>10</v>
+      </c>
+      <c r="C7" s="11">
         <v>5</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="11">
         <v>3</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="11">
         <v>0</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="11">
         <v>20</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="11">
         <v>2</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="11">
         <v>2</v>
       </c>
-      <c r="J7" s="6"/>
-      <c r="K7" s="16" t="s">
+      <c r="J7" s="11"/>
+      <c r="K7" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="L7" s="17"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="19">
+      <c r="L7" s="25"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="18">
         <v>2</v>
       </c>
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:14">
-      <c r="A8" s="5">
+      <c r="A8" s="9">
         <v>6</v>
       </c>
-      <c r="B8" s="7">
-        <v>10</v>
-      </c>
-      <c r="C8" s="7">
+      <c r="B8" s="14">
+        <v>10</v>
+      </c>
+      <c r="C8" s="14">
         <v>6</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="14">
         <v>1</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="14">
         <v>0</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="14">
         <v>0</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="14">
         <v>2</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="14">
         <v>2</v>
       </c>
-      <c r="J8" s="7"/>
-      <c r="K8" s="16" t="s">
+      <c r="J8" s="14"/>
+      <c r="K8" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="L8" s="20"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="16">
+      <c r="L8" s="26"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="17">
         <v>9</v>
       </c>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:14">
-      <c r="A9" s="5">
+      <c r="A9" s="9">
         <v>7</v>
       </c>
-      <c r="B9" s="6">
-        <v>10</v>
-      </c>
-      <c r="C9" s="6">
+      <c r="B9" s="11">
+        <v>10</v>
+      </c>
+      <c r="C9" s="11">
         <v>7</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="11">
         <v>1</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="11">
         <v>0</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="11">
         <v>0</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="11">
         <v>2</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="11">
         <v>2</v>
       </c>
-      <c r="J9" s="6"/>
-      <c r="K9" s="16" t="s">
+      <c r="J9" s="11"/>
+      <c r="K9" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="L9" s="17"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="19">
+      <c r="L9" s="25"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="18">
         <v>9</v>
       </c>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:14">
-      <c r="A10" s="5">
+      <c r="A10" s="9">
         <v>8</v>
       </c>
-      <c r="B10" s="7">
-        <v>10</v>
-      </c>
-      <c r="C10" s="7">
+      <c r="B10" s="14">
+        <v>10</v>
+      </c>
+      <c r="C10" s="14">
         <v>8</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="14">
         <v>1</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="14">
         <v>0</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="14">
         <v>0</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="14">
         <v>2</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="14">
         <v>2</v>
       </c>
-      <c r="J10" s="7"/>
-      <c r="K10" s="16" t="s">
+      <c r="J10" s="14"/>
+      <c r="K10" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="L10" s="20"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="16">
+      <c r="L10" s="26"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="17">
         <v>9</v>
       </c>
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:14">
-      <c r="A11" s="5">
+      <c r="A11" s="9">
         <v>9</v>
       </c>
-      <c r="B11" s="6">
-        <v>10</v>
-      </c>
-      <c r="C11" s="6">
+      <c r="B11" s="11">
+        <v>10</v>
+      </c>
+      <c r="C11" s="11">
         <v>9</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="11">
         <v>1</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="11">
         <v>0</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="11">
         <v>0</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="11">
         <v>2</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="11">
         <v>2</v>
       </c>
-      <c r="J11" s="6"/>
-      <c r="K11" s="16" t="s">
+      <c r="J11" s="11"/>
+      <c r="K11" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="L11" s="17"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="19">
+      <c r="L11" s="25"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="1:14">
-      <c r="A12" s="5">
-        <v>10</v>
-      </c>
-      <c r="B12" s="7">
-        <v>10</v>
-      </c>
-      <c r="C12" s="7">
-        <v>10</v>
-      </c>
-      <c r="D12" s="7">
+      <c r="A12" s="9">
+        <v>10</v>
+      </c>
+      <c r="B12" s="14">
+        <v>10</v>
+      </c>
+      <c r="C12" s="14">
+        <v>10</v>
+      </c>
+      <c r="D12" s="14">
         <v>3</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="14">
         <v>0</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="14">
         <v>20</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="14">
         <v>2</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="14">
         <v>2</v>
       </c>
-      <c r="J12" s="7"/>
-      <c r="K12" s="16" t="s">
+      <c r="J12" s="14"/>
+      <c r="K12" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="L12" s="20"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="16">
+      <c r="L12" s="26"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="17">
         <v>2</v>
       </c>
     </row>
     <row r="13" ht="22.5" customHeight="1" spans="1:14">
-      <c r="A13" s="5">
+      <c r="A13" s="9">
         <v>11</v>
       </c>
-      <c r="B13" s="6">
-        <v>10</v>
-      </c>
-      <c r="C13" s="6">
+      <c r="B13" s="11">
+        <v>10</v>
+      </c>
+      <c r="C13" s="11">
         <v>11</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="11">
         <v>1</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="11">
         <v>0</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="11">
         <v>0</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="11">
         <v>2</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="11">
         <v>2</v>
       </c>
-      <c r="J13" s="6"/>
-      <c r="K13" s="16" t="s">
+      <c r="J13" s="11"/>
+      <c r="K13" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="L13" s="17"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="19">
+      <c r="L13" s="25"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="14" ht="22.5" customHeight="1" spans="1:14">
-      <c r="A14" s="5">
+      <c r="A14" s="9">
         <v>12</v>
       </c>
-      <c r="B14" s="7">
-        <v>10</v>
-      </c>
-      <c r="C14" s="7">
+      <c r="B14" s="14">
+        <v>10</v>
+      </c>
+      <c r="C14" s="14">
         <v>12</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="14">
         <v>1</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="14">
         <v>0</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="14">
         <v>0</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="14">
         <v>2</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="14">
         <v>2</v>
       </c>
-      <c r="J14" s="7"/>
-      <c r="K14" s="16" t="s">
+      <c r="J14" s="14"/>
+      <c r="K14" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="L14" s="20"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="16">
+      <c r="L14" s="26"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="17">
         <v>5</v>
       </c>
     </row>
     <row r="15" ht="22.5" customHeight="1" spans="1:14">
-      <c r="A15" s="5">
+      <c r="A15" s="9">
         <v>13</v>
       </c>
-      <c r="B15" s="6">
-        <v>10</v>
-      </c>
-      <c r="C15" s="6">
+      <c r="B15" s="11">
+        <v>10</v>
+      </c>
+      <c r="C15" s="11">
         <v>13</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="11">
         <v>1</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="11">
         <v>0</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="11">
         <v>0</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="11">
         <v>2</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15" s="11">
         <v>2</v>
       </c>
-      <c r="J15" s="6"/>
-      <c r="K15" s="16" t="s">
+      <c r="J15" s="11"/>
+      <c r="K15" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="L15" s="17"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="19">
+      <c r="L15" s="25"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="16" ht="22.5" customHeight="1" spans="1:14">
-      <c r="A16" s="5">
+      <c r="A16" s="9">
         <v>14</v>
       </c>
-      <c r="B16" s="7">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
+      <c r="B16" s="14">
+        <v>10</v>
+      </c>
+      <c r="C16" s="14">
         <v>14</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="14">
         <v>5</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="14">
         <v>0</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="14">
         <v>0</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="14">
         <v>2</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="14">
         <v>2</v>
       </c>
-      <c r="J16" s="7"/>
-      <c r="K16" s="16" t="s">
+      <c r="J16" s="14"/>
+      <c r="K16" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="L16" s="20"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="16">
+      <c r="L16" s="26"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="17">
         <v>20</v>
       </c>
     </row>
     <row r="17" ht="22.5" customHeight="1" spans="1:14">
-      <c r="A17" s="5">
+      <c r="A17" s="9">
         <v>15</v>
       </c>
-      <c r="B17" s="6">
-        <v>10</v>
-      </c>
-      <c r="C17" s="6">
+      <c r="B17" s="11">
+        <v>10</v>
+      </c>
+      <c r="C17" s="11">
         <v>15</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="11">
         <v>3</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="11">
         <v>0</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="11">
         <v>20</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="11">
         <v>2</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I17" s="11">
         <v>2</v>
       </c>
-      <c r="J17" s="6"/>
-      <c r="K17" s="16" t="s">
+      <c r="J17" s="11"/>
+      <c r="K17" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="L17" s="17"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="19">
+      <c r="L17" s="25"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="18">
         <v>2</v>
       </c>
     </row>
     <row r="18" ht="22.5" customHeight="1" spans="1:14">
-      <c r="A18" s="5">
+      <c r="A18" s="9">
         <v>16</v>
       </c>
-      <c r="B18" s="7">
-        <v>10</v>
-      </c>
-      <c r="C18" s="7">
+      <c r="B18" s="14">
+        <v>10</v>
+      </c>
+      <c r="C18" s="14">
         <v>16</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="14">
         <v>1</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="14">
         <v>0</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="14">
         <v>0</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="14">
         <v>2</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="14">
         <v>2</v>
       </c>
-      <c r="J18" s="7"/>
-      <c r="K18" s="16" t="s">
+      <c r="J18" s="14"/>
+      <c r="K18" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="L18" s="20"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="16">
+      <c r="L18" s="26"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="17">
         <v>12</v>
       </c>
     </row>
     <row r="19" ht="22.5" customHeight="1" spans="1:14">
-      <c r="A19" s="5">
+      <c r="A19" s="9">
         <v>17</v>
       </c>
-      <c r="B19" s="6">
-        <v>10</v>
-      </c>
-      <c r="C19" s="6">
+      <c r="B19" s="11">
+        <v>10</v>
+      </c>
+      <c r="C19" s="11">
         <v>17</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="11">
         <v>1</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="11">
         <v>0</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="11">
         <v>0</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19" s="11">
         <v>2</v>
       </c>
-      <c r="I19" s="6">
+      <c r="I19" s="11">
         <v>2</v>
       </c>
-      <c r="J19" s="6"/>
-      <c r="K19" s="16" t="s">
+      <c r="J19" s="11"/>
+      <c r="K19" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="L19" s="17"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="19">
+      <c r="L19" s="25"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="18">
         <v>3</v>
       </c>
     </row>
     <row r="20" ht="22.5" customHeight="1" spans="1:14">
-      <c r="A20" s="5">
+      <c r="A20" s="9">
         <v>18</v>
       </c>
-      <c r="B20" s="7">
-        <v>10</v>
-      </c>
-      <c r="C20" s="7">
+      <c r="B20" s="14">
+        <v>10</v>
+      </c>
+      <c r="C20" s="14">
         <v>18</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="14">
         <v>5</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="14">
         <v>0</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="14">
         <v>0</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="14">
         <v>2</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I20" s="14">
         <v>2</v>
       </c>
-      <c r="J20" s="7"/>
-      <c r="K20" s="16" t="s">
+      <c r="J20" s="14"/>
+      <c r="K20" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="L20" s="20"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="16">
+      <c r="L20" s="26"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="17">
         <v>20</v>
       </c>
     </row>
     <row r="21" ht="22.5" customHeight="1" spans="1:14">
-      <c r="A21" s="5">
+      <c r="A21" s="9">
         <v>19</v>
       </c>
-      <c r="B21" s="6">
-        <v>10</v>
-      </c>
-      <c r="C21" s="6">
+      <c r="B21" s="11">
+        <v>10</v>
+      </c>
+      <c r="C21" s="11">
         <v>19</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="11">
         <v>5</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="11">
         <v>0</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F21" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="11">
         <v>0</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H21" s="11">
         <v>2</v>
       </c>
-      <c r="I21" s="6">
+      <c r="I21" s="11">
         <v>2</v>
       </c>
-      <c r="J21" s="6"/>
-      <c r="K21" s="16" t="s">
+      <c r="J21" s="11"/>
+      <c r="K21" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="L21" s="17"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="19">
+      <c r="L21" s="25"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="18">
         <v>20</v>
       </c>
     </row>
     <row r="22" ht="22.5" customHeight="1" spans="1:14">
-      <c r="A22" s="5">
+      <c r="A22" s="9">
         <v>20</v>
       </c>
-      <c r="B22" s="7">
-        <v>10</v>
-      </c>
-      <c r="C22" s="7">
+      <c r="B22" s="14">
+        <v>10</v>
+      </c>
+      <c r="C22" s="14">
         <v>20</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="14">
         <v>6</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="14">
         <v>0</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G22" s="14">
         <v>20</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H22" s="14">
         <v>2</v>
       </c>
-      <c r="I22" s="7">
+      <c r="I22" s="14">
         <v>2</v>
       </c>
-      <c r="J22" s="7"/>
-      <c r="K22" s="16" t="s">
+      <c r="J22" s="14"/>
+      <c r="K22" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="L22" s="20"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="16">
+      <c r="L22" s="26"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="17">
         <v>2</v>
       </c>
     </row>
@@ -4624,4 +4688,232 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <cols>
+    <col min="1" max="2" width="17.875" customWidth="1"/>
+    <col min="3" max="3" width="20.75" customWidth="1"/>
+    <col min="4" max="4" width="17.875" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="6" max="6" width="20.875" customWidth="1"/>
+    <col min="7" max="7" width="19.25" customWidth="1"/>
+    <col min="8" max="8" width="17.875" customWidth="1"/>
+    <col min="9" max="9" width="17" customWidth="1"/>
+    <col min="10" max="10" width="21.5" customWidth="1"/>
+    <col min="11" max="11" width="16.875" customWidth="1"/>
+    <col min="12" max="12" width="17.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="39" customHeight="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" ht="39" customHeight="1" spans="1:12">
+      <c r="A2" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" ht="39" customHeight="1" spans="1:12">
+      <c r="A3" s="9">
+        <v>10001</v>
+      </c>
+      <c r="B3" s="10">
+        <v>105</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="11">
+        <v>10</v>
+      </c>
+      <c r="E3" s="11">
+        <v>0</v>
+      </c>
+      <c r="F3" s="11">
+        <v>20</v>
+      </c>
+      <c r="G3" s="11">
+        <v>160</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="I3" s="11">
+        <v>10</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" ht="39" customHeight="1" spans="1:12">
+      <c r="A4" s="12">
+        <v>10002</v>
+      </c>
+      <c r="B4" s="13">
+        <v>205</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="14">
+        <v>10</v>
+      </c>
+      <c r="E4" s="14">
+        <v>101</v>
+      </c>
+      <c r="F4" s="14">
+        <v>20</v>
+      </c>
+      <c r="G4" s="14">
+        <v>160</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="I4" s="14">
+        <v>10</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="L4" s="18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" ht="39" customHeight="1" spans="1:12">
+      <c r="A5" s="9">
+        <v>10003</v>
+      </c>
+      <c r="B5" s="10">
+        <v>305</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="11">
+        <v>10</v>
+      </c>
+      <c r="E5" s="11">
+        <v>102</v>
+      </c>
+      <c r="F5" s="11">
+        <v>20</v>
+      </c>
+      <c r="G5" s="11">
+        <v>160</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="I5" s="11">
+        <v>10</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="L5" s="17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D1:D5">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/excels/config/difficulty_config.xlsx
+++ b/excels/config/difficulty_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="13395" tabRatio="804" activeTab="4"/>
+    <workbookView windowWidth="27945" windowHeight="13395" tabRatio="804" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="chapter_info" sheetId="7" r:id="rId1"/>
@@ -2001,7 +2001,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{66D16841-0881-4DA8-AE08-A009654A1F4D}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{1CE122DB-DA6C-41C8-ABF9-D70361F5A1A8}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
@@ -2305,7 +2305,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -2531,7 +2531,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="6"/>
@@ -2718,14 +2718,14 @@
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="A1" sqref="$A1:$XFD27"/>
+      <selection pane="topRight" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="21.675" customWidth="1"/>
+    <col min="1" max="1" width="18.575" customWidth="1"/>
     <col min="2" max="2" width="14.5083333333333" customWidth="1"/>
     <col min="3" max="3" width="21.5166666666667" style="28" customWidth="1"/>
     <col min="4" max="4" width="15.8666666666667" customWidth="1"/>
@@ -3785,10 +3785,10 @@
   <sheetPr/>
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="F4" sqref="F4"/>
+      <selection pane="topRight" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3913,7 +3913,7 @@
         <v>165</v>
       </c>
       <c r="G3" s="11">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H3" s="11">
         <v>2</v>
@@ -4695,8 +4695,8 @@
   <sheetPr/>
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>

--- a/excels/config/difficulty_config.xlsx
+++ b/excels/config/difficulty_config.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="213">
   <si>
     <t>章节编号</t>
   </si>
@@ -488,6 +488,9 @@
     <t>首领名字</t>
   </si>
   <si>
+    <t>精英怪名字</t>
+  </si>
+  <si>
     <t>时长增加</t>
   </si>
   <si>
@@ -518,6 +521,9 @@
     <t>leader_name</t>
   </si>
   <si>
+    <t>elite_name</t>
+  </si>
+  <si>
     <t>monster_time_add</t>
   </si>
   <si>
@@ -539,67 +545,127 @@
     <t>npc_creature_leader_1</t>
   </si>
   <si>
+    <t>npc_monster_elite_1</t>
+  </si>
+  <si>
     <t>npc_monster_normal_1</t>
   </si>
   <si>
+    <t>npc_monster_elite_2</t>
+  </si>
+  <si>
     <t>npc_monster_normal_2</t>
   </si>
   <si>
+    <t>npc_monster_elite_3</t>
+  </si>
+  <si>
     <t>npc_monster_normal_3</t>
   </si>
   <si>
+    <t>npc_monster_elite_4</t>
+  </si>
+  <si>
     <t>npc_monster_normal_4</t>
   </si>
   <si>
+    <t>npc_monster_elite_5</t>
+  </si>
+  <si>
     <t>npc_monster_normal_5</t>
   </si>
   <si>
     <t>npc_creature_leader_2</t>
   </si>
   <si>
+    <t>npc_monster_elite_6</t>
+  </si>
+  <si>
     <t>npc_monster_normal_6</t>
   </si>
   <si>
+    <t>npc_monster_elite_7</t>
+  </si>
+  <si>
     <t>npc_monster_normal_7</t>
   </si>
   <si>
+    <t>npc_monster_elite_8</t>
+  </si>
+  <si>
     <t>npc_monster_normal_8</t>
   </si>
   <si>
+    <t>npc_monster_elite_9</t>
+  </si>
+  <si>
     <t>npc_monster_normal_9</t>
   </si>
   <si>
+    <t>npc_monster_elite_10</t>
+  </si>
+  <si>
     <t>npc_monster_normal_10</t>
   </si>
   <si>
     <t>npc_creature_leader_3</t>
   </si>
   <si>
+    <t>npc_monster_elite_11</t>
+  </si>
+  <si>
     <t>npc_monster_normal_11</t>
   </si>
   <si>
+    <t>npc_monster_elite_12</t>
+  </si>
+  <si>
     <t>npc_monster_normal_12</t>
   </si>
   <si>
+    <t>npc_monster_elite_13</t>
+  </si>
+  <si>
     <t>npc_monster_normal_13</t>
   </si>
   <si>
+    <t>npc_monster_elite_14</t>
+  </si>
+  <si>
     <t>npc_monster_normal_14</t>
   </si>
   <si>
+    <t>npc_monster_elite_15</t>
+  </si>
+  <si>
     <t>npc_monster_normal_15</t>
   </si>
   <si>
+    <t>npc_monster_elite_16</t>
+  </si>
+  <si>
     <t>npc_monster_normal_16</t>
   </si>
   <si>
+    <t>npc_monster_elite_17</t>
+  </si>
+  <si>
     <t>npc_monster_normal_17</t>
   </si>
   <si>
+    <t>npc_monster_elite_18</t>
+  </si>
+  <si>
     <t>npc_monster_normal_18</t>
   </si>
   <si>
+    <t>npc_monster_elite_19</t>
+  </si>
+  <si>
     <t>npc_monster_normal_19</t>
+  </si>
+  <si>
+    <t>npc_monster_elite_20</t>
   </si>
   <si>
     <t>npc_monster_normal_20</t>
@@ -2001,7 +2067,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{1CE122DB-DA6C-41C8-ABF9-D70361F5A1A8}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{9BA03E15-DA51-48F6-86F3-3BEF2E8A4E60}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
@@ -2305,7 +2371,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -2531,7 +2597,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="6"/>
@@ -2717,10 +2783,10 @@
   <sheetPr/>
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="D1" activePane="topRight" state="frozen"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A4" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="H2" sqref="H2"/>
+      <selection pane="topRight" activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3783,12 +3849,12 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="G7" sqref="G7"/>
+      <selection pane="topRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3796,19 +3862,20 @@
     <col min="1" max="1" width="21.675" customWidth="1"/>
     <col min="2" max="2" width="18.3416666666667" customWidth="1"/>
     <col min="3" max="3" width="16.0083333333333" customWidth="1"/>
-    <col min="4" max="4" width="36.875" customWidth="1"/>
+    <col min="4" max="4" width="34.625" customWidth="1"/>
     <col min="5" max="5" width="16.0083333333333" customWidth="1"/>
     <col min="6" max="6" width="24.8416666666667" customWidth="1"/>
-    <col min="7" max="7" width="23.0083333333333" customWidth="1"/>
-    <col min="8" max="9" width="17.8416666666667" customWidth="1"/>
-    <col min="10" max="10" width="17.5083333333333" customWidth="1"/>
-    <col min="11" max="11" width="26.3416666666667" customWidth="1"/>
-    <col min="12" max="12" width="3.625" customWidth="1"/>
-    <col min="13" max="13" width="23.5083333333333" customWidth="1"/>
-    <col min="14" max="14" width="6.24166666666667" customWidth="1"/>
+    <col min="7" max="7" width="19.125" customWidth="1"/>
+    <col min="8" max="8" width="23.0083333333333" customWidth="1"/>
+    <col min="9" max="10" width="17.8416666666667" customWidth="1"/>
+    <col min="11" max="11" width="17.5083333333333" customWidth="1"/>
+    <col min="12" max="12" width="26.3416666666667" customWidth="1"/>
+    <col min="13" max="13" width="3.625" customWidth="1"/>
+    <col min="14" max="14" width="23.5083333333333" customWidth="1"/>
+    <col min="15" max="15" width="6.24166666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="60" customHeight="1" spans="1:14">
+    <row r="1" ht="60" customHeight="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>55</v>
       </c>
@@ -3839,61 +3906,67 @@
       <c r="J1" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="K1" s="15"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="20" t="s">
+      <c r="K1" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="N1" s="20"/>
-    </row>
-    <row r="2" ht="43" customHeight="1" spans="1:15">
+      <c r="L1" s="15"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="O1" s="20"/>
+    </row>
+    <row r="2" ht="43" customHeight="1" spans="1:16">
       <c r="A2" s="5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>66</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="K2" s="16">
+        <v>163</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="L2" s="16">
         <v>1</v>
       </c>
-      <c r="L2" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="M2" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="N2" s="23">
+      <c r="M2" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="N2" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="O2" s="23">
         <v>1</v>
       </c>
-      <c r="O2" s="24" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="3" ht="22.5" customHeight="1" spans="1:14">
+      <c r="P2" s="24" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3" ht="22.5" customHeight="1" spans="1:15">
       <c r="A3" s="9">
         <v>1</v>
       </c>
@@ -3910,28 +3983,31 @@
         <v>0</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="G3" s="11">
-        <v>0</v>
+        <v>167</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>168</v>
       </c>
       <c r="H3" s="11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" s="11">
         <v>2</v>
       </c>
-      <c r="J3" s="11"/>
-      <c r="K3" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="L3" s="25"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="18">
+      <c r="J3" s="11">
+        <v>2</v>
+      </c>
+      <c r="K3" s="11"/>
+      <c r="L3" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="M3" s="25"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="18">
         <v>5</v>
       </c>
     </row>
-    <row r="4" ht="22.5" customHeight="1" spans="1:14">
+    <row r="4" ht="22.5" customHeight="1" spans="1:15">
       <c r="A4" s="9">
         <v>2</v>
       </c>
@@ -3948,28 +4024,31 @@
         <v>0</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="G4" s="14">
-        <v>0</v>
-      </c>
-      <c r="H4" s="14">
-        <v>2</v>
+        <v>167</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="H4" s="11">
+        <v>0</v>
       </c>
       <c r="I4" s="14">
         <v>2</v>
       </c>
-      <c r="J4" s="14"/>
-      <c r="K4" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="L4" s="26"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="17">
+      <c r="J4" s="14">
+        <v>2</v>
+      </c>
+      <c r="K4" s="14"/>
+      <c r="L4" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="M4" s="26"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="17">
         <v>6</v>
       </c>
     </row>
-    <row r="5" ht="22.5" customHeight="1" spans="1:14">
+    <row r="5" ht="22.5" customHeight="1" spans="1:15">
       <c r="A5" s="9">
         <v>3</v>
       </c>
@@ -3986,28 +4065,31 @@
         <v>0</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="G5" s="11">
-        <v>0</v>
+        <v>167</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>172</v>
       </c>
       <c r="H5" s="11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" s="11">
         <v>2</v>
       </c>
-      <c r="J5" s="11"/>
-      <c r="K5" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="L5" s="25"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="18">
+      <c r="J5" s="11">
+        <v>2</v>
+      </c>
+      <c r="K5" s="11"/>
+      <c r="L5" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="M5" s="25"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="18">
         <v>7</v>
       </c>
     </row>
-    <row r="6" ht="22.5" customHeight="1" spans="1:14">
+    <row r="6" ht="22.5" customHeight="1" spans="1:15">
       <c r="A6" s="9">
         <v>4</v>
       </c>
@@ -4024,28 +4106,31 @@
         <v>0</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="G6" s="14">
-        <v>0</v>
-      </c>
-      <c r="H6" s="14">
-        <v>2</v>
+        <v>167</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="H6" s="11">
+        <v>0</v>
       </c>
       <c r="I6" s="14">
         <v>2</v>
       </c>
-      <c r="J6" s="14"/>
-      <c r="K6" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="L6" s="26"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="17">
+      <c r="J6" s="14">
+        <v>2</v>
+      </c>
+      <c r="K6" s="14"/>
+      <c r="L6" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="M6" s="26"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="17">
         <v>8</v>
       </c>
     </row>
-    <row r="7" ht="22.5" customHeight="1" spans="1:14">
+    <row r="7" ht="22.5" customHeight="1" spans="1:15">
       <c r="A7" s="9">
         <v>5</v>
       </c>
@@ -4062,28 +4147,31 @@
         <v>0</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="G7" s="11">
-        <v>20</v>
+        <v>167</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>176</v>
       </c>
       <c r="H7" s="11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" s="11">
         <v>2</v>
       </c>
-      <c r="J7" s="11"/>
-      <c r="K7" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="L7" s="25"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="18">
+      <c r="J7" s="11">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" ht="22.5" customHeight="1" spans="1:14">
+      <c r="K7" s="11"/>
+      <c r="L7" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="M7" s="25"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" ht="22.5" customHeight="1" spans="1:15">
       <c r="A8" s="9">
         <v>6</v>
       </c>
@@ -4100,28 +4188,31 @@
         <v>0</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="G8" s="14">
-        <v>0</v>
-      </c>
-      <c r="H8" s="14">
-        <v>2</v>
+        <v>178</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="H8" s="11">
+        <v>0</v>
       </c>
       <c r="I8" s="14">
         <v>2</v>
       </c>
-      <c r="J8" s="14"/>
-      <c r="K8" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="L8" s="26"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="17">
+      <c r="J8" s="14">
+        <v>2</v>
+      </c>
+      <c r="K8" s="14"/>
+      <c r="L8" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="M8" s="26"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="17">
         <v>9</v>
       </c>
     </row>
-    <row r="9" ht="22.5" customHeight="1" spans="1:14">
+    <row r="9" ht="22.5" customHeight="1" spans="1:15">
       <c r="A9" s="9">
         <v>7</v>
       </c>
@@ -4138,28 +4229,31 @@
         <v>0</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="G9" s="11">
-        <v>0</v>
+        <v>178</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>181</v>
       </c>
       <c r="H9" s="11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" s="11">
         <v>2</v>
       </c>
-      <c r="J9" s="11"/>
-      <c r="K9" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="L9" s="25"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="18">
+      <c r="J9" s="11">
+        <v>2</v>
+      </c>
+      <c r="K9" s="11"/>
+      <c r="L9" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="M9" s="25"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="18">
         <v>9</v>
       </c>
     </row>
-    <row r="10" ht="22.5" customHeight="1" spans="1:14">
+    <row r="10" ht="22.5" customHeight="1" spans="1:15">
       <c r="A10" s="9">
         <v>8</v>
       </c>
@@ -4176,28 +4270,31 @@
         <v>0</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="G10" s="14">
-        <v>0</v>
-      </c>
-      <c r="H10" s="14">
-        <v>2</v>
+        <v>178</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="H10" s="11">
+        <v>0</v>
       </c>
       <c r="I10" s="14">
         <v>2</v>
       </c>
-      <c r="J10" s="14"/>
-      <c r="K10" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="L10" s="26"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="17">
+      <c r="J10" s="14">
+        <v>2</v>
+      </c>
+      <c r="K10" s="14"/>
+      <c r="L10" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="M10" s="26"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="17">
         <v>9</v>
       </c>
     </row>
-    <row r="11" ht="22.5" customHeight="1" spans="1:14">
+    <row r="11" ht="22.5" customHeight="1" spans="1:15">
       <c r="A11" s="9">
         <v>9</v>
       </c>
@@ -4214,28 +4311,31 @@
         <v>0</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="G11" s="11">
-        <v>0</v>
+        <v>178</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>185</v>
       </c>
       <c r="H11" s="11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" s="11">
         <v>2</v>
       </c>
-      <c r="J11" s="11"/>
-      <c r="K11" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="L11" s="25"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" ht="22.5" customHeight="1" spans="1:14">
+      <c r="J11" s="11">
+        <v>2</v>
+      </c>
+      <c r="K11" s="11"/>
+      <c r="L11" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="M11" s="25"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" ht="22.5" customHeight="1" spans="1:15">
       <c r="A12" s="9">
         <v>10</v>
       </c>
@@ -4252,28 +4352,31 @@
         <v>0</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="G12" s="14">
-        <v>20</v>
-      </c>
-      <c r="H12" s="14">
-        <v>2</v>
+        <v>178</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="H12" s="11">
+        <v>0</v>
       </c>
       <c r="I12" s="14">
         <v>2</v>
       </c>
-      <c r="J12" s="14"/>
-      <c r="K12" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="L12" s="26"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="17">
+      <c r="J12" s="14">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" ht="22.5" customHeight="1" spans="1:14">
+      <c r="K12" s="14"/>
+      <c r="L12" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="M12" s="26"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" ht="22.5" customHeight="1" spans="1:15">
       <c r="A13" s="9">
         <v>11</v>
       </c>
@@ -4290,28 +4393,31 @@
         <v>0</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="G13" s="11">
-        <v>0</v>
+        <v>189</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>190</v>
       </c>
       <c r="H13" s="11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" s="11">
         <v>2</v>
       </c>
-      <c r="J13" s="11"/>
-      <c r="K13" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="L13" s="25"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" ht="22.5" customHeight="1" spans="1:14">
+      <c r="J13" s="11">
+        <v>2</v>
+      </c>
+      <c r="K13" s="11"/>
+      <c r="L13" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="M13" s="25"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" ht="22.5" customHeight="1" spans="1:15">
       <c r="A14" s="9">
         <v>12</v>
       </c>
@@ -4328,28 +4434,31 @@
         <v>0</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="G14" s="14">
-        <v>0</v>
-      </c>
-      <c r="H14" s="14">
-        <v>2</v>
+        <v>189</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="H14" s="11">
+        <v>0</v>
       </c>
       <c r="I14" s="14">
         <v>2</v>
       </c>
-      <c r="J14" s="14"/>
-      <c r="K14" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="L14" s="26"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="17">
+      <c r="J14" s="14">
+        <v>2</v>
+      </c>
+      <c r="K14" s="14"/>
+      <c r="L14" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="M14" s="26"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="17">
         <v>5</v>
       </c>
     </row>
-    <row r="15" ht="22.5" customHeight="1" spans="1:14">
+    <row r="15" ht="22.5" customHeight="1" spans="1:15">
       <c r="A15" s="9">
         <v>13</v>
       </c>
@@ -4366,28 +4475,31 @@
         <v>0</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="G15" s="11">
-        <v>0</v>
+        <v>189</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>194</v>
       </c>
       <c r="H15" s="11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" s="11">
         <v>2</v>
       </c>
-      <c r="J15" s="11"/>
-      <c r="K15" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="L15" s="25"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" ht="22.5" customHeight="1" spans="1:14">
+      <c r="J15" s="11">
+        <v>2</v>
+      </c>
+      <c r="K15" s="11"/>
+      <c r="L15" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="M15" s="25"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" ht="22.5" customHeight="1" spans="1:15">
       <c r="A16" s="9">
         <v>14</v>
       </c>
@@ -4404,28 +4516,31 @@
         <v>0</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="G16" s="14">
-        <v>0</v>
-      </c>
-      <c r="H16" s="14">
-        <v>2</v>
+        <v>189</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="H16" s="11">
+        <v>0</v>
       </c>
       <c r="I16" s="14">
         <v>2</v>
       </c>
-      <c r="J16" s="14"/>
-      <c r="K16" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="L16" s="26"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="17">
+      <c r="J16" s="14">
+        <v>2</v>
+      </c>
+      <c r="K16" s="14"/>
+      <c r="L16" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="M16" s="26"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="17">
         <v>20</v>
       </c>
     </row>
-    <row r="17" ht="22.5" customHeight="1" spans="1:14">
+    <row r="17" ht="22.5" customHeight="1" spans="1:15">
       <c r="A17" s="9">
         <v>15</v>
       </c>
@@ -4442,28 +4557,31 @@
         <v>0</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="G17" s="11">
-        <v>20</v>
+        <v>189</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>198</v>
       </c>
       <c r="H17" s="11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" s="11">
         <v>2</v>
       </c>
-      <c r="J17" s="11"/>
-      <c r="K17" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="L17" s="25"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="18">
+      <c r="J17" s="11">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" ht="22.5" customHeight="1" spans="1:14">
+      <c r="K17" s="11"/>
+      <c r="L17" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="M17" s="25"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" ht="22.5" customHeight="1" spans="1:15">
       <c r="A18" s="9">
         <v>16</v>
       </c>
@@ -4480,28 +4598,31 @@
         <v>0</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="G18" s="14">
-        <v>0</v>
-      </c>
-      <c r="H18" s="14">
-        <v>2</v>
+        <v>189</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="H18" s="11">
+        <v>0</v>
       </c>
       <c r="I18" s="14">
         <v>2</v>
       </c>
-      <c r="J18" s="14"/>
-      <c r="K18" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="L18" s="26"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="17">
+      <c r="J18" s="14">
+        <v>2</v>
+      </c>
+      <c r="K18" s="14"/>
+      <c r="L18" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="M18" s="26"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="17">
         <v>12</v>
       </c>
     </row>
-    <row r="19" ht="22.5" customHeight="1" spans="1:14">
+    <row r="19" ht="22.5" customHeight="1" spans="1:15">
       <c r="A19" s="9">
         <v>17</v>
       </c>
@@ -4518,28 +4639,31 @@
         <v>0</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="G19" s="11">
-        <v>0</v>
+        <v>189</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>202</v>
       </c>
       <c r="H19" s="11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" s="11">
         <v>2</v>
       </c>
-      <c r="J19" s="11"/>
-      <c r="K19" s="17" t="s">
-        <v>184</v>
-      </c>
-      <c r="L19" s="25"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="18">
+      <c r="J19" s="11">
+        <v>2</v>
+      </c>
+      <c r="K19" s="11"/>
+      <c r="L19" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="M19" s="25"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="18">
         <v>3</v>
       </c>
     </row>
-    <row r="20" ht="22.5" customHeight="1" spans="1:14">
+    <row r="20" ht="22.5" customHeight="1" spans="1:15">
       <c r="A20" s="9">
         <v>18</v>
       </c>
@@ -4556,28 +4680,31 @@
         <v>0</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="G20" s="14">
-        <v>0</v>
-      </c>
-      <c r="H20" s="14">
-        <v>2</v>
+        <v>189</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="H20" s="11">
+        <v>0</v>
       </c>
       <c r="I20" s="14">
         <v>2</v>
       </c>
-      <c r="J20" s="14"/>
-      <c r="K20" s="17" t="s">
-        <v>185</v>
-      </c>
-      <c r="L20" s="26"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="17">
+      <c r="J20" s="14">
+        <v>2</v>
+      </c>
+      <c r="K20" s="14"/>
+      <c r="L20" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="M20" s="26"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="17">
         <v>20</v>
       </c>
     </row>
-    <row r="21" ht="22.5" customHeight="1" spans="1:14">
+    <row r="21" ht="22.5" customHeight="1" spans="1:15">
       <c r="A21" s="9">
         <v>19</v>
       </c>
@@ -4594,28 +4721,31 @@
         <v>0</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="G21" s="11">
-        <v>0</v>
+        <v>189</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>206</v>
       </c>
       <c r="H21" s="11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" s="11">
         <v>2</v>
       </c>
-      <c r="J21" s="11"/>
-      <c r="K21" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="L21" s="25"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="18">
+      <c r="J21" s="11">
+        <v>2</v>
+      </c>
+      <c r="K21" s="11"/>
+      <c r="L21" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="M21" s="25"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="18">
         <v>20</v>
       </c>
     </row>
-    <row r="22" ht="22.5" customHeight="1" spans="1:14">
+    <row r="22" ht="22.5" customHeight="1" spans="1:15">
       <c r="A22" s="9">
         <v>20</v>
       </c>
@@ -4632,24 +4762,27 @@
         <v>0</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="G22" s="14">
-        <v>20</v>
-      </c>
-      <c r="H22" s="14">
-        <v>2</v>
+        <v>189</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="H22" s="11">
+        <v>0</v>
       </c>
       <c r="I22" s="14">
         <v>2</v>
       </c>
-      <c r="J22" s="14"/>
-      <c r="K22" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="L22" s="26"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="17">
+      <c r="J22" s="14">
+        <v>2</v>
+      </c>
+      <c r="K22" s="14"/>
+      <c r="L22" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="M22" s="26"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="17">
         <v>2</v>
       </c>
     </row>
@@ -4658,7 +4791,7 @@
     <extLst/>
   </autoFilter>
   <mergeCells count="1">
-    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="N1:O1"/>
   </mergeCells>
   <conditionalFormatting sqref="B$1:B$1048576">
     <cfRule type="colorScale" priority="13">
@@ -4716,13 +4849,13 @@
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>56</v>

--- a/excels/config/difficulty_config.xlsx
+++ b/excels/config/difficulty_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="13395" tabRatio="804" activeTab="3"/>
+    <workbookView windowWidth="27945" windowHeight="12345" tabRatio="804"/>
   </bookViews>
   <sheets>
     <sheet name="chapter_info" sheetId="7" r:id="rId1"/>
@@ -34,12 +34,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="217">
   <si>
     <t>章节编号</t>
   </si>
   <si>
-    <t>章节名字</t>
+    <t>章节索引</t>
+  </si>
+  <si>
+    <t>页码</t>
+  </si>
+  <si>
+    <t>最终关</t>
   </si>
   <si>
     <t>章节介绍</t>
@@ -71,7 +77,13 @@
     <t>chapter_key</t>
   </si>
   <si>
-    <t>name</t>
+    <t>chapter_index</t>
+  </si>
+  <si>
+    <t>in_page</t>
+  </si>
+  <si>
+    <t>is_boss</t>
   </si>
   <si>
     <t>pattern_type</t>
@@ -2067,7 +2079,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{9BA03E15-DA51-48F6-86F3-3BEF2E8A4E60}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{1C6ECC2E-6263-41FA-A8BE-32985F80D2F2}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
@@ -2368,23 +2380,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="15.375" customWidth="1"/>
-    <col min="3" max="3" width="13.75" customWidth="1"/>
-    <col min="4" max="4" width="18.125" customWidth="1"/>
-    <col min="5" max="5" width="16.75" customWidth="1"/>
-    <col min="6" max="9" width="12.625" customWidth="1"/>
+    <col min="2" max="4" width="15.375" customWidth="1"/>
+    <col min="5" max="5" width="13.75" customWidth="1"/>
+    <col min="6" max="6" width="18.125" customWidth="1"/>
+    <col min="7" max="7" width="16.75" customWidth="1"/>
+    <col min="8" max="11" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="122" customHeight="1" spans="1:9">
+    <row r="1" ht="122" customHeight="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2412,176 +2424,218 @@
       <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" ht="30" spans="1:9">
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" ht="30" spans="1:11">
       <c r="A2" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="8"/>
+        <v>12</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="D2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>12</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="E2" s="8"/>
       <c r="F2" s="8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" ht="68" customHeight="1" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" ht="68" customHeight="1" spans="1:11">
       <c r="A3" s="9" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B3" s="11">
         <v>1</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>18</v>
+      <c r="C3" s="11">
+        <v>1</v>
       </c>
       <c r="D3" s="11">
+        <v>0</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="11">
         <v>1</v>
       </c>
-      <c r="E3" s="11">
+      <c r="G3" s="11">
         <v>5</v>
       </c>
-      <c r="F3" s="11">
+      <c r="H3" s="11">
         <v>101</v>
-      </c>
-      <c r="G3" s="11">
-        <v>1</v>
-      </c>
-      <c r="H3" s="11">
-        <v>0</v>
       </c>
       <c r="I3" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" ht="68" customHeight="1" spans="1:9">
+      <c r="J3" s="11">
+        <v>0</v>
+      </c>
+      <c r="K3" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" ht="68" customHeight="1" spans="1:11">
       <c r="A4" s="9" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B4" s="14">
         <v>2</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="14">
+      <c r="C4" s="14">
+        <v>1</v>
+      </c>
+      <c r="D4" s="14">
+        <v>0</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="14">
         <v>5</v>
       </c>
-      <c r="F4" s="14">
+      <c r="H4" s="14">
         <v>201</v>
       </c>
-      <c r="G4" s="14">
+      <c r="I4" s="14">
         <v>1</v>
       </c>
-      <c r="H4" s="14">
+      <c r="J4" s="14">
         <v>105</v>
       </c>
-      <c r="I4" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" ht="68" customHeight="1" spans="1:9">
+      <c r="K4" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" ht="68" customHeight="1" spans="1:11">
       <c r="A5" s="9" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B5" s="11">
         <v>3</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="11">
+      <c r="C5" s="11">
+        <v>1</v>
+      </c>
+      <c r="D5" s="11">
+        <v>1</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="11">
         <v>5</v>
       </c>
-      <c r="F5" s="11">
+      <c r="H5" s="11">
         <v>301</v>
       </c>
-      <c r="G5" s="11">
+      <c r="I5" s="11">
         <v>1</v>
       </c>
-      <c r="H5" s="11">
+      <c r="J5" s="11">
         <v>205</v>
       </c>
-      <c r="I5" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" ht="68" customHeight="1" spans="1:9">
+      <c r="K5" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" ht="68" customHeight="1" spans="1:11">
       <c r="A6" s="9" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B6" s="14">
         <v>4</v>
       </c>
-      <c r="C6" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="14">
+      <c r="C6" s="14">
+        <v>2</v>
+      </c>
+      <c r="D6" s="14">
+        <v>0</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="14">
         <v>5</v>
       </c>
-      <c r="F6" s="14">
+      <c r="H6" s="14">
         <v>401</v>
       </c>
-      <c r="G6" s="14">
+      <c r="I6" s="14">
         <v>1</v>
       </c>
-      <c r="H6" s="14">
+      <c r="J6" s="14">
         <v>305</v>
       </c>
-      <c r="I6" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" ht="68" customHeight="1" spans="1:9">
+      <c r="K6" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" ht="68" customHeight="1" spans="1:11">
       <c r="A7" s="9" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B7" s="11">
         <v>5</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="11">
+      <c r="C7" s="11">
+        <v>2</v>
+      </c>
+      <c r="D7" s="11">
         <v>1</v>
       </c>
-      <c r="F7" s="11">
-        <v>501</v>
+      <c r="E7" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="G7" s="11">
         <v>1</v>
       </c>
       <c r="H7" s="11">
+        <v>501</v>
+      </c>
+      <c r="I7" s="11">
+        <v>1</v>
+      </c>
+      <c r="J7" s="11">
         <v>405</v>
       </c>
-      <c r="I7" s="11">
+      <c r="K7" s="11">
         <v>0</v>
       </c>
     </row>
@@ -2612,59 +2666,59 @@
   <sheetData>
     <row r="1" ht="95" customHeight="1" spans="1:7">
       <c r="A1" s="36" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C1" s="37" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D1" s="37" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E1" s="38" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F1" s="39" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G1" s="39" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" ht="22.5" customHeight="1" spans="1:7">
       <c r="A2" s="40" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C2" s="41" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E2" s="42" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F2" s="39" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G2" s="39" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" ht="51" customHeight="1" spans="1:7">
       <c r="A3" s="43" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B3" s="44" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C3" s="44" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D3" s="44">
         <v>8192</v>
@@ -2681,13 +2735,13 @@
     </row>
     <row r="4" ht="48" customHeight="1" spans="1:7">
       <c r="A4" s="47" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B4" s="44" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C4" s="44" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D4" s="48">
         <v>8192</v>
@@ -2704,13 +2758,13 @@
     </row>
     <row r="5" s="27" customFormat="1" ht="55.5" customHeight="1" spans="1:7">
       <c r="A5" s="43" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B5" s="44" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C5" s="44" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D5" s="44">
         <v>8192</v>
@@ -2727,13 +2781,13 @@
     </row>
     <row r="6" s="27" customFormat="1" ht="55.5" customHeight="1" spans="1:7">
       <c r="A6" s="47" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B6" s="44" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D6" s="48">
         <v>8192</v>
@@ -2750,13 +2804,13 @@
     </row>
     <row r="7" s="27" customFormat="1" ht="39" customHeight="1" spans="1:7">
       <c r="A7" s="43" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B7" s="44" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D7" s="44">
         <v>8192</v>
@@ -2783,10 +2837,10 @@
   <sheetPr/>
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A4" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="G24" sqref="G24"/>
+      <selection pane="topRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2806,78 +2860,78 @@
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" ht="39" customHeight="1" spans="1:12">
       <c r="A2" s="5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="L2" s="16" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" ht="39" customHeight="1" spans="1:12">
@@ -2885,10 +2939,10 @@
         <v>101</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D3" s="11">
         <v>10</v>
@@ -2903,19 +2957,19 @@
         <v>160</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I3" s="11">
         <v>10</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L3" s="17" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" ht="39" customHeight="1" spans="1:12">
@@ -2923,10 +2977,10 @@
         <v>102</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D4" s="14">
         <v>10</v>
@@ -2941,19 +2995,19 @@
         <v>160</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I4" s="14">
         <v>10</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K4" s="14" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L4" s="18" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" ht="39" customHeight="1" spans="1:12">
@@ -2961,10 +3015,10 @@
         <v>103</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D5" s="11">
         <v>10</v>
@@ -2979,19 +3033,19 @@
         <v>160</v>
       </c>
       <c r="H5" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="I5" s="11">
+        <v>10</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="L5" s="17" t="s">
         <v>81</v>
-      </c>
-      <c r="I5" s="11">
-        <v>10</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="L5" s="17" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="6" ht="39" customHeight="1" spans="1:12">
@@ -2999,10 +3053,10 @@
         <v>104</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D6" s="14">
         <v>10</v>
@@ -3017,19 +3071,19 @@
         <v>160</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I6" s="14">
         <v>10</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="K6" s="14" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="L6" s="18" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" ht="39" customHeight="1" spans="1:12">
@@ -3037,10 +3091,10 @@
         <v>105</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D7" s="11">
         <v>10</v>
@@ -3055,19 +3109,19 @@
         <v>160</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="I7" s="11">
         <v>10</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="L7" s="17" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" ht="39" customHeight="1" spans="1:12">
@@ -3075,10 +3129,10 @@
         <v>201</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D8" s="14">
         <v>10</v>
@@ -3093,19 +3147,19 @@
         <v>160</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="I8" s="14">
         <v>10</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="K8" s="14" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="L8" s="18" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" ht="39" customHeight="1" spans="1:12">
@@ -3113,10 +3167,10 @@
         <v>202</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D9" s="11">
         <v>10</v>
@@ -3131,19 +3185,19 @@
         <v>160</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="I9" s="11">
         <v>10</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="L9" s="17" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" ht="39" customHeight="1" spans="1:12">
@@ -3151,10 +3205,10 @@
         <v>203</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D10" s="14">
         <v>10</v>
@@ -3169,19 +3223,19 @@
         <v>160</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="I10" s="14">
         <v>10</v>
       </c>
       <c r="J10" s="14" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="K10" s="14" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="L10" s="18" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" ht="39" customHeight="1" spans="1:12">
@@ -3189,10 +3243,10 @@
         <v>204</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D11" s="11">
         <v>10</v>
@@ -3207,19 +3261,19 @@
         <v>160</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="I11" s="11">
         <v>10</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="L11" s="17" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" customFormat="1" ht="39" customHeight="1" spans="1:12">
@@ -3227,10 +3281,10 @@
         <v>205</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D12" s="14">
         <v>10</v>
@@ -3245,19 +3299,19 @@
         <v>160</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="I12" s="14">
         <v>10</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="K12" s="14" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="L12" s="18" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" s="27" customFormat="1" ht="39" customHeight="1" spans="1:12">
@@ -3265,10 +3319,10 @@
         <v>301</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D13" s="11">
         <v>10</v>
@@ -3283,19 +3337,19 @@
         <v>160</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="I13" s="11">
         <v>10</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="L13" s="17" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" s="27" customFormat="1" ht="39" customHeight="1" spans="1:12">
@@ -3303,10 +3357,10 @@
         <v>302</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D14" s="14">
         <v>10</v>
@@ -3321,19 +3375,19 @@
         <v>160</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="I14" s="14">
         <v>10</v>
       </c>
       <c r="J14" s="14" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="K14" s="14" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="L14" s="18" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" s="27" customFormat="1" ht="39" customHeight="1" spans="1:12">
@@ -3341,10 +3395,10 @@
         <v>303</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D15" s="11">
         <v>10</v>
@@ -3359,19 +3413,19 @@
         <v>160</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="I15" s="11">
         <v>10</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="L15" s="17" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" s="27" customFormat="1" ht="39" customHeight="1" spans="1:12">
@@ -3379,10 +3433,10 @@
         <v>304</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D16" s="14">
         <v>10</v>
@@ -3397,19 +3451,19 @@
         <v>160</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="I16" s="14">
         <v>10</v>
       </c>
       <c r="J16" s="14" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="K16" s="14" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="L16" s="18" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" s="27" customFormat="1" ht="39" customHeight="1" spans="1:12">
@@ -3417,10 +3471,10 @@
         <v>305</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D17" s="11">
         <v>10</v>
@@ -3435,19 +3489,19 @@
         <v>160</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="I17" s="11">
         <v>10</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="K17" s="11" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="L17" s="17" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" s="27" customFormat="1" ht="39" customHeight="1" spans="1:12">
@@ -3455,10 +3509,10 @@
         <v>401</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C18" s="30" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D18" s="14">
         <v>10</v>
@@ -3473,19 +3527,19 @@
         <v>160</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="I18" s="14">
         <v>10</v>
       </c>
       <c r="J18" s="14" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="K18" s="14" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="L18" s="18" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" s="27" customFormat="1" ht="39" customHeight="1" spans="1:12">
@@ -3493,10 +3547,10 @@
         <v>402</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D19" s="11">
         <v>10</v>
@@ -3511,19 +3565,19 @@
         <v>160</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="I19" s="11">
         <v>10</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="K19" s="11" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="L19" s="17" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" s="27" customFormat="1" ht="39" customHeight="1" spans="1:12">
@@ -3531,10 +3585,10 @@
         <v>403</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C20" s="30" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D20" s="14">
         <v>10</v>
@@ -3549,19 +3603,19 @@
         <v>160</v>
       </c>
       <c r="H20" s="14" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="I20" s="14">
         <v>10</v>
       </c>
       <c r="J20" s="14" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="K20" s="14" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="L20" s="18" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" s="27" customFormat="1" ht="39" customHeight="1" spans="1:12">
@@ -3569,10 +3623,10 @@
         <v>404</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D21" s="11">
         <v>10</v>
@@ -3587,19 +3641,19 @@
         <v>160</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="I21" s="11">
         <v>10</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K21" s="11" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="L21" s="17" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" s="27" customFormat="1" ht="39" customHeight="1" spans="1:12">
@@ -3607,10 +3661,10 @@
         <v>405</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D22" s="14">
         <v>10</v>
@@ -3625,19 +3679,19 @@
         <v>160</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="I22" s="14">
         <v>10</v>
       </c>
       <c r="J22" s="14" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="K22" s="14" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="L22" s="18" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" s="27" customFormat="1" ht="39" customHeight="1" spans="1:12">
@@ -3645,10 +3699,10 @@
         <v>501</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D23" s="11">
         <v>10</v>
@@ -3663,19 +3717,19 @@
         <v>160</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="I23" s="11">
         <v>10</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="K23" s="11" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="L23" s="17" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" s="27" customFormat="1" ht="39" customHeight="1" spans="1:12">
@@ -3683,10 +3737,10 @@
         <v>502</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C24" s="30" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D24" s="14">
         <v>10</v>
@@ -3701,19 +3755,19 @@
         <v>160</v>
       </c>
       <c r="H24" s="14" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="I24" s="14">
         <v>10</v>
       </c>
       <c r="J24" s="14" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="K24" s="14" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="L24" s="18" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" s="27" customFormat="1" ht="39" customHeight="1" spans="1:12">
@@ -3721,10 +3775,10 @@
         <v>503</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D25" s="11">
         <v>10</v>
@@ -3739,19 +3793,19 @@
         <v>160</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="I25" s="11">
         <v>10</v>
       </c>
       <c r="J25" s="11" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="K25" s="11" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="L25" s="17" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" s="27" customFormat="1" ht="39" customHeight="1" spans="1:12">
@@ -3759,10 +3813,10 @@
         <v>504</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D26" s="14">
         <v>10</v>
@@ -3777,19 +3831,19 @@
         <v>160</v>
       </c>
       <c r="H26" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="I26" s="14">
+        <v>10</v>
+      </c>
+      <c r="J26" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="I26" s="14">
-        <v>10</v>
-      </c>
-      <c r="J26" s="14" t="s">
-        <v>136</v>
-      </c>
       <c r="K26" s="14" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="L26" s="18" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" s="27" customFormat="1" ht="39" customHeight="1" spans="1:12">
@@ -3797,10 +3851,10 @@
         <v>505</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C27" s="32" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D27" s="33">
         <v>10</v>
@@ -3815,19 +3869,19 @@
         <v>160</v>
       </c>
       <c r="H27" s="33" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I27" s="33">
         <v>10</v>
       </c>
       <c r="J27" s="33" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K27" s="33" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="L27" s="34" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" ht="14.25"/>
@@ -3851,7 +3905,7 @@
   <sheetPr/>
   <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
       <selection pane="topRight" activeCell="D9" sqref="D9"/>
@@ -3877,93 +3931,93 @@
   <sheetData>
     <row r="1" ht="60" customHeight="1" spans="1:15">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="L1" s="15"/>
       <c r="M1" s="19"/>
       <c r="N1" s="20" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="O1" s="20"/>
     </row>
     <row r="2" ht="43" customHeight="1" spans="1:16">
       <c r="A2" s="5" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="L2" s="16">
         <v>1</v>
       </c>
       <c r="M2" s="21" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="N2" s="22" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="O2" s="23">
         <v>1</v>
       </c>
       <c r="P2" s="24" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" ht="22.5" customHeight="1" spans="1:15">
@@ -3983,10 +4037,10 @@
         <v>0</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="H3" s="11">
         <v>0</v>
@@ -3999,7 +4053,7 @@
       </c>
       <c r="K3" s="11"/>
       <c r="L3" s="17" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="M3" s="25"/>
       <c r="N3" s="12"/>
@@ -4024,10 +4078,10 @@
         <v>0</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="H4" s="11">
         <v>0</v>
@@ -4040,7 +4094,7 @@
       </c>
       <c r="K4" s="14"/>
       <c r="L4" s="17" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="M4" s="26"/>
       <c r="N4" s="9"/>
@@ -4065,10 +4119,10 @@
         <v>0</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="H5" s="11">
         <v>0</v>
@@ -4081,7 +4135,7 @@
       </c>
       <c r="K5" s="11"/>
       <c r="L5" s="17" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="M5" s="25"/>
       <c r="N5" s="12"/>
@@ -4106,10 +4160,10 @@
         <v>0</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="H6" s="11">
         <v>0</v>
@@ -4122,7 +4176,7 @@
       </c>
       <c r="K6" s="14"/>
       <c r="L6" s="17" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="M6" s="26"/>
       <c r="N6" s="9"/>
@@ -4147,10 +4201,10 @@
         <v>0</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H7" s="11">
         <v>0</v>
@@ -4163,7 +4217,7 @@
       </c>
       <c r="K7" s="11"/>
       <c r="L7" s="17" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="M7" s="25"/>
       <c r="N7" s="12"/>
@@ -4188,10 +4242,10 @@
         <v>0</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="H8" s="11">
         <v>0</v>
@@ -4204,7 +4258,7 @@
       </c>
       <c r="K8" s="14"/>
       <c r="L8" s="17" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="M8" s="26"/>
       <c r="N8" s="9"/>
@@ -4229,10 +4283,10 @@
         <v>0</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="H9" s="11">
         <v>0</v>
@@ -4245,7 +4299,7 @@
       </c>
       <c r="K9" s="11"/>
       <c r="L9" s="17" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="M9" s="25"/>
       <c r="N9" s="12"/>
@@ -4270,10 +4324,10 @@
         <v>0</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="H10" s="11">
         <v>0</v>
@@ -4286,7 +4340,7 @@
       </c>
       <c r="K10" s="14"/>
       <c r="L10" s="17" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="M10" s="26"/>
       <c r="N10" s="9"/>
@@ -4311,10 +4365,10 @@
         <v>0</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="H11" s="11">
         <v>0</v>
@@ -4327,7 +4381,7 @@
       </c>
       <c r="K11" s="11"/>
       <c r="L11" s="17" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="M11" s="25"/>
       <c r="N11" s="12"/>
@@ -4352,10 +4406,10 @@
         <v>0</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="H12" s="11">
         <v>0</v>
@@ -4368,7 +4422,7 @@
       </c>
       <c r="K12" s="14"/>
       <c r="L12" s="17" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="M12" s="26"/>
       <c r="N12" s="9"/>
@@ -4393,10 +4447,10 @@
         <v>0</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="H13" s="11">
         <v>0</v>
@@ -4409,7 +4463,7 @@
       </c>
       <c r="K13" s="11"/>
       <c r="L13" s="17" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="M13" s="25"/>
       <c r="N13" s="12"/>
@@ -4434,10 +4488,10 @@
         <v>0</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="H14" s="11">
         <v>0</v>
@@ -4450,7 +4504,7 @@
       </c>
       <c r="K14" s="14"/>
       <c r="L14" s="17" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="M14" s="26"/>
       <c r="N14" s="9"/>
@@ -4475,10 +4529,10 @@
         <v>0</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="H15" s="11">
         <v>0</v>
@@ -4491,7 +4545,7 @@
       </c>
       <c r="K15" s="11"/>
       <c r="L15" s="17" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="M15" s="25"/>
       <c r="N15" s="12"/>
@@ -4516,10 +4570,10 @@
         <v>0</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="H16" s="11">
         <v>0</v>
@@ -4532,7 +4586,7 @@
       </c>
       <c r="K16" s="14"/>
       <c r="L16" s="17" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="M16" s="26"/>
       <c r="N16" s="9"/>
@@ -4557,10 +4611,10 @@
         <v>0</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H17" s="11">
         <v>0</v>
@@ -4573,7 +4627,7 @@
       </c>
       <c r="K17" s="11"/>
       <c r="L17" s="17" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="M17" s="25"/>
       <c r="N17" s="12"/>
@@ -4598,10 +4652,10 @@
         <v>0</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="H18" s="11">
         <v>0</v>
@@ -4614,7 +4668,7 @@
       </c>
       <c r="K18" s="14"/>
       <c r="L18" s="17" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="M18" s="26"/>
       <c r="N18" s="9"/>
@@ -4639,10 +4693,10 @@
         <v>0</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="H19" s="11">
         <v>0</v>
@@ -4655,7 +4709,7 @@
       </c>
       <c r="K19" s="11"/>
       <c r="L19" s="17" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="M19" s="25"/>
       <c r="N19" s="12"/>
@@ -4680,10 +4734,10 @@
         <v>0</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="H20" s="11">
         <v>0</v>
@@ -4696,7 +4750,7 @@
       </c>
       <c r="K20" s="14"/>
       <c r="L20" s="17" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="M20" s="26"/>
       <c r="N20" s="9"/>
@@ -4721,10 +4775,10 @@
         <v>0</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="H21" s="11">
         <v>0</v>
@@ -4737,7 +4791,7 @@
       </c>
       <c r="K21" s="11"/>
       <c r="L21" s="17" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="M21" s="25"/>
       <c r="N21" s="12"/>
@@ -4762,10 +4816,10 @@
         <v>0</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="H22" s="11">
         <v>0</v>
@@ -4778,7 +4832,7 @@
       </c>
       <c r="K22" s="14"/>
       <c r="L22" s="17" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="M22" s="26"/>
       <c r="N22" s="9"/>
@@ -4849,78 +4903,78 @@
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" ht="39" customHeight="1" spans="1:12">
       <c r="A2" s="5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="L2" s="16" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" ht="39" customHeight="1" spans="1:12">
@@ -4931,7 +4985,7 @@
         <v>105</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D3" s="11">
         <v>10</v>
@@ -4946,19 +5000,19 @@
         <v>160</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I3" s="11">
         <v>10</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L3" s="17" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" ht="39" customHeight="1" spans="1:12">
@@ -4969,7 +5023,7 @@
         <v>205</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D4" s="14">
         <v>10</v>
@@ -4984,19 +5038,19 @@
         <v>160</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I4" s="14">
         <v>10</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K4" s="14" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L4" s="18" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" ht="39" customHeight="1" spans="1:12">
@@ -5007,7 +5061,7 @@
         <v>305</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D5" s="11">
         <v>10</v>
@@ -5022,19 +5076,19 @@
         <v>160</v>
       </c>
       <c r="H5" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="I5" s="11">
+        <v>10</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="L5" s="17" t="s">
         <v>81</v>
-      </c>
-      <c r="I5" s="11">
-        <v>10</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="L5" s="17" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/excels/config/difficulty_config.xlsx
+++ b/excels/config/difficulty_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12345" tabRatio="804"/>
+    <workbookView windowWidth="27945" windowHeight="13395" tabRatio="804" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="chapter_info" sheetId="7" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="221">
   <si>
     <t>章节编号</t>
   </si>
@@ -221,6 +221,12 @@
     <t>地图内容配置编号</t>
   </si>
   <si>
+    <t>区域编号</t>
+  </si>
+  <si>
+    <t>显示难度</t>
+  </si>
+  <si>
     <t>每回合怪物分类</t>
   </si>
   <si>
@@ -249,6 +255,12 @@
   </si>
   <si>
     <t>difficulty_index</t>
+  </si>
+  <si>
+    <t>area_key</t>
+  </si>
+  <si>
+    <t>difficulty</t>
   </si>
   <si>
     <t>round_class</t>
@@ -1781,7 +1793,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1868,6 +1880,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2079,7 +2094,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{1C6ECC2E-6263-41FA-A8BE-32985F80D2F2}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{77D75A24-6326-4027-AAF9-5553287501E6}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
@@ -2382,8 +2397,8 @@
   <sheetPr/>
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -2651,13 +2666,13 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="14.5083333333333" customWidth="1"/>
-    <col min="2" max="2" width="27.875" style="35" customWidth="1"/>
+    <col min="2" max="2" width="27.875" style="36" customWidth="1"/>
     <col min="3" max="3" width="22.675" customWidth="1"/>
     <col min="4" max="5" width="13.3416666666667" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
@@ -2665,163 +2680,163 @@
   </cols>
   <sheetData>
     <row r="1" ht="95" customHeight="1" spans="1:7">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="F1" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="G1" s="40" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="2" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="39" t="s">
+      <c r="F2" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="39" t="s">
+      <c r="G2" s="40" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="3" ht="51" customHeight="1" spans="1:7">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="44">
+      <c r="D3" s="45">
         <v>8192</v>
       </c>
-      <c r="E3" s="45">
+      <c r="E3" s="46">
         <v>8192</v>
       </c>
-      <c r="F3" s="46">
+      <c r="F3" s="47">
         <v>6144</v>
       </c>
-      <c r="G3" s="46">
+      <c r="G3" s="47">
         <v>6144</v>
       </c>
     </row>
     <row r="4" ht="48" customHeight="1" spans="1:7">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="48">
+      <c r="D4" s="49">
         <v>8192</v>
       </c>
-      <c r="E4" s="49">
+      <c r="E4" s="50">
         <v>8192</v>
       </c>
-      <c r="F4" s="46">
+      <c r="F4" s="47">
         <v>6144</v>
       </c>
-      <c r="G4" s="46">
+      <c r="G4" s="47">
         <v>6144</v>
       </c>
     </row>
     <row r="5" s="27" customFormat="1" ht="55.5" customHeight="1" spans="1:7">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="44">
+      <c r="D5" s="45">
         <v>8192</v>
       </c>
-      <c r="E5" s="45">
+      <c r="E5" s="46">
         <v>8192</v>
       </c>
-      <c r="F5" s="46">
+      <c r="F5" s="47">
         <v>6144</v>
       </c>
-      <c r="G5" s="46">
+      <c r="G5" s="47">
         <v>6144</v>
       </c>
     </row>
     <row r="6" s="27" customFormat="1" ht="55.5" customHeight="1" spans="1:7">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="48">
+      <c r="D6" s="49">
         <v>8192</v>
       </c>
-      <c r="E6" s="49">
+      <c r="E6" s="50">
         <v>8192</v>
       </c>
-      <c r="F6" s="46">
+      <c r="F6" s="47">
         <v>6144</v>
       </c>
-      <c r="G6" s="46">
+      <c r="G6" s="47">
         <v>6144</v>
       </c>
     </row>
     <row r="7" s="27" customFormat="1" ht="39" customHeight="1" spans="1:7">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="44" t="s">
+      <c r="C7" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="44">
+      <c r="D7" s="45">
         <v>8192</v>
       </c>
-      <c r="E7" s="45">
+      <c r="E7" s="46">
         <v>8192</v>
       </c>
-      <c r="F7" s="46">
+      <c r="F7" s="47">
         <v>6144</v>
       </c>
-      <c r="G7" s="46">
+      <c r="G7" s="47">
         <v>6144</v>
       </c>
     </row>
@@ -2835,44 +2850,45 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:N59"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="C2" sqref="C2"/>
+      <selection pane="topRight" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="18.575" customWidth="1"/>
     <col min="2" max="2" width="14.5083333333333" customWidth="1"/>
-    <col min="3" max="3" width="21.5166666666667" style="28" customWidth="1"/>
-    <col min="4" max="4" width="15.8666666666667" customWidth="1"/>
-    <col min="5" max="5" width="21.675" customWidth="1"/>
-    <col min="6" max="6" width="14.8416666666667" customWidth="1"/>
-    <col min="7" max="7" width="15.625" customWidth="1"/>
-    <col min="8" max="8" width="24.3416666666667" customWidth="1"/>
-    <col min="9" max="10" width="21.9583333333333" customWidth="1"/>
-    <col min="11" max="11" width="21.7416666666667" customWidth="1"/>
-    <col min="12" max="12" width="19.35" customWidth="1"/>
+    <col min="3" max="4" width="14.5083333333333" customWidth="1"/>
+    <col min="5" max="5" width="21.5166666666667" style="28" customWidth="1"/>
+    <col min="6" max="6" width="15.8666666666667" customWidth="1"/>
+    <col min="7" max="7" width="21.675" customWidth="1"/>
+    <col min="8" max="8" width="14.8416666666667" customWidth="1"/>
+    <col min="9" max="9" width="15.625" customWidth="1"/>
+    <col min="10" max="10" width="24.3416666666667" customWidth="1"/>
+    <col min="11" max="12" width="21.9583333333333" customWidth="1"/>
+    <col min="13" max="13" width="21.7416666666667" customWidth="1"/>
+    <col min="14" max="14" width="19.35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="39" customHeight="1" spans="1:12">
+    <row r="1" ht="39" customHeight="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>61</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>62</v>
@@ -2892,1001 +2908,2527 @@
       <c r="K1" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="4" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="2" ht="39" customHeight="1" spans="1:12">
+      <c r="M1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" ht="39" customHeight="1" spans="1:14">
       <c r="A2" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>72</v>
-      </c>
       <c r="H2" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="L2" s="16" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" ht="39" customHeight="1" spans="1:12">
+        <v>78</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="N2" s="16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" ht="39" customHeight="1" spans="1:14">
       <c r="A3" s="9">
         <v>101</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="11">
+        <v>1</v>
+      </c>
+      <c r="D3" s="11">
+        <v>1</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="11">
-        <v>10</v>
-      </c>
-      <c r="E3" s="11">
+      <c r="F3" s="11">
+        <v>10</v>
+      </c>
+      <c r="G3" s="11">
         <v>0</v>
       </c>
-      <c r="F3" s="11">
+      <c r="H3" s="11">
         <v>20</v>
       </c>
-      <c r="G3" s="11">
+      <c r="I3" s="11">
         <v>160</v>
       </c>
-      <c r="H3" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="I3" s="11">
-        <v>10</v>
-      </c>
       <c r="J3" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="L3" s="17" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" ht="39" customHeight="1" spans="1:12">
-      <c r="A4" s="12">
+        <v>82</v>
+      </c>
+      <c r="K3" s="11">
+        <v>10</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="N3" s="17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" ht="39" customHeight="1" spans="1:14">
+      <c r="A4" s="9">
         <v>102</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="11">
+        <v>1</v>
+      </c>
+      <c r="D4" s="11">
+        <v>2</v>
+      </c>
+      <c r="E4" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="14">
-        <v>10</v>
-      </c>
-      <c r="E4" s="14">
+      <c r="F4" s="14">
+        <v>10</v>
+      </c>
+      <c r="G4" s="14">
         <v>101</v>
       </c>
-      <c r="F4" s="14">
+      <c r="H4" s="14">
         <v>20</v>
       </c>
-      <c r="G4" s="14">
+      <c r="I4" s="14">
         <v>160</v>
       </c>
-      <c r="H4" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="I4" s="14">
-        <v>10</v>
-      </c>
       <c r="J4" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="K4" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="L4" s="18" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" ht="39" customHeight="1" spans="1:12">
+        <v>86</v>
+      </c>
+      <c r="K4" s="14">
+        <v>10</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="M4" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="N4" s="18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" ht="39" customHeight="1" spans="1:14">
       <c r="A5" s="9">
         <v>103</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="11">
+        <v>1</v>
+      </c>
+      <c r="D5" s="11">
+        <v>3</v>
+      </c>
+      <c r="E5" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="11">
-        <v>10</v>
-      </c>
-      <c r="E5" s="11">
+      <c r="F5" s="11">
+        <v>10</v>
+      </c>
+      <c r="G5" s="14">
         <v>102</v>
       </c>
-      <c r="F5" s="11">
+      <c r="H5" s="11">
         <v>20</v>
       </c>
-      <c r="G5" s="11">
+      <c r="I5" s="11">
         <v>160</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="J5" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="K5" s="11">
+        <v>10</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="M5" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="N5" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="I5" s="11">
-        <v>10</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="L5" s="17" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" ht="39" customHeight="1" spans="1:12">
-      <c r="A6" s="12">
+    </row>
+    <row r="6" ht="39" customHeight="1" spans="1:14">
+      <c r="A6" s="9">
         <v>104</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="11">
+        <v>1</v>
+      </c>
+      <c r="D6" s="11">
+        <v>4</v>
+      </c>
+      <c r="E6" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="14">
-        <v>10</v>
-      </c>
-      <c r="E6" s="14">
+      <c r="F6" s="14">
+        <v>10</v>
+      </c>
+      <c r="G6" s="14">
         <v>103</v>
       </c>
-      <c r="F6" s="14">
+      <c r="H6" s="14">
         <v>20</v>
       </c>
-      <c r="G6" s="14">
+      <c r="I6" s="14">
         <v>160</v>
       </c>
-      <c r="H6" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="I6" s="14">
-        <v>10</v>
-      </c>
       <c r="J6" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="K6" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="L6" s="18" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" ht="39" customHeight="1" spans="1:12">
+        <v>92</v>
+      </c>
+      <c r="K6" s="14">
+        <v>10</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="M6" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="N6" s="18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" ht="39" customHeight="1" spans="1:14">
       <c r="A7" s="9">
         <v>105</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="11">
+        <v>1</v>
+      </c>
+      <c r="D7" s="11">
+        <v>5</v>
+      </c>
+      <c r="E7" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="11">
-        <v>10</v>
-      </c>
-      <c r="E7" s="11">
+      <c r="F7" s="11">
+        <v>10</v>
+      </c>
+      <c r="G7" s="14">
         <v>104</v>
       </c>
-      <c r="F7" s="11">
+      <c r="H7" s="11">
         <v>20</v>
       </c>
-      <c r="G7" s="11">
+      <c r="I7" s="11">
         <v>160</v>
       </c>
-      <c r="H7" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="I7" s="11">
-        <v>10</v>
-      </c>
       <c r="J7" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="K7" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="L7" s="17" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" ht="39" customHeight="1" spans="1:12">
-      <c r="A8" s="12">
+        <v>95</v>
+      </c>
+      <c r="K7" s="11">
+        <v>10</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="N7" s="17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" ht="39" customHeight="1" spans="1:14">
+      <c r="A8" s="9">
+        <v>106</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="11">
+        <v>1</v>
+      </c>
+      <c r="D8" s="11">
+        <v>6</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="11">
+        <v>10</v>
+      </c>
+      <c r="G8" s="14">
+        <v>105</v>
+      </c>
+      <c r="H8" s="11">
+        <v>20</v>
+      </c>
+      <c r="I8" s="11">
+        <v>160</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K8" s="11">
+        <v>10</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="M8" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="N8" s="17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" ht="39" customHeight="1" spans="1:14">
+      <c r="A9" s="9">
+        <v>107</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="11">
+        <v>1</v>
+      </c>
+      <c r="D9" s="11">
+        <v>7</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="11">
+        <v>10</v>
+      </c>
+      <c r="G9" s="14">
+        <v>106</v>
+      </c>
+      <c r="H9" s="11">
+        <v>20</v>
+      </c>
+      <c r="I9" s="11">
+        <v>160</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K9" s="11">
+        <v>10</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="M9" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="N9" s="17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" ht="39" customHeight="1" spans="1:14">
+      <c r="A10" s="9">
+        <v>108</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="11">
+        <v>1</v>
+      </c>
+      <c r="D10" s="11">
+        <v>8</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="11">
+        <v>10</v>
+      </c>
+      <c r="G10" s="14">
+        <v>107</v>
+      </c>
+      <c r="H10" s="11">
+        <v>20</v>
+      </c>
+      <c r="I10" s="11">
+        <v>160</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K10" s="11">
+        <v>10</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="N10" s="17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" ht="39" customHeight="1" spans="1:14">
+      <c r="A11" s="9">
+        <v>109</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="11">
+        <v>2</v>
+      </c>
+      <c r="D11" s="11">
+        <v>1</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="11">
+        <v>10</v>
+      </c>
+      <c r="G11" s="14">
+        <v>108</v>
+      </c>
+      <c r="H11" s="11">
+        <v>20</v>
+      </c>
+      <c r="I11" s="11">
+        <v>160</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K11" s="11">
+        <v>10</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="N11" s="17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" ht="39" customHeight="1" spans="1:14">
+      <c r="A12" s="9">
+        <v>110</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="11">
+        <v>2</v>
+      </c>
+      <c r="D12" s="11">
+        <v>2</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="11">
+        <v>10</v>
+      </c>
+      <c r="G12" s="14">
+        <v>109</v>
+      </c>
+      <c r="H12" s="11">
+        <v>20</v>
+      </c>
+      <c r="I12" s="11">
+        <v>160</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K12" s="11">
+        <v>10</v>
+      </c>
+      <c r="L12" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="M12" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="N12" s="17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" ht="39" customHeight="1" spans="1:14">
+      <c r="A13" s="9">
+        <v>111</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="11">
+        <v>2</v>
+      </c>
+      <c r="D13" s="11">
+        <v>3</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="11">
+        <v>10</v>
+      </c>
+      <c r="G13" s="14">
+        <v>110</v>
+      </c>
+      <c r="H13" s="11">
+        <v>20</v>
+      </c>
+      <c r="I13" s="11">
+        <v>160</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K13" s="11">
+        <v>10</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="M13" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="N13" s="17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" ht="39" customHeight="1" spans="1:14">
+      <c r="A14" s="9">
+        <v>112</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="11">
+        <v>2</v>
+      </c>
+      <c r="D14" s="11">
+        <v>4</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="11">
+        <v>10</v>
+      </c>
+      <c r="G14" s="14">
+        <v>111</v>
+      </c>
+      <c r="H14" s="11">
+        <v>20</v>
+      </c>
+      <c r="I14" s="11">
+        <v>160</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K14" s="11">
+        <v>10</v>
+      </c>
+      <c r="L14" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="M14" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="N14" s="17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" ht="39" customHeight="1" spans="1:14">
+      <c r="A15" s="9">
+        <v>113</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="11">
+        <v>2</v>
+      </c>
+      <c r="D15" s="11">
+        <v>5</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="11">
+        <v>10</v>
+      </c>
+      <c r="G15" s="14">
+        <v>112</v>
+      </c>
+      <c r="H15" s="11">
+        <v>20</v>
+      </c>
+      <c r="I15" s="11">
+        <v>160</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K15" s="11">
+        <v>10</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="M15" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="N15" s="17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" ht="39" customHeight="1" spans="1:14">
+      <c r="A16" s="9">
+        <v>114</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="11">
+        <v>2</v>
+      </c>
+      <c r="D16" s="11">
+        <v>6</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="11">
+        <v>10</v>
+      </c>
+      <c r="G16" s="14">
+        <v>113</v>
+      </c>
+      <c r="H16" s="11">
+        <v>20</v>
+      </c>
+      <c r="I16" s="11">
+        <v>160</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K16" s="11">
+        <v>10</v>
+      </c>
+      <c r="L16" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="M16" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="N16" s="17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" ht="39" customHeight="1" spans="1:14">
+      <c r="A17" s="9">
+        <v>115</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="11">
+        <v>2</v>
+      </c>
+      <c r="D17" s="11">
+        <v>7</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="11">
+        <v>10</v>
+      </c>
+      <c r="G17" s="14">
+        <v>114</v>
+      </c>
+      <c r="H17" s="11">
+        <v>20</v>
+      </c>
+      <c r="I17" s="11">
+        <v>160</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K17" s="11">
+        <v>10</v>
+      </c>
+      <c r="L17" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="M17" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="N17" s="17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" ht="39" customHeight="1" spans="1:14">
+      <c r="A18" s="9">
+        <v>116</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="11">
+        <v>2</v>
+      </c>
+      <c r="D18" s="11">
+        <v>8</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" s="11">
+        <v>10</v>
+      </c>
+      <c r="G18" s="14">
+        <v>115</v>
+      </c>
+      <c r="H18" s="11">
+        <v>20</v>
+      </c>
+      <c r="I18" s="11">
+        <v>160</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K18" s="11">
+        <v>10</v>
+      </c>
+      <c r="L18" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="M18" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="N18" s="17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" ht="39" customHeight="1" spans="1:14">
+      <c r="A19" s="9">
+        <v>117</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="11">
+        <v>3</v>
+      </c>
+      <c r="D19" s="11">
+        <v>1</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="11">
+        <v>10</v>
+      </c>
+      <c r="G19" s="14">
+        <v>116</v>
+      </c>
+      <c r="H19" s="11">
+        <v>20</v>
+      </c>
+      <c r="I19" s="11">
+        <v>160</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K19" s="11">
+        <v>10</v>
+      </c>
+      <c r="L19" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="M19" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="N19" s="17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" ht="39" customHeight="1" spans="1:14">
+      <c r="A20" s="9">
+        <v>118</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="11">
+        <v>3</v>
+      </c>
+      <c r="D20" s="11">
+        <v>2</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" s="11">
+        <v>10</v>
+      </c>
+      <c r="G20" s="14">
+        <v>117</v>
+      </c>
+      <c r="H20" s="11">
+        <v>20</v>
+      </c>
+      <c r="I20" s="11">
+        <v>160</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K20" s="11">
+        <v>10</v>
+      </c>
+      <c r="L20" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="M20" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="N20" s="17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" ht="39" customHeight="1" spans="1:14">
+      <c r="A21" s="9">
+        <v>119</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="11">
+        <v>3</v>
+      </c>
+      <c r="D21" s="11">
+        <v>3</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" s="11">
+        <v>10</v>
+      </c>
+      <c r="G21" s="14">
+        <v>118</v>
+      </c>
+      <c r="H21" s="11">
+        <v>20</v>
+      </c>
+      <c r="I21" s="11">
+        <v>160</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K21" s="11">
+        <v>10</v>
+      </c>
+      <c r="L21" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="M21" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="N21" s="17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" ht="39" customHeight="1" spans="1:14">
+      <c r="A22" s="9">
+        <v>120</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="11">
+        <v>3</v>
+      </c>
+      <c r="D22" s="11">
+        <v>4</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" s="11">
+        <v>10</v>
+      </c>
+      <c r="G22" s="14">
+        <v>119</v>
+      </c>
+      <c r="H22" s="11">
+        <v>20</v>
+      </c>
+      <c r="I22" s="11">
+        <v>160</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K22" s="11">
+        <v>10</v>
+      </c>
+      <c r="L22" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="M22" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="N22" s="17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" ht="39" customHeight="1" spans="1:14">
+      <c r="A23" s="9">
+        <v>121</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="11">
+        <v>3</v>
+      </c>
+      <c r="D23" s="11">
+        <v>5</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" s="11">
+        <v>10</v>
+      </c>
+      <c r="G23" s="14">
+        <v>120</v>
+      </c>
+      <c r="H23" s="11">
+        <v>20</v>
+      </c>
+      <c r="I23" s="11">
+        <v>160</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K23" s="11">
+        <v>10</v>
+      </c>
+      <c r="L23" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="M23" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="N23" s="17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" ht="39" customHeight="1" spans="1:14">
+      <c r="A24" s="9">
+        <v>122</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="11">
+        <v>3</v>
+      </c>
+      <c r="D24" s="11">
+        <v>6</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F24" s="11">
+        <v>10</v>
+      </c>
+      <c r="G24" s="14">
+        <v>121</v>
+      </c>
+      <c r="H24" s="11">
+        <v>20</v>
+      </c>
+      <c r="I24" s="11">
+        <v>160</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K24" s="11">
+        <v>10</v>
+      </c>
+      <c r="L24" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="M24" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="N24" s="17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" ht="39" customHeight="1" spans="1:14">
+      <c r="A25" s="9">
+        <v>123</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="11">
+        <v>3</v>
+      </c>
+      <c r="D25" s="11">
+        <v>7</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F25" s="11">
+        <v>10</v>
+      </c>
+      <c r="G25" s="14">
+        <v>122</v>
+      </c>
+      <c r="H25" s="11">
+        <v>20</v>
+      </c>
+      <c r="I25" s="11">
+        <v>160</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K25" s="11">
+        <v>10</v>
+      </c>
+      <c r="L25" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="M25" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="N25" s="17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" ht="39" customHeight="1" spans="1:14">
+      <c r="A26" s="9">
+        <v>124</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="11">
+        <v>3</v>
+      </c>
+      <c r="D26" s="11">
+        <v>8</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F26" s="11">
+        <v>10</v>
+      </c>
+      <c r="G26" s="14">
+        <v>123</v>
+      </c>
+      <c r="H26" s="11">
+        <v>20</v>
+      </c>
+      <c r="I26" s="11">
+        <v>160</v>
+      </c>
+      <c r="J26" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K26" s="11">
+        <v>10</v>
+      </c>
+      <c r="L26" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="M26" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="N26" s="17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" ht="39" customHeight="1" spans="1:14">
+      <c r="A27" s="9">
+        <v>125</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="29">
+        <v>4</v>
+      </c>
+      <c r="D27" s="11">
+        <v>1</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F27" s="11">
+        <v>10</v>
+      </c>
+      <c r="G27" s="14">
+        <v>124</v>
+      </c>
+      <c r="H27" s="11">
+        <v>20</v>
+      </c>
+      <c r="I27" s="11">
+        <v>160</v>
+      </c>
+      <c r="J27" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K27" s="11">
+        <v>10</v>
+      </c>
+      <c r="L27" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="M27" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="N27" s="17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" ht="39" customHeight="1" spans="1:14">
+      <c r="A28" s="9">
+        <v>126</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="29">
+        <v>4</v>
+      </c>
+      <c r="D28" s="11">
+        <v>2</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F28" s="11">
+        <v>10</v>
+      </c>
+      <c r="G28" s="14">
+        <v>125</v>
+      </c>
+      <c r="H28" s="11">
+        <v>20</v>
+      </c>
+      <c r="I28" s="11">
+        <v>160</v>
+      </c>
+      <c r="J28" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K28" s="11">
+        <v>10</v>
+      </c>
+      <c r="L28" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="M28" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="N28" s="17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" ht="39" customHeight="1" spans="1:14">
+      <c r="A29" s="9">
+        <v>127</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="29">
+        <v>4</v>
+      </c>
+      <c r="D29" s="11">
+        <v>3</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F29" s="11">
+        <v>10</v>
+      </c>
+      <c r="G29" s="14">
+        <v>126</v>
+      </c>
+      <c r="H29" s="11">
+        <v>20</v>
+      </c>
+      <c r="I29" s="11">
+        <v>160</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K29" s="11">
+        <v>10</v>
+      </c>
+      <c r="L29" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="M29" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="N29" s="17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" ht="39" customHeight="1" spans="1:14">
+      <c r="A30" s="9">
+        <v>128</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="29">
+        <v>4</v>
+      </c>
+      <c r="D30" s="11">
+        <v>4</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F30" s="11">
+        <v>10</v>
+      </c>
+      <c r="G30" s="14">
+        <v>127</v>
+      </c>
+      <c r="H30" s="11">
+        <v>20</v>
+      </c>
+      <c r="I30" s="11">
+        <v>160</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K30" s="11">
+        <v>10</v>
+      </c>
+      <c r="L30" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="M30" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="N30" s="17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" ht="39" customHeight="1" spans="1:14">
+      <c r="A31" s="9">
+        <v>129</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="29">
+        <v>4</v>
+      </c>
+      <c r="D31" s="11">
+        <v>5</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F31" s="11">
+        <v>10</v>
+      </c>
+      <c r="G31" s="14">
+        <v>128</v>
+      </c>
+      <c r="H31" s="11">
+        <v>20</v>
+      </c>
+      <c r="I31" s="11">
+        <v>160</v>
+      </c>
+      <c r="J31" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K31" s="11">
+        <v>10</v>
+      </c>
+      <c r="L31" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="M31" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="N31" s="17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" ht="39" customHeight="1" spans="1:14">
+      <c r="A32" s="9">
+        <v>130</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" s="29">
+        <v>4</v>
+      </c>
+      <c r="D32" s="11">
+        <v>6</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F32" s="11">
+        <v>10</v>
+      </c>
+      <c r="G32" s="14">
+        <v>129</v>
+      </c>
+      <c r="H32" s="11">
+        <v>20</v>
+      </c>
+      <c r="I32" s="11">
+        <v>160</v>
+      </c>
+      <c r="J32" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K32" s="11">
+        <v>10</v>
+      </c>
+      <c r="L32" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="M32" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="N32" s="17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" ht="39" customHeight="1" spans="1:14">
+      <c r="A33" s="9">
+        <v>131</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="29">
+        <v>4</v>
+      </c>
+      <c r="D33" s="11">
+        <v>7</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F33" s="11">
+        <v>10</v>
+      </c>
+      <c r="G33" s="14">
+        <v>130</v>
+      </c>
+      <c r="H33" s="11">
+        <v>20</v>
+      </c>
+      <c r="I33" s="11">
+        <v>160</v>
+      </c>
+      <c r="J33" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K33" s="11">
+        <v>10</v>
+      </c>
+      <c r="L33" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="M33" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="N33" s="17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" ht="39" customHeight="1" spans="1:14">
+      <c r="A34" s="9">
+        <v>132</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="29">
+        <v>4</v>
+      </c>
+      <c r="D34" s="11">
+        <v>8</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F34" s="11">
+        <v>10</v>
+      </c>
+      <c r="G34" s="14">
+        <v>131</v>
+      </c>
+      <c r="H34" s="11">
+        <v>20</v>
+      </c>
+      <c r="I34" s="11">
+        <v>160</v>
+      </c>
+      <c r="J34" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K34" s="11">
+        <v>10</v>
+      </c>
+      <c r="L34" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="M34" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="N34" s="17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" ht="39" customHeight="1" spans="1:14">
+      <c r="A35" s="9">
+        <v>133</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="29">
+        <v>5</v>
+      </c>
+      <c r="D35" s="29">
+        <v>5</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F35" s="11">
+        <v>10</v>
+      </c>
+      <c r="G35" s="14">
+        <v>132</v>
+      </c>
+      <c r="H35" s="11">
+        <v>20</v>
+      </c>
+      <c r="I35" s="11">
+        <v>160</v>
+      </c>
+      <c r="J35" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K35" s="11">
+        <v>10</v>
+      </c>
+      <c r="L35" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="M35" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="N35" s="17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" ht="39" customHeight="1" spans="1:14">
+      <c r="A36" s="9">
+        <v>134</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" s="29">
+        <v>5</v>
+      </c>
+      <c r="D36" s="29">
+        <v>6</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F36" s="11">
+        <v>10</v>
+      </c>
+      <c r="G36" s="14">
+        <v>133</v>
+      </c>
+      <c r="H36" s="11">
+        <v>20</v>
+      </c>
+      <c r="I36" s="11">
+        <v>160</v>
+      </c>
+      <c r="J36" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K36" s="11">
+        <v>10</v>
+      </c>
+      <c r="L36" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="M36" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="N36" s="17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" ht="39" customHeight="1" spans="1:14">
+      <c r="A37" s="9">
+        <v>135</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="29">
+        <v>5</v>
+      </c>
+      <c r="D37" s="29">
+        <v>7</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F37" s="11">
+        <v>10</v>
+      </c>
+      <c r="G37" s="14">
+        <v>134</v>
+      </c>
+      <c r="H37" s="11">
+        <v>20</v>
+      </c>
+      <c r="I37" s="11">
+        <v>160</v>
+      </c>
+      <c r="J37" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K37" s="11">
+        <v>10</v>
+      </c>
+      <c r="L37" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="M37" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="N37" s="17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" ht="39" customHeight="1" spans="1:14">
+      <c r="A38" s="9">
+        <v>136</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="29">
+        <v>5</v>
+      </c>
+      <c r="D38" s="29">
+        <v>8</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F38" s="11">
+        <v>10</v>
+      </c>
+      <c r="G38" s="14">
+        <v>135</v>
+      </c>
+      <c r="H38" s="11">
+        <v>20</v>
+      </c>
+      <c r="I38" s="11">
+        <v>160</v>
+      </c>
+      <c r="J38" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K38" s="11">
+        <v>10</v>
+      </c>
+      <c r="L38" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="M38" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="N38" s="17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" ht="39" customHeight="1" spans="1:14">
+      <c r="A39" s="12">
         <v>201</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B39" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C39" s="14">
+        <v>1</v>
+      </c>
+      <c r="D39" s="14">
+        <v>1</v>
+      </c>
+      <c r="E39" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="14">
-        <v>10</v>
-      </c>
-      <c r="E8" s="14">
+      <c r="F39" s="14">
+        <v>10</v>
+      </c>
+      <c r="G39" s="14">
         <v>0</v>
       </c>
-      <c r="F8" s="14">
+      <c r="H39" s="14">
         <v>20</v>
       </c>
-      <c r="G8" s="14">
+      <c r="I39" s="14">
         <v>160</v>
       </c>
-      <c r="H8" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="I8" s="14">
-        <v>10</v>
-      </c>
-      <c r="J8" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="K8" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="L8" s="18" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" ht="39" customHeight="1" spans="1:12">
-      <c r="A9" s="9">
+      <c r="J39" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="K39" s="14">
+        <v>10</v>
+      </c>
+      <c r="L39" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="M39" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="N39" s="18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" ht="39" customHeight="1" spans="1:14">
+      <c r="A40" s="9">
         <v>202</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B40" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C40" s="14">
+        <v>1</v>
+      </c>
+      <c r="D40" s="14">
+        <v>2</v>
+      </c>
+      <c r="E40" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="11">
-        <v>10</v>
-      </c>
-      <c r="E9" s="11">
+      <c r="F40" s="11">
+        <v>10</v>
+      </c>
+      <c r="G40" s="11">
         <v>201</v>
       </c>
-      <c r="F9" s="11">
+      <c r="H40" s="11">
         <v>20</v>
       </c>
-      <c r="G9" s="11">
+      <c r="I40" s="11">
         <v>160</v>
       </c>
-      <c r="H9" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="I9" s="11">
-        <v>10</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="K9" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="L9" s="17" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="10" ht="39" customHeight="1" spans="1:12">
-      <c r="A10" s="12">
+      <c r="J40" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="K40" s="11">
+        <v>10</v>
+      </c>
+      <c r="L40" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="M40" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="N40" s="17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" ht="39" customHeight="1" spans="1:14">
+      <c r="A41" s="12">
         <v>203</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B41" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C41" s="14">
+        <v>1</v>
+      </c>
+      <c r="D41" s="14">
+        <v>3</v>
+      </c>
+      <c r="E41" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="14">
-        <v>10</v>
-      </c>
-      <c r="E10" s="14">
+      <c r="F41" s="14">
+        <v>10</v>
+      </c>
+      <c r="G41" s="14">
         <v>202</v>
       </c>
-      <c r="F10" s="14">
+      <c r="H41" s="14">
         <v>20</v>
       </c>
-      <c r="G10" s="14">
+      <c r="I41" s="14">
         <v>160</v>
       </c>
-      <c r="H10" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="I10" s="14">
-        <v>10</v>
-      </c>
-      <c r="J10" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="K10" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="L10" s="18" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="11" ht="39" customHeight="1" spans="1:12">
-      <c r="A11" s="9">
+      <c r="J41" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="K41" s="14">
+        <v>10</v>
+      </c>
+      <c r="L41" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="M41" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="N41" s="18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" ht="39" customHeight="1" spans="1:14">
+      <c r="A42" s="9">
         <v>204</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B42" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C42" s="14">
+        <v>1</v>
+      </c>
+      <c r="D42" s="14">
+        <v>4</v>
+      </c>
+      <c r="E42" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="11">
-        <v>10</v>
-      </c>
-      <c r="E11" s="11">
+      <c r="F42" s="11">
+        <v>10</v>
+      </c>
+      <c r="G42" s="11">
         <v>203</v>
       </c>
-      <c r="F11" s="11">
+      <c r="H42" s="11">
         <v>20</v>
       </c>
-      <c r="G11" s="11">
+      <c r="I42" s="11">
         <v>160</v>
       </c>
-      <c r="H11" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="I11" s="11">
-        <v>10</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="K11" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="L11" s="17" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="12" customFormat="1" ht="39" customHeight="1" spans="1:12">
-      <c r="A12" s="12">
+      <c r="J42" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="K42" s="11">
+        <v>10</v>
+      </c>
+      <c r="L42" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="M42" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="N42" s="17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" customFormat="1" ht="39" customHeight="1" spans="1:14">
+      <c r="A43" s="12">
         <v>205</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B43" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C43" s="14">
+        <v>1</v>
+      </c>
+      <c r="D43" s="14">
+        <v>5</v>
+      </c>
+      <c r="E43" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="14">
-        <v>10</v>
-      </c>
-      <c r="E12" s="14">
+      <c r="F43" s="14">
+        <v>10</v>
+      </c>
+      <c r="G43" s="14">
         <v>204</v>
       </c>
-      <c r="F12" s="14">
+      <c r="H43" s="14">
         <v>20</v>
       </c>
-      <c r="G12" s="14">
+      <c r="I43" s="14">
         <v>160</v>
       </c>
-      <c r="H12" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="I12" s="14">
-        <v>10</v>
-      </c>
-      <c r="J12" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="K12" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="L12" s="18" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" s="27" customFormat="1" ht="39" customHeight="1" spans="1:12">
-      <c r="A13" s="9">
+      <c r="J43" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="K43" s="14">
+        <v>10</v>
+      </c>
+      <c r="L43" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="M43" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="N43" s="18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" s="27" customFormat="1" ht="39" customHeight="1" spans="1:14">
+      <c r="A44" s="9">
         <v>301</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B44" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C44" s="11">
+        <v>1</v>
+      </c>
+      <c r="D44" s="11">
+        <v>1</v>
+      </c>
+      <c r="E44" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="11">
-        <v>10</v>
-      </c>
-      <c r="E13" s="11">
+      <c r="F44" s="11">
+        <v>10</v>
+      </c>
+      <c r="G44" s="11">
         <v>0</v>
       </c>
-      <c r="F13" s="11">
+      <c r="H44" s="11">
         <v>20</v>
       </c>
-      <c r="G13" s="11">
+      <c r="I44" s="11">
         <v>160</v>
       </c>
-      <c r="H13" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="I13" s="11">
-        <v>10</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="K13" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="L13" s="17" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" s="27" customFormat="1" ht="39" customHeight="1" spans="1:12">
-      <c r="A14" s="12">
+      <c r="J44" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="K44" s="11">
+        <v>10</v>
+      </c>
+      <c r="L44" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="M44" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="N44" s="17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" s="27" customFormat="1" ht="39" customHeight="1" spans="1:14">
+      <c r="A45" s="12">
         <v>302</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B45" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C45" s="11">
+        <v>1</v>
+      </c>
+      <c r="D45" s="11">
+        <v>2</v>
+      </c>
+      <c r="E45" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="14">
-        <v>10</v>
-      </c>
-      <c r="E14" s="14">
+      <c r="F45" s="14">
+        <v>10</v>
+      </c>
+      <c r="G45" s="14">
         <v>301</v>
       </c>
-      <c r="F14" s="14">
+      <c r="H45" s="14">
         <v>20</v>
       </c>
-      <c r="G14" s="14">
+      <c r="I45" s="14">
         <v>160</v>
       </c>
-      <c r="H14" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="I14" s="14">
-        <v>10</v>
-      </c>
-      <c r="J14" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="K14" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="L14" s="18" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="15" s="27" customFormat="1" ht="39" customHeight="1" spans="1:12">
-      <c r="A15" s="9">
+      <c r="J45" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="K45" s="14">
+        <v>10</v>
+      </c>
+      <c r="L45" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="M45" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="N45" s="18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="46" s="27" customFormat="1" ht="39" customHeight="1" spans="1:14">
+      <c r="A46" s="9">
         <v>303</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B46" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C46" s="11">
+        <v>1</v>
+      </c>
+      <c r="D46" s="11">
+        <v>3</v>
+      </c>
+      <c r="E46" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="11">
-        <v>10</v>
-      </c>
-      <c r="E15" s="11">
+      <c r="F46" s="11">
+        <v>10</v>
+      </c>
+      <c r="G46" s="11">
         <v>302</v>
       </c>
-      <c r="F15" s="11">
+      <c r="H46" s="11">
         <v>20</v>
       </c>
-      <c r="G15" s="11">
+      <c r="I46" s="11">
         <v>160</v>
       </c>
-      <c r="H15" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="I15" s="11">
-        <v>10</v>
-      </c>
-      <c r="J15" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="K15" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="L15" s="17" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="16" s="27" customFormat="1" ht="39" customHeight="1" spans="1:12">
-      <c r="A16" s="12">
+      <c r="J46" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="K46" s="11">
+        <v>10</v>
+      </c>
+      <c r="L46" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="M46" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="N46" s="17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="47" s="27" customFormat="1" ht="39" customHeight="1" spans="1:14">
+      <c r="A47" s="12">
         <v>304</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B47" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C47" s="11">
+        <v>1</v>
+      </c>
+      <c r="D47" s="11">
+        <v>4</v>
+      </c>
+      <c r="E47" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="14">
-        <v>10</v>
-      </c>
-      <c r="E16" s="14">
+      <c r="F47" s="14">
+        <v>10</v>
+      </c>
+      <c r="G47" s="14">
         <v>303</v>
       </c>
-      <c r="F16" s="14">
+      <c r="H47" s="14">
         <v>20</v>
       </c>
-      <c r="G16" s="14">
+      <c r="I47" s="14">
         <v>160</v>
       </c>
-      <c r="H16" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="I16" s="14">
-        <v>10</v>
-      </c>
-      <c r="J16" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="K16" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="L16" s="18" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="17" s="27" customFormat="1" ht="39" customHeight="1" spans="1:12">
-      <c r="A17" s="9">
+      <c r="J47" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="K47" s="14">
+        <v>10</v>
+      </c>
+      <c r="L47" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="M47" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="N47" s="18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="48" s="27" customFormat="1" ht="39" customHeight="1" spans="1:14">
+      <c r="A48" s="9">
         <v>305</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B48" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C48" s="11">
+        <v>1</v>
+      </c>
+      <c r="D48" s="11">
+        <v>5</v>
+      </c>
+      <c r="E48" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="11">
-        <v>10</v>
-      </c>
-      <c r="E17" s="11">
+      <c r="F48" s="11">
+        <v>10</v>
+      </c>
+      <c r="G48" s="11">
         <v>304</v>
       </c>
-      <c r="F17" s="11">
+      <c r="H48" s="11">
         <v>20</v>
       </c>
-      <c r="G17" s="11">
+      <c r="I48" s="11">
         <v>160</v>
       </c>
-      <c r="H17" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="I17" s="11">
-        <v>10</v>
-      </c>
-      <c r="J17" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="K17" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="L17" s="17" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18" s="27" customFormat="1" ht="39" customHeight="1" spans="1:12">
-      <c r="A18" s="12">
+      <c r="J48" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="K48" s="11">
+        <v>10</v>
+      </c>
+      <c r="L48" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="M48" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="N48" s="17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="49" s="27" customFormat="1" ht="39" customHeight="1" spans="1:14">
+      <c r="A49" s="12">
         <v>401</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B49" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C49" s="11">
+        <v>1</v>
+      </c>
+      <c r="D49" s="11">
+        <v>1</v>
+      </c>
+      <c r="E49" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="14">
-        <v>10</v>
-      </c>
-      <c r="E18" s="14">
+      <c r="F49" s="14">
+        <v>10</v>
+      </c>
+      <c r="G49" s="14">
         <v>0</v>
       </c>
-      <c r="F18" s="14">
+      <c r="H49" s="14">
         <v>20</v>
       </c>
-      <c r="G18" s="14">
+      <c r="I49" s="14">
         <v>160</v>
       </c>
-      <c r="H18" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="I18" s="14">
-        <v>10</v>
-      </c>
-      <c r="J18" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="K18" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="L18" s="18" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" s="27" customFormat="1" ht="39" customHeight="1" spans="1:12">
-      <c r="A19" s="9">
+      <c r="J49" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="K49" s="14">
+        <v>10</v>
+      </c>
+      <c r="L49" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="M49" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="N49" s="18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="50" s="27" customFormat="1" ht="39" customHeight="1" spans="1:14">
+      <c r="A50" s="9">
         <v>402</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B50" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C50" s="11">
+        <v>1</v>
+      </c>
+      <c r="D50" s="11">
+        <v>2</v>
+      </c>
+      <c r="E50" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="11">
-        <v>10</v>
-      </c>
-      <c r="E19" s="11">
+      <c r="F50" s="11">
+        <v>10</v>
+      </c>
+      <c r="G50" s="11">
         <v>401</v>
       </c>
-      <c r="F19" s="11">
+      <c r="H50" s="11">
         <v>20</v>
       </c>
-      <c r="G19" s="11">
+      <c r="I50" s="11">
         <v>160</v>
       </c>
-      <c r="H19" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="I19" s="11">
-        <v>10</v>
-      </c>
-      <c r="J19" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="K19" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="L19" s="17" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="20" s="27" customFormat="1" ht="39" customHeight="1" spans="1:12">
-      <c r="A20" s="12">
+      <c r="J50" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="K50" s="11">
+        <v>10</v>
+      </c>
+      <c r="L50" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="M50" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="N50" s="17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="51" s="27" customFormat="1" ht="39" customHeight="1" spans="1:14">
+      <c r="A51" s="12">
         <v>403</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B51" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="30" t="s">
+      <c r="C51" s="11">
+        <v>1</v>
+      </c>
+      <c r="D51" s="11">
+        <v>3</v>
+      </c>
+      <c r="E51" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="14">
-        <v>10</v>
-      </c>
-      <c r="E20" s="14">
+      <c r="F51" s="14">
+        <v>10</v>
+      </c>
+      <c r="G51" s="14">
         <v>402</v>
       </c>
-      <c r="F20" s="14">
+      <c r="H51" s="14">
         <v>20</v>
       </c>
-      <c r="G20" s="14">
+      <c r="I51" s="14">
         <v>160</v>
       </c>
-      <c r="H20" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="I20" s="14">
-        <v>10</v>
-      </c>
-      <c r="J20" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="K20" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="L20" s="18" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="21" s="27" customFormat="1" ht="39" customHeight="1" spans="1:12">
-      <c r="A21" s="9">
+      <c r="J51" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="K51" s="14">
+        <v>10</v>
+      </c>
+      <c r="L51" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="M51" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="N51" s="18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="52" s="27" customFormat="1" ht="39" customHeight="1" spans="1:14">
+      <c r="A52" s="9">
         <v>404</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B52" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="C52" s="11">
+        <v>1</v>
+      </c>
+      <c r="D52" s="11">
+        <v>4</v>
+      </c>
+      <c r="E52" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="11">
-        <v>10</v>
-      </c>
-      <c r="E21" s="11">
+      <c r="F52" s="11">
+        <v>10</v>
+      </c>
+      <c r="G52" s="11">
         <v>403</v>
       </c>
-      <c r="F21" s="11">
+      <c r="H52" s="11">
         <v>20</v>
       </c>
-      <c r="G21" s="11">
+      <c r="I52" s="11">
         <v>160</v>
       </c>
-      <c r="H21" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="I21" s="11">
-        <v>10</v>
-      </c>
-      <c r="J21" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="K21" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="L21" s="17" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22" s="27" customFormat="1" ht="39" customHeight="1" spans="1:12">
-      <c r="A22" s="12">
+      <c r="J52" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="K52" s="11">
+        <v>10</v>
+      </c>
+      <c r="L52" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="M52" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="N52" s="17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="53" s="27" customFormat="1" ht="39" customHeight="1" spans="1:14">
+      <c r="A53" s="12">
         <v>405</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B53" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="30" t="s">
+      <c r="C53" s="11">
+        <v>1</v>
+      </c>
+      <c r="D53" s="11">
+        <v>5</v>
+      </c>
+      <c r="E53" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="D22" s="14">
-        <v>10</v>
-      </c>
-      <c r="E22" s="14">
+      <c r="F53" s="14">
+        <v>10</v>
+      </c>
+      <c r="G53" s="14">
         <v>404</v>
       </c>
-      <c r="F22" s="14">
+      <c r="H53" s="14">
         <v>20</v>
       </c>
-      <c r="G22" s="14">
+      <c r="I53" s="14">
         <v>160</v>
       </c>
-      <c r="H22" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="I22" s="14">
-        <v>10</v>
-      </c>
-      <c r="J22" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="K22" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="L22" s="18" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23" s="27" customFormat="1" ht="39" customHeight="1" spans="1:12">
-      <c r="A23" s="9">
+      <c r="J53" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="K53" s="14">
+        <v>10</v>
+      </c>
+      <c r="L53" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="M53" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="N53" s="18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54" s="27" customFormat="1" ht="39" customHeight="1" spans="1:14">
+      <c r="A54" s="9">
         <v>501</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B54" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C54" s="11">
+        <v>1</v>
+      </c>
+      <c r="D54" s="11">
+        <v>1</v>
+      </c>
+      <c r="E54" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="11">
-        <v>10</v>
-      </c>
-      <c r="E23" s="11">
+      <c r="F54" s="11">
+        <v>10</v>
+      </c>
+      <c r="G54" s="11">
         <v>0</v>
       </c>
-      <c r="F23" s="11">
+      <c r="H54" s="11">
         <v>20</v>
       </c>
-      <c r="G23" s="11">
+      <c r="I54" s="11">
         <v>160</v>
       </c>
-      <c r="H23" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="I23" s="11">
-        <v>10</v>
-      </c>
-      <c r="J23" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="K23" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="L23" s="17" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="24" s="27" customFormat="1" ht="39" customHeight="1" spans="1:12">
-      <c r="A24" s="12">
+      <c r="J54" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="K54" s="11">
+        <v>10</v>
+      </c>
+      <c r="L54" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="M54" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="N54" s="17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="55" s="27" customFormat="1" ht="39" customHeight="1" spans="1:14">
+      <c r="A55" s="12">
         <v>502</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B55" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="30" t="s">
+      <c r="C55" s="11">
+        <v>1</v>
+      </c>
+      <c r="D55" s="11">
+        <v>2</v>
+      </c>
+      <c r="E55" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="D24" s="14">
-        <v>10</v>
-      </c>
-      <c r="E24" s="14">
+      <c r="F55" s="14">
+        <v>10</v>
+      </c>
+      <c r="G55" s="14">
         <v>501</v>
       </c>
-      <c r="F24" s="14">
+      <c r="H55" s="14">
         <v>20</v>
       </c>
-      <c r="G24" s="14">
+      <c r="I55" s="14">
         <v>160</v>
       </c>
-      <c r="H24" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="I24" s="14">
-        <v>10</v>
-      </c>
-      <c r="J24" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="K24" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="L24" s="18" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="25" s="27" customFormat="1" ht="39" customHeight="1" spans="1:12">
-      <c r="A25" s="9">
+      <c r="J55" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="K55" s="14">
+        <v>10</v>
+      </c>
+      <c r="L55" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="M55" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="N55" s="18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56" s="27" customFormat="1" ht="39" customHeight="1" spans="1:14">
+      <c r="A56" s="9">
         <v>503</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B56" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="29" t="s">
+      <c r="C56" s="11">
+        <v>1</v>
+      </c>
+      <c r="D56" s="11">
+        <v>3</v>
+      </c>
+      <c r="E56" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="D25" s="11">
-        <v>10</v>
-      </c>
-      <c r="E25" s="11">
+      <c r="F56" s="11">
+        <v>10</v>
+      </c>
+      <c r="G56" s="11">
         <v>502</v>
       </c>
-      <c r="F25" s="11">
+      <c r="H56" s="11">
         <v>20</v>
       </c>
-      <c r="G25" s="11">
+      <c r="I56" s="11">
         <v>160</v>
       </c>
-      <c r="H25" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="I25" s="11">
-        <v>10</v>
-      </c>
-      <c r="J25" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="K25" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="L25" s="17" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="26" s="27" customFormat="1" ht="39" customHeight="1" spans="1:12">
-      <c r="A26" s="12">
+      <c r="J56" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="K56" s="11">
+        <v>10</v>
+      </c>
+      <c r="L56" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="M56" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="N56" s="17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="57" s="27" customFormat="1" ht="39" customHeight="1" spans="1:14">
+      <c r="A57" s="12">
         <v>504</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B57" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="30" t="s">
+      <c r="C57" s="11">
+        <v>1</v>
+      </c>
+      <c r="D57" s="11">
+        <v>4</v>
+      </c>
+      <c r="E57" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="D26" s="14">
-        <v>10</v>
-      </c>
-      <c r="E26" s="14">
+      <c r="F57" s="14">
+        <v>10</v>
+      </c>
+      <c r="G57" s="14">
         <v>503</v>
       </c>
-      <c r="F26" s="14">
+      <c r="H57" s="14">
         <v>20</v>
       </c>
-      <c r="G26" s="14">
+      <c r="I57" s="14">
         <v>160</v>
       </c>
-      <c r="H26" s="14" t="s">
+      <c r="J57" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="K57" s="14">
+        <v>10</v>
+      </c>
+      <c r="L57" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="I26" s="14">
-        <v>10</v>
-      </c>
-      <c r="J26" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="K26" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="L26" s="18" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="27" s="27" customFormat="1" ht="39" customHeight="1" spans="1:12">
-      <c r="A27" s="31">
+      <c r="M57" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="N57" s="18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58" s="27" customFormat="1" ht="39" customHeight="1" spans="1:14">
+      <c r="A58" s="32">
         <v>505</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B58" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="32" t="s">
+      <c r="C58" s="11">
+        <v>1</v>
+      </c>
+      <c r="D58" s="11">
+        <v>5</v>
+      </c>
+      <c r="E58" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="D27" s="33">
-        <v>10</v>
-      </c>
-      <c r="E27" s="33">
+      <c r="F58" s="34">
+        <v>10</v>
+      </c>
+      <c r="G58" s="34">
         <v>504</v>
       </c>
-      <c r="F27" s="33">
+      <c r="H58" s="34">
         <v>20</v>
       </c>
-      <c r="G27" s="33">
+      <c r="I58" s="34">
         <v>160</v>
       </c>
-      <c r="H27" s="33" t="s">
-        <v>145</v>
-      </c>
-      <c r="I27" s="33">
-        <v>10</v>
-      </c>
-      <c r="J27" s="33" t="s">
-        <v>146</v>
-      </c>
-      <c r="K27" s="33" t="s">
-        <v>147</v>
-      </c>
-      <c r="L27" s="34" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="28" ht="14.25"/>
+      <c r="J58" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="K58" s="34">
+        <v>10</v>
+      </c>
+      <c r="L58" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="M58" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="N58" s="35" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59" ht="14.25"/>
   </sheetData>
-  <conditionalFormatting sqref="D$1:D$1048576">
+  <conditionalFormatting sqref="F$1:F$1048576">
     <cfRule type="cellIs" dxfId="0" priority="19" operator="equal">
       <formula>2</formula>
     </cfRule>
@@ -3908,7 +5450,7 @@
     <sheetView workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="D9" sqref="D9"/>
+      <selection pane="topRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3934,90 +5476,90 @@
         <v>59</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="L1" s="15"/>
       <c r="M1" s="19"/>
       <c r="N1" s="20" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="O1" s="20"/>
     </row>
     <row r="2" ht="43" customHeight="1" spans="1:16">
       <c r="A2" s="5" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="L2" s="16">
         <v>1</v>
       </c>
       <c r="M2" s="21" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="N2" s="22" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="O2" s="23">
         <v>1</v>
       </c>
       <c r="P2" s="24" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" ht="22.5" customHeight="1" spans="1:15">
@@ -4037,10 +5579,10 @@
         <v>0</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="H3" s="11">
         <v>0</v>
@@ -4053,7 +5595,7 @@
       </c>
       <c r="K3" s="11"/>
       <c r="L3" s="17" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="M3" s="25"/>
       <c r="N3" s="12"/>
@@ -4078,10 +5620,10 @@
         <v>0</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="H4" s="11">
         <v>0</v>
@@ -4094,7 +5636,7 @@
       </c>
       <c r="K4" s="14"/>
       <c r="L4" s="17" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="M4" s="26"/>
       <c r="N4" s="9"/>
@@ -4119,10 +5661,10 @@
         <v>0</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H5" s="11">
         <v>0</v>
@@ -4135,7 +5677,7 @@
       </c>
       <c r="K5" s="11"/>
       <c r="L5" s="17" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="M5" s="25"/>
       <c r="N5" s="12"/>
@@ -4160,10 +5702,10 @@
         <v>0</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="H6" s="11">
         <v>0</v>
@@ -4176,7 +5718,7 @@
       </c>
       <c r="K6" s="14"/>
       <c r="L6" s="17" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="M6" s="26"/>
       <c r="N6" s="9"/>
@@ -4201,10 +5743,10 @@
         <v>0</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="H7" s="11">
         <v>0</v>
@@ -4217,7 +5759,7 @@
       </c>
       <c r="K7" s="11"/>
       <c r="L7" s="17" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="M7" s="25"/>
       <c r="N7" s="12"/>
@@ -4242,10 +5784,10 @@
         <v>0</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="H8" s="11">
         <v>0</v>
@@ -4258,7 +5800,7 @@
       </c>
       <c r="K8" s="14"/>
       <c r="L8" s="17" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="M8" s="26"/>
       <c r="N8" s="9"/>
@@ -4283,10 +5825,10 @@
         <v>0</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="H9" s="11">
         <v>0</v>
@@ -4299,7 +5841,7 @@
       </c>
       <c r="K9" s="11"/>
       <c r="L9" s="17" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="M9" s="25"/>
       <c r="N9" s="12"/>
@@ -4324,10 +5866,10 @@
         <v>0</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="H10" s="11">
         <v>0</v>
@@ -4340,7 +5882,7 @@
       </c>
       <c r="K10" s="14"/>
       <c r="L10" s="17" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="M10" s="26"/>
       <c r="N10" s="9"/>
@@ -4365,10 +5907,10 @@
         <v>0</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="H11" s="11">
         <v>0</v>
@@ -4381,7 +5923,7 @@
       </c>
       <c r="K11" s="11"/>
       <c r="L11" s="17" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="M11" s="25"/>
       <c r="N11" s="12"/>
@@ -4406,10 +5948,10 @@
         <v>0</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="H12" s="11">
         <v>0</v>
@@ -4422,7 +5964,7 @@
       </c>
       <c r="K12" s="14"/>
       <c r="L12" s="17" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="M12" s="26"/>
       <c r="N12" s="9"/>
@@ -4447,10 +5989,10 @@
         <v>0</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="H13" s="11">
         <v>0</v>
@@ -4463,7 +6005,7 @@
       </c>
       <c r="K13" s="11"/>
       <c r="L13" s="17" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="M13" s="25"/>
       <c r="N13" s="12"/>
@@ -4488,10 +6030,10 @@
         <v>0</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="H14" s="11">
         <v>0</v>
@@ -4504,7 +6046,7 @@
       </c>
       <c r="K14" s="14"/>
       <c r="L14" s="17" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="M14" s="26"/>
       <c r="N14" s="9"/>
@@ -4529,10 +6071,10 @@
         <v>0</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H15" s="11">
         <v>0</v>
@@ -4545,7 +6087,7 @@
       </c>
       <c r="K15" s="11"/>
       <c r="L15" s="17" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="M15" s="25"/>
       <c r="N15" s="12"/>
@@ -4570,10 +6112,10 @@
         <v>0</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="H16" s="11">
         <v>0</v>
@@ -4586,7 +6128,7 @@
       </c>
       <c r="K16" s="14"/>
       <c r="L16" s="17" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="M16" s="26"/>
       <c r="N16" s="9"/>
@@ -4611,10 +6153,10 @@
         <v>0</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="H17" s="11">
         <v>0</v>
@@ -4627,7 +6169,7 @@
       </c>
       <c r="K17" s="11"/>
       <c r="L17" s="17" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="M17" s="25"/>
       <c r="N17" s="12"/>
@@ -4652,10 +6194,10 @@
         <v>0</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="H18" s="11">
         <v>0</v>
@@ -4668,7 +6210,7 @@
       </c>
       <c r="K18" s="14"/>
       <c r="L18" s="17" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="M18" s="26"/>
       <c r="N18" s="9"/>
@@ -4693,10 +6235,10 @@
         <v>0</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="H19" s="11">
         <v>0</v>
@@ -4709,7 +6251,7 @@
       </c>
       <c r="K19" s="11"/>
       <c r="L19" s="17" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="M19" s="25"/>
       <c r="N19" s="12"/>
@@ -4734,10 +6276,10 @@
         <v>0</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="H20" s="11">
         <v>0</v>
@@ -4750,7 +6292,7 @@
       </c>
       <c r="K20" s="14"/>
       <c r="L20" s="17" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="M20" s="26"/>
       <c r="N20" s="9"/>
@@ -4775,10 +6317,10 @@
         <v>0</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="H21" s="11">
         <v>0</v>
@@ -4791,7 +6333,7 @@
       </c>
       <c r="K21" s="11"/>
       <c r="L21" s="17" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="M21" s="25"/>
       <c r="N21" s="12"/>
@@ -4816,10 +6358,10 @@
         <v>0</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="H22" s="11">
         <v>0</v>
@@ -4832,7 +6374,7 @@
       </c>
       <c r="K22" s="14"/>
       <c r="L22" s="17" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="M22" s="26"/>
       <c r="N22" s="9"/>
@@ -4903,45 +6445,45 @@
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" ht="39" customHeight="1" spans="1:12">
       <c r="A2" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>19</v>
@@ -4950,31 +6492,31 @@
         <v>42</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>19</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L2" s="16" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" ht="39" customHeight="1" spans="1:12">
@@ -5000,19 +6542,19 @@
         <v>160</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I3" s="11">
         <v>10</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L3" s="17" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" ht="39" customHeight="1" spans="1:12">
@@ -5038,19 +6580,19 @@
         <v>160</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I4" s="14">
         <v>10</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="K4" s="14" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L4" s="18" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" ht="39" customHeight="1" spans="1:12">
@@ -5076,19 +6618,19 @@
         <v>160</v>
       </c>
       <c r="H5" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="I5" s="11">
+        <v>10</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="L5" s="17" t="s">
         <v>85</v>
-      </c>
-      <c r="I5" s="11">
-        <v>10</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="L5" s="17" t="s">
-        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/excels/config/difficulty_config.xlsx
+++ b/excels/config/difficulty_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="13395" tabRatio="804" activeTab="2"/>
+    <workbookView windowWidth="22185" windowHeight="10155" tabRatio="804" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="chapter_info" sheetId="7" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="map_info_endless" sheetId="8" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">map_info_round!$C$1:$C$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">map_info_round!$C$1:$C$27</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="192">
   <si>
     <t>章节编号</t>
   </si>
@@ -107,7 +107,7 @@
     <t>c1</t>
   </si>
   <si>
-    <t>第一章</t>
+    <t>元素大陆</t>
   </si>
   <si>
     <t>c2</t>
@@ -239,469 +239,382 @@
     <t>上限单位</t>
   </si>
   <si>
+    <t>boss血量倍数</t>
+  </si>
+  <si>
+    <t>难度血量公式(基于本身怪物成长公式之后)</t>
+  </si>
+  <si>
+    <t>难度攻击公式(基于本身怪物成长公式之后)</t>
+  </si>
+  <si>
+    <t>难度护甲公式</t>
+  </si>
+  <si>
+    <t>difficulty_index</t>
+  </si>
+  <si>
+    <t>area_key</t>
+  </si>
+  <si>
+    <t>difficulty</t>
+  </si>
+  <si>
+    <t>round_class</t>
+  </si>
+  <si>
+    <t>round_max</t>
+  </si>
+  <si>
+    <t>unit_limit</t>
+  </si>
+  <si>
+    <t>boss_hp</t>
+  </si>
+  <si>
+    <t>hp_equation</t>
+  </si>
+  <si>
+    <t>attack_equation</t>
+  </si>
+  <si>
+    <t>armor_equation</t>
+  </si>
+  <si>
+    <t>1+hp*0.6</t>
+  </si>
+  <si>
+    <t>1+attack*0.8</t>
+  </si>
+  <si>
+    <t>armor+lv*0.5</t>
+  </si>
+  <si>
+    <t>1+hp*0.8</t>
+  </si>
+  <si>
+    <t>1+attack*1</t>
+  </si>
+  <si>
+    <t>(hp+20)*1</t>
+  </si>
+  <si>
+    <t>attack+10</t>
+  </si>
+  <si>
+    <t>(hp+20)*1.2</t>
+  </si>
+  <si>
+    <t>(attack+10)*1.1</t>
+  </si>
+  <si>
+    <t>(hp+20)*1.4</t>
+  </si>
+  <si>
+    <t>(attack+10)*1.2</t>
+  </si>
+  <si>
+    <t>(hp+30)*1.6</t>
+  </si>
+  <si>
+    <t>(attack+20)*1.2</t>
+  </si>
+  <si>
+    <t>(hp+40)*1.8</t>
+  </si>
+  <si>
+    <t>(attack+20)*1.3</t>
+  </si>
+  <si>
+    <t>(hp+50)*2</t>
+  </si>
+  <si>
+    <t>(attack+20)*1.4</t>
+  </si>
+  <si>
+    <t>(hp+60)*2.3</t>
+  </si>
+  <si>
+    <t>(attack+30)*1.5</t>
+  </si>
+  <si>
+    <t>(hp+100)*3</t>
+  </si>
+  <si>
+    <t>(attack+30)*1.7</t>
+  </si>
+  <si>
+    <t>500+hp*4.5</t>
+  </si>
+  <si>
+    <t>(attack+40)*1.6</t>
+  </si>
+  <si>
+    <t>700+hp*6</t>
+  </si>
+  <si>
+    <t>(attack+40)*1.8</t>
+  </si>
+  <si>
+    <t>1000+hp*7.5</t>
+  </si>
+  <si>
+    <t>(attack+40)*2</t>
+  </si>
+  <si>
+    <t>1400+hp*9.5</t>
+  </si>
+  <si>
+    <t>(attack+40)*2.2</t>
+  </si>
+  <si>
+    <t>2000+hp*12</t>
+  </si>
+  <si>
+    <t>(attack+40)*3</t>
+  </si>
+  <si>
+    <t>(444+hp)*15</t>
+  </si>
+  <si>
+    <t>(attack+40)*3.2</t>
+  </si>
+  <si>
+    <t>(444+hp)*18</t>
+  </si>
+  <si>
+    <t>(attack+40)*3.5</t>
+  </si>
+  <si>
+    <t>(444+hp)*21</t>
+  </si>
+  <si>
+    <t>(attack+40)*3.8</t>
+  </si>
+  <si>
+    <t>(444+hp)*24</t>
+  </si>
+  <si>
+    <t>(attack+40)*4.1</t>
+  </si>
+  <si>
+    <t>(444+hp)*27</t>
+  </si>
+  <si>
+    <t>(attack+40)*5</t>
+  </si>
+  <si>
+    <t>(555+hp)*35</t>
+  </si>
+  <si>
+    <t>(attack+40)*6</t>
+  </si>
+  <si>
+    <t>(555+hp)*100</t>
+  </si>
+  <si>
+    <t>(attack+40)*8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">每回合怪物分类 </t>
+  </si>
+  <si>
+    <t>波数</t>
+  </si>
+  <si>
+    <t>怪物类型 1普通刷怪模式</t>
+  </si>
+  <si>
+    <t>boss名字</t>
+  </si>
+  <si>
+    <t>精英怪名字</t>
+  </si>
+  <si>
+    <t>精英怪数量</t>
+  </si>
+  <si>
+    <t>时长增加</t>
+  </si>
+  <si>
+    <t>刷怪周期（秒）</t>
+  </si>
+  <si>
+    <t>间隔周期（秒）</t>
+  </si>
+  <si>
+    <t>怪物数组(此数组只会随机一组怪物出现)</t>
+  </si>
+  <si>
+    <t>怪物数量</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>round_index</t>
+  </si>
+  <si>
+    <t>monster_type</t>
+  </si>
+  <si>
+    <t>boss_name</t>
+  </si>
+  <si>
+    <t>elite_name</t>
+  </si>
+  <si>
+    <t>elite_count</t>
+  </si>
+  <si>
+    <t>monster_time_add</t>
+  </si>
+  <si>
+    <t>t_time</t>
+  </si>
+  <si>
+    <t>interval_time</t>
+  </si>
+  <si>
+    <t>monster_list[{]</t>
+  </si>
+  <si>
+    <t>[}]</t>
+  </si>
+  <si>
+    <t>monster_count_list[{]</t>
+  </si>
+  <si>
+    <t>null|null</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>npc_monster_normal_1</t>
+  </si>
+  <si>
+    <t>npc_monster_normal_2</t>
+  </si>
+  <si>
+    <t>npc_monster_elite_1</t>
+  </si>
+  <si>
+    <t>npc_monster_normal_3</t>
+  </si>
+  <si>
+    <t>npc_monster_normal_4</t>
+  </si>
+  <si>
+    <t>npc_creature_boss_1|npc_creature_boss_2|npc_creature_boss_3|npc_creature_boss_4</t>
+  </si>
+  <si>
+    <t>npc_monster_normal_5</t>
+  </si>
+  <si>
+    <t>npc_monster_normal_6</t>
+  </si>
+  <si>
+    <t>npc_monster_normal_7</t>
+  </si>
+  <si>
+    <t>npc_monster_elite_2</t>
+  </si>
+  <si>
+    <t>npc_monster_normal_8</t>
+  </si>
+  <si>
+    <t>npc_monster_normal_9</t>
+  </si>
+  <si>
+    <t>npc_monster_normal_10</t>
+  </si>
+  <si>
+    <t>npc_monster_normal_11</t>
+  </si>
+  <si>
+    <t>npc_monster_elite_3</t>
+  </si>
+  <si>
+    <t>npc_monster_normal_12</t>
+  </si>
+  <si>
+    <t>npc_monster_normal_13</t>
+  </si>
+  <si>
+    <t>npc_monster_normal_14</t>
+  </si>
+  <si>
+    <t>npc_monster_elite_4</t>
+  </si>
+  <si>
+    <t>npc_monster_normal_15</t>
+  </si>
+  <si>
+    <t>npc_monster_normal_16</t>
+  </si>
+  <si>
+    <t>npc_monster_normal_17</t>
+  </si>
+  <si>
+    <t>npc_monster_elite_5</t>
+  </si>
+  <si>
+    <t>npc_monster_normal_18</t>
+  </si>
+  <si>
+    <t>npc_monster_elite_6</t>
+  </si>
+  <si>
+    <t>npc_monster_normal_19</t>
+  </si>
+  <si>
+    <t>npc_monster_normal_20</t>
+  </si>
+  <si>
+    <t>npc_monster_normal_21</t>
+  </si>
+  <si>
+    <t>npc_monster_normal_22</t>
+  </si>
+  <si>
+    <t>npc_monster_normal_23</t>
+  </si>
+  <si>
+    <t>npc_monster_elite_7</t>
+  </si>
+  <si>
+    <t>npc_monster_normal_24</t>
+  </si>
+  <si>
+    <t>npc_creature_boss_5|npc_creature_boss_5</t>
+  </si>
+  <si>
+    <t>npc_monster_elite_8</t>
+  </si>
+  <si>
+    <t>npc_monster_normal_25</t>
+  </si>
+  <si>
+    <t>无尽编号</t>
+  </si>
+  <si>
+    <t>解锁难度</t>
+  </si>
+  <si>
+    <t>使用的地图</t>
+  </si>
+  <si>
     <t>最终boss</t>
   </si>
   <si>
-    <t>boss血量倍数</t>
-  </si>
-  <si>
-    <t>难度血量公式(基于本身怪物成长公式之后)</t>
-  </si>
-  <si>
-    <t>难度攻击公式(基于本身怪物成长公式之后)</t>
-  </si>
-  <si>
-    <t>难度护甲公式</t>
-  </si>
-  <si>
-    <t>difficulty_index</t>
-  </si>
-  <si>
-    <t>area_key</t>
-  </si>
-  <si>
-    <t>difficulty</t>
-  </si>
-  <si>
-    <t>round_class</t>
-  </si>
-  <si>
-    <t>round_max</t>
-  </si>
-  <si>
-    <t>unit_limit</t>
-  </si>
-  <si>
-    <t>boss_name</t>
-  </si>
-  <si>
-    <t>boss_hp</t>
-  </si>
-  <si>
-    <t>hp_equation</t>
-  </si>
-  <si>
-    <t>attack_equation</t>
-  </si>
-  <si>
-    <t>armor_equation</t>
-  </si>
-  <si>
     <t>npc_creature_boss_1</t>
   </si>
   <si>
-    <t>1+hp*0.6</t>
-  </si>
-  <si>
-    <t>1+attack*0.8</t>
-  </si>
-  <si>
-    <t>armor+lv*0.5</t>
-  </si>
-  <si>
     <t>npc_creature_boss_2</t>
   </si>
   <si>
-    <t>1+hp*0.8</t>
-  </si>
-  <si>
-    <t>1+attack*1</t>
-  </si>
-  <si>
     <t>npc_creature_boss_3</t>
-  </si>
-  <si>
-    <t>(hp+20)*1</t>
-  </si>
-  <si>
-    <t>attack+10</t>
-  </si>
-  <si>
-    <t>npc_creature_boss_4</t>
-  </si>
-  <si>
-    <t>(hp+20)*1.2</t>
-  </si>
-  <si>
-    <t>(attack+10)*1.1</t>
-  </si>
-  <si>
-    <t>npc_creature_boss_5</t>
-  </si>
-  <si>
-    <t>(hp+20)*1.4</t>
-  </si>
-  <si>
-    <t>(attack+10)*1.2</t>
-  </si>
-  <si>
-    <t>npc_creature_boss_6</t>
-  </si>
-  <si>
-    <t>(hp+30)*1.6</t>
-  </si>
-  <si>
-    <t>(attack+20)*1.2</t>
-  </si>
-  <si>
-    <t>npc_creature_boss_7</t>
-  </si>
-  <si>
-    <t>(hp+40)*1.8</t>
-  </si>
-  <si>
-    <t>(attack+20)*1.3</t>
-  </si>
-  <si>
-    <t>npc_creature_boss_8</t>
-  </si>
-  <si>
-    <t>(hp+50)*2</t>
-  </si>
-  <si>
-    <t>(attack+20)*1.4</t>
-  </si>
-  <si>
-    <t>npc_creature_boss_9</t>
-  </si>
-  <si>
-    <t>(hp+60)*2.3</t>
-  </si>
-  <si>
-    <t>(attack+30)*1.5</t>
-  </si>
-  <si>
-    <t>npc_creature_boss_10</t>
-  </si>
-  <si>
-    <t>(hp+100)*3</t>
-  </si>
-  <si>
-    <t>(attack+30)*1.7</t>
-  </si>
-  <si>
-    <t>npc_creature_boss_11</t>
-  </si>
-  <si>
-    <t>500+hp*4.5</t>
-  </si>
-  <si>
-    <t>(attack+40)*1.6</t>
-  </si>
-  <si>
-    <t>npc_creature_boss_12</t>
-  </si>
-  <si>
-    <t>700+hp*6</t>
-  </si>
-  <si>
-    <t>(attack+40)*1.8</t>
-  </si>
-  <si>
-    <t>npc_creature_boss_13</t>
-  </si>
-  <si>
-    <t>1000+hp*7.5</t>
-  </si>
-  <si>
-    <t>(attack+40)*2</t>
-  </si>
-  <si>
-    <t>npc_creature_boss_14</t>
-  </si>
-  <si>
-    <t>1400+hp*9.5</t>
-  </si>
-  <si>
-    <t>(attack+40)*2.2</t>
-  </si>
-  <si>
-    <t>npc_creature_boss_15</t>
-  </si>
-  <si>
-    <t>2000+hp*12</t>
-  </si>
-  <si>
-    <t>(attack+40)*3</t>
-  </si>
-  <si>
-    <t>npc_creature_boss_16</t>
-  </si>
-  <si>
-    <t>(444+hp)*15</t>
-  </si>
-  <si>
-    <t>(attack+40)*3.2</t>
-  </si>
-  <si>
-    <t>npc_creature_boss_17</t>
-  </si>
-  <si>
-    <t>(444+hp)*18</t>
-  </si>
-  <si>
-    <t>(attack+40)*3.5</t>
-  </si>
-  <si>
-    <t>npc_creature_boss_18</t>
-  </si>
-  <si>
-    <t>(444+hp)*21</t>
-  </si>
-  <si>
-    <t>(attack+40)*3.8</t>
-  </si>
-  <si>
-    <t>npc_creature_boss_19</t>
-  </si>
-  <si>
-    <t>(444+hp)*24</t>
-  </si>
-  <si>
-    <t>(attack+40)*4.1</t>
-  </si>
-  <si>
-    <t>npc_creature_boss_20</t>
-  </si>
-  <si>
-    <t>(444+hp)*27</t>
-  </si>
-  <si>
-    <t>(attack+40)*5</t>
-  </si>
-  <si>
-    <t>npc_creature_boss_21</t>
-  </si>
-  <si>
-    <t>(555+hp)*35</t>
-  </si>
-  <si>
-    <t>(attack+40)*6</t>
-  </si>
-  <si>
-    <t>npc_creature_boss_22</t>
-  </si>
-  <si>
-    <t>npc_creature_boss_23</t>
-  </si>
-  <si>
-    <t>npc_creature_boss_24</t>
-  </si>
-  <si>
-    <t>npc_creature_boss_25</t>
-  </si>
-  <si>
-    <t>(555+hp)*100</t>
-  </si>
-  <si>
-    <t>(attack+40)*8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">每回合怪物分类 </t>
-  </si>
-  <si>
-    <t>波数</t>
-  </si>
-  <si>
-    <t>怪物类型 1普通刷怪模式 2 只有首领 3关卡首领+小怪,5 怪潮模式小怪 6 最终boss波可以出小怪 7最终boss不出小怪</t>
-  </si>
-  <si>
-    <t>首领出现时间</t>
-  </si>
-  <si>
-    <t>首领名字</t>
-  </si>
-  <si>
-    <t>精英怪名字</t>
-  </si>
-  <si>
-    <t>时长增加</t>
-  </si>
-  <si>
-    <t>刷怪周期（秒）</t>
-  </si>
-  <si>
-    <t>间隔周期（秒）</t>
-  </si>
-  <si>
-    <t>怪物数组(此数组只会随机一组怪物出现)</t>
-  </si>
-  <si>
-    <t>怪物数量</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
-    <t>round_index</t>
-  </si>
-  <si>
-    <t>monster_type</t>
-  </si>
-  <si>
-    <t>leader_time</t>
-  </si>
-  <si>
-    <t>leader_name</t>
-  </si>
-  <si>
-    <t>elite_name</t>
-  </si>
-  <si>
-    <t>monster_time_add</t>
-  </si>
-  <si>
-    <t>t_time</t>
-  </si>
-  <si>
-    <t>interval_time</t>
-  </si>
-  <si>
-    <t>monster_list[{]</t>
-  </si>
-  <si>
-    <t>[}]</t>
-  </si>
-  <si>
-    <t>monster_count_list[{]</t>
-  </si>
-  <si>
-    <t>npc_creature_leader_1</t>
-  </si>
-  <si>
-    <t>npc_monster_elite_1</t>
-  </si>
-  <si>
-    <t>npc_monster_normal_1</t>
-  </si>
-  <si>
-    <t>npc_monster_elite_2</t>
-  </si>
-  <si>
-    <t>npc_monster_normal_2</t>
-  </si>
-  <si>
-    <t>npc_monster_elite_3</t>
-  </si>
-  <si>
-    <t>npc_monster_normal_3</t>
-  </si>
-  <si>
-    <t>npc_monster_elite_4</t>
-  </si>
-  <si>
-    <t>npc_monster_normal_4</t>
-  </si>
-  <si>
-    <t>npc_monster_elite_5</t>
-  </si>
-  <si>
-    <t>npc_monster_normal_5</t>
-  </si>
-  <si>
-    <t>npc_creature_leader_2</t>
-  </si>
-  <si>
-    <t>npc_monster_elite_6</t>
-  </si>
-  <si>
-    <t>npc_monster_normal_6</t>
-  </si>
-  <si>
-    <t>npc_monster_elite_7</t>
-  </si>
-  <si>
-    <t>npc_monster_normal_7</t>
-  </si>
-  <si>
-    <t>npc_monster_elite_8</t>
-  </si>
-  <si>
-    <t>npc_monster_normal_8</t>
-  </si>
-  <si>
-    <t>npc_monster_elite_9</t>
-  </si>
-  <si>
-    <t>npc_monster_normal_9</t>
-  </si>
-  <si>
-    <t>npc_monster_elite_10</t>
-  </si>
-  <si>
-    <t>npc_monster_normal_10</t>
-  </si>
-  <si>
-    <t>npc_creature_leader_3</t>
-  </si>
-  <si>
-    <t>npc_monster_elite_11</t>
-  </si>
-  <si>
-    <t>npc_monster_normal_11</t>
-  </si>
-  <si>
-    <t>npc_monster_elite_12</t>
-  </si>
-  <si>
-    <t>npc_monster_normal_12</t>
-  </si>
-  <si>
-    <t>npc_monster_elite_13</t>
-  </si>
-  <si>
-    <t>npc_monster_normal_13</t>
-  </si>
-  <si>
-    <t>npc_monster_elite_14</t>
-  </si>
-  <si>
-    <t>npc_monster_normal_14</t>
-  </si>
-  <si>
-    <t>npc_monster_elite_15</t>
-  </si>
-  <si>
-    <t>npc_monster_normal_15</t>
-  </si>
-  <si>
-    <t>npc_monster_elite_16</t>
-  </si>
-  <si>
-    <t>npc_monster_normal_16</t>
-  </si>
-  <si>
-    <t>npc_monster_elite_17</t>
-  </si>
-  <si>
-    <t>npc_monster_normal_17</t>
-  </si>
-  <si>
-    <t>npc_monster_elite_18</t>
-  </si>
-  <si>
-    <t>npc_monster_normal_18</t>
-  </si>
-  <si>
-    <t>npc_monster_elite_19</t>
-  </si>
-  <si>
-    <t>npc_monster_normal_19</t>
-  </si>
-  <si>
-    <t>npc_monster_elite_20</t>
-  </si>
-  <si>
-    <t>npc_monster_normal_20</t>
-  </si>
-  <si>
-    <t>无尽编号</t>
-  </si>
-  <si>
-    <t>解锁难度</t>
-  </si>
-  <si>
-    <t>使用的地图</t>
   </si>
 </sst>
 </file>
@@ -714,7 +627,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -743,10 +656,60 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Microsoft YaHei UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Microsoft YaHei UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Microsoft YaHei"/>
+      <name val="Microsoft YaHei UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Microsoft YaHei UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei UI"/>
       <charset val="134"/>
     </font>
     <font>
@@ -760,19 +723,6 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Microsoft YaHei"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Microsoft YaHei UI"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1144,7 +1094,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="40">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -1345,6 +1295,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thick">
+        <color rgb="FF595959"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF595959"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF595959"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1396,23 +1372,27 @@
       <left style="thick">
         <color rgb="FF595959"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color rgb="FFFFFFFF"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color rgb="FF5A5A5A"/>
+      </top>
       <bottom style="thick">
         <color rgb="FF595959"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color rgb="FFFFFFFF"/>
       </left>
-      <right style="medium">
-        <color rgb="FFFFFFFF"/>
+      <right style="thick">
+        <color rgb="FF595959"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color rgb="FF5A5A5A"/>
+      </top>
       <bottom style="thick">
         <color rgb="FF595959"/>
       </bottom>
@@ -1663,137 +1643,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="32" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="34" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1851,100 +1831,169 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2094,7 +2143,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{77D75A24-6326-4027-AAF9-5553287501E6}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{8C67B611-5FF3-430A-96DF-4F14C49418F8}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
@@ -2398,7 +2447,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -2666,13 +2715,13 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="14.5083333333333" customWidth="1"/>
-    <col min="2" max="2" width="27.875" style="36" customWidth="1"/>
+    <col min="2" max="2" width="27.875" style="59" customWidth="1"/>
     <col min="3" max="3" width="22.675" customWidth="1"/>
     <col min="4" max="5" width="13.3416666666667" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
@@ -2680,163 +2729,163 @@
   </cols>
   <sheetData>
     <row r="1" ht="95" customHeight="1" spans="1:7">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="G1" s="63" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="2" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="F2" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="40" t="s">
+      <c r="G2" s="63" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="3" ht="51" customHeight="1" spans="1:7">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="45">
+      <c r="D3" s="68">
         <v>8192</v>
       </c>
-      <c r="E3" s="46">
+      <c r="E3" s="69">
         <v>8192</v>
       </c>
-      <c r="F3" s="47">
+      <c r="F3" s="70">
         <v>6144</v>
       </c>
-      <c r="G3" s="47">
+      <c r="G3" s="70">
         <v>6144</v>
       </c>
     </row>
     <row r="4" ht="48" customHeight="1" spans="1:7">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="71" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="49">
+      <c r="D4" s="72">
         <v>8192</v>
       </c>
-      <c r="E4" s="50">
+      <c r="E4" s="73">
         <v>8192</v>
       </c>
-      <c r="F4" s="47">
+      <c r="F4" s="70">
         <v>6144</v>
       </c>
-      <c r="G4" s="47">
+      <c r="G4" s="70">
         <v>6144</v>
       </c>
     </row>
-    <row r="5" s="27" customFormat="1" ht="55.5" customHeight="1" spans="1:7">
-      <c r="A5" s="44" t="s">
+    <row r="5" s="50" customFormat="1" ht="55.5" customHeight="1" spans="1:7">
+      <c r="A5" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="45">
+      <c r="D5" s="68">
         <v>8192</v>
       </c>
-      <c r="E5" s="46">
+      <c r="E5" s="69">
         <v>8192</v>
       </c>
-      <c r="F5" s="47">
+      <c r="F5" s="70">
         <v>6144</v>
       </c>
-      <c r="G5" s="47">
+      <c r="G5" s="70">
         <v>6144</v>
       </c>
     </row>
-    <row r="6" s="27" customFormat="1" ht="55.5" customHeight="1" spans="1:7">
-      <c r="A6" s="48" t="s">
+    <row r="6" s="50" customFormat="1" ht="55.5" customHeight="1" spans="1:7">
+      <c r="A6" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="49">
+      <c r="D6" s="72">
         <v>8192</v>
       </c>
-      <c r="E6" s="50">
+      <c r="E6" s="73">
         <v>8192</v>
       </c>
-      <c r="F6" s="47">
+      <c r="F6" s="70">
         <v>6144</v>
       </c>
-      <c r="G6" s="47">
+      <c r="G6" s="70">
         <v>6144</v>
       </c>
     </row>
-    <row r="7" s="27" customFormat="1" ht="39" customHeight="1" spans="1:7">
-      <c r="A7" s="44" t="s">
+    <row r="7" s="50" customFormat="1" ht="39" customHeight="1" spans="1:7">
+      <c r="A7" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="45">
+      <c r="D7" s="68">
         <v>8192</v>
       </c>
-      <c r="E7" s="46">
+      <c r="E7" s="69">
         <v>8192</v>
       </c>
-      <c r="F7" s="47">
+      <c r="F7" s="70">
         <v>6144</v>
       </c>
-      <c r="G7" s="47">
+      <c r="G7" s="70">
         <v>6144</v>
       </c>
     </row>
@@ -2850,31 +2899,29 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N59"/>
+  <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="F8" sqref="F8"/>
+      <selection pane="topRight" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="18.575" customWidth="1"/>
-    <col min="2" max="2" width="14.5083333333333" customWidth="1"/>
-    <col min="3" max="4" width="14.5083333333333" customWidth="1"/>
-    <col min="5" max="5" width="21.5166666666667" style="28" customWidth="1"/>
+    <col min="2" max="4" width="14.5083333333333" customWidth="1"/>
+    <col min="5" max="5" width="21.5166666666667" style="51" customWidth="1"/>
     <col min="6" max="6" width="15.8666666666667" customWidth="1"/>
     <col min="7" max="7" width="21.675" customWidth="1"/>
     <col min="8" max="8" width="14.8416666666667" customWidth="1"/>
     <col min="9" max="9" width="15.625" customWidth="1"/>
-    <col min="10" max="10" width="24.3416666666667" customWidth="1"/>
-    <col min="11" max="12" width="21.9583333333333" customWidth="1"/>
-    <col min="13" max="13" width="21.7416666666667" customWidth="1"/>
-    <col min="14" max="14" width="19.35" customWidth="1"/>
+    <col min="10" max="11" width="21.9583333333333" customWidth="1"/>
+    <col min="12" max="12" width="21.7416666666667" customWidth="1"/>
+    <col min="13" max="13" width="19.35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="39" customHeight="1" spans="1:14">
+    <row r="1" ht="39" customHeight="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>59</v>
       </c>
@@ -2911,58 +2958,52 @@
       <c r="L1" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="N1" s="15" t="s">
+    </row>
+    <row r="2" ht="39" customHeight="1" spans="1:13">
+      <c r="A2" s="5" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="2" ht="39" customHeight="1" spans="1:14">
-      <c r="A2" s="5" t="s">
-        <v>71</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>72</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>73</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>42</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H2" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="J2" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="L2" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="M2" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="M2" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="N2" s="16" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" ht="39" customHeight="1" spans="1:14">
+    </row>
+    <row r="3" ht="39" customHeight="1" spans="1:13">
       <c r="A3" s="9">
         <v>101</v>
       </c>
@@ -2990,23 +3031,20 @@
       <c r="I3" s="11">
         <v>160</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="11">
+        <v>10</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="M3" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="K3" s="11">
-        <v>10</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="M3" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="N3" s="17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" ht="39" customHeight="1" spans="1:14">
+    </row>
+    <row r="4" ht="39" customHeight="1" spans="1:13">
       <c r="A4" s="9">
         <v>102</v>
       </c>
@@ -3034,23 +3072,20 @@
       <c r="I4" s="14">
         <v>160</v>
       </c>
-      <c r="J4" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="K4" s="14">
-        <v>10</v>
+      <c r="J4" s="14">
+        <v>10</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>83</v>
       </c>
       <c r="L4" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="M4" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="N4" s="18" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" ht="39" customHeight="1" spans="1:14">
+        <v>84</v>
+      </c>
+      <c r="M4" s="18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" ht="39" customHeight="1" spans="1:13">
       <c r="A5" s="9">
         <v>103</v>
       </c>
@@ -3078,23 +3113,20 @@
       <c r="I5" s="11">
         <v>160</v>
       </c>
-      <c r="J5" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="K5" s="11">
-        <v>10</v>
+      <c r="J5" s="11">
+        <v>10</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>85</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="M5" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="N5" s="17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" ht="39" customHeight="1" spans="1:14">
+        <v>86</v>
+      </c>
+      <c r="M5" s="17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" ht="39" customHeight="1" spans="1:13">
       <c r="A6" s="9">
         <v>104</v>
       </c>
@@ -3122,23 +3154,20 @@
       <c r="I6" s="14">
         <v>160</v>
       </c>
-      <c r="J6" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="K6" s="14">
-        <v>10</v>
+      <c r="J6" s="14">
+        <v>10</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>87</v>
       </c>
       <c r="L6" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="M6" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="N6" s="18" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" ht="39" customHeight="1" spans="1:14">
+        <v>88</v>
+      </c>
+      <c r="M6" s="18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" ht="39" customHeight="1" spans="1:13">
       <c r="A7" s="9">
         <v>105</v>
       </c>
@@ -3161,28 +3190,25 @@
         <v>104</v>
       </c>
       <c r="H7" s="11">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I7" s="11">
         <v>160</v>
       </c>
-      <c r="J7" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="K7" s="11">
-        <v>10</v>
+      <c r="J7" s="11">
+        <v>10</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>89</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="M7" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="N7" s="17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" ht="39" customHeight="1" spans="1:14">
+        <v>90</v>
+      </c>
+      <c r="M7" s="17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" ht="39" customHeight="1" spans="1:13">
       <c r="A8" s="9">
         <v>106</v>
       </c>
@@ -3210,23 +3236,20 @@
       <c r="I8" s="11">
         <v>160</v>
       </c>
-      <c r="J8" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="K8" s="11">
-        <v>10</v>
+      <c r="J8" s="11">
+        <v>10</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>89</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="M8" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="N8" s="17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" ht="39" customHeight="1" spans="1:14">
+        <v>90</v>
+      </c>
+      <c r="M8" s="17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" ht="39" customHeight="1" spans="1:13">
       <c r="A9" s="9">
         <v>107</v>
       </c>
@@ -3254,23 +3277,20 @@
       <c r="I9" s="11">
         <v>160</v>
       </c>
-      <c r="J9" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="K9" s="11">
-        <v>10</v>
+      <c r="J9" s="11">
+        <v>10</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>89</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="M9" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="N9" s="17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" ht="39" customHeight="1" spans="1:14">
+        <v>90</v>
+      </c>
+      <c r="M9" s="17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" ht="39" customHeight="1" spans="1:13">
       <c r="A10" s="9">
         <v>108</v>
       </c>
@@ -3298,23 +3318,20 @@
       <c r="I10" s="11">
         <v>160</v>
       </c>
-      <c r="J10" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="K10" s="11">
-        <v>10</v>
+      <c r="J10" s="11">
+        <v>10</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>89</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="M10" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="N10" s="17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" ht="39" customHeight="1" spans="1:14">
+        <v>90</v>
+      </c>
+      <c r="M10" s="17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" ht="39" customHeight="1" spans="1:13">
       <c r="A11" s="9">
         <v>109</v>
       </c>
@@ -3342,23 +3359,20 @@
       <c r="I11" s="11">
         <v>160</v>
       </c>
-      <c r="J11" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="K11" s="11">
-        <v>10</v>
+      <c r="J11" s="11">
+        <v>10</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>89</v>
       </c>
       <c r="L11" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="M11" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="N11" s="17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" ht="39" customHeight="1" spans="1:14">
+        <v>90</v>
+      </c>
+      <c r="M11" s="17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" ht="39" customHeight="1" spans="1:13">
       <c r="A12" s="9">
         <v>110</v>
       </c>
@@ -3386,23 +3400,20 @@
       <c r="I12" s="11">
         <v>160</v>
       </c>
-      <c r="J12" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="K12" s="11">
-        <v>10</v>
+      <c r="J12" s="11">
+        <v>10</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>89</v>
       </c>
       <c r="L12" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="M12" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="N12" s="17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="13" ht="39" customHeight="1" spans="1:14">
+        <v>90</v>
+      </c>
+      <c r="M12" s="17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" ht="39" customHeight="1" spans="1:13">
       <c r="A13" s="9">
         <v>111</v>
       </c>
@@ -3430,23 +3441,20 @@
       <c r="I13" s="11">
         <v>160</v>
       </c>
-      <c r="J13" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="K13" s="11">
-        <v>10</v>
+      <c r="J13" s="11">
+        <v>10</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>89</v>
       </c>
       <c r="L13" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="M13" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="N13" s="17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="14" ht="39" customHeight="1" spans="1:14">
+        <v>90</v>
+      </c>
+      <c r="M13" s="17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" ht="39" customHeight="1" spans="1:13">
       <c r="A14" s="9">
         <v>112</v>
       </c>
@@ -3474,23 +3482,20 @@
       <c r="I14" s="11">
         <v>160</v>
       </c>
-      <c r="J14" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="K14" s="11">
-        <v>10</v>
+      <c r="J14" s="11">
+        <v>10</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>89</v>
       </c>
       <c r="L14" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="M14" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="N14" s="17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="15" ht="39" customHeight="1" spans="1:14">
+        <v>90</v>
+      </c>
+      <c r="M14" s="17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" ht="39" customHeight="1" spans="1:13">
       <c r="A15" s="9">
         <v>113</v>
       </c>
@@ -3518,23 +3523,20 @@
       <c r="I15" s="11">
         <v>160</v>
       </c>
-      <c r="J15" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="K15" s="11">
-        <v>10</v>
+      <c r="J15" s="11">
+        <v>10</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>89</v>
       </c>
       <c r="L15" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="M15" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="N15" s="17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="16" ht="39" customHeight="1" spans="1:14">
+        <v>90</v>
+      </c>
+      <c r="M15" s="17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" ht="39" customHeight="1" spans="1:13">
       <c r="A16" s="9">
         <v>114</v>
       </c>
@@ -3562,23 +3564,20 @@
       <c r="I16" s="11">
         <v>160</v>
       </c>
-      <c r="J16" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="K16" s="11">
-        <v>10</v>
+      <c r="J16" s="11">
+        <v>10</v>
+      </c>
+      <c r="K16" s="11" t="s">
+        <v>89</v>
       </c>
       <c r="L16" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="M16" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="N16" s="17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="17" ht="39" customHeight="1" spans="1:14">
+        <v>90</v>
+      </c>
+      <c r="M16" s="17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" ht="39" customHeight="1" spans="1:13">
       <c r="A17" s="9">
         <v>115</v>
       </c>
@@ -3606,23 +3605,20 @@
       <c r="I17" s="11">
         <v>160</v>
       </c>
-      <c r="J17" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="K17" s="11">
-        <v>10</v>
+      <c r="J17" s="11">
+        <v>10</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>89</v>
       </c>
       <c r="L17" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="M17" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="N17" s="17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="18" ht="39" customHeight="1" spans="1:14">
+        <v>90</v>
+      </c>
+      <c r="M17" s="17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" ht="39" customHeight="1" spans="1:13">
       <c r="A18" s="9">
         <v>116</v>
       </c>
@@ -3650,23 +3646,20 @@
       <c r="I18" s="11">
         <v>160</v>
       </c>
-      <c r="J18" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="K18" s="11">
-        <v>10</v>
+      <c r="J18" s="11">
+        <v>10</v>
+      </c>
+      <c r="K18" s="11" t="s">
+        <v>89</v>
       </c>
       <c r="L18" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="M18" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="N18" s="17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="19" ht="39" customHeight="1" spans="1:14">
+        <v>90</v>
+      </c>
+      <c r="M18" s="17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" ht="39" customHeight="1" spans="1:13">
       <c r="A19" s="9">
         <v>117</v>
       </c>
@@ -3694,23 +3687,20 @@
       <c r="I19" s="11">
         <v>160</v>
       </c>
-      <c r="J19" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="K19" s="11">
-        <v>10</v>
+      <c r="J19" s="11">
+        <v>10</v>
+      </c>
+      <c r="K19" s="11" t="s">
+        <v>89</v>
       </c>
       <c r="L19" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="M19" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="N19" s="17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="20" ht="39" customHeight="1" spans="1:14">
+        <v>90</v>
+      </c>
+      <c r="M19" s="17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" ht="39" customHeight="1" spans="1:13">
       <c r="A20" s="9">
         <v>118</v>
       </c>
@@ -3738,23 +3728,20 @@
       <c r="I20" s="11">
         <v>160</v>
       </c>
-      <c r="J20" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="K20" s="11">
-        <v>10</v>
+      <c r="J20" s="11">
+        <v>10</v>
+      </c>
+      <c r="K20" s="11" t="s">
+        <v>89</v>
       </c>
       <c r="L20" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="M20" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="N20" s="17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="21" ht="39" customHeight="1" spans="1:14">
+        <v>90</v>
+      </c>
+      <c r="M20" s="17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" ht="39" customHeight="1" spans="1:13">
       <c r="A21" s="9">
         <v>119</v>
       </c>
@@ -3782,23 +3769,20 @@
       <c r="I21" s="11">
         <v>160</v>
       </c>
-      <c r="J21" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="K21" s="11">
-        <v>10</v>
+      <c r="J21" s="11">
+        <v>10</v>
+      </c>
+      <c r="K21" s="11" t="s">
+        <v>89</v>
       </c>
       <c r="L21" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="M21" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="N21" s="17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="22" ht="39" customHeight="1" spans="1:14">
+        <v>90</v>
+      </c>
+      <c r="M21" s="17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" ht="39" customHeight="1" spans="1:13">
       <c r="A22" s="9">
         <v>120</v>
       </c>
@@ -3826,23 +3810,20 @@
       <c r="I22" s="11">
         <v>160</v>
       </c>
-      <c r="J22" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="K22" s="11">
-        <v>10</v>
+      <c r="J22" s="11">
+        <v>10</v>
+      </c>
+      <c r="K22" s="11" t="s">
+        <v>89</v>
       </c>
       <c r="L22" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="M22" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="N22" s="17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="23" ht="39" customHeight="1" spans="1:14">
+        <v>90</v>
+      </c>
+      <c r="M22" s="17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" ht="39" customHeight="1" spans="1:13">
       <c r="A23" s="9">
         <v>121</v>
       </c>
@@ -3870,23 +3851,20 @@
       <c r="I23" s="11">
         <v>160</v>
       </c>
-      <c r="J23" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="K23" s="11">
-        <v>10</v>
+      <c r="J23" s="11">
+        <v>10</v>
+      </c>
+      <c r="K23" s="11" t="s">
+        <v>89</v>
       </c>
       <c r="L23" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="M23" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="N23" s="17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="24" ht="39" customHeight="1" spans="1:14">
+        <v>90</v>
+      </c>
+      <c r="M23" s="17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" ht="39" customHeight="1" spans="1:13">
       <c r="A24" s="9">
         <v>122</v>
       </c>
@@ -3914,23 +3892,20 @@
       <c r="I24" s="11">
         <v>160</v>
       </c>
-      <c r="J24" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="K24" s="11">
-        <v>10</v>
+      <c r="J24" s="11">
+        <v>10</v>
+      </c>
+      <c r="K24" s="11" t="s">
+        <v>89</v>
       </c>
       <c r="L24" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="M24" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="N24" s="17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25" ht="39" customHeight="1" spans="1:14">
+        <v>90</v>
+      </c>
+      <c r="M24" s="17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" ht="39" customHeight="1" spans="1:13">
       <c r="A25" s="9">
         <v>123</v>
       </c>
@@ -3958,23 +3933,20 @@
       <c r="I25" s="11">
         <v>160</v>
       </c>
-      <c r="J25" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="K25" s="11">
-        <v>10</v>
+      <c r="J25" s="11">
+        <v>10</v>
+      </c>
+      <c r="K25" s="11" t="s">
+        <v>89</v>
       </c>
       <c r="L25" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="M25" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="N25" s="17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="26" ht="39" customHeight="1" spans="1:14">
+        <v>90</v>
+      </c>
+      <c r="M25" s="17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" ht="39" customHeight="1" spans="1:13">
       <c r="A26" s="9">
         <v>124</v>
       </c>
@@ -4002,30 +3974,27 @@
       <c r="I26" s="11">
         <v>160</v>
       </c>
-      <c r="J26" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="K26" s="11">
-        <v>10</v>
+      <c r="J26" s="11">
+        <v>10</v>
+      </c>
+      <c r="K26" s="11" t="s">
+        <v>89</v>
       </c>
       <c r="L26" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="M26" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="N26" s="17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="27" ht="39" customHeight="1" spans="1:14">
+        <v>90</v>
+      </c>
+      <c r="M26" s="17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" ht="39" customHeight="1" spans="1:13">
       <c r="A27" s="9">
         <v>125</v>
       </c>
       <c r="B27" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="29">
+      <c r="C27" s="52">
         <v>4</v>
       </c>
       <c r="D27" s="11">
@@ -4046,30 +4015,27 @@
       <c r="I27" s="11">
         <v>160</v>
       </c>
-      <c r="J27" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="K27" s="11">
-        <v>10</v>
+      <c r="J27" s="11">
+        <v>10</v>
+      </c>
+      <c r="K27" s="11" t="s">
+        <v>89</v>
       </c>
       <c r="L27" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="M27" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="N27" s="17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="28" ht="39" customHeight="1" spans="1:14">
+        <v>90</v>
+      </c>
+      <c r="M27" s="17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" ht="39" customHeight="1" spans="1:13">
       <c r="A28" s="9">
         <v>126</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="29">
+      <c r="C28" s="52">
         <v>4</v>
       </c>
       <c r="D28" s="11">
@@ -4090,30 +4056,27 @@
       <c r="I28" s="11">
         <v>160</v>
       </c>
-      <c r="J28" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="K28" s="11">
-        <v>10</v>
+      <c r="J28" s="11">
+        <v>10</v>
+      </c>
+      <c r="K28" s="11" t="s">
+        <v>89</v>
       </c>
       <c r="L28" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="M28" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="N28" s="17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="29" ht="39" customHeight="1" spans="1:14">
+        <v>90</v>
+      </c>
+      <c r="M28" s="17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" ht="39" customHeight="1" spans="1:13">
       <c r="A29" s="9">
         <v>127</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="29">
+      <c r="C29" s="52">
         <v>4</v>
       </c>
       <c r="D29" s="11">
@@ -4134,30 +4097,27 @@
       <c r="I29" s="11">
         <v>160</v>
       </c>
-      <c r="J29" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="K29" s="11">
-        <v>10</v>
+      <c r="J29" s="11">
+        <v>10</v>
+      </c>
+      <c r="K29" s="11" t="s">
+        <v>89</v>
       </c>
       <c r="L29" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="M29" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="N29" s="17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="30" ht="39" customHeight="1" spans="1:14">
+        <v>90</v>
+      </c>
+      <c r="M29" s="17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" ht="39" customHeight="1" spans="1:13">
       <c r="A30" s="9">
         <v>128</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="29">
+      <c r="C30" s="52">
         <v>4</v>
       </c>
       <c r="D30" s="11">
@@ -4178,30 +4138,27 @@
       <c r="I30" s="11">
         <v>160</v>
       </c>
-      <c r="J30" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="K30" s="11">
-        <v>10</v>
+      <c r="J30" s="11">
+        <v>10</v>
+      </c>
+      <c r="K30" s="11" t="s">
+        <v>89</v>
       </c>
       <c r="L30" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="M30" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="N30" s="17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="31" ht="39" customHeight="1" spans="1:14">
+        <v>90</v>
+      </c>
+      <c r="M30" s="17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" ht="39" customHeight="1" spans="1:13">
       <c r="A31" s="9">
         <v>129</v>
       </c>
       <c r="B31" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="29">
+      <c r="C31" s="52">
         <v>4</v>
       </c>
       <c r="D31" s="11">
@@ -4222,30 +4179,27 @@
       <c r="I31" s="11">
         <v>160</v>
       </c>
-      <c r="J31" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="K31" s="11">
-        <v>10</v>
+      <c r="J31" s="11">
+        <v>10</v>
+      </c>
+      <c r="K31" s="11" t="s">
+        <v>89</v>
       </c>
       <c r="L31" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="M31" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="N31" s="17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="32" ht="39" customHeight="1" spans="1:14">
+        <v>90</v>
+      </c>
+      <c r="M31" s="17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" ht="39" customHeight="1" spans="1:13">
       <c r="A32" s="9">
         <v>130</v>
       </c>
       <c r="B32" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="29">
+      <c r="C32" s="52">
         <v>4</v>
       </c>
       <c r="D32" s="11">
@@ -4266,30 +4220,27 @@
       <c r="I32" s="11">
         <v>160</v>
       </c>
-      <c r="J32" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="K32" s="11">
-        <v>10</v>
+      <c r="J32" s="11">
+        <v>10</v>
+      </c>
+      <c r="K32" s="11" t="s">
+        <v>89</v>
       </c>
       <c r="L32" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="M32" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="N32" s="17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="33" ht="39" customHeight="1" spans="1:14">
+        <v>90</v>
+      </c>
+      <c r="M32" s="17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" ht="39" customHeight="1" spans="1:13">
       <c r="A33" s="9">
         <v>131</v>
       </c>
       <c r="B33" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="29">
+      <c r="C33" s="52">
         <v>4</v>
       </c>
       <c r="D33" s="11">
@@ -4310,30 +4261,27 @@
       <c r="I33" s="11">
         <v>160</v>
       </c>
-      <c r="J33" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="K33" s="11">
-        <v>10</v>
+      <c r="J33" s="11">
+        <v>10</v>
+      </c>
+      <c r="K33" s="11" t="s">
+        <v>89</v>
       </c>
       <c r="L33" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="M33" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="N33" s="17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="34" ht="39" customHeight="1" spans="1:14">
+        <v>90</v>
+      </c>
+      <c r="M33" s="17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" ht="39" customHeight="1" spans="1:13">
       <c r="A34" s="9">
         <v>132</v>
       </c>
       <c r="B34" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="29">
+      <c r="C34" s="52">
         <v>4</v>
       </c>
       <c r="D34" s="11">
@@ -4354,33 +4302,30 @@
       <c r="I34" s="11">
         <v>160</v>
       </c>
-      <c r="J34" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="K34" s="11">
-        <v>10</v>
+      <c r="J34" s="11">
+        <v>10</v>
+      </c>
+      <c r="K34" s="11" t="s">
+        <v>89</v>
       </c>
       <c r="L34" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="M34" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="N34" s="17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="35" ht="39" customHeight="1" spans="1:14">
+        <v>90</v>
+      </c>
+      <c r="M34" s="17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" ht="39" customHeight="1" spans="1:13">
       <c r="A35" s="9">
         <v>133</v>
       </c>
       <c r="B35" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="29">
+      <c r="C35" s="52">
         <v>5</v>
       </c>
-      <c r="D35" s="29">
+      <c r="D35" s="52">
         <v>5</v>
       </c>
       <c r="E35" s="11" t="s">
@@ -4398,33 +4343,30 @@
       <c r="I35" s="11">
         <v>160</v>
       </c>
-      <c r="J35" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="K35" s="11">
-        <v>10</v>
+      <c r="J35" s="11">
+        <v>10</v>
+      </c>
+      <c r="K35" s="11" t="s">
+        <v>89</v>
       </c>
       <c r="L35" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="M35" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="N35" s="17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="36" ht="39" customHeight="1" spans="1:14">
+        <v>90</v>
+      </c>
+      <c r="M35" s="17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36" ht="39" customHeight="1" spans="1:13">
       <c r="A36" s="9">
         <v>134</v>
       </c>
       <c r="B36" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="29">
+      <c r="C36" s="52">
         <v>5</v>
       </c>
-      <c r="D36" s="29">
+      <c r="D36" s="52">
         <v>6</v>
       </c>
       <c r="E36" s="11" t="s">
@@ -4442,33 +4384,30 @@
       <c r="I36" s="11">
         <v>160</v>
       </c>
-      <c r="J36" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="K36" s="11">
-        <v>10</v>
+      <c r="J36" s="11">
+        <v>10</v>
+      </c>
+      <c r="K36" s="11" t="s">
+        <v>89</v>
       </c>
       <c r="L36" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="M36" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="N36" s="17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="37" ht="39" customHeight="1" spans="1:14">
+        <v>90</v>
+      </c>
+      <c r="M36" s="17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" ht="39" customHeight="1" spans="1:13">
       <c r="A37" s="9">
         <v>135</v>
       </c>
       <c r="B37" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C37" s="29">
+      <c r="C37" s="52">
         <v>5</v>
       </c>
-      <c r="D37" s="29">
+      <c r="D37" s="52">
         <v>7</v>
       </c>
       <c r="E37" s="11" t="s">
@@ -4486,33 +4425,30 @@
       <c r="I37" s="11">
         <v>160</v>
       </c>
-      <c r="J37" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="K37" s="11">
-        <v>10</v>
+      <c r="J37" s="11">
+        <v>10</v>
+      </c>
+      <c r="K37" s="11" t="s">
+        <v>89</v>
       </c>
       <c r="L37" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="M37" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="N37" s="17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="38" ht="39" customHeight="1" spans="1:14">
+        <v>90</v>
+      </c>
+      <c r="M37" s="17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" ht="39" customHeight="1" spans="1:13">
       <c r="A38" s="9">
         <v>136</v>
       </c>
       <c r="B38" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C38" s="29">
+      <c r="C38" s="52">
         <v>5</v>
       </c>
-      <c r="D38" s="29">
+      <c r="D38" s="52">
         <v>8</v>
       </c>
       <c r="E38" s="11" t="s">
@@ -4530,23 +4466,20 @@
       <c r="I38" s="11">
         <v>160</v>
       </c>
-      <c r="J38" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="K38" s="11">
-        <v>10</v>
+      <c r="J38" s="11">
+        <v>10</v>
+      </c>
+      <c r="K38" s="11" t="s">
+        <v>89</v>
       </c>
       <c r="L38" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="M38" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="N38" s="17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="39" ht="39" customHeight="1" spans="1:14">
+        <v>90</v>
+      </c>
+      <c r="M38" s="17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" ht="39" customHeight="1" spans="1:13">
       <c r="A39" s="12">
         <v>201</v>
       </c>
@@ -4574,23 +4507,20 @@
       <c r="I39" s="14">
         <v>160</v>
       </c>
-      <c r="J39" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="K39" s="14">
-        <v>10</v>
+      <c r="J39" s="14">
+        <v>10</v>
+      </c>
+      <c r="K39" s="14" t="s">
+        <v>91</v>
       </c>
       <c r="L39" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="M39" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="N39" s="18" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="40" ht="39" customHeight="1" spans="1:14">
+        <v>92</v>
+      </c>
+      <c r="M39" s="18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" ht="39" customHeight="1" spans="1:13">
       <c r="A40" s="9">
         <v>202</v>
       </c>
@@ -4618,23 +4548,20 @@
       <c r="I40" s="11">
         <v>160</v>
       </c>
-      <c r="J40" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="K40" s="11">
-        <v>10</v>
+      <c r="J40" s="11">
+        <v>10</v>
+      </c>
+      <c r="K40" s="11" t="s">
+        <v>93</v>
       </c>
       <c r="L40" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="M40" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="N40" s="17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="41" ht="39" customHeight="1" spans="1:14">
+        <v>94</v>
+      </c>
+      <c r="M40" s="17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" ht="39" customHeight="1" spans="1:13">
       <c r="A41" s="12">
         <v>203</v>
       </c>
@@ -4662,23 +4589,20 @@
       <c r="I41" s="14">
         <v>160</v>
       </c>
-      <c r="J41" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="K41" s="14">
-        <v>10</v>
+      <c r="J41" s="14">
+        <v>10</v>
+      </c>
+      <c r="K41" s="14" t="s">
+        <v>95</v>
       </c>
       <c r="L41" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="M41" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="N41" s="18" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="42" ht="39" customHeight="1" spans="1:14">
+        <v>96</v>
+      </c>
+      <c r="M41" s="18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" ht="39" customHeight="1" spans="1:13">
       <c r="A42" s="9">
         <v>204</v>
       </c>
@@ -4706,23 +4630,20 @@
       <c r="I42" s="11">
         <v>160</v>
       </c>
-      <c r="J42" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="K42" s="11">
-        <v>10</v>
+      <c r="J42" s="11">
+        <v>10</v>
+      </c>
+      <c r="K42" s="11" t="s">
+        <v>97</v>
       </c>
       <c r="L42" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="M42" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="N42" s="17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="43" customFormat="1" ht="39" customHeight="1" spans="1:14">
+        <v>98</v>
+      </c>
+      <c r="M42" s="17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" customFormat="1" ht="39" customHeight="1" spans="1:13">
       <c r="A43" s="12">
         <v>205</v>
       </c>
@@ -4750,23 +4671,20 @@
       <c r="I43" s="14">
         <v>160</v>
       </c>
-      <c r="J43" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="K43" s="14">
-        <v>10</v>
+      <c r="J43" s="14">
+        <v>10</v>
+      </c>
+      <c r="K43" s="14" t="s">
+        <v>99</v>
       </c>
       <c r="L43" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="M43" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="N43" s="18" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="44" s="27" customFormat="1" ht="39" customHeight="1" spans="1:14">
+        <v>100</v>
+      </c>
+      <c r="M43" s="18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" s="50" customFormat="1" ht="39" customHeight="1" spans="1:13">
       <c r="A44" s="9">
         <v>301</v>
       </c>
@@ -4779,7 +4697,7 @@
       <c r="D44" s="11">
         <v>1</v>
       </c>
-      <c r="E44" s="30" t="s">
+      <c r="E44" s="53" t="s">
         <v>53</v>
       </c>
       <c r="F44" s="11">
@@ -4794,23 +4712,20 @@
       <c r="I44" s="11">
         <v>160</v>
       </c>
-      <c r="J44" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="K44" s="11">
-        <v>10</v>
+      <c r="J44" s="11">
+        <v>10</v>
+      </c>
+      <c r="K44" s="11" t="s">
+        <v>101</v>
       </c>
       <c r="L44" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="M44" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="N44" s="17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="45" s="27" customFormat="1" ht="39" customHeight="1" spans="1:14">
+        <v>102</v>
+      </c>
+      <c r="M44" s="17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="45" s="50" customFormat="1" ht="39" customHeight="1" spans="1:13">
       <c r="A45" s="12">
         <v>302</v>
       </c>
@@ -4823,7 +4738,7 @@
       <c r="D45" s="11">
         <v>2</v>
       </c>
-      <c r="E45" s="31" t="s">
+      <c r="E45" s="54" t="s">
         <v>53</v>
       </c>
       <c r="F45" s="14">
@@ -4838,23 +4753,20 @@
       <c r="I45" s="14">
         <v>160</v>
       </c>
-      <c r="J45" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="K45" s="14">
-        <v>10</v>
+      <c r="J45" s="14">
+        <v>10</v>
+      </c>
+      <c r="K45" s="14" t="s">
+        <v>103</v>
       </c>
       <c r="L45" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="M45" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="N45" s="18" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="46" s="27" customFormat="1" ht="39" customHeight="1" spans="1:14">
+        <v>104</v>
+      </c>
+      <c r="M45" s="18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="46" s="50" customFormat="1" ht="39" customHeight="1" spans="1:13">
       <c r="A46" s="9">
         <v>303</v>
       </c>
@@ -4867,7 +4779,7 @@
       <c r="D46" s="11">
         <v>3</v>
       </c>
-      <c r="E46" s="30" t="s">
+      <c r="E46" s="53" t="s">
         <v>53</v>
       </c>
       <c r="F46" s="11">
@@ -4882,23 +4794,20 @@
       <c r="I46" s="11">
         <v>160</v>
       </c>
-      <c r="J46" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="K46" s="11">
-        <v>10</v>
+      <c r="J46" s="11">
+        <v>10</v>
+      </c>
+      <c r="K46" s="11" t="s">
+        <v>105</v>
       </c>
       <c r="L46" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="M46" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="N46" s="17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="47" s="27" customFormat="1" ht="39" customHeight="1" spans="1:14">
+        <v>106</v>
+      </c>
+      <c r="M46" s="17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" s="50" customFormat="1" ht="39" customHeight="1" spans="1:13">
       <c r="A47" s="12">
         <v>304</v>
       </c>
@@ -4911,7 +4820,7 @@
       <c r="D47" s="11">
         <v>4</v>
       </c>
-      <c r="E47" s="31" t="s">
+      <c r="E47" s="54" t="s">
         <v>53</v>
       </c>
       <c r="F47" s="14">
@@ -4926,23 +4835,20 @@
       <c r="I47" s="14">
         <v>160</v>
       </c>
-      <c r="J47" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="K47" s="14">
-        <v>10</v>
+      <c r="J47" s="14">
+        <v>10</v>
+      </c>
+      <c r="K47" s="14" t="s">
+        <v>107</v>
       </c>
       <c r="L47" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="M47" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="N47" s="18" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="48" s="27" customFormat="1" ht="39" customHeight="1" spans="1:14">
+        <v>108</v>
+      </c>
+      <c r="M47" s="18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="48" s="50" customFormat="1" ht="39" customHeight="1" spans="1:13">
       <c r="A48" s="9">
         <v>305</v>
       </c>
@@ -4955,7 +4861,7 @@
       <c r="D48" s="11">
         <v>5</v>
       </c>
-      <c r="E48" s="30" t="s">
+      <c r="E48" s="53" t="s">
         <v>53</v>
       </c>
       <c r="F48" s="11">
@@ -4970,23 +4876,20 @@
       <c r="I48" s="11">
         <v>160</v>
       </c>
-      <c r="J48" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="K48" s="11">
-        <v>10</v>
+      <c r="J48" s="11">
+        <v>10</v>
+      </c>
+      <c r="K48" s="11" t="s">
+        <v>109</v>
       </c>
       <c r="L48" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="M48" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="N48" s="17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="49" s="27" customFormat="1" ht="39" customHeight="1" spans="1:14">
+        <v>110</v>
+      </c>
+      <c r="M48" s="17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" s="50" customFormat="1" ht="39" customHeight="1" spans="1:13">
       <c r="A49" s="12">
         <v>401</v>
       </c>
@@ -4999,7 +4902,7 @@
       <c r="D49" s="11">
         <v>1</v>
       </c>
-      <c r="E49" s="31" t="s">
+      <c r="E49" s="54" t="s">
         <v>55</v>
       </c>
       <c r="F49" s="14">
@@ -5014,23 +4917,20 @@
       <c r="I49" s="14">
         <v>160</v>
       </c>
-      <c r="J49" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="K49" s="14">
-        <v>10</v>
+      <c r="J49" s="14">
+        <v>10</v>
+      </c>
+      <c r="K49" s="14" t="s">
+        <v>111</v>
       </c>
       <c r="L49" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="M49" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="N49" s="18" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="50" s="27" customFormat="1" ht="39" customHeight="1" spans="1:14">
+        <v>112</v>
+      </c>
+      <c r="M49" s="18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="50" s="50" customFormat="1" ht="39" customHeight="1" spans="1:13">
       <c r="A50" s="9">
         <v>402</v>
       </c>
@@ -5043,7 +4943,7 @@
       <c r="D50" s="11">
         <v>2</v>
       </c>
-      <c r="E50" s="30" t="s">
+      <c r="E50" s="53" t="s">
         <v>55</v>
       </c>
       <c r="F50" s="11">
@@ -5058,23 +4958,20 @@
       <c r="I50" s="11">
         <v>160</v>
       </c>
-      <c r="J50" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="K50" s="11">
-        <v>10</v>
+      <c r="J50" s="11">
+        <v>10</v>
+      </c>
+      <c r="K50" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="L50" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="M50" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="N50" s="17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="51" s="27" customFormat="1" ht="39" customHeight="1" spans="1:14">
+        <v>114</v>
+      </c>
+      <c r="M50" s="17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51" s="50" customFormat="1" ht="39" customHeight="1" spans="1:13">
       <c r="A51" s="12">
         <v>403</v>
       </c>
@@ -5087,7 +4984,7 @@
       <c r="D51" s="11">
         <v>3</v>
       </c>
-      <c r="E51" s="31" t="s">
+      <c r="E51" s="54" t="s">
         <v>55</v>
       </c>
       <c r="F51" s="14">
@@ -5102,23 +4999,20 @@
       <c r="I51" s="14">
         <v>160</v>
       </c>
-      <c r="J51" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="K51" s="14">
-        <v>10</v>
+      <c r="J51" s="14">
+        <v>10</v>
+      </c>
+      <c r="K51" s="14" t="s">
+        <v>115</v>
       </c>
       <c r="L51" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="M51" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="N51" s="18" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="52" s="27" customFormat="1" ht="39" customHeight="1" spans="1:14">
+        <v>116</v>
+      </c>
+      <c r="M51" s="18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="52" s="50" customFormat="1" ht="39" customHeight="1" spans="1:13">
       <c r="A52" s="9">
         <v>404</v>
       </c>
@@ -5131,7 +5025,7 @@
       <c r="D52" s="11">
         <v>4</v>
       </c>
-      <c r="E52" s="30" t="s">
+      <c r="E52" s="53" t="s">
         <v>55</v>
       </c>
       <c r="F52" s="11">
@@ -5146,23 +5040,20 @@
       <c r="I52" s="11">
         <v>160</v>
       </c>
-      <c r="J52" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="K52" s="11">
-        <v>10</v>
+      <c r="J52" s="11">
+        <v>10</v>
+      </c>
+      <c r="K52" s="11" t="s">
+        <v>117</v>
       </c>
       <c r="L52" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="M52" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="N52" s="17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="53" s="27" customFormat="1" ht="39" customHeight="1" spans="1:14">
+        <v>118</v>
+      </c>
+      <c r="M52" s="17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="53" s="50" customFormat="1" ht="39" customHeight="1" spans="1:13">
       <c r="A53" s="12">
         <v>405</v>
       </c>
@@ -5175,7 +5066,7 @@
       <c r="D53" s="11">
         <v>5</v>
       </c>
-      <c r="E53" s="31" t="s">
+      <c r="E53" s="54" t="s">
         <v>55</v>
       </c>
       <c r="F53" s="14">
@@ -5190,23 +5081,20 @@
       <c r="I53" s="14">
         <v>160</v>
       </c>
-      <c r="J53" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="K53" s="14">
-        <v>10</v>
+      <c r="J53" s="14">
+        <v>10</v>
+      </c>
+      <c r="K53" s="14" t="s">
+        <v>119</v>
       </c>
       <c r="L53" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="M53" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="N53" s="18" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="54" s="27" customFormat="1" ht="39" customHeight="1" spans="1:14">
+        <v>120</v>
+      </c>
+      <c r="M53" s="18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="54" s="50" customFormat="1" ht="39" customHeight="1" spans="1:13">
       <c r="A54" s="9">
         <v>501</v>
       </c>
@@ -5219,7 +5107,7 @@
       <c r="D54" s="11">
         <v>1</v>
       </c>
-      <c r="E54" s="30" t="s">
+      <c r="E54" s="53" t="s">
         <v>57</v>
       </c>
       <c r="F54" s="11">
@@ -5234,23 +5122,20 @@
       <c r="I54" s="11">
         <v>160</v>
       </c>
-      <c r="J54" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="K54" s="11">
-        <v>10</v>
+      <c r="J54" s="11">
+        <v>10</v>
+      </c>
+      <c r="K54" s="11" t="s">
+        <v>121</v>
       </c>
       <c r="L54" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="M54" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="N54" s="17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="55" s="27" customFormat="1" ht="39" customHeight="1" spans="1:14">
+        <v>122</v>
+      </c>
+      <c r="M54" s="17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55" s="50" customFormat="1" ht="39" customHeight="1" spans="1:13">
       <c r="A55" s="12">
         <v>502</v>
       </c>
@@ -5263,7 +5148,7 @@
       <c r="D55" s="11">
         <v>2</v>
       </c>
-      <c r="E55" s="31" t="s">
+      <c r="E55" s="54" t="s">
         <v>57</v>
       </c>
       <c r="F55" s="14">
@@ -5278,23 +5163,20 @@
       <c r="I55" s="14">
         <v>160</v>
       </c>
-      <c r="J55" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="K55" s="14">
-        <v>10</v>
+      <c r="J55" s="14">
+        <v>10</v>
+      </c>
+      <c r="K55" s="14" t="s">
+        <v>121</v>
       </c>
       <c r="L55" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="M55" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="N55" s="18" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="56" s="27" customFormat="1" ht="39" customHeight="1" spans="1:14">
+        <v>122</v>
+      </c>
+      <c r="M55" s="18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="56" s="50" customFormat="1" ht="39" customHeight="1" spans="1:13">
       <c r="A56" s="9">
         <v>503</v>
       </c>
@@ -5307,7 +5189,7 @@
       <c r="D56" s="11">
         <v>3</v>
       </c>
-      <c r="E56" s="30" t="s">
+      <c r="E56" s="53" t="s">
         <v>57</v>
       </c>
       <c r="F56" s="11">
@@ -5322,23 +5204,20 @@
       <c r="I56" s="11">
         <v>160</v>
       </c>
-      <c r="J56" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="K56" s="11">
-        <v>10</v>
+      <c r="J56" s="11">
+        <v>10</v>
+      </c>
+      <c r="K56" s="11" t="s">
+        <v>121</v>
       </c>
       <c r="L56" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="M56" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="N56" s="17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="57" s="27" customFormat="1" ht="39" customHeight="1" spans="1:14">
+        <v>122</v>
+      </c>
+      <c r="M56" s="17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="57" s="50" customFormat="1" ht="39" customHeight="1" spans="1:13">
       <c r="A57" s="12">
         <v>504</v>
       </c>
@@ -5351,7 +5230,7 @@
       <c r="D57" s="11">
         <v>4</v>
       </c>
-      <c r="E57" s="31" t="s">
+      <c r="E57" s="54" t="s">
         <v>57</v>
       </c>
       <c r="F57" s="14">
@@ -5366,24 +5245,21 @@
       <c r="I57" s="14">
         <v>160</v>
       </c>
-      <c r="J57" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="K57" s="14">
-        <v>10</v>
+      <c r="J57" s="14">
+        <v>10</v>
+      </c>
+      <c r="K57" s="14" t="s">
+        <v>121</v>
       </c>
       <c r="L57" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="M57" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="N57" s="18" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="58" s="27" customFormat="1" ht="39" customHeight="1" spans="1:14">
-      <c r="A58" s="32">
+        <v>122</v>
+      </c>
+      <c r="M57" s="18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58" s="50" customFormat="1" ht="39" customHeight="1" spans="1:13">
+      <c r="A58" s="55">
         <v>505</v>
       </c>
       <c r="B58" s="11" t="s">
@@ -5395,35 +5271,32 @@
       <c r="D58" s="11">
         <v>5</v>
       </c>
-      <c r="E58" s="33" t="s">
+      <c r="E58" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="F58" s="34">
-        <v>10</v>
-      </c>
-      <c r="G58" s="34">
+      <c r="F58" s="57">
+        <v>10</v>
+      </c>
+      <c r="G58" s="57">
         <v>504</v>
       </c>
-      <c r="H58" s="34">
-        <v>20</v>
-      </c>
-      <c r="I58" s="34">
+      <c r="H58" s="57">
+        <v>20</v>
+      </c>
+      <c r="I58" s="57">
         <v>160</v>
       </c>
-      <c r="J58" s="34" t="s">
-        <v>149</v>
-      </c>
-      <c r="K58" s="34">
-        <v>10</v>
-      </c>
-      <c r="L58" s="34" t="s">
-        <v>150</v>
-      </c>
-      <c r="M58" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="N58" s="35" t="s">
-        <v>85</v>
+      <c r="J58" s="57">
+        <v>10</v>
+      </c>
+      <c r="K58" s="57" t="s">
+        <v>123</v>
+      </c>
+      <c r="L58" s="57" t="s">
+        <v>124</v>
+      </c>
+      <c r="M58" s="58" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="59" ht="14.25"/>
@@ -5445,23 +5318,23 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A3" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="C2" sqref="C2"/>
+      <selection pane="topRight" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="21.675" customWidth="1"/>
     <col min="2" max="2" width="18.3416666666667" customWidth="1"/>
     <col min="3" max="3" width="16.0083333333333" customWidth="1"/>
-    <col min="4" max="4" width="34.625" customWidth="1"/>
-    <col min="5" max="5" width="16.0083333333333" customWidth="1"/>
-    <col min="6" max="6" width="24.8416666666667" customWidth="1"/>
-    <col min="7" max="7" width="19.125" customWidth="1"/>
+    <col min="4" max="4" width="21.5" customWidth="1"/>
+    <col min="5" max="5" width="41.625" customWidth="1"/>
+    <col min="6" max="6" width="24" customWidth="1"/>
+    <col min="7" max="7" width="19.125" style="19" customWidth="1"/>
     <col min="8" max="8" width="23.0083333333333" customWidth="1"/>
     <col min="9" max="10" width="17.8416666666667" customWidth="1"/>
     <col min="11" max="11" width="17.5083333333333" customWidth="1"/>
@@ -5471,919 +5344,1150 @@
     <col min="15" max="15" width="6.24166666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="60" customHeight="1" spans="1:15">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="60" customHeight="1" spans="1:16">
+      <c r="A1" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="L1" s="35"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="O1" s="37"/>
+      <c r="P1" s="38"/>
+    </row>
+    <row r="2" ht="43" customHeight="1" spans="1:16">
+      <c r="A2" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="I2" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="J2" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="K2" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="L2" s="39">
+        <v>1</v>
+      </c>
+      <c r="M2" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="N2" s="41" t="s">
+        <v>147</v>
+      </c>
+      <c r="O2" s="42">
+        <v>1</v>
+      </c>
+      <c r="P2" s="43" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" ht="44" customHeight="1" spans="1:16">
+      <c r="A3" s="24">
+        <v>1</v>
+      </c>
+      <c r="B3" s="25">
+        <v>10</v>
+      </c>
+      <c r="C3" s="25">
+        <v>1</v>
+      </c>
+      <c r="D3" s="25">
+        <v>1</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="G3" s="27">
+        <v>0</v>
+      </c>
+      <c r="H3" s="25">
+        <v>0</v>
+      </c>
+      <c r="I3" s="25">
+        <v>2</v>
+      </c>
+      <c r="J3" s="25">
+        <v>2</v>
+      </c>
+      <c r="K3" s="25"/>
+      <c r="L3" s="44" t="s">
+        <v>150</v>
+      </c>
+      <c r="M3" s="45"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="46">
+        <v>5</v>
+      </c>
+      <c r="P3" s="38"/>
+    </row>
+    <row r="4" ht="44" customHeight="1" spans="1:16">
+      <c r="A4" s="28">
+        <v>2</v>
+      </c>
+      <c r="B4" s="29">
+        <v>10</v>
+      </c>
+      <c r="C4" s="29">
+        <v>2</v>
+      </c>
+      <c r="D4" s="29">
+        <v>1</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="G4" s="27">
+        <v>0</v>
+      </c>
+      <c r="H4" s="29">
+        <v>0</v>
+      </c>
+      <c r="I4" s="29">
+        <v>2</v>
+      </c>
+      <c r="J4" s="29">
+        <v>2</v>
+      </c>
+      <c r="K4" s="29"/>
+      <c r="L4" s="44" t="s">
+        <v>151</v>
+      </c>
+      <c r="M4" s="47"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="44">
+        <v>6</v>
+      </c>
+      <c r="P4" s="38"/>
+    </row>
+    <row r="5" ht="44" customHeight="1" spans="1:16">
+      <c r="A5" s="24">
+        <v>3</v>
+      </c>
+      <c r="B5" s="25">
+        <v>10</v>
+      </c>
+      <c r="C5" s="25">
+        <v>3</v>
+      </c>
+      <c r="D5" s="25">
+        <v>1</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="F5" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="G5" s="27">
+        <v>5</v>
+      </c>
+      <c r="H5" s="25">
+        <v>0</v>
+      </c>
+      <c r="I5" s="25">
+        <v>2</v>
+      </c>
+      <c r="J5" s="25">
+        <v>2</v>
+      </c>
+      <c r="K5" s="25"/>
+      <c r="L5" s="44" t="s">
         <v>153</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="M5" s="45"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="46">
+        <v>7</v>
+      </c>
+      <c r="P5" s="38"/>
+    </row>
+    <row r="6" ht="44" customHeight="1" spans="1:16">
+      <c r="A6" s="28">
+        <v>4</v>
+      </c>
+      <c r="B6" s="29">
+        <v>10</v>
+      </c>
+      <c r="C6" s="29">
+        <v>4</v>
+      </c>
+      <c r="D6" s="29">
+        <v>1</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="G6" s="27">
+        <v>0</v>
+      </c>
+      <c r="H6" s="29">
+        <v>0</v>
+      </c>
+      <c r="I6" s="29">
+        <v>2</v>
+      </c>
+      <c r="J6" s="29">
+        <v>2</v>
+      </c>
+      <c r="K6" s="29"/>
+      <c r="L6" s="44" t="s">
         <v>154</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="M6" s="47"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="44">
+        <v>8</v>
+      </c>
+      <c r="P6" s="38"/>
+    </row>
+    <row r="7" ht="44" customHeight="1" spans="1:16">
+      <c r="A7" s="24">
+        <v>5</v>
+      </c>
+      <c r="B7" s="25">
+        <v>10</v>
+      </c>
+      <c r="C7" s="25">
+        <v>5</v>
+      </c>
+      <c r="D7" s="25">
+        <v>1</v>
+      </c>
+      <c r="E7" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F7" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="G7" s="27">
+        <v>0</v>
+      </c>
+      <c r="H7" s="25">
+        <v>0</v>
+      </c>
+      <c r="I7" s="25">
+        <v>2</v>
+      </c>
+      <c r="J7" s="25">
+        <v>2</v>
+      </c>
+      <c r="K7" s="25"/>
+      <c r="L7" s="44" t="s">
         <v>156</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="M7" s="45"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="46">
+        <v>2</v>
+      </c>
+      <c r="P7" s="38"/>
+    </row>
+    <row r="8" ht="44" customHeight="1" spans="1:16">
+      <c r="A8" s="28">
+        <v>6</v>
+      </c>
+      <c r="B8" s="29">
+        <v>10</v>
+      </c>
+      <c r="C8" s="29">
+        <v>6</v>
+      </c>
+      <c r="D8" s="29">
+        <v>1</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="G8" s="27">
+        <v>0</v>
+      </c>
+      <c r="H8" s="29">
+        <v>0</v>
+      </c>
+      <c r="I8" s="29">
+        <v>2</v>
+      </c>
+      <c r="J8" s="29">
+        <v>2</v>
+      </c>
+      <c r="K8" s="29"/>
+      <c r="L8" s="44" t="s">
         <v>157</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="M8" s="47"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="44">
+        <v>9</v>
+      </c>
+      <c r="P8" s="38"/>
+    </row>
+    <row r="9" ht="44" customHeight="1" spans="1:16">
+      <c r="A9" s="24">
+        <v>7</v>
+      </c>
+      <c r="B9" s="25">
+        <v>10</v>
+      </c>
+      <c r="C9" s="25">
+        <v>7</v>
+      </c>
+      <c r="D9" s="25">
+        <v>1</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="G9" s="27">
+        <v>0</v>
+      </c>
+      <c r="H9" s="25">
+        <v>0</v>
+      </c>
+      <c r="I9" s="25">
+        <v>2</v>
+      </c>
+      <c r="J9" s="25">
+        <v>2</v>
+      </c>
+      <c r="K9" s="25"/>
+      <c r="L9" s="44" t="s">
         <v>158</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="M9" s="45"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="46">
+        <v>9</v>
+      </c>
+      <c r="P9" s="38"/>
+    </row>
+    <row r="10" ht="44" customHeight="1" spans="1:16">
+      <c r="A10" s="28">
+        <v>8</v>
+      </c>
+      <c r="B10" s="29">
+        <v>10</v>
+      </c>
+      <c r="C10" s="29">
+        <v>8</v>
+      </c>
+      <c r="D10" s="29">
+        <v>1</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="F10" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="G10" s="27">
+        <v>5</v>
+      </c>
+      <c r="H10" s="29">
+        <v>0</v>
+      </c>
+      <c r="I10" s="29">
+        <v>2</v>
+      </c>
+      <c r="J10" s="29">
+        <v>2</v>
+      </c>
+      <c r="K10" s="29"/>
+      <c r="L10" s="44" t="s">
         <v>160</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="M10" s="47"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="44">
+        <v>9</v>
+      </c>
+      <c r="P10" s="38"/>
+    </row>
+    <row r="11" ht="44" customHeight="1" spans="1:16">
+      <c r="A11" s="24">
+        <v>9</v>
+      </c>
+      <c r="B11" s="25">
+        <v>10</v>
+      </c>
+      <c r="C11" s="25">
+        <v>9</v>
+      </c>
+      <c r="D11" s="25">
+        <v>1</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="G11" s="27">
+        <v>0</v>
+      </c>
+      <c r="H11" s="25">
+        <v>0</v>
+      </c>
+      <c r="I11" s="25">
+        <v>2</v>
+      </c>
+      <c r="J11" s="25">
+        <v>2</v>
+      </c>
+      <c r="K11" s="25"/>
+      <c r="L11" s="44" t="s">
         <v>161</v>
       </c>
-      <c r="L1" s="15"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="20" t="s">
+      <c r="M11" s="45"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="46">
+        <v>10</v>
+      </c>
+      <c r="P11" s="38"/>
+    </row>
+    <row r="12" ht="44" customHeight="1" spans="1:16">
+      <c r="A12" s="28">
+        <v>10</v>
+      </c>
+      <c r="B12" s="29">
+        <v>10</v>
+      </c>
+      <c r="C12" s="29">
+        <v>10</v>
+      </c>
+      <c r="D12" s="29">
+        <v>1</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="G12" s="27">
+        <v>0</v>
+      </c>
+      <c r="H12" s="29">
+        <v>0</v>
+      </c>
+      <c r="I12" s="29">
+        <v>2</v>
+      </c>
+      <c r="J12" s="29">
+        <v>2</v>
+      </c>
+      <c r="K12" s="29"/>
+      <c r="L12" s="44" t="s">
         <v>162</v>
       </c>
-      <c r="O1" s="20"/>
-    </row>
-    <row r="2" ht="43" customHeight="1" spans="1:16">
-      <c r="A2" s="5" t="s">
+      <c r="M12" s="47"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="44">
+        <v>2</v>
+      </c>
+      <c r="P12" s="38"/>
+    </row>
+    <row r="13" ht="44" customHeight="1" spans="1:16">
+      <c r="A13" s="24">
+        <v>11</v>
+      </c>
+      <c r="B13" s="25">
+        <v>10</v>
+      </c>
+      <c r="C13" s="25">
+        <v>11</v>
+      </c>
+      <c r="D13" s="25">
+        <v>1</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="G13" s="27">
+        <v>0</v>
+      </c>
+      <c r="H13" s="25">
+        <v>0</v>
+      </c>
+      <c r="I13" s="25">
+        <v>2</v>
+      </c>
+      <c r="J13" s="25">
+        <v>2</v>
+      </c>
+      <c r="K13" s="25"/>
+      <c r="L13" s="44" t="s">
         <v>163</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C2" s="8" t="s">
+      <c r="M13" s="45"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="46">
+        <v>10</v>
+      </c>
+      <c r="P13" s="38"/>
+    </row>
+    <row r="14" ht="44" customHeight="1" spans="1:16">
+      <c r="A14" s="28">
+        <v>12</v>
+      </c>
+      <c r="B14" s="29">
+        <v>10</v>
+      </c>
+      <c r="C14" s="29">
+        <v>12</v>
+      </c>
+      <c r="D14" s="29">
+        <v>1</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="F14" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="G14" s="27">
+        <v>5</v>
+      </c>
+      <c r="H14" s="29">
+        <v>0</v>
+      </c>
+      <c r="I14" s="29">
+        <v>2</v>
+      </c>
+      <c r="J14" s="29">
+        <v>2</v>
+      </c>
+      <c r="K14" s="29"/>
+      <c r="L14" s="44" t="s">
         <v>165</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="M14" s="47"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="44">
+        <v>5</v>
+      </c>
+      <c r="P14" s="38"/>
+    </row>
+    <row r="15" ht="44" customHeight="1" spans="1:16">
+      <c r="A15" s="24">
+        <v>13</v>
+      </c>
+      <c r="B15" s="25">
+        <v>10</v>
+      </c>
+      <c r="C15" s="25">
+        <v>13</v>
+      </c>
+      <c r="D15" s="25">
+        <v>1</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="G15" s="27">
+        <v>0</v>
+      </c>
+      <c r="H15" s="25">
+        <v>0</v>
+      </c>
+      <c r="I15" s="25">
+        <v>2</v>
+      </c>
+      <c r="J15" s="25">
+        <v>2</v>
+      </c>
+      <c r="K15" s="25"/>
+      <c r="L15" s="44" t="s">
         <v>166</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="M15" s="45"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="46">
+        <v>10</v>
+      </c>
+      <c r="P15" s="38"/>
+    </row>
+    <row r="16" ht="44" customHeight="1" spans="1:16">
+      <c r="A16" s="28">
+        <v>14</v>
+      </c>
+      <c r="B16" s="29">
+        <v>10</v>
+      </c>
+      <c r="C16" s="29">
+        <v>14</v>
+      </c>
+      <c r="D16" s="29">
+        <v>1</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="F16" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="G16" s="27">
+        <v>0</v>
+      </c>
+      <c r="H16" s="29">
+        <v>0</v>
+      </c>
+      <c r="I16" s="29">
+        <v>2</v>
+      </c>
+      <c r="J16" s="29">
+        <v>2</v>
+      </c>
+      <c r="K16" s="29"/>
+      <c r="L16" s="44" t="s">
         <v>167</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="M16" s="47"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="44">
+        <v>20</v>
+      </c>
+      <c r="P16" s="38"/>
+    </row>
+    <row r="17" ht="44" customHeight="1" spans="1:16">
+      <c r="A17" s="24">
+        <v>15</v>
+      </c>
+      <c r="B17" s="25">
+        <v>10</v>
+      </c>
+      <c r="C17" s="25">
+        <v>15</v>
+      </c>
+      <c r="D17" s="25">
+        <v>1</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="F17" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="G17" s="27">
+        <v>10</v>
+      </c>
+      <c r="H17" s="25">
+        <v>0</v>
+      </c>
+      <c r="I17" s="25">
+        <v>2</v>
+      </c>
+      <c r="J17" s="25">
+        <v>2</v>
+      </c>
+      <c r="K17" s="25"/>
+      <c r="L17" s="44" t="s">
         <v>169</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="M17" s="45"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="46">
+        <v>2</v>
+      </c>
+      <c r="P17" s="38"/>
+    </row>
+    <row r="18" ht="44" customHeight="1" spans="1:16">
+      <c r="A18" s="28">
+        <v>16</v>
+      </c>
+      <c r="B18" s="29">
+        <v>10</v>
+      </c>
+      <c r="C18" s="29">
+        <v>16</v>
+      </c>
+      <c r="D18" s="29">
+        <v>1</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="F18" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="G18" s="27">
+        <v>0</v>
+      </c>
+      <c r="H18" s="29">
+        <v>0</v>
+      </c>
+      <c r="I18" s="29">
+        <v>2</v>
+      </c>
+      <c r="J18" s="29">
+        <v>2</v>
+      </c>
+      <c r="K18" s="29"/>
+      <c r="L18" s="44" t="s">
         <v>170</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="M18" s="47"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="44">
+        <v>12</v>
+      </c>
+      <c r="P18" s="38"/>
+    </row>
+    <row r="19" ht="44" customHeight="1" spans="1:16">
+      <c r="A19" s="24">
+        <v>17</v>
+      </c>
+      <c r="B19" s="25">
+        <v>10</v>
+      </c>
+      <c r="C19" s="25">
+        <v>17</v>
+      </c>
+      <c r="D19" s="25">
+        <v>1</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="G19" s="27">
+        <v>0</v>
+      </c>
+      <c r="H19" s="25">
+        <v>0</v>
+      </c>
+      <c r="I19" s="25">
+        <v>2</v>
+      </c>
+      <c r="J19" s="25">
+        <v>2</v>
+      </c>
+      <c r="K19" s="25"/>
+      <c r="L19" s="44" t="s">
         <v>171</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="M19" s="45"/>
+      <c r="N19" s="28"/>
+      <c r="O19" s="46">
+        <v>3</v>
+      </c>
+      <c r="P19" s="38"/>
+    </row>
+    <row r="20" ht="44" customHeight="1" spans="1:16">
+      <c r="A20" s="28">
+        <v>18</v>
+      </c>
+      <c r="B20" s="29">
+        <v>10</v>
+      </c>
+      <c r="C20" s="29">
+        <v>18</v>
+      </c>
+      <c r="D20" s="29">
+        <v>1</v>
+      </c>
+      <c r="E20" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="F20" s="30" t="s">
         <v>172</v>
       </c>
-      <c r="L2" s="16">
-        <v>1</v>
-      </c>
-      <c r="M2" s="21" t="s">
+      <c r="G20" s="27">
+        <v>0</v>
+      </c>
+      <c r="H20" s="29">
+        <v>0</v>
+      </c>
+      <c r="I20" s="29">
+        <v>2</v>
+      </c>
+      <c r="J20" s="29">
+        <v>2</v>
+      </c>
+      <c r="K20" s="29"/>
+      <c r="L20" s="44" t="s">
         <v>173</v>
       </c>
-      <c r="N2" s="22" t="s">
+      <c r="M20" s="47"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="44">
+        <v>20</v>
+      </c>
+      <c r="P20" s="38"/>
+    </row>
+    <row r="21" ht="44" customHeight="1" spans="1:16">
+      <c r="A21" s="24">
+        <v>19</v>
+      </c>
+      <c r="B21" s="25">
+        <v>10</v>
+      </c>
+      <c r="C21" s="25">
+        <v>19</v>
+      </c>
+      <c r="D21" s="25">
+        <v>1</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="F21" s="26" t="s">
         <v>174</v>
       </c>
-      <c r="O2" s="23">
-        <v>1</v>
-      </c>
-      <c r="P2" s="24" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="3" ht="22.5" customHeight="1" spans="1:15">
-      <c r="A3" s="9">
-        <v>1</v>
-      </c>
-      <c r="B3" s="11">
-        <v>10</v>
-      </c>
-      <c r="C3" s="11">
-        <v>1</v>
-      </c>
-      <c r="D3" s="11">
-        <v>1</v>
-      </c>
-      <c r="E3" s="11">
+      <c r="G21" s="27">
         <v>0</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="H21" s="25">
+        <v>0</v>
+      </c>
+      <c r="I21" s="25">
+        <v>2</v>
+      </c>
+      <c r="J21" s="25">
+        <v>2</v>
+      </c>
+      <c r="K21" s="25"/>
+      <c r="L21" s="44" t="s">
         <v>175</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="M21" s="45"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="46">
+        <v>20</v>
+      </c>
+      <c r="P21" s="38"/>
+    </row>
+    <row r="22" ht="44" customHeight="1" spans="1:16">
+      <c r="A22" s="28">
+        <v>20</v>
+      </c>
+      <c r="B22" s="29">
+        <v>10</v>
+      </c>
+      <c r="C22" s="29">
+        <v>20</v>
+      </c>
+      <c r="D22" s="29">
+        <v>1</v>
+      </c>
+      <c r="E22" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="F22" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="G22" s="27">
+        <v>0</v>
+      </c>
+      <c r="H22" s="29">
+        <v>0</v>
+      </c>
+      <c r="I22" s="29">
+        <v>2</v>
+      </c>
+      <c r="J22" s="29">
+        <v>2</v>
+      </c>
+      <c r="K22" s="29"/>
+      <c r="L22" s="44" t="s">
         <v>176</v>
       </c>
-      <c r="H3" s="11">
+      <c r="M22" s="47"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="44">
+        <v>20</v>
+      </c>
+      <c r="P22" s="38"/>
+    </row>
+    <row r="23" ht="44" customHeight="1" spans="1:16">
+      <c r="A23" s="24">
+        <v>21</v>
+      </c>
+      <c r="B23" s="25">
+        <v>10</v>
+      </c>
+      <c r="C23" s="25">
+        <v>21</v>
+      </c>
+      <c r="D23" s="25">
+        <v>1</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="F23" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="G23" s="31">
         <v>0</v>
       </c>
-      <c r="I3" s="11">
-        <v>2</v>
-      </c>
-      <c r="J3" s="11">
-        <v>2</v>
-      </c>
-      <c r="K3" s="11"/>
-      <c r="L3" s="17" t="s">
+      <c r="H23" s="25">
+        <v>0</v>
+      </c>
+      <c r="I23" s="25">
+        <v>2</v>
+      </c>
+      <c r="J23" s="25">
+        <v>2</v>
+      </c>
+      <c r="K23" s="25"/>
+      <c r="L23" s="44" t="s">
         <v>177</v>
       </c>
-      <c r="M3" s="25"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" ht="22.5" customHeight="1" spans="1:15">
-      <c r="A4" s="9">
-        <v>2</v>
-      </c>
-      <c r="B4" s="14">
-        <v>10</v>
-      </c>
-      <c r="C4" s="14">
-        <v>2</v>
-      </c>
-      <c r="D4" s="14">
-        <v>1</v>
-      </c>
-      <c r="E4" s="14">
+      <c r="M23" s="47"/>
+      <c r="N23" s="28"/>
+      <c r="O23" s="46">
+        <v>20</v>
+      </c>
+      <c r="P23" s="38"/>
+    </row>
+    <row r="24" ht="44" customHeight="1" spans="1:16">
+      <c r="A24" s="28">
+        <v>22</v>
+      </c>
+      <c r="B24" s="29">
+        <v>10</v>
+      </c>
+      <c r="C24" s="29">
+        <v>22</v>
+      </c>
+      <c r="D24" s="29">
+        <v>1</v>
+      </c>
+      <c r="E24" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="F24" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="G24" s="31">
         <v>0</v>
       </c>
-      <c r="F4" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="G4" s="11" t="s">
+      <c r="H24" s="29">
+        <v>0</v>
+      </c>
+      <c r="I24" s="29">
+        <v>2</v>
+      </c>
+      <c r="J24" s="29">
+        <v>2</v>
+      </c>
+      <c r="K24" s="29"/>
+      <c r="L24" s="44" t="s">
         <v>178</v>
       </c>
-      <c r="H4" s="11">
+      <c r="M24" s="47"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="44">
+        <v>20</v>
+      </c>
+      <c r="P24" s="38"/>
+    </row>
+    <row r="25" ht="44" customHeight="1" spans="1:16">
+      <c r="A25" s="24">
+        <v>23</v>
+      </c>
+      <c r="B25" s="25">
+        <v>10</v>
+      </c>
+      <c r="C25" s="25">
+        <v>23</v>
+      </c>
+      <c r="D25" s="25">
+        <v>1</v>
+      </c>
+      <c r="E25" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="F25" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="G25" s="31">
         <v>0</v>
       </c>
-      <c r="I4" s="14">
-        <v>2</v>
-      </c>
-      <c r="J4" s="14">
-        <v>2</v>
-      </c>
-      <c r="K4" s="14"/>
-      <c r="L4" s="17" t="s">
+      <c r="H25" s="25">
+        <v>0</v>
+      </c>
+      <c r="I25" s="25">
+        <v>2</v>
+      </c>
+      <c r="J25" s="25">
+        <v>2</v>
+      </c>
+      <c r="K25" s="25"/>
+      <c r="L25" s="44" t="s">
         <v>179</v>
       </c>
-      <c r="M4" s="26"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="17">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" ht="22.5" customHeight="1" spans="1:15">
-      <c r="A5" s="9">
-        <v>3</v>
-      </c>
-      <c r="B5" s="11">
-        <v>10</v>
-      </c>
-      <c r="C5" s="11">
-        <v>3</v>
-      </c>
-      <c r="D5" s="11">
-        <v>1</v>
-      </c>
-      <c r="E5" s="11">
+      <c r="M25" s="47"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="46">
+        <v>20</v>
+      </c>
+      <c r="P25" s="38"/>
+    </row>
+    <row r="26" ht="44" customHeight="1" spans="1:16">
+      <c r="A26" s="28">
+        <v>24</v>
+      </c>
+      <c r="B26" s="29">
+        <v>10</v>
+      </c>
+      <c r="C26" s="29">
+        <v>24</v>
+      </c>
+      <c r="D26" s="29">
+        <v>1</v>
+      </c>
+      <c r="E26" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="F26" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="G26" s="27">
+        <v>10</v>
+      </c>
+      <c r="H26" s="29">
         <v>0</v>
       </c>
-      <c r="F5" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="H5" s="11">
+      <c r="I26" s="29">
+        <v>2</v>
+      </c>
+      <c r="J26" s="29">
+        <v>2</v>
+      </c>
+      <c r="K26" s="29"/>
+      <c r="L26" s="44" t="s">
+        <v>181</v>
+      </c>
+      <c r="M26" s="47"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="44">
+        <v>20</v>
+      </c>
+      <c r="P26" s="38"/>
+    </row>
+    <row r="27" ht="44" customHeight="1" spans="1:16">
+      <c r="A27" s="32">
+        <v>25</v>
+      </c>
+      <c r="B27" s="33">
+        <v>10</v>
+      </c>
+      <c r="C27" s="33">
+        <v>25</v>
+      </c>
+      <c r="D27" s="33">
+        <v>1</v>
+      </c>
+      <c r="E27" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="F27" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="G27" s="27">
+        <v>10</v>
+      </c>
+      <c r="H27" s="33">
         <v>0</v>
       </c>
-      <c r="I5" s="11">
-        <v>2</v>
-      </c>
-      <c r="J5" s="11">
-        <v>2</v>
-      </c>
-      <c r="K5" s="11"/>
-      <c r="L5" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="M5" s="25"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="18">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" ht="22.5" customHeight="1" spans="1:15">
-      <c r="A6" s="9">
-        <v>4</v>
-      </c>
-      <c r="B6" s="14">
-        <v>10</v>
-      </c>
-      <c r="C6" s="14">
-        <v>4</v>
-      </c>
-      <c r="D6" s="14">
-        <v>5</v>
-      </c>
-      <c r="E6" s="14">
-        <v>0</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="H6" s="11">
-        <v>0</v>
-      </c>
-      <c r="I6" s="14">
-        <v>2</v>
-      </c>
-      <c r="J6" s="14">
-        <v>2</v>
-      </c>
-      <c r="K6" s="14"/>
-      <c r="L6" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="M6" s="26"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="17">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" ht="22.5" customHeight="1" spans="1:15">
-      <c r="A7" s="9">
-        <v>5</v>
-      </c>
-      <c r="B7" s="11">
-        <v>10</v>
-      </c>
-      <c r="C7" s="11">
-        <v>5</v>
-      </c>
-      <c r="D7" s="11">
-        <v>3</v>
-      </c>
-      <c r="E7" s="11">
-        <v>0</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="G7" s="11" t="s">
+      <c r="I27" s="33">
+        <v>2</v>
+      </c>
+      <c r="J27" s="33">
+        <v>2</v>
+      </c>
+      <c r="K27" s="33"/>
+      <c r="L27" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="H7" s="11">
-        <v>0</v>
-      </c>
-      <c r="I7" s="11">
-        <v>2</v>
-      </c>
-      <c r="J7" s="11">
-        <v>2</v>
-      </c>
-      <c r="K7" s="11"/>
-      <c r="L7" s="17" t="s">
-        <v>185</v>
-      </c>
-      <c r="M7" s="25"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" ht="22.5" customHeight="1" spans="1:15">
-      <c r="A8" s="9">
-        <v>6</v>
-      </c>
-      <c r="B8" s="14">
-        <v>10</v>
-      </c>
-      <c r="C8" s="14">
-        <v>6</v>
-      </c>
-      <c r="D8" s="14">
-        <v>1</v>
-      </c>
-      <c r="E8" s="14">
-        <v>0</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="H8" s="11">
-        <v>0</v>
-      </c>
-      <c r="I8" s="14">
-        <v>2</v>
-      </c>
-      <c r="J8" s="14">
-        <v>2</v>
-      </c>
-      <c r="K8" s="14"/>
-      <c r="L8" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="M8" s="26"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="17">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" ht="22.5" customHeight="1" spans="1:15">
-      <c r="A9" s="9">
-        <v>7</v>
-      </c>
-      <c r="B9" s="11">
-        <v>10</v>
-      </c>
-      <c r="C9" s="11">
-        <v>7</v>
-      </c>
-      <c r="D9" s="11">
-        <v>1</v>
-      </c>
-      <c r="E9" s="11">
-        <v>0</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="H9" s="11">
-        <v>0</v>
-      </c>
-      <c r="I9" s="11">
-        <v>2</v>
-      </c>
-      <c r="J9" s="11">
-        <v>2</v>
-      </c>
-      <c r="K9" s="11"/>
-      <c r="L9" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="M9" s="25"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="18">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" ht="22.5" customHeight="1" spans="1:15">
-      <c r="A10" s="9">
-        <v>8</v>
-      </c>
-      <c r="B10" s="14">
-        <v>10</v>
-      </c>
-      <c r="C10" s="14">
-        <v>8</v>
-      </c>
-      <c r="D10" s="14">
-        <v>1</v>
-      </c>
-      <c r="E10" s="14">
-        <v>0</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="H10" s="11">
-        <v>0</v>
-      </c>
-      <c r="I10" s="14">
-        <v>2</v>
-      </c>
-      <c r="J10" s="14">
-        <v>2</v>
-      </c>
-      <c r="K10" s="14"/>
-      <c r="L10" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="M10" s="26"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="17">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" ht="22.5" customHeight="1" spans="1:15">
-      <c r="A11" s="9">
-        <v>9</v>
-      </c>
-      <c r="B11" s="11">
-        <v>10</v>
-      </c>
-      <c r="C11" s="11">
-        <v>9</v>
-      </c>
-      <c r="D11" s="11">
-        <v>1</v>
-      </c>
-      <c r="E11" s="11">
-        <v>0</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="H11" s="11">
-        <v>0</v>
-      </c>
-      <c r="I11" s="11">
-        <v>2</v>
-      </c>
-      <c r="J11" s="11">
-        <v>2</v>
-      </c>
-      <c r="K11" s="11"/>
-      <c r="L11" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="M11" s="25"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" ht="22.5" customHeight="1" spans="1:15">
-      <c r="A12" s="9">
-        <v>10</v>
-      </c>
-      <c r="B12" s="14">
-        <v>10</v>
-      </c>
-      <c r="C12" s="14">
-        <v>10</v>
-      </c>
-      <c r="D12" s="14">
-        <v>3</v>
-      </c>
-      <c r="E12" s="14">
-        <v>0</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="H12" s="11">
-        <v>0</v>
-      </c>
-      <c r="I12" s="14">
-        <v>2</v>
-      </c>
-      <c r="J12" s="14">
-        <v>2</v>
-      </c>
-      <c r="K12" s="14"/>
-      <c r="L12" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="M12" s="26"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" ht="22.5" customHeight="1" spans="1:15">
-      <c r="A13" s="9">
-        <v>11</v>
-      </c>
-      <c r="B13" s="11">
-        <v>10</v>
-      </c>
-      <c r="C13" s="11">
-        <v>11</v>
-      </c>
-      <c r="D13" s="11">
-        <v>1</v>
-      </c>
-      <c r="E13" s="11">
-        <v>0</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="H13" s="11">
-        <v>0</v>
-      </c>
-      <c r="I13" s="11">
-        <v>2</v>
-      </c>
-      <c r="J13" s="11">
-        <v>2</v>
-      </c>
-      <c r="K13" s="11"/>
-      <c r="L13" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="M13" s="25"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" ht="22.5" customHeight="1" spans="1:15">
-      <c r="A14" s="9">
-        <v>12</v>
-      </c>
-      <c r="B14" s="14">
-        <v>10</v>
-      </c>
-      <c r="C14" s="14">
-        <v>12</v>
-      </c>
-      <c r="D14" s="14">
-        <v>1</v>
-      </c>
-      <c r="E14" s="14">
-        <v>0</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="H14" s="11">
-        <v>0</v>
-      </c>
-      <c r="I14" s="14">
-        <v>2</v>
-      </c>
-      <c r="J14" s="14">
-        <v>2</v>
-      </c>
-      <c r="K14" s="14"/>
-      <c r="L14" s="17" t="s">
-        <v>201</v>
-      </c>
-      <c r="M14" s="26"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" ht="22.5" customHeight="1" spans="1:15">
-      <c r="A15" s="9">
-        <v>13</v>
-      </c>
-      <c r="B15" s="11">
-        <v>10</v>
-      </c>
-      <c r="C15" s="11">
-        <v>13</v>
-      </c>
-      <c r="D15" s="11">
-        <v>1</v>
-      </c>
-      <c r="E15" s="11">
-        <v>0</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="H15" s="11">
-        <v>0</v>
-      </c>
-      <c r="I15" s="11">
-        <v>2</v>
-      </c>
-      <c r="J15" s="11">
-        <v>2</v>
-      </c>
-      <c r="K15" s="11"/>
-      <c r="L15" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="M15" s="25"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" ht="22.5" customHeight="1" spans="1:15">
-      <c r="A16" s="9">
-        <v>14</v>
-      </c>
-      <c r="B16" s="14">
-        <v>10</v>
-      </c>
-      <c r="C16" s="14">
-        <v>14</v>
-      </c>
-      <c r="D16" s="14">
-        <v>5</v>
-      </c>
-      <c r="E16" s="14">
-        <v>0</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="H16" s="11">
-        <v>0</v>
-      </c>
-      <c r="I16" s="14">
-        <v>2</v>
-      </c>
-      <c r="J16" s="14">
-        <v>2</v>
-      </c>
-      <c r="K16" s="14"/>
-      <c r="L16" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="M16" s="26"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="17">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" ht="22.5" customHeight="1" spans="1:15">
-      <c r="A17" s="9">
-        <v>15</v>
-      </c>
-      <c r="B17" s="11">
-        <v>10</v>
-      </c>
-      <c r="C17" s="11">
-        <v>15</v>
-      </c>
-      <c r="D17" s="11">
-        <v>3</v>
-      </c>
-      <c r="E17" s="11">
-        <v>0</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="H17" s="11">
-        <v>0</v>
-      </c>
-      <c r="I17" s="11">
-        <v>2</v>
-      </c>
-      <c r="J17" s="11">
-        <v>2</v>
-      </c>
-      <c r="K17" s="11"/>
-      <c r="L17" s="17" t="s">
-        <v>207</v>
-      </c>
-      <c r="M17" s="25"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" ht="22.5" customHeight="1" spans="1:15">
-      <c r="A18" s="9">
-        <v>16</v>
-      </c>
-      <c r="B18" s="14">
-        <v>10</v>
-      </c>
-      <c r="C18" s="14">
-        <v>16</v>
-      </c>
-      <c r="D18" s="14">
-        <v>1</v>
-      </c>
-      <c r="E18" s="14">
-        <v>0</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="H18" s="11">
-        <v>0</v>
-      </c>
-      <c r="I18" s="14">
-        <v>2</v>
-      </c>
-      <c r="J18" s="14">
-        <v>2</v>
-      </c>
-      <c r="K18" s="14"/>
-      <c r="L18" s="17" t="s">
-        <v>209</v>
-      </c>
-      <c r="M18" s="26"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="17">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" ht="22.5" customHeight="1" spans="1:15">
-      <c r="A19" s="9">
-        <v>17</v>
-      </c>
-      <c r="B19" s="11">
-        <v>10</v>
-      </c>
-      <c r="C19" s="11">
-        <v>17</v>
-      </c>
-      <c r="D19" s="11">
-        <v>1</v>
-      </c>
-      <c r="E19" s="11">
-        <v>0</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="H19" s="11">
-        <v>0</v>
-      </c>
-      <c r="I19" s="11">
-        <v>2</v>
-      </c>
-      <c r="J19" s="11">
-        <v>2</v>
-      </c>
-      <c r="K19" s="11"/>
-      <c r="L19" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="M19" s="25"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" ht="22.5" customHeight="1" spans="1:15">
-      <c r="A20" s="9">
-        <v>18</v>
-      </c>
-      <c r="B20" s="14">
-        <v>10</v>
-      </c>
-      <c r="C20" s="14">
-        <v>18</v>
-      </c>
-      <c r="D20" s="14">
-        <v>5</v>
-      </c>
-      <c r="E20" s="14">
-        <v>0</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="H20" s="11">
-        <v>0</v>
-      </c>
-      <c r="I20" s="14">
-        <v>2</v>
-      </c>
-      <c r="J20" s="14">
-        <v>2</v>
-      </c>
-      <c r="K20" s="14"/>
-      <c r="L20" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="M20" s="26"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="17">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" ht="22.5" customHeight="1" spans="1:15">
-      <c r="A21" s="9">
-        <v>19</v>
-      </c>
-      <c r="B21" s="11">
-        <v>10</v>
-      </c>
-      <c r="C21" s="11">
-        <v>19</v>
-      </c>
-      <c r="D21" s="11">
-        <v>5</v>
-      </c>
-      <c r="E21" s="11">
-        <v>0</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="H21" s="11">
-        <v>0</v>
-      </c>
-      <c r="I21" s="11">
-        <v>2</v>
-      </c>
-      <c r="J21" s="11">
-        <v>2</v>
-      </c>
-      <c r="K21" s="11"/>
-      <c r="L21" s="17" t="s">
-        <v>215</v>
-      </c>
-      <c r="M21" s="25"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="18">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" ht="22.5" customHeight="1" spans="1:15">
-      <c r="A22" s="9">
-        <v>20</v>
-      </c>
-      <c r="B22" s="14">
-        <v>10</v>
-      </c>
-      <c r="C22" s="14">
-        <v>20</v>
-      </c>
-      <c r="D22" s="14">
-        <v>6</v>
-      </c>
-      <c r="E22" s="14">
-        <v>0</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="H22" s="11">
-        <v>0</v>
-      </c>
-      <c r="I22" s="14">
-        <v>2</v>
-      </c>
-      <c r="J22" s="14">
-        <v>2</v>
-      </c>
-      <c r="K22" s="14"/>
-      <c r="L22" s="17" t="s">
-        <v>217</v>
-      </c>
-      <c r="M22" s="26"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="17">
-        <v>2</v>
-      </c>
+      <c r="M27" s="47"/>
+      <c r="N27" s="48"/>
+      <c r="O27" s="49">
+        <v>20</v>
+      </c>
+      <c r="P27" s="38"/>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C22">
+  <autoFilter ref="C1:C27">
     <extLst/>
   </autoFilter>
   <mergeCells count="1">
@@ -6445,13 +6549,13 @@
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>218</v>
+        <v>185</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>220</v>
+        <v>187</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>62</v>
@@ -6466,24 +6570,24 @@
         <v>65</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="15" t="s">
         <v>69</v>
-      </c>
-      <c r="L1" s="15" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="2" ht="39" customHeight="1" spans="1:12">
       <c r="A2" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>19</v>
@@ -6492,31 +6596,31 @@
         <v>42</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>19</v>
       </c>
       <c r="F2" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="J2" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="L2" s="16" t="s">
         <v>79</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="L2" s="16" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="3" ht="39" customHeight="1" spans="1:12">
@@ -6542,19 +6646,19 @@
         <v>160</v>
       </c>
       <c r="H3" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="I3" s="11">
+        <v>10</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="L3" s="17" t="s">
         <v>82</v>
-      </c>
-      <c r="I3" s="11">
-        <v>10</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="L3" s="17" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="4" ht="39" customHeight="1" spans="1:12">
@@ -6580,19 +6684,19 @@
         <v>160</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>86</v>
+        <v>190</v>
       </c>
       <c r="I4" s="14">
         <v>10</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K4" s="14" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="L4" s="18" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" ht="39" customHeight="1" spans="1:12">
@@ -6618,19 +6722,19 @@
         <v>160</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>89</v>
+        <v>191</v>
       </c>
       <c r="I5" s="11">
         <v>10</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="L5" s="17" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/excels/config/difficulty_config.xlsx
+++ b/excels/config/difficulty_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22185" windowHeight="10155" tabRatio="804" activeTab="2"/>
+    <workbookView windowWidth="22185" windowHeight="10155" tabRatio="804"/>
   </bookViews>
   <sheets>
     <sheet name="chapter_info" sheetId="7" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="194">
   <si>
     <t>章节编号</t>
   </si>
@@ -59,7 +59,10 @@
 5 通关后会出现深渊挑战</t>
   </si>
   <si>
-    <t>当前章节最大难度</t>
+    <t>当前章节最大区域</t>
+  </si>
+  <si>
+    <t>当前区域最大难度</t>
   </si>
   <si>
     <t>默认难度</t>
@@ -87,6 +90,9 @@
   </si>
   <si>
     <t>pattern_type</t>
+  </si>
+  <si>
+    <t>area_max</t>
   </si>
   <si>
     <t>default_max</t>
@@ -2143,7 +2149,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{8C67B611-5FF3-430A-96DF-4F14C49418F8}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{C2B170D2-3056-4A99-B23B-783745D5CA61}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
@@ -2444,10 +2450,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -2455,12 +2461,12 @@
     <col min="1" max="1" width="13.5" customWidth="1"/>
     <col min="2" max="4" width="15.375" customWidth="1"/>
     <col min="5" max="5" width="13.75" customWidth="1"/>
-    <col min="6" max="6" width="18.125" customWidth="1"/>
-    <col min="7" max="7" width="16.75" customWidth="1"/>
-    <col min="8" max="11" width="12.625" customWidth="1"/>
+    <col min="6" max="7" width="18.125" customWidth="1"/>
+    <col min="8" max="8" width="16.75" customWidth="1"/>
+    <col min="9" max="12" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="122" customHeight="1" spans="1:11">
+    <row r="1" ht="122" customHeight="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2494,43 +2500,49 @@
       <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" ht="30" spans="1:11">
+      <c r="L1" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" ht="30" spans="1:12">
       <c r="A2" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2" s="8"/>
       <c r="F2" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" ht="68" customHeight="1" spans="1:11">
+        <v>21</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" ht="68" customHeight="1" spans="1:12">
       <c r="A3" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B3" s="11">
         <v>1</v>
@@ -2542,7 +2554,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F3" s="11">
         <v>1</v>
@@ -2551,21 +2563,24 @@
         <v>5</v>
       </c>
       <c r="H3" s="11">
+        <v>8</v>
+      </c>
+      <c r="I3" s="11">
         <v>101</v>
       </c>
-      <c r="I3" s="11">
-        <v>1</v>
-      </c>
       <c r="J3" s="11">
+        <v>1</v>
+      </c>
+      <c r="K3" s="11">
         <v>0</v>
       </c>
-      <c r="K3" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" ht="68" customHeight="1" spans="1:11">
+      <c r="L3" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" ht="68" customHeight="1" spans="1:12">
       <c r="A4" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B4" s="14">
         <v>2</v>
@@ -2577,30 +2592,33 @@
         <v>0</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="14">
-        <v>5</v>
-      </c>
-      <c r="H4" s="14">
+        <v>27</v>
+      </c>
+      <c r="G4" s="52">
+        <v>7</v>
+      </c>
+      <c r="H4" s="11">
+        <v>8</v>
+      </c>
+      <c r="I4" s="14">
         <v>201</v>
       </c>
-      <c r="I4" s="14">
-        <v>1</v>
-      </c>
       <c r="J4" s="14">
+        <v>1</v>
+      </c>
+      <c r="K4" s="14">
         <v>105</v>
       </c>
-      <c r="K4" s="14">
+      <c r="L4" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="5" ht="68" customHeight="1" spans="1:11">
+    <row r="5" ht="68" customHeight="1" spans="1:12">
       <c r="A5" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B5" s="11">
         <v>3</v>
@@ -2612,30 +2630,33 @@
         <v>1</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="11">
-        <v>5</v>
+        <v>30</v>
+      </c>
+      <c r="G5" s="52">
+        <v>7</v>
       </c>
       <c r="H5" s="11">
+        <v>8</v>
+      </c>
+      <c r="I5" s="11">
         <v>301</v>
       </c>
-      <c r="I5" s="11">
-        <v>1</v>
-      </c>
       <c r="J5" s="11">
+        <v>1</v>
+      </c>
+      <c r="K5" s="11">
         <v>205</v>
       </c>
-      <c r="K5" s="11">
+      <c r="L5" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="6" ht="68" customHeight="1" spans="1:11">
+    <row r="6" ht="68" customHeight="1" spans="1:12">
       <c r="A6" s="9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B6" s="14">
         <v>4</v>
@@ -2647,30 +2668,33 @@
         <v>0</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="14">
-        <v>5</v>
-      </c>
-      <c r="H6" s="14">
+        <v>33</v>
+      </c>
+      <c r="G6" s="52">
+        <v>7</v>
+      </c>
+      <c r="H6" s="11">
+        <v>8</v>
+      </c>
+      <c r="I6" s="14">
         <v>401</v>
       </c>
-      <c r="I6" s="14">
-        <v>1</v>
-      </c>
       <c r="J6" s="14">
+        <v>1</v>
+      </c>
+      <c r="K6" s="14">
         <v>305</v>
       </c>
-      <c r="K6" s="14">
+      <c r="L6" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="7" ht="68" customHeight="1" spans="1:11">
+    <row r="7" ht="68" customHeight="1" spans="1:12">
       <c r="A7" s="9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B7" s="11">
         <v>5</v>
@@ -2682,24 +2706,27 @@
         <v>1</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="11">
-        <v>1</v>
+        <v>36</v>
+      </c>
+      <c r="G7" s="52">
+        <v>7</v>
       </c>
       <c r="H7" s="11">
+        <v>8</v>
+      </c>
+      <c r="I7" s="11">
         <v>501</v>
       </c>
-      <c r="I7" s="11">
-        <v>1</v>
-      </c>
       <c r="J7" s="11">
+        <v>1</v>
+      </c>
+      <c r="K7" s="11">
         <v>405</v>
       </c>
-      <c r="K7" s="11">
+      <c r="L7" s="11">
         <v>0</v>
       </c>
     </row>
@@ -2715,7 +2742,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="6"/>
@@ -2730,59 +2757,59 @@
   <sheetData>
     <row r="1" ht="95" customHeight="1" spans="1:7">
       <c r="A1" s="60" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B1" s="61" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C1" s="61" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D1" s="61" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E1" s="62" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F1" s="63" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G1" s="63" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" ht="22.5" customHeight="1" spans="1:7">
       <c r="A2" s="64" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B2" s="65" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C2" s="65" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D2" s="65" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E2" s="66" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F2" s="63" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G2" s="63" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" ht="51" customHeight="1" spans="1:7">
       <c r="A3" s="67" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B3" s="68" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C3" s="68" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D3" s="68">
         <v>8192</v>
@@ -2799,13 +2826,13 @@
     </row>
     <row r="4" ht="48" customHeight="1" spans="1:7">
       <c r="A4" s="71" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B4" s="68" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C4" s="68" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D4" s="72">
         <v>8192</v>
@@ -2822,13 +2849,13 @@
     </row>
     <row r="5" s="50" customFormat="1" ht="55.5" customHeight="1" spans="1:7">
       <c r="A5" s="67" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B5" s="68" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C5" s="68" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D5" s="68">
         <v>8192</v>
@@ -2845,13 +2872,13 @@
     </row>
     <row r="6" s="50" customFormat="1" ht="55.5" customHeight="1" spans="1:7">
       <c r="A6" s="71" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B6" s="68" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C6" s="68" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D6" s="72">
         <v>8192</v>
@@ -2868,13 +2895,13 @@
     </row>
     <row r="7" s="50" customFormat="1" ht="39" customHeight="1" spans="1:7">
       <c r="A7" s="67" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B7" s="68" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C7" s="68" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D7" s="68">
         <v>8192</v>
@@ -2901,10 +2928,10 @@
   <sheetPr/>
   <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="H4" sqref="H4"/>
+      <selection pane="topRight" activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2923,84 +2950,84 @@
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M1" s="15" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" ht="39" customHeight="1" spans="1:13">
       <c r="A2" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M2" s="16" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" ht="39" customHeight="1" spans="1:13">
@@ -3008,7 +3035,7 @@
         <v>101</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C3" s="11">
         <v>1</v>
@@ -3017,7 +3044,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F3" s="11">
         <v>10</v>
@@ -3035,13 +3062,13 @@
         <v>10</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M3" s="17" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" ht="39" customHeight="1" spans="1:13">
@@ -3049,7 +3076,7 @@
         <v>102</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" s="11">
         <v>1</v>
@@ -3058,7 +3085,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F4" s="14">
         <v>10</v>
@@ -3076,13 +3103,13 @@
         <v>10</v>
       </c>
       <c r="K4" s="14" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L4" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="M4" s="18" t="s">
         <v>84</v>
-      </c>
-      <c r="M4" s="18" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="5" ht="39" customHeight="1" spans="1:13">
@@ -3090,7 +3117,7 @@
         <v>103</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5" s="11">
         <v>1</v>
@@ -3099,7 +3126,7 @@
         <v>3</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F5" s="11">
         <v>10</v>
@@ -3117,13 +3144,13 @@
         <v>10</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M5" s="17" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" ht="39" customHeight="1" spans="1:13">
@@ -3131,7 +3158,7 @@
         <v>104</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C6" s="11">
         <v>1</v>
@@ -3140,7 +3167,7 @@
         <v>4</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F6" s="14">
         <v>10</v>
@@ -3158,13 +3185,13 @@
         <v>10</v>
       </c>
       <c r="K6" s="14" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L6" s="14" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M6" s="18" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" ht="39" customHeight="1" spans="1:13">
@@ -3172,7 +3199,7 @@
         <v>105</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C7" s="11">
         <v>1</v>
@@ -3181,7 +3208,7 @@
         <v>5</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F7" s="11">
         <v>10</v>
@@ -3199,13 +3226,13 @@
         <v>10</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M7" s="17" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" ht="39" customHeight="1" spans="1:13">
@@ -3213,7 +3240,7 @@
         <v>106</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C8" s="11">
         <v>1</v>
@@ -3222,7 +3249,7 @@
         <v>6</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F8" s="11">
         <v>10</v>
@@ -3240,13 +3267,13 @@
         <v>10</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M8" s="17" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" ht="39" customHeight="1" spans="1:13">
@@ -3254,7 +3281,7 @@
         <v>107</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C9" s="11">
         <v>1</v>
@@ -3263,7 +3290,7 @@
         <v>7</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F9" s="11">
         <v>10</v>
@@ -3281,13 +3308,13 @@
         <v>10</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M9" s="17" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" ht="39" customHeight="1" spans="1:13">
@@ -3295,7 +3322,7 @@
         <v>108</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C10" s="11">
         <v>1</v>
@@ -3304,7 +3331,7 @@
         <v>8</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="11">
         <v>10</v>
@@ -3322,13 +3349,13 @@
         <v>10</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M10" s="17" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" ht="39" customHeight="1" spans="1:13">
@@ -3336,7 +3363,7 @@
         <v>109</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C11" s="11">
         <v>2</v>
@@ -3345,7 +3372,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F11" s="11">
         <v>10</v>
@@ -3363,13 +3390,13 @@
         <v>10</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L11" s="11" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M11" s="17" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" ht="39" customHeight="1" spans="1:13">
@@ -3377,7 +3404,7 @@
         <v>110</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C12" s="11">
         <v>2</v>
@@ -3386,7 +3413,7 @@
         <v>2</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F12" s="11">
         <v>10</v>
@@ -3404,13 +3431,13 @@
         <v>10</v>
       </c>
       <c r="K12" s="11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L12" s="11" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M12" s="17" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" ht="39" customHeight="1" spans="1:13">
@@ -3418,7 +3445,7 @@
         <v>111</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C13" s="11">
         <v>2</v>
@@ -3427,7 +3454,7 @@
         <v>3</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F13" s="11">
         <v>10</v>
@@ -3445,13 +3472,13 @@
         <v>10</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L13" s="11" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M13" s="17" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" ht="39" customHeight="1" spans="1:13">
@@ -3459,7 +3486,7 @@
         <v>112</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C14" s="11">
         <v>2</v>
@@ -3468,7 +3495,7 @@
         <v>4</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F14" s="11">
         <v>10</v>
@@ -3486,13 +3513,13 @@
         <v>10</v>
       </c>
       <c r="K14" s="11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L14" s="11" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M14" s="17" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" ht="39" customHeight="1" spans="1:13">
@@ -3500,7 +3527,7 @@
         <v>113</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C15" s="11">
         <v>2</v>
@@ -3509,7 +3536,7 @@
         <v>5</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F15" s="11">
         <v>10</v>
@@ -3527,13 +3554,13 @@
         <v>10</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L15" s="11" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M15" s="17" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" ht="39" customHeight="1" spans="1:13">
@@ -3541,7 +3568,7 @@
         <v>114</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C16" s="11">
         <v>2</v>
@@ -3550,7 +3577,7 @@
         <v>6</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F16" s="11">
         <v>10</v>
@@ -3568,13 +3595,13 @@
         <v>10</v>
       </c>
       <c r="K16" s="11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L16" s="11" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M16" s="17" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" ht="39" customHeight="1" spans="1:13">
@@ -3582,7 +3609,7 @@
         <v>115</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C17" s="11">
         <v>2</v>
@@ -3591,7 +3618,7 @@
         <v>7</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F17" s="11">
         <v>10</v>
@@ -3609,13 +3636,13 @@
         <v>10</v>
       </c>
       <c r="K17" s="11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L17" s="11" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M17" s="17" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" ht="39" customHeight="1" spans="1:13">
@@ -3623,7 +3650,7 @@
         <v>116</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C18" s="11">
         <v>2</v>
@@ -3632,7 +3659,7 @@
         <v>8</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F18" s="11">
         <v>10</v>
@@ -3650,13 +3677,13 @@
         <v>10</v>
       </c>
       <c r="K18" s="11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L18" s="11" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M18" s="17" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" ht="39" customHeight="1" spans="1:13">
@@ -3664,7 +3691,7 @@
         <v>117</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C19" s="11">
         <v>3</v>
@@ -3673,7 +3700,7 @@
         <v>1</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F19" s="11">
         <v>10</v>
@@ -3691,13 +3718,13 @@
         <v>10</v>
       </c>
       <c r="K19" s="11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L19" s="11" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M19" s="17" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" ht="39" customHeight="1" spans="1:13">
@@ -3705,7 +3732,7 @@
         <v>118</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C20" s="11">
         <v>3</v>
@@ -3714,7 +3741,7 @@
         <v>2</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F20" s="11">
         <v>10</v>
@@ -3732,13 +3759,13 @@
         <v>10</v>
       </c>
       <c r="K20" s="11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L20" s="11" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M20" s="17" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" ht="39" customHeight="1" spans="1:13">
@@ -3746,7 +3773,7 @@
         <v>119</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C21" s="11">
         <v>3</v>
@@ -3755,7 +3782,7 @@
         <v>3</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F21" s="11">
         <v>10</v>
@@ -3773,13 +3800,13 @@
         <v>10</v>
       </c>
       <c r="K21" s="11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L21" s="11" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M21" s="17" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" ht="39" customHeight="1" spans="1:13">
@@ -3787,7 +3814,7 @@
         <v>120</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C22" s="11">
         <v>3</v>
@@ -3796,7 +3823,7 @@
         <v>4</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F22" s="11">
         <v>10</v>
@@ -3814,13 +3841,13 @@
         <v>10</v>
       </c>
       <c r="K22" s="11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L22" s="11" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M22" s="17" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" ht="39" customHeight="1" spans="1:13">
@@ -3828,7 +3855,7 @@
         <v>121</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C23" s="11">
         <v>3</v>
@@ -3837,7 +3864,7 @@
         <v>5</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F23" s="11">
         <v>10</v>
@@ -3855,13 +3882,13 @@
         <v>10</v>
       </c>
       <c r="K23" s="11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L23" s="11" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M23" s="17" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" ht="39" customHeight="1" spans="1:13">
@@ -3869,7 +3896,7 @@
         <v>122</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C24" s="11">
         <v>3</v>
@@ -3878,7 +3905,7 @@
         <v>6</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F24" s="11">
         <v>10</v>
@@ -3896,13 +3923,13 @@
         <v>10</v>
       </c>
       <c r="K24" s="11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L24" s="11" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M24" s="17" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" ht="39" customHeight="1" spans="1:13">
@@ -3910,7 +3937,7 @@
         <v>123</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C25" s="11">
         <v>3</v>
@@ -3919,7 +3946,7 @@
         <v>7</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F25" s="11">
         <v>10</v>
@@ -3937,13 +3964,13 @@
         <v>10</v>
       </c>
       <c r="K25" s="11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L25" s="11" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M25" s="17" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" ht="39" customHeight="1" spans="1:13">
@@ -3951,7 +3978,7 @@
         <v>124</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C26" s="11">
         <v>3</v>
@@ -3960,7 +3987,7 @@
         <v>8</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F26" s="11">
         <v>10</v>
@@ -3978,13 +4005,13 @@
         <v>10</v>
       </c>
       <c r="K26" s="11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L26" s="11" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M26" s="17" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" ht="39" customHeight="1" spans="1:13">
@@ -3992,7 +4019,7 @@
         <v>125</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C27" s="52">
         <v>4</v>
@@ -4001,7 +4028,7 @@
         <v>1</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F27" s="11">
         <v>10</v>
@@ -4019,13 +4046,13 @@
         <v>10</v>
       </c>
       <c r="K27" s="11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L27" s="11" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M27" s="17" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" ht="39" customHeight="1" spans="1:13">
@@ -4033,7 +4060,7 @@
         <v>126</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C28" s="52">
         <v>4</v>
@@ -4042,7 +4069,7 @@
         <v>2</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F28" s="11">
         <v>10</v>
@@ -4060,13 +4087,13 @@
         <v>10</v>
       </c>
       <c r="K28" s="11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L28" s="11" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M28" s="17" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" ht="39" customHeight="1" spans="1:13">
@@ -4074,7 +4101,7 @@
         <v>127</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C29" s="52">
         <v>4</v>
@@ -4083,7 +4110,7 @@
         <v>3</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F29" s="11">
         <v>10</v>
@@ -4101,13 +4128,13 @@
         <v>10</v>
       </c>
       <c r="K29" s="11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L29" s="11" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M29" s="17" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" ht="39" customHeight="1" spans="1:13">
@@ -4115,7 +4142,7 @@
         <v>128</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C30" s="52">
         <v>4</v>
@@ -4124,7 +4151,7 @@
         <v>4</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F30" s="11">
         <v>10</v>
@@ -4142,13 +4169,13 @@
         <v>10</v>
       </c>
       <c r="K30" s="11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L30" s="11" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M30" s="17" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" ht="39" customHeight="1" spans="1:13">
@@ -4156,7 +4183,7 @@
         <v>129</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C31" s="52">
         <v>4</v>
@@ -4165,7 +4192,7 @@
         <v>5</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F31" s="11">
         <v>10</v>
@@ -4183,13 +4210,13 @@
         <v>10</v>
       </c>
       <c r="K31" s="11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L31" s="11" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M31" s="17" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" ht="39" customHeight="1" spans="1:13">
@@ -4197,7 +4224,7 @@
         <v>130</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C32" s="52">
         <v>4</v>
@@ -4206,7 +4233,7 @@
         <v>6</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F32" s="11">
         <v>10</v>
@@ -4224,13 +4251,13 @@
         <v>10</v>
       </c>
       <c r="K32" s="11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L32" s="11" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M32" s="17" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" ht="39" customHeight="1" spans="1:13">
@@ -4238,7 +4265,7 @@
         <v>131</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C33" s="52">
         <v>4</v>
@@ -4247,7 +4274,7 @@
         <v>7</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F33" s="11">
         <v>10</v>
@@ -4265,13 +4292,13 @@
         <v>10</v>
       </c>
       <c r="K33" s="11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L33" s="11" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M33" s="17" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" ht="39" customHeight="1" spans="1:13">
@@ -4279,7 +4306,7 @@
         <v>132</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C34" s="52">
         <v>4</v>
@@ -4288,7 +4315,7 @@
         <v>8</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F34" s="11">
         <v>10</v>
@@ -4306,13 +4333,13 @@
         <v>10</v>
       </c>
       <c r="K34" s="11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L34" s="11" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M34" s="17" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35" ht="39" customHeight="1" spans="1:13">
@@ -4320,7 +4347,7 @@
         <v>133</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C35" s="52">
         <v>5</v>
@@ -4329,7 +4356,7 @@
         <v>5</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F35" s="11">
         <v>10</v>
@@ -4338,7 +4365,7 @@
         <v>132</v>
       </c>
       <c r="H35" s="11">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I35" s="11">
         <v>160</v>
@@ -4347,13 +4374,13 @@
         <v>10</v>
       </c>
       <c r="K35" s="11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L35" s="11" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M35" s="17" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36" ht="39" customHeight="1" spans="1:13">
@@ -4361,7 +4388,7 @@
         <v>134</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C36" s="52">
         <v>5</v>
@@ -4370,7 +4397,7 @@
         <v>6</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F36" s="11">
         <v>10</v>
@@ -4379,7 +4406,7 @@
         <v>133</v>
       </c>
       <c r="H36" s="11">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I36" s="11">
         <v>160</v>
@@ -4388,13 +4415,13 @@
         <v>10</v>
       </c>
       <c r="K36" s="11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L36" s="11" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M36" s="17" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" ht="39" customHeight="1" spans="1:13">
@@ -4402,7 +4429,7 @@
         <v>135</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C37" s="52">
         <v>5</v>
@@ -4411,7 +4438,7 @@
         <v>7</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F37" s="11">
         <v>10</v>
@@ -4420,7 +4447,7 @@
         <v>134</v>
       </c>
       <c r="H37" s="11">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I37" s="11">
         <v>160</v>
@@ -4429,13 +4456,13 @@
         <v>10</v>
       </c>
       <c r="K37" s="11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L37" s="11" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M37" s="17" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" ht="39" customHeight="1" spans="1:13">
@@ -4443,7 +4470,7 @@
         <v>136</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C38" s="52">
         <v>5</v>
@@ -4452,7 +4479,7 @@
         <v>8</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F38" s="11">
         <v>10</v>
@@ -4461,7 +4488,7 @@
         <v>135</v>
       </c>
       <c r="H38" s="11">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I38" s="11">
         <v>160</v>
@@ -4470,13 +4497,13 @@
         <v>10</v>
       </c>
       <c r="K38" s="11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L38" s="11" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M38" s="17" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" ht="39" customHeight="1" spans="1:13">
@@ -4484,7 +4511,7 @@
         <v>201</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C39" s="14">
         <v>1</v>
@@ -4493,7 +4520,7 @@
         <v>1</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F39" s="14">
         <v>10</v>
@@ -4511,13 +4538,13 @@
         <v>10</v>
       </c>
       <c r="K39" s="14" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L39" s="14" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M39" s="18" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" ht="39" customHeight="1" spans="1:13">
@@ -4525,7 +4552,7 @@
         <v>202</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C40" s="14">
         <v>1</v>
@@ -4534,7 +4561,7 @@
         <v>2</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F40" s="11">
         <v>10</v>
@@ -4552,13 +4579,13 @@
         <v>10</v>
       </c>
       <c r="K40" s="11" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L40" s="11" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="M40" s="17" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41" ht="39" customHeight="1" spans="1:13">
@@ -4566,7 +4593,7 @@
         <v>203</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C41" s="14">
         <v>1</v>
@@ -4575,7 +4602,7 @@
         <v>3</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F41" s="14">
         <v>10</v>
@@ -4593,13 +4620,13 @@
         <v>10</v>
       </c>
       <c r="K41" s="14" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L41" s="14" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M41" s="18" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42" ht="39" customHeight="1" spans="1:13">
@@ -4607,7 +4634,7 @@
         <v>204</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C42" s="14">
         <v>1</v>
@@ -4616,7 +4643,7 @@
         <v>4</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F42" s="11">
         <v>10</v>
@@ -4634,13 +4661,13 @@
         <v>10</v>
       </c>
       <c r="K42" s="11" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L42" s="11" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M42" s="17" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43" customFormat="1" ht="39" customHeight="1" spans="1:13">
@@ -4648,7 +4675,7 @@
         <v>205</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C43" s="14">
         <v>1</v>
@@ -4657,7 +4684,7 @@
         <v>5</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F43" s="14">
         <v>10</v>
@@ -4675,13 +4702,13 @@
         <v>10</v>
       </c>
       <c r="K43" s="14" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L43" s="14" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M43" s="18" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" s="50" customFormat="1" ht="39" customHeight="1" spans="1:13">
@@ -4689,7 +4716,7 @@
         <v>301</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C44" s="11">
         <v>1</v>
@@ -4698,7 +4725,7 @@
         <v>1</v>
       </c>
       <c r="E44" s="53" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F44" s="11">
         <v>10</v>
@@ -4716,13 +4743,13 @@
         <v>10</v>
       </c>
       <c r="K44" s="11" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L44" s="11" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M44" s="17" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45" s="50" customFormat="1" ht="39" customHeight="1" spans="1:13">
@@ -4730,7 +4757,7 @@
         <v>302</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C45" s="11">
         <v>1</v>
@@ -4739,7 +4766,7 @@
         <v>2</v>
       </c>
       <c r="E45" s="54" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F45" s="14">
         <v>10</v>
@@ -4757,13 +4784,13 @@
         <v>10</v>
       </c>
       <c r="K45" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L45" s="14" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M45" s="18" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="46" s="50" customFormat="1" ht="39" customHeight="1" spans="1:13">
@@ -4771,7 +4798,7 @@
         <v>303</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C46" s="11">
         <v>1</v>
@@ -4780,7 +4807,7 @@
         <v>3</v>
       </c>
       <c r="E46" s="53" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F46" s="11">
         <v>10</v>
@@ -4798,13 +4825,13 @@
         <v>10</v>
       </c>
       <c r="K46" s="11" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L46" s="11" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="M46" s="17" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47" s="50" customFormat="1" ht="39" customHeight="1" spans="1:13">
@@ -4812,7 +4839,7 @@
         <v>304</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C47" s="11">
         <v>1</v>
@@ -4821,7 +4848,7 @@
         <v>4</v>
       </c>
       <c r="E47" s="54" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F47" s="14">
         <v>10</v>
@@ -4839,13 +4866,13 @@
         <v>10</v>
       </c>
       <c r="K47" s="14" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L47" s="14" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M47" s="18" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48" s="50" customFormat="1" ht="39" customHeight="1" spans="1:13">
@@ -4853,7 +4880,7 @@
         <v>305</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C48" s="11">
         <v>1</v>
@@ -4862,7 +4889,7 @@
         <v>5</v>
       </c>
       <c r="E48" s="53" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F48" s="11">
         <v>10</v>
@@ -4880,13 +4907,13 @@
         <v>10</v>
       </c>
       <c r="K48" s="11" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L48" s="11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M48" s="17" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="49" s="50" customFormat="1" ht="39" customHeight="1" spans="1:13">
@@ -4894,7 +4921,7 @@
         <v>401</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C49" s="11">
         <v>1</v>
@@ -4903,7 +4930,7 @@
         <v>1</v>
       </c>
       <c r="E49" s="54" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F49" s="14">
         <v>10</v>
@@ -4921,13 +4948,13 @@
         <v>10</v>
       </c>
       <c r="K49" s="14" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L49" s="14" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M49" s="18" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="50" s="50" customFormat="1" ht="39" customHeight="1" spans="1:13">
@@ -4935,7 +4962,7 @@
         <v>402</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C50" s="11">
         <v>1</v>
@@ -4944,7 +4971,7 @@
         <v>2</v>
       </c>
       <c r="E50" s="53" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F50" s="11">
         <v>10</v>
@@ -4962,13 +4989,13 @@
         <v>10</v>
       </c>
       <c r="K50" s="11" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L50" s="11" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="M50" s="17" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="51" s="50" customFormat="1" ht="39" customHeight="1" spans="1:13">
@@ -4976,7 +5003,7 @@
         <v>403</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C51" s="11">
         <v>1</v>
@@ -4985,7 +5012,7 @@
         <v>3</v>
       </c>
       <c r="E51" s="54" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F51" s="14">
         <v>10</v>
@@ -5003,13 +5030,13 @@
         <v>10</v>
       </c>
       <c r="K51" s="14" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L51" s="14" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M51" s="18" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="52" s="50" customFormat="1" ht="39" customHeight="1" spans="1:13">
@@ -5017,7 +5044,7 @@
         <v>404</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C52" s="11">
         <v>1</v>
@@ -5026,7 +5053,7 @@
         <v>4</v>
       </c>
       <c r="E52" s="53" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F52" s="11">
         <v>10</v>
@@ -5044,13 +5071,13 @@
         <v>10</v>
       </c>
       <c r="K52" s="11" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L52" s="11" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M52" s="17" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="53" s="50" customFormat="1" ht="39" customHeight="1" spans="1:13">
@@ -5058,7 +5085,7 @@
         <v>405</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C53" s="11">
         <v>1</v>
@@ -5067,7 +5094,7 @@
         <v>5</v>
       </c>
       <c r="E53" s="54" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F53" s="14">
         <v>10</v>
@@ -5085,13 +5112,13 @@
         <v>10</v>
       </c>
       <c r="K53" s="14" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L53" s="14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M53" s="18" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="54" s="50" customFormat="1" ht="39" customHeight="1" spans="1:13">
@@ -5099,7 +5126,7 @@
         <v>501</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C54" s="11">
         <v>1</v>
@@ -5108,7 +5135,7 @@
         <v>1</v>
       </c>
       <c r="E54" s="53" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F54" s="11">
         <v>10</v>
@@ -5126,13 +5153,13 @@
         <v>10</v>
       </c>
       <c r="K54" s="11" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L54" s="11" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M54" s="17" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="55" s="50" customFormat="1" ht="39" customHeight="1" spans="1:13">
@@ -5140,7 +5167,7 @@
         <v>502</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C55" s="11">
         <v>1</v>
@@ -5149,7 +5176,7 @@
         <v>2</v>
       </c>
       <c r="E55" s="54" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F55" s="14">
         <v>10</v>
@@ -5167,13 +5194,13 @@
         <v>10</v>
       </c>
       <c r="K55" s="14" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L55" s="14" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M55" s="18" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="56" s="50" customFormat="1" ht="39" customHeight="1" spans="1:13">
@@ -5181,7 +5208,7 @@
         <v>503</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C56" s="11">
         <v>1</v>
@@ -5190,7 +5217,7 @@
         <v>3</v>
       </c>
       <c r="E56" s="53" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F56" s="11">
         <v>10</v>
@@ -5208,13 +5235,13 @@
         <v>10</v>
       </c>
       <c r="K56" s="11" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L56" s="11" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M56" s="17" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="57" s="50" customFormat="1" ht="39" customHeight="1" spans="1:13">
@@ -5222,7 +5249,7 @@
         <v>504</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C57" s="11">
         <v>1</v>
@@ -5231,7 +5258,7 @@
         <v>4</v>
       </c>
       <c r="E57" s="54" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F57" s="14">
         <v>10</v>
@@ -5249,13 +5276,13 @@
         <v>10</v>
       </c>
       <c r="K57" s="14" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L57" s="14" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M57" s="18" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="58" s="50" customFormat="1" ht="39" customHeight="1" spans="1:13">
@@ -5263,7 +5290,7 @@
         <v>505</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C58" s="11">
         <v>1</v>
@@ -5272,7 +5299,7 @@
         <v>5</v>
       </c>
       <c r="E58" s="56" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F58" s="57">
         <v>10</v>
@@ -5290,13 +5317,13 @@
         <v>10</v>
       </c>
       <c r="K58" s="57" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L58" s="57" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M58" s="58" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="59" ht="14.25"/>
@@ -5320,10 +5347,10 @@
   <sheetPr/>
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A3" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="G5" sqref="G5"/>
+      <selection pane="topRight" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -5346,94 +5373,94 @@
   <sheetData>
     <row r="1" ht="60" customHeight="1" spans="1:16">
       <c r="A1" s="20" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K1" s="21" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L1" s="35"/>
       <c r="M1" s="36"/>
       <c r="N1" s="37" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="O1" s="37"/>
       <c r="P1" s="38"/>
     </row>
     <row r="2" ht="43" customHeight="1" spans="1:16">
       <c r="A2" s="22" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H2" s="23" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="I2" s="23" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="J2" s="23" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K2" s="23" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L2" s="39">
         <v>1</v>
       </c>
       <c r="M2" s="40" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N2" s="41" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O2" s="42">
         <v>1</v>
       </c>
       <c r="P2" s="43" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" ht="44" customHeight="1" spans="1:16">
@@ -5450,10 +5477,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F3" s="26" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G3" s="27">
         <v>0</v>
@@ -5469,7 +5496,7 @@
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="44" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M3" s="45"/>
       <c r="N3" s="28"/>
@@ -5492,10 +5519,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G4" s="27">
         <v>0</v>
@@ -5511,7 +5538,7 @@
       </c>
       <c r="K4" s="29"/>
       <c r="L4" s="44" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M4" s="47"/>
       <c r="N4" s="24"/>
@@ -5534,10 +5561,10 @@
         <v>1</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F5" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G5" s="27">
         <v>5</v>
@@ -5553,7 +5580,7 @@
       </c>
       <c r="K5" s="25"/>
       <c r="L5" s="44" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M5" s="45"/>
       <c r="N5" s="28"/>
@@ -5576,10 +5603,10 @@
         <v>1</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F6" s="30" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G6" s="27">
         <v>0</v>
@@ -5595,7 +5622,7 @@
       </c>
       <c r="K6" s="29"/>
       <c r="L6" s="44" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M6" s="47"/>
       <c r="N6" s="24"/>
@@ -5618,10 +5645,10 @@
         <v>1</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F7" s="26" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G7" s="27">
         <v>0</v>
@@ -5637,7 +5664,7 @@
       </c>
       <c r="K7" s="25"/>
       <c r="L7" s="44" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M7" s="45"/>
       <c r="N7" s="28"/>
@@ -5660,10 +5687,10 @@
         <v>1</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F8" s="30" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G8" s="27">
         <v>0</v>
@@ -5679,7 +5706,7 @@
       </c>
       <c r="K8" s="29"/>
       <c r="L8" s="44" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M8" s="47"/>
       <c r="N8" s="24"/>
@@ -5702,10 +5729,10 @@
         <v>1</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F9" s="26" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G9" s="27">
         <v>0</v>
@@ -5721,7 +5748,7 @@
       </c>
       <c r="K9" s="25"/>
       <c r="L9" s="44" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M9" s="45"/>
       <c r="N9" s="28"/>
@@ -5744,10 +5771,10 @@
         <v>1</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F10" s="30" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G10" s="27">
         <v>5</v>
@@ -5763,7 +5790,7 @@
       </c>
       <c r="K10" s="29"/>
       <c r="L10" s="44" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M10" s="47"/>
       <c r="N10" s="24"/>
@@ -5786,10 +5813,10 @@
         <v>1</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F11" s="26" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G11" s="27">
         <v>0</v>
@@ -5805,7 +5832,7 @@
       </c>
       <c r="K11" s="25"/>
       <c r="L11" s="44" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="M11" s="45"/>
       <c r="N11" s="28"/>
@@ -5828,10 +5855,10 @@
         <v>1</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F12" s="30" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G12" s="27">
         <v>0</v>
@@ -5847,7 +5874,7 @@
       </c>
       <c r="K12" s="29"/>
       <c r="L12" s="44" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M12" s="47"/>
       <c r="N12" s="24"/>
@@ -5870,10 +5897,10 @@
         <v>1</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F13" s="26" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G13" s="27">
         <v>0</v>
@@ -5889,7 +5916,7 @@
       </c>
       <c r="K13" s="25"/>
       <c r="L13" s="44" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M13" s="45"/>
       <c r="N13" s="28"/>
@@ -5912,10 +5939,10 @@
         <v>1</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F14" s="30" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G14" s="27">
         <v>5</v>
@@ -5931,7 +5958,7 @@
       </c>
       <c r="K14" s="29"/>
       <c r="L14" s="44" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M14" s="47"/>
       <c r="N14" s="24"/>
@@ -5954,10 +5981,10 @@
         <v>1</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F15" s="26" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G15" s="27">
         <v>0</v>
@@ -5973,7 +6000,7 @@
       </c>
       <c r="K15" s="25"/>
       <c r="L15" s="44" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M15" s="45"/>
       <c r="N15" s="28"/>
@@ -5996,10 +6023,10 @@
         <v>1</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F16" s="30" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G16" s="27">
         <v>0</v>
@@ -6015,7 +6042,7 @@
       </c>
       <c r="K16" s="29"/>
       <c r="L16" s="44" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M16" s="47"/>
       <c r="N16" s="24"/>
@@ -6038,10 +6065,10 @@
         <v>1</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F17" s="26" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G17" s="27">
         <v>10</v>
@@ -6057,7 +6084,7 @@
       </c>
       <c r="K17" s="25"/>
       <c r="L17" s="44" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="M17" s="45"/>
       <c r="N17" s="28"/>
@@ -6080,10 +6107,10 @@
         <v>1</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F18" s="30" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G18" s="27">
         <v>0</v>
@@ -6099,7 +6126,7 @@
       </c>
       <c r="K18" s="29"/>
       <c r="L18" s="44" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M18" s="47"/>
       <c r="N18" s="24"/>
@@ -6122,10 +6149,10 @@
         <v>1</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F19" s="26" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G19" s="27">
         <v>0</v>
@@ -6141,7 +6168,7 @@
       </c>
       <c r="K19" s="25"/>
       <c r="L19" s="44" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M19" s="45"/>
       <c r="N19" s="28"/>
@@ -6164,10 +6191,10 @@
         <v>1</v>
       </c>
       <c r="E20" s="29" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F20" s="30" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G20" s="27">
         <v>0</v>
@@ -6183,7 +6210,7 @@
       </c>
       <c r="K20" s="29"/>
       <c r="L20" s="44" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="M20" s="47"/>
       <c r="N20" s="24"/>
@@ -6206,10 +6233,10 @@
         <v>1</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F21" s="26" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G21" s="27">
         <v>0</v>
@@ -6225,7 +6252,7 @@
       </c>
       <c r="K21" s="25"/>
       <c r="L21" s="44" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="M21" s="45"/>
       <c r="N21" s="28"/>
@@ -6248,10 +6275,10 @@
         <v>1</v>
       </c>
       <c r="E22" s="29" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F22" s="30" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G22" s="27">
         <v>0</v>
@@ -6267,7 +6294,7 @@
       </c>
       <c r="K22" s="29"/>
       <c r="L22" s="44" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M22" s="47"/>
       <c r="N22" s="24"/>
@@ -6290,10 +6317,10 @@
         <v>1</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F23" s="26" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G23" s="31">
         <v>0</v>
@@ -6309,7 +6336,7 @@
       </c>
       <c r="K23" s="25"/>
       <c r="L23" s="44" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="M23" s="47"/>
       <c r="N23" s="28"/>
@@ -6332,10 +6359,10 @@
         <v>1</v>
       </c>
       <c r="E24" s="29" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F24" s="30" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G24" s="31">
         <v>0</v>
@@ -6351,7 +6378,7 @@
       </c>
       <c r="K24" s="29"/>
       <c r="L24" s="44" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M24" s="47"/>
       <c r="N24" s="24"/>
@@ -6374,10 +6401,10 @@
         <v>1</v>
       </c>
       <c r="E25" s="25" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F25" s="26" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G25" s="31">
         <v>0</v>
@@ -6393,7 +6420,7 @@
       </c>
       <c r="K25" s="25"/>
       <c r="L25" s="44" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M25" s="47"/>
       <c r="N25" s="28"/>
@@ -6416,10 +6443,10 @@
         <v>1</v>
       </c>
       <c r="E26" s="29" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F26" s="30" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G26" s="27">
         <v>10</v>
@@ -6435,7 +6462,7 @@
       </c>
       <c r="K26" s="29"/>
       <c r="L26" s="44" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="M26" s="47"/>
       <c r="N26" s="24"/>
@@ -6458,10 +6485,10 @@
         <v>1</v>
       </c>
       <c r="E27" s="33" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F27" s="34" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G27" s="27">
         <v>10</v>
@@ -6477,7 +6504,7 @@
       </c>
       <c r="K27" s="33"/>
       <c r="L27" s="44" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M27" s="47"/>
       <c r="N27" s="48"/>
@@ -6529,7 +6556,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -6549,78 +6576,78 @@
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" ht="39" customHeight="1" spans="1:12">
       <c r="A2" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L2" s="16" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" ht="39" customHeight="1" spans="1:12">
@@ -6631,7 +6658,7 @@
         <v>105</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D3" s="11">
         <v>10</v>
@@ -6646,19 +6673,19 @@
         <v>160</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I3" s="11">
         <v>10</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L3" s="17" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" ht="39" customHeight="1" spans="1:12">
@@ -6669,7 +6696,7 @@
         <v>205</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D4" s="14">
         <v>10</v>
@@ -6684,19 +6711,19 @@
         <v>160</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="I4" s="14">
         <v>10</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K4" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="L4" s="18" t="s">
         <v>84</v>
-      </c>
-      <c r="L4" s="18" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="5" ht="39" customHeight="1" spans="1:12">
@@ -6707,7 +6734,7 @@
         <v>305</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D5" s="11">
         <v>10</v>
@@ -6722,19 +6749,19 @@
         <v>160</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I5" s="11">
         <v>10</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L5" s="17" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/excels/config/difficulty_config.xlsx
+++ b/excels/config/difficulty_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22185" windowHeight="10155" tabRatio="804"/>
+    <workbookView windowWidth="27945" windowHeight="12345" tabRatio="804"/>
   </bookViews>
   <sheets>
     <sheet name="chapter_info" sheetId="7" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="199">
   <si>
     <t>章节编号</t>
   </si>
@@ -150,6 +150,21 @@
   </si>
   <si>
     <t>1,2,3,4,5</t>
+  </si>
+  <si>
+    <t>c6</t>
+  </si>
+  <si>
+    <t>c7</t>
+  </si>
+  <si>
+    <t>c8</t>
+  </si>
+  <si>
+    <t>c9</t>
+  </si>
+  <si>
+    <t>c10</t>
   </si>
   <si>
     <t>地图编号</t>
@@ -2149,7 +2164,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{C2B170D2-3056-4A99-B23B-783745D5CA61}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{7F2DA214-C388-425B-9A80-DF01777E1627}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
@@ -2450,13 +2465,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
     <col min="2" max="4" width="15.375" customWidth="1"/>
@@ -2627,7 +2642,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>29</v>
@@ -2662,7 +2677,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" s="14">
         <v>0</v>
@@ -2700,7 +2715,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" s="11">
         <v>1</v>
@@ -2727,6 +2742,196 @@
         <v>405</v>
       </c>
       <c r="L7" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" ht="68" customHeight="1" spans="1:12">
+      <c r="A8" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="11">
+        <v>1</v>
+      </c>
+      <c r="C8" s="11">
+        <v>2</v>
+      </c>
+      <c r="D8" s="11">
+        <v>0</v>
+      </c>
+      <c r="E8" s="11">
+        <v>111</v>
+      </c>
+      <c r="F8" s="11">
+        <v>1</v>
+      </c>
+      <c r="G8" s="11">
+        <v>5</v>
+      </c>
+      <c r="H8" s="11">
+        <v>8</v>
+      </c>
+      <c r="I8" s="11">
+        <v>101</v>
+      </c>
+      <c r="J8" s="11">
+        <v>1</v>
+      </c>
+      <c r="K8" s="11">
+        <v>0</v>
+      </c>
+      <c r="L8" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="68" customHeight="1" spans="1:12">
+      <c r="A9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="14">
+        <v>2</v>
+      </c>
+      <c r="C9" s="11">
+        <v>2</v>
+      </c>
+      <c r="D9" s="14">
+        <v>0</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="52">
+        <v>7</v>
+      </c>
+      <c r="H9" s="11">
+        <v>8</v>
+      </c>
+      <c r="I9" s="14">
+        <v>201</v>
+      </c>
+      <c r="J9" s="14">
+        <v>1</v>
+      </c>
+      <c r="K9" s="14">
+        <v>105</v>
+      </c>
+      <c r="L9" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" ht="68" customHeight="1" spans="1:12">
+      <c r="A10" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="11">
+        <v>3</v>
+      </c>
+      <c r="C10" s="11">
+        <v>2</v>
+      </c>
+      <c r="D10" s="11">
+        <v>0</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="52">
+        <v>7</v>
+      </c>
+      <c r="H10" s="11">
+        <v>8</v>
+      </c>
+      <c r="I10" s="11">
+        <v>301</v>
+      </c>
+      <c r="J10" s="11">
+        <v>1</v>
+      </c>
+      <c r="K10" s="11">
+        <v>205</v>
+      </c>
+      <c r="L10" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" ht="68" customHeight="1" spans="1:12">
+      <c r="A11" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="14">
+        <v>4</v>
+      </c>
+      <c r="C11" s="11">
+        <v>2</v>
+      </c>
+      <c r="D11" s="14">
+        <v>0</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="52">
+        <v>7</v>
+      </c>
+      <c r="H11" s="11">
+        <v>8</v>
+      </c>
+      <c r="I11" s="14">
+        <v>401</v>
+      </c>
+      <c r="J11" s="14">
+        <v>1</v>
+      </c>
+      <c r="K11" s="14">
+        <v>305</v>
+      </c>
+      <c r="L11" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" ht="68" customHeight="1" spans="1:12">
+      <c r="A12" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="11">
+        <v>5</v>
+      </c>
+      <c r="C12" s="11">
+        <v>2</v>
+      </c>
+      <c r="D12" s="11">
+        <v>1</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="52">
+        <v>7</v>
+      </c>
+      <c r="H12" s="11">
+        <v>8</v>
+      </c>
+      <c r="I12" s="11">
+        <v>501</v>
+      </c>
+      <c r="J12" s="11">
+        <v>1</v>
+      </c>
+      <c r="K12" s="11">
+        <v>405</v>
+      </c>
+      <c r="L12" s="11">
         <v>0</v>
       </c>
     </row>
@@ -2757,59 +2962,59 @@
   <sheetData>
     <row r="1" ht="95" customHeight="1" spans="1:7">
       <c r="A1" s="60" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B1" s="61" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C1" s="61" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D1" s="61" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E1" s="62" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F1" s="63" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G1" s="63" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" ht="22.5" customHeight="1" spans="1:7">
       <c r="A2" s="64" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B2" s="65" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C2" s="65" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D2" s="65" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E2" s="66" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F2" s="63" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="G2" s="63" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" ht="51" customHeight="1" spans="1:7">
       <c r="A3" s="67" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B3" s="68" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C3" s="68" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D3" s="68">
         <v>8192</v>
@@ -2826,13 +3031,13 @@
     </row>
     <row r="4" ht="48" customHeight="1" spans="1:7">
       <c r="A4" s="71" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B4" s="68" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C4" s="68" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D4" s="72">
         <v>8192</v>
@@ -2849,13 +3054,13 @@
     </row>
     <row r="5" s="50" customFormat="1" ht="55.5" customHeight="1" spans="1:7">
       <c r="A5" s="67" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B5" s="68" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C5" s="68" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D5" s="68">
         <v>8192</v>
@@ -2872,13 +3077,13 @@
     </row>
     <row r="6" s="50" customFormat="1" ht="55.5" customHeight="1" spans="1:7">
       <c r="A6" s="71" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B6" s="68" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C6" s="68" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D6" s="72">
         <v>8192</v>
@@ -2895,13 +3100,13 @@
     </row>
     <row r="7" s="50" customFormat="1" ht="39" customHeight="1" spans="1:7">
       <c r="A7" s="67" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B7" s="68" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C7" s="68" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D7" s="68">
         <v>8192</v>
@@ -2950,84 +3155,84 @@
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M1" s="15" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" ht="39" customHeight="1" spans="1:13">
       <c r="A2" s="5" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>21</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="M2" s="16" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" ht="39" customHeight="1" spans="1:13">
@@ -3044,7 +3249,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F3" s="11">
         <v>10</v>
@@ -3062,13 +3267,13 @@
         <v>10</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M3" s="17" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" ht="39" customHeight="1" spans="1:13">
@@ -3085,7 +3290,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F4" s="14">
         <v>10</v>
@@ -3103,13 +3308,13 @@
         <v>10</v>
       </c>
       <c r="K4" s="14" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="L4" s="14" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="M4" s="18" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" ht="39" customHeight="1" spans="1:13">
@@ -3126,7 +3331,7 @@
         <v>3</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F5" s="11">
         <v>10</v>
@@ -3144,13 +3349,13 @@
         <v>10</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="M5" s="17" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" ht="39" customHeight="1" spans="1:13">
@@ -3167,7 +3372,7 @@
         <v>4</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F6" s="14">
         <v>10</v>
@@ -3185,13 +3390,13 @@
         <v>10</v>
       </c>
       <c r="K6" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="M6" s="18" t="s">
         <v>89</v>
-      </c>
-      <c r="L6" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="M6" s="18" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="7" ht="39" customHeight="1" spans="1:13">
@@ -3208,7 +3413,7 @@
         <v>5</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F7" s="11">
         <v>10</v>
@@ -3226,13 +3431,13 @@
         <v>10</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="M7" s="17" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" ht="39" customHeight="1" spans="1:13">
@@ -3249,7 +3454,7 @@
         <v>6</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F8" s="11">
         <v>10</v>
@@ -3267,13 +3472,13 @@
         <v>10</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="M8" s="17" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" ht="39" customHeight="1" spans="1:13">
@@ -3290,7 +3495,7 @@
         <v>7</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F9" s="11">
         <v>10</v>
@@ -3308,13 +3513,13 @@
         <v>10</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="M9" s="17" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" ht="39" customHeight="1" spans="1:13">
@@ -3331,7 +3536,7 @@
         <v>8</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F10" s="11">
         <v>10</v>
@@ -3349,13 +3554,13 @@
         <v>10</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="M10" s="17" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" ht="39" customHeight="1" spans="1:13">
@@ -3372,7 +3577,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F11" s="11">
         <v>10</v>
@@ -3390,13 +3595,13 @@
         <v>10</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="L11" s="11" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="M11" s="17" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" ht="39" customHeight="1" spans="1:13">
@@ -3413,7 +3618,7 @@
         <v>2</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F12" s="11">
         <v>10</v>
@@ -3431,13 +3636,13 @@
         <v>10</v>
       </c>
       <c r="K12" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="L12" s="11" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="M12" s="17" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" ht="39" customHeight="1" spans="1:13">
@@ -3454,7 +3659,7 @@
         <v>3</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F13" s="11">
         <v>10</v>
@@ -3472,13 +3677,13 @@
         <v>10</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="L13" s="11" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="M13" s="17" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" ht="39" customHeight="1" spans="1:13">
@@ -3495,7 +3700,7 @@
         <v>4</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F14" s="11">
         <v>10</v>
@@ -3513,13 +3718,13 @@
         <v>10</v>
       </c>
       <c r="K14" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="L14" s="11" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="M14" s="17" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" ht="39" customHeight="1" spans="1:13">
@@ -3536,7 +3741,7 @@
         <v>5</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F15" s="11">
         <v>10</v>
@@ -3554,13 +3759,13 @@
         <v>10</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="L15" s="11" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="M15" s="17" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" ht="39" customHeight="1" spans="1:13">
@@ -3577,7 +3782,7 @@
         <v>6</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F16" s="11">
         <v>10</v>
@@ -3595,13 +3800,13 @@
         <v>10</v>
       </c>
       <c r="K16" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="L16" s="11" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="M16" s="17" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" ht="39" customHeight="1" spans="1:13">
@@ -3618,7 +3823,7 @@
         <v>7</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F17" s="11">
         <v>10</v>
@@ -3636,13 +3841,13 @@
         <v>10</v>
       </c>
       <c r="K17" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="L17" s="11" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="M17" s="17" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" ht="39" customHeight="1" spans="1:13">
@@ -3659,7 +3864,7 @@
         <v>8</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F18" s="11">
         <v>10</v>
@@ -3677,13 +3882,13 @@
         <v>10</v>
       </c>
       <c r="K18" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="L18" s="11" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="M18" s="17" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" ht="39" customHeight="1" spans="1:13">
@@ -3700,7 +3905,7 @@
         <v>1</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F19" s="11">
         <v>10</v>
@@ -3718,13 +3923,13 @@
         <v>10</v>
       </c>
       <c r="K19" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="L19" s="11" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="M19" s="17" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" ht="39" customHeight="1" spans="1:13">
@@ -3741,7 +3946,7 @@
         <v>2</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F20" s="11">
         <v>10</v>
@@ -3759,13 +3964,13 @@
         <v>10</v>
       </c>
       <c r="K20" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="L20" s="11" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="M20" s="17" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" ht="39" customHeight="1" spans="1:13">
@@ -3782,7 +3987,7 @@
         <v>3</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F21" s="11">
         <v>10</v>
@@ -3800,13 +4005,13 @@
         <v>10</v>
       </c>
       <c r="K21" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="L21" s="11" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="M21" s="17" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" ht="39" customHeight="1" spans="1:13">
@@ -3823,7 +4028,7 @@
         <v>4</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F22" s="11">
         <v>10</v>
@@ -3841,13 +4046,13 @@
         <v>10</v>
       </c>
       <c r="K22" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="L22" s="11" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="M22" s="17" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" ht="39" customHeight="1" spans="1:13">
@@ -3864,7 +4069,7 @@
         <v>5</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F23" s="11">
         <v>10</v>
@@ -3882,13 +4087,13 @@
         <v>10</v>
       </c>
       <c r="K23" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="L23" s="11" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="M23" s="17" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" ht="39" customHeight="1" spans="1:13">
@@ -3905,7 +4110,7 @@
         <v>6</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F24" s="11">
         <v>10</v>
@@ -3923,13 +4128,13 @@
         <v>10</v>
       </c>
       <c r="K24" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="L24" s="11" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="M24" s="17" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" ht="39" customHeight="1" spans="1:13">
@@ -3946,7 +4151,7 @@
         <v>7</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F25" s="11">
         <v>10</v>
@@ -3964,13 +4169,13 @@
         <v>10</v>
       </c>
       <c r="K25" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="L25" s="11" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="M25" s="17" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" ht="39" customHeight="1" spans="1:13">
@@ -3987,7 +4192,7 @@
         <v>8</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F26" s="11">
         <v>10</v>
@@ -4005,13 +4210,13 @@
         <v>10</v>
       </c>
       <c r="K26" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="L26" s="11" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="M26" s="17" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" ht="39" customHeight="1" spans="1:13">
@@ -4028,7 +4233,7 @@
         <v>1</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F27" s="11">
         <v>10</v>
@@ -4046,13 +4251,13 @@
         <v>10</v>
       </c>
       <c r="K27" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="L27" s="11" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="M27" s="17" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" ht="39" customHeight="1" spans="1:13">
@@ -4069,7 +4274,7 @@
         <v>2</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F28" s="11">
         <v>10</v>
@@ -4087,13 +4292,13 @@
         <v>10</v>
       </c>
       <c r="K28" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="L28" s="11" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="M28" s="17" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" ht="39" customHeight="1" spans="1:13">
@@ -4110,7 +4315,7 @@
         <v>3</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F29" s="11">
         <v>10</v>
@@ -4128,13 +4333,13 @@
         <v>10</v>
       </c>
       <c r="K29" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="L29" s="11" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="M29" s="17" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" ht="39" customHeight="1" spans="1:13">
@@ -4151,7 +4356,7 @@
         <v>4</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F30" s="11">
         <v>10</v>
@@ -4169,13 +4374,13 @@
         <v>10</v>
       </c>
       <c r="K30" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="L30" s="11" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="M30" s="17" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" ht="39" customHeight="1" spans="1:13">
@@ -4192,7 +4397,7 @@
         <v>5</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F31" s="11">
         <v>10</v>
@@ -4210,13 +4415,13 @@
         <v>10</v>
       </c>
       <c r="K31" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="L31" s="11" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="M31" s="17" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" ht="39" customHeight="1" spans="1:13">
@@ -4233,7 +4438,7 @@
         <v>6</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F32" s="11">
         <v>10</v>
@@ -4251,13 +4456,13 @@
         <v>10</v>
       </c>
       <c r="K32" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="L32" s="11" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="M32" s="17" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" ht="39" customHeight="1" spans="1:13">
@@ -4274,7 +4479,7 @@
         <v>7</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F33" s="11">
         <v>10</v>
@@ -4292,13 +4497,13 @@
         <v>10</v>
       </c>
       <c r="K33" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="L33" s="11" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="M33" s="17" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" ht="39" customHeight="1" spans="1:13">
@@ -4315,7 +4520,7 @@
         <v>8</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F34" s="11">
         <v>10</v>
@@ -4333,13 +4538,13 @@
         <v>10</v>
       </c>
       <c r="K34" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="L34" s="11" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="M34" s="17" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" ht="39" customHeight="1" spans="1:13">
@@ -4356,7 +4561,7 @@
         <v>5</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F35" s="11">
         <v>10</v>
@@ -4374,13 +4579,13 @@
         <v>10</v>
       </c>
       <c r="K35" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="L35" s="11" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="M35" s="17" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" ht="39" customHeight="1" spans="1:13">
@@ -4397,7 +4602,7 @@
         <v>6</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F36" s="11">
         <v>10</v>
@@ -4415,13 +4620,13 @@
         <v>10</v>
       </c>
       <c r="K36" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="L36" s="11" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="M36" s="17" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37" ht="39" customHeight="1" spans="1:13">
@@ -4438,7 +4643,7 @@
         <v>7</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F37" s="11">
         <v>10</v>
@@ -4456,13 +4661,13 @@
         <v>10</v>
       </c>
       <c r="K37" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="L37" s="11" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="M37" s="17" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38" ht="39" customHeight="1" spans="1:13">
@@ -4479,7 +4684,7 @@
         <v>8</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F38" s="11">
         <v>10</v>
@@ -4497,13 +4702,13 @@
         <v>10</v>
       </c>
       <c r="K38" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="L38" s="11" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="M38" s="17" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" ht="39" customHeight="1" spans="1:13">
@@ -4520,7 +4725,7 @@
         <v>1</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F39" s="14">
         <v>10</v>
@@ -4538,13 +4743,13 @@
         <v>10</v>
       </c>
       <c r="K39" s="14" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="L39" s="14" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="M39" s="18" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40" ht="39" customHeight="1" spans="1:13">
@@ -4561,7 +4766,7 @@
         <v>2</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F40" s="11">
         <v>10</v>
@@ -4579,13 +4784,13 @@
         <v>10</v>
       </c>
       <c r="K40" s="11" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="L40" s="11" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="M40" s="17" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" ht="39" customHeight="1" spans="1:13">
@@ -4602,7 +4807,7 @@
         <v>3</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F41" s="14">
         <v>10</v>
@@ -4620,13 +4825,13 @@
         <v>10</v>
       </c>
       <c r="K41" s="14" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="L41" s="14" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="M41" s="18" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42" ht="39" customHeight="1" spans="1:13">
@@ -4643,7 +4848,7 @@
         <v>4</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F42" s="11">
         <v>10</v>
@@ -4661,13 +4866,13 @@
         <v>10</v>
       </c>
       <c r="K42" s="11" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="L42" s="11" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="M42" s="17" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" customFormat="1" ht="39" customHeight="1" spans="1:13">
@@ -4684,7 +4889,7 @@
         <v>5</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F43" s="14">
         <v>10</v>
@@ -4702,13 +4907,13 @@
         <v>10</v>
       </c>
       <c r="K43" s="14" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="L43" s="14" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="M43" s="18" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44" s="50" customFormat="1" ht="39" customHeight="1" spans="1:13">
@@ -4725,7 +4930,7 @@
         <v>1</v>
       </c>
       <c r="E44" s="53" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F44" s="11">
         <v>10</v>
@@ -4743,13 +4948,13 @@
         <v>10</v>
       </c>
       <c r="K44" s="11" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="L44" s="11" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="M44" s="17" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" s="50" customFormat="1" ht="39" customHeight="1" spans="1:13">
@@ -4766,7 +4971,7 @@
         <v>2</v>
       </c>
       <c r="E45" s="54" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F45" s="14">
         <v>10</v>
@@ -4784,13 +4989,13 @@
         <v>10</v>
       </c>
       <c r="K45" s="14" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="L45" s="14" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="M45" s="18" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46" s="50" customFormat="1" ht="39" customHeight="1" spans="1:13">
@@ -4807,7 +5012,7 @@
         <v>3</v>
       </c>
       <c r="E46" s="53" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F46" s="11">
         <v>10</v>
@@ -4825,13 +5030,13 @@
         <v>10</v>
       </c>
       <c r="K46" s="11" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="L46" s="11" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="M46" s="17" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="47" s="50" customFormat="1" ht="39" customHeight="1" spans="1:13">
@@ -4848,7 +5053,7 @@
         <v>4</v>
       </c>
       <c r="E47" s="54" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F47" s="14">
         <v>10</v>
@@ -4866,13 +5071,13 @@
         <v>10</v>
       </c>
       <c r="K47" s="14" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="L47" s="14" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="M47" s="18" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48" s="50" customFormat="1" ht="39" customHeight="1" spans="1:13">
@@ -4889,7 +5094,7 @@
         <v>5</v>
       </c>
       <c r="E48" s="53" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F48" s="11">
         <v>10</v>
@@ -4907,13 +5112,13 @@
         <v>10</v>
       </c>
       <c r="K48" s="11" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="L48" s="11" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="M48" s="17" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="49" s="50" customFormat="1" ht="39" customHeight="1" spans="1:13">
@@ -4930,7 +5135,7 @@
         <v>1</v>
       </c>
       <c r="E49" s="54" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F49" s="14">
         <v>10</v>
@@ -4948,13 +5153,13 @@
         <v>10</v>
       </c>
       <c r="K49" s="14" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="L49" s="14" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="M49" s="18" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="50" s="50" customFormat="1" ht="39" customHeight="1" spans="1:13">
@@ -4971,7 +5176,7 @@
         <v>2</v>
       </c>
       <c r="E50" s="53" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F50" s="11">
         <v>10</v>
@@ -4989,13 +5194,13 @@
         <v>10</v>
       </c>
       <c r="K50" s="11" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="L50" s="11" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="M50" s="17" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="51" s="50" customFormat="1" ht="39" customHeight="1" spans="1:13">
@@ -5012,7 +5217,7 @@
         <v>3</v>
       </c>
       <c r="E51" s="54" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F51" s="14">
         <v>10</v>
@@ -5030,13 +5235,13 @@
         <v>10</v>
       </c>
       <c r="K51" s="14" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="L51" s="14" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="M51" s="18" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="52" s="50" customFormat="1" ht="39" customHeight="1" spans="1:13">
@@ -5053,7 +5258,7 @@
         <v>4</v>
       </c>
       <c r="E52" s="53" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F52" s="11">
         <v>10</v>
@@ -5071,13 +5276,13 @@
         <v>10</v>
       </c>
       <c r="K52" s="11" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="L52" s="11" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="M52" s="17" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="53" s="50" customFormat="1" ht="39" customHeight="1" spans="1:13">
@@ -5094,7 +5299,7 @@
         <v>5</v>
       </c>
       <c r="E53" s="54" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F53" s="14">
         <v>10</v>
@@ -5112,13 +5317,13 @@
         <v>10</v>
       </c>
       <c r="K53" s="14" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="L53" s="14" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="M53" s="18" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="54" s="50" customFormat="1" ht="39" customHeight="1" spans="1:13">
@@ -5135,7 +5340,7 @@
         <v>1</v>
       </c>
       <c r="E54" s="53" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F54" s="11">
         <v>10</v>
@@ -5153,13 +5358,13 @@
         <v>10</v>
       </c>
       <c r="K54" s="11" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="L54" s="11" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="M54" s="17" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="55" s="50" customFormat="1" ht="39" customHeight="1" spans="1:13">
@@ -5176,7 +5381,7 @@
         <v>2</v>
       </c>
       <c r="E55" s="54" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F55" s="14">
         <v>10</v>
@@ -5194,13 +5399,13 @@
         <v>10</v>
       </c>
       <c r="K55" s="14" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="L55" s="14" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="M55" s="18" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="56" s="50" customFormat="1" ht="39" customHeight="1" spans="1:13">
@@ -5217,7 +5422,7 @@
         <v>3</v>
       </c>
       <c r="E56" s="53" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F56" s="11">
         <v>10</v>
@@ -5235,13 +5440,13 @@
         <v>10</v>
       </c>
       <c r="K56" s="11" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="L56" s="11" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="M56" s="17" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="57" s="50" customFormat="1" ht="39" customHeight="1" spans="1:13">
@@ -5258,7 +5463,7 @@
         <v>4</v>
       </c>
       <c r="E57" s="54" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F57" s="14">
         <v>10</v>
@@ -5276,13 +5481,13 @@
         <v>10</v>
       </c>
       <c r="K57" s="14" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="L57" s="14" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="M57" s="18" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="58" s="50" customFormat="1" ht="39" customHeight="1" spans="1:13">
@@ -5299,7 +5504,7 @@
         <v>5</v>
       </c>
       <c r="E58" s="56" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F58" s="57">
         <v>10</v>
@@ -5317,13 +5522,13 @@
         <v>10</v>
       </c>
       <c r="K58" s="57" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="L58" s="57" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="M58" s="58" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="59" ht="14.25"/>
@@ -5373,94 +5578,94 @@
   <sheetData>
     <row r="1" ht="60" customHeight="1" spans="1:16">
       <c r="A1" s="20" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="K1" s="21" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="L1" s="35"/>
       <c r="M1" s="36"/>
       <c r="N1" s="37" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="O1" s="37"/>
       <c r="P1" s="38"/>
     </row>
     <row r="2" ht="43" customHeight="1" spans="1:16">
       <c r="A2" s="22" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="H2" s="23" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="I2" s="23" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="J2" s="23" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="K2" s="23" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="L2" s="39">
         <v>1</v>
       </c>
       <c r="M2" s="40" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="N2" s="41" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="O2" s="42">
         <v>1</v>
       </c>
       <c r="P2" s="43" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" ht="44" customHeight="1" spans="1:16">
@@ -5477,10 +5682,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="F3" s="26" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="G3" s="27">
         <v>0</v>
@@ -5496,7 +5701,7 @@
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="44" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="M3" s="45"/>
       <c r="N3" s="28"/>
@@ -5519,10 +5724,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="G4" s="27">
         <v>0</v>
@@ -5538,7 +5743,7 @@
       </c>
       <c r="K4" s="29"/>
       <c r="L4" s="44" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="M4" s="47"/>
       <c r="N4" s="24"/>
@@ -5561,10 +5766,10 @@
         <v>1</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="F5" s="26" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="G5" s="27">
         <v>5</v>
@@ -5580,7 +5785,7 @@
       </c>
       <c r="K5" s="25"/>
       <c r="L5" s="44" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="M5" s="45"/>
       <c r="N5" s="28"/>
@@ -5603,10 +5808,10 @@
         <v>1</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="F6" s="30" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="G6" s="27">
         <v>0</v>
@@ -5622,7 +5827,7 @@
       </c>
       <c r="K6" s="29"/>
       <c r="L6" s="44" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="M6" s="47"/>
       <c r="N6" s="24"/>
@@ -5645,10 +5850,10 @@
         <v>1</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="F7" s="26" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="G7" s="27">
         <v>0</v>
@@ -5664,7 +5869,7 @@
       </c>
       <c r="K7" s="25"/>
       <c r="L7" s="44" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="M7" s="45"/>
       <c r="N7" s="28"/>
@@ -5687,10 +5892,10 @@
         <v>1</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="F8" s="30" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="G8" s="27">
         <v>0</v>
@@ -5706,7 +5911,7 @@
       </c>
       <c r="K8" s="29"/>
       <c r="L8" s="44" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="M8" s="47"/>
       <c r="N8" s="24"/>
@@ -5729,10 +5934,10 @@
         <v>1</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="F9" s="26" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="G9" s="27">
         <v>0</v>
@@ -5748,7 +5953,7 @@
       </c>
       <c r="K9" s="25"/>
       <c r="L9" s="44" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="M9" s="45"/>
       <c r="N9" s="28"/>
@@ -5771,10 +5976,10 @@
         <v>1</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="F10" s="30" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="G10" s="27">
         <v>5</v>
@@ -5790,7 +5995,7 @@
       </c>
       <c r="K10" s="29"/>
       <c r="L10" s="44" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="M10" s="47"/>
       <c r="N10" s="24"/>
@@ -5813,10 +6018,10 @@
         <v>1</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="F11" s="26" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="G11" s="27">
         <v>0</v>
@@ -5832,7 +6037,7 @@
       </c>
       <c r="K11" s="25"/>
       <c r="L11" s="44" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="M11" s="45"/>
       <c r="N11" s="28"/>
@@ -5855,10 +6060,10 @@
         <v>1</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="F12" s="30" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="G12" s="27">
         <v>0</v>
@@ -5874,7 +6079,7 @@
       </c>
       <c r="K12" s="29"/>
       <c r="L12" s="44" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="M12" s="47"/>
       <c r="N12" s="24"/>
@@ -5897,10 +6102,10 @@
         <v>1</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="F13" s="26" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="G13" s="27">
         <v>0</v>
@@ -5916,7 +6121,7 @@
       </c>
       <c r="K13" s="25"/>
       <c r="L13" s="44" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="M13" s="45"/>
       <c r="N13" s="28"/>
@@ -5939,10 +6144,10 @@
         <v>1</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="F14" s="30" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="G14" s="27">
         <v>5</v>
@@ -5958,7 +6163,7 @@
       </c>
       <c r="K14" s="29"/>
       <c r="L14" s="44" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="M14" s="47"/>
       <c r="N14" s="24"/>
@@ -5981,10 +6186,10 @@
         <v>1</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="F15" s="26" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="G15" s="27">
         <v>0</v>
@@ -6000,7 +6205,7 @@
       </c>
       <c r="K15" s="25"/>
       <c r="L15" s="44" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="M15" s="45"/>
       <c r="N15" s="28"/>
@@ -6023,10 +6228,10 @@
         <v>1</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="F16" s="30" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="G16" s="27">
         <v>0</v>
@@ -6042,7 +6247,7 @@
       </c>
       <c r="K16" s="29"/>
       <c r="L16" s="44" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="M16" s="47"/>
       <c r="N16" s="24"/>
@@ -6065,10 +6270,10 @@
         <v>1</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="F17" s="26" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="G17" s="27">
         <v>10</v>
@@ -6084,7 +6289,7 @@
       </c>
       <c r="K17" s="25"/>
       <c r="L17" s="44" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="M17" s="45"/>
       <c r="N17" s="28"/>
@@ -6107,10 +6312,10 @@
         <v>1</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="F18" s="30" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="G18" s="27">
         <v>0</v>
@@ -6126,7 +6331,7 @@
       </c>
       <c r="K18" s="29"/>
       <c r="L18" s="44" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="M18" s="47"/>
       <c r="N18" s="24"/>
@@ -6149,10 +6354,10 @@
         <v>1</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="F19" s="26" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="G19" s="27">
         <v>0</v>
@@ -6168,7 +6373,7 @@
       </c>
       <c r="K19" s="25"/>
       <c r="L19" s="44" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="M19" s="45"/>
       <c r="N19" s="28"/>
@@ -6191,10 +6396,10 @@
         <v>1</v>
       </c>
       <c r="E20" s="29" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="F20" s="30" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="G20" s="27">
         <v>0</v>
@@ -6210,7 +6415,7 @@
       </c>
       <c r="K20" s="29"/>
       <c r="L20" s="44" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="M20" s="47"/>
       <c r="N20" s="24"/>
@@ -6233,10 +6438,10 @@
         <v>1</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="F21" s="26" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="G21" s="27">
         <v>0</v>
@@ -6252,7 +6457,7 @@
       </c>
       <c r="K21" s="25"/>
       <c r="L21" s="44" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="M21" s="45"/>
       <c r="N21" s="28"/>
@@ -6275,10 +6480,10 @@
         <v>1</v>
       </c>
       <c r="E22" s="29" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="F22" s="30" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="G22" s="27">
         <v>0</v>
@@ -6294,7 +6499,7 @@
       </c>
       <c r="K22" s="29"/>
       <c r="L22" s="44" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="M22" s="47"/>
       <c r="N22" s="24"/>
@@ -6317,10 +6522,10 @@
         <v>1</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="F23" s="26" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="G23" s="31">
         <v>0</v>
@@ -6336,7 +6541,7 @@
       </c>
       <c r="K23" s="25"/>
       <c r="L23" s="44" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="M23" s="47"/>
       <c r="N23" s="28"/>
@@ -6359,10 +6564,10 @@
         <v>1</v>
       </c>
       <c r="E24" s="29" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="F24" s="30" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="G24" s="31">
         <v>0</v>
@@ -6378,7 +6583,7 @@
       </c>
       <c r="K24" s="29"/>
       <c r="L24" s="44" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="M24" s="47"/>
       <c r="N24" s="24"/>
@@ -6401,10 +6606,10 @@
         <v>1</v>
       </c>
       <c r="E25" s="25" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="F25" s="26" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="G25" s="31">
         <v>0</v>
@@ -6420,7 +6625,7 @@
       </c>
       <c r="K25" s="25"/>
       <c r="L25" s="44" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="M25" s="47"/>
       <c r="N25" s="28"/>
@@ -6443,10 +6648,10 @@
         <v>1</v>
       </c>
       <c r="E26" s="29" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="F26" s="30" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="G26" s="27">
         <v>10</v>
@@ -6462,7 +6667,7 @@
       </c>
       <c r="K26" s="29"/>
       <c r="L26" s="44" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="M26" s="47"/>
       <c r="N26" s="24"/>
@@ -6485,10 +6690,10 @@
         <v>1</v>
       </c>
       <c r="E27" s="33" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="F27" s="34" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="G27" s="27">
         <v>10</v>
@@ -6504,7 +6709,7 @@
       </c>
       <c r="K27" s="33"/>
       <c r="L27" s="44" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="M27" s="47"/>
       <c r="N27" s="48"/>
@@ -6514,7 +6719,7 @@
       <c r="P27" s="38"/>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C27">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="C1:C27" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <mergeCells count="1">
@@ -6576,78 +6781,78 @@
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" ht="39" customHeight="1" spans="1:12">
       <c r="A2" s="5" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>21</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="L2" s="16" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" ht="39" customHeight="1" spans="1:12">
@@ -6658,7 +6863,7 @@
         <v>105</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D3" s="11">
         <v>10</v>
@@ -6673,19 +6878,19 @@
         <v>160</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="I3" s="11">
         <v>10</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="L3" s="17" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" ht="39" customHeight="1" spans="1:12">
@@ -6696,7 +6901,7 @@
         <v>205</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D4" s="14">
         <v>10</v>
@@ -6711,19 +6916,19 @@
         <v>160</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="I4" s="14">
         <v>10</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="K4" s="14" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="L4" s="18" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" ht="39" customHeight="1" spans="1:12">
@@ -6734,7 +6939,7 @@
         <v>305</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D5" s="11">
         <v>10</v>
@@ -6749,19 +6954,19 @@
         <v>160</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="I5" s="11">
         <v>10</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="L5" s="17" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/excels/config/difficulty_config.xlsx
+++ b/excels/config/difficulty_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12345" tabRatio="804"/>
+    <workbookView windowWidth="27945" windowHeight="13395" tabRatio="804"/>
   </bookViews>
   <sheets>
     <sheet name="chapter_info" sheetId="7" r:id="rId1"/>
@@ -34,15 +34,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="199">
-  <si>
-    <t>章节编号</t>
-  </si>
-  <si>
-    <t>章节索引</t>
-  </si>
-  <si>
-    <t>页码</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="198">
+  <si>
+    <t>编号</t>
+  </si>
+  <si>
+    <t>区域索引</t>
+  </si>
+  <si>
+    <t>章节页码</t>
   </si>
   <si>
     <t>最终关</t>
@@ -59,9 +59,6 @@
 5 通关后会出现深渊挑战</t>
   </si>
   <si>
-    <t>当前章节最大区域</t>
-  </si>
-  <si>
     <t>当前区域最大难度</t>
   </si>
   <si>
@@ -92,9 +89,6 @@
     <t>pattern_type</t>
   </si>
   <si>
-    <t>area_max</t>
-  </si>
-  <si>
     <t>default_max</t>
   </si>
   <si>
@@ -119,54 +113,54 @@
     <t>c2</t>
   </si>
   <si>
+    <t>1,2</t>
+  </si>
+  <si>
+    <t>c3</t>
+  </si>
+  <si>
+    <t>1,2,3</t>
+  </si>
+  <si>
+    <t>c4</t>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
+  </si>
+  <si>
+    <t>c5</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5</t>
+  </si>
+  <si>
+    <t>c6</t>
+  </si>
+  <si>
+    <t>c7</t>
+  </si>
+  <si>
     <t>第二章</t>
   </si>
   <si>
-    <t>1,2</t>
-  </si>
-  <si>
-    <t>c3</t>
+    <t>c8</t>
   </si>
   <si>
     <t>第三章</t>
   </si>
   <si>
-    <t>1,2,3</t>
-  </si>
-  <si>
-    <t>c4</t>
+    <t>c9</t>
   </si>
   <si>
     <t>第四章</t>
   </si>
   <si>
-    <t>1,2,3,4</t>
-  </si>
-  <si>
-    <t>c5</t>
+    <t>c10</t>
   </si>
   <si>
     <t>第五章</t>
   </si>
   <si>
-    <t>1,2,3,4,5</t>
-  </si>
-  <si>
-    <t>c6</t>
-  </si>
-  <si>
-    <t>c7</t>
-  </si>
-  <si>
-    <t>c8</t>
-  </si>
-  <si>
-    <t>c9</t>
-  </si>
-  <si>
-    <t>c10</t>
-  </si>
-  <si>
     <t>地图编号</t>
   </si>
   <si>
@@ -240,6 +234,9 @@
   </si>
   <si>
     <t>地图内容配置编号</t>
+  </si>
+  <si>
+    <t>章节编号</t>
   </si>
   <si>
     <t>区域编号</t>
@@ -2164,7 +2161,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{7F2DA214-C388-425B-9A80-DF01777E1627}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{7377A180-24CC-4898-85DD-37A2355B711C}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
@@ -2465,10 +2462,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2476,12 +2473,12 @@
     <col min="1" max="1" width="13.5" customWidth="1"/>
     <col min="2" max="4" width="15.375" customWidth="1"/>
     <col min="5" max="5" width="13.75" customWidth="1"/>
-    <col min="6" max="7" width="18.125" customWidth="1"/>
-    <col min="8" max="8" width="16.75" customWidth="1"/>
-    <col min="9" max="12" width="12.625" customWidth="1"/>
+    <col min="6" max="6" width="18.125" customWidth="1"/>
+    <col min="7" max="7" width="16.75" customWidth="1"/>
+    <col min="8" max="11" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="122" customHeight="1" spans="1:12">
+    <row r="1" ht="122" customHeight="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2515,49 +2512,43 @@
       <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+    </row>
+    <row r="2" ht="30" spans="1:11">
+      <c r="A2" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" ht="30" spans="1:12">
-      <c r="A2" s="5" t="s">
+      <c r="B2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>14</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>15</v>
       </c>
       <c r="E2" s="8"/>
       <c r="F2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="I2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="J2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="8" t="s">
+    </row>
+    <row r="3" ht="68" customHeight="1" spans="1:11">
+      <c r="A3" s="9" t="s">
         <v>21</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" ht="68" customHeight="1" spans="1:12">
-      <c r="A3" s="9" t="s">
-        <v>23</v>
       </c>
       <c r="B3" s="11">
         <v>1</v>
@@ -2569,33 +2560,30 @@
         <v>0</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F3" s="11">
         <v>1</v>
       </c>
       <c r="G3" s="11">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H3" s="11">
-        <v>8</v>
+        <v>101</v>
       </c>
       <c r="I3" s="11">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="J3" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" s="11">
-        <v>0</v>
-      </c>
-      <c r="L3" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" ht="68" customHeight="1" spans="1:12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" ht="68" customHeight="1" spans="1:11">
       <c r="A4" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B4" s="14">
         <v>2</v>
@@ -2606,34 +2594,31 @@
       <c r="D4" s="14">
         <v>0</v>
       </c>
-      <c r="E4" s="14" t="s">
-        <v>26</v>
+      <c r="E4" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="52">
-        <v>7</v>
-      </c>
-      <c r="H4" s="11">
+        <v>24</v>
+      </c>
+      <c r="G4" s="11">
         <v>8</v>
       </c>
+      <c r="H4" s="14">
+        <v>109</v>
+      </c>
       <c r="I4" s="14">
-        <v>201</v>
+        <v>1</v>
       </c>
       <c r="J4" s="14">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="K4" s="14">
-        <v>105</v>
-      </c>
-      <c r="L4" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="5" ht="68" customHeight="1" spans="1:12">
+    <row r="5" ht="68" customHeight="1" spans="1:11">
       <c r="A5" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B5" s="11">
         <v>3</v>
@@ -2645,33 +2630,30 @@
         <v>0</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="52">
-        <v>7</v>
+        <v>26</v>
+      </c>
+      <c r="G5" s="11">
+        <v>8</v>
       </c>
       <c r="H5" s="11">
-        <v>8</v>
+        <v>117</v>
       </c>
       <c r="I5" s="11">
-        <v>301</v>
+        <v>1</v>
       </c>
       <c r="J5" s="11">
-        <v>1</v>
+        <v>205</v>
       </c>
       <c r="K5" s="11">
-        <v>205</v>
-      </c>
-      <c r="L5" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="6" ht="68" customHeight="1" spans="1:12">
+    <row r="6" ht="68" customHeight="1" spans="1:11">
       <c r="A6" s="9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B6" s="14">
         <v>4</v>
@@ -2682,34 +2664,31 @@
       <c r="D6" s="14">
         <v>0</v>
       </c>
-      <c r="E6" s="14" t="s">
-        <v>32</v>
+      <c r="E6" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="52">
-        <v>7</v>
-      </c>
-      <c r="H6" s="11">
+        <v>28</v>
+      </c>
+      <c r="G6" s="11">
         <v>8</v>
       </c>
+      <c r="H6" s="14">
+        <v>125</v>
+      </c>
       <c r="I6" s="14">
-        <v>401</v>
+        <v>1</v>
       </c>
       <c r="J6" s="14">
-        <v>1</v>
+        <v>305</v>
       </c>
       <c r="K6" s="14">
-        <v>305</v>
-      </c>
-      <c r="L6" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="7" ht="68" customHeight="1" spans="1:12">
+    <row r="7" ht="68" customHeight="1" spans="1:11">
       <c r="A7" s="9" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B7" s="11">
         <v>5</v>
@@ -2721,33 +2700,30 @@
         <v>1</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="52">
-        <v>7</v>
+        <v>30</v>
+      </c>
+      <c r="G7" s="11">
+        <v>8</v>
       </c>
       <c r="H7" s="11">
-        <v>8</v>
+        <v>133</v>
       </c>
       <c r="I7" s="11">
-        <v>501</v>
+        <v>1</v>
       </c>
       <c r="J7" s="11">
-        <v>1</v>
+        <v>405</v>
       </c>
       <c r="K7" s="11">
-        <v>405</v>
-      </c>
-      <c r="L7" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="8" ht="68" customHeight="1" spans="1:12">
+    <row r="8" ht="68" customHeight="1" spans="1:11">
       <c r="A8" s="9" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B8" s="11">
         <v>1</v>
@@ -2765,27 +2741,24 @@
         <v>1</v>
       </c>
       <c r="G8" s="11">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H8" s="11">
-        <v>8</v>
+        <v>101</v>
       </c>
       <c r="I8" s="11">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="J8" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" s="11">
-        <v>0</v>
-      </c>
-      <c r="L8" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" ht="68" customHeight="1" spans="1:12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="68" customHeight="1" spans="1:11">
       <c r="A9" s="9" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B9" s="14">
         <v>2</v>
@@ -2797,33 +2770,30 @@
         <v>0</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="52">
-        <v>7</v>
-      </c>
-      <c r="H9" s="11">
+        <v>24</v>
+      </c>
+      <c r="G9" s="11">
         <v>8</v>
       </c>
+      <c r="H9" s="14">
+        <v>201</v>
+      </c>
       <c r="I9" s="14">
-        <v>201</v>
+        <v>1</v>
       </c>
       <c r="J9" s="14">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="K9" s="14">
-        <v>105</v>
-      </c>
-      <c r="L9" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="68" customHeight="1" spans="1:12">
+    <row r="10" ht="68" customHeight="1" spans="1:11">
       <c r="A10" s="9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B10" s="11">
         <v>3</v>
@@ -2835,33 +2805,30 @@
         <v>0</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="52">
-        <v>7</v>
+        <v>26</v>
+      </c>
+      <c r="G10" s="11">
+        <v>8</v>
       </c>
       <c r="H10" s="11">
-        <v>8</v>
+        <v>301</v>
       </c>
       <c r="I10" s="11">
-        <v>301</v>
+        <v>1</v>
       </c>
       <c r="J10" s="11">
-        <v>1</v>
+        <v>205</v>
       </c>
       <c r="K10" s="11">
-        <v>205</v>
-      </c>
-      <c r="L10" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="11" ht="68" customHeight="1" spans="1:12">
+    <row r="11" ht="68" customHeight="1" spans="1:11">
       <c r="A11" s="9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B11" s="14">
         <v>4</v>
@@ -2873,33 +2840,30 @@
         <v>0</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" s="52">
-        <v>7</v>
-      </c>
-      <c r="H11" s="11">
+        <v>28</v>
+      </c>
+      <c r="G11" s="11">
         <v>8</v>
       </c>
+      <c r="H11" s="14">
+        <v>401</v>
+      </c>
       <c r="I11" s="14">
-        <v>401</v>
+        <v>1</v>
       </c>
       <c r="J11" s="14">
-        <v>1</v>
+        <v>305</v>
       </c>
       <c r="K11" s="14">
-        <v>305</v>
-      </c>
-      <c r="L11" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="12" ht="68" customHeight="1" spans="1:12">
+    <row r="12" ht="68" customHeight="1" spans="1:11">
       <c r="A12" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B12" s="11">
         <v>5</v>
@@ -2911,27 +2875,24 @@
         <v>1</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12" s="52">
-        <v>7</v>
+        <v>30</v>
+      </c>
+      <c r="G12" s="11">
+        <v>8</v>
       </c>
       <c r="H12" s="11">
-        <v>8</v>
+        <v>501</v>
       </c>
       <c r="I12" s="11">
-        <v>501</v>
+        <v>1</v>
       </c>
       <c r="J12" s="11">
-        <v>1</v>
+        <v>405</v>
       </c>
       <c r="K12" s="11">
-        <v>405</v>
-      </c>
-      <c r="L12" s="11">
         <v>0</v>
       </c>
     </row>
@@ -2962,59 +2923,59 @@
   <sheetData>
     <row r="1" ht="95" customHeight="1" spans="1:7">
       <c r="A1" s="60" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="61" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="D1" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="61" t="s">
+      <c r="E1" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="61" t="s">
+      <c r="F1" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="62" t="s">
+      <c r="G1" s="63" t="s">
         <v>46</v>
-      </c>
-      <c r="F1" s="63" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" s="63" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" ht="22.5" customHeight="1" spans="1:7">
       <c r="A2" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="D2" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="65" t="s">
+      <c r="E2" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="65" t="s">
+      <c r="F2" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="66" t="s">
+      <c r="G2" s="63" t="s">
         <v>53</v>
-      </c>
-      <c r="F2" s="63" t="s">
-        <v>54</v>
-      </c>
-      <c r="G2" s="63" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="3" ht="51" customHeight="1" spans="1:7">
       <c r="A3" s="67" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B3" s="68" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C3" s="68" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D3" s="68">
         <v>8192</v>
@@ -3031,13 +2992,13 @@
     </row>
     <row r="4" ht="48" customHeight="1" spans="1:7">
       <c r="A4" s="71" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B4" s="68" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C4" s="68" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D4" s="72">
         <v>8192</v>
@@ -3054,13 +3015,13 @@
     </row>
     <row r="5" s="50" customFormat="1" ht="55.5" customHeight="1" spans="1:7">
       <c r="A5" s="67" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B5" s="68" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C5" s="68" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D5" s="68">
         <v>8192</v>
@@ -3077,13 +3038,13 @@
     </row>
     <row r="6" s="50" customFormat="1" ht="55.5" customHeight="1" spans="1:7">
       <c r="A6" s="71" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B6" s="68" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C6" s="68" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D6" s="72">
         <v>8192</v>
@@ -3100,13 +3061,13 @@
     </row>
     <row r="7" s="50" customFormat="1" ht="39" customHeight="1" spans="1:7">
       <c r="A7" s="67" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B7" s="68" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C7" s="68" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D7" s="68">
         <v>8192</v>
@@ -3136,7 +3097,7 @@
     <sheetView workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="A35" sqref="A35"/>
+      <selection pane="topRight" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3155,84 +3116,84 @@
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:13">
       <c r="A1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="15" t="s">
         <v>75</v>
-      </c>
-      <c r="M1" s="15" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="2" ht="39" customHeight="1" spans="1:13">
       <c r="A2" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="8" t="s">
+      <c r="I2" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="J2" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="L2" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="M2" s="16" t="s">
         <v>85</v>
-      </c>
-      <c r="M2" s="16" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="3" ht="39" customHeight="1" spans="1:13">
@@ -3240,7 +3201,7 @@
         <v>101</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C3" s="11">
         <v>1</v>
@@ -3249,7 +3210,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F3" s="11">
         <v>10</v>
@@ -3267,13 +3228,13 @@
         <v>10</v>
       </c>
       <c r="K3" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="L3" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="M3" s="17" t="s">
         <v>88</v>
-      </c>
-      <c r="M3" s="17" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="4" ht="39" customHeight="1" spans="1:13">
@@ -3281,7 +3242,7 @@
         <v>102</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" s="11">
         <v>1</v>
@@ -3290,7 +3251,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F4" s="14">
         <v>10</v>
@@ -3308,13 +3269,13 @@
         <v>10</v>
       </c>
       <c r="K4" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="L4" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="L4" s="14" t="s">
-        <v>91</v>
-      </c>
       <c r="M4" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" ht="39" customHeight="1" spans="1:13">
@@ -3322,7 +3283,7 @@
         <v>103</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C5" s="11">
         <v>1</v>
@@ -3331,7 +3292,7 @@
         <v>3</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F5" s="11">
         <v>10</v>
@@ -3349,13 +3310,13 @@
         <v>10</v>
       </c>
       <c r="K5" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="L5" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="L5" s="11" t="s">
-        <v>93</v>
-      </c>
       <c r="M5" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" ht="39" customHeight="1" spans="1:13">
@@ -3363,7 +3324,7 @@
         <v>104</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6" s="11">
         <v>1</v>
@@ -3372,7 +3333,7 @@
         <v>4</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F6" s="14">
         <v>10</v>
@@ -3390,13 +3351,13 @@
         <v>10</v>
       </c>
       <c r="K6" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="L6" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="L6" s="14" t="s">
-        <v>95</v>
-      </c>
       <c r="M6" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" ht="39" customHeight="1" spans="1:13">
@@ -3404,7 +3365,7 @@
         <v>105</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7" s="11">
         <v>1</v>
@@ -3413,7 +3374,7 @@
         <v>5</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F7" s="11">
         <v>10</v>
@@ -3431,13 +3392,13 @@
         <v>10</v>
       </c>
       <c r="K7" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="L7" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="L7" s="11" t="s">
-        <v>97</v>
-      </c>
       <c r="M7" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" ht="39" customHeight="1" spans="1:13">
@@ -3445,7 +3406,7 @@
         <v>106</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C8" s="11">
         <v>1</v>
@@ -3454,7 +3415,7 @@
         <v>6</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F8" s="11">
         <v>10</v>
@@ -3472,13 +3433,13 @@
         <v>10</v>
       </c>
       <c r="K8" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="L8" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="L8" s="11" t="s">
-        <v>97</v>
-      </c>
       <c r="M8" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" ht="39" customHeight="1" spans="1:13">
@@ -3486,7 +3447,7 @@
         <v>107</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C9" s="11">
         <v>1</v>
@@ -3495,7 +3456,7 @@
         <v>7</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F9" s="11">
         <v>10</v>
@@ -3513,13 +3474,13 @@
         <v>10</v>
       </c>
       <c r="K9" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="L9" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="L9" s="11" t="s">
-        <v>97</v>
-      </c>
       <c r="M9" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" ht="39" customHeight="1" spans="1:13">
@@ -3527,7 +3488,7 @@
         <v>108</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C10" s="11">
         <v>1</v>
@@ -3536,7 +3497,7 @@
         <v>8</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F10" s="11">
         <v>10</v>
@@ -3554,13 +3515,13 @@
         <v>10</v>
       </c>
       <c r="K10" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="L10" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="L10" s="11" t="s">
-        <v>97</v>
-      </c>
       <c r="M10" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" ht="39" customHeight="1" spans="1:13">
@@ -3568,7 +3529,7 @@
         <v>109</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C11" s="11">
         <v>2</v>
@@ -3577,13 +3538,13 @@
         <v>1</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F11" s="11">
         <v>10</v>
       </c>
       <c r="G11" s="14">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="H11" s="11">
         <v>20</v>
@@ -3595,13 +3556,13 @@
         <v>10</v>
       </c>
       <c r="K11" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="L11" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="L11" s="11" t="s">
-        <v>97</v>
-      </c>
       <c r="M11" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" ht="39" customHeight="1" spans="1:13">
@@ -3609,7 +3570,7 @@
         <v>110</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C12" s="11">
         <v>2</v>
@@ -3618,7 +3579,7 @@
         <v>2</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F12" s="11">
         <v>10</v>
@@ -3636,13 +3597,13 @@
         <v>10</v>
       </c>
       <c r="K12" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="L12" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="L12" s="11" t="s">
-        <v>97</v>
-      </c>
       <c r="M12" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" ht="39" customHeight="1" spans="1:13">
@@ -3650,7 +3611,7 @@
         <v>111</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C13" s="11">
         <v>2</v>
@@ -3659,7 +3620,7 @@
         <v>3</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F13" s="11">
         <v>10</v>
@@ -3677,13 +3638,13 @@
         <v>10</v>
       </c>
       <c r="K13" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="L13" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="L13" s="11" t="s">
-        <v>97</v>
-      </c>
       <c r="M13" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" ht="39" customHeight="1" spans="1:13">
@@ -3691,7 +3652,7 @@
         <v>112</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C14" s="11">
         <v>2</v>
@@ -3700,7 +3661,7 @@
         <v>4</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F14" s="11">
         <v>10</v>
@@ -3718,13 +3679,13 @@
         <v>10</v>
       </c>
       <c r="K14" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="L14" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="L14" s="11" t="s">
-        <v>97</v>
-      </c>
       <c r="M14" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" ht="39" customHeight="1" spans="1:13">
@@ -3732,7 +3693,7 @@
         <v>113</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C15" s="11">
         <v>2</v>
@@ -3741,7 +3702,7 @@
         <v>5</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F15" s="11">
         <v>10</v>
@@ -3759,13 +3720,13 @@
         <v>10</v>
       </c>
       <c r="K15" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="L15" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="L15" s="11" t="s">
-        <v>97</v>
-      </c>
       <c r="M15" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" ht="39" customHeight="1" spans="1:13">
@@ -3773,7 +3734,7 @@
         <v>114</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C16" s="11">
         <v>2</v>
@@ -3782,7 +3743,7 @@
         <v>6</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F16" s="11">
         <v>10</v>
@@ -3800,13 +3761,13 @@
         <v>10</v>
       </c>
       <c r="K16" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="L16" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="L16" s="11" t="s">
-        <v>97</v>
-      </c>
       <c r="M16" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" ht="39" customHeight="1" spans="1:13">
@@ -3814,7 +3775,7 @@
         <v>115</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C17" s="11">
         <v>2</v>
@@ -3823,7 +3784,7 @@
         <v>7</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F17" s="11">
         <v>10</v>
@@ -3841,13 +3802,13 @@
         <v>10</v>
       </c>
       <c r="K17" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="L17" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="L17" s="11" t="s">
-        <v>97</v>
-      </c>
       <c r="M17" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" ht="39" customHeight="1" spans="1:13">
@@ -3855,7 +3816,7 @@
         <v>116</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C18" s="11">
         <v>2</v>
@@ -3864,7 +3825,7 @@
         <v>8</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F18" s="11">
         <v>10</v>
@@ -3882,13 +3843,13 @@
         <v>10</v>
       </c>
       <c r="K18" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="L18" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="L18" s="11" t="s">
-        <v>97</v>
-      </c>
       <c r="M18" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" ht="39" customHeight="1" spans="1:13">
@@ -3896,7 +3857,7 @@
         <v>117</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C19" s="11">
         <v>3</v>
@@ -3905,7 +3866,7 @@
         <v>1</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F19" s="11">
         <v>10</v>
@@ -3923,13 +3884,13 @@
         <v>10</v>
       </c>
       <c r="K19" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="L19" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="L19" s="11" t="s">
-        <v>97</v>
-      </c>
       <c r="M19" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" ht="39" customHeight="1" spans="1:13">
@@ -3937,7 +3898,7 @@
         <v>118</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C20" s="11">
         <v>3</v>
@@ -3946,7 +3907,7 @@
         <v>2</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F20" s="11">
         <v>10</v>
@@ -3964,13 +3925,13 @@
         <v>10</v>
       </c>
       <c r="K20" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="L20" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="L20" s="11" t="s">
-        <v>97</v>
-      </c>
       <c r="M20" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" ht="39" customHeight="1" spans="1:13">
@@ -3978,7 +3939,7 @@
         <v>119</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C21" s="11">
         <v>3</v>
@@ -3987,7 +3948,7 @@
         <v>3</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F21" s="11">
         <v>10</v>
@@ -4005,13 +3966,13 @@
         <v>10</v>
       </c>
       <c r="K21" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="L21" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="L21" s="11" t="s">
-        <v>97</v>
-      </c>
       <c r="M21" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" ht="39" customHeight="1" spans="1:13">
@@ -4019,7 +3980,7 @@
         <v>120</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C22" s="11">
         <v>3</v>
@@ -4028,7 +3989,7 @@
         <v>4</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F22" s="11">
         <v>10</v>
@@ -4046,13 +4007,13 @@
         <v>10</v>
       </c>
       <c r="K22" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="L22" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="L22" s="11" t="s">
-        <v>97</v>
-      </c>
       <c r="M22" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" ht="39" customHeight="1" spans="1:13">
@@ -4060,7 +4021,7 @@
         <v>121</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C23" s="11">
         <v>3</v>
@@ -4069,7 +4030,7 @@
         <v>5</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F23" s="11">
         <v>10</v>
@@ -4087,13 +4048,13 @@
         <v>10</v>
       </c>
       <c r="K23" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="L23" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="L23" s="11" t="s">
-        <v>97</v>
-      </c>
       <c r="M23" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" ht="39" customHeight="1" spans="1:13">
@@ -4101,7 +4062,7 @@
         <v>122</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C24" s="11">
         <v>3</v>
@@ -4110,7 +4071,7 @@
         <v>6</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F24" s="11">
         <v>10</v>
@@ -4128,13 +4089,13 @@
         <v>10</v>
       </c>
       <c r="K24" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="L24" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="L24" s="11" t="s">
-        <v>97</v>
-      </c>
       <c r="M24" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" ht="39" customHeight="1" spans="1:13">
@@ -4142,7 +4103,7 @@
         <v>123</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C25" s="11">
         <v>3</v>
@@ -4151,7 +4112,7 @@
         <v>7</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F25" s="11">
         <v>10</v>
@@ -4169,13 +4130,13 @@
         <v>10</v>
       </c>
       <c r="K25" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="L25" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="L25" s="11" t="s">
-        <v>97</v>
-      </c>
       <c r="M25" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" ht="39" customHeight="1" spans="1:13">
@@ -4183,7 +4144,7 @@
         <v>124</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C26" s="11">
         <v>3</v>
@@ -4192,7 +4153,7 @@
         <v>8</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F26" s="11">
         <v>10</v>
@@ -4210,13 +4171,13 @@
         <v>10</v>
       </c>
       <c r="K26" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="L26" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="L26" s="11" t="s">
-        <v>97</v>
-      </c>
       <c r="M26" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" ht="39" customHeight="1" spans="1:13">
@@ -4224,7 +4185,7 @@
         <v>125</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C27" s="52">
         <v>4</v>
@@ -4233,7 +4194,7 @@
         <v>1</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F27" s="11">
         <v>10</v>
@@ -4251,13 +4212,13 @@
         <v>10</v>
       </c>
       <c r="K27" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="L27" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="L27" s="11" t="s">
-        <v>97</v>
-      </c>
       <c r="M27" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" ht="39" customHeight="1" spans="1:13">
@@ -4265,7 +4226,7 @@
         <v>126</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C28" s="52">
         <v>4</v>
@@ -4274,7 +4235,7 @@
         <v>2</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F28" s="11">
         <v>10</v>
@@ -4292,13 +4253,13 @@
         <v>10</v>
       </c>
       <c r="K28" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="L28" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="L28" s="11" t="s">
-        <v>97</v>
-      </c>
       <c r="M28" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" ht="39" customHeight="1" spans="1:13">
@@ -4306,7 +4267,7 @@
         <v>127</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C29" s="52">
         <v>4</v>
@@ -4315,7 +4276,7 @@
         <v>3</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F29" s="11">
         <v>10</v>
@@ -4333,13 +4294,13 @@
         <v>10</v>
       </c>
       <c r="K29" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="L29" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="L29" s="11" t="s">
-        <v>97</v>
-      </c>
       <c r="M29" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" ht="39" customHeight="1" spans="1:13">
@@ -4347,7 +4308,7 @@
         <v>128</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C30" s="52">
         <v>4</v>
@@ -4356,7 +4317,7 @@
         <v>4</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F30" s="11">
         <v>10</v>
@@ -4374,13 +4335,13 @@
         <v>10</v>
       </c>
       <c r="K30" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="L30" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="L30" s="11" t="s">
-        <v>97</v>
-      </c>
       <c r="M30" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" ht="39" customHeight="1" spans="1:13">
@@ -4388,7 +4349,7 @@
         <v>129</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C31" s="52">
         <v>4</v>
@@ -4397,7 +4358,7 @@
         <v>5</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F31" s="11">
         <v>10</v>
@@ -4415,13 +4376,13 @@
         <v>10</v>
       </c>
       <c r="K31" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="L31" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="L31" s="11" t="s">
-        <v>97</v>
-      </c>
       <c r="M31" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" ht="39" customHeight="1" spans="1:13">
@@ -4429,7 +4390,7 @@
         <v>130</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C32" s="52">
         <v>4</v>
@@ -4438,7 +4399,7 @@
         <v>6</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F32" s="11">
         <v>10</v>
@@ -4456,13 +4417,13 @@
         <v>10</v>
       </c>
       <c r="K32" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="L32" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="L32" s="11" t="s">
-        <v>97</v>
-      </c>
       <c r="M32" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" ht="39" customHeight="1" spans="1:13">
@@ -4470,7 +4431,7 @@
         <v>131</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C33" s="52">
         <v>4</v>
@@ -4479,7 +4440,7 @@
         <v>7</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F33" s="11">
         <v>10</v>
@@ -4497,13 +4458,13 @@
         <v>10</v>
       </c>
       <c r="K33" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="L33" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="L33" s="11" t="s">
-        <v>97</v>
-      </c>
       <c r="M33" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34" ht="39" customHeight="1" spans="1:13">
@@ -4511,7 +4472,7 @@
         <v>132</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C34" s="52">
         <v>4</v>
@@ -4520,7 +4481,7 @@
         <v>8</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F34" s="11">
         <v>10</v>
@@ -4538,13 +4499,13 @@
         <v>10</v>
       </c>
       <c r="K34" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="L34" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="L34" s="11" t="s">
-        <v>97</v>
-      </c>
       <c r="M34" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" ht="39" customHeight="1" spans="1:13">
@@ -4552,7 +4513,7 @@
         <v>133</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C35" s="52">
         <v>5</v>
@@ -4561,7 +4522,7 @@
         <v>5</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F35" s="11">
         <v>10</v>
@@ -4579,13 +4540,13 @@
         <v>10</v>
       </c>
       <c r="K35" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="L35" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="L35" s="11" t="s">
-        <v>97</v>
-      </c>
       <c r="M35" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36" ht="39" customHeight="1" spans="1:13">
@@ -4593,7 +4554,7 @@
         <v>134</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C36" s="52">
         <v>5</v>
@@ -4602,7 +4563,7 @@
         <v>6</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F36" s="11">
         <v>10</v>
@@ -4620,13 +4581,13 @@
         <v>10</v>
       </c>
       <c r="K36" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="L36" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="L36" s="11" t="s">
-        <v>97</v>
-      </c>
       <c r="M36" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" ht="39" customHeight="1" spans="1:13">
@@ -4634,7 +4595,7 @@
         <v>135</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C37" s="52">
         <v>5</v>
@@ -4643,7 +4604,7 @@
         <v>7</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F37" s="11">
         <v>10</v>
@@ -4661,13 +4622,13 @@
         <v>10</v>
       </c>
       <c r="K37" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="L37" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="L37" s="11" t="s">
-        <v>97</v>
-      </c>
       <c r="M37" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" ht="39" customHeight="1" spans="1:13">
@@ -4675,7 +4636,7 @@
         <v>136</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C38" s="52">
         <v>5</v>
@@ -4684,7 +4645,7 @@
         <v>8</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F38" s="11">
         <v>10</v>
@@ -4702,13 +4663,13 @@
         <v>10</v>
       </c>
       <c r="K38" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="L38" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="L38" s="11" t="s">
-        <v>97</v>
-      </c>
       <c r="M38" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39" ht="39" customHeight="1" spans="1:13">
@@ -4716,7 +4677,7 @@
         <v>201</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C39" s="14">
         <v>1</v>
@@ -4725,7 +4686,7 @@
         <v>1</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F39" s="14">
         <v>10</v>
@@ -4743,13 +4704,13 @@
         <v>10</v>
       </c>
       <c r="K39" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="L39" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="L39" s="14" t="s">
-        <v>99</v>
-      </c>
       <c r="M39" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" ht="39" customHeight="1" spans="1:13">
@@ -4757,7 +4718,7 @@
         <v>202</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C40" s="14">
         <v>1</v>
@@ -4766,7 +4727,7 @@
         <v>2</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F40" s="11">
         <v>10</v>
@@ -4784,13 +4745,13 @@
         <v>10</v>
       </c>
       <c r="K40" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="L40" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="L40" s="11" t="s">
-        <v>101</v>
-      </c>
       <c r="M40" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41" ht="39" customHeight="1" spans="1:13">
@@ -4798,7 +4759,7 @@
         <v>203</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C41" s="14">
         <v>1</v>
@@ -4807,7 +4768,7 @@
         <v>3</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F41" s="14">
         <v>10</v>
@@ -4825,13 +4786,13 @@
         <v>10</v>
       </c>
       <c r="K41" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="L41" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="L41" s="14" t="s">
-        <v>103</v>
-      </c>
       <c r="M41" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42" ht="39" customHeight="1" spans="1:13">
@@ -4839,7 +4800,7 @@
         <v>204</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C42" s="14">
         <v>1</v>
@@ -4848,7 +4809,7 @@
         <v>4</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F42" s="11">
         <v>10</v>
@@ -4866,13 +4827,13 @@
         <v>10</v>
       </c>
       <c r="K42" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="L42" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="L42" s="11" t="s">
-        <v>105</v>
-      </c>
       <c r="M42" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43" customFormat="1" ht="39" customHeight="1" spans="1:13">
@@ -4880,7 +4841,7 @@
         <v>205</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C43" s="14">
         <v>1</v>
@@ -4889,7 +4850,7 @@
         <v>5</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F43" s="14">
         <v>10</v>
@@ -4907,13 +4868,13 @@
         <v>10</v>
       </c>
       <c r="K43" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="L43" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="L43" s="14" t="s">
-        <v>107</v>
-      </c>
       <c r="M43" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44" s="50" customFormat="1" ht="39" customHeight="1" spans="1:13">
@@ -4921,7 +4882,7 @@
         <v>301</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C44" s="11">
         <v>1</v>
@@ -4930,7 +4891,7 @@
         <v>1</v>
       </c>
       <c r="E44" s="53" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F44" s="11">
         <v>10</v>
@@ -4948,13 +4909,13 @@
         <v>10</v>
       </c>
       <c r="K44" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="L44" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="L44" s="11" t="s">
-        <v>109</v>
-      </c>
       <c r="M44" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="45" s="50" customFormat="1" ht="39" customHeight="1" spans="1:13">
@@ -4962,7 +4923,7 @@
         <v>302</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C45" s="11">
         <v>1</v>
@@ -4971,7 +4932,7 @@
         <v>2</v>
       </c>
       <c r="E45" s="54" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F45" s="14">
         <v>10</v>
@@ -4989,13 +4950,13 @@
         <v>10</v>
       </c>
       <c r="K45" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="L45" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="L45" s="14" t="s">
-        <v>111</v>
-      </c>
       <c r="M45" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="46" s="50" customFormat="1" ht="39" customHeight="1" spans="1:13">
@@ -5003,7 +4964,7 @@
         <v>303</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C46" s="11">
         <v>1</v>
@@ -5012,7 +4973,7 @@
         <v>3</v>
       </c>
       <c r="E46" s="53" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F46" s="11">
         <v>10</v>
@@ -5030,13 +4991,13 @@
         <v>10</v>
       </c>
       <c r="K46" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="L46" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="L46" s="11" t="s">
-        <v>113</v>
-      </c>
       <c r="M46" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="47" s="50" customFormat="1" ht="39" customHeight="1" spans="1:13">
@@ -5044,7 +5005,7 @@
         <v>304</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C47" s="11">
         <v>1</v>
@@ -5053,7 +5014,7 @@
         <v>4</v>
       </c>
       <c r="E47" s="54" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F47" s="14">
         <v>10</v>
@@ -5071,13 +5032,13 @@
         <v>10</v>
       </c>
       <c r="K47" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="L47" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="L47" s="14" t="s">
-        <v>115</v>
-      </c>
       <c r="M47" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="48" s="50" customFormat="1" ht="39" customHeight="1" spans="1:13">
@@ -5085,7 +5046,7 @@
         <v>305</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C48" s="11">
         <v>1</v>
@@ -5094,7 +5055,7 @@
         <v>5</v>
       </c>
       <c r="E48" s="53" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F48" s="11">
         <v>10</v>
@@ -5112,13 +5073,13 @@
         <v>10</v>
       </c>
       <c r="K48" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="L48" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="L48" s="11" t="s">
-        <v>117</v>
-      </c>
       <c r="M48" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="49" s="50" customFormat="1" ht="39" customHeight="1" spans="1:13">
@@ -5126,7 +5087,7 @@
         <v>401</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C49" s="11">
         <v>1</v>
@@ -5135,7 +5096,7 @@
         <v>1</v>
       </c>
       <c r="E49" s="54" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F49" s="14">
         <v>10</v>
@@ -5153,13 +5114,13 @@
         <v>10</v>
       </c>
       <c r="K49" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="L49" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="L49" s="14" t="s">
-        <v>119</v>
-      </c>
       <c r="M49" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="50" s="50" customFormat="1" ht="39" customHeight="1" spans="1:13">
@@ -5167,7 +5128,7 @@
         <v>402</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C50" s="11">
         <v>1</v>
@@ -5176,7 +5137,7 @@
         <v>2</v>
       </c>
       <c r="E50" s="53" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F50" s="11">
         <v>10</v>
@@ -5194,13 +5155,13 @@
         <v>10</v>
       </c>
       <c r="K50" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="L50" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="L50" s="11" t="s">
-        <v>121</v>
-      </c>
       <c r="M50" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="51" s="50" customFormat="1" ht="39" customHeight="1" spans="1:13">
@@ -5208,7 +5169,7 @@
         <v>403</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C51" s="11">
         <v>1</v>
@@ -5217,7 +5178,7 @@
         <v>3</v>
       </c>
       <c r="E51" s="54" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F51" s="14">
         <v>10</v>
@@ -5235,13 +5196,13 @@
         <v>10</v>
       </c>
       <c r="K51" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="L51" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="L51" s="14" t="s">
-        <v>123</v>
-      </c>
       <c r="M51" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="52" s="50" customFormat="1" ht="39" customHeight="1" spans="1:13">
@@ -5249,7 +5210,7 @@
         <v>404</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C52" s="11">
         <v>1</v>
@@ -5258,7 +5219,7 @@
         <v>4</v>
       </c>
       <c r="E52" s="53" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F52" s="11">
         <v>10</v>
@@ -5276,13 +5237,13 @@
         <v>10</v>
       </c>
       <c r="K52" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="L52" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="L52" s="11" t="s">
-        <v>125</v>
-      </c>
       <c r="M52" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="53" s="50" customFormat="1" ht="39" customHeight="1" spans="1:13">
@@ -5290,7 +5251,7 @@
         <v>405</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C53" s="11">
         <v>1</v>
@@ -5299,7 +5260,7 @@
         <v>5</v>
       </c>
       <c r="E53" s="54" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F53" s="14">
         <v>10</v>
@@ -5317,13 +5278,13 @@
         <v>10</v>
       </c>
       <c r="K53" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="L53" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="L53" s="14" t="s">
-        <v>127</v>
-      </c>
       <c r="M53" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="54" s="50" customFormat="1" ht="39" customHeight="1" spans="1:13">
@@ -5331,7 +5292,7 @@
         <v>501</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C54" s="11">
         <v>1</v>
@@ -5340,7 +5301,7 @@
         <v>1</v>
       </c>
       <c r="E54" s="53" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F54" s="11">
         <v>10</v>
@@ -5358,13 +5319,13 @@
         <v>10</v>
       </c>
       <c r="K54" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="L54" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="L54" s="11" t="s">
-        <v>129</v>
-      </c>
       <c r="M54" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="55" s="50" customFormat="1" ht="39" customHeight="1" spans="1:13">
@@ -5372,7 +5333,7 @@
         <v>502</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C55" s="11">
         <v>1</v>
@@ -5381,7 +5342,7 @@
         <v>2</v>
       </c>
       <c r="E55" s="54" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F55" s="14">
         <v>10</v>
@@ -5399,13 +5360,13 @@
         <v>10</v>
       </c>
       <c r="K55" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="L55" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="L55" s="14" t="s">
-        <v>129</v>
-      </c>
       <c r="M55" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="56" s="50" customFormat="1" ht="39" customHeight="1" spans="1:13">
@@ -5413,7 +5374,7 @@
         <v>503</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C56" s="11">
         <v>1</v>
@@ -5422,7 +5383,7 @@
         <v>3</v>
       </c>
       <c r="E56" s="53" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F56" s="11">
         <v>10</v>
@@ -5440,13 +5401,13 @@
         <v>10</v>
       </c>
       <c r="K56" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="L56" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="L56" s="11" t="s">
-        <v>129</v>
-      </c>
       <c r="M56" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="57" s="50" customFormat="1" ht="39" customHeight="1" spans="1:13">
@@ -5454,7 +5415,7 @@
         <v>504</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C57" s="11">
         <v>1</v>
@@ -5463,7 +5424,7 @@
         <v>4</v>
       </c>
       <c r="E57" s="54" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F57" s="14">
         <v>10</v>
@@ -5481,13 +5442,13 @@
         <v>10</v>
       </c>
       <c r="K57" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="L57" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="L57" s="14" t="s">
-        <v>129</v>
-      </c>
       <c r="M57" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58" s="50" customFormat="1" ht="39" customHeight="1" spans="1:13">
@@ -5495,7 +5456,7 @@
         <v>505</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C58" s="11">
         <v>1</v>
@@ -5504,7 +5465,7 @@
         <v>5</v>
       </c>
       <c r="E58" s="56" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F58" s="57">
         <v>10</v>
@@ -5522,13 +5483,13 @@
         <v>10</v>
       </c>
       <c r="K58" s="57" t="s">
+        <v>129</v>
+      </c>
+      <c r="L58" s="57" t="s">
         <v>130</v>
       </c>
-      <c r="L58" s="57" t="s">
-        <v>131</v>
-      </c>
       <c r="M58" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="59" ht="14.25"/>
@@ -5578,94 +5539,94 @@
   <sheetData>
     <row r="1" ht="60" customHeight="1" spans="1:16">
       <c r="A1" s="20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B1" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="D1" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="E1" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="F1" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="G1" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="H1" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="I1" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="J1" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="K1" s="21" t="s">
         <v>140</v>
-      </c>
-      <c r="K1" s="21" t="s">
-        <v>141</v>
       </c>
       <c r="L1" s="35"/>
       <c r="M1" s="36"/>
       <c r="N1" s="37" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O1" s="37"/>
       <c r="P1" s="38"/>
     </row>
     <row r="2" ht="43" customHeight="1" spans="1:16">
       <c r="A2" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="B2" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="C2" s="23" t="s">
+      <c r="D2" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="E2" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="F2" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="G2" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="H2" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="I2" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="J2" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="J2" s="23" t="s">
+      <c r="K2" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="K2" s="23" t="s">
+      <c r="L2" s="39">
+        <v>1</v>
+      </c>
+      <c r="M2" s="40" t="s">
         <v>152</v>
       </c>
-      <c r="L2" s="39">
-        <v>1</v>
-      </c>
-      <c r="M2" s="40" t="s">
+      <c r="N2" s="41" t="s">
         <v>153</v>
       </c>
-      <c r="N2" s="41" t="s">
-        <v>154</v>
-      </c>
       <c r="O2" s="42">
         <v>1</v>
       </c>
       <c r="P2" s="43" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" ht="44" customHeight="1" spans="1:16">
@@ -5682,10 +5643,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="F3" s="26" t="s">
         <v>155</v>
-      </c>
-      <c r="F3" s="26" t="s">
-        <v>156</v>
       </c>
       <c r="G3" s="27">
         <v>0</v>
@@ -5701,7 +5662,7 @@
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="44" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M3" s="45"/>
       <c r="N3" s="28"/>
@@ -5724,10 +5685,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="F4" s="30" t="s">
         <v>155</v>
-      </c>
-      <c r="F4" s="30" t="s">
-        <v>156</v>
       </c>
       <c r="G4" s="27">
         <v>0</v>
@@ -5743,7 +5704,7 @@
       </c>
       <c r="K4" s="29"/>
       <c r="L4" s="44" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M4" s="47"/>
       <c r="N4" s="24"/>
@@ -5766,10 +5727,10 @@
         <v>1</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F5" s="26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G5" s="27">
         <v>5</v>
@@ -5785,7 +5746,7 @@
       </c>
       <c r="K5" s="25"/>
       <c r="L5" s="44" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M5" s="45"/>
       <c r="N5" s="28"/>
@@ -5808,10 +5769,10 @@
         <v>1</v>
       </c>
       <c r="E6" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="F6" s="30" t="s">
         <v>155</v>
-      </c>
-      <c r="F6" s="30" t="s">
-        <v>156</v>
       </c>
       <c r="G6" s="27">
         <v>0</v>
@@ -5827,7 +5788,7 @@
       </c>
       <c r="K6" s="29"/>
       <c r="L6" s="44" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M6" s="47"/>
       <c r="N6" s="24"/>
@@ -5850,10 +5811,10 @@
         <v>1</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F7" s="26" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G7" s="27">
         <v>0</v>
@@ -5869,7 +5830,7 @@
       </c>
       <c r="K7" s="25"/>
       <c r="L7" s="44" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M7" s="45"/>
       <c r="N7" s="28"/>
@@ -5892,10 +5853,10 @@
         <v>1</v>
       </c>
       <c r="E8" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="F8" s="30" t="s">
         <v>155</v>
-      </c>
-      <c r="F8" s="30" t="s">
-        <v>156</v>
       </c>
       <c r="G8" s="27">
         <v>0</v>
@@ -5911,7 +5872,7 @@
       </c>
       <c r="K8" s="29"/>
       <c r="L8" s="44" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M8" s="47"/>
       <c r="N8" s="24"/>
@@ -5934,10 +5895,10 @@
         <v>1</v>
       </c>
       <c r="E9" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="F9" s="26" t="s">
         <v>155</v>
-      </c>
-      <c r="F9" s="26" t="s">
-        <v>156</v>
       </c>
       <c r="G9" s="27">
         <v>0</v>
@@ -5953,7 +5914,7 @@
       </c>
       <c r="K9" s="25"/>
       <c r="L9" s="44" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M9" s="45"/>
       <c r="N9" s="28"/>
@@ -5976,10 +5937,10 @@
         <v>1</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F10" s="30" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G10" s="27">
         <v>5</v>
@@ -5995,7 +5956,7 @@
       </c>
       <c r="K10" s="29"/>
       <c r="L10" s="44" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M10" s="47"/>
       <c r="N10" s="24"/>
@@ -6018,10 +5979,10 @@
         <v>1</v>
       </c>
       <c r="E11" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="F11" s="26" t="s">
         <v>155</v>
-      </c>
-      <c r="F11" s="26" t="s">
-        <v>156</v>
       </c>
       <c r="G11" s="27">
         <v>0</v>
@@ -6037,7 +5998,7 @@
       </c>
       <c r="K11" s="25"/>
       <c r="L11" s="44" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M11" s="45"/>
       <c r="N11" s="28"/>
@@ -6060,10 +6021,10 @@
         <v>1</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F12" s="30" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G12" s="27">
         <v>0</v>
@@ -6079,7 +6040,7 @@
       </c>
       <c r="K12" s="29"/>
       <c r="L12" s="44" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M12" s="47"/>
       <c r="N12" s="24"/>
@@ -6102,10 +6063,10 @@
         <v>1</v>
       </c>
       <c r="E13" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="F13" s="26" t="s">
         <v>155</v>
-      </c>
-      <c r="F13" s="26" t="s">
-        <v>156</v>
       </c>
       <c r="G13" s="27">
         <v>0</v>
@@ -6121,7 +6082,7 @@
       </c>
       <c r="K13" s="25"/>
       <c r="L13" s="44" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="M13" s="45"/>
       <c r="N13" s="28"/>
@@ -6144,10 +6105,10 @@
         <v>1</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F14" s="30" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G14" s="27">
         <v>5</v>
@@ -6163,7 +6124,7 @@
       </c>
       <c r="K14" s="29"/>
       <c r="L14" s="44" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M14" s="47"/>
       <c r="N14" s="24"/>
@@ -6186,10 +6147,10 @@
         <v>1</v>
       </c>
       <c r="E15" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="F15" s="26" t="s">
         <v>155</v>
-      </c>
-      <c r="F15" s="26" t="s">
-        <v>156</v>
       </c>
       <c r="G15" s="27">
         <v>0</v>
@@ -6205,7 +6166,7 @@
       </c>
       <c r="K15" s="25"/>
       <c r="L15" s="44" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M15" s="45"/>
       <c r="N15" s="28"/>
@@ -6228,10 +6189,10 @@
         <v>1</v>
       </c>
       <c r="E16" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="F16" s="30" t="s">
         <v>155</v>
-      </c>
-      <c r="F16" s="30" t="s">
-        <v>156</v>
       </c>
       <c r="G16" s="27">
         <v>0</v>
@@ -6247,7 +6208,7 @@
       </c>
       <c r="K16" s="29"/>
       <c r="L16" s="44" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M16" s="47"/>
       <c r="N16" s="24"/>
@@ -6270,10 +6231,10 @@
         <v>1</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F17" s="26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G17" s="27">
         <v>10</v>
@@ -6289,7 +6250,7 @@
       </c>
       <c r="K17" s="25"/>
       <c r="L17" s="44" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M17" s="45"/>
       <c r="N17" s="28"/>
@@ -6312,10 +6273,10 @@
         <v>1</v>
       </c>
       <c r="E18" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="F18" s="30" t="s">
         <v>155</v>
-      </c>
-      <c r="F18" s="30" t="s">
-        <v>156</v>
       </c>
       <c r="G18" s="27">
         <v>0</v>
@@ -6331,7 +6292,7 @@
       </c>
       <c r="K18" s="29"/>
       <c r="L18" s="44" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M18" s="47"/>
       <c r="N18" s="24"/>
@@ -6354,10 +6315,10 @@
         <v>1</v>
       </c>
       <c r="E19" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="F19" s="26" t="s">
         <v>155</v>
-      </c>
-      <c r="F19" s="26" t="s">
-        <v>156</v>
       </c>
       <c r="G19" s="27">
         <v>0</v>
@@ -6373,7 +6334,7 @@
       </c>
       <c r="K19" s="25"/>
       <c r="L19" s="44" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M19" s="45"/>
       <c r="N19" s="28"/>
@@ -6396,10 +6357,10 @@
         <v>1</v>
       </c>
       <c r="E20" s="29" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F20" s="30" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G20" s="27">
         <v>0</v>
@@ -6415,7 +6376,7 @@
       </c>
       <c r="K20" s="29"/>
       <c r="L20" s="44" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M20" s="47"/>
       <c r="N20" s="24"/>
@@ -6438,10 +6399,10 @@
         <v>1</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F21" s="26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G21" s="27">
         <v>0</v>
@@ -6457,7 +6418,7 @@
       </c>
       <c r="K21" s="25"/>
       <c r="L21" s="44" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M21" s="45"/>
       <c r="N21" s="28"/>
@@ -6480,10 +6441,10 @@
         <v>1</v>
       </c>
       <c r="E22" s="29" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F22" s="30" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G22" s="27">
         <v>0</v>
@@ -6499,7 +6460,7 @@
       </c>
       <c r="K22" s="29"/>
       <c r="L22" s="44" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M22" s="47"/>
       <c r="N22" s="24"/>
@@ -6522,10 +6483,10 @@
         <v>1</v>
       </c>
       <c r="E23" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="F23" s="26" t="s">
         <v>155</v>
-      </c>
-      <c r="F23" s="26" t="s">
-        <v>156</v>
       </c>
       <c r="G23" s="31">
         <v>0</v>
@@ -6541,7 +6502,7 @@
       </c>
       <c r="K23" s="25"/>
       <c r="L23" s="44" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M23" s="47"/>
       <c r="N23" s="28"/>
@@ -6564,10 +6525,10 @@
         <v>1</v>
       </c>
       <c r="E24" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="F24" s="30" t="s">
         <v>155</v>
-      </c>
-      <c r="F24" s="30" t="s">
-        <v>156</v>
       </c>
       <c r="G24" s="31">
         <v>0</v>
@@ -6583,7 +6544,7 @@
       </c>
       <c r="K24" s="29"/>
       <c r="L24" s="44" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M24" s="47"/>
       <c r="N24" s="24"/>
@@ -6606,10 +6567,10 @@
         <v>1</v>
       </c>
       <c r="E25" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="F25" s="26" t="s">
         <v>155</v>
-      </c>
-      <c r="F25" s="26" t="s">
-        <v>156</v>
       </c>
       <c r="G25" s="31">
         <v>0</v>
@@ -6625,7 +6586,7 @@
       </c>
       <c r="K25" s="25"/>
       <c r="L25" s="44" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M25" s="47"/>
       <c r="N25" s="28"/>
@@ -6648,10 +6609,10 @@
         <v>1</v>
       </c>
       <c r="E26" s="29" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F26" s="30" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G26" s="27">
         <v>10</v>
@@ -6667,7 +6628,7 @@
       </c>
       <c r="K26" s="29"/>
       <c r="L26" s="44" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M26" s="47"/>
       <c r="N26" s="24"/>
@@ -6690,10 +6651,10 @@
         <v>1</v>
       </c>
       <c r="E27" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="F27" s="34" t="s">
         <v>189</v>
-      </c>
-      <c r="F27" s="34" t="s">
-        <v>190</v>
       </c>
       <c r="G27" s="27">
         <v>10</v>
@@ -6709,7 +6670,7 @@
       </c>
       <c r="K27" s="33"/>
       <c r="L27" s="44" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="M27" s="47"/>
       <c r="N27" s="48"/>
@@ -6781,78 +6742,78 @@
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:12">
       <c r="A1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="15" t="s">
         <v>75</v>
-      </c>
-      <c r="L1" s="15" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="2" ht="39" customHeight="1" spans="1:12">
       <c r="A2" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="I2" s="8" t="s">
+      <c r="J2" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="L2" s="16" t="s">
         <v>85</v>
-      </c>
-      <c r="L2" s="16" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="3" ht="39" customHeight="1" spans="1:12">
@@ -6863,7 +6824,7 @@
         <v>105</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D3" s="11">
         <v>10</v>
@@ -6878,19 +6839,19 @@
         <v>160</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I3" s="11">
         <v>10</v>
       </c>
       <c r="J3" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="K3" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="L3" s="17" t="s">
         <v>88</v>
-      </c>
-      <c r="L3" s="17" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="4" ht="39" customHeight="1" spans="1:12">
@@ -6901,7 +6862,7 @@
         <v>205</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D4" s="14">
         <v>10</v>
@@ -6916,19 +6877,19 @@
         <v>160</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I4" s="14">
         <v>10</v>
       </c>
       <c r="J4" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="K4" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="K4" s="14" t="s">
-        <v>91</v>
-      </c>
       <c r="L4" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" ht="39" customHeight="1" spans="1:12">
@@ -6939,7 +6900,7 @@
         <v>305</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D5" s="11">
         <v>10</v>
@@ -6954,19 +6915,19 @@
         <v>160</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I5" s="11">
         <v>10</v>
       </c>
       <c r="J5" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="K5" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="K5" s="11" t="s">
-        <v>93</v>
-      </c>
       <c r="L5" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/excels/config/difficulty_config.xlsx
+++ b/excels/config/difficulty_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="13395" tabRatio="804"/>
+    <workbookView windowWidth="27945" windowHeight="12345" tabRatio="804" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="chapter_info" sheetId="7" r:id="rId1"/>
@@ -2161,7 +2161,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{7377A180-24CC-4898-85DD-37A2355B711C}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{48F6564F-E087-4EBB-AF0B-F48AED0E1BF8}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
@@ -2464,7 +2464,7 @@
   <sheetPr/>
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -5513,10 +5513,10 @@
   <sheetPr/>
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="F3" sqref="F3"/>
+      <selection pane="topRight" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>

--- a/excels/config/difficulty_config.xlsx
+++ b/excels/config/difficulty_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12345" tabRatio="804" activeTab="3"/>
+    <workbookView windowWidth="22185" windowHeight="10155" tabRatio="804" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="chapter_info" sheetId="7" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="205">
   <si>
     <t>编号</t>
   </si>
@@ -257,382 +257,403 @@
     <t>上限单位</t>
   </si>
   <si>
+    <t>难度血量公式(基于本身怪物成长公式之后)</t>
+  </si>
+  <si>
+    <t>难度攻击公式(基于本身怪物成长公式之后)</t>
+  </si>
+  <si>
+    <t>难度护甲公式(未实装)</t>
+  </si>
+  <si>
+    <t>difficulty_index</t>
+  </si>
+  <si>
+    <t>area_key</t>
+  </si>
+  <si>
+    <t>difficulty</t>
+  </si>
+  <si>
+    <t>round_class</t>
+  </si>
+  <si>
+    <t>round_max</t>
+  </si>
+  <si>
+    <t>unit_limit</t>
+  </si>
+  <si>
+    <t>hp_equation</t>
+  </si>
+  <si>
+    <t>attack_equation</t>
+  </si>
+  <si>
+    <t>armor_equation</t>
+  </si>
+  <si>
+    <t>1+hp*0.6</t>
+  </si>
+  <si>
+    <t>1+attack*0.8</t>
+  </si>
+  <si>
+    <t>armor+lv*0.5</t>
+  </si>
+  <si>
+    <t>1+hp*0.8</t>
+  </si>
+  <si>
+    <t>1+attack*1</t>
+  </si>
+  <si>
+    <t>hp</t>
+  </si>
+  <si>
+    <t>attack</t>
+  </si>
+  <si>
+    <t>(hp+20)*1.2</t>
+  </si>
+  <si>
+    <t>(attack+10)*1.1</t>
+  </si>
+  <si>
+    <t>(hp+20)*1.4</t>
+  </si>
+  <si>
+    <t>(attack+10)*1.2</t>
+  </si>
+  <si>
+    <t>(hp+30)*1.6</t>
+  </si>
+  <si>
+    <t>(attack+20)*1.2</t>
+  </si>
+  <si>
+    <t>(hp+40)*1.8</t>
+  </si>
+  <si>
+    <t>(attack+20)*1.3</t>
+  </si>
+  <si>
+    <t>(hp+50)*2</t>
+  </si>
+  <si>
+    <t>(attack+20)*1.4</t>
+  </si>
+  <si>
+    <t>(hp+60)*2.3</t>
+  </si>
+  <si>
+    <t>(attack+30)*1.5</t>
+  </si>
+  <si>
+    <t>(hp+100)*3</t>
+  </si>
+  <si>
+    <t>(attack+30)*1.7</t>
+  </si>
+  <si>
+    <t>500+hp*4.5</t>
+  </si>
+  <si>
+    <t>(attack+40)*1.6</t>
+  </si>
+  <si>
+    <t>700+hp*6</t>
+  </si>
+  <si>
+    <t>(attack+40)*1.8</t>
+  </si>
+  <si>
+    <t>1000+hp*7.5</t>
+  </si>
+  <si>
+    <t>(attack+40)*2</t>
+  </si>
+  <si>
+    <t>1400+hp*9.5</t>
+  </si>
+  <si>
+    <t>(attack+40)*2.2</t>
+  </si>
+  <si>
+    <t>2000+hp*12</t>
+  </si>
+  <si>
+    <t>(attack+40)*3</t>
+  </si>
+  <si>
+    <t>(444+hp)*15</t>
+  </si>
+  <si>
+    <t>(attack+40)*3.2</t>
+  </si>
+  <si>
+    <t>(444+hp)*18</t>
+  </si>
+  <si>
+    <t>(attack+40)*3.5</t>
+  </si>
+  <si>
+    <t>(444+hp)*21</t>
+  </si>
+  <si>
+    <t>(attack+40)*3.8</t>
+  </si>
+  <si>
+    <t>(444+hp)*24</t>
+  </si>
+  <si>
+    <t>(attack+40)*4.1</t>
+  </si>
+  <si>
+    <t>(444+hp)*27</t>
+  </si>
+  <si>
+    <t>(attack+40)*5</t>
+  </si>
+  <si>
+    <t>(555+hp)*35</t>
+  </si>
+  <si>
+    <t>(attack+40)*6</t>
+  </si>
+  <si>
+    <t>(555+hp)*100</t>
+  </si>
+  <si>
+    <t>(attack+40)*8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">每回合怪物分类 </t>
+  </si>
+  <si>
+    <t>波数</t>
+  </si>
+  <si>
+    <t>怪物类型 1普通刷怪模式</t>
+  </si>
+  <si>
+    <t>boss名字</t>
+  </si>
+  <si>
+    <t>boss血量倍率</t>
+  </si>
+  <si>
+    <t>boss伤害倍率</t>
+  </si>
+  <si>
+    <t>精英怪名字</t>
+  </si>
+  <si>
+    <t>精英怪数量</t>
+  </si>
+  <si>
+    <t>时长增加</t>
+  </si>
+  <si>
+    <t>刷怪周期（秒）</t>
+  </si>
+  <si>
+    <t>间隔周期（秒）</t>
+  </si>
+  <si>
+    <t>怪物数组(此数组只会随机一组怪物出现)</t>
+  </si>
+  <si>
+    <t>怪物数量</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>round_index</t>
+  </si>
+  <si>
+    <t>monster_type</t>
+  </si>
+  <si>
+    <t>boss_name</t>
+  </si>
+  <si>
+    <t>boss_hp_power</t>
+  </si>
+  <si>
+    <t>boss_attack_power</t>
+  </si>
+  <si>
+    <t>elite_name</t>
+  </si>
+  <si>
+    <t>elite_count</t>
+  </si>
+  <si>
+    <t>monster_time_add</t>
+  </si>
+  <si>
+    <t>t_time</t>
+  </si>
+  <si>
+    <t>interval_time</t>
+  </si>
+  <si>
+    <t>monster_list[{]</t>
+  </si>
+  <si>
+    <t>[}]</t>
+  </si>
+  <si>
+    <t>monster_count_list[{]</t>
+  </si>
+  <si>
+    <t>null|null</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>npc_monster_normal_1</t>
+  </si>
+  <si>
+    <t>npc_monster_normal_2</t>
+  </si>
+  <si>
+    <t>npc_monster_elite_1</t>
+  </si>
+  <si>
+    <t>npc_monster_normal_3</t>
+  </si>
+  <si>
+    <t>npc_monster_normal_4</t>
+  </si>
+  <si>
+    <t>npc_creature_boss_1|npc_creature_boss_2|npc_creature_boss_3|npc_creature_boss_4</t>
+  </si>
+  <si>
+    <t>npc_monster_normal_5</t>
+  </si>
+  <si>
+    <t>npc_monster_normal_6</t>
+  </si>
+  <si>
+    <t>npc_monster_normal_7</t>
+  </si>
+  <si>
+    <t>npc_monster_elite_2</t>
+  </si>
+  <si>
+    <t>npc_monster_normal_8</t>
+  </si>
+  <si>
+    <t>npc_monster_normal_9</t>
+  </si>
+  <si>
+    <t>npc_monster_normal_10</t>
+  </si>
+  <si>
+    <t>npc_monster_normal_11</t>
+  </si>
+  <si>
+    <t>npc_monster_elite_3</t>
+  </si>
+  <si>
+    <t>npc_monster_normal_12</t>
+  </si>
+  <si>
+    <t>npc_monster_normal_13</t>
+  </si>
+  <si>
+    <t>npc_monster_normal_14</t>
+  </si>
+  <si>
+    <t>npc_monster_elite_4</t>
+  </si>
+  <si>
+    <t>npc_monster_normal_15</t>
+  </si>
+  <si>
+    <t>npc_monster_normal_16</t>
+  </si>
+  <si>
+    <t>npc_monster_normal_17</t>
+  </si>
+  <si>
+    <t>npc_monster_elite_5</t>
+  </si>
+  <si>
+    <t>npc_monster_normal_18</t>
+  </si>
+  <si>
+    <t>npc_monster_elite_6</t>
+  </si>
+  <si>
+    <t>npc_monster_normal_19</t>
+  </si>
+  <si>
+    <t>npc_monster_normal_20</t>
+  </si>
+  <si>
+    <t>npc_monster_normal_21</t>
+  </si>
+  <si>
+    <t>npc_monster_normal_22</t>
+  </si>
+  <si>
+    <t>npc_monster_normal_23</t>
+  </si>
+  <si>
+    <t>npc_monster_elite_7</t>
+  </si>
+  <si>
+    <t>npc_monster_normal_24</t>
+  </si>
+  <si>
+    <t>npc_creature_boss_5|npc_creature_boss_5</t>
+  </si>
+  <si>
+    <t>npc_monster_elite_8</t>
+  </si>
+  <si>
+    <t>npc_monster_normal_25</t>
+  </si>
+  <si>
+    <t>无尽编号</t>
+  </si>
+  <si>
+    <t>解锁难度</t>
+  </si>
+  <si>
+    <t>使用的地图</t>
+  </si>
+  <si>
+    <t>最终boss</t>
+  </si>
+  <si>
     <t>boss血量倍数</t>
   </si>
   <si>
-    <t>难度血量公式(基于本身怪物成长公式之后)</t>
-  </si>
-  <si>
-    <t>难度攻击公式(基于本身怪物成长公式之后)</t>
-  </si>
-  <si>
     <t>难度护甲公式</t>
   </si>
   <si>
-    <t>difficulty_index</t>
-  </si>
-  <si>
-    <t>area_key</t>
-  </si>
-  <si>
-    <t>difficulty</t>
-  </si>
-  <si>
-    <t>round_class</t>
-  </si>
-  <si>
-    <t>round_max</t>
-  </si>
-  <si>
-    <t>unit_limit</t>
-  </si>
-  <si>
     <t>boss_hp</t>
   </si>
   <si>
-    <t>hp_equation</t>
-  </si>
-  <si>
-    <t>attack_equation</t>
-  </si>
-  <si>
-    <t>armor_equation</t>
-  </si>
-  <si>
-    <t>1+hp*0.6</t>
-  </si>
-  <si>
-    <t>1+attack*0.8</t>
-  </si>
-  <si>
-    <t>armor+lv*0.5</t>
-  </si>
-  <si>
-    <t>1+hp*0.8</t>
-  </si>
-  <si>
-    <t>1+attack*1</t>
+    <t>npc_creature_boss_1</t>
+  </si>
+  <si>
+    <t>npc_creature_boss_2</t>
+  </si>
+  <si>
+    <t>npc_creature_boss_3</t>
   </si>
   <si>
     <t>(hp+20)*1</t>
   </si>
   <si>
     <t>attack+10</t>
-  </si>
-  <si>
-    <t>(hp+20)*1.2</t>
-  </si>
-  <si>
-    <t>(attack+10)*1.1</t>
-  </si>
-  <si>
-    <t>(hp+20)*1.4</t>
-  </si>
-  <si>
-    <t>(attack+10)*1.2</t>
-  </si>
-  <si>
-    <t>(hp+30)*1.6</t>
-  </si>
-  <si>
-    <t>(attack+20)*1.2</t>
-  </si>
-  <si>
-    <t>(hp+40)*1.8</t>
-  </si>
-  <si>
-    <t>(attack+20)*1.3</t>
-  </si>
-  <si>
-    <t>(hp+50)*2</t>
-  </si>
-  <si>
-    <t>(attack+20)*1.4</t>
-  </si>
-  <si>
-    <t>(hp+60)*2.3</t>
-  </si>
-  <si>
-    <t>(attack+30)*1.5</t>
-  </si>
-  <si>
-    <t>(hp+100)*3</t>
-  </si>
-  <si>
-    <t>(attack+30)*1.7</t>
-  </si>
-  <si>
-    <t>500+hp*4.5</t>
-  </si>
-  <si>
-    <t>(attack+40)*1.6</t>
-  </si>
-  <si>
-    <t>700+hp*6</t>
-  </si>
-  <si>
-    <t>(attack+40)*1.8</t>
-  </si>
-  <si>
-    <t>1000+hp*7.5</t>
-  </si>
-  <si>
-    <t>(attack+40)*2</t>
-  </si>
-  <si>
-    <t>1400+hp*9.5</t>
-  </si>
-  <si>
-    <t>(attack+40)*2.2</t>
-  </si>
-  <si>
-    <t>2000+hp*12</t>
-  </si>
-  <si>
-    <t>(attack+40)*3</t>
-  </si>
-  <si>
-    <t>(444+hp)*15</t>
-  </si>
-  <si>
-    <t>(attack+40)*3.2</t>
-  </si>
-  <si>
-    <t>(444+hp)*18</t>
-  </si>
-  <si>
-    <t>(attack+40)*3.5</t>
-  </si>
-  <si>
-    <t>(444+hp)*21</t>
-  </si>
-  <si>
-    <t>(attack+40)*3.8</t>
-  </si>
-  <si>
-    <t>(444+hp)*24</t>
-  </si>
-  <si>
-    <t>(attack+40)*4.1</t>
-  </si>
-  <si>
-    <t>(444+hp)*27</t>
-  </si>
-  <si>
-    <t>(attack+40)*5</t>
-  </si>
-  <si>
-    <t>(555+hp)*35</t>
-  </si>
-  <si>
-    <t>(attack+40)*6</t>
-  </si>
-  <si>
-    <t>(555+hp)*100</t>
-  </si>
-  <si>
-    <t>(attack+40)*8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">每回合怪物分类 </t>
-  </si>
-  <si>
-    <t>波数</t>
-  </si>
-  <si>
-    <t>怪物类型 1普通刷怪模式</t>
-  </si>
-  <si>
-    <t>boss名字</t>
-  </si>
-  <si>
-    <t>精英怪名字</t>
-  </si>
-  <si>
-    <t>精英怪数量</t>
-  </si>
-  <si>
-    <t>时长增加</t>
-  </si>
-  <si>
-    <t>刷怪周期（秒）</t>
-  </si>
-  <si>
-    <t>间隔周期（秒）</t>
-  </si>
-  <si>
-    <t>怪物数组(此数组只会随机一组怪物出现)</t>
-  </si>
-  <si>
-    <t>怪物数量</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
-    <t>round_index</t>
-  </si>
-  <si>
-    <t>monster_type</t>
-  </si>
-  <si>
-    <t>boss_name</t>
-  </si>
-  <si>
-    <t>elite_name</t>
-  </si>
-  <si>
-    <t>elite_count</t>
-  </si>
-  <si>
-    <t>monster_time_add</t>
-  </si>
-  <si>
-    <t>t_time</t>
-  </si>
-  <si>
-    <t>interval_time</t>
-  </si>
-  <si>
-    <t>monster_list[{]</t>
-  </si>
-  <si>
-    <t>[}]</t>
-  </si>
-  <si>
-    <t>monster_count_list[{]</t>
-  </si>
-  <si>
-    <t>null|null</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>npc_monster_normal_1</t>
-  </si>
-  <si>
-    <t>npc_monster_normal_2</t>
-  </si>
-  <si>
-    <t>npc_monster_elite_1</t>
-  </si>
-  <si>
-    <t>npc_monster_normal_3</t>
-  </si>
-  <si>
-    <t>npc_monster_normal_4</t>
-  </si>
-  <si>
-    <t>npc_creature_boss_1|npc_creature_boss_2|npc_creature_boss_3|npc_creature_boss_4</t>
-  </si>
-  <si>
-    <t>npc_monster_normal_5</t>
-  </si>
-  <si>
-    <t>npc_monster_normal_6</t>
-  </si>
-  <si>
-    <t>npc_monster_normal_7</t>
-  </si>
-  <si>
-    <t>npc_monster_elite_2</t>
-  </si>
-  <si>
-    <t>npc_monster_normal_8</t>
-  </si>
-  <si>
-    <t>npc_monster_normal_9</t>
-  </si>
-  <si>
-    <t>npc_monster_normal_10</t>
-  </si>
-  <si>
-    <t>npc_monster_normal_11</t>
-  </si>
-  <si>
-    <t>npc_monster_elite_3</t>
-  </si>
-  <si>
-    <t>npc_monster_normal_12</t>
-  </si>
-  <si>
-    <t>npc_monster_normal_13</t>
-  </si>
-  <si>
-    <t>npc_monster_normal_14</t>
-  </si>
-  <si>
-    <t>npc_monster_elite_4</t>
-  </si>
-  <si>
-    <t>npc_monster_normal_15</t>
-  </si>
-  <si>
-    <t>npc_monster_normal_16</t>
-  </si>
-  <si>
-    <t>npc_monster_normal_17</t>
-  </si>
-  <si>
-    <t>npc_monster_elite_5</t>
-  </si>
-  <si>
-    <t>npc_monster_normal_18</t>
-  </si>
-  <si>
-    <t>npc_monster_elite_6</t>
-  </si>
-  <si>
-    <t>npc_monster_normal_19</t>
-  </si>
-  <si>
-    <t>npc_monster_normal_20</t>
-  </si>
-  <si>
-    <t>npc_monster_normal_21</t>
-  </si>
-  <si>
-    <t>npc_monster_normal_22</t>
-  </si>
-  <si>
-    <t>npc_monster_normal_23</t>
-  </si>
-  <si>
-    <t>npc_monster_elite_7</t>
-  </si>
-  <si>
-    <t>npc_monster_normal_24</t>
-  </si>
-  <si>
-    <t>npc_creature_boss_5|npc_creature_boss_5</t>
-  </si>
-  <si>
-    <t>npc_monster_elite_8</t>
-  </si>
-  <si>
-    <t>npc_monster_normal_25</t>
-  </si>
-  <si>
-    <t>无尽编号</t>
-  </si>
-  <si>
-    <t>解锁难度</t>
-  </si>
-  <si>
-    <t>使用的地图</t>
-  </si>
-  <si>
-    <t>最终boss</t>
-  </si>
-  <si>
-    <t>npc_creature_boss_1</t>
-  </si>
-  <si>
-    <t>npc_creature_boss_2</t>
-  </si>
-  <si>
-    <t>npc_creature_boss_3</t>
   </si>
 </sst>
 </file>
@@ -693,11 +714,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Microsoft YaHei UI"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -708,6 +724,11 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Microsoft YaHei UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Microsoft YaHei UI"/>
       <charset val="134"/>
     </font>
@@ -1363,6 +1384,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thick">
+        <color rgb="FF595959"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF5A5A5A"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF595959"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color rgb="FFFFFFFF"/>
       </left>
@@ -1383,21 +1419,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF5A5A5A"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF595959"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF5A5A5A"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF595959"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1870,73 +1891,73 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2161,7 +2182,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{48F6564F-E087-4EBB-AF0B-F48AED0E1BF8}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{8019C5D0-7F17-404E-A181-35EBE24F14F4}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
@@ -3092,12 +3113,12 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M59"/>
+  <dimension ref="A1:L59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="J7" sqref="J7"/>
+      <selection pane="topRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3109,12 +3130,12 @@
     <col min="7" max="7" width="21.675" customWidth="1"/>
     <col min="8" max="8" width="14.8416666666667" customWidth="1"/>
     <col min="9" max="9" width="15.625" customWidth="1"/>
-    <col min="10" max="11" width="21.9583333333333" customWidth="1"/>
-    <col min="12" max="12" width="21.7416666666667" customWidth="1"/>
-    <col min="13" max="13" width="19.35" customWidth="1"/>
+    <col min="10" max="10" width="21.9583333333333" customWidth="1"/>
+    <col min="11" max="11" width="21.7416666666667" customWidth="1"/>
+    <col min="12" max="12" width="19.35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="39" customHeight="1" spans="1:13">
+    <row r="1" ht="39" customHeight="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>64</v>
       </c>
@@ -3148,55 +3169,49 @@
       <c r="K1" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="M1" s="15" t="s">
+    </row>
+    <row r="2" ht="39" customHeight="1" spans="1:12">
+      <c r="A2" s="5" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="2" ht="39" customHeight="1" spans="1:13">
-      <c r="A2" s="5" t="s">
-        <v>76</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>77</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>78</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>47</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H2" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="J2" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="L2" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="L2" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="M2" s="16" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" ht="39" customHeight="1" spans="1:13">
+    </row>
+    <row r="3" ht="39" customHeight="1" spans="1:12">
       <c r="A3" s="9">
         <v>101</v>
       </c>
@@ -3224,20 +3239,17 @@
       <c r="I3" s="11">
         <v>160</v>
       </c>
-      <c r="J3" s="11">
-        <v>10</v>
+      <c r="J3" s="11" t="s">
+        <v>84</v>
       </c>
       <c r="K3" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="L3" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="L3" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="M3" s="17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" ht="39" customHeight="1" spans="1:13">
+    </row>
+    <row r="4" ht="39" customHeight="1" spans="1:12">
       <c r="A4" s="9">
         <v>102</v>
       </c>
@@ -3265,20 +3277,17 @@
       <c r="I4" s="14">
         <v>160</v>
       </c>
-      <c r="J4" s="14">
-        <v>10</v>
+      <c r="J4" s="14" t="s">
+        <v>87</v>
       </c>
       <c r="K4" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="L4" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="M4" s="18" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="5" ht="39" customHeight="1" spans="1:13">
+      <c r="L4" s="18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" ht="39" customHeight="1" spans="1:12">
       <c r="A5" s="9">
         <v>103</v>
       </c>
@@ -3306,20 +3315,17 @@
       <c r="I5" s="11">
         <v>160</v>
       </c>
-      <c r="J5" s="11">
-        <v>10</v>
+      <c r="J5" s="11" t="s">
+        <v>89</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="L5" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="M5" s="17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" ht="39" customHeight="1" spans="1:13">
+        <v>90</v>
+      </c>
+      <c r="L5" s="17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" ht="39" customHeight="1" spans="1:12">
       <c r="A6" s="9">
         <v>104</v>
       </c>
@@ -3347,20 +3353,17 @@
       <c r="I6" s="14">
         <v>160</v>
       </c>
-      <c r="J6" s="14">
-        <v>10</v>
+      <c r="J6" s="14" t="s">
+        <v>91</v>
       </c>
       <c r="K6" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="L6" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="M6" s="18" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" ht="39" customHeight="1" spans="1:13">
+        <v>92</v>
+      </c>
+      <c r="L6" s="18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" ht="39" customHeight="1" spans="1:12">
       <c r="A7" s="9">
         <v>105</v>
       </c>
@@ -3388,20 +3391,17 @@
       <c r="I7" s="11">
         <v>160</v>
       </c>
-      <c r="J7" s="11">
-        <v>10</v>
+      <c r="J7" s="11" t="s">
+        <v>93</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="L7" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="M7" s="17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" ht="39" customHeight="1" spans="1:13">
+        <v>94</v>
+      </c>
+      <c r="L7" s="17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" ht="39" customHeight="1" spans="1:12">
       <c r="A8" s="9">
         <v>106</v>
       </c>
@@ -3429,20 +3429,17 @@
       <c r="I8" s="11">
         <v>160</v>
       </c>
-      <c r="J8" s="11">
-        <v>10</v>
+      <c r="J8" s="11" t="s">
+        <v>93</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="L8" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="M8" s="17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" ht="39" customHeight="1" spans="1:13">
+        <v>94</v>
+      </c>
+      <c r="L8" s="17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" ht="39" customHeight="1" spans="1:12">
       <c r="A9" s="9">
         <v>107</v>
       </c>
@@ -3470,20 +3467,17 @@
       <c r="I9" s="11">
         <v>160</v>
       </c>
-      <c r="J9" s="11">
-        <v>10</v>
+      <c r="J9" s="11" t="s">
+        <v>93</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="L9" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="M9" s="17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10" ht="39" customHeight="1" spans="1:13">
+        <v>94</v>
+      </c>
+      <c r="L9" s="17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" ht="39" customHeight="1" spans="1:12">
       <c r="A10" s="9">
         <v>108</v>
       </c>
@@ -3511,20 +3505,17 @@
       <c r="I10" s="11">
         <v>160</v>
       </c>
-      <c r="J10" s="11">
-        <v>10</v>
+      <c r="J10" s="11" t="s">
+        <v>93</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="L10" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="M10" s="17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11" ht="39" customHeight="1" spans="1:13">
+        <v>94</v>
+      </c>
+      <c r="L10" s="17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" ht="39" customHeight="1" spans="1:12">
       <c r="A11" s="9">
         <v>109</v>
       </c>
@@ -3552,20 +3543,17 @@
       <c r="I11" s="11">
         <v>160</v>
       </c>
-      <c r="J11" s="11">
-        <v>10</v>
+      <c r="J11" s="11" t="s">
+        <v>93</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="L11" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="M11" s="17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="12" ht="39" customHeight="1" spans="1:13">
+        <v>94</v>
+      </c>
+      <c r="L11" s="17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" ht="39" customHeight="1" spans="1:12">
       <c r="A12" s="9">
         <v>110</v>
       </c>
@@ -3593,20 +3581,17 @@
       <c r="I12" s="11">
         <v>160</v>
       </c>
-      <c r="J12" s="11">
-        <v>10</v>
+      <c r="J12" s="11" t="s">
+        <v>93</v>
       </c>
       <c r="K12" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="L12" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="M12" s="17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" ht="39" customHeight="1" spans="1:13">
+        <v>94</v>
+      </c>
+      <c r="L12" s="17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" ht="39" customHeight="1" spans="1:12">
       <c r="A13" s="9">
         <v>111</v>
       </c>
@@ -3634,20 +3619,17 @@
       <c r="I13" s="11">
         <v>160</v>
       </c>
-      <c r="J13" s="11">
-        <v>10</v>
+      <c r="J13" s="11" t="s">
+        <v>93</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="L13" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="M13" s="17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="14" ht="39" customHeight="1" spans="1:13">
+        <v>94</v>
+      </c>
+      <c r="L13" s="17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" ht="39" customHeight="1" spans="1:12">
       <c r="A14" s="9">
         <v>112</v>
       </c>
@@ -3675,20 +3657,17 @@
       <c r="I14" s="11">
         <v>160</v>
       </c>
-      <c r="J14" s="11">
-        <v>10</v>
+      <c r="J14" s="11" t="s">
+        <v>93</v>
       </c>
       <c r="K14" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="L14" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="M14" s="17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="15" ht="39" customHeight="1" spans="1:13">
+        <v>94</v>
+      </c>
+      <c r="L14" s="17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" ht="39" customHeight="1" spans="1:12">
       <c r="A15" s="9">
         <v>113</v>
       </c>
@@ -3716,20 +3695,17 @@
       <c r="I15" s="11">
         <v>160</v>
       </c>
-      <c r="J15" s="11">
-        <v>10</v>
+      <c r="J15" s="11" t="s">
+        <v>93</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="L15" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="M15" s="17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="16" ht="39" customHeight="1" spans="1:13">
+        <v>94</v>
+      </c>
+      <c r="L15" s="17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" ht="39" customHeight="1" spans="1:12">
       <c r="A16" s="9">
         <v>114</v>
       </c>
@@ -3757,20 +3733,17 @@
       <c r="I16" s="11">
         <v>160</v>
       </c>
-      <c r="J16" s="11">
-        <v>10</v>
+      <c r="J16" s="11" t="s">
+        <v>93</v>
       </c>
       <c r="K16" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="L16" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="M16" s="17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17" ht="39" customHeight="1" spans="1:13">
+        <v>94</v>
+      </c>
+      <c r="L16" s="17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" ht="39" customHeight="1" spans="1:12">
       <c r="A17" s="9">
         <v>115</v>
       </c>
@@ -3798,20 +3771,17 @@
       <c r="I17" s="11">
         <v>160</v>
       </c>
-      <c r="J17" s="11">
-        <v>10</v>
+      <c r="J17" s="11" t="s">
+        <v>93</v>
       </c>
       <c r="K17" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="L17" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="M17" s="17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" ht="39" customHeight="1" spans="1:13">
+        <v>94</v>
+      </c>
+      <c r="L17" s="17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" ht="39" customHeight="1" spans="1:12">
       <c r="A18" s="9">
         <v>116</v>
       </c>
@@ -3839,20 +3809,17 @@
       <c r="I18" s="11">
         <v>160</v>
       </c>
-      <c r="J18" s="11">
-        <v>10</v>
+      <c r="J18" s="11" t="s">
+        <v>93</v>
       </c>
       <c r="K18" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="L18" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="M18" s="17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19" ht="39" customHeight="1" spans="1:13">
+        <v>94</v>
+      </c>
+      <c r="L18" s="17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" ht="39" customHeight="1" spans="1:12">
       <c r="A19" s="9">
         <v>117</v>
       </c>
@@ -3880,20 +3847,17 @@
       <c r="I19" s="11">
         <v>160</v>
       </c>
-      <c r="J19" s="11">
-        <v>10</v>
+      <c r="J19" s="11" t="s">
+        <v>93</v>
       </c>
       <c r="K19" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="L19" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="M19" s="17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="20" ht="39" customHeight="1" spans="1:13">
+        <v>94</v>
+      </c>
+      <c r="L19" s="17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" ht="39" customHeight="1" spans="1:12">
       <c r="A20" s="9">
         <v>118</v>
       </c>
@@ -3921,20 +3885,17 @@
       <c r="I20" s="11">
         <v>160</v>
       </c>
-      <c r="J20" s="11">
-        <v>10</v>
+      <c r="J20" s="11" t="s">
+        <v>93</v>
       </c>
       <c r="K20" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="L20" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="M20" s="17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21" ht="39" customHeight="1" spans="1:13">
+        <v>94</v>
+      </c>
+      <c r="L20" s="17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" ht="39" customHeight="1" spans="1:12">
       <c r="A21" s="9">
         <v>119</v>
       </c>
@@ -3962,20 +3923,17 @@
       <c r="I21" s="11">
         <v>160</v>
       </c>
-      <c r="J21" s="11">
-        <v>10</v>
+      <c r="J21" s="11" t="s">
+        <v>93</v>
       </c>
       <c r="K21" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="L21" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="M21" s="17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="22" ht="39" customHeight="1" spans="1:13">
+        <v>94</v>
+      </c>
+      <c r="L21" s="17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" ht="39" customHeight="1" spans="1:12">
       <c r="A22" s="9">
         <v>120</v>
       </c>
@@ -4003,20 +3961,17 @@
       <c r="I22" s="11">
         <v>160</v>
       </c>
-      <c r="J22" s="11">
-        <v>10</v>
+      <c r="J22" s="11" t="s">
+        <v>93</v>
       </c>
       <c r="K22" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="L22" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="M22" s="17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="23" ht="39" customHeight="1" spans="1:13">
+        <v>94</v>
+      </c>
+      <c r="L22" s="17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" ht="39" customHeight="1" spans="1:12">
       <c r="A23" s="9">
         <v>121</v>
       </c>
@@ -4044,20 +3999,17 @@
       <c r="I23" s="11">
         <v>160</v>
       </c>
-      <c r="J23" s="11">
-        <v>10</v>
+      <c r="J23" s="11" t="s">
+        <v>93</v>
       </c>
       <c r="K23" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="L23" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="M23" s="17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="24" ht="39" customHeight="1" spans="1:13">
+        <v>94</v>
+      </c>
+      <c r="L23" s="17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" ht="39" customHeight="1" spans="1:12">
       <c r="A24" s="9">
         <v>122</v>
       </c>
@@ -4085,20 +4037,17 @@
       <c r="I24" s="11">
         <v>160</v>
       </c>
-      <c r="J24" s="11">
-        <v>10</v>
+      <c r="J24" s="11" t="s">
+        <v>93</v>
       </c>
       <c r="K24" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="L24" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="M24" s="17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="25" ht="39" customHeight="1" spans="1:13">
+        <v>94</v>
+      </c>
+      <c r="L24" s="17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" ht="39" customHeight="1" spans="1:12">
       <c r="A25" s="9">
         <v>123</v>
       </c>
@@ -4126,20 +4075,17 @@
       <c r="I25" s="11">
         <v>160</v>
       </c>
-      <c r="J25" s="11">
-        <v>10</v>
+      <c r="J25" s="11" t="s">
+        <v>93</v>
       </c>
       <c r="K25" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="L25" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="M25" s="17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="26" ht="39" customHeight="1" spans="1:13">
+        <v>94</v>
+      </c>
+      <c r="L25" s="17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" ht="39" customHeight="1" spans="1:12">
       <c r="A26" s="9">
         <v>124</v>
       </c>
@@ -4167,20 +4113,17 @@
       <c r="I26" s="11">
         <v>160</v>
       </c>
-      <c r="J26" s="11">
-        <v>10</v>
+      <c r="J26" s="11" t="s">
+        <v>93</v>
       </c>
       <c r="K26" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="L26" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="M26" s="17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="27" ht="39" customHeight="1" spans="1:13">
+        <v>94</v>
+      </c>
+      <c r="L26" s="17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" ht="39" customHeight="1" spans="1:12">
       <c r="A27" s="9">
         <v>125</v>
       </c>
@@ -4208,20 +4151,17 @@
       <c r="I27" s="11">
         <v>160</v>
       </c>
-      <c r="J27" s="11">
-        <v>10</v>
+      <c r="J27" s="11" t="s">
+        <v>93</v>
       </c>
       <c r="K27" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="L27" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="M27" s="17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="28" ht="39" customHeight="1" spans="1:13">
+        <v>94</v>
+      </c>
+      <c r="L27" s="17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" ht="39" customHeight="1" spans="1:12">
       <c r="A28" s="9">
         <v>126</v>
       </c>
@@ -4249,20 +4189,17 @@
       <c r="I28" s="11">
         <v>160</v>
       </c>
-      <c r="J28" s="11">
-        <v>10</v>
+      <c r="J28" s="11" t="s">
+        <v>93</v>
       </c>
       <c r="K28" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="L28" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="M28" s="17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="29" ht="39" customHeight="1" spans="1:13">
+        <v>94</v>
+      </c>
+      <c r="L28" s="17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" ht="39" customHeight="1" spans="1:12">
       <c r="A29" s="9">
         <v>127</v>
       </c>
@@ -4290,20 +4227,17 @@
       <c r="I29" s="11">
         <v>160</v>
       </c>
-      <c r="J29" s="11">
-        <v>10</v>
+      <c r="J29" s="11" t="s">
+        <v>93</v>
       </c>
       <c r="K29" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="L29" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="M29" s="17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="30" ht="39" customHeight="1" spans="1:13">
+        <v>94</v>
+      </c>
+      <c r="L29" s="17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" ht="39" customHeight="1" spans="1:12">
       <c r="A30" s="9">
         <v>128</v>
       </c>
@@ -4331,20 +4265,17 @@
       <c r="I30" s="11">
         <v>160</v>
       </c>
-      <c r="J30" s="11">
-        <v>10</v>
+      <c r="J30" s="11" t="s">
+        <v>93</v>
       </c>
       <c r="K30" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="L30" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="M30" s="17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="31" ht="39" customHeight="1" spans="1:13">
+        <v>94</v>
+      </c>
+      <c r="L30" s="17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" ht="39" customHeight="1" spans="1:12">
       <c r="A31" s="9">
         <v>129</v>
       </c>
@@ -4372,20 +4303,17 @@
       <c r="I31" s="11">
         <v>160</v>
       </c>
-      <c r="J31" s="11">
-        <v>10</v>
+      <c r="J31" s="11" t="s">
+        <v>93</v>
       </c>
       <c r="K31" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="L31" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="M31" s="17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="32" ht="39" customHeight="1" spans="1:13">
+        <v>94</v>
+      </c>
+      <c r="L31" s="17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" ht="39" customHeight="1" spans="1:12">
       <c r="A32" s="9">
         <v>130</v>
       </c>
@@ -4413,20 +4341,17 @@
       <c r="I32" s="11">
         <v>160</v>
       </c>
-      <c r="J32" s="11">
-        <v>10</v>
+      <c r="J32" s="11" t="s">
+        <v>93</v>
       </c>
       <c r="K32" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="L32" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="M32" s="17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="33" ht="39" customHeight="1" spans="1:13">
+        <v>94</v>
+      </c>
+      <c r="L32" s="17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" ht="39" customHeight="1" spans="1:12">
       <c r="A33" s="9">
         <v>131</v>
       </c>
@@ -4454,20 +4379,17 @@
       <c r="I33" s="11">
         <v>160</v>
       </c>
-      <c r="J33" s="11">
-        <v>10</v>
+      <c r="J33" s="11" t="s">
+        <v>93</v>
       </c>
       <c r="K33" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="L33" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="M33" s="17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="34" ht="39" customHeight="1" spans="1:13">
+        <v>94</v>
+      </c>
+      <c r="L33" s="17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" ht="39" customHeight="1" spans="1:12">
       <c r="A34" s="9">
         <v>132</v>
       </c>
@@ -4495,20 +4417,17 @@
       <c r="I34" s="11">
         <v>160</v>
       </c>
-      <c r="J34" s="11">
-        <v>10</v>
+      <c r="J34" s="11" t="s">
+        <v>93</v>
       </c>
       <c r="K34" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="L34" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="M34" s="17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="35" ht="39" customHeight="1" spans="1:13">
+        <v>94</v>
+      </c>
+      <c r="L34" s="17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" ht="39" customHeight="1" spans="1:12">
       <c r="A35" s="9">
         <v>133</v>
       </c>
@@ -4536,20 +4455,17 @@
       <c r="I35" s="11">
         <v>160</v>
       </c>
-      <c r="J35" s="11">
-        <v>10</v>
+      <c r="J35" s="11" t="s">
+        <v>93</v>
       </c>
       <c r="K35" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="L35" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="M35" s="17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="36" ht="39" customHeight="1" spans="1:13">
+        <v>94</v>
+      </c>
+      <c r="L35" s="17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="36" ht="39" customHeight="1" spans="1:12">
       <c r="A36" s="9">
         <v>134</v>
       </c>
@@ -4577,20 +4493,17 @@
       <c r="I36" s="11">
         <v>160</v>
       </c>
-      <c r="J36" s="11">
-        <v>10</v>
+      <c r="J36" s="11" t="s">
+        <v>93</v>
       </c>
       <c r="K36" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="L36" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="M36" s="17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="37" ht="39" customHeight="1" spans="1:13">
+        <v>94</v>
+      </c>
+      <c r="L36" s="17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37" ht="39" customHeight="1" spans="1:12">
       <c r="A37" s="9">
         <v>135</v>
       </c>
@@ -4618,20 +4531,17 @@
       <c r="I37" s="11">
         <v>160</v>
       </c>
-      <c r="J37" s="11">
-        <v>10</v>
+      <c r="J37" s="11" t="s">
+        <v>93</v>
       </c>
       <c r="K37" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="L37" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="M37" s="17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="38" ht="39" customHeight="1" spans="1:13">
+        <v>94</v>
+      </c>
+      <c r="L37" s="17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" ht="39" customHeight="1" spans="1:12">
       <c r="A38" s="9">
         <v>136</v>
       </c>
@@ -4659,20 +4569,17 @@
       <c r="I38" s="11">
         <v>160</v>
       </c>
-      <c r="J38" s="11">
-        <v>10</v>
+      <c r="J38" s="11" t="s">
+        <v>93</v>
       </c>
       <c r="K38" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="L38" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="M38" s="17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="39" ht="39" customHeight="1" spans="1:13">
+        <v>94</v>
+      </c>
+      <c r="L38" s="17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" ht="39" customHeight="1" spans="1:12">
       <c r="A39" s="12">
         <v>201</v>
       </c>
@@ -4700,20 +4607,17 @@
       <c r="I39" s="14">
         <v>160</v>
       </c>
-      <c r="J39" s="14">
-        <v>10</v>
+      <c r="J39" s="14" t="s">
+        <v>95</v>
       </c>
       <c r="K39" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="L39" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="M39" s="18" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="40" ht="39" customHeight="1" spans="1:13">
+        <v>96</v>
+      </c>
+      <c r="L39" s="18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40" ht="39" customHeight="1" spans="1:12">
       <c r="A40" s="9">
         <v>202</v>
       </c>
@@ -4741,20 +4645,17 @@
       <c r="I40" s="11">
         <v>160</v>
       </c>
-      <c r="J40" s="11">
-        <v>10</v>
+      <c r="J40" s="11" t="s">
+        <v>97</v>
       </c>
       <c r="K40" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="L40" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="M40" s="17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="41" ht="39" customHeight="1" spans="1:13">
+        <v>98</v>
+      </c>
+      <c r="L40" s="17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="41" ht="39" customHeight="1" spans="1:12">
       <c r="A41" s="12">
         <v>203</v>
       </c>
@@ -4782,20 +4683,17 @@
       <c r="I41" s="14">
         <v>160</v>
       </c>
-      <c r="J41" s="14">
-        <v>10</v>
+      <c r="J41" s="14" t="s">
+        <v>99</v>
       </c>
       <c r="K41" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="L41" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="M41" s="18" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="42" ht="39" customHeight="1" spans="1:13">
+        <v>100</v>
+      </c>
+      <c r="L41" s="18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42" ht="39" customHeight="1" spans="1:12">
       <c r="A42" s="9">
         <v>204</v>
       </c>
@@ -4823,20 +4721,17 @@
       <c r="I42" s="11">
         <v>160</v>
       </c>
-      <c r="J42" s="11">
-        <v>10</v>
+      <c r="J42" s="11" t="s">
+        <v>101</v>
       </c>
       <c r="K42" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="L42" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="M42" s="17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="43" customFormat="1" ht="39" customHeight="1" spans="1:13">
+        <v>102</v>
+      </c>
+      <c r="L42" s="17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" customFormat="1" ht="39" customHeight="1" spans="1:12">
       <c r="A43" s="12">
         <v>205</v>
       </c>
@@ -4864,20 +4759,17 @@
       <c r="I43" s="14">
         <v>160</v>
       </c>
-      <c r="J43" s="14">
-        <v>10</v>
+      <c r="J43" s="14" t="s">
+        <v>103</v>
       </c>
       <c r="K43" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="L43" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="M43" s="18" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="44" s="50" customFormat="1" ht="39" customHeight="1" spans="1:13">
+        <v>104</v>
+      </c>
+      <c r="L43" s="18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" s="50" customFormat="1" ht="39" customHeight="1" spans="1:12">
       <c r="A44" s="9">
         <v>301</v>
       </c>
@@ -4905,20 +4797,17 @@
       <c r="I44" s="11">
         <v>160</v>
       </c>
-      <c r="J44" s="11">
-        <v>10</v>
+      <c r="J44" s="11" t="s">
+        <v>105</v>
       </c>
       <c r="K44" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="L44" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="M44" s="17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="45" s="50" customFormat="1" ht="39" customHeight="1" spans="1:13">
+        <v>106</v>
+      </c>
+      <c r="L44" s="17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" s="50" customFormat="1" ht="39" customHeight="1" spans="1:12">
       <c r="A45" s="12">
         <v>302</v>
       </c>
@@ -4946,20 +4835,17 @@
       <c r="I45" s="14">
         <v>160</v>
       </c>
-      <c r="J45" s="14">
-        <v>10</v>
+      <c r="J45" s="14" t="s">
+        <v>107</v>
       </c>
       <c r="K45" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="L45" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="M45" s="18" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="46" s="50" customFormat="1" ht="39" customHeight="1" spans="1:13">
+        <v>108</v>
+      </c>
+      <c r="L45" s="18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" s="50" customFormat="1" ht="39" customHeight="1" spans="1:12">
       <c r="A46" s="9">
         <v>303</v>
       </c>
@@ -4987,20 +4873,17 @@
       <c r="I46" s="11">
         <v>160</v>
       </c>
-      <c r="J46" s="11">
-        <v>10</v>
+      <c r="J46" s="11" t="s">
+        <v>109</v>
       </c>
       <c r="K46" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="L46" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="M46" s="17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="47" s="50" customFormat="1" ht="39" customHeight="1" spans="1:13">
+        <v>110</v>
+      </c>
+      <c r="L46" s="17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="47" s="50" customFormat="1" ht="39" customHeight="1" spans="1:12">
       <c r="A47" s="12">
         <v>304</v>
       </c>
@@ -5028,20 +4911,17 @@
       <c r="I47" s="14">
         <v>160</v>
       </c>
-      <c r="J47" s="14">
-        <v>10</v>
+      <c r="J47" s="14" t="s">
+        <v>111</v>
       </c>
       <c r="K47" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="L47" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="M47" s="18" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="48" s="50" customFormat="1" ht="39" customHeight="1" spans="1:13">
+        <v>112</v>
+      </c>
+      <c r="L47" s="18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="48" s="50" customFormat="1" ht="39" customHeight="1" spans="1:12">
       <c r="A48" s="9">
         <v>305</v>
       </c>
@@ -5069,20 +4949,17 @@
       <c r="I48" s="11">
         <v>160</v>
       </c>
-      <c r="J48" s="11">
-        <v>10</v>
+      <c r="J48" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="K48" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="L48" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="M48" s="17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="49" s="50" customFormat="1" ht="39" customHeight="1" spans="1:13">
+        <v>114</v>
+      </c>
+      <c r="L48" s="17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="49" s="50" customFormat="1" ht="39" customHeight="1" spans="1:12">
       <c r="A49" s="12">
         <v>401</v>
       </c>
@@ -5110,20 +4987,17 @@
       <c r="I49" s="14">
         <v>160</v>
       </c>
-      <c r="J49" s="14">
-        <v>10</v>
+      <c r="J49" s="14" t="s">
+        <v>115</v>
       </c>
       <c r="K49" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="L49" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="M49" s="18" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="50" s="50" customFormat="1" ht="39" customHeight="1" spans="1:13">
+        <v>116</v>
+      </c>
+      <c r="L49" s="18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="50" s="50" customFormat="1" ht="39" customHeight="1" spans="1:12">
       <c r="A50" s="9">
         <v>402</v>
       </c>
@@ -5151,20 +5025,17 @@
       <c r="I50" s="11">
         <v>160</v>
       </c>
-      <c r="J50" s="11">
-        <v>10</v>
+      <c r="J50" s="11" t="s">
+        <v>117</v>
       </c>
       <c r="K50" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="L50" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="M50" s="17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="51" s="50" customFormat="1" ht="39" customHeight="1" spans="1:13">
+        <v>118</v>
+      </c>
+      <c r="L50" s="17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="51" s="50" customFormat="1" ht="39" customHeight="1" spans="1:12">
       <c r="A51" s="12">
         <v>403</v>
       </c>
@@ -5192,20 +5063,17 @@
       <c r="I51" s="14">
         <v>160</v>
       </c>
-      <c r="J51" s="14">
-        <v>10</v>
+      <c r="J51" s="14" t="s">
+        <v>119</v>
       </c>
       <c r="K51" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="L51" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="M51" s="18" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="52" s="50" customFormat="1" ht="39" customHeight="1" spans="1:13">
+        <v>120</v>
+      </c>
+      <c r="L51" s="18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="52" s="50" customFormat="1" ht="39" customHeight="1" spans="1:12">
       <c r="A52" s="9">
         <v>404</v>
       </c>
@@ -5233,20 +5101,17 @@
       <c r="I52" s="11">
         <v>160</v>
       </c>
-      <c r="J52" s="11">
-        <v>10</v>
+      <c r="J52" s="11" t="s">
+        <v>121</v>
       </c>
       <c r="K52" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="L52" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="M52" s="17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="53" s="50" customFormat="1" ht="39" customHeight="1" spans="1:13">
+        <v>122</v>
+      </c>
+      <c r="L52" s="17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="53" s="50" customFormat="1" ht="39" customHeight="1" spans="1:12">
       <c r="A53" s="12">
         <v>405</v>
       </c>
@@ -5274,20 +5139,17 @@
       <c r="I53" s="14">
         <v>160</v>
       </c>
-      <c r="J53" s="14">
-        <v>10</v>
+      <c r="J53" s="14" t="s">
+        <v>123</v>
       </c>
       <c r="K53" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="L53" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="M53" s="18" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="54" s="50" customFormat="1" ht="39" customHeight="1" spans="1:13">
+        <v>124</v>
+      </c>
+      <c r="L53" s="18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="54" s="50" customFormat="1" ht="39" customHeight="1" spans="1:12">
       <c r="A54" s="9">
         <v>501</v>
       </c>
@@ -5315,20 +5177,17 @@
       <c r="I54" s="11">
         <v>160</v>
       </c>
-      <c r="J54" s="11">
-        <v>10</v>
+      <c r="J54" s="11" t="s">
+        <v>125</v>
       </c>
       <c r="K54" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="L54" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="M54" s="17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="55" s="50" customFormat="1" ht="39" customHeight="1" spans="1:13">
+        <v>126</v>
+      </c>
+      <c r="L54" s="17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="55" s="50" customFormat="1" ht="39" customHeight="1" spans="1:12">
       <c r="A55" s="12">
         <v>502</v>
       </c>
@@ -5356,20 +5215,17 @@
       <c r="I55" s="14">
         <v>160</v>
       </c>
-      <c r="J55" s="14">
-        <v>10</v>
+      <c r="J55" s="14" t="s">
+        <v>125</v>
       </c>
       <c r="K55" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="L55" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="M55" s="18" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="56" s="50" customFormat="1" ht="39" customHeight="1" spans="1:13">
+        <v>126</v>
+      </c>
+      <c r="L55" s="18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="56" s="50" customFormat="1" ht="39" customHeight="1" spans="1:12">
       <c r="A56" s="9">
         <v>503</v>
       </c>
@@ -5397,20 +5253,17 @@
       <c r="I56" s="11">
         <v>160</v>
       </c>
-      <c r="J56" s="11">
-        <v>10</v>
+      <c r="J56" s="11" t="s">
+        <v>125</v>
       </c>
       <c r="K56" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="L56" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="M56" s="17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="57" s="50" customFormat="1" ht="39" customHeight="1" spans="1:13">
+        <v>126</v>
+      </c>
+      <c r="L56" s="17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="57" s="50" customFormat="1" ht="39" customHeight="1" spans="1:12">
       <c r="A57" s="12">
         <v>504</v>
       </c>
@@ -5438,20 +5291,17 @@
       <c r="I57" s="14">
         <v>160</v>
       </c>
-      <c r="J57" s="14">
-        <v>10</v>
+      <c r="J57" s="14" t="s">
+        <v>125</v>
       </c>
       <c r="K57" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="L57" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="M57" s="18" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="58" s="50" customFormat="1" ht="39" customHeight="1" spans="1:13">
+        <v>126</v>
+      </c>
+      <c r="L57" s="18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="58" s="50" customFormat="1" ht="39" customHeight="1" spans="1:12">
       <c r="A58" s="55">
         <v>505</v>
       </c>
@@ -5479,17 +5329,14 @@
       <c r="I58" s="57">
         <v>160</v>
       </c>
-      <c r="J58" s="57">
-        <v>10</v>
+      <c r="J58" s="57" t="s">
+        <v>127</v>
       </c>
       <c r="K58" s="57" t="s">
-        <v>129</v>
-      </c>
-      <c r="L58" s="57" t="s">
-        <v>130</v>
-      </c>
-      <c r="M58" s="58" t="s">
-        <v>88</v>
+        <v>128</v>
+      </c>
+      <c r="L58" s="58" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="59" ht="14.25"/>
@@ -5511,12 +5358,12 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P27"/>
+  <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="E7" sqref="E7"/>
+      <selection pane="topRight" activeCell="G3" sqref="G3:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -5525,66 +5372,74 @@
     <col min="2" max="2" width="18.3416666666667" customWidth="1"/>
     <col min="3" max="3" width="16.0083333333333" customWidth="1"/>
     <col min="4" max="4" width="21.5" customWidth="1"/>
-    <col min="5" max="5" width="41.625" customWidth="1"/>
-    <col min="6" max="6" width="24" customWidth="1"/>
-    <col min="7" max="7" width="19.125" style="19" customWidth="1"/>
-    <col min="8" max="8" width="23.0083333333333" customWidth="1"/>
-    <col min="9" max="10" width="17.8416666666667" customWidth="1"/>
-    <col min="11" max="11" width="17.5083333333333" customWidth="1"/>
-    <col min="12" max="12" width="26.3416666666667" customWidth="1"/>
-    <col min="13" max="13" width="3.625" customWidth="1"/>
-    <col min="14" max="14" width="23.5083333333333" customWidth="1"/>
-    <col min="15" max="15" width="6.24166666666667" customWidth="1"/>
+    <col min="5" max="5" width="46.175" customWidth="1"/>
+    <col min="6" max="6" width="17.7833333333333" customWidth="1"/>
+    <col min="7" max="7" width="22.9333333333333" customWidth="1"/>
+    <col min="8" max="8" width="24" customWidth="1"/>
+    <col min="9" max="9" width="19.125" style="19" customWidth="1"/>
+    <col min="10" max="10" width="23.0083333333333" customWidth="1"/>
+    <col min="11" max="12" width="17.8416666666667" customWidth="1"/>
+    <col min="13" max="13" width="17.5083333333333" customWidth="1"/>
+    <col min="14" max="14" width="26.3416666666667" customWidth="1"/>
+    <col min="15" max="15" width="3.625" customWidth="1"/>
+    <col min="16" max="16" width="23.5083333333333" customWidth="1"/>
+    <col min="17" max="17" width="6.24166666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="60" customHeight="1" spans="1:16">
+    <row r="1" ht="60" customHeight="1" spans="1:18">
       <c r="A1" s="20" t="s">
         <v>64</v>
       </c>
       <c r="B1" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="E1" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="F1" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="G1" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="H1" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="I1" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="J1" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="K1" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="L1" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="M1" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="L1" s="35"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="37" t="s">
+      <c r="N1" s="33"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="O1" s="37"/>
-      <c r="P1" s="38"/>
-    </row>
-    <row r="2" ht="43" customHeight="1" spans="1:16">
+      <c r="Q1" s="35"/>
+      <c r="R1" s="45"/>
+    </row>
+    <row r="2" ht="43" customHeight="1" spans="1:18">
       <c r="A2" s="22" t="s">
         <v>142</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C2" s="23" t="s">
         <v>143</v>
@@ -5613,23 +5468,29 @@
       <c r="K2" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="L2" s="39">
-        <v>1</v>
-      </c>
-      <c r="M2" s="40" t="s">
+      <c r="L2" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="N2" s="41" t="s">
+      <c r="M2" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="O2" s="42">
-        <v>1</v>
-      </c>
-      <c r="P2" s="43" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="3" ht="44" customHeight="1" spans="1:16">
+      <c r="N2" s="36">
+        <v>1</v>
+      </c>
+      <c r="O2" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="P2" s="38" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q2" s="46">
+        <v>1</v>
+      </c>
+      <c r="R2" s="47" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" ht="44" customHeight="1" spans="1:18">
       <c r="A3" s="24">
         <v>1</v>
       </c>
@@ -5642,78 +5503,90 @@
       <c r="D3" s="25">
         <v>1</v>
       </c>
-      <c r="E3" s="25" t="s">
-        <v>154</v>
-      </c>
-      <c r="F3" s="26" t="s">
-        <v>155</v>
-      </c>
-      <c r="G3" s="27">
+      <c r="E3" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="F3" s="25">
+        <v>1</v>
+      </c>
+      <c r="G3" s="25">
+        <v>1</v>
+      </c>
+      <c r="H3" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="I3" s="39">
         <v>0</v>
       </c>
-      <c r="H3" s="25">
+      <c r="J3" s="25">
         <v>0</v>
       </c>
-      <c r="I3" s="25">
-        <v>2</v>
-      </c>
-      <c r="J3" s="25">
-        <v>2</v>
-      </c>
-      <c r="K3" s="25"/>
-      <c r="L3" s="44" t="s">
+      <c r="K3" s="25">
+        <v>2</v>
+      </c>
+      <c r="L3" s="25">
+        <v>2</v>
+      </c>
+      <c r="M3" s="25"/>
+      <c r="N3" s="40" t="s">
+        <v>158</v>
+      </c>
+      <c r="O3" s="41"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="48">
+        <v>5</v>
+      </c>
+      <c r="R3" s="45"/>
+    </row>
+    <row r="4" ht="44" customHeight="1" spans="1:18">
+      <c r="A4" s="28">
+        <v>2</v>
+      </c>
+      <c r="B4" s="26">
+        <v>10</v>
+      </c>
+      <c r="C4" s="26">
+        <v>2</v>
+      </c>
+      <c r="D4" s="26">
+        <v>1</v>
+      </c>
+      <c r="E4" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="M3" s="45"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="46">
-        <v>5</v>
-      </c>
-      <c r="P3" s="38"/>
-    </row>
-    <row r="4" ht="44" customHeight="1" spans="1:16">
-      <c r="A4" s="28">
-        <v>2</v>
-      </c>
-      <c r="B4" s="29">
-        <v>10</v>
-      </c>
-      <c r="C4" s="29">
-        <v>2</v>
-      </c>
-      <c r="D4" s="29">
-        <v>1</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>154</v>
-      </c>
-      <c r="F4" s="30" t="s">
-        <v>155</v>
-      </c>
-      <c r="G4" s="27">
+      <c r="F4" s="25">
+        <v>1</v>
+      </c>
+      <c r="G4" s="25">
+        <v>1</v>
+      </c>
+      <c r="H4" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="I4" s="39">
         <v>0</v>
       </c>
-      <c r="H4" s="29">
+      <c r="J4" s="26">
         <v>0</v>
       </c>
-      <c r="I4" s="29">
-        <v>2</v>
-      </c>
-      <c r="J4" s="29">
-        <v>2</v>
-      </c>
-      <c r="K4" s="29"/>
-      <c r="L4" s="44" t="s">
-        <v>157</v>
-      </c>
-      <c r="M4" s="47"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="44">
+      <c r="K4" s="26">
+        <v>2</v>
+      </c>
+      <c r="L4" s="26">
+        <v>2</v>
+      </c>
+      <c r="M4" s="26"/>
+      <c r="N4" s="40" t="s">
+        <v>159</v>
+      </c>
+      <c r="O4" s="42"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="40">
         <v>6</v>
       </c>
-      <c r="P4" s="38"/>
-    </row>
-    <row r="5" ht="44" customHeight="1" spans="1:16">
+      <c r="R4" s="45"/>
+    </row>
+    <row r="5" ht="44" customHeight="1" spans="1:18">
       <c r="A5" s="24">
         <v>3</v>
       </c>
@@ -5726,78 +5599,90 @@
       <c r="D5" s="25">
         <v>1</v>
       </c>
-      <c r="E5" s="25" t="s">
-        <v>154</v>
-      </c>
-      <c r="F5" s="26" t="s">
-        <v>158</v>
-      </c>
-      <c r="G5" s="27">
+      <c r="E5" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="F5" s="25">
+        <v>1</v>
+      </c>
+      <c r="G5" s="25">
+        <v>1</v>
+      </c>
+      <c r="H5" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="I5" s="39">
         <v>5</v>
       </c>
-      <c r="H5" s="25">
+      <c r="J5" s="25">
         <v>0</v>
       </c>
-      <c r="I5" s="25">
-        <v>2</v>
-      </c>
-      <c r="J5" s="25">
-        <v>2</v>
-      </c>
-      <c r="K5" s="25"/>
-      <c r="L5" s="44" t="s">
-        <v>159</v>
-      </c>
-      <c r="M5" s="45"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="46">
+      <c r="K5" s="25">
+        <v>2</v>
+      </c>
+      <c r="L5" s="25">
+        <v>2</v>
+      </c>
+      <c r="M5" s="25"/>
+      <c r="N5" s="40" t="s">
+        <v>161</v>
+      </c>
+      <c r="O5" s="41"/>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="48">
         <v>7</v>
       </c>
-      <c r="P5" s="38"/>
-    </row>
-    <row r="6" ht="44" customHeight="1" spans="1:16">
+      <c r="R5" s="45"/>
+    </row>
+    <row r="6" ht="44" customHeight="1" spans="1:18">
       <c r="A6" s="28">
         <v>4</v>
       </c>
-      <c r="B6" s="29">
-        <v>10</v>
-      </c>
-      <c r="C6" s="29">
+      <c r="B6" s="26">
+        <v>10</v>
+      </c>
+      <c r="C6" s="26">
         <v>4</v>
       </c>
-      <c r="D6" s="29">
-        <v>1</v>
-      </c>
-      <c r="E6" s="29" t="s">
-        <v>154</v>
-      </c>
-      <c r="F6" s="30" t="s">
-        <v>155</v>
-      </c>
-      <c r="G6" s="27">
+      <c r="D6" s="26">
+        <v>1</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="F6" s="25">
+        <v>1</v>
+      </c>
+      <c r="G6" s="25">
+        <v>1</v>
+      </c>
+      <c r="H6" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="I6" s="39">
         <v>0</v>
       </c>
-      <c r="H6" s="29">
+      <c r="J6" s="26">
         <v>0</v>
       </c>
-      <c r="I6" s="29">
-        <v>2</v>
-      </c>
-      <c r="J6" s="29">
-        <v>2</v>
-      </c>
-      <c r="K6" s="29"/>
-      <c r="L6" s="44" t="s">
-        <v>160</v>
-      </c>
-      <c r="M6" s="47"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="44">
+      <c r="K6" s="26">
+        <v>2</v>
+      </c>
+      <c r="L6" s="26">
+        <v>2</v>
+      </c>
+      <c r="M6" s="26"/>
+      <c r="N6" s="40" t="s">
+        <v>162</v>
+      </c>
+      <c r="O6" s="42"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="40">
         <v>8</v>
       </c>
-      <c r="P6" s="38"/>
-    </row>
-    <row r="7" ht="44" customHeight="1" spans="1:16">
+      <c r="R6" s="45"/>
+    </row>
+    <row r="7" ht="44" customHeight="1" spans="1:18">
       <c r="A7" s="24">
         <v>5</v>
       </c>
@@ -5811,77 +5696,89 @@
         <v>1</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="F7" s="26" t="s">
-        <v>155</v>
-      </c>
-      <c r="G7" s="27">
+        <v>163</v>
+      </c>
+      <c r="F7" s="25">
+        <v>1</v>
+      </c>
+      <c r="G7" s="25">
+        <v>1</v>
+      </c>
+      <c r="H7" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="I7" s="39">
         <v>0</v>
       </c>
-      <c r="H7" s="25">
+      <c r="J7" s="25">
         <v>0</v>
       </c>
-      <c r="I7" s="25">
-        <v>2</v>
-      </c>
-      <c r="J7" s="25">
-        <v>2</v>
-      </c>
-      <c r="K7" s="25"/>
-      <c r="L7" s="44" t="s">
-        <v>162</v>
-      </c>
-      <c r="M7" s="45"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="46">
-        <v>2</v>
-      </c>
-      <c r="P7" s="38"/>
-    </row>
-    <row r="8" ht="44" customHeight="1" spans="1:16">
+      <c r="K7" s="25">
+        <v>2</v>
+      </c>
+      <c r="L7" s="25">
+        <v>2</v>
+      </c>
+      <c r="M7" s="25"/>
+      <c r="N7" s="40" t="s">
+        <v>164</v>
+      </c>
+      <c r="O7" s="41"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="48">
+        <v>2</v>
+      </c>
+      <c r="R7" s="45"/>
+    </row>
+    <row r="8" ht="44" customHeight="1" spans="1:18">
       <c r="A8" s="28">
         <v>6</v>
       </c>
-      <c r="B8" s="29">
-        <v>10</v>
-      </c>
-      <c r="C8" s="29">
+      <c r="B8" s="26">
+        <v>10</v>
+      </c>
+      <c r="C8" s="26">
         <v>6</v>
       </c>
-      <c r="D8" s="29">
-        <v>1</v>
-      </c>
-      <c r="E8" s="29" t="s">
-        <v>154</v>
-      </c>
-      <c r="F8" s="30" t="s">
-        <v>155</v>
-      </c>
-      <c r="G8" s="27">
+      <c r="D8" s="26">
+        <v>1</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="F8" s="25">
+        <v>1</v>
+      </c>
+      <c r="G8" s="25">
+        <v>1</v>
+      </c>
+      <c r="H8" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="I8" s="39">
         <v>0</v>
       </c>
-      <c r="H8" s="29">
+      <c r="J8" s="26">
         <v>0</v>
       </c>
-      <c r="I8" s="29">
-        <v>2</v>
-      </c>
-      <c r="J8" s="29">
-        <v>2</v>
-      </c>
-      <c r="K8" s="29"/>
-      <c r="L8" s="44" t="s">
-        <v>163</v>
-      </c>
-      <c r="M8" s="47"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="44">
+      <c r="K8" s="26">
+        <v>2</v>
+      </c>
+      <c r="L8" s="26">
+        <v>2</v>
+      </c>
+      <c r="M8" s="26"/>
+      <c r="N8" s="40" t="s">
+        <v>165</v>
+      </c>
+      <c r="O8" s="42"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="40">
         <v>9</v>
       </c>
-      <c r="P8" s="38"/>
-    </row>
-    <row r="9" ht="44" customHeight="1" spans="1:16">
+      <c r="R8" s="45"/>
+    </row>
+    <row r="9" ht="44" customHeight="1" spans="1:18">
       <c r="A9" s="24">
         <v>7</v>
       </c>
@@ -5895,77 +5792,89 @@
         <v>1</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>154</v>
-      </c>
-      <c r="F9" s="26" t="s">
-        <v>155</v>
-      </c>
-      <c r="G9" s="27">
+        <v>156</v>
+      </c>
+      <c r="F9" s="25">
+        <v>1</v>
+      </c>
+      <c r="G9" s="25">
+        <v>1</v>
+      </c>
+      <c r="H9" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="I9" s="39">
         <v>0</v>
       </c>
-      <c r="H9" s="25">
+      <c r="J9" s="25">
         <v>0</v>
       </c>
-      <c r="I9" s="25">
-        <v>2</v>
-      </c>
-      <c r="J9" s="25">
-        <v>2</v>
-      </c>
-      <c r="K9" s="25"/>
-      <c r="L9" s="44" t="s">
-        <v>164</v>
-      </c>
-      <c r="M9" s="45"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="46">
+      <c r="K9" s="25">
+        <v>2</v>
+      </c>
+      <c r="L9" s="25">
+        <v>2</v>
+      </c>
+      <c r="M9" s="25"/>
+      <c r="N9" s="40" t="s">
+        <v>166</v>
+      </c>
+      <c r="O9" s="41"/>
+      <c r="P9" s="28"/>
+      <c r="Q9" s="48">
         <v>9</v>
       </c>
-      <c r="P9" s="38"/>
-    </row>
-    <row r="10" ht="44" customHeight="1" spans="1:16">
+      <c r="R9" s="45"/>
+    </row>
+    <row r="10" ht="44" customHeight="1" spans="1:18">
       <c r="A10" s="28">
         <v>8</v>
       </c>
-      <c r="B10" s="29">
-        <v>10</v>
-      </c>
-      <c r="C10" s="29">
+      <c r="B10" s="26">
+        <v>10</v>
+      </c>
+      <c r="C10" s="26">
         <v>8</v>
       </c>
-      <c r="D10" s="29">
-        <v>1</v>
-      </c>
-      <c r="E10" s="29" t="s">
-        <v>154</v>
-      </c>
-      <c r="F10" s="30" t="s">
-        <v>165</v>
-      </c>
-      <c r="G10" s="27">
+      <c r="D10" s="26">
+        <v>1</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="F10" s="25">
+        <v>1</v>
+      </c>
+      <c r="G10" s="25">
+        <v>1</v>
+      </c>
+      <c r="H10" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="I10" s="39">
         <v>5</v>
       </c>
-      <c r="H10" s="29">
+      <c r="J10" s="26">
         <v>0</v>
       </c>
-      <c r="I10" s="29">
-        <v>2</v>
-      </c>
-      <c r="J10" s="29">
-        <v>2</v>
-      </c>
-      <c r="K10" s="29"/>
-      <c r="L10" s="44" t="s">
-        <v>166</v>
-      </c>
-      <c r="M10" s="47"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="44">
+      <c r="K10" s="26">
+        <v>2</v>
+      </c>
+      <c r="L10" s="26">
+        <v>2</v>
+      </c>
+      <c r="M10" s="26"/>
+      <c r="N10" s="40" t="s">
+        <v>168</v>
+      </c>
+      <c r="O10" s="42"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="40">
         <v>9</v>
       </c>
-      <c r="P10" s="38"/>
-    </row>
-    <row r="11" ht="44" customHeight="1" spans="1:16">
+      <c r="R10" s="45"/>
+    </row>
+    <row r="11" ht="44" customHeight="1" spans="1:18">
       <c r="A11" s="24">
         <v>9</v>
       </c>
@@ -5979,77 +5888,89 @@
         <v>1</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>154</v>
-      </c>
-      <c r="F11" s="26" t="s">
-        <v>155</v>
-      </c>
-      <c r="G11" s="27">
+        <v>156</v>
+      </c>
+      <c r="F11" s="25">
+        <v>1</v>
+      </c>
+      <c r="G11" s="25">
+        <v>1</v>
+      </c>
+      <c r="H11" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="I11" s="39">
         <v>0</v>
       </c>
-      <c r="H11" s="25">
+      <c r="J11" s="25">
         <v>0</v>
       </c>
-      <c r="I11" s="25">
-        <v>2</v>
-      </c>
-      <c r="J11" s="25">
-        <v>2</v>
-      </c>
-      <c r="K11" s="25"/>
-      <c r="L11" s="44" t="s">
-        <v>167</v>
-      </c>
-      <c r="M11" s="45"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="46">
-        <v>10</v>
-      </c>
-      <c r="P11" s="38"/>
-    </row>
-    <row r="12" ht="44" customHeight="1" spans="1:16">
+      <c r="K11" s="25">
+        <v>2</v>
+      </c>
+      <c r="L11" s="25">
+        <v>2</v>
+      </c>
+      <c r="M11" s="25"/>
+      <c r="N11" s="40" t="s">
+        <v>169</v>
+      </c>
+      <c r="O11" s="41"/>
+      <c r="P11" s="28"/>
+      <c r="Q11" s="48">
+        <v>10</v>
+      </c>
+      <c r="R11" s="45"/>
+    </row>
+    <row r="12" ht="44" customHeight="1" spans="1:18">
       <c r="A12" s="28">
         <v>10</v>
       </c>
-      <c r="B12" s="29">
-        <v>10</v>
-      </c>
-      <c r="C12" s="29">
-        <v>10</v>
-      </c>
-      <c r="D12" s="29">
-        <v>1</v>
-      </c>
-      <c r="E12" s="29" t="s">
-        <v>161</v>
-      </c>
-      <c r="F12" s="30" t="s">
-        <v>155</v>
-      </c>
-      <c r="G12" s="27">
+      <c r="B12" s="26">
+        <v>10</v>
+      </c>
+      <c r="C12" s="26">
+        <v>10</v>
+      </c>
+      <c r="D12" s="26">
+        <v>1</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="F12" s="25">
+        <v>1</v>
+      </c>
+      <c r="G12" s="25">
+        <v>1</v>
+      </c>
+      <c r="H12" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="I12" s="39">
         <v>0</v>
       </c>
-      <c r="H12" s="29">
+      <c r="J12" s="26">
         <v>0</v>
       </c>
-      <c r="I12" s="29">
-        <v>2</v>
-      </c>
-      <c r="J12" s="29">
-        <v>2</v>
-      </c>
-      <c r="K12" s="29"/>
-      <c r="L12" s="44" t="s">
-        <v>168</v>
-      </c>
-      <c r="M12" s="47"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="44">
-        <v>2</v>
-      </c>
-      <c r="P12" s="38"/>
-    </row>
-    <row r="13" ht="44" customHeight="1" spans="1:16">
+      <c r="K12" s="26">
+        <v>2</v>
+      </c>
+      <c r="L12" s="26">
+        <v>2</v>
+      </c>
+      <c r="M12" s="26"/>
+      <c r="N12" s="40" t="s">
+        <v>170</v>
+      </c>
+      <c r="O12" s="42"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="40">
+        <v>2</v>
+      </c>
+      <c r="R12" s="45"/>
+    </row>
+    <row r="13" ht="44" customHeight="1" spans="1:18">
       <c r="A13" s="24">
         <v>11</v>
       </c>
@@ -6063,77 +5984,89 @@
         <v>1</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>154</v>
-      </c>
-      <c r="F13" s="26" t="s">
-        <v>155</v>
-      </c>
-      <c r="G13" s="27">
+        <v>156</v>
+      </c>
+      <c r="F13" s="25">
+        <v>1</v>
+      </c>
+      <c r="G13" s="25">
+        <v>1</v>
+      </c>
+      <c r="H13" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="I13" s="39">
         <v>0</v>
       </c>
-      <c r="H13" s="25">
+      <c r="J13" s="25">
         <v>0</v>
       </c>
-      <c r="I13" s="25">
-        <v>2</v>
-      </c>
-      <c r="J13" s="25">
-        <v>2</v>
-      </c>
-      <c r="K13" s="25"/>
-      <c r="L13" s="44" t="s">
-        <v>169</v>
-      </c>
-      <c r="M13" s="45"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="46">
-        <v>10</v>
-      </c>
-      <c r="P13" s="38"/>
-    </row>
-    <row r="14" ht="44" customHeight="1" spans="1:16">
+      <c r="K13" s="25">
+        <v>2</v>
+      </c>
+      <c r="L13" s="25">
+        <v>2</v>
+      </c>
+      <c r="M13" s="25"/>
+      <c r="N13" s="40" t="s">
+        <v>171</v>
+      </c>
+      <c r="O13" s="41"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="48">
+        <v>10</v>
+      </c>
+      <c r="R13" s="45"/>
+    </row>
+    <row r="14" ht="44" customHeight="1" spans="1:18">
       <c r="A14" s="28">
         <v>12</v>
       </c>
-      <c r="B14" s="29">
-        <v>10</v>
-      </c>
-      <c r="C14" s="29">
+      <c r="B14" s="26">
+        <v>10</v>
+      </c>
+      <c r="C14" s="26">
         <v>12</v>
       </c>
-      <c r="D14" s="29">
-        <v>1</v>
-      </c>
-      <c r="E14" s="29" t="s">
-        <v>154</v>
-      </c>
-      <c r="F14" s="30" t="s">
-        <v>170</v>
-      </c>
-      <c r="G14" s="27">
+      <c r="D14" s="26">
+        <v>1</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="F14" s="25">
+        <v>1</v>
+      </c>
+      <c r="G14" s="25">
+        <v>1</v>
+      </c>
+      <c r="H14" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="I14" s="39">
         <v>5</v>
       </c>
-      <c r="H14" s="29">
+      <c r="J14" s="26">
         <v>0</v>
       </c>
-      <c r="I14" s="29">
-        <v>2</v>
-      </c>
-      <c r="J14" s="29">
-        <v>2</v>
-      </c>
-      <c r="K14" s="29"/>
-      <c r="L14" s="44" t="s">
-        <v>171</v>
-      </c>
-      <c r="M14" s="47"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="44">
+      <c r="K14" s="26">
+        <v>2</v>
+      </c>
+      <c r="L14" s="26">
+        <v>2</v>
+      </c>
+      <c r="M14" s="26"/>
+      <c r="N14" s="40" t="s">
+        <v>173</v>
+      </c>
+      <c r="O14" s="42"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="40">
         <v>5</v>
       </c>
-      <c r="P14" s="38"/>
-    </row>
-    <row r="15" ht="44" customHeight="1" spans="1:16">
+      <c r="R14" s="45"/>
+    </row>
+    <row r="15" ht="44" customHeight="1" spans="1:18">
       <c r="A15" s="24">
         <v>13</v>
       </c>
@@ -6147,77 +6080,89 @@
         <v>1</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>154</v>
-      </c>
-      <c r="F15" s="26" t="s">
-        <v>155</v>
-      </c>
-      <c r="G15" s="27">
+        <v>156</v>
+      </c>
+      <c r="F15" s="25">
+        <v>1</v>
+      </c>
+      <c r="G15" s="25">
+        <v>1</v>
+      </c>
+      <c r="H15" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="I15" s="39">
         <v>0</v>
       </c>
-      <c r="H15" s="25">
+      <c r="J15" s="25">
         <v>0</v>
       </c>
-      <c r="I15" s="25">
-        <v>2</v>
-      </c>
-      <c r="J15" s="25">
-        <v>2</v>
-      </c>
-      <c r="K15" s="25"/>
-      <c r="L15" s="44" t="s">
-        <v>172</v>
-      </c>
-      <c r="M15" s="45"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="46">
-        <v>10</v>
-      </c>
-      <c r="P15" s="38"/>
-    </row>
-    <row r="16" ht="44" customHeight="1" spans="1:16">
+      <c r="K15" s="25">
+        <v>2</v>
+      </c>
+      <c r="L15" s="25">
+        <v>2</v>
+      </c>
+      <c r="M15" s="25"/>
+      <c r="N15" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="O15" s="41"/>
+      <c r="P15" s="28"/>
+      <c r="Q15" s="48">
+        <v>10</v>
+      </c>
+      <c r="R15" s="45"/>
+    </row>
+    <row r="16" ht="44" customHeight="1" spans="1:18">
       <c r="A16" s="28">
         <v>14</v>
       </c>
-      <c r="B16" s="29">
-        <v>10</v>
-      </c>
-      <c r="C16" s="29">
+      <c r="B16" s="26">
+        <v>10</v>
+      </c>
+      <c r="C16" s="26">
         <v>14</v>
       </c>
-      <c r="D16" s="29">
-        <v>1</v>
-      </c>
-      <c r="E16" s="29" t="s">
-        <v>154</v>
-      </c>
-      <c r="F16" s="30" t="s">
-        <v>155</v>
-      </c>
-      <c r="G16" s="27">
+      <c r="D16" s="26">
+        <v>1</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="F16" s="25">
+        <v>1</v>
+      </c>
+      <c r="G16" s="25">
+        <v>1</v>
+      </c>
+      <c r="H16" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="I16" s="39">
         <v>0</v>
       </c>
-      <c r="H16" s="29">
+      <c r="J16" s="26">
         <v>0</v>
       </c>
-      <c r="I16" s="29">
-        <v>2</v>
-      </c>
-      <c r="J16" s="29">
-        <v>2</v>
-      </c>
-      <c r="K16" s="29"/>
-      <c r="L16" s="44" t="s">
-        <v>173</v>
-      </c>
-      <c r="M16" s="47"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="44">
+      <c r="K16" s="26">
+        <v>2</v>
+      </c>
+      <c r="L16" s="26">
+        <v>2</v>
+      </c>
+      <c r="M16" s="26"/>
+      <c r="N16" s="40" t="s">
+        <v>175</v>
+      </c>
+      <c r="O16" s="42"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="40">
         <v>20</v>
       </c>
-      <c r="P16" s="38"/>
-    </row>
-    <row r="17" ht="44" customHeight="1" spans="1:16">
+      <c r="R16" s="45"/>
+    </row>
+    <row r="17" ht="44" customHeight="1" spans="1:18">
       <c r="A17" s="24">
         <v>15</v>
       </c>
@@ -6231,77 +6176,89 @@
         <v>1</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="F17" s="26" t="s">
-        <v>174</v>
-      </c>
-      <c r="G17" s="27">
-        <v>10</v>
-      </c>
-      <c r="H17" s="25">
+        <v>163</v>
+      </c>
+      <c r="F17" s="25">
+        <v>1</v>
+      </c>
+      <c r="G17" s="25">
+        <v>1</v>
+      </c>
+      <c r="H17" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="I17" s="39">
+        <v>10</v>
+      </c>
+      <c r="J17" s="25">
         <v>0</v>
       </c>
-      <c r="I17" s="25">
-        <v>2</v>
-      </c>
-      <c r="J17" s="25">
-        <v>2</v>
-      </c>
-      <c r="K17" s="25"/>
-      <c r="L17" s="44" t="s">
-        <v>175</v>
-      </c>
-      <c r="M17" s="45"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="46">
-        <v>2</v>
-      </c>
-      <c r="P17" s="38"/>
-    </row>
-    <row r="18" ht="44" customHeight="1" spans="1:16">
+      <c r="K17" s="25">
+        <v>2</v>
+      </c>
+      <c r="L17" s="25">
+        <v>2</v>
+      </c>
+      <c r="M17" s="25"/>
+      <c r="N17" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="O17" s="41"/>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="48">
+        <v>2</v>
+      </c>
+      <c r="R17" s="45"/>
+    </row>
+    <row r="18" ht="44" customHeight="1" spans="1:18">
       <c r="A18" s="28">
         <v>16</v>
       </c>
-      <c r="B18" s="29">
-        <v>10</v>
-      </c>
-      <c r="C18" s="29">
+      <c r="B18" s="26">
+        <v>10</v>
+      </c>
+      <c r="C18" s="26">
         <v>16</v>
       </c>
-      <c r="D18" s="29">
-        <v>1</v>
-      </c>
-      <c r="E18" s="29" t="s">
-        <v>154</v>
-      </c>
-      <c r="F18" s="30" t="s">
-        <v>155</v>
-      </c>
-      <c r="G18" s="27">
+      <c r="D18" s="26">
+        <v>1</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="F18" s="25">
+        <v>1</v>
+      </c>
+      <c r="G18" s="25">
+        <v>1</v>
+      </c>
+      <c r="H18" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="I18" s="39">
         <v>0</v>
       </c>
-      <c r="H18" s="29">
+      <c r="J18" s="26">
         <v>0</v>
       </c>
-      <c r="I18" s="29">
-        <v>2</v>
-      </c>
-      <c r="J18" s="29">
-        <v>2</v>
-      </c>
-      <c r="K18" s="29"/>
-      <c r="L18" s="44" t="s">
-        <v>176</v>
-      </c>
-      <c r="M18" s="47"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="44">
+      <c r="K18" s="26">
+        <v>2</v>
+      </c>
+      <c r="L18" s="26">
+        <v>2</v>
+      </c>
+      <c r="M18" s="26"/>
+      <c r="N18" s="40" t="s">
+        <v>178</v>
+      </c>
+      <c r="O18" s="42"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="40">
         <v>12</v>
       </c>
-      <c r="P18" s="38"/>
-    </row>
-    <row r="19" ht="44" customHeight="1" spans="1:16">
+      <c r="R18" s="45"/>
+    </row>
+    <row r="19" ht="44" customHeight="1" spans="1:18">
       <c r="A19" s="24">
         <v>17</v>
       </c>
@@ -6315,77 +6272,89 @@
         <v>1</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>154</v>
-      </c>
-      <c r="F19" s="26" t="s">
-        <v>155</v>
-      </c>
-      <c r="G19" s="27">
+        <v>156</v>
+      </c>
+      <c r="F19" s="25">
+        <v>1</v>
+      </c>
+      <c r="G19" s="25">
+        <v>1</v>
+      </c>
+      <c r="H19" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="I19" s="39">
         <v>0</v>
       </c>
-      <c r="H19" s="25">
+      <c r="J19" s="25">
         <v>0</v>
       </c>
-      <c r="I19" s="25">
-        <v>2</v>
-      </c>
-      <c r="J19" s="25">
-        <v>2</v>
-      </c>
-      <c r="K19" s="25"/>
-      <c r="L19" s="44" t="s">
-        <v>177</v>
-      </c>
-      <c r="M19" s="45"/>
-      <c r="N19" s="28"/>
-      <c r="O19" s="46">
+      <c r="K19" s="25">
+        <v>2</v>
+      </c>
+      <c r="L19" s="25">
+        <v>2</v>
+      </c>
+      <c r="M19" s="25"/>
+      <c r="N19" s="40" t="s">
+        <v>179</v>
+      </c>
+      <c r="O19" s="41"/>
+      <c r="P19" s="28"/>
+      <c r="Q19" s="48">
         <v>3</v>
       </c>
-      <c r="P19" s="38"/>
-    </row>
-    <row r="20" ht="44" customHeight="1" spans="1:16">
+      <c r="R19" s="45"/>
+    </row>
+    <row r="20" ht="44" customHeight="1" spans="1:18">
       <c r="A20" s="28">
         <v>18</v>
       </c>
-      <c r="B20" s="29">
-        <v>10</v>
-      </c>
-      <c r="C20" s="29">
+      <c r="B20" s="26">
+        <v>10</v>
+      </c>
+      <c r="C20" s="26">
         <v>18</v>
       </c>
-      <c r="D20" s="29">
-        <v>1</v>
-      </c>
-      <c r="E20" s="29" t="s">
-        <v>154</v>
-      </c>
-      <c r="F20" s="30" t="s">
-        <v>178</v>
-      </c>
-      <c r="G20" s="27">
+      <c r="D20" s="26">
+        <v>1</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="F20" s="25">
+        <v>1</v>
+      </c>
+      <c r="G20" s="25">
+        <v>1</v>
+      </c>
+      <c r="H20" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="I20" s="39">
+        <v>10</v>
+      </c>
+      <c r="J20" s="26">
         <v>0</v>
       </c>
-      <c r="H20" s="29">
-        <v>0</v>
-      </c>
-      <c r="I20" s="29">
-        <v>2</v>
-      </c>
-      <c r="J20" s="29">
-        <v>2</v>
-      </c>
-      <c r="K20" s="29"/>
-      <c r="L20" s="44" t="s">
-        <v>179</v>
-      </c>
-      <c r="M20" s="47"/>
-      <c r="N20" s="24"/>
-      <c r="O20" s="44">
+      <c r="K20" s="26">
+        <v>2</v>
+      </c>
+      <c r="L20" s="26">
+        <v>2</v>
+      </c>
+      <c r="M20" s="26"/>
+      <c r="N20" s="40" t="s">
+        <v>181</v>
+      </c>
+      <c r="O20" s="42"/>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="40">
         <v>20</v>
       </c>
-      <c r="P20" s="38"/>
-    </row>
-    <row r="21" ht="44" customHeight="1" spans="1:16">
+      <c r="R20" s="45"/>
+    </row>
+    <row r="21" ht="44" customHeight="1" spans="1:18">
       <c r="A21" s="24">
         <v>19</v>
       </c>
@@ -6399,77 +6368,89 @@
         <v>1</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>154</v>
-      </c>
-      <c r="F21" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="G21" s="27">
+        <v>156</v>
+      </c>
+      <c r="F21" s="25">
+        <v>1</v>
+      </c>
+      <c r="G21" s="25">
+        <v>1</v>
+      </c>
+      <c r="H21" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="I21" s="39">
+        <v>10</v>
+      </c>
+      <c r="J21" s="25">
         <v>0</v>
       </c>
-      <c r="H21" s="25">
-        <v>0</v>
-      </c>
-      <c r="I21" s="25">
-        <v>2</v>
-      </c>
-      <c r="J21" s="25">
-        <v>2</v>
-      </c>
-      <c r="K21" s="25"/>
-      <c r="L21" s="44" t="s">
-        <v>181</v>
-      </c>
-      <c r="M21" s="45"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="46">
+      <c r="K21" s="25">
+        <v>2</v>
+      </c>
+      <c r="L21" s="25">
+        <v>2</v>
+      </c>
+      <c r="M21" s="25"/>
+      <c r="N21" s="40" t="s">
+        <v>183</v>
+      </c>
+      <c r="O21" s="41"/>
+      <c r="P21" s="28"/>
+      <c r="Q21" s="48">
         <v>20</v>
       </c>
-      <c r="P21" s="38"/>
-    </row>
-    <row r="22" ht="44" customHeight="1" spans="1:16">
+      <c r="R21" s="45"/>
+    </row>
+    <row r="22" ht="44" customHeight="1" spans="1:18">
       <c r="A22" s="28">
         <v>20</v>
       </c>
-      <c r="B22" s="29">
-        <v>10</v>
-      </c>
-      <c r="C22" s="29">
+      <c r="B22" s="26">
+        <v>10</v>
+      </c>
+      <c r="C22" s="26">
         <v>20</v>
       </c>
-      <c r="D22" s="29">
-        <v>1</v>
-      </c>
-      <c r="E22" s="29" t="s">
-        <v>161</v>
-      </c>
-      <c r="F22" s="30" t="s">
-        <v>155</v>
-      </c>
-      <c r="G22" s="27">
+      <c r="D22" s="26">
+        <v>1</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="F22" s="25">
+        <v>1</v>
+      </c>
+      <c r="G22" s="25">
+        <v>1</v>
+      </c>
+      <c r="H22" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="I22" s="39">
         <v>0</v>
       </c>
-      <c r="H22" s="29">
+      <c r="J22" s="26">
         <v>0</v>
       </c>
-      <c r="I22" s="29">
-        <v>2</v>
-      </c>
-      <c r="J22" s="29">
-        <v>2</v>
-      </c>
-      <c r="K22" s="29"/>
-      <c r="L22" s="44" t="s">
-        <v>182</v>
-      </c>
-      <c r="M22" s="47"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="44">
+      <c r="K22" s="26">
+        <v>2</v>
+      </c>
+      <c r="L22" s="26">
+        <v>2</v>
+      </c>
+      <c r="M22" s="26"/>
+      <c r="N22" s="40" t="s">
+        <v>184</v>
+      </c>
+      <c r="O22" s="42"/>
+      <c r="P22" s="24"/>
+      <c r="Q22" s="40">
         <v>20</v>
       </c>
-      <c r="P22" s="38"/>
-    </row>
-    <row r="23" ht="44" customHeight="1" spans="1:16">
+      <c r="R22" s="45"/>
+    </row>
+    <row r="23" ht="44" customHeight="1" spans="1:18">
       <c r="A23" s="24">
         <v>21</v>
       </c>
@@ -6483,77 +6464,89 @@
         <v>1</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>154</v>
-      </c>
-      <c r="F23" s="26" t="s">
-        <v>155</v>
-      </c>
-      <c r="G23" s="31">
+        <v>156</v>
+      </c>
+      <c r="F23" s="25">
+        <v>1</v>
+      </c>
+      <c r="G23" s="25">
+        <v>1</v>
+      </c>
+      <c r="H23" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="I23" s="43">
         <v>0</v>
       </c>
-      <c r="H23" s="25">
+      <c r="J23" s="25">
         <v>0</v>
       </c>
-      <c r="I23" s="25">
-        <v>2</v>
-      </c>
-      <c r="J23" s="25">
-        <v>2</v>
-      </c>
-      <c r="K23" s="25"/>
-      <c r="L23" s="44" t="s">
-        <v>183</v>
-      </c>
-      <c r="M23" s="47"/>
-      <c r="N23" s="28"/>
-      <c r="O23" s="46">
+      <c r="K23" s="25">
+        <v>2</v>
+      </c>
+      <c r="L23" s="25">
+        <v>2</v>
+      </c>
+      <c r="M23" s="25"/>
+      <c r="N23" s="40" t="s">
+        <v>185</v>
+      </c>
+      <c r="O23" s="42"/>
+      <c r="P23" s="28"/>
+      <c r="Q23" s="48">
         <v>20</v>
       </c>
-      <c r="P23" s="38"/>
-    </row>
-    <row r="24" ht="44" customHeight="1" spans="1:16">
+      <c r="R23" s="45"/>
+    </row>
+    <row r="24" ht="44" customHeight="1" spans="1:18">
       <c r="A24" s="28">
         <v>22</v>
       </c>
-      <c r="B24" s="29">
-        <v>10</v>
-      </c>
-      <c r="C24" s="29">
+      <c r="B24" s="26">
+        <v>10</v>
+      </c>
+      <c r="C24" s="26">
         <v>22</v>
       </c>
-      <c r="D24" s="29">
-        <v>1</v>
-      </c>
-      <c r="E24" s="29" t="s">
-        <v>154</v>
-      </c>
-      <c r="F24" s="30" t="s">
-        <v>155</v>
-      </c>
-      <c r="G24" s="31">
+      <c r="D24" s="26">
+        <v>1</v>
+      </c>
+      <c r="E24" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="F24" s="25">
+        <v>1</v>
+      </c>
+      <c r="G24" s="25">
+        <v>1</v>
+      </c>
+      <c r="H24" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="I24" s="43">
         <v>0</v>
       </c>
-      <c r="H24" s="29">
+      <c r="J24" s="26">
         <v>0</v>
       </c>
-      <c r="I24" s="29">
-        <v>2</v>
-      </c>
-      <c r="J24" s="29">
-        <v>2</v>
-      </c>
-      <c r="K24" s="29"/>
-      <c r="L24" s="44" t="s">
-        <v>184</v>
-      </c>
-      <c r="M24" s="47"/>
-      <c r="N24" s="24"/>
-      <c r="O24" s="44">
+      <c r="K24" s="26">
+        <v>2</v>
+      </c>
+      <c r="L24" s="26">
+        <v>2</v>
+      </c>
+      <c r="M24" s="26"/>
+      <c r="N24" s="40" t="s">
+        <v>186</v>
+      </c>
+      <c r="O24" s="42"/>
+      <c r="P24" s="24"/>
+      <c r="Q24" s="40">
         <v>20</v>
       </c>
-      <c r="P24" s="38"/>
-    </row>
-    <row r="25" ht="44" customHeight="1" spans="1:16">
+      <c r="R24" s="45"/>
+    </row>
+    <row r="25" ht="44" customHeight="1" spans="1:18">
       <c r="A25" s="24">
         <v>23</v>
       </c>
@@ -6567,124 +6560,142 @@
         <v>1</v>
       </c>
       <c r="E25" s="25" t="s">
-        <v>154</v>
-      </c>
-      <c r="F25" s="26" t="s">
-        <v>155</v>
-      </c>
-      <c r="G25" s="31">
+        <v>156</v>
+      </c>
+      <c r="F25" s="25">
+        <v>1</v>
+      </c>
+      <c r="G25" s="25">
+        <v>1</v>
+      </c>
+      <c r="H25" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="I25" s="43">
         <v>0</v>
       </c>
-      <c r="H25" s="25">
+      <c r="J25" s="25">
         <v>0</v>
       </c>
-      <c r="I25" s="25">
-        <v>2</v>
-      </c>
-      <c r="J25" s="25">
-        <v>2</v>
-      </c>
-      <c r="K25" s="25"/>
-      <c r="L25" s="44" t="s">
-        <v>185</v>
-      </c>
-      <c r="M25" s="47"/>
-      <c r="N25" s="28"/>
-      <c r="O25" s="46">
+      <c r="K25" s="25">
+        <v>2</v>
+      </c>
+      <c r="L25" s="25">
+        <v>2</v>
+      </c>
+      <c r="M25" s="25"/>
+      <c r="N25" s="40" t="s">
+        <v>187</v>
+      </c>
+      <c r="O25" s="42"/>
+      <c r="P25" s="28"/>
+      <c r="Q25" s="48">
         <v>20</v>
       </c>
-      <c r="P25" s="38"/>
-    </row>
-    <row r="26" ht="44" customHeight="1" spans="1:16">
+      <c r="R25" s="45"/>
+    </row>
+    <row r="26" ht="44" customHeight="1" spans="1:18">
       <c r="A26" s="28">
         <v>24</v>
       </c>
-      <c r="B26" s="29">
-        <v>10</v>
-      </c>
-      <c r="C26" s="29">
+      <c r="B26" s="26">
+        <v>10</v>
+      </c>
+      <c r="C26" s="26">
         <v>24</v>
       </c>
-      <c r="D26" s="29">
-        <v>1</v>
-      </c>
-      <c r="E26" s="29" t="s">
-        <v>154</v>
-      </c>
-      <c r="F26" s="30" t="s">
-        <v>186</v>
-      </c>
-      <c r="G26" s="27">
-        <v>10</v>
-      </c>
-      <c r="H26" s="29">
+      <c r="D26" s="26">
+        <v>1</v>
+      </c>
+      <c r="E26" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="F26" s="25">
+        <v>1</v>
+      </c>
+      <c r="G26" s="25">
+        <v>1</v>
+      </c>
+      <c r="H26" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="I26" s="39">
+        <v>10</v>
+      </c>
+      <c r="J26" s="26">
         <v>0</v>
       </c>
-      <c r="I26" s="29">
-        <v>2</v>
-      </c>
-      <c r="J26" s="29">
-        <v>2</v>
-      </c>
-      <c r="K26" s="29"/>
-      <c r="L26" s="44" t="s">
-        <v>187</v>
-      </c>
-      <c r="M26" s="47"/>
-      <c r="N26" s="24"/>
-      <c r="O26" s="44">
+      <c r="K26" s="26">
+        <v>2</v>
+      </c>
+      <c r="L26" s="26">
+        <v>2</v>
+      </c>
+      <c r="M26" s="26"/>
+      <c r="N26" s="40" t="s">
+        <v>189</v>
+      </c>
+      <c r="O26" s="42"/>
+      <c r="P26" s="24"/>
+      <c r="Q26" s="40">
         <v>20</v>
       </c>
-      <c r="P26" s="38"/>
-    </row>
-    <row r="27" ht="44" customHeight="1" spans="1:16">
-      <c r="A27" s="32">
+      <c r="R26" s="45"/>
+    </row>
+    <row r="27" ht="44" customHeight="1" spans="1:18">
+      <c r="A27" s="30">
         <v>25</v>
       </c>
-      <c r="B27" s="33">
-        <v>10</v>
-      </c>
-      <c r="C27" s="33">
+      <c r="B27" s="31">
+        <v>10</v>
+      </c>
+      <c r="C27" s="31">
         <v>25</v>
       </c>
-      <c r="D27" s="33">
-        <v>1</v>
-      </c>
-      <c r="E27" s="33" t="s">
-        <v>188</v>
-      </c>
-      <c r="F27" s="34" t="s">
-        <v>189</v>
-      </c>
-      <c r="G27" s="27">
-        <v>10</v>
-      </c>
-      <c r="H27" s="33">
+      <c r="D27" s="31">
+        <v>1</v>
+      </c>
+      <c r="E27" s="31" t="s">
+        <v>190</v>
+      </c>
+      <c r="F27" s="25">
+        <v>1</v>
+      </c>
+      <c r="G27" s="25">
+        <v>1</v>
+      </c>
+      <c r="H27" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="I27" s="39">
+        <v>10</v>
+      </c>
+      <c r="J27" s="31">
         <v>0</v>
       </c>
-      <c r="I27" s="33">
-        <v>2</v>
-      </c>
-      <c r="J27" s="33">
-        <v>2</v>
-      </c>
-      <c r="K27" s="33"/>
-      <c r="L27" s="44" t="s">
-        <v>190</v>
-      </c>
-      <c r="M27" s="47"/>
-      <c r="N27" s="48"/>
-      <c r="O27" s="49">
+      <c r="K27" s="31">
+        <v>2</v>
+      </c>
+      <c r="L27" s="31">
+        <v>2</v>
+      </c>
+      <c r="M27" s="31"/>
+      <c r="N27" s="40" t="s">
+        <v>192</v>
+      </c>
+      <c r="O27" s="42"/>
+      <c r="P27" s="44"/>
+      <c r="Q27" s="49">
         <v>20</v>
       </c>
-      <c r="P27" s="38"/>
+      <c r="R27" s="45"/>
     </row>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="C1:C27" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <mergeCells count="1">
-    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
   </mergeCells>
   <conditionalFormatting sqref="B$1:B$1048576">
     <cfRule type="colorScale" priority="13">
@@ -6742,13 +6753,13 @@
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>68</v>
@@ -6763,24 +6774,24 @@
         <v>71</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I1" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="K1" s="4" t="s">
-        <v>74</v>
-      </c>
       <c r="L1" s="15" t="s">
-        <v>75</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" ht="39" customHeight="1" spans="1:12">
       <c r="A2" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>19</v>
@@ -6789,31 +6800,31 @@
         <v>47</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>19</v>
       </c>
       <c r="F2" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>80</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>81</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>145</v>
       </c>
       <c r="I2" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="K2" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="L2" s="16" t="s">
         <v>83</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="L2" s="16" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="3" ht="39" customHeight="1" spans="1:12">
@@ -6839,19 +6850,19 @@
         <v>160</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="I3" s="11">
         <v>10</v>
       </c>
       <c r="J3" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="L3" s="17" t="s">
         <v>86</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="L3" s="17" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="4" ht="39" customHeight="1" spans="1:12">
@@ -6877,19 +6888,19 @@
         <v>160</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="I4" s="14">
         <v>10</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K4" s="14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L4" s="18" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" ht="39" customHeight="1" spans="1:12">
@@ -6915,19 +6926,19 @@
         <v>160</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="I5" s="11">
         <v>10</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>91</v>
+        <v>203</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>92</v>
+        <v>204</v>
       </c>
       <c r="L5" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/excels/config/difficulty_config.xlsx
+++ b/excels/config/difficulty_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22185" windowHeight="10155" tabRatio="804" activeTab="2"/>
+    <workbookView windowWidth="27945" windowHeight="12345" tabRatio="804" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="chapter_info" sheetId="7" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="211">
   <si>
     <t>编号</t>
   </si>
@@ -257,6 +257,12 @@
     <t>上限单位</t>
   </si>
   <si>
+    <t>普通boss血量阶段</t>
+  </si>
+  <si>
+    <t>尾王boss血量阶段</t>
+  </si>
+  <si>
     <t>难度血量公式(基于本身怪物成长公式之后)</t>
   </si>
   <si>
@@ -284,6 +290,12 @@
     <t>unit_limit</t>
   </si>
   <si>
+    <t>pt_boss</t>
+  </si>
+  <si>
+    <t>ww_boss</t>
+  </si>
+  <si>
     <t>hp_equation</t>
   </si>
   <si>
@@ -293,6 +305,9 @@
     <t>armor_equation</t>
   </si>
   <si>
+    <t>75|50|25</t>
+  </si>
+  <si>
     <t>1+hp*0.6</t>
   </si>
   <si>
@@ -320,12 +335,18 @@
     <t>(attack+10)*1.1</t>
   </si>
   <si>
+    <t>25|null</t>
+  </si>
+  <si>
     <t>(hp+20)*1.4</t>
   </si>
   <si>
     <t>(attack+10)*1.2</t>
   </si>
   <si>
+    <t>null|null</t>
+  </si>
+  <si>
     <t>(hp+30)*1.6</t>
   </si>
   <si>
@@ -507,9 +528,6 @@
   </si>
   <si>
     <t>monster_count_list[{]</t>
-  </si>
-  <si>
-    <t>null|null</t>
   </si>
   <si>
     <t>null</t>
@@ -2182,7 +2200,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{8019C5D0-7F17-404E-A181-35EBE24F14F4}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{AABB18BC-7202-4FA9-9901-AD6C912AD885}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
@@ -3113,12 +3131,12 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L59"/>
+  <dimension ref="A1:N59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="C4" sqref="C4"/>
+      <selection pane="topRight" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3129,13 +3147,13 @@
     <col min="6" max="6" width="15.8666666666667" customWidth="1"/>
     <col min="7" max="7" width="21.675" customWidth="1"/>
     <col min="8" max="8" width="14.8416666666667" customWidth="1"/>
-    <col min="9" max="9" width="15.625" customWidth="1"/>
-    <col min="10" max="10" width="21.9583333333333" customWidth="1"/>
-    <col min="11" max="11" width="21.7416666666667" customWidth="1"/>
-    <col min="12" max="12" width="19.35" customWidth="1"/>
+    <col min="9" max="11" width="15.625" customWidth="1"/>
+    <col min="12" max="12" width="21.9583333333333" customWidth="1"/>
+    <col min="13" max="13" width="21.7416666666667" customWidth="1"/>
+    <col min="14" max="14" width="19.35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="39" customHeight="1" spans="1:12">
+    <row r="1" ht="39" customHeight="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>64</v>
       </c>
@@ -3169,49 +3187,61 @@
       <c r="K1" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="4" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="2" ht="39" customHeight="1" spans="1:12">
+      <c r="M1" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" ht="39" customHeight="1" spans="1:14">
       <c r="A2" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>47</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="L2" s="16" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" ht="39" customHeight="1" spans="1:12">
+        <v>84</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="N2" s="16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" ht="39" customHeight="1" spans="1:14">
       <c r="A3" s="9">
         <v>101</v>
       </c>
@@ -3240,16 +3270,22 @@
         <v>160</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="L3" s="17" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" ht="39" customHeight="1" spans="1:12">
+        <v>88</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="N3" s="17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" ht="39" customHeight="1" spans="1:14">
       <c r="A4" s="9">
         <v>102</v>
       </c>
@@ -3277,17 +3313,23 @@
       <c r="I4" s="14">
         <v>160</v>
       </c>
-      <c r="J4" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="K4" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="L4" s="18" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" ht="39" customHeight="1" spans="1:12">
+      <c r="J4" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="M4" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="N4" s="18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" ht="39" customHeight="1" spans="1:14">
       <c r="A5" s="9">
         <v>103</v>
       </c>
@@ -3316,16 +3358,22 @@
         <v>160</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="L5" s="17" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" ht="39" customHeight="1" spans="1:12">
+        <v>88</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="M5" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="N5" s="17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" ht="39" customHeight="1" spans="1:14">
       <c r="A6" s="9">
         <v>104</v>
       </c>
@@ -3353,17 +3401,23 @@
       <c r="I6" s="14">
         <v>160</v>
       </c>
-      <c r="J6" s="14" t="s">
+      <c r="J6" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="M6" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="N6" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="K6" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="L6" s="18" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7" ht="39" customHeight="1" spans="1:12">
+    </row>
+    <row r="7" ht="39" customHeight="1" spans="1:14">
       <c r="A7" s="9">
         <v>105</v>
       </c>
@@ -3392,16 +3446,22 @@
         <v>160</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="L7" s="17" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" ht="39" customHeight="1" spans="1:12">
+        <v>88</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="N7" s="17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" ht="39" customHeight="1" spans="1:14">
       <c r="A8" s="9">
         <v>106</v>
       </c>
@@ -3430,16 +3490,22 @@
         <v>160</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="L8" s="17" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" ht="39" customHeight="1" spans="1:12">
+        <v>88</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="M8" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="N8" s="17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" ht="39" customHeight="1" spans="1:14">
       <c r="A9" s="9">
         <v>107</v>
       </c>
@@ -3468,16 +3534,22 @@
         <v>160</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="L9" s="17" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" ht="39" customHeight="1" spans="1:12">
+        <v>88</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="M9" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="N9" s="17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" ht="39" customHeight="1" spans="1:14">
       <c r="A10" s="9">
         <v>108</v>
       </c>
@@ -3506,16 +3578,22 @@
         <v>160</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="L10" s="17" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" ht="39" customHeight="1" spans="1:12">
+        <v>88</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="N10" s="17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" ht="39" customHeight="1" spans="1:14">
       <c r="A11" s="9">
         <v>109</v>
       </c>
@@ -3544,16 +3622,22 @@
         <v>160</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="L11" s="17" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12" ht="39" customHeight="1" spans="1:12">
+        <v>88</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="N11" s="17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" ht="39" customHeight="1" spans="1:14">
       <c r="A12" s="9">
         <v>110</v>
       </c>
@@ -3582,16 +3666,22 @@
         <v>160</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="K12" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="L12" s="17" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="13" ht="39" customHeight="1" spans="1:12">
+        <v>88</v>
+      </c>
+      <c r="L12" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="M12" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="N12" s="17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" ht="39" customHeight="1" spans="1:14">
       <c r="A13" s="9">
         <v>111</v>
       </c>
@@ -3620,16 +3710,22 @@
         <v>160</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="L13" s="17" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14" ht="39" customHeight="1" spans="1:12">
+        <v>88</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="M13" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="N13" s="17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" ht="39" customHeight="1" spans="1:14">
       <c r="A14" s="9">
         <v>112</v>
       </c>
@@ -3658,16 +3754,22 @@
         <v>160</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="K14" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="L14" s="17" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="15" ht="39" customHeight="1" spans="1:12">
+        <v>88</v>
+      </c>
+      <c r="L14" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="M14" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="N14" s="17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" ht="39" customHeight="1" spans="1:14">
       <c r="A15" s="9">
         <v>113</v>
       </c>
@@ -3696,16 +3798,22 @@
         <v>160</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="L15" s="17" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="16" ht="39" customHeight="1" spans="1:12">
+        <v>88</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="M15" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="N15" s="17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" ht="39" customHeight="1" spans="1:14">
       <c r="A16" s="9">
         <v>114</v>
       </c>
@@ -3734,16 +3842,22 @@
         <v>160</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="K16" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="L16" s="17" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="17" ht="39" customHeight="1" spans="1:12">
+        <v>88</v>
+      </c>
+      <c r="L16" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="M16" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="N16" s="17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" ht="39" customHeight="1" spans="1:14">
       <c r="A17" s="9">
         <v>115</v>
       </c>
@@ -3772,16 +3886,22 @@
         <v>160</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="K17" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="L17" s="17" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="18" ht="39" customHeight="1" spans="1:12">
+        <v>88</v>
+      </c>
+      <c r="L17" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="M17" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="N17" s="17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" ht="39" customHeight="1" spans="1:14">
       <c r="A18" s="9">
         <v>116</v>
       </c>
@@ -3810,16 +3930,22 @@
         <v>160</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="K18" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="L18" s="17" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="19" ht="39" customHeight="1" spans="1:12">
+        <v>88</v>
+      </c>
+      <c r="L18" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="M18" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="N18" s="17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" ht="39" customHeight="1" spans="1:14">
       <c r="A19" s="9">
         <v>117</v>
       </c>
@@ -3848,16 +3974,22 @@
         <v>160</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="K19" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="L19" s="17" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="20" ht="39" customHeight="1" spans="1:12">
+        <v>88</v>
+      </c>
+      <c r="L19" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="M19" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="N19" s="17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" ht="39" customHeight="1" spans="1:14">
       <c r="A20" s="9">
         <v>118</v>
       </c>
@@ -3886,16 +4018,22 @@
         <v>160</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="K20" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="L20" s="17" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="21" ht="39" customHeight="1" spans="1:12">
+        <v>88</v>
+      </c>
+      <c r="L20" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="M20" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="N20" s="17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" ht="39" customHeight="1" spans="1:14">
       <c r="A21" s="9">
         <v>119</v>
       </c>
@@ -3924,16 +4062,22 @@
         <v>160</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="K21" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="L21" s="17" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="22" ht="39" customHeight="1" spans="1:12">
+        <v>88</v>
+      </c>
+      <c r="L21" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="M21" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="N21" s="17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" ht="39" customHeight="1" spans="1:14">
       <c r="A22" s="9">
         <v>120</v>
       </c>
@@ -3962,16 +4106,22 @@
         <v>160</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="K22" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="L22" s="17" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="23" ht="39" customHeight="1" spans="1:12">
+        <v>88</v>
+      </c>
+      <c r="L22" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="M22" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="N22" s="17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" ht="39" customHeight="1" spans="1:14">
       <c r="A23" s="9">
         <v>121</v>
       </c>
@@ -4000,16 +4150,22 @@
         <v>160</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="K23" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="L23" s="17" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="24" ht="39" customHeight="1" spans="1:12">
+        <v>88</v>
+      </c>
+      <c r="L23" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="M23" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="N23" s="17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" ht="39" customHeight="1" spans="1:14">
       <c r="A24" s="9">
         <v>122</v>
       </c>
@@ -4038,16 +4194,22 @@
         <v>160</v>
       </c>
       <c r="J24" s="11" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="K24" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="L24" s="17" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="25" ht="39" customHeight="1" spans="1:12">
+        <v>88</v>
+      </c>
+      <c r="L24" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="M24" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="N24" s="17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" ht="39" customHeight="1" spans="1:14">
       <c r="A25" s="9">
         <v>123</v>
       </c>
@@ -4076,16 +4238,22 @@
         <v>160</v>
       </c>
       <c r="J25" s="11" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="K25" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="L25" s="17" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="26" ht="39" customHeight="1" spans="1:12">
+        <v>88</v>
+      </c>
+      <c r="L25" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="M25" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="N25" s="17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" ht="39" customHeight="1" spans="1:14">
       <c r="A26" s="9">
         <v>124</v>
       </c>
@@ -4114,16 +4282,22 @@
         <v>160</v>
       </c>
       <c r="J26" s="11" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="K26" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="L26" s="17" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="27" ht="39" customHeight="1" spans="1:12">
+        <v>88</v>
+      </c>
+      <c r="L26" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="M26" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="N26" s="17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" ht="39" customHeight="1" spans="1:14">
       <c r="A27" s="9">
         <v>125</v>
       </c>
@@ -4152,16 +4326,22 @@
         <v>160</v>
       </c>
       <c r="J27" s="11" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="K27" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="L27" s="17" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="28" ht="39" customHeight="1" spans="1:12">
+        <v>88</v>
+      </c>
+      <c r="L27" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="M27" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="N27" s="17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" ht="39" customHeight="1" spans="1:14">
       <c r="A28" s="9">
         <v>126</v>
       </c>
@@ -4190,16 +4370,22 @@
         <v>160</v>
       </c>
       <c r="J28" s="11" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="K28" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="L28" s="17" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="29" ht="39" customHeight="1" spans="1:12">
+        <v>88</v>
+      </c>
+      <c r="L28" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="M28" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="N28" s="17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" ht="39" customHeight="1" spans="1:14">
       <c r="A29" s="9">
         <v>127</v>
       </c>
@@ -4228,16 +4414,22 @@
         <v>160</v>
       </c>
       <c r="J29" s="11" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="K29" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="L29" s="17" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="30" ht="39" customHeight="1" spans="1:12">
+        <v>88</v>
+      </c>
+      <c r="L29" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="M29" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="N29" s="17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" ht="39" customHeight="1" spans="1:14">
       <c r="A30" s="9">
         <v>128</v>
       </c>
@@ -4266,16 +4458,22 @@
         <v>160</v>
       </c>
       <c r="J30" s="11" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="K30" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="L30" s="17" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="31" ht="39" customHeight="1" spans="1:12">
+        <v>88</v>
+      </c>
+      <c r="L30" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="M30" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="N30" s="17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" ht="39" customHeight="1" spans="1:14">
       <c r="A31" s="9">
         <v>129</v>
       </c>
@@ -4304,16 +4502,22 @@
         <v>160</v>
       </c>
       <c r="J31" s="11" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="K31" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="L31" s="17" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="32" ht="39" customHeight="1" spans="1:12">
+        <v>88</v>
+      </c>
+      <c r="L31" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="M31" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="N31" s="17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" ht="39" customHeight="1" spans="1:14">
       <c r="A32" s="9">
         <v>130</v>
       </c>
@@ -4342,16 +4546,22 @@
         <v>160</v>
       </c>
       <c r="J32" s="11" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="K32" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="L32" s="17" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="33" ht="39" customHeight="1" spans="1:12">
+        <v>88</v>
+      </c>
+      <c r="L32" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="M32" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="N32" s="17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" ht="39" customHeight="1" spans="1:14">
       <c r="A33" s="9">
         <v>131</v>
       </c>
@@ -4380,16 +4590,22 @@
         <v>160</v>
       </c>
       <c r="J33" s="11" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="K33" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="L33" s="17" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="34" ht="39" customHeight="1" spans="1:12">
+        <v>88</v>
+      </c>
+      <c r="L33" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="M33" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="N33" s="17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" ht="39" customHeight="1" spans="1:14">
       <c r="A34" s="9">
         <v>132</v>
       </c>
@@ -4418,16 +4634,22 @@
         <v>160</v>
       </c>
       <c r="J34" s="11" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="K34" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="L34" s="17" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="35" ht="39" customHeight="1" spans="1:12">
+        <v>88</v>
+      </c>
+      <c r="L34" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="M34" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="N34" s="17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" ht="39" customHeight="1" spans="1:14">
       <c r="A35" s="9">
         <v>133</v>
       </c>
@@ -4456,16 +4678,22 @@
         <v>160</v>
       </c>
       <c r="J35" s="11" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="K35" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="L35" s="17" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="36" ht="39" customHeight="1" spans="1:12">
+        <v>88</v>
+      </c>
+      <c r="L35" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="M35" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="N35" s="17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36" ht="39" customHeight="1" spans="1:14">
       <c r="A36" s="9">
         <v>134</v>
       </c>
@@ -4494,16 +4722,22 @@
         <v>160</v>
       </c>
       <c r="J36" s="11" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="K36" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="L36" s="17" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="37" ht="39" customHeight="1" spans="1:12">
+        <v>88</v>
+      </c>
+      <c r="L36" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="M36" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="N36" s="17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" ht="39" customHeight="1" spans="1:14">
       <c r="A37" s="9">
         <v>135</v>
       </c>
@@ -4532,16 +4766,22 @@
         <v>160</v>
       </c>
       <c r="J37" s="11" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="K37" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="L37" s="17" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="38" ht="39" customHeight="1" spans="1:12">
+        <v>88</v>
+      </c>
+      <c r="L37" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="M37" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="N37" s="17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" ht="39" customHeight="1" spans="1:14">
       <c r="A38" s="9">
         <v>136</v>
       </c>
@@ -4570,16 +4810,22 @@
         <v>160</v>
       </c>
       <c r="J38" s="11" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="K38" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="L38" s="17" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="39" ht="39" customHeight="1" spans="1:12">
+        <v>88</v>
+      </c>
+      <c r="L38" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="M38" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="N38" s="17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39" ht="39" customHeight="1" spans="1:14">
       <c r="A39" s="12">
         <v>201</v>
       </c>
@@ -4607,17 +4853,23 @@
       <c r="I39" s="14">
         <v>160</v>
       </c>
-      <c r="J39" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="K39" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="L39" s="18" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="40" ht="39" customHeight="1" spans="1:12">
+      <c r="J39" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="K39" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="L39" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="M39" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="N39" s="18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40" ht="39" customHeight="1" spans="1:14">
       <c r="A40" s="9">
         <v>202</v>
       </c>
@@ -4646,16 +4898,22 @@
         <v>160</v>
       </c>
       <c r="J40" s="11" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="K40" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="L40" s="17" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="41" ht="39" customHeight="1" spans="1:12">
+        <v>88</v>
+      </c>
+      <c r="L40" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="M40" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="N40" s="17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="41" ht="39" customHeight="1" spans="1:14">
       <c r="A41" s="12">
         <v>203</v>
       </c>
@@ -4683,17 +4941,23 @@
       <c r="I41" s="14">
         <v>160</v>
       </c>
-      <c r="J41" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="K41" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="L41" s="18" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="42" ht="39" customHeight="1" spans="1:12">
+      <c r="J41" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="K41" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="L41" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="M41" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="N41" s="18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42" ht="39" customHeight="1" spans="1:14">
       <c r="A42" s="9">
         <v>204</v>
       </c>
@@ -4722,16 +4986,22 @@
         <v>160</v>
       </c>
       <c r="J42" s="11" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="K42" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="L42" s="17" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="43" customFormat="1" ht="39" customHeight="1" spans="1:12">
+        <v>88</v>
+      </c>
+      <c r="L42" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="M42" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="N42" s="17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="43" customFormat="1" ht="39" customHeight="1" spans="1:14">
       <c r="A43" s="12">
         <v>205</v>
       </c>
@@ -4759,17 +5029,23 @@
       <c r="I43" s="14">
         <v>160</v>
       </c>
-      <c r="J43" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="K43" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="L43" s="18" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="44" s="50" customFormat="1" ht="39" customHeight="1" spans="1:12">
+      <c r="J43" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="K43" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="L43" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="M43" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="N43" s="18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="44" s="50" customFormat="1" ht="39" customHeight="1" spans="1:14">
       <c r="A44" s="9">
         <v>301</v>
       </c>
@@ -4798,16 +5074,22 @@
         <v>160</v>
       </c>
       <c r="J44" s="11" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="K44" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="L44" s="17" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="45" s="50" customFormat="1" ht="39" customHeight="1" spans="1:12">
+        <v>88</v>
+      </c>
+      <c r="L44" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="M44" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="N44" s="17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" s="50" customFormat="1" ht="39" customHeight="1" spans="1:14">
       <c r="A45" s="12">
         <v>302</v>
       </c>
@@ -4835,17 +5117,23 @@
       <c r="I45" s="14">
         <v>160</v>
       </c>
-      <c r="J45" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="K45" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="L45" s="18" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="46" s="50" customFormat="1" ht="39" customHeight="1" spans="1:12">
+      <c r="J45" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="K45" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="L45" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="M45" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="N45" s="18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="46" s="50" customFormat="1" ht="39" customHeight="1" spans="1:14">
       <c r="A46" s="9">
         <v>303</v>
       </c>
@@ -4874,16 +5162,22 @@
         <v>160</v>
       </c>
       <c r="J46" s="11" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="K46" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="L46" s="17" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="47" s="50" customFormat="1" ht="39" customHeight="1" spans="1:12">
+        <v>88</v>
+      </c>
+      <c r="L46" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="M46" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N46" s="17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" s="50" customFormat="1" ht="39" customHeight="1" spans="1:14">
       <c r="A47" s="12">
         <v>304</v>
       </c>
@@ -4911,17 +5205,23 @@
       <c r="I47" s="14">
         <v>160</v>
       </c>
-      <c r="J47" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="K47" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="L47" s="18" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="48" s="50" customFormat="1" ht="39" customHeight="1" spans="1:12">
+      <c r="J47" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="K47" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="L47" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="M47" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="N47" s="18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="48" s="50" customFormat="1" ht="39" customHeight="1" spans="1:14">
       <c r="A48" s="9">
         <v>305</v>
       </c>
@@ -4950,16 +5250,22 @@
         <v>160</v>
       </c>
       <c r="J48" s="11" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="K48" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="L48" s="17" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="49" s="50" customFormat="1" ht="39" customHeight="1" spans="1:12">
+        <v>88</v>
+      </c>
+      <c r="L48" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="M48" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="N48" s="17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="49" s="50" customFormat="1" ht="39" customHeight="1" spans="1:14">
       <c r="A49" s="12">
         <v>401</v>
       </c>
@@ -4987,17 +5293,23 @@
       <c r="I49" s="14">
         <v>160</v>
       </c>
-      <c r="J49" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="K49" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="L49" s="18" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="50" s="50" customFormat="1" ht="39" customHeight="1" spans="1:12">
+      <c r="J49" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="K49" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="L49" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="M49" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="N49" s="18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="50" s="50" customFormat="1" ht="39" customHeight="1" spans="1:14">
       <c r="A50" s="9">
         <v>402</v>
       </c>
@@ -5026,16 +5338,22 @@
         <v>160</v>
       </c>
       <c r="J50" s="11" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="K50" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="L50" s="17" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="51" s="50" customFormat="1" ht="39" customHeight="1" spans="1:12">
+        <v>88</v>
+      </c>
+      <c r="L50" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="M50" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="N50" s="17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="51" s="50" customFormat="1" ht="39" customHeight="1" spans="1:14">
       <c r="A51" s="12">
         <v>403</v>
       </c>
@@ -5063,17 +5381,23 @@
       <c r="I51" s="14">
         <v>160</v>
       </c>
-      <c r="J51" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="K51" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="L51" s="18" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="52" s="50" customFormat="1" ht="39" customHeight="1" spans="1:12">
+      <c r="J51" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="K51" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="L51" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="M51" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="N51" s="18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="52" s="50" customFormat="1" ht="39" customHeight="1" spans="1:14">
       <c r="A52" s="9">
         <v>404</v>
       </c>
@@ -5102,16 +5426,22 @@
         <v>160</v>
       </c>
       <c r="J52" s="11" t="s">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="K52" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="L52" s="17" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="53" s="50" customFormat="1" ht="39" customHeight="1" spans="1:12">
+        <v>88</v>
+      </c>
+      <c r="L52" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="M52" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="N52" s="17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="53" s="50" customFormat="1" ht="39" customHeight="1" spans="1:14">
       <c r="A53" s="12">
         <v>405</v>
       </c>
@@ -5139,17 +5469,23 @@
       <c r="I53" s="14">
         <v>160</v>
       </c>
-      <c r="J53" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="K53" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="L53" s="18" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="54" s="50" customFormat="1" ht="39" customHeight="1" spans="1:12">
+      <c r="J53" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="K53" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="L53" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="M53" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="N53" s="18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="54" s="50" customFormat="1" ht="39" customHeight="1" spans="1:14">
       <c r="A54" s="9">
         <v>501</v>
       </c>
@@ -5178,16 +5514,22 @@
         <v>160</v>
       </c>
       <c r="J54" s="11" t="s">
-        <v>125</v>
+        <v>88</v>
       </c>
       <c r="K54" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="L54" s="17" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="55" s="50" customFormat="1" ht="39" customHeight="1" spans="1:12">
+        <v>88</v>
+      </c>
+      <c r="L54" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="M54" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="N54" s="17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="55" s="50" customFormat="1" ht="39" customHeight="1" spans="1:14">
       <c r="A55" s="12">
         <v>502</v>
       </c>
@@ -5215,17 +5557,23 @@
       <c r="I55" s="14">
         <v>160</v>
       </c>
-      <c r="J55" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="K55" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="L55" s="18" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="56" s="50" customFormat="1" ht="39" customHeight="1" spans="1:12">
+      <c r="J55" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="K55" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="L55" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="M55" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="N55" s="18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="56" s="50" customFormat="1" ht="39" customHeight="1" spans="1:14">
       <c r="A56" s="9">
         <v>503</v>
       </c>
@@ -5254,16 +5602,22 @@
         <v>160</v>
       </c>
       <c r="J56" s="11" t="s">
-        <v>125</v>
+        <v>88</v>
       </c>
       <c r="K56" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="L56" s="17" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="57" s="50" customFormat="1" ht="39" customHeight="1" spans="1:12">
+        <v>88</v>
+      </c>
+      <c r="L56" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="M56" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="N56" s="17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="57" s="50" customFormat="1" ht="39" customHeight="1" spans="1:14">
       <c r="A57" s="12">
         <v>504</v>
       </c>
@@ -5291,17 +5645,23 @@
       <c r="I57" s="14">
         <v>160</v>
       </c>
-      <c r="J57" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="K57" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="L57" s="18" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="58" s="50" customFormat="1" ht="39" customHeight="1" spans="1:12">
+      <c r="J57" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="K57" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="L57" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="M57" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="N57" s="18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="58" s="50" customFormat="1" ht="39" customHeight="1" spans="1:14">
       <c r="A58" s="55">
         <v>505</v>
       </c>
@@ -5329,14 +5689,20 @@
       <c r="I58" s="57">
         <v>160</v>
       </c>
-      <c r="J58" s="57" t="s">
-        <v>127</v>
-      </c>
-      <c r="K58" s="57" t="s">
-        <v>128</v>
-      </c>
-      <c r="L58" s="58" t="s">
-        <v>86</v>
+      <c r="J58" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="K58" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="L58" s="57" t="s">
+        <v>134</v>
+      </c>
+      <c r="M58" s="57" t="s">
+        <v>135</v>
+      </c>
+      <c r="N58" s="58" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="59" ht="14.25"/>
@@ -5391,103 +5757,103 @@
         <v>64</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="K1" s="21" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="L1" s="21" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="M1" s="21" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="N1" s="33"/>
       <c r="O1" s="34"/>
       <c r="P1" s="35" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="Q1" s="35"/>
       <c r="R1" s="45"/>
     </row>
     <row r="2" ht="43" customHeight="1" spans="1:18">
       <c r="A2" s="22" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="H2" s="23" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="I2" s="23" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="J2" s="23" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="K2" s="23" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="L2" s="23" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="M2" s="23" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="N2" s="36">
         <v>1</v>
       </c>
       <c r="O2" s="37" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="P2" s="38" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="Q2" s="46">
         <v>1</v>
       </c>
       <c r="R2" s="47" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" ht="44" customHeight="1" spans="1:18">
@@ -5504,7 +5870,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>156</v>
+        <v>101</v>
       </c>
       <c r="F3" s="25">
         <v>1</v>
@@ -5513,7 +5879,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="I3" s="39">
         <v>0</v>
@@ -5529,7 +5895,7 @@
       </c>
       <c r="M3" s="25"/>
       <c r="N3" s="40" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="O3" s="41"/>
       <c r="P3" s="28"/>
@@ -5552,7 +5918,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>156</v>
+        <v>101</v>
       </c>
       <c r="F4" s="25">
         <v>1</v>
@@ -5561,7 +5927,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="29" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="I4" s="39">
         <v>0</v>
@@ -5577,7 +5943,7 @@
       </c>
       <c r="M4" s="26"/>
       <c r="N4" s="40" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="O4" s="42"/>
       <c r="P4" s="24"/>
@@ -5600,7 +5966,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>156</v>
+        <v>101</v>
       </c>
       <c r="F5" s="25">
         <v>1</v>
@@ -5609,7 +5975,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="I5" s="39">
         <v>5</v>
@@ -5625,7 +5991,7 @@
       </c>
       <c r="M5" s="25"/>
       <c r="N5" s="40" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="O5" s="41"/>
       <c r="P5" s="28"/>
@@ -5648,7 +6014,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>156</v>
+        <v>101</v>
       </c>
       <c r="F6" s="25">
         <v>1</v>
@@ -5657,7 +6023,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="29" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="I6" s="39">
         <v>0</v>
@@ -5673,7 +6039,7 @@
       </c>
       <c r="M6" s="26"/>
       <c r="N6" s="40" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="O6" s="42"/>
       <c r="P6" s="24"/>
@@ -5696,16 +6062,16 @@
         <v>1</v>
       </c>
       <c r="E7" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="F7" s="25">
+        <v>1</v>
+      </c>
+      <c r="G7" s="25">
+        <v>1</v>
+      </c>
+      <c r="H7" s="27" t="s">
         <v>163</v>
-      </c>
-      <c r="F7" s="25">
-        <v>1</v>
-      </c>
-      <c r="G7" s="25">
-        <v>1</v>
-      </c>
-      <c r="H7" s="27" t="s">
-        <v>157</v>
       </c>
       <c r="I7" s="39">
         <v>0</v>
@@ -5721,7 +6087,7 @@
       </c>
       <c r="M7" s="25"/>
       <c r="N7" s="40" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="O7" s="41"/>
       <c r="P7" s="28"/>
@@ -5744,7 +6110,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>156</v>
+        <v>101</v>
       </c>
       <c r="F8" s="25">
         <v>1</v>
@@ -5753,7 +6119,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="29" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="I8" s="39">
         <v>0</v>
@@ -5769,7 +6135,7 @@
       </c>
       <c r="M8" s="26"/>
       <c r="N8" s="40" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="O8" s="42"/>
       <c r="P8" s="24"/>
@@ -5792,7 +6158,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>156</v>
+        <v>101</v>
       </c>
       <c r="F9" s="25">
         <v>1</v>
@@ -5801,7 +6167,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="27" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="I9" s="39">
         <v>0</v>
@@ -5817,7 +6183,7 @@
       </c>
       <c r="M9" s="25"/>
       <c r="N9" s="40" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="O9" s="41"/>
       <c r="P9" s="28"/>
@@ -5840,7 +6206,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>156</v>
+        <v>101</v>
       </c>
       <c r="F10" s="25">
         <v>1</v>
@@ -5849,7 +6215,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="29" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="I10" s="39">
         <v>5</v>
@@ -5865,7 +6231,7 @@
       </c>
       <c r="M10" s="26"/>
       <c r="N10" s="40" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="O10" s="42"/>
       <c r="P10" s="24"/>
@@ -5888,7 +6254,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>156</v>
+        <v>101</v>
       </c>
       <c r="F11" s="25">
         <v>1</v>
@@ -5897,7 +6263,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="27" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="I11" s="39">
         <v>0</v>
@@ -5913,7 +6279,7 @@
       </c>
       <c r="M11" s="25"/>
       <c r="N11" s="40" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="O11" s="41"/>
       <c r="P11" s="28"/>
@@ -5936,16 +6302,16 @@
         <v>1</v>
       </c>
       <c r="E12" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="F12" s="25">
+        <v>1</v>
+      </c>
+      <c r="G12" s="25">
+        <v>1</v>
+      </c>
+      <c r="H12" s="29" t="s">
         <v>163</v>
-      </c>
-      <c r="F12" s="25">
-        <v>1</v>
-      </c>
-      <c r="G12" s="25">
-        <v>1</v>
-      </c>
-      <c r="H12" s="29" t="s">
-        <v>157</v>
       </c>
       <c r="I12" s="39">
         <v>0</v>
@@ -5961,7 +6327,7 @@
       </c>
       <c r="M12" s="26"/>
       <c r="N12" s="40" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="O12" s="42"/>
       <c r="P12" s="24"/>
@@ -5984,7 +6350,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>156</v>
+        <v>101</v>
       </c>
       <c r="F13" s="25">
         <v>1</v>
@@ -5993,7 +6359,7 @@
         <v>1</v>
       </c>
       <c r="H13" s="27" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="I13" s="39">
         <v>0</v>
@@ -6009,7 +6375,7 @@
       </c>
       <c r="M13" s="25"/>
       <c r="N13" s="40" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="O13" s="41"/>
       <c r="P13" s="28"/>
@@ -6032,7 +6398,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>156</v>
+        <v>101</v>
       </c>
       <c r="F14" s="25">
         <v>1</v>
@@ -6041,7 +6407,7 @@
         <v>1</v>
       </c>
       <c r="H14" s="29" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="I14" s="39">
         <v>5</v>
@@ -6057,7 +6423,7 @@
       </c>
       <c r="M14" s="26"/>
       <c r="N14" s="40" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="O14" s="42"/>
       <c r="P14" s="24"/>
@@ -6080,7 +6446,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>156</v>
+        <v>101</v>
       </c>
       <c r="F15" s="25">
         <v>1</v>
@@ -6089,7 +6455,7 @@
         <v>1</v>
       </c>
       <c r="H15" s="27" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="I15" s="39">
         <v>0</v>
@@ -6105,7 +6471,7 @@
       </c>
       <c r="M15" s="25"/>
       <c r="N15" s="40" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="O15" s="41"/>
       <c r="P15" s="28"/>
@@ -6128,7 +6494,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>156</v>
+        <v>101</v>
       </c>
       <c r="F16" s="25">
         <v>1</v>
@@ -6137,7 +6503,7 @@
         <v>1</v>
       </c>
       <c r="H16" s="29" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="I16" s="39">
         <v>0</v>
@@ -6153,7 +6519,7 @@
       </c>
       <c r="M16" s="26"/>
       <c r="N16" s="40" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="O16" s="42"/>
       <c r="P16" s="24"/>
@@ -6176,7 +6542,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="F17" s="25">
         <v>1</v>
@@ -6185,7 +6551,7 @@
         <v>1</v>
       </c>
       <c r="H17" s="27" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="I17" s="39">
         <v>10</v>
@@ -6201,7 +6567,7 @@
       </c>
       <c r="M17" s="25"/>
       <c r="N17" s="40" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="O17" s="41"/>
       <c r="P17" s="28"/>
@@ -6224,7 +6590,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>156</v>
+        <v>101</v>
       </c>
       <c r="F18" s="25">
         <v>1</v>
@@ -6233,7 +6599,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="29" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="I18" s="39">
         <v>0</v>
@@ -6249,7 +6615,7 @@
       </c>
       <c r="M18" s="26"/>
       <c r="N18" s="40" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="O18" s="42"/>
       <c r="P18" s="24"/>
@@ -6272,7 +6638,7 @@
         <v>1</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>156</v>
+        <v>101</v>
       </c>
       <c r="F19" s="25">
         <v>1</v>
@@ -6281,7 +6647,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="27" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="I19" s="39">
         <v>0</v>
@@ -6297,7 +6663,7 @@
       </c>
       <c r="M19" s="25"/>
       <c r="N19" s="40" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="O19" s="41"/>
       <c r="P19" s="28"/>
@@ -6320,7 +6686,7 @@
         <v>1</v>
       </c>
       <c r="E20" s="26" t="s">
-        <v>156</v>
+        <v>101</v>
       </c>
       <c r="F20" s="25">
         <v>1</v>
@@ -6329,7 +6695,7 @@
         <v>1</v>
       </c>
       <c r="H20" s="29" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="I20" s="39">
         <v>10</v>
@@ -6345,7 +6711,7 @@
       </c>
       <c r="M20" s="26"/>
       <c r="N20" s="40" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="O20" s="42"/>
       <c r="P20" s="24"/>
@@ -6368,7 +6734,7 @@
         <v>1</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>156</v>
+        <v>101</v>
       </c>
       <c r="F21" s="25">
         <v>1</v>
@@ -6377,7 +6743,7 @@
         <v>1</v>
       </c>
       <c r="H21" s="27" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="I21" s="39">
         <v>10</v>
@@ -6393,7 +6759,7 @@
       </c>
       <c r="M21" s="25"/>
       <c r="N21" s="40" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="O21" s="41"/>
       <c r="P21" s="28"/>
@@ -6416,16 +6782,16 @@
         <v>1</v>
       </c>
       <c r="E22" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="F22" s="25">
+        <v>1</v>
+      </c>
+      <c r="G22" s="25">
+        <v>1</v>
+      </c>
+      <c r="H22" s="29" t="s">
         <v>163</v>
-      </c>
-      <c r="F22" s="25">
-        <v>1</v>
-      </c>
-      <c r="G22" s="25">
-        <v>1</v>
-      </c>
-      <c r="H22" s="29" t="s">
-        <v>157</v>
       </c>
       <c r="I22" s="39">
         <v>0</v>
@@ -6441,7 +6807,7 @@
       </c>
       <c r="M22" s="26"/>
       <c r="N22" s="40" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="O22" s="42"/>
       <c r="P22" s="24"/>
@@ -6464,7 +6830,7 @@
         <v>1</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>156</v>
+        <v>101</v>
       </c>
       <c r="F23" s="25">
         <v>1</v>
@@ -6473,7 +6839,7 @@
         <v>1</v>
       </c>
       <c r="H23" s="27" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="I23" s="43">
         <v>0</v>
@@ -6489,7 +6855,7 @@
       </c>
       <c r="M23" s="25"/>
       <c r="N23" s="40" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="O23" s="42"/>
       <c r="P23" s="28"/>
@@ -6512,7 +6878,7 @@
         <v>1</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>156</v>
+        <v>101</v>
       </c>
       <c r="F24" s="25">
         <v>1</v>
@@ -6521,7 +6887,7 @@
         <v>1</v>
       </c>
       <c r="H24" s="29" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="I24" s="43">
         <v>0</v>
@@ -6537,7 +6903,7 @@
       </c>
       <c r="M24" s="26"/>
       <c r="N24" s="40" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="O24" s="42"/>
       <c r="P24" s="24"/>
@@ -6560,7 +6926,7 @@
         <v>1</v>
       </c>
       <c r="E25" s="25" t="s">
-        <v>156</v>
+        <v>101</v>
       </c>
       <c r="F25" s="25">
         <v>1</v>
@@ -6569,7 +6935,7 @@
         <v>1</v>
       </c>
       <c r="H25" s="27" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="I25" s="43">
         <v>0</v>
@@ -6585,7 +6951,7 @@
       </c>
       <c r="M25" s="25"/>
       <c r="N25" s="40" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="O25" s="42"/>
       <c r="P25" s="28"/>
@@ -6608,7 +6974,7 @@
         <v>1</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>156</v>
+        <v>101</v>
       </c>
       <c r="F26" s="25">
         <v>1</v>
@@ -6617,7 +6983,7 @@
         <v>1</v>
       </c>
       <c r="H26" s="29" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="I26" s="39">
         <v>10</v>
@@ -6633,7 +6999,7 @@
       </c>
       <c r="M26" s="26"/>
       <c r="N26" s="40" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="O26" s="42"/>
       <c r="P26" s="24"/>
@@ -6656,7 +7022,7 @@
         <v>1</v>
       </c>
       <c r="E27" s="31" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="F27" s="25">
         <v>1</v>
@@ -6665,7 +7031,7 @@
         <v>1</v>
       </c>
       <c r="H27" s="32" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="I27" s="39">
         <v>10</v>
@@ -6681,7 +7047,7 @@
       </c>
       <c r="M27" s="31"/>
       <c r="N27" s="40" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="O27" s="42"/>
       <c r="P27" s="44"/>
@@ -6753,13 +7119,13 @@
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>68</v>
@@ -6774,24 +7140,24 @@
         <v>71</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" ht="39" customHeight="1" spans="1:12">
       <c r="A2" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>19</v>
@@ -6800,31 +7166,31 @@
         <v>47</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>19</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="L2" s="16" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" ht="39" customHeight="1" spans="1:12">
@@ -6850,19 +7216,19 @@
         <v>160</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="I3" s="11">
         <v>10</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="L3" s="17" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" ht="39" customHeight="1" spans="1:12">
@@ -6888,19 +7254,19 @@
         <v>160</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="I4" s="14">
         <v>10</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="K4" s="14" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="L4" s="18" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" ht="39" customHeight="1" spans="1:12">
@@ -6926,19 +7292,19 @@
         <v>160</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="I5" s="11">
         <v>10</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="L5" s="17" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/excels/config/difficulty_config.xlsx
+++ b/excels/config/difficulty_config.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="212">
   <si>
     <t>编号</t>
   </si>
@@ -335,7 +335,7 @@
     <t>(attack+10)*1.1</t>
   </si>
   <si>
-    <t>25|null</t>
+    <t>25|0</t>
   </si>
   <si>
     <t>(hp+20)*1.4</t>
@@ -344,190 +344,193 @@
     <t>(attack+10)*1.2</t>
   </si>
   <si>
+    <t>0|0</t>
+  </si>
+  <si>
+    <t>(hp+30)*1.6</t>
+  </si>
+  <si>
+    <t>(attack+20)*1.2</t>
+  </si>
+  <si>
+    <t>(hp+40)*1.8</t>
+  </si>
+  <si>
+    <t>(attack+20)*1.3</t>
+  </si>
+  <si>
+    <t>(hp+50)*2</t>
+  </si>
+  <si>
+    <t>(attack+20)*1.4</t>
+  </si>
+  <si>
+    <t>(hp+60)*2.3</t>
+  </si>
+  <si>
+    <t>(attack+30)*1.5</t>
+  </si>
+  <si>
+    <t>(hp+100)*3</t>
+  </si>
+  <si>
+    <t>(attack+30)*1.7</t>
+  </si>
+  <si>
+    <t>500+hp*4.5</t>
+  </si>
+  <si>
+    <t>(attack+40)*1.6</t>
+  </si>
+  <si>
+    <t>700+hp*6</t>
+  </si>
+  <si>
+    <t>(attack+40)*1.8</t>
+  </si>
+  <si>
+    <t>1000+hp*7.5</t>
+  </si>
+  <si>
+    <t>(attack+40)*2</t>
+  </si>
+  <si>
+    <t>1400+hp*9.5</t>
+  </si>
+  <si>
+    <t>(attack+40)*2.2</t>
+  </si>
+  <si>
+    <t>2000+hp*12</t>
+  </si>
+  <si>
+    <t>(attack+40)*3</t>
+  </si>
+  <si>
+    <t>(444+hp)*15</t>
+  </si>
+  <si>
+    <t>(attack+40)*3.2</t>
+  </si>
+  <si>
+    <t>(444+hp)*18</t>
+  </si>
+  <si>
+    <t>(attack+40)*3.5</t>
+  </si>
+  <si>
+    <t>(444+hp)*21</t>
+  </si>
+  <si>
+    <t>(attack+40)*3.8</t>
+  </si>
+  <si>
+    <t>(444+hp)*24</t>
+  </si>
+  <si>
+    <t>(attack+40)*4.1</t>
+  </si>
+  <si>
+    <t>(444+hp)*27</t>
+  </si>
+  <si>
+    <t>(attack+40)*5</t>
+  </si>
+  <si>
+    <t>(555+hp)*35</t>
+  </si>
+  <si>
+    <t>(attack+40)*6</t>
+  </si>
+  <si>
+    <t>(555+hp)*100</t>
+  </si>
+  <si>
+    <t>(attack+40)*8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">每回合怪物分类 </t>
+  </si>
+  <si>
+    <t>波数</t>
+  </si>
+  <si>
+    <t>怪物类型 1普通刷怪模式</t>
+  </si>
+  <si>
+    <t>boss名字</t>
+  </si>
+  <si>
+    <t>boss血量倍率</t>
+  </si>
+  <si>
+    <t>boss伤害倍率</t>
+  </si>
+  <si>
+    <t>精英怪名字</t>
+  </si>
+  <si>
+    <t>精英怪数量</t>
+  </si>
+  <si>
+    <t>时长增加</t>
+  </si>
+  <si>
+    <t>刷怪周期（秒）</t>
+  </si>
+  <si>
+    <t>间隔周期（秒）</t>
+  </si>
+  <si>
+    <t>怪物数组(此数组只会随机一组怪物出现)</t>
+  </si>
+  <si>
+    <t>怪物数量</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>round_index</t>
+  </si>
+  <si>
+    <t>monster_type</t>
+  </si>
+  <si>
+    <t>boss_name</t>
+  </si>
+  <si>
+    <t>boss_hp_power</t>
+  </si>
+  <si>
+    <t>boss_attack_power</t>
+  </si>
+  <si>
+    <t>elite_name</t>
+  </si>
+  <si>
+    <t>elite_count</t>
+  </si>
+  <si>
+    <t>monster_time_add</t>
+  </si>
+  <si>
+    <t>t_time</t>
+  </si>
+  <si>
+    <t>interval_time</t>
+  </si>
+  <si>
+    <t>monster_list[{]</t>
+  </si>
+  <si>
+    <t>[}]</t>
+  </si>
+  <si>
+    <t>monster_count_list[{]</t>
+  </si>
+  <si>
     <t>null|null</t>
-  </si>
-  <si>
-    <t>(hp+30)*1.6</t>
-  </si>
-  <si>
-    <t>(attack+20)*1.2</t>
-  </si>
-  <si>
-    <t>(hp+40)*1.8</t>
-  </si>
-  <si>
-    <t>(attack+20)*1.3</t>
-  </si>
-  <si>
-    <t>(hp+50)*2</t>
-  </si>
-  <si>
-    <t>(attack+20)*1.4</t>
-  </si>
-  <si>
-    <t>(hp+60)*2.3</t>
-  </si>
-  <si>
-    <t>(attack+30)*1.5</t>
-  </si>
-  <si>
-    <t>(hp+100)*3</t>
-  </si>
-  <si>
-    <t>(attack+30)*1.7</t>
-  </si>
-  <si>
-    <t>500+hp*4.5</t>
-  </si>
-  <si>
-    <t>(attack+40)*1.6</t>
-  </si>
-  <si>
-    <t>700+hp*6</t>
-  </si>
-  <si>
-    <t>(attack+40)*1.8</t>
-  </si>
-  <si>
-    <t>1000+hp*7.5</t>
-  </si>
-  <si>
-    <t>(attack+40)*2</t>
-  </si>
-  <si>
-    <t>1400+hp*9.5</t>
-  </si>
-  <si>
-    <t>(attack+40)*2.2</t>
-  </si>
-  <si>
-    <t>2000+hp*12</t>
-  </si>
-  <si>
-    <t>(attack+40)*3</t>
-  </si>
-  <si>
-    <t>(444+hp)*15</t>
-  </si>
-  <si>
-    <t>(attack+40)*3.2</t>
-  </si>
-  <si>
-    <t>(444+hp)*18</t>
-  </si>
-  <si>
-    <t>(attack+40)*3.5</t>
-  </si>
-  <si>
-    <t>(444+hp)*21</t>
-  </si>
-  <si>
-    <t>(attack+40)*3.8</t>
-  </si>
-  <si>
-    <t>(444+hp)*24</t>
-  </si>
-  <si>
-    <t>(attack+40)*4.1</t>
-  </si>
-  <si>
-    <t>(444+hp)*27</t>
-  </si>
-  <si>
-    <t>(attack+40)*5</t>
-  </si>
-  <si>
-    <t>(555+hp)*35</t>
-  </si>
-  <si>
-    <t>(attack+40)*6</t>
-  </si>
-  <si>
-    <t>(555+hp)*100</t>
-  </si>
-  <si>
-    <t>(attack+40)*8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">每回合怪物分类 </t>
-  </si>
-  <si>
-    <t>波数</t>
-  </si>
-  <si>
-    <t>怪物类型 1普通刷怪模式</t>
-  </si>
-  <si>
-    <t>boss名字</t>
-  </si>
-  <si>
-    <t>boss血量倍率</t>
-  </si>
-  <si>
-    <t>boss伤害倍率</t>
-  </si>
-  <si>
-    <t>精英怪名字</t>
-  </si>
-  <si>
-    <t>精英怪数量</t>
-  </si>
-  <si>
-    <t>时长增加</t>
-  </si>
-  <si>
-    <t>刷怪周期（秒）</t>
-  </si>
-  <si>
-    <t>间隔周期（秒）</t>
-  </si>
-  <si>
-    <t>怪物数组(此数组只会随机一组怪物出现)</t>
-  </si>
-  <si>
-    <t>怪物数量</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
-    <t>round_index</t>
-  </si>
-  <si>
-    <t>monster_type</t>
-  </si>
-  <si>
-    <t>boss_name</t>
-  </si>
-  <si>
-    <t>boss_hp_power</t>
-  </si>
-  <si>
-    <t>boss_attack_power</t>
-  </si>
-  <si>
-    <t>elite_name</t>
-  </si>
-  <si>
-    <t>elite_count</t>
-  </si>
-  <si>
-    <t>monster_time_add</t>
-  </si>
-  <si>
-    <t>t_time</t>
-  </si>
-  <si>
-    <t>interval_time</t>
-  </si>
-  <si>
-    <t>monster_list[{]</t>
-  </si>
-  <si>
-    <t>[}]</t>
-  </si>
-  <si>
-    <t>monster_count_list[{]</t>
   </si>
   <si>
     <t>null</t>
@@ -2200,7 +2203,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{AABB18BC-7202-4FA9-9901-AD6C912AD885}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{DBD38C39-B324-4816-A2D6-FFCE42A95F5E}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
@@ -3136,7 +3139,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="G7" sqref="G7"/>
+      <selection pane="topRight" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5870,7 +5873,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>101</v>
+        <v>163</v>
       </c>
       <c r="F3" s="25">
         <v>1</v>
@@ -5879,7 +5882,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I3" s="39">
         <v>0</v>
@@ -5895,7 +5898,7 @@
       </c>
       <c r="M3" s="25"/>
       <c r="N3" s="40" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O3" s="41"/>
       <c r="P3" s="28"/>
@@ -5918,7 +5921,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>101</v>
+        <v>163</v>
       </c>
       <c r="F4" s="25">
         <v>1</v>
@@ -5927,7 +5930,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="29" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I4" s="39">
         <v>0</v>
@@ -5943,7 +5946,7 @@
       </c>
       <c r="M4" s="26"/>
       <c r="N4" s="40" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O4" s="42"/>
       <c r="P4" s="24"/>
@@ -5966,7 +5969,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>101</v>
+        <v>163</v>
       </c>
       <c r="F5" s="25">
         <v>1</v>
@@ -5975,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I5" s="39">
         <v>5</v>
@@ -5991,7 +5994,7 @@
       </c>
       <c r="M5" s="25"/>
       <c r="N5" s="40" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O5" s="41"/>
       <c r="P5" s="28"/>
@@ -6014,7 +6017,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>101</v>
+        <v>163</v>
       </c>
       <c r="F6" s="25">
         <v>1</v>
@@ -6023,7 +6026,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="29" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I6" s="39">
         <v>0</v>
@@ -6039,7 +6042,7 @@
       </c>
       <c r="M6" s="26"/>
       <c r="N6" s="40" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O6" s="42"/>
       <c r="P6" s="24"/>
@@ -6062,7 +6065,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F7" s="25">
         <v>1</v>
@@ -6071,7 +6074,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I7" s="39">
         <v>0</v>
@@ -6087,7 +6090,7 @@
       </c>
       <c r="M7" s="25"/>
       <c r="N7" s="40" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O7" s="41"/>
       <c r="P7" s="28"/>
@@ -6110,7 +6113,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>101</v>
+        <v>163</v>
       </c>
       <c r="F8" s="25">
         <v>1</v>
@@ -6119,7 +6122,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="29" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I8" s="39">
         <v>0</v>
@@ -6135,7 +6138,7 @@
       </c>
       <c r="M8" s="26"/>
       <c r="N8" s="40" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O8" s="42"/>
       <c r="P8" s="24"/>
@@ -6158,7 +6161,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>101</v>
+        <v>163</v>
       </c>
       <c r="F9" s="25">
         <v>1</v>
@@ -6167,7 +6170,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="27" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I9" s="39">
         <v>0</v>
@@ -6183,7 +6186,7 @@
       </c>
       <c r="M9" s="25"/>
       <c r="N9" s="40" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O9" s="41"/>
       <c r="P9" s="28"/>
@@ -6206,7 +6209,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>101</v>
+        <v>163</v>
       </c>
       <c r="F10" s="25">
         <v>1</v>
@@ -6215,7 +6218,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="29" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I10" s="39">
         <v>5</v>
@@ -6231,7 +6234,7 @@
       </c>
       <c r="M10" s="26"/>
       <c r="N10" s="40" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O10" s="42"/>
       <c r="P10" s="24"/>
@@ -6254,7 +6257,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>101</v>
+        <v>163</v>
       </c>
       <c r="F11" s="25">
         <v>1</v>
@@ -6263,7 +6266,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="27" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I11" s="39">
         <v>0</v>
@@ -6279,7 +6282,7 @@
       </c>
       <c r="M11" s="25"/>
       <c r="N11" s="40" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O11" s="41"/>
       <c r="P11" s="28"/>
@@ -6302,7 +6305,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F12" s="25">
         <v>1</v>
@@ -6311,7 +6314,7 @@
         <v>1</v>
       </c>
       <c r="H12" s="29" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I12" s="39">
         <v>0</v>
@@ -6327,7 +6330,7 @@
       </c>
       <c r="M12" s="26"/>
       <c r="N12" s="40" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O12" s="42"/>
       <c r="P12" s="24"/>
@@ -6350,7 +6353,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>101</v>
+        <v>163</v>
       </c>
       <c r="F13" s="25">
         <v>1</v>
@@ -6359,7 +6362,7 @@
         <v>1</v>
       </c>
       <c r="H13" s="27" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I13" s="39">
         <v>0</v>
@@ -6375,7 +6378,7 @@
       </c>
       <c r="M13" s="25"/>
       <c r="N13" s="40" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O13" s="41"/>
       <c r="P13" s="28"/>
@@ -6398,7 +6401,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>101</v>
+        <v>163</v>
       </c>
       <c r="F14" s="25">
         <v>1</v>
@@ -6407,7 +6410,7 @@
         <v>1</v>
       </c>
       <c r="H14" s="29" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I14" s="39">
         <v>5</v>
@@ -6423,7 +6426,7 @@
       </c>
       <c r="M14" s="26"/>
       <c r="N14" s="40" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O14" s="42"/>
       <c r="P14" s="24"/>
@@ -6446,7 +6449,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>101</v>
+        <v>163</v>
       </c>
       <c r="F15" s="25">
         <v>1</v>
@@ -6455,7 +6458,7 @@
         <v>1</v>
       </c>
       <c r="H15" s="27" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I15" s="39">
         <v>0</v>
@@ -6471,7 +6474,7 @@
       </c>
       <c r="M15" s="25"/>
       <c r="N15" s="40" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O15" s="41"/>
       <c r="P15" s="28"/>
@@ -6494,7 +6497,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>101</v>
+        <v>163</v>
       </c>
       <c r="F16" s="25">
         <v>1</v>
@@ -6503,7 +6506,7 @@
         <v>1</v>
       </c>
       <c r="H16" s="29" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I16" s="39">
         <v>0</v>
@@ -6519,7 +6522,7 @@
       </c>
       <c r="M16" s="26"/>
       <c r="N16" s="40" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O16" s="42"/>
       <c r="P16" s="24"/>
@@ -6542,7 +6545,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F17" s="25">
         <v>1</v>
@@ -6551,7 +6554,7 @@
         <v>1</v>
       </c>
       <c r="H17" s="27" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I17" s="39">
         <v>10</v>
@@ -6567,7 +6570,7 @@
       </c>
       <c r="M17" s="25"/>
       <c r="N17" s="40" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O17" s="41"/>
       <c r="P17" s="28"/>
@@ -6590,7 +6593,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>101</v>
+        <v>163</v>
       </c>
       <c r="F18" s="25">
         <v>1</v>
@@ -6599,7 +6602,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="29" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I18" s="39">
         <v>0</v>
@@ -6615,7 +6618,7 @@
       </c>
       <c r="M18" s="26"/>
       <c r="N18" s="40" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O18" s="42"/>
       <c r="P18" s="24"/>
@@ -6638,7 +6641,7 @@
         <v>1</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>101</v>
+        <v>163</v>
       </c>
       <c r="F19" s="25">
         <v>1</v>
@@ -6647,7 +6650,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="27" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I19" s="39">
         <v>0</v>
@@ -6663,7 +6666,7 @@
       </c>
       <c r="M19" s="25"/>
       <c r="N19" s="40" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O19" s="41"/>
       <c r="P19" s="28"/>
@@ -6686,7 +6689,7 @@
         <v>1</v>
       </c>
       <c r="E20" s="26" t="s">
-        <v>101</v>
+        <v>163</v>
       </c>
       <c r="F20" s="25">
         <v>1</v>
@@ -6695,7 +6698,7 @@
         <v>1</v>
       </c>
       <c r="H20" s="29" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I20" s="39">
         <v>10</v>
@@ -6711,7 +6714,7 @@
       </c>
       <c r="M20" s="26"/>
       <c r="N20" s="40" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O20" s="42"/>
       <c r="P20" s="24"/>
@@ -6734,7 +6737,7 @@
         <v>1</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>101</v>
+        <v>163</v>
       </c>
       <c r="F21" s="25">
         <v>1</v>
@@ -6743,7 +6746,7 @@
         <v>1</v>
       </c>
       <c r="H21" s="27" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I21" s="39">
         <v>10</v>
@@ -6759,7 +6762,7 @@
       </c>
       <c r="M21" s="25"/>
       <c r="N21" s="40" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O21" s="41"/>
       <c r="P21" s="28"/>
@@ -6782,7 +6785,7 @@
         <v>1</v>
       </c>
       <c r="E22" s="26" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F22" s="25">
         <v>1</v>
@@ -6791,7 +6794,7 @@
         <v>1</v>
       </c>
       <c r="H22" s="29" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I22" s="39">
         <v>0</v>
@@ -6807,7 +6810,7 @@
       </c>
       <c r="M22" s="26"/>
       <c r="N22" s="40" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O22" s="42"/>
       <c r="P22" s="24"/>
@@ -6830,7 +6833,7 @@
         <v>1</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>101</v>
+        <v>163</v>
       </c>
       <c r="F23" s="25">
         <v>1</v>
@@ -6839,7 +6842,7 @@
         <v>1</v>
       </c>
       <c r="H23" s="27" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I23" s="43">
         <v>0</v>
@@ -6855,7 +6858,7 @@
       </c>
       <c r="M23" s="25"/>
       <c r="N23" s="40" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O23" s="42"/>
       <c r="P23" s="28"/>
@@ -6878,7 +6881,7 @@
         <v>1</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>101</v>
+        <v>163</v>
       </c>
       <c r="F24" s="25">
         <v>1</v>
@@ -6887,7 +6890,7 @@
         <v>1</v>
       </c>
       <c r="H24" s="29" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I24" s="43">
         <v>0</v>
@@ -6903,7 +6906,7 @@
       </c>
       <c r="M24" s="26"/>
       <c r="N24" s="40" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O24" s="42"/>
       <c r="P24" s="24"/>
@@ -6926,7 +6929,7 @@
         <v>1</v>
       </c>
       <c r="E25" s="25" t="s">
-        <v>101</v>
+        <v>163</v>
       </c>
       <c r="F25" s="25">
         <v>1</v>
@@ -6935,7 +6938,7 @@
         <v>1</v>
       </c>
       <c r="H25" s="27" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I25" s="43">
         <v>0</v>
@@ -6951,7 +6954,7 @@
       </c>
       <c r="M25" s="25"/>
       <c r="N25" s="40" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O25" s="42"/>
       <c r="P25" s="28"/>
@@ -6974,7 +6977,7 @@
         <v>1</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>101</v>
+        <v>163</v>
       </c>
       <c r="F26" s="25">
         <v>1</v>
@@ -6983,7 +6986,7 @@
         <v>1</v>
       </c>
       <c r="H26" s="29" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I26" s="39">
         <v>10</v>
@@ -6999,7 +7002,7 @@
       </c>
       <c r="M26" s="26"/>
       <c r="N26" s="40" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O26" s="42"/>
       <c r="P26" s="24"/>
@@ -7022,7 +7025,7 @@
         <v>1</v>
       </c>
       <c r="E27" s="31" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F27" s="25">
         <v>1</v>
@@ -7031,7 +7034,7 @@
         <v>1</v>
       </c>
       <c r="H27" s="32" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I27" s="39">
         <v>10</v>
@@ -7047,7 +7050,7 @@
       </c>
       <c r="M27" s="31"/>
       <c r="N27" s="40" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O27" s="42"/>
       <c r="P27" s="44"/>
@@ -7119,13 +7122,13 @@
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>68</v>
@@ -7140,10 +7143,10 @@
         <v>71</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>74</v>
@@ -7152,7 +7155,7 @@
         <v>75</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" ht="39" customHeight="1" spans="1:12">
@@ -7181,7 +7184,7 @@
         <v>152</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J2" s="8" t="s">
         <v>85</v>
@@ -7216,7 +7219,7 @@
         <v>160</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I3" s="11">
         <v>10</v>
@@ -7254,7 +7257,7 @@
         <v>160</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="I4" s="14">
         <v>10</v>
@@ -7292,16 +7295,16 @@
         <v>160</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I5" s="11">
         <v>10</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L5" s="17" t="s">
         <v>91</v>

--- a/excels/config/difficulty_config.xlsx
+++ b/excels/config/difficulty_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12345" tabRatio="804" activeTab="2"/>
+    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="804" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="chapter_info" sheetId="7" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="213">
   <si>
     <t>编号</t>
   </si>
@@ -305,46 +305,49 @@
     <t>armor_equation</t>
   </si>
   <si>
+    <t>0|0</t>
+  </si>
+  <si>
+    <t>1+hp*0.6</t>
+  </si>
+  <si>
+    <t>1+attack*0.8</t>
+  </si>
+  <si>
+    <t>armor+lv*0.5</t>
+  </si>
+  <si>
+    <t>50|0</t>
+  </si>
+  <si>
+    <t>1+hp*0.8</t>
+  </si>
+  <si>
+    <t>1+attack*1</t>
+  </si>
+  <si>
+    <t>hp</t>
+  </si>
+  <si>
+    <t>attack</t>
+  </si>
+  <si>
+    <t>75|25</t>
+  </si>
+  <si>
     <t>75|50|25</t>
   </si>
   <si>
-    <t>1+hp*0.6</t>
-  </si>
-  <si>
-    <t>1+attack*0.8</t>
-  </si>
-  <si>
-    <t>armor+lv*0.5</t>
-  </si>
-  <si>
-    <t>1+hp*0.8</t>
-  </si>
-  <si>
-    <t>1+attack*1</t>
-  </si>
-  <si>
-    <t>hp</t>
-  </si>
-  <si>
-    <t>attack</t>
-  </si>
-  <si>
     <t>(hp+20)*1.2</t>
   </si>
   <si>
     <t>(attack+10)*1.1</t>
   </si>
   <si>
-    <t>25|0</t>
-  </si>
-  <si>
     <t>(hp+20)*1.4</t>
   </si>
   <si>
     <t>(attack+10)*1.2</t>
-  </si>
-  <si>
-    <t>0|0</t>
   </si>
   <si>
     <t>(hp+30)*1.6</t>
@@ -2203,7 +2206,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{DBD38C39-B324-4816-A2D6-FFCE42A95F5E}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{808354E0-2975-4F40-AEB1-2EC958D050D2}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
@@ -3134,12 +3137,12 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N59"/>
+  <dimension ref="A1:N63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="J8" sqref="J8"/>
+      <selection pane="topRight" activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3317,16 +3320,16 @@
         <v>160</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="L4" s="14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M4" s="14" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N4" s="18" t="s">
         <v>91</v>
@@ -3361,16 +3364,16 @@
         <v>160</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N5" s="17" t="s">
         <v>91</v>
@@ -3405,16 +3408,16 @@
         <v>160</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="L6" s="14" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="M6" s="14" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="N6" s="18" t="s">
         <v>91</v>
@@ -3449,16 +3452,16 @@
         <v>160</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="N7" s="17" t="s">
         <v>91</v>
@@ -3493,16 +3496,16 @@
         <v>160</v>
       </c>
       <c r="J8" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="L8" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="K8" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="L8" s="11" t="s">
-        <v>99</v>
-      </c>
       <c r="M8" s="11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="N8" s="17" t="s">
         <v>91</v>
@@ -3537,16 +3540,16 @@
         <v>160</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M9" s="11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="N9" s="17" t="s">
         <v>91</v>
@@ -3581,16 +3584,16 @@
         <v>160</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="N10" s="17" t="s">
         <v>91</v>
@@ -3625,16 +3628,16 @@
         <v>160</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="L11" s="11" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M11" s="11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="N11" s="17" t="s">
         <v>91</v>
@@ -3669,16 +3672,16 @@
         <v>160</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="K12" s="11" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="L12" s="11" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M12" s="11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="N12" s="17" t="s">
         <v>91</v>
@@ -3713,16 +3716,16 @@
         <v>160</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="L13" s="11" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M13" s="11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="N13" s="17" t="s">
         <v>91</v>
@@ -3757,16 +3760,16 @@
         <v>160</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="K14" s="11" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="L14" s="11" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M14" s="11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="N14" s="17" t="s">
         <v>91</v>
@@ -3801,16 +3804,16 @@
         <v>160</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="L15" s="11" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M15" s="11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="N15" s="17" t="s">
         <v>91</v>
@@ -3845,16 +3848,16 @@
         <v>160</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="K16" s="11" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="L16" s="11" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M16" s="11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="N16" s="17" t="s">
         <v>91</v>
@@ -3889,16 +3892,16 @@
         <v>160</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="K17" s="11" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="L17" s="11" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M17" s="11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="N17" s="17" t="s">
         <v>91</v>
@@ -3933,16 +3936,16 @@
         <v>160</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="K18" s="11" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="L18" s="11" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M18" s="11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="N18" s="17" t="s">
         <v>91</v>
@@ -3977,16 +3980,16 @@
         <v>160</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="K19" s="11" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="L19" s="11" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M19" s="11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="N19" s="17" t="s">
         <v>91</v>
@@ -4021,16 +4024,16 @@
         <v>160</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="K20" s="11" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="L20" s="11" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M20" s="11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="N20" s="17" t="s">
         <v>91</v>
@@ -4065,16 +4068,16 @@
         <v>160</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="K21" s="11" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="L21" s="11" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M21" s="11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="N21" s="17" t="s">
         <v>91</v>
@@ -4109,16 +4112,16 @@
         <v>160</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="K22" s="11" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="L22" s="11" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M22" s="11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="N22" s="17" t="s">
         <v>91</v>
@@ -4153,16 +4156,16 @@
         <v>160</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="K23" s="11" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="L23" s="11" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M23" s="11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="N23" s="17" t="s">
         <v>91</v>
@@ -4197,16 +4200,16 @@
         <v>160</v>
       </c>
       <c r="J24" s="11" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="K24" s="11" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="L24" s="11" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M24" s="11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="N24" s="17" t="s">
         <v>91</v>
@@ -4241,16 +4244,16 @@
         <v>160</v>
       </c>
       <c r="J25" s="11" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="K25" s="11" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="L25" s="11" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M25" s="11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="N25" s="17" t="s">
         <v>91</v>
@@ -4285,16 +4288,16 @@
         <v>160</v>
       </c>
       <c r="J26" s="11" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="K26" s="11" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="L26" s="11" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M26" s="11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="N26" s="17" t="s">
         <v>91</v>
@@ -4329,16 +4332,16 @@
         <v>160</v>
       </c>
       <c r="J27" s="11" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="K27" s="11" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="L27" s="11" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M27" s="11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="N27" s="17" t="s">
         <v>91</v>
@@ -4373,16 +4376,16 @@
         <v>160</v>
       </c>
       <c r="J28" s="11" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="K28" s="11" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="L28" s="11" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M28" s="11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="N28" s="17" t="s">
         <v>91</v>
@@ -4417,16 +4420,16 @@
         <v>160</v>
       </c>
       <c r="J29" s="11" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="K29" s="11" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="L29" s="11" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M29" s="11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="N29" s="17" t="s">
         <v>91</v>
@@ -4461,16 +4464,16 @@
         <v>160</v>
       </c>
       <c r="J30" s="11" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="K30" s="11" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="L30" s="11" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M30" s="11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="N30" s="17" t="s">
         <v>91</v>
@@ -4505,16 +4508,16 @@
         <v>160</v>
       </c>
       <c r="J31" s="11" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="K31" s="11" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="L31" s="11" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M31" s="11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="N31" s="17" t="s">
         <v>91</v>
@@ -4549,16 +4552,16 @@
         <v>160</v>
       </c>
       <c r="J32" s="11" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="K32" s="11" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="L32" s="11" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M32" s="11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="N32" s="17" t="s">
         <v>91</v>
@@ -4593,16 +4596,16 @@
         <v>160</v>
       </c>
       <c r="J33" s="11" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="K33" s="11" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="L33" s="11" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M33" s="11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="N33" s="17" t="s">
         <v>91</v>
@@ -4637,16 +4640,16 @@
         <v>160</v>
       </c>
       <c r="J34" s="11" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="K34" s="11" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="L34" s="11" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M34" s="11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="N34" s="17" t="s">
         <v>91</v>
@@ -4663,7 +4666,7 @@
         <v>5</v>
       </c>
       <c r="D35" s="52">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E35" s="11" t="s">
         <v>54</v>
@@ -4681,16 +4684,16 @@
         <v>160</v>
       </c>
       <c r="J35" s="11" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="K35" s="11" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="L35" s="11" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M35" s="11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="N35" s="17" t="s">
         <v>91</v>
@@ -4707,7 +4710,7 @@
         <v>5</v>
       </c>
       <c r="D36" s="52">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E36" s="11" t="s">
         <v>54</v>
@@ -4716,7 +4719,7 @@
         <v>10</v>
       </c>
       <c r="G36" s="14">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H36" s="11">
         <v>25</v>
@@ -4725,16 +4728,16 @@
         <v>160</v>
       </c>
       <c r="J36" s="11" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="K36" s="11" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="L36" s="11" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M36" s="11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="N36" s="17" t="s">
         <v>91</v>
@@ -4751,7 +4754,7 @@
         <v>5</v>
       </c>
       <c r="D37" s="52">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E37" s="11" t="s">
         <v>54</v>
@@ -4760,7 +4763,7 @@
         <v>10</v>
       </c>
       <c r="G37" s="14">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H37" s="11">
         <v>25</v>
@@ -4769,16 +4772,16 @@
         <v>160</v>
       </c>
       <c r="J37" s="11" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="K37" s="11" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="L37" s="11" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M37" s="11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="N37" s="17" t="s">
         <v>91</v>
@@ -4795,7 +4798,7 @@
         <v>5</v>
       </c>
       <c r="D38" s="52">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E38" s="11" t="s">
         <v>54</v>
@@ -4804,7 +4807,7 @@
         <v>10</v>
       </c>
       <c r="G38" s="14">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H38" s="11">
         <v>25</v>
@@ -4813,200 +4816,200 @@
         <v>160</v>
       </c>
       <c r="J38" s="11" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="K38" s="11" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="L38" s="11" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M38" s="11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="N38" s="17" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="39" ht="39" customHeight="1" spans="1:14">
-      <c r="A39" s="12">
-        <v>201</v>
-      </c>
-      <c r="B39" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C39" s="14">
-        <v>1</v>
-      </c>
-      <c r="D39" s="14">
-        <v>1</v>
-      </c>
-      <c r="E39" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="F39" s="14">
+      <c r="A39" s="9">
+        <v>137</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="52">
+        <v>5</v>
+      </c>
+      <c r="D39" s="52">
+        <v>5</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F39" s="11">
         <v>10</v>
       </c>
       <c r="G39" s="14">
-        <v>0</v>
-      </c>
-      <c r="H39" s="14">
-        <v>20</v>
-      </c>
-      <c r="I39" s="14">
+        <v>132</v>
+      </c>
+      <c r="H39" s="11">
+        <v>25</v>
+      </c>
+      <c r="I39" s="11">
         <v>160</v>
       </c>
       <c r="J39" s="11" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="K39" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="L39" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="L39" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="M39" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="M39" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="N39" s="18" t="s">
+      <c r="N39" s="17" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="40" ht="39" customHeight="1" spans="1:14">
       <c r="A40" s="9">
-        <v>202</v>
-      </c>
-      <c r="B40" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C40" s="14">
-        <v>1</v>
-      </c>
-      <c r="D40" s="14">
-        <v>2</v>
+        <v>138</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" s="52">
+        <v>5</v>
+      </c>
+      <c r="D40" s="52">
+        <v>6</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F40" s="11">
         <v>10</v>
       </c>
-      <c r="G40" s="11">
-        <v>201</v>
+      <c r="G40" s="14">
+        <v>133</v>
       </c>
       <c r="H40" s="11">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I40" s="11">
         <v>160</v>
       </c>
       <c r="J40" s="11" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="K40" s="11" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="L40" s="11" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="M40" s="11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="N40" s="17" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="41" ht="39" customHeight="1" spans="1:14">
-      <c r="A41" s="12">
-        <v>203</v>
-      </c>
-      <c r="B41" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C41" s="14">
-        <v>1</v>
-      </c>
-      <c r="D41" s="14">
-        <v>3</v>
-      </c>
-      <c r="E41" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="F41" s="14">
+      <c r="A41" s="9">
+        <v>139</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" s="52">
+        <v>5</v>
+      </c>
+      <c r="D41" s="52">
+        <v>7</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F41" s="11">
         <v>10</v>
       </c>
       <c r="G41" s="14">
-        <v>202</v>
-      </c>
-      <c r="H41" s="14">
-        <v>20</v>
-      </c>
-      <c r="I41" s="14">
+        <v>134</v>
+      </c>
+      <c r="H41" s="11">
+        <v>25</v>
+      </c>
+      <c r="I41" s="11">
         <v>160</v>
       </c>
       <c r="J41" s="11" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="K41" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="L41" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="M41" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="N41" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="L41" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="M41" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="N41" s="17" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="42" ht="39" customHeight="1" spans="1:14">
       <c r="A42" s="9">
-        <v>204</v>
-      </c>
-      <c r="B42" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C42" s="14">
-        <v>1</v>
-      </c>
-      <c r="D42" s="14">
-        <v>4</v>
+        <v>140</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" s="52">
+        <v>5</v>
+      </c>
+      <c r="D42" s="52">
+        <v>8</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F42" s="11">
         <v>10</v>
       </c>
-      <c r="G42" s="11">
-        <v>203</v>
+      <c r="G42" s="14">
+        <v>135</v>
       </c>
       <c r="H42" s="11">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I42" s="11">
         <v>160</v>
       </c>
       <c r="J42" s="11" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="K42" s="11" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="L42" s="11" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="M42" s="11" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="N42" s="17" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="43" customFormat="1" ht="39" customHeight="1" spans="1:14">
+    <row r="43" ht="39" customHeight="1" spans="1:14">
       <c r="A43" s="12">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B43" s="14" t="s">
         <v>23</v>
@@ -5015,7 +5018,7 @@
         <v>1</v>
       </c>
       <c r="D43" s="14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E43" s="14" t="s">
         <v>56</v>
@@ -5024,7 +5027,7 @@
         <v>10</v>
       </c>
       <c r="G43" s="14">
-        <v>204</v>
+        <v>0</v>
       </c>
       <c r="H43" s="14">
         <v>20</v>
@@ -5033,42 +5036,42 @@
         <v>160</v>
       </c>
       <c r="J43" s="11" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="K43" s="11" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="L43" s="14" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="M43" s="14" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="N43" s="18" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="44" s="50" customFormat="1" ht="39" customHeight="1" spans="1:14">
+    <row r="44" ht="39" customHeight="1" spans="1:14">
       <c r="A44" s="9">
-        <v>301</v>
-      </c>
-      <c r="B44" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C44" s="11">
-        <v>1</v>
-      </c>
-      <c r="D44" s="11">
-        <v>1</v>
-      </c>
-      <c r="E44" s="53" t="s">
-        <v>58</v>
+        <v>202</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44" s="14">
+        <v>1</v>
+      </c>
+      <c r="D44" s="14">
+        <v>2</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>56</v>
       </c>
       <c r="F44" s="11">
         <v>10</v>
       </c>
       <c r="G44" s="11">
-        <v>0</v>
+        <v>201</v>
       </c>
       <c r="H44" s="11">
         <v>20</v>
@@ -5077,42 +5080,42 @@
         <v>160</v>
       </c>
       <c r="J44" s="11" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="K44" s="11" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="L44" s="11" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="M44" s="11" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="N44" s="17" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="45" s="50" customFormat="1" ht="39" customHeight="1" spans="1:14">
+    <row r="45" ht="39" customHeight="1" spans="1:14">
       <c r="A45" s="12">
-        <v>302</v>
-      </c>
-      <c r="B45" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C45" s="11">
-        <v>1</v>
-      </c>
-      <c r="D45" s="11">
-        <v>2</v>
-      </c>
-      <c r="E45" s="54" t="s">
-        <v>58</v>
+        <v>203</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C45" s="14">
+        <v>1</v>
+      </c>
+      <c r="D45" s="14">
+        <v>3</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>56</v>
       </c>
       <c r="F45" s="14">
         <v>10</v>
       </c>
       <c r="G45" s="14">
-        <v>301</v>
+        <v>202</v>
       </c>
       <c r="H45" s="14">
         <v>20</v>
@@ -5121,42 +5124,42 @@
         <v>160</v>
       </c>
       <c r="J45" s="11" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="K45" s="11" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="L45" s="14" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="M45" s="14" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="N45" s="18" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="46" s="50" customFormat="1" ht="39" customHeight="1" spans="1:14">
+    <row r="46" ht="39" customHeight="1" spans="1:14">
       <c r="A46" s="9">
-        <v>303</v>
-      </c>
-      <c r="B46" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C46" s="11">
-        <v>1</v>
-      </c>
-      <c r="D46" s="11">
-        <v>3</v>
-      </c>
-      <c r="E46" s="53" t="s">
-        <v>58</v>
+        <v>204</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C46" s="14">
+        <v>1</v>
+      </c>
+      <c r="D46" s="14">
+        <v>4</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>56</v>
       </c>
       <c r="F46" s="11">
         <v>10</v>
       </c>
       <c r="G46" s="11">
-        <v>302</v>
+        <v>203</v>
       </c>
       <c r="H46" s="11">
         <v>20</v>
@@ -5165,42 +5168,42 @@
         <v>160</v>
       </c>
       <c r="J46" s="11" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="K46" s="11" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="L46" s="11" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="M46" s="11" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="N46" s="17" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="47" s="50" customFormat="1" ht="39" customHeight="1" spans="1:14">
+    <row r="47" customFormat="1" ht="39" customHeight="1" spans="1:14">
       <c r="A47" s="12">
-        <v>304</v>
-      </c>
-      <c r="B47" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C47" s="11">
-        <v>1</v>
-      </c>
-      <c r="D47" s="11">
-        <v>4</v>
-      </c>
-      <c r="E47" s="54" t="s">
-        <v>58</v>
+        <v>205</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47" s="14">
+        <v>1</v>
+      </c>
+      <c r="D47" s="14">
+        <v>5</v>
+      </c>
+      <c r="E47" s="14" t="s">
+        <v>56</v>
       </c>
       <c r="F47" s="14">
         <v>10</v>
       </c>
       <c r="G47" s="14">
-        <v>303</v>
+        <v>204</v>
       </c>
       <c r="H47" s="14">
         <v>20</v>
@@ -5209,16 +5212,16 @@
         <v>160</v>
       </c>
       <c r="J47" s="11" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="K47" s="11" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="L47" s="14" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="M47" s="14" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="N47" s="18" t="s">
         <v>91</v>
@@ -5226,7 +5229,7 @@
     </row>
     <row r="48" s="50" customFormat="1" ht="39" customHeight="1" spans="1:14">
       <c r="A48" s="9">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B48" s="11" t="s">
         <v>25</v>
@@ -5235,7 +5238,7 @@
         <v>1</v>
       </c>
       <c r="D48" s="11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E48" s="53" t="s">
         <v>58</v>
@@ -5244,7 +5247,7 @@
         <v>10</v>
       </c>
       <c r="G48" s="11">
-        <v>304</v>
+        <v>0</v>
       </c>
       <c r="H48" s="11">
         <v>20</v>
@@ -5253,16 +5256,16 @@
         <v>160</v>
       </c>
       <c r="J48" s="11" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="K48" s="11" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="L48" s="11" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="M48" s="11" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="N48" s="17" t="s">
         <v>91</v>
@@ -5270,25 +5273,25 @@
     </row>
     <row r="49" s="50" customFormat="1" ht="39" customHeight="1" spans="1:14">
       <c r="A49" s="12">
-        <v>401</v>
-      </c>
-      <c r="B49" s="14" t="s">
-        <v>27</v>
+        <v>302</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="C49" s="11">
         <v>1</v>
       </c>
       <c r="D49" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E49" s="54" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F49" s="14">
         <v>10</v>
       </c>
       <c r="G49" s="14">
-        <v>0</v>
+        <v>301</v>
       </c>
       <c r="H49" s="14">
         <v>20</v>
@@ -5297,16 +5300,16 @@
         <v>160</v>
       </c>
       <c r="J49" s="11" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="K49" s="11" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="L49" s="14" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="M49" s="14" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="N49" s="18" t="s">
         <v>91</v>
@@ -5314,25 +5317,25 @@
     </row>
     <row r="50" s="50" customFormat="1" ht="39" customHeight="1" spans="1:14">
       <c r="A50" s="9">
-        <v>402</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>27</v>
+        <v>303</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="C50" s="11">
         <v>1</v>
       </c>
       <c r="D50" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E50" s="53" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F50" s="11">
         <v>10</v>
       </c>
       <c r="G50" s="11">
-        <v>401</v>
+        <v>302</v>
       </c>
       <c r="H50" s="11">
         <v>20</v>
@@ -5341,16 +5344,16 @@
         <v>160</v>
       </c>
       <c r="J50" s="11" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="K50" s="11" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="L50" s="11" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="M50" s="11" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="N50" s="17" t="s">
         <v>91</v>
@@ -5358,25 +5361,25 @@
     </row>
     <row r="51" s="50" customFormat="1" ht="39" customHeight="1" spans="1:14">
       <c r="A51" s="12">
-        <v>403</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>27</v>
+        <v>304</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="C51" s="11">
         <v>1</v>
       </c>
       <c r="D51" s="11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E51" s="54" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F51" s="14">
         <v>10</v>
       </c>
       <c r="G51" s="14">
-        <v>402</v>
+        <v>303</v>
       </c>
       <c r="H51" s="14">
         <v>20</v>
@@ -5385,16 +5388,16 @@
         <v>160</v>
       </c>
       <c r="J51" s="11" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="K51" s="11" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="L51" s="14" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="M51" s="14" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="N51" s="18" t="s">
         <v>91</v>
@@ -5402,25 +5405,25 @@
     </row>
     <row r="52" s="50" customFormat="1" ht="39" customHeight="1" spans="1:14">
       <c r="A52" s="9">
-        <v>404</v>
-      </c>
-      <c r="B52" s="14" t="s">
-        <v>27</v>
+        <v>305</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="C52" s="11">
         <v>1</v>
       </c>
       <c r="D52" s="11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E52" s="53" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F52" s="11">
         <v>10</v>
       </c>
       <c r="G52" s="11">
-        <v>403</v>
+        <v>304</v>
       </c>
       <c r="H52" s="11">
         <v>20</v>
@@ -5429,16 +5432,16 @@
         <v>160</v>
       </c>
       <c r="J52" s="11" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="K52" s="11" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="L52" s="11" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="M52" s="11" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="N52" s="17" t="s">
         <v>91</v>
@@ -5446,7 +5449,7 @@
     </row>
     <row r="53" s="50" customFormat="1" ht="39" customHeight="1" spans="1:14">
       <c r="A53" s="12">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B53" s="14" t="s">
         <v>27</v>
@@ -5455,7 +5458,7 @@
         <v>1</v>
       </c>
       <c r="D53" s="11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E53" s="54" t="s">
         <v>60</v>
@@ -5464,7 +5467,7 @@
         <v>10</v>
       </c>
       <c r="G53" s="14">
-        <v>404</v>
+        <v>0</v>
       </c>
       <c r="H53" s="14">
         <v>20</v>
@@ -5473,16 +5476,16 @@
         <v>160</v>
       </c>
       <c r="J53" s="11" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="K53" s="11" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="L53" s="14" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="M53" s="14" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="N53" s="18" t="s">
         <v>91</v>
@@ -5490,25 +5493,25 @@
     </row>
     <row r="54" s="50" customFormat="1" ht="39" customHeight="1" spans="1:14">
       <c r="A54" s="9">
-        <v>501</v>
-      </c>
-      <c r="B54" s="11" t="s">
-        <v>29</v>
+        <v>402</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>27</v>
       </c>
       <c r="C54" s="11">
         <v>1</v>
       </c>
       <c r="D54" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E54" s="53" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F54" s="11">
         <v>10</v>
       </c>
       <c r="G54" s="11">
-        <v>0</v>
+        <v>401</v>
       </c>
       <c r="H54" s="11">
         <v>20</v>
@@ -5517,16 +5520,16 @@
         <v>160</v>
       </c>
       <c r="J54" s="11" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="K54" s="11" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="L54" s="11" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="M54" s="11" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="N54" s="17" t="s">
         <v>91</v>
@@ -5534,25 +5537,25 @@
     </row>
     <row r="55" s="50" customFormat="1" ht="39" customHeight="1" spans="1:14">
       <c r="A55" s="12">
-        <v>502</v>
-      </c>
-      <c r="B55" s="11" t="s">
-        <v>29</v>
+        <v>403</v>
+      </c>
+      <c r="B55" s="14" t="s">
+        <v>27</v>
       </c>
       <c r="C55" s="11">
         <v>1</v>
       </c>
       <c r="D55" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E55" s="54" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F55" s="14">
         <v>10</v>
       </c>
       <c r="G55" s="14">
-        <v>501</v>
+        <v>402</v>
       </c>
       <c r="H55" s="14">
         <v>20</v>
@@ -5561,16 +5564,16 @@
         <v>160</v>
       </c>
       <c r="J55" s="11" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="K55" s="11" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="L55" s="14" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="M55" s="14" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="N55" s="18" t="s">
         <v>91</v>
@@ -5578,25 +5581,25 @@
     </row>
     <row r="56" s="50" customFormat="1" ht="39" customHeight="1" spans="1:14">
       <c r="A56" s="9">
-        <v>503</v>
-      </c>
-      <c r="B56" s="11" t="s">
-        <v>29</v>
+        <v>404</v>
+      </c>
+      <c r="B56" s="14" t="s">
+        <v>27</v>
       </c>
       <c r="C56" s="11">
         <v>1</v>
       </c>
       <c r="D56" s="11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E56" s="53" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F56" s="11">
         <v>10</v>
       </c>
       <c r="G56" s="11">
-        <v>502</v>
+        <v>403</v>
       </c>
       <c r="H56" s="11">
         <v>20</v>
@@ -5605,16 +5608,16 @@
         <v>160</v>
       </c>
       <c r="J56" s="11" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="K56" s="11" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="L56" s="11" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="M56" s="11" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="N56" s="17" t="s">
         <v>91</v>
@@ -5622,25 +5625,25 @@
     </row>
     <row r="57" s="50" customFormat="1" ht="39" customHeight="1" spans="1:14">
       <c r="A57" s="12">
-        <v>504</v>
-      </c>
-      <c r="B57" s="11" t="s">
-        <v>29</v>
+        <v>405</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>27</v>
       </c>
       <c r="C57" s="11">
         <v>1</v>
       </c>
       <c r="D57" s="11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E57" s="54" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F57" s="14">
         <v>10</v>
       </c>
       <c r="G57" s="14">
-        <v>503</v>
+        <v>404</v>
       </c>
       <c r="H57" s="14">
         <v>20</v>
@@ -5649,24 +5652,24 @@
         <v>160</v>
       </c>
       <c r="J57" s="11" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="K57" s="11" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="L57" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="M57" s="14" t="s">
         <v>132</v>
-      </c>
-      <c r="M57" s="14" t="s">
-        <v>133</v>
       </c>
       <c r="N57" s="18" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="58" s="50" customFormat="1" ht="39" customHeight="1" spans="1:14">
-      <c r="A58" s="55">
-        <v>505</v>
+      <c r="A58" s="9">
+        <v>501</v>
       </c>
       <c r="B58" s="11" t="s">
         <v>29</v>
@@ -5675,46 +5678,254 @@
         <v>1</v>
       </c>
       <c r="D58" s="11">
+        <v>1</v>
+      </c>
+      <c r="E58" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="F58" s="11">
+        <v>10</v>
+      </c>
+      <c r="G58" s="11">
+        <v>0</v>
+      </c>
+      <c r="H58" s="11">
+        <v>20</v>
+      </c>
+      <c r="I58" s="11">
+        <v>160</v>
+      </c>
+      <c r="J58" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="K58" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="L58" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="M58" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="N58" s="17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="59" s="50" customFormat="1" ht="39" customHeight="1" spans="1:14">
+      <c r="A59" s="12">
+        <v>502</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C59" s="11">
+        <v>1</v>
+      </c>
+      <c r="D59" s="11">
+        <v>2</v>
+      </c>
+      <c r="E59" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="F59" s="14">
+        <v>10</v>
+      </c>
+      <c r="G59" s="14">
+        <v>501</v>
+      </c>
+      <c r="H59" s="14">
+        <v>20</v>
+      </c>
+      <c r="I59" s="14">
+        <v>160</v>
+      </c>
+      <c r="J59" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="K59" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="L59" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="M59" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="N59" s="18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="60" s="50" customFormat="1" ht="39" customHeight="1" spans="1:14">
+      <c r="A60" s="9">
+        <v>503</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C60" s="11">
+        <v>1</v>
+      </c>
+      <c r="D60" s="11">
+        <v>3</v>
+      </c>
+      <c r="E60" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="F60" s="11">
+        <v>10</v>
+      </c>
+      <c r="G60" s="11">
+        <v>502</v>
+      </c>
+      <c r="H60" s="11">
+        <v>20</v>
+      </c>
+      <c r="I60" s="11">
+        <v>160</v>
+      </c>
+      <c r="J60" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="K60" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="L60" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="M60" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="N60" s="17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="61" s="50" customFormat="1" ht="39" customHeight="1" spans="1:14">
+      <c r="A61" s="12">
+        <v>504</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C61" s="11">
+        <v>1</v>
+      </c>
+      <c r="D61" s="11">
+        <v>4</v>
+      </c>
+      <c r="E61" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="F61" s="14">
+        <v>10</v>
+      </c>
+      <c r="G61" s="14">
+        <v>503</v>
+      </c>
+      <c r="H61" s="14">
+        <v>20</v>
+      </c>
+      <c r="I61" s="14">
+        <v>160</v>
+      </c>
+      <c r="J61" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="K61" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="L61" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="M61" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="N61" s="18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="62" s="50" customFormat="1" ht="39" customHeight="1" spans="1:14">
+      <c r="A62" s="55">
+        <v>505</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C62" s="11">
+        <v>1</v>
+      </c>
+      <c r="D62" s="11">
         <v>5</v>
       </c>
-      <c r="E58" s="56" t="s">
+      <c r="E62" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="F58" s="57">
-        <v>10</v>
-      </c>
-      <c r="G58" s="57">
+      <c r="F62" s="57">
+        <v>10</v>
+      </c>
+      <c r="G62" s="57">
         <v>504</v>
       </c>
-      <c r="H58" s="57">
+      <c r="H62" s="57">
         <v>20</v>
       </c>
-      <c r="I58" s="57">
+      <c r="I62" s="57">
         <v>160</v>
       </c>
-      <c r="J58" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="K58" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="L58" s="57" t="s">
-        <v>134</v>
-      </c>
-      <c r="M58" s="57" t="s">
+      <c r="J62" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="K62" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="L62" s="57" t="s">
         <v>135</v>
       </c>
-      <c r="N58" s="58" t="s">
+      <c r="M62" s="57" t="s">
+        <v>136</v>
+      </c>
+      <c r="N62" s="58" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="59" ht="14.25"/>
+    <row r="63" ht="14.25"/>
   </sheetData>
-  <conditionalFormatting sqref="F$1:F$1048576">
-    <cfRule type="cellIs" dxfId="0" priority="19" operator="equal">
+  <conditionalFormatting sqref="F35">
+    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="8" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F36">
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F37">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F38">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F34 F39:F1048576">
+    <cfRule type="cellIs" dxfId="0" priority="27" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="28" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5760,103 +5971,103 @@
         <v>64</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K1" s="21" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L1" s="21" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M1" s="21" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N1" s="33"/>
       <c r="O1" s="34"/>
       <c r="P1" s="35" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q1" s="35"/>
       <c r="R1" s="45"/>
     </row>
     <row r="2" ht="43" customHeight="1" spans="1:18">
       <c r="A2" s="22" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B2" s="23" t="s">
         <v>80</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H2" s="23" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I2" s="23" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="J2" s="23" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K2" s="23" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L2" s="23" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M2" s="23" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N2" s="36">
         <v>1</v>
       </c>
       <c r="O2" s="37" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="P2" s="38" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q2" s="46">
+        <v>1</v>
+      </c>
+      <c r="R2" s="47" t="s">
         <v>162</v>
-      </c>
-      <c r="Q2" s="46">
-        <v>1</v>
-      </c>
-      <c r="R2" s="47" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="3" ht="44" customHeight="1" spans="1:18">
@@ -5873,7 +6084,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F3" s="25">
         <v>1</v>
@@ -5882,7 +6093,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I3" s="39">
         <v>0</v>
@@ -5898,7 +6109,7 @@
       </c>
       <c r="M3" s="25"/>
       <c r="N3" s="40" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O3" s="41"/>
       <c r="P3" s="28"/>
@@ -5921,7 +6132,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F4" s="25">
         <v>1</v>
@@ -5930,7 +6141,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="29" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I4" s="39">
         <v>0</v>
@@ -5946,7 +6157,7 @@
       </c>
       <c r="M4" s="26"/>
       <c r="N4" s="40" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O4" s="42"/>
       <c r="P4" s="24"/>
@@ -5969,7 +6180,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F5" s="25">
         <v>1</v>
@@ -5978,7 +6189,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I5" s="39">
         <v>5</v>
@@ -5994,7 +6205,7 @@
       </c>
       <c r="M5" s="25"/>
       <c r="N5" s="40" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O5" s="41"/>
       <c r="P5" s="28"/>
@@ -6017,7 +6228,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F6" s="25">
         <v>1</v>
@@ -6026,7 +6237,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="29" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I6" s="39">
         <v>0</v>
@@ -6042,7 +6253,7 @@
       </c>
       <c r="M6" s="26"/>
       <c r="N6" s="40" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O6" s="42"/>
       <c r="P6" s="24"/>
@@ -6065,7 +6276,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F7" s="25">
         <v>1</v>
@@ -6074,7 +6285,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I7" s="39">
         <v>0</v>
@@ -6090,7 +6301,7 @@
       </c>
       <c r="M7" s="25"/>
       <c r="N7" s="40" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O7" s="41"/>
       <c r="P7" s="28"/>
@@ -6113,7 +6324,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F8" s="25">
         <v>1</v>
@@ -6122,7 +6333,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="29" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I8" s="39">
         <v>0</v>
@@ -6138,7 +6349,7 @@
       </c>
       <c r="M8" s="26"/>
       <c r="N8" s="40" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O8" s="42"/>
       <c r="P8" s="24"/>
@@ -6161,7 +6372,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F9" s="25">
         <v>1</v>
@@ -6170,7 +6381,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="27" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I9" s="39">
         <v>0</v>
@@ -6186,7 +6397,7 @@
       </c>
       <c r="M9" s="25"/>
       <c r="N9" s="40" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O9" s="41"/>
       <c r="P9" s="28"/>
@@ -6209,7 +6420,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F10" s="25">
         <v>1</v>
@@ -6218,7 +6429,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="29" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="I10" s="39">
         <v>5</v>
@@ -6234,7 +6445,7 @@
       </c>
       <c r="M10" s="26"/>
       <c r="N10" s="40" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O10" s="42"/>
       <c r="P10" s="24"/>
@@ -6257,7 +6468,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F11" s="25">
         <v>1</v>
@@ -6266,7 +6477,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="27" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I11" s="39">
         <v>0</v>
@@ -6282,7 +6493,7 @@
       </c>
       <c r="M11" s="25"/>
       <c r="N11" s="40" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O11" s="41"/>
       <c r="P11" s="28"/>
@@ -6305,7 +6516,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F12" s="25">
         <v>1</v>
@@ -6314,7 +6525,7 @@
         <v>1</v>
       </c>
       <c r="H12" s="29" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I12" s="39">
         <v>0</v>
@@ -6330,7 +6541,7 @@
       </c>
       <c r="M12" s="26"/>
       <c r="N12" s="40" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O12" s="42"/>
       <c r="P12" s="24"/>
@@ -6353,7 +6564,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F13" s="25">
         <v>1</v>
@@ -6362,7 +6573,7 @@
         <v>1</v>
       </c>
       <c r="H13" s="27" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I13" s="39">
         <v>0</v>
@@ -6378,7 +6589,7 @@
       </c>
       <c r="M13" s="25"/>
       <c r="N13" s="40" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O13" s="41"/>
       <c r="P13" s="28"/>
@@ -6401,7 +6612,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F14" s="25">
         <v>1</v>
@@ -6410,7 +6621,7 @@
         <v>1</v>
       </c>
       <c r="H14" s="29" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I14" s="39">
         <v>5</v>
@@ -6426,7 +6637,7 @@
       </c>
       <c r="M14" s="26"/>
       <c r="N14" s="40" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O14" s="42"/>
       <c r="P14" s="24"/>
@@ -6449,7 +6660,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F15" s="25">
         <v>1</v>
@@ -6458,7 +6669,7 @@
         <v>1</v>
       </c>
       <c r="H15" s="27" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I15" s="39">
         <v>0</v>
@@ -6474,7 +6685,7 @@
       </c>
       <c r="M15" s="25"/>
       <c r="N15" s="40" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O15" s="41"/>
       <c r="P15" s="28"/>
@@ -6497,7 +6708,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F16" s="25">
         <v>1</v>
@@ -6506,7 +6717,7 @@
         <v>1</v>
       </c>
       <c r="H16" s="29" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I16" s="39">
         <v>0</v>
@@ -6522,7 +6733,7 @@
       </c>
       <c r="M16" s="26"/>
       <c r="N16" s="40" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O16" s="42"/>
       <c r="P16" s="24"/>
@@ -6545,7 +6756,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F17" s="25">
         <v>1</v>
@@ -6554,7 +6765,7 @@
         <v>1</v>
       </c>
       <c r="H17" s="27" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I17" s="39">
         <v>10</v>
@@ -6570,7 +6781,7 @@
       </c>
       <c r="M17" s="25"/>
       <c r="N17" s="40" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O17" s="41"/>
       <c r="P17" s="28"/>
@@ -6593,7 +6804,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F18" s="25">
         <v>1</v>
@@ -6602,7 +6813,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="29" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I18" s="39">
         <v>0</v>
@@ -6618,7 +6829,7 @@
       </c>
       <c r="M18" s="26"/>
       <c r="N18" s="40" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O18" s="42"/>
       <c r="P18" s="24"/>
@@ -6641,7 +6852,7 @@
         <v>1</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F19" s="25">
         <v>1</v>
@@ -6650,7 +6861,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="27" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I19" s="39">
         <v>0</v>
@@ -6666,7 +6877,7 @@
       </c>
       <c r="M19" s="25"/>
       <c r="N19" s="40" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O19" s="41"/>
       <c r="P19" s="28"/>
@@ -6689,7 +6900,7 @@
         <v>1</v>
       </c>
       <c r="E20" s="26" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F20" s="25">
         <v>1</v>
@@ -6698,7 +6909,7 @@
         <v>1</v>
       </c>
       <c r="H20" s="29" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I20" s="39">
         <v>10</v>
@@ -6714,7 +6925,7 @@
       </c>
       <c r="M20" s="26"/>
       <c r="N20" s="40" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O20" s="42"/>
       <c r="P20" s="24"/>
@@ -6737,7 +6948,7 @@
         <v>1</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F21" s="25">
         <v>1</v>
@@ -6746,7 +6957,7 @@
         <v>1</v>
       </c>
       <c r="H21" s="27" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I21" s="39">
         <v>10</v>
@@ -6762,7 +6973,7 @@
       </c>
       <c r="M21" s="25"/>
       <c r="N21" s="40" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O21" s="41"/>
       <c r="P21" s="28"/>
@@ -6785,7 +6996,7 @@
         <v>1</v>
       </c>
       <c r="E22" s="26" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F22" s="25">
         <v>1</v>
@@ -6794,7 +7005,7 @@
         <v>1</v>
       </c>
       <c r="H22" s="29" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I22" s="39">
         <v>0</v>
@@ -6810,7 +7021,7 @@
       </c>
       <c r="M22" s="26"/>
       <c r="N22" s="40" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O22" s="42"/>
       <c r="P22" s="24"/>
@@ -6833,7 +7044,7 @@
         <v>1</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F23" s="25">
         <v>1</v>
@@ -6842,7 +7053,7 @@
         <v>1</v>
       </c>
       <c r="H23" s="27" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I23" s="43">
         <v>0</v>
@@ -6858,7 +7069,7 @@
       </c>
       <c r="M23" s="25"/>
       <c r="N23" s="40" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O23" s="42"/>
       <c r="P23" s="28"/>
@@ -6881,7 +7092,7 @@
         <v>1</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F24" s="25">
         <v>1</v>
@@ -6890,7 +7101,7 @@
         <v>1</v>
       </c>
       <c r="H24" s="29" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I24" s="43">
         <v>0</v>
@@ -6906,7 +7117,7 @@
       </c>
       <c r="M24" s="26"/>
       <c r="N24" s="40" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O24" s="42"/>
       <c r="P24" s="24"/>
@@ -6929,7 +7140,7 @@
         <v>1</v>
       </c>
       <c r="E25" s="25" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F25" s="25">
         <v>1</v>
@@ -6938,7 +7149,7 @@
         <v>1</v>
       </c>
       <c r="H25" s="27" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I25" s="43">
         <v>0</v>
@@ -6954,7 +7165,7 @@
       </c>
       <c r="M25" s="25"/>
       <c r="N25" s="40" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O25" s="42"/>
       <c r="P25" s="28"/>
@@ -6977,7 +7188,7 @@
         <v>1</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F26" s="25">
         <v>1</v>
@@ -6986,7 +7197,7 @@
         <v>1</v>
       </c>
       <c r="H26" s="29" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I26" s="39">
         <v>10</v>
@@ -7002,7 +7213,7 @@
       </c>
       <c r="M26" s="26"/>
       <c r="N26" s="40" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O26" s="42"/>
       <c r="P26" s="24"/>
@@ -7025,7 +7236,7 @@
         <v>1</v>
       </c>
       <c r="E27" s="31" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F27" s="25">
         <v>1</v>
@@ -7034,7 +7245,7 @@
         <v>1</v>
       </c>
       <c r="H27" s="32" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I27" s="39">
         <v>10</v>
@@ -7050,7 +7261,7 @@
       </c>
       <c r="M27" s="31"/>
       <c r="N27" s="40" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O27" s="42"/>
       <c r="P27" s="44"/>
@@ -7122,13 +7333,13 @@
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>68</v>
@@ -7143,10 +7354,10 @@
         <v>71</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>74</v>
@@ -7155,7 +7366,7 @@
         <v>75</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="2" ht="39" customHeight="1" spans="1:12">
@@ -7181,10 +7392,10 @@
         <v>82</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J2" s="8" t="s">
         <v>85</v>
@@ -7219,7 +7430,7 @@
         <v>160</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="I3" s="11">
         <v>10</v>
@@ -7257,16 +7468,16 @@
         <v>160</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I4" s="14">
         <v>10</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K4" s="14" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L4" s="18" t="s">
         <v>91</v>
@@ -7295,16 +7506,16 @@
         <v>160</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="I5" s="11">
         <v>10</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L5" s="17" t="s">
         <v>91</v>

--- a/excels/config/difficulty_config.xlsx
+++ b/excels/config/difficulty_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="804" activeTab="6"/>
+    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="804" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="chapter_info" sheetId="7" r:id="rId1"/>
@@ -18638,7 +18638,7 @@
   <sheetPr/>
   <dimension ref="A1:AE87"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
@@ -21072,7 +21072,7 @@
       </c>
       <c r="O28" s="53" t="str">
         <f>__回合抗性!H28&amp;"|"&amp;__回合抗性!I28&amp;"|"&amp;__回合抗性!J28&amp;"|"&amp;__回合抗性!K28</f>
-        <v>0|0|0|0</v>
+        <v>5|0|0|0</v>
       </c>
       <c r="P28" s="8">
         <v>0</v>
@@ -21108,7 +21108,7 @@
       </c>
       <c r="AE28" s="53" t="str">
         <f>__回合抗性!L28&amp;"|"&amp;__回合抗性!M28&amp;"|"&amp;__回合抗性!N28&amp;"|"&amp;__回合抗性!O28</f>
-        <v>0|0|0|0</v>
+        <v>5|0|0|0</v>
       </c>
     </row>
     <row r="29" ht="30.5" customHeight="1" spans="1:31">
@@ -21157,7 +21157,7 @@
       </c>
       <c r="O29" s="53" t="str">
         <f>__回合抗性!H29&amp;"|"&amp;__回合抗性!I29&amp;"|"&amp;__回合抗性!J29&amp;"|"&amp;__回合抗性!K29</f>
-        <v>0|0|0|0</v>
+        <v>5|0|0|0</v>
       </c>
       <c r="P29" s="8">
         <v>0</v>
@@ -21193,7 +21193,7 @@
       </c>
       <c r="AE29" s="53" t="str">
         <f>__回合抗性!L29&amp;"|"&amp;__回合抗性!M29&amp;"|"&amp;__回合抗性!N29&amp;"|"&amp;__回合抗性!O29</f>
-        <v>0|0|0|0</v>
+        <v>5|0|0|0</v>
       </c>
     </row>
     <row r="30" ht="30.5" customHeight="1" spans="1:31">
@@ -21242,7 +21242,7 @@
       </c>
       <c r="O30" s="53" t="str">
         <f>__回合抗性!H30&amp;"|"&amp;__回合抗性!I30&amp;"|"&amp;__回合抗性!J30&amp;"|"&amp;__回合抗性!K30</f>
-        <v>0|0|0|0</v>
+        <v>5|0|0|0</v>
       </c>
       <c r="P30" s="8">
         <v>0</v>
@@ -21278,7 +21278,7 @@
       </c>
       <c r="AE30" s="53" t="str">
         <f>__回合抗性!L30&amp;"|"&amp;__回合抗性!M30&amp;"|"&amp;__回合抗性!N30&amp;"|"&amp;__回合抗性!O30</f>
-        <v>0|0|0|0</v>
+        <v>5|0|0|0</v>
       </c>
     </row>
     <row r="31" ht="30.5" customHeight="1" spans="1:31">
@@ -21327,7 +21327,7 @@
       </c>
       <c r="O31" s="53" t="str">
         <f>__回合抗性!H31&amp;"|"&amp;__回合抗性!I31&amp;"|"&amp;__回合抗性!J31&amp;"|"&amp;__回合抗性!K31</f>
-        <v>0|0|0|0</v>
+        <v>5|0|0|0</v>
       </c>
       <c r="P31" s="8">
         <v>0</v>
@@ -21363,7 +21363,7 @@
       </c>
       <c r="AE31" s="53" t="str">
         <f>__回合抗性!L31&amp;"|"&amp;__回合抗性!M31&amp;"|"&amp;__回合抗性!N31&amp;"|"&amp;__回合抗性!O31</f>
-        <v>0|0|0|0</v>
+        <v>5|0|0|0</v>
       </c>
     </row>
     <row r="32" ht="30.5" customHeight="1" spans="1:31">
@@ -21412,7 +21412,7 @@
       </c>
       <c r="O32" s="53" t="str">
         <f>__回合抗性!H32&amp;"|"&amp;__回合抗性!I32&amp;"|"&amp;__回合抗性!J32&amp;"|"&amp;__回合抗性!K32</f>
-        <v>0|0|0|0</v>
+        <v>5|0|0|0</v>
       </c>
       <c r="P32" s="8">
         <v>0</v>
@@ -21448,7 +21448,7 @@
       </c>
       <c r="AE32" s="53" t="str">
         <f>__回合抗性!L32&amp;"|"&amp;__回合抗性!M32&amp;"|"&amp;__回合抗性!N32&amp;"|"&amp;__回合抗性!O32</f>
-        <v>0|0|0|0</v>
+        <v>5|0|0|0</v>
       </c>
     </row>
     <row r="33" ht="30.5" customHeight="1" spans="1:31">
@@ -21497,7 +21497,7 @@
       </c>
       <c r="O33" s="53" t="str">
         <f>__回合抗性!H33&amp;"|"&amp;__回合抗性!I33&amp;"|"&amp;__回合抗性!J33&amp;"|"&amp;__回合抗性!K33</f>
-        <v>0|0|0|0</v>
+        <v>10|0|0|0</v>
       </c>
       <c r="P33" s="8">
         <v>0</v>
@@ -21538,7 +21538,7 @@
       </c>
       <c r="AE33" s="53" t="str">
         <f>__回合抗性!L33&amp;"|"&amp;__回合抗性!M33&amp;"|"&amp;__回合抗性!N33&amp;"|"&amp;__回合抗性!O33</f>
-        <v>0|0|0|0</v>
+        <v>10|0|0|0</v>
       </c>
     </row>
     <row r="34" ht="30.5" customHeight="1" spans="1:31">
@@ -21587,7 +21587,7 @@
       </c>
       <c r="O34" s="53" t="str">
         <f>__回合抗性!H34&amp;"|"&amp;__回合抗性!I34&amp;"|"&amp;__回合抗性!J34&amp;"|"&amp;__回合抗性!K34</f>
-        <v>0|0|0|0</v>
+        <v>10|0|0|0</v>
       </c>
       <c r="P34" s="8">
         <v>0</v>
@@ -21623,7 +21623,7 @@
       </c>
       <c r="AE34" s="53" t="str">
         <f>__回合抗性!L34&amp;"|"&amp;__回合抗性!M34&amp;"|"&amp;__回合抗性!N34&amp;"|"&amp;__回合抗性!O34</f>
-        <v>0|0|0|0</v>
+        <v>10|0|0|0</v>
       </c>
     </row>
     <row r="35" ht="30.5" customHeight="1" spans="1:31">
@@ -21672,7 +21672,7 @@
       </c>
       <c r="O35" s="53" t="str">
         <f>__回合抗性!H35&amp;"|"&amp;__回合抗性!I35&amp;"|"&amp;__回合抗性!J35&amp;"|"&amp;__回合抗性!K35</f>
-        <v>0|0|0|0</v>
+        <v>10|0|0|0</v>
       </c>
       <c r="P35" s="8">
         <v>0</v>
@@ -21713,7 +21713,7 @@
       </c>
       <c r="AE35" s="53" t="str">
         <f>__回合抗性!L35&amp;"|"&amp;__回合抗性!M35&amp;"|"&amp;__回合抗性!N35&amp;"|"&amp;__回合抗性!O35</f>
-        <v>0|0|0|0</v>
+        <v>10|0|0|0</v>
       </c>
     </row>
     <row r="36" ht="30.5" customHeight="1" spans="1:31">
@@ -21762,7 +21762,7 @@
       </c>
       <c r="O36" s="53" t="str">
         <f>__回合抗性!H36&amp;"|"&amp;__回合抗性!I36&amp;"|"&amp;__回合抗性!J36&amp;"|"&amp;__回合抗性!K36</f>
-        <v>0|0|0|0</v>
+        <v>10|0|0|0</v>
       </c>
       <c r="P36" s="8">
         <v>0</v>
@@ -21798,7 +21798,7 @@
       </c>
       <c r="AE36" s="53" t="str">
         <f>__回合抗性!L36&amp;"|"&amp;__回合抗性!M36&amp;"|"&amp;__回合抗性!N36&amp;"|"&amp;__回合抗性!O36</f>
-        <v>0|0|0|0</v>
+        <v>10|0|0|0</v>
       </c>
     </row>
     <row r="37" ht="30.5" customHeight="1" spans="1:31">
@@ -21847,7 +21847,7 @@
       </c>
       <c r="O37" s="53" t="str">
         <f>__回合抗性!H37&amp;"|"&amp;__回合抗性!I37&amp;"|"&amp;__回合抗性!J37&amp;"|"&amp;__回合抗性!K37</f>
-        <v>0|0|0|0</v>
+        <v>10|0|0|0</v>
       </c>
       <c r="P37" s="8">
         <v>0</v>
@@ -21883,7 +21883,7 @@
       </c>
       <c r="AE37" s="53" t="str">
         <f>__回合抗性!L37&amp;"|"&amp;__回合抗性!M37&amp;"|"&amp;__回合抗性!N37&amp;"|"&amp;__回合抗性!O37</f>
-        <v>0|0|0|0</v>
+        <v>10|0|0|0</v>
       </c>
     </row>
     <row r="38" ht="30.5" customHeight="1" spans="1:31">
@@ -21932,7 +21932,7 @@
       </c>
       <c r="O38" s="53" t="str">
         <f>__回合抗性!H38&amp;"|"&amp;__回合抗性!I38&amp;"|"&amp;__回合抗性!J38&amp;"|"&amp;__回合抗性!K38</f>
-        <v>0|0|0|0</v>
+        <v>15|0|0|0</v>
       </c>
       <c r="P38" s="8">
         <v>0</v>
@@ -21968,7 +21968,7 @@
       </c>
       <c r="AE38" s="53" t="str">
         <f>__回合抗性!L38&amp;"|"&amp;__回合抗性!M38&amp;"|"&amp;__回合抗性!N38&amp;"|"&amp;__回合抗性!O38</f>
-        <v>0|0|0|0</v>
+        <v>15|0|0|0</v>
       </c>
     </row>
     <row r="39" ht="30.5" customHeight="1" spans="1:31">
@@ -22017,7 +22017,7 @@
       </c>
       <c r="O39" s="53" t="str">
         <f>__回合抗性!H39&amp;"|"&amp;__回合抗性!I39&amp;"|"&amp;__回合抗性!J39&amp;"|"&amp;__回合抗性!K39</f>
-        <v>0|0|0|0</v>
+        <v>15|0|0|0</v>
       </c>
       <c r="P39" s="8">
         <v>0</v>
@@ -22053,7 +22053,7 @@
       </c>
       <c r="AE39" s="53" t="str">
         <f>__回合抗性!L39&amp;"|"&amp;__回合抗性!M39&amp;"|"&amp;__回合抗性!N39&amp;"|"&amp;__回合抗性!O39</f>
-        <v>0|0|0|0</v>
+        <v>15|0|0|0</v>
       </c>
     </row>
     <row r="40" ht="30.5" customHeight="1" spans="1:31">
@@ -22102,7 +22102,7 @@
       </c>
       <c r="O40" s="53" t="str">
         <f>__回合抗性!H40&amp;"|"&amp;__回合抗性!I40&amp;"|"&amp;__回合抗性!J40&amp;"|"&amp;__回合抗性!K40</f>
-        <v>0|0|0|0</v>
+        <v>15|0|0|0</v>
       </c>
       <c r="P40" s="8">
         <v>0</v>
@@ -22143,7 +22143,7 @@
       </c>
       <c r="AE40" s="53" t="str">
         <f>__回合抗性!L40&amp;"|"&amp;__回合抗性!M40&amp;"|"&amp;__回合抗性!N40&amp;"|"&amp;__回合抗性!O40</f>
-        <v>0|0|0|0</v>
+        <v>15|0|0|0</v>
       </c>
     </row>
     <row r="41" ht="30.5" customHeight="1" spans="1:31">
@@ -22192,7 +22192,7 @@
       </c>
       <c r="O41" s="53" t="str">
         <f>__回合抗性!H41&amp;"|"&amp;__回合抗性!I41&amp;"|"&amp;__回合抗性!J41&amp;"|"&amp;__回合抗性!K41</f>
-        <v>0|0|0|0</v>
+        <v>15|0|0|0</v>
       </c>
       <c r="P41" s="8">
         <v>0</v>
@@ -22228,7 +22228,7 @@
       </c>
       <c r="AE41" s="53" t="str">
         <f>__回合抗性!L41&amp;"|"&amp;__回合抗性!M41&amp;"|"&amp;__回合抗性!N41&amp;"|"&amp;__回合抗性!O41</f>
-        <v>0|0|0|0</v>
+        <v>15|0|0|0</v>
       </c>
     </row>
     <row r="42" ht="30.5" customHeight="1" spans="1:31">
@@ -22277,7 +22277,7 @@
       </c>
       <c r="O42" s="53" t="str">
         <f>__回合抗性!H42&amp;"|"&amp;__回合抗性!I42&amp;"|"&amp;__回合抗性!J42&amp;"|"&amp;__回合抗性!K42</f>
-        <v>0|0|0|0</v>
+        <v>15|0|0|0</v>
       </c>
       <c r="P42" s="8">
         <v>0</v>
@@ -22318,7 +22318,7 @@
       </c>
       <c r="AE42" s="53" t="str">
         <f>__回合抗性!L42&amp;"|"&amp;__回合抗性!M42&amp;"|"&amp;__回合抗性!N42&amp;"|"&amp;__回合抗性!O42</f>
-        <v>0|0|0|0</v>
+        <v>15|0|0|0</v>
       </c>
     </row>
     <row r="43" ht="30.5" customHeight="1" spans="1:31">
@@ -22367,7 +22367,7 @@
       </c>
       <c r="O43" s="53" t="str">
         <f>__回合抗性!H43&amp;"|"&amp;__回合抗性!I43&amp;"|"&amp;__回合抗性!J43&amp;"|"&amp;__回合抗性!K43</f>
-        <v>0|0|0|0</v>
+        <v>20|0|0|0</v>
       </c>
       <c r="P43" s="8">
         <v>0</v>
@@ -22403,7 +22403,7 @@
       </c>
       <c r="AE43" s="53" t="str">
         <f>__回合抗性!L43&amp;"|"&amp;__回合抗性!M43&amp;"|"&amp;__回合抗性!N43&amp;"|"&amp;__回合抗性!O43</f>
-        <v>0|0|0|0</v>
+        <v>20|0|0|0</v>
       </c>
     </row>
     <row r="44" ht="30.5" customHeight="1" spans="1:31">
@@ -22452,7 +22452,7 @@
       </c>
       <c r="O44" s="53" t="str">
         <f>__回合抗性!H44&amp;"|"&amp;__回合抗性!I44&amp;"|"&amp;__回合抗性!J44&amp;"|"&amp;__回合抗性!K44</f>
-        <v>0|0|0|0</v>
+        <v>20|0|0|0</v>
       </c>
       <c r="P44" s="8">
         <v>0</v>
@@ -22488,7 +22488,7 @@
       </c>
       <c r="AE44" s="53" t="str">
         <f>__回合抗性!L44&amp;"|"&amp;__回合抗性!M44&amp;"|"&amp;__回合抗性!N44&amp;"|"&amp;__回合抗性!O44</f>
-        <v>0|0|0|0</v>
+        <v>20|0|0|0</v>
       </c>
     </row>
     <row r="45" ht="30.5" customHeight="1" spans="1:31">
@@ -22537,7 +22537,7 @@
       </c>
       <c r="O45" s="53" t="str">
         <f>__回合抗性!H45&amp;"|"&amp;__回合抗性!I45&amp;"|"&amp;__回合抗性!J45&amp;"|"&amp;__回合抗性!K45</f>
-        <v>0|0|0|0</v>
+        <v>20|0|0|0</v>
       </c>
       <c r="P45" s="8">
         <v>0</v>
@@ -22573,7 +22573,7 @@
       </c>
       <c r="AE45" s="53" t="str">
         <f>__回合抗性!L45&amp;"|"&amp;__回合抗性!M45&amp;"|"&amp;__回合抗性!N45&amp;"|"&amp;__回合抗性!O45</f>
-        <v>0|0|0|0</v>
+        <v>20|0|0|0</v>
       </c>
     </row>
     <row r="46" ht="30.5" customHeight="1" spans="1:31">
@@ -22622,7 +22622,7 @@
       </c>
       <c r="O46" s="53" t="str">
         <f>__回合抗性!H46&amp;"|"&amp;__回合抗性!I46&amp;"|"&amp;__回合抗性!J46&amp;"|"&amp;__回合抗性!K46</f>
-        <v>0|0|0|0</v>
+        <v>20|0|0|0</v>
       </c>
       <c r="P46" s="8">
         <v>0</v>
@@ -22658,7 +22658,7 @@
       </c>
       <c r="AE46" s="53" t="str">
         <f>__回合抗性!L46&amp;"|"&amp;__回合抗性!M46&amp;"|"&amp;__回合抗性!N46&amp;"|"&amp;__回合抗性!O46</f>
-        <v>0|0|0|0</v>
+        <v>20|0|0|0</v>
       </c>
     </row>
     <row r="47" ht="30.5" customHeight="1" spans="1:31">
@@ -22707,7 +22707,7 @@
       </c>
       <c r="O47" s="53" t="str">
         <f>__回合抗性!H47&amp;"|"&amp;__回合抗性!I47&amp;"|"&amp;__回合抗性!J47&amp;"|"&amp;__回合抗性!K47</f>
-        <v>0|0|0|0</v>
+        <v>20|0|0|0</v>
       </c>
       <c r="P47" s="8">
         <v>0</v>
@@ -22743,7 +22743,7 @@
       </c>
       <c r="AE47" s="53" t="str">
         <f>__回合抗性!L47&amp;"|"&amp;__回合抗性!M47&amp;"|"&amp;__回合抗性!N47&amp;"|"&amp;__回合抗性!O47</f>
-        <v>0|0|0|0</v>
+        <v>20|0|0|0</v>
       </c>
     </row>
     <row r="48" ht="30.5" customHeight="1" spans="1:31">
@@ -22792,7 +22792,7 @@
       </c>
       <c r="O48" s="53" t="str">
         <f>__回合抗性!H48&amp;"|"&amp;__回合抗性!I48&amp;"|"&amp;__回合抗性!J48&amp;"|"&amp;__回合抗性!K48</f>
-        <v>0|0|0|0</v>
+        <v>25|0|0|0</v>
       </c>
       <c r="P48" s="8">
         <v>0</v>
@@ -22833,7 +22833,7 @@
       </c>
       <c r="AE48" s="53" t="str">
         <f>__回合抗性!L48&amp;"|"&amp;__回合抗性!M48&amp;"|"&amp;__回合抗性!N48&amp;"|"&amp;__回合抗性!O48</f>
-        <v>0|0|0|0</v>
+        <v>25|0|0|0</v>
       </c>
     </row>
     <row r="49" ht="30.5" customHeight="1" spans="1:31">
@@ -22882,7 +22882,7 @@
       </c>
       <c r="O49" s="53" t="str">
         <f>__回合抗性!H49&amp;"|"&amp;__回合抗性!I49&amp;"|"&amp;__回合抗性!J49&amp;"|"&amp;__回合抗性!K49</f>
-        <v>0|0|0|0</v>
+        <v>25|0|0|0</v>
       </c>
       <c r="P49" s="8">
         <v>0</v>
@@ -22918,7 +22918,7 @@
       </c>
       <c r="AE49" s="53" t="str">
         <f>__回合抗性!L49&amp;"|"&amp;__回合抗性!M49&amp;"|"&amp;__回合抗性!N49&amp;"|"&amp;__回合抗性!O49</f>
-        <v>0|0|0|0</v>
+        <v>25|0|0|0</v>
       </c>
     </row>
     <row r="50" ht="30.5" customHeight="1" spans="1:31">
@@ -22967,7 +22967,7 @@
       </c>
       <c r="O50" s="53" t="str">
         <f>__回合抗性!H50&amp;"|"&amp;__回合抗性!I50&amp;"|"&amp;__回合抗性!J50&amp;"|"&amp;__回合抗性!K50</f>
-        <v>0|0|0|0</v>
+        <v>25|0|0|0</v>
       </c>
       <c r="P50" s="8">
         <v>0</v>
@@ -23008,7 +23008,7 @@
       </c>
       <c r="AE50" s="53" t="str">
         <f>__回合抗性!L50&amp;"|"&amp;__回合抗性!M50&amp;"|"&amp;__回合抗性!N50&amp;"|"&amp;__回合抗性!O50</f>
-        <v>0|0|0|0</v>
+        <v>25|0|0|0</v>
       </c>
     </row>
     <row r="51" ht="30.5" customHeight="1" spans="1:31">
@@ -23057,7 +23057,7 @@
       </c>
       <c r="O51" s="53" t="str">
         <f>__回合抗性!H51&amp;"|"&amp;__回合抗性!I51&amp;"|"&amp;__回合抗性!J51&amp;"|"&amp;__回合抗性!K51</f>
-        <v>0|0|0|0</v>
+        <v>25|0|0|0</v>
       </c>
       <c r="P51" s="8">
         <v>0</v>
@@ -23093,7 +23093,7 @@
       </c>
       <c r="AE51" s="53" t="str">
         <f>__回合抗性!L51&amp;"|"&amp;__回合抗性!M51&amp;"|"&amp;__回合抗性!N51&amp;"|"&amp;__回合抗性!O51</f>
-        <v>0|0|0|0</v>
+        <v>25|0|0|0</v>
       </c>
     </row>
     <row r="52" ht="30.5" customHeight="1" spans="1:31">
@@ -23142,7 +23142,7 @@
       </c>
       <c r="O52" s="53" t="str">
         <f>__回合抗性!H52&amp;"|"&amp;__回合抗性!I52&amp;"|"&amp;__回合抗性!J52&amp;"|"&amp;__回合抗性!K52</f>
-        <v>0|0|0|0</v>
+        <v>25|0|0|0</v>
       </c>
       <c r="P52" s="8">
         <v>0</v>
@@ -23178,7 +23178,7 @@
       </c>
       <c r="AE52" s="53" t="str">
         <f>__回合抗性!L52&amp;"|"&amp;__回合抗性!M52&amp;"|"&amp;__回合抗性!N52&amp;"|"&amp;__回合抗性!O52</f>
-        <v>0|0|0|0</v>
+        <v>25|0|0|0</v>
       </c>
     </row>
     <row r="53" ht="30.5" customHeight="1" spans="1:31">
@@ -23227,7 +23227,7 @@
       </c>
       <c r="O53" s="53" t="str">
         <f>__回合抗性!H53&amp;"|"&amp;__回合抗性!I53&amp;"|"&amp;__回合抗性!J53&amp;"|"&amp;__回合抗性!K53</f>
-        <v>0|0|0|0</v>
+        <v>30|0|0|0</v>
       </c>
       <c r="P53" s="8">
         <v>0</v>
@@ -23263,7 +23263,7 @@
       </c>
       <c r="AE53" s="53" t="str">
         <f>__回合抗性!L53&amp;"|"&amp;__回合抗性!M53&amp;"|"&amp;__回合抗性!N53&amp;"|"&amp;__回合抗性!O53</f>
-        <v>0|0|0|0</v>
+        <v>30|0|0|0</v>
       </c>
     </row>
     <row r="54" ht="30.5" customHeight="1" spans="1:31">
@@ -23312,7 +23312,7 @@
       </c>
       <c r="O54" s="53" t="str">
         <f>__回合抗性!H54&amp;"|"&amp;__回合抗性!I54&amp;"|"&amp;__回合抗性!J54&amp;"|"&amp;__回合抗性!K54</f>
-        <v>0|0|0|0</v>
+        <v>30|0|0|0</v>
       </c>
       <c r="P54" s="8">
         <v>0</v>
@@ -23348,7 +23348,7 @@
       </c>
       <c r="AE54" s="53" t="str">
         <f>__回合抗性!L54&amp;"|"&amp;__回合抗性!M54&amp;"|"&amp;__回合抗性!N54&amp;"|"&amp;__回合抗性!O54</f>
-        <v>0|0|0|0</v>
+        <v>30|0|0|0</v>
       </c>
     </row>
     <row r="55" ht="30.5" customHeight="1" spans="1:31">
@@ -23397,7 +23397,7 @@
       </c>
       <c r="O55" s="53" t="str">
         <f>__回合抗性!H55&amp;"|"&amp;__回合抗性!I55&amp;"|"&amp;__回合抗性!J55&amp;"|"&amp;__回合抗性!K55</f>
-        <v>0|0|0|0</v>
+        <v>30|0|0|0</v>
       </c>
       <c r="P55" s="8">
         <v>0</v>
@@ -23438,7 +23438,7 @@
       </c>
       <c r="AE55" s="53" t="str">
         <f>__回合抗性!L55&amp;"|"&amp;__回合抗性!M55&amp;"|"&amp;__回合抗性!N55&amp;"|"&amp;__回合抗性!O55</f>
-        <v>0|0|0|0</v>
+        <v>30|0|0|0</v>
       </c>
     </row>
     <row r="56" ht="30.5" customHeight="1" spans="1:31">
@@ -23487,7 +23487,7 @@
       </c>
       <c r="O56" s="53" t="str">
         <f>__回合抗性!H56&amp;"|"&amp;__回合抗性!I56&amp;"|"&amp;__回合抗性!J56&amp;"|"&amp;__回合抗性!K56</f>
-        <v>0|0|0|0</v>
+        <v>30|0|0|0</v>
       </c>
       <c r="P56" s="8">
         <v>0</v>
@@ -23523,7 +23523,7 @@
       </c>
       <c r="AE56" s="53" t="str">
         <f>__回合抗性!L56&amp;"|"&amp;__回合抗性!M56&amp;"|"&amp;__回合抗性!N56&amp;"|"&amp;__回合抗性!O56</f>
-        <v>0|0|0|0</v>
+        <v>30|0|0|0</v>
       </c>
     </row>
     <row r="57" ht="30.5" customHeight="1" spans="1:31">
@@ -23572,7 +23572,7 @@
       </c>
       <c r="O57" s="53" t="str">
         <f>__回合抗性!H57&amp;"|"&amp;__回合抗性!I57&amp;"|"&amp;__回合抗性!J57&amp;"|"&amp;__回合抗性!K57</f>
-        <v>0|0|0|0</v>
+        <v>30|0|0|0</v>
       </c>
       <c r="P57" s="14">
         <v>0</v>
@@ -23613,7 +23613,7 @@
       </c>
       <c r="AE57" s="53" t="str">
         <f>__回合抗性!L57&amp;"|"&amp;__回合抗性!M57&amp;"|"&amp;__回合抗性!N57&amp;"|"&amp;__回合抗性!O57</f>
-        <v>0|0|0|0</v>
+        <v>30|0|0|0</v>
       </c>
     </row>
     <row r="58" customFormat="1" ht="30.5" customHeight="1" spans="1:31">
@@ -23640,7 +23640,7 @@
       </c>
       <c r="H58" s="53" t="str">
         <f>__回合抗性!D58&amp;"|"&amp;__回合抗性!E58&amp;"|"&amp;__回合抗性!F58&amp;"|"&amp;__回合抗性!G58</f>
-        <v>0|0|0|0</v>
+        <v>0|0|25|0</v>
       </c>
       <c r="I58" s="8" t="s">
         <v>156</v>
@@ -23662,7 +23662,7 @@
       </c>
       <c r="O58" s="53" t="str">
         <f>__回合抗性!H58&amp;"|"&amp;__回合抗性!I58&amp;"|"&amp;__回合抗性!J58&amp;"|"&amp;__回合抗性!K58</f>
-        <v>0|0|0|0</v>
+        <v>0|0|5|0</v>
       </c>
       <c r="P58" s="8">
         <v>0</v>
@@ -23698,7 +23698,7 @@
       </c>
       <c r="AE58" s="53" t="str">
         <f>__回合抗性!L58&amp;"|"&amp;__回合抗性!M58&amp;"|"&amp;__回合抗性!N58&amp;"|"&amp;__回合抗性!O58</f>
-        <v>0|0|0|0</v>
+        <v>0|0|5|0</v>
       </c>
     </row>
     <row r="59" customFormat="1" ht="30.5" customHeight="1" spans="1:31">
@@ -23725,7 +23725,7 @@
       </c>
       <c r="H59" s="53" t="str">
         <f>__回合抗性!D59&amp;"|"&amp;__回合抗性!E59&amp;"|"&amp;__回合抗性!F59&amp;"|"&amp;__回合抗性!G59</f>
-        <v>0|0|0|0</v>
+        <v>0|0|25|0</v>
       </c>
       <c r="I59" s="8" t="s">
         <v>156</v>
@@ -23747,7 +23747,7 @@
       </c>
       <c r="O59" s="53" t="str">
         <f>__回合抗性!H59&amp;"|"&amp;__回合抗性!I59&amp;"|"&amp;__回合抗性!J59&amp;"|"&amp;__回合抗性!K59</f>
-        <v>0|0|0|0</v>
+        <v>0|0|5|0</v>
       </c>
       <c r="P59" s="8">
         <v>0</v>
@@ -23783,7 +23783,7 @@
       </c>
       <c r="AE59" s="53" t="str">
         <f>__回合抗性!L59&amp;"|"&amp;__回合抗性!M59&amp;"|"&amp;__回合抗性!N59&amp;"|"&amp;__回合抗性!O59</f>
-        <v>0|0|0|0</v>
+        <v>0|0|5|0</v>
       </c>
     </row>
     <row r="60" customFormat="1" ht="30.5" customHeight="1" spans="1:31">
@@ -23810,7 +23810,7 @@
       </c>
       <c r="H60" s="53" t="str">
         <f>__回合抗性!D60&amp;"|"&amp;__回合抗性!E60&amp;"|"&amp;__回合抗性!F60&amp;"|"&amp;__回合抗性!G60</f>
-        <v>0|0|0|0</v>
+        <v>0|0|25|0</v>
       </c>
       <c r="I60" s="8" t="s">
         <v>186</v>
@@ -23832,7 +23832,7 @@
       </c>
       <c r="O60" s="53" t="str">
         <f>__回合抗性!H60&amp;"|"&amp;__回合抗性!I60&amp;"|"&amp;__回合抗性!J60&amp;"|"&amp;__回合抗性!K60</f>
-        <v>0|0|0|0</v>
+        <v>0|0|5|0</v>
       </c>
       <c r="P60" s="8">
         <v>0</v>
@@ -23868,7 +23868,7 @@
       </c>
       <c r="AE60" s="53" t="str">
         <f>__回合抗性!L60&amp;"|"&amp;__回合抗性!M60&amp;"|"&amp;__回合抗性!N60&amp;"|"&amp;__回合抗性!O60</f>
-        <v>0|0|0|0</v>
+        <v>0|0|5|0</v>
       </c>
     </row>
     <row r="61" customFormat="1" ht="30.5" customHeight="1" spans="1:31">
@@ -23895,7 +23895,7 @@
       </c>
       <c r="H61" s="53" t="str">
         <f>__回合抗性!D61&amp;"|"&amp;__回合抗性!E61&amp;"|"&amp;__回合抗性!F61&amp;"|"&amp;__回合抗性!G61</f>
-        <v>0|0|0|0</v>
+        <v>0|0|25|0</v>
       </c>
       <c r="I61" s="8" t="s">
         <v>156</v>
@@ -23917,7 +23917,7 @@
       </c>
       <c r="O61" s="53" t="str">
         <f>__回合抗性!H61&amp;"|"&amp;__回合抗性!I61&amp;"|"&amp;__回合抗性!J61&amp;"|"&amp;__回合抗性!K61</f>
-        <v>0|0|0|0</v>
+        <v>0|0|5|0</v>
       </c>
       <c r="P61" s="8">
         <v>0</v>
@@ -23953,7 +23953,7 @@
       </c>
       <c r="AE61" s="53" t="str">
         <f>__回合抗性!L61&amp;"|"&amp;__回合抗性!M61&amp;"|"&amp;__回合抗性!N61&amp;"|"&amp;__回合抗性!O61</f>
-        <v>0|0|0|0</v>
+        <v>0|0|5|0</v>
       </c>
     </row>
     <row r="62" customFormat="1" ht="30.5" customHeight="1" spans="1:31">
@@ -23980,7 +23980,7 @@
       </c>
       <c r="H62" s="53" t="str">
         <f>__回合抗性!D62&amp;"|"&amp;__回合抗性!E62&amp;"|"&amp;__回合抗性!F62&amp;"|"&amp;__回合抗性!G62</f>
-        <v>0|0|0|0</v>
+        <v>0|0|30|0</v>
       </c>
       <c r="I62" s="8" t="s">
         <v>156</v>
@@ -24002,7 +24002,7 @@
       </c>
       <c r="O62" s="53" t="str">
         <f>__回合抗性!H62&amp;"|"&amp;__回合抗性!I62&amp;"|"&amp;__回合抗性!J62&amp;"|"&amp;__回合抗性!K62</f>
-        <v>0|0|0|0</v>
+        <v>0|0|5|0</v>
       </c>
       <c r="P62" s="8">
         <v>0</v>
@@ -24038,7 +24038,7 @@
       </c>
       <c r="AE62" s="53" t="str">
         <f>__回合抗性!L62&amp;"|"&amp;__回合抗性!M62&amp;"|"&amp;__回合抗性!N62&amp;"|"&amp;__回合抗性!O62</f>
-        <v>0|0|0|0</v>
+        <v>0|0|5|0</v>
       </c>
     </row>
     <row r="63" customFormat="1" ht="30.5" customHeight="1" spans="1:31">
@@ -24065,7 +24065,7 @@
       </c>
       <c r="H63" s="53" t="str">
         <f>__回合抗性!D63&amp;"|"&amp;__回合抗性!E63&amp;"|"&amp;__回合抗性!F63&amp;"|"&amp;__回合抗性!G63</f>
-        <v>0|0|0|0</v>
+        <v>0|0|30|0</v>
       </c>
       <c r="I63" s="8" t="s">
         <v>156</v>
@@ -24087,7 +24087,7 @@
       </c>
       <c r="O63" s="53" t="str">
         <f>__回合抗性!H63&amp;"|"&amp;__回合抗性!I63&amp;"|"&amp;__回合抗性!J63&amp;"|"&amp;__回合抗性!K63</f>
-        <v>0|0|0|0</v>
+        <v>0|0|10|0</v>
       </c>
       <c r="P63" s="8">
         <v>0</v>
@@ -24128,7 +24128,7 @@
       </c>
       <c r="AE63" s="53" t="str">
         <f>__回合抗性!L63&amp;"|"&amp;__回合抗性!M63&amp;"|"&amp;__回合抗性!N63&amp;"|"&amp;__回合抗性!O63</f>
-        <v>0|0|0|0</v>
+        <v>0|0|10|0</v>
       </c>
     </row>
     <row r="64" customFormat="1" ht="30.5" customHeight="1" spans="1:31">
@@ -24155,7 +24155,7 @@
       </c>
       <c r="H64" s="53" t="str">
         <f>__回合抗性!D64&amp;"|"&amp;__回合抗性!E64&amp;"|"&amp;__回合抗性!F64&amp;"|"&amp;__回合抗性!G64</f>
-        <v>0|0|0|0</v>
+        <v>0|0|30|0</v>
       </c>
       <c r="I64" s="8" t="s">
         <v>156</v>
@@ -24177,7 +24177,7 @@
       </c>
       <c r="O64" s="53" t="str">
         <f>__回合抗性!H64&amp;"|"&amp;__回合抗性!I64&amp;"|"&amp;__回合抗性!J64&amp;"|"&amp;__回合抗性!K64</f>
-        <v>0|0|0|0</v>
+        <v>0|0|10|0</v>
       </c>
       <c r="P64" s="8">
         <v>0</v>
@@ -24213,7 +24213,7 @@
       </c>
       <c r="AE64" s="53" t="str">
         <f>__回合抗性!L64&amp;"|"&amp;__回合抗性!M64&amp;"|"&amp;__回合抗性!N64&amp;"|"&amp;__回合抗性!O64</f>
-        <v>0|0|0|0</v>
+        <v>0|0|10|0</v>
       </c>
     </row>
     <row r="65" customFormat="1" ht="30.5" customHeight="1" spans="1:31">
@@ -24240,7 +24240,7 @@
       </c>
       <c r="H65" s="53" t="str">
         <f>__回合抗性!D65&amp;"|"&amp;__回合抗性!E65&amp;"|"&amp;__回合抗性!F65&amp;"|"&amp;__回合抗性!G65</f>
-        <v>0|0|0|0</v>
+        <v>0|0|30|0</v>
       </c>
       <c r="I65" s="8" t="s">
         <v>188</v>
@@ -24262,7 +24262,7 @@
       </c>
       <c r="O65" s="53" t="str">
         <f>__回合抗性!H65&amp;"|"&amp;__回合抗性!I65&amp;"|"&amp;__回合抗性!J65&amp;"|"&amp;__回合抗性!K65</f>
-        <v>0|0|0|0</v>
+        <v>0|0|10|0</v>
       </c>
       <c r="P65" s="8">
         <v>0</v>
@@ -24303,7 +24303,7 @@
       </c>
       <c r="AE65" s="53" t="str">
         <f>__回合抗性!L65&amp;"|"&amp;__回合抗性!M65&amp;"|"&amp;__回合抗性!N65&amp;"|"&amp;__回合抗性!O65</f>
-        <v>0|0|0|0</v>
+        <v>0|0|10|0</v>
       </c>
     </row>
     <row r="66" customFormat="1" ht="30.5" customHeight="1" spans="1:31">
@@ -24330,7 +24330,7 @@
       </c>
       <c r="H66" s="53" t="str">
         <f>__回合抗性!D66&amp;"|"&amp;__回合抗性!E66&amp;"|"&amp;__回合抗性!F66&amp;"|"&amp;__回合抗性!G66</f>
-        <v>0|0|0|0</v>
+        <v>0|0|30|0</v>
       </c>
       <c r="I66" s="8" t="s">
         <v>156</v>
@@ -24352,7 +24352,7 @@
       </c>
       <c r="O66" s="53" t="str">
         <f>__回合抗性!H66&amp;"|"&amp;__回合抗性!I66&amp;"|"&amp;__回合抗性!J66&amp;"|"&amp;__回合抗性!K66</f>
-        <v>0|0|0|0</v>
+        <v>0|0|10|0</v>
       </c>
       <c r="P66" s="8">
         <v>0</v>
@@ -24388,7 +24388,7 @@
       </c>
       <c r="AE66" s="53" t="str">
         <f>__回合抗性!L66&amp;"|"&amp;__回合抗性!M66&amp;"|"&amp;__回合抗性!N66&amp;"|"&amp;__回合抗性!O66</f>
-        <v>0|0|0|0</v>
+        <v>0|0|10|0</v>
       </c>
     </row>
     <row r="67" customFormat="1" ht="30.5" customHeight="1" spans="1:31">
@@ -24415,7 +24415,7 @@
       </c>
       <c r="H67" s="53" t="str">
         <f>__回合抗性!D67&amp;"|"&amp;__回合抗性!E67&amp;"|"&amp;__回合抗性!F67&amp;"|"&amp;__回合抗性!G67</f>
-        <v>0|0|0|0</v>
+        <v>0|0|35|0</v>
       </c>
       <c r="I67" s="8" t="s">
         <v>156</v>
@@ -24437,7 +24437,7 @@
       </c>
       <c r="O67" s="53" t="str">
         <f>__回合抗性!H67&amp;"|"&amp;__回合抗性!I67&amp;"|"&amp;__回合抗性!J67&amp;"|"&amp;__回合抗性!K67</f>
-        <v>0|0|0|0</v>
+        <v>0|0|10|0</v>
       </c>
       <c r="P67" s="8">
         <v>0</v>
@@ -24473,7 +24473,7 @@
       </c>
       <c r="AE67" s="53" t="str">
         <f>__回合抗性!L67&amp;"|"&amp;__回合抗性!M67&amp;"|"&amp;__回合抗性!N67&amp;"|"&amp;__回合抗性!O67</f>
-        <v>0|0|0|0</v>
+        <v>0|0|10|0</v>
       </c>
     </row>
     <row r="68" customFormat="1" ht="30.5" customHeight="1" spans="1:31">
@@ -24500,7 +24500,7 @@
       </c>
       <c r="H68" s="53" t="str">
         <f>__回合抗性!D68&amp;"|"&amp;__回合抗性!E68&amp;"|"&amp;__回合抗性!F68&amp;"|"&amp;__回合抗性!G68</f>
-        <v>0|0|0|0</v>
+        <v>0|0|35|0</v>
       </c>
       <c r="I68" s="8" t="s">
         <v>156</v>
@@ -24522,7 +24522,7 @@
       </c>
       <c r="O68" s="53" t="str">
         <f>__回合抗性!H68&amp;"|"&amp;__回合抗性!I68&amp;"|"&amp;__回合抗性!J68&amp;"|"&amp;__回合抗性!K68</f>
-        <v>0|0|0|0</v>
+        <v>0|0|15|0</v>
       </c>
       <c r="P68" s="8">
         <v>0</v>
@@ -24558,7 +24558,7 @@
       </c>
       <c r="AE68" s="53" t="str">
         <f>__回合抗性!L68&amp;"|"&amp;__回合抗性!M68&amp;"|"&amp;__回合抗性!N68&amp;"|"&amp;__回合抗性!O68</f>
-        <v>0|0|0|0</v>
+        <v>0|0|15|0</v>
       </c>
     </row>
     <row r="69" customFormat="1" ht="30.5" customHeight="1" spans="1:31">
@@ -24585,7 +24585,7 @@
       </c>
       <c r="H69" s="53" t="str">
         <f>__回合抗性!D69&amp;"|"&amp;__回合抗性!E69&amp;"|"&amp;__回合抗性!F69&amp;"|"&amp;__回合抗性!G69</f>
-        <v>0|0|0|0</v>
+        <v>0|0|35|0</v>
       </c>
       <c r="I69" s="8" t="s">
         <v>156</v>
@@ -24607,7 +24607,7 @@
       </c>
       <c r="O69" s="53" t="str">
         <f>__回合抗性!H69&amp;"|"&amp;__回合抗性!I69&amp;"|"&amp;__回合抗性!J69&amp;"|"&amp;__回合抗性!K69</f>
-        <v>0|0|0|0</v>
+        <v>0|0|15|0</v>
       </c>
       <c r="P69" s="8">
         <v>0</v>
@@ -24643,7 +24643,7 @@
       </c>
       <c r="AE69" s="53" t="str">
         <f>__回合抗性!L69&amp;"|"&amp;__回合抗性!M69&amp;"|"&amp;__回合抗性!N69&amp;"|"&amp;__回合抗性!O69</f>
-        <v>0|0|0|0</v>
+        <v>0|0|15|0</v>
       </c>
     </row>
     <row r="70" customFormat="1" ht="30.5" customHeight="1" spans="1:31">
@@ -24670,7 +24670,7 @@
       </c>
       <c r="H70" s="53" t="str">
         <f>__回合抗性!D70&amp;"|"&amp;__回合抗性!E70&amp;"|"&amp;__回合抗性!F70&amp;"|"&amp;__回合抗性!G70</f>
-        <v>0|0|0|0</v>
+        <v>0|0|35|0</v>
       </c>
       <c r="I70" s="8" t="s">
         <v>190</v>
@@ -24692,7 +24692,7 @@
       </c>
       <c r="O70" s="53" t="str">
         <f>__回合抗性!H70&amp;"|"&amp;__回合抗性!I70&amp;"|"&amp;__回合抗性!J70&amp;"|"&amp;__回合抗性!K70</f>
-        <v>0|0|0|0</v>
+        <v>0|0|15|0</v>
       </c>
       <c r="P70" s="8">
         <v>0</v>
@@ -24733,7 +24733,7 @@
       </c>
       <c r="AE70" s="53" t="str">
         <f>__回合抗性!L70&amp;"|"&amp;__回合抗性!M70&amp;"|"&amp;__回合抗性!N70&amp;"|"&amp;__回合抗性!O70</f>
-        <v>0|0|0|0</v>
+        <v>0|0|15|0</v>
       </c>
     </row>
     <row r="71" customFormat="1" ht="30.5" customHeight="1" spans="1:31">
@@ -24760,7 +24760,7 @@
       </c>
       <c r="H71" s="53" t="str">
         <f>__回合抗性!D71&amp;"|"&amp;__回合抗性!E71&amp;"|"&amp;__回合抗性!F71&amp;"|"&amp;__回合抗性!G71</f>
-        <v>0|0|0|0</v>
+        <v>0|0|35|0</v>
       </c>
       <c r="I71" s="8" t="s">
         <v>156</v>
@@ -24782,7 +24782,7 @@
       </c>
       <c r="O71" s="53" t="str">
         <f>__回合抗性!H71&amp;"|"&amp;__回合抗性!I71&amp;"|"&amp;__回合抗性!J71&amp;"|"&amp;__回合抗性!K71</f>
-        <v>0|0|0|0</v>
+        <v>0|0|15|0</v>
       </c>
       <c r="P71" s="8">
         <v>0</v>
@@ -24818,7 +24818,7 @@
       </c>
       <c r="AE71" s="53" t="str">
         <f>__回合抗性!L71&amp;"|"&amp;__回合抗性!M71&amp;"|"&amp;__回合抗性!N71&amp;"|"&amp;__回合抗性!O71</f>
-        <v>0|0|0|0</v>
+        <v>0|0|15|0</v>
       </c>
     </row>
     <row r="72" customFormat="1" ht="30.5" customHeight="1" spans="1:31">
@@ -24845,7 +24845,7 @@
       </c>
       <c r="H72" s="53" t="str">
         <f>__回合抗性!D72&amp;"|"&amp;__回合抗性!E72&amp;"|"&amp;__回合抗性!F72&amp;"|"&amp;__回合抗性!G72</f>
-        <v>0|0|0|0</v>
+        <v>0|0|40|0</v>
       </c>
       <c r="I72" s="8" t="s">
         <v>156</v>
@@ -24867,7 +24867,7 @@
       </c>
       <c r="O72" s="53" t="str">
         <f>__回合抗性!H72&amp;"|"&amp;__回合抗性!I72&amp;"|"&amp;__回合抗性!J72&amp;"|"&amp;__回合抗性!K72</f>
-        <v>0|0|0|0</v>
+        <v>0|0|15|0</v>
       </c>
       <c r="P72" s="8">
         <v>0</v>
@@ -24908,7 +24908,7 @@
       </c>
       <c r="AE72" s="53" t="str">
         <f>__回合抗性!L72&amp;"|"&amp;__回合抗性!M72&amp;"|"&amp;__回合抗性!N72&amp;"|"&amp;__回合抗性!O72</f>
-        <v>0|0|0|0</v>
+        <v>0|0|15|0</v>
       </c>
     </row>
     <row r="73" customFormat="1" ht="30.5" customHeight="1" spans="1:31">
@@ -24935,7 +24935,7 @@
       </c>
       <c r="H73" s="53" t="str">
         <f>__回合抗性!D73&amp;"|"&amp;__回合抗性!E73&amp;"|"&amp;__回合抗性!F73&amp;"|"&amp;__回合抗性!G73</f>
-        <v>0|0|0|0</v>
+        <v>0|0|40|0</v>
       </c>
       <c r="I73" s="8" t="s">
         <v>156</v>
@@ -24957,7 +24957,7 @@
       </c>
       <c r="O73" s="53" t="str">
         <f>__回合抗性!H73&amp;"|"&amp;__回合抗性!I73&amp;"|"&amp;__回合抗性!J73&amp;"|"&amp;__回合抗性!K73</f>
-        <v>0|0|0|0</v>
+        <v>0|0|20|0</v>
       </c>
       <c r="P73" s="8">
         <v>0</v>
@@ -24993,7 +24993,7 @@
       </c>
       <c r="AE73" s="53" t="str">
         <f>__回合抗性!L73&amp;"|"&amp;__回合抗性!M73&amp;"|"&amp;__回合抗性!N73&amp;"|"&amp;__回合抗性!O73</f>
-        <v>0|0|0|0</v>
+        <v>0|0|20|0</v>
       </c>
     </row>
     <row r="74" customFormat="1" ht="30.5" customHeight="1" spans="1:31">
@@ -25020,7 +25020,7 @@
       </c>
       <c r="H74" s="53" t="str">
         <f>__回合抗性!D74&amp;"|"&amp;__回合抗性!E74&amp;"|"&amp;__回合抗性!F74&amp;"|"&amp;__回合抗性!G74</f>
-        <v>0|0|0|0</v>
+        <v>0|0|40|0</v>
       </c>
       <c r="I74" s="8" t="s">
         <v>156</v>
@@ -25042,7 +25042,7 @@
       </c>
       <c r="O74" s="53" t="str">
         <f>__回合抗性!H74&amp;"|"&amp;__回合抗性!I74&amp;"|"&amp;__回合抗性!J74&amp;"|"&amp;__回合抗性!K74</f>
-        <v>0|0|0|0</v>
+        <v>0|0|20|0</v>
       </c>
       <c r="P74" s="8">
         <v>0</v>
@@ -25078,7 +25078,7 @@
       </c>
       <c r="AE74" s="53" t="str">
         <f>__回合抗性!L74&amp;"|"&amp;__回合抗性!M74&amp;"|"&amp;__回合抗性!N74&amp;"|"&amp;__回合抗性!O74</f>
-        <v>0|0|0|0</v>
+        <v>0|0|20|0</v>
       </c>
     </row>
     <row r="75" customFormat="1" ht="30.5" customHeight="1" spans="1:31">
@@ -25105,7 +25105,7 @@
       </c>
       <c r="H75" s="53" t="str">
         <f>__回合抗性!D75&amp;"|"&amp;__回合抗性!E75&amp;"|"&amp;__回合抗性!F75&amp;"|"&amp;__回合抗性!G75</f>
-        <v>0|0|0|0</v>
+        <v>0|0|40|0</v>
       </c>
       <c r="I75" s="8" t="s">
         <v>192</v>
@@ -25127,7 +25127,7 @@
       </c>
       <c r="O75" s="53" t="str">
         <f>__回合抗性!H75&amp;"|"&amp;__回合抗性!I75&amp;"|"&amp;__回合抗性!J75&amp;"|"&amp;__回合抗性!K75</f>
-        <v>0|0|0|0</v>
+        <v>0|0|20|0</v>
       </c>
       <c r="P75" s="8">
         <v>0</v>
@@ -25163,7 +25163,7 @@
       </c>
       <c r="AE75" s="53" t="str">
         <f>__回合抗性!L75&amp;"|"&amp;__回合抗性!M75&amp;"|"&amp;__回合抗性!N75&amp;"|"&amp;__回合抗性!O75</f>
-        <v>0|0|0|0</v>
+        <v>0|0|20|0</v>
       </c>
     </row>
     <row r="76" customFormat="1" ht="30.5" customHeight="1" spans="1:31">
@@ -25190,7 +25190,7 @@
       </c>
       <c r="H76" s="53" t="str">
         <f>__回合抗性!D76&amp;"|"&amp;__回合抗性!E76&amp;"|"&amp;__回合抗性!F76&amp;"|"&amp;__回合抗性!G76</f>
-        <v>0|0|0|0</v>
+        <v>0|0|40|0</v>
       </c>
       <c r="I76" s="8" t="s">
         <v>156</v>
@@ -25212,7 +25212,7 @@
       </c>
       <c r="O76" s="53" t="str">
         <f>__回合抗性!H76&amp;"|"&amp;__回合抗性!I76&amp;"|"&amp;__回合抗性!J76&amp;"|"&amp;__回合抗性!K76</f>
-        <v>0|0|0|0</v>
+        <v>0|0|20|0</v>
       </c>
       <c r="P76" s="8">
         <v>0</v>
@@ -25248,7 +25248,7 @@
       </c>
       <c r="AE76" s="53" t="str">
         <f>__回合抗性!L76&amp;"|"&amp;__回合抗性!M76&amp;"|"&amp;__回合抗性!N76&amp;"|"&amp;__回合抗性!O76</f>
-        <v>0|0|0|0</v>
+        <v>0|0|20|0</v>
       </c>
     </row>
     <row r="77" customFormat="1" ht="30.5" customHeight="1" spans="1:31">
@@ -25275,7 +25275,7 @@
       </c>
       <c r="H77" s="53" t="str">
         <f>__回合抗性!D77&amp;"|"&amp;__回合抗性!E77&amp;"|"&amp;__回合抗性!F77&amp;"|"&amp;__回合抗性!G77</f>
-        <v>0|0|0|0</v>
+        <v>0|0|45|0</v>
       </c>
       <c r="I77" s="8" t="s">
         <v>156</v>
@@ -25297,7 +25297,7 @@
       </c>
       <c r="O77" s="53" t="str">
         <f>__回合抗性!H77&amp;"|"&amp;__回合抗性!I77&amp;"|"&amp;__回合抗性!J77&amp;"|"&amp;__回合抗性!K77</f>
-        <v>0|0|0|0</v>
+        <v>0|0|20|0</v>
       </c>
       <c r="P77" s="8">
         <v>0</v>
@@ -25333,7 +25333,7 @@
       </c>
       <c r="AE77" s="53" t="str">
         <f>__回合抗性!L77&amp;"|"&amp;__回合抗性!M77&amp;"|"&amp;__回合抗性!N77&amp;"|"&amp;__回合抗性!O77</f>
-        <v>0|0|0|0</v>
+        <v>0|0|20|0</v>
       </c>
     </row>
     <row r="78" customFormat="1" ht="30.5" customHeight="1" spans="1:31">
@@ -25360,7 +25360,7 @@
       </c>
       <c r="H78" s="53" t="str">
         <f>__回合抗性!D78&amp;"|"&amp;__回合抗性!E78&amp;"|"&amp;__回合抗性!F78&amp;"|"&amp;__回合抗性!G78</f>
-        <v>0|0|0|0</v>
+        <v>0|0|45|0</v>
       </c>
       <c r="I78" s="8" t="s">
         <v>156</v>
@@ -25382,7 +25382,7 @@
       </c>
       <c r="O78" s="53" t="str">
         <f>__回合抗性!H78&amp;"|"&amp;__回合抗性!I78&amp;"|"&amp;__回合抗性!J78&amp;"|"&amp;__回合抗性!K78</f>
-        <v>0|0|0|0</v>
+        <v>0|0|25|0</v>
       </c>
       <c r="P78" s="8">
         <v>0</v>
@@ -25423,7 +25423,7 @@
       </c>
       <c r="AE78" s="53" t="str">
         <f>__回合抗性!L78&amp;"|"&amp;__回合抗性!M78&amp;"|"&amp;__回合抗性!N78&amp;"|"&amp;__回合抗性!O78</f>
-        <v>0|0|0|0</v>
+        <v>0|0|25|0</v>
       </c>
     </row>
     <row r="79" customFormat="1" ht="30.5" customHeight="1" spans="1:31">
@@ -25450,7 +25450,7 @@
       </c>
       <c r="H79" s="53" t="str">
         <f>__回合抗性!D79&amp;"|"&amp;__回合抗性!E79&amp;"|"&amp;__回合抗性!F79&amp;"|"&amp;__回合抗性!G79</f>
-        <v>0|0|0|0</v>
+        <v>0|0|45|0</v>
       </c>
       <c r="I79" s="8" t="s">
         <v>156</v>
@@ -25472,7 +25472,7 @@
       </c>
       <c r="O79" s="53" t="str">
         <f>__回合抗性!H79&amp;"|"&amp;__回合抗性!I79&amp;"|"&amp;__回合抗性!J79&amp;"|"&amp;__回合抗性!K79</f>
-        <v>0|0|0|0</v>
+        <v>0|0|25|0</v>
       </c>
       <c r="P79" s="8">
         <v>0</v>
@@ -25508,7 +25508,7 @@
       </c>
       <c r="AE79" s="53" t="str">
         <f>__回合抗性!L79&amp;"|"&amp;__回合抗性!M79&amp;"|"&amp;__回合抗性!N79&amp;"|"&amp;__回合抗性!O79</f>
-        <v>0|0|0|0</v>
+        <v>0|0|25|0</v>
       </c>
     </row>
     <row r="80" customFormat="1" ht="30.5" customHeight="1" spans="1:31">
@@ -25535,7 +25535,7 @@
       </c>
       <c r="H80" s="53" t="str">
         <f>__回合抗性!D80&amp;"|"&amp;__回合抗性!E80&amp;"|"&amp;__回合抗性!F80&amp;"|"&amp;__回合抗性!G80</f>
-        <v>0|0|0|0</v>
+        <v>0|0|45|0</v>
       </c>
       <c r="I80" s="8" t="s">
         <v>194</v>
@@ -25557,7 +25557,7 @@
       </c>
       <c r="O80" s="53" t="str">
         <f>__回合抗性!H80&amp;"|"&amp;__回合抗性!I80&amp;"|"&amp;__回合抗性!J80&amp;"|"&amp;__回合抗性!K80</f>
-        <v>0|0|0|0</v>
+        <v>0|0|25|0</v>
       </c>
       <c r="P80" s="8">
         <v>0</v>
@@ -25598,7 +25598,7 @@
       </c>
       <c r="AE80" s="53" t="str">
         <f>__回合抗性!L80&amp;"|"&amp;__回合抗性!M80&amp;"|"&amp;__回合抗性!N80&amp;"|"&amp;__回合抗性!O80</f>
-        <v>0|0|0|0</v>
+        <v>0|0|25|0</v>
       </c>
     </row>
     <row r="81" customFormat="1" ht="30.5" customHeight="1" spans="1:31">
@@ -25625,7 +25625,7 @@
       </c>
       <c r="H81" s="53" t="str">
         <f>__回合抗性!D81&amp;"|"&amp;__回合抗性!E81&amp;"|"&amp;__回合抗性!F81&amp;"|"&amp;__回合抗性!G81</f>
-        <v>0|0|0|0</v>
+        <v>0|0|45|0</v>
       </c>
       <c r="I81" s="8" t="s">
         <v>156</v>
@@ -25647,7 +25647,7 @@
       </c>
       <c r="O81" s="53" t="str">
         <f>__回合抗性!H81&amp;"|"&amp;__回合抗性!I81&amp;"|"&amp;__回合抗性!J81&amp;"|"&amp;__回合抗性!K81</f>
-        <v>0|0|0|0</v>
+        <v>0|0|25|0</v>
       </c>
       <c r="P81" s="8">
         <v>0</v>
@@ -25683,7 +25683,7 @@
       </c>
       <c r="AE81" s="53" t="str">
         <f>__回合抗性!L81&amp;"|"&amp;__回合抗性!M81&amp;"|"&amp;__回合抗性!N81&amp;"|"&amp;__回合抗性!O81</f>
-        <v>0|0|0|0</v>
+        <v>0|0|25|0</v>
       </c>
     </row>
     <row r="82" customFormat="1" ht="30.5" customHeight="1" spans="1:31">
@@ -25710,7 +25710,7 @@
       </c>
       <c r="H82" s="53" t="str">
         <f>__回合抗性!D82&amp;"|"&amp;__回合抗性!E82&amp;"|"&amp;__回合抗性!F82&amp;"|"&amp;__回合抗性!G82</f>
-        <v>0|0|0|0</v>
+        <v>0|0|45|0</v>
       </c>
       <c r="I82" s="8" t="s">
         <v>156</v>
@@ -25732,7 +25732,7 @@
       </c>
       <c r="O82" s="53" t="str">
         <f>__回合抗性!H82&amp;"|"&amp;__回合抗性!I82&amp;"|"&amp;__回合抗性!J82&amp;"|"&amp;__回合抗性!K82</f>
-        <v>0|0|0|0</v>
+        <v>0|0|25|0</v>
       </c>
       <c r="P82" s="8">
         <v>0</v>
@@ -25768,7 +25768,7 @@
       </c>
       <c r="AE82" s="53" t="str">
         <f>__回合抗性!L82&amp;"|"&amp;__回合抗性!M82&amp;"|"&amp;__回合抗性!N82&amp;"|"&amp;__回合抗性!O82</f>
-        <v>0|0|0|0</v>
+        <v>0|0|25|0</v>
       </c>
     </row>
     <row r="83" customFormat="1" ht="30.5" customHeight="1" spans="1:31">
@@ -25795,7 +25795,7 @@
       </c>
       <c r="H83" s="53" t="str">
         <f>__回合抗性!D83&amp;"|"&amp;__回合抗性!E83&amp;"|"&amp;__回合抗性!F83&amp;"|"&amp;__回合抗性!G83</f>
-        <v>0|0|0|0</v>
+        <v>0|0|50|0</v>
       </c>
       <c r="I83" s="8" t="s">
         <v>156</v>
@@ -25817,7 +25817,7 @@
       </c>
       <c r="O83" s="53" t="str">
         <f>__回合抗性!H83&amp;"|"&amp;__回合抗性!I83&amp;"|"&amp;__回合抗性!J83&amp;"|"&amp;__回合抗性!K83</f>
-        <v>0|0|0|0</v>
+        <v>0|0|30|0</v>
       </c>
       <c r="P83" s="8">
         <v>0</v>
@@ -25853,7 +25853,7 @@
       </c>
       <c r="AE83" s="53" t="str">
         <f>__回合抗性!L83&amp;"|"&amp;__回合抗性!M83&amp;"|"&amp;__回合抗性!N83&amp;"|"&amp;__回合抗性!O83</f>
-        <v>0|0|0|0</v>
+        <v>0|0|30|0</v>
       </c>
     </row>
     <row r="84" customFormat="1" ht="30.5" customHeight="1" spans="1:31">
@@ -25880,7 +25880,7 @@
       </c>
       <c r="H84" s="53" t="str">
         <f>__回合抗性!D84&amp;"|"&amp;__回合抗性!E84&amp;"|"&amp;__回合抗性!F84&amp;"|"&amp;__回合抗性!G84</f>
-        <v>0|0|0|0</v>
+        <v>0|0|50|0</v>
       </c>
       <c r="I84" s="8" t="s">
         <v>156</v>
@@ -25902,7 +25902,7 @@
       </c>
       <c r="O84" s="53" t="str">
         <f>__回合抗性!H84&amp;"|"&amp;__回合抗性!I84&amp;"|"&amp;__回合抗性!J84&amp;"|"&amp;__回合抗性!K84</f>
-        <v>0|0|0|0</v>
+        <v>0|0|30|0</v>
       </c>
       <c r="P84" s="8">
         <v>0</v>
@@ -25938,7 +25938,7 @@
       </c>
       <c r="AE84" s="53" t="str">
         <f>__回合抗性!L84&amp;"|"&amp;__回合抗性!M84&amp;"|"&amp;__回合抗性!N84&amp;"|"&amp;__回合抗性!O84</f>
-        <v>0|0|0|0</v>
+        <v>0|0|30|0</v>
       </c>
     </row>
     <row r="85" customFormat="1" ht="30.5" customHeight="1" spans="1:31">
@@ -25965,7 +25965,7 @@
       </c>
       <c r="H85" s="53" t="str">
         <f>__回合抗性!D85&amp;"|"&amp;__回合抗性!E85&amp;"|"&amp;__回合抗性!F85&amp;"|"&amp;__回合抗性!G85</f>
-        <v>0|0|0|0</v>
+        <v>0|0|50|0</v>
       </c>
       <c r="I85" s="8" t="s">
         <v>196</v>
@@ -25987,7 +25987,7 @@
       </c>
       <c r="O85" s="53" t="str">
         <f>__回合抗性!H85&amp;"|"&amp;__回合抗性!I85&amp;"|"&amp;__回合抗性!J85&amp;"|"&amp;__回合抗性!K85</f>
-        <v>0|0|0|0</v>
+        <v>0|0|30|0</v>
       </c>
       <c r="P85" s="8">
         <v>0</v>
@@ -26028,7 +26028,7 @@
       </c>
       <c r="AE85" s="53" t="str">
         <f>__回合抗性!L85&amp;"|"&amp;__回合抗性!M85&amp;"|"&amp;__回合抗性!N85&amp;"|"&amp;__回合抗性!O85</f>
-        <v>0|0|0|0</v>
+        <v>0|0|30|0</v>
       </c>
     </row>
     <row r="86" customFormat="1" ht="30.5" customHeight="1" spans="1:31">
@@ -26055,7 +26055,7 @@
       </c>
       <c r="H86" s="53" t="str">
         <f>__回合抗性!D86&amp;"|"&amp;__回合抗性!E86&amp;"|"&amp;__回合抗性!F86&amp;"|"&amp;__回合抗性!G86</f>
-        <v>0|0|0|0</v>
+        <v>0|0|50|0</v>
       </c>
       <c r="I86" s="8" t="s">
         <v>197</v>
@@ -26077,7 +26077,7 @@
       </c>
       <c r="O86" s="53" t="str">
         <f>__回合抗性!H86&amp;"|"&amp;__回合抗性!I86&amp;"|"&amp;__回合抗性!J86&amp;"|"&amp;__回合抗性!K86</f>
-        <v>0|0|0|0</v>
+        <v>0|0|30|0</v>
       </c>
       <c r="P86" s="8">
         <v>0</v>
@@ -26113,7 +26113,7 @@
       </c>
       <c r="AE86" s="53" t="str">
         <f>__回合抗性!L86&amp;"|"&amp;__回合抗性!M86&amp;"|"&amp;__回合抗性!N86&amp;"|"&amp;__回合抗性!O86</f>
-        <v>0|0|0|0</v>
+        <v>0|0|30|0</v>
       </c>
     </row>
     <row r="87" customFormat="1" ht="30.5" customHeight="1" spans="1:31">
@@ -26140,7 +26140,7 @@
       </c>
       <c r="H87" s="53" t="str">
         <f>__回合抗性!D87&amp;"|"&amp;__回合抗性!E87&amp;"|"&amp;__回合抗性!F87&amp;"|"&amp;__回合抗性!G87</f>
-        <v>0|0|0|0</v>
+        <v>0|0|55|0</v>
       </c>
       <c r="I87" s="14" t="s">
         <v>199</v>
@@ -26162,7 +26162,7 @@
       </c>
       <c r="O87" s="53" t="str">
         <f>__回合抗性!H87&amp;"|"&amp;__回合抗性!I87&amp;"|"&amp;__回合抗性!J87&amp;"|"&amp;__回合抗性!K87</f>
-        <v>0|0|0|0</v>
+        <v>0|0|30|0</v>
       </c>
       <c r="P87" s="14">
         <v>0</v>
@@ -26203,7 +26203,7 @@
       </c>
       <c r="AE87" s="53" t="str">
         <f>__回合抗性!L87&amp;"|"&amp;__回合抗性!M87&amp;"|"&amp;__回合抗性!N87&amp;"|"&amp;__回合抗性!O87</f>
-        <v>0|0|0|0</v>
+        <v>0|0|30|0</v>
       </c>
     </row>
   </sheetData>
@@ -26901,10 +26901,10 @@
   <sheetPr/>
   <dimension ref="A1:O87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="P51" sqref="P51"/>
+      <selection pane="bottomLeft" activeCell="R78" sqref="R78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -28286,7 +28286,7 @@
         <v>0</v>
       </c>
       <c r="H28" s="8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I28" s="8">
         <v>0</v>
@@ -28298,7 +28298,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M28" s="8">
         <v>0</v>
@@ -28336,7 +28336,7 @@
         <v>0</v>
       </c>
       <c r="H29" s="8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I29" s="8">
         <v>0</v>
@@ -28348,7 +28348,7 @@
         <v>0</v>
       </c>
       <c r="L29" s="8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M29" s="8">
         <v>0</v>
@@ -28386,7 +28386,7 @@
         <v>0</v>
       </c>
       <c r="H30" s="8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I30" s="8">
         <v>0</v>
@@ -28398,7 +28398,7 @@
         <v>0</v>
       </c>
       <c r="L30" s="8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M30" s="8">
         <v>0</v>
@@ -28436,7 +28436,7 @@
         <v>0</v>
       </c>
       <c r="H31" s="8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I31" s="8">
         <v>0</v>
@@ -28448,7 +28448,7 @@
         <v>0</v>
       </c>
       <c r="L31" s="8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M31" s="8">
         <v>0</v>
@@ -28486,7 +28486,7 @@
         <v>0</v>
       </c>
       <c r="H32" s="8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I32" s="8">
         <v>0</v>
@@ -28498,7 +28498,7 @@
         <v>0</v>
       </c>
       <c r="L32" s="8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M32" s="8">
         <v>0</v>
@@ -28536,7 +28536,7 @@
         <v>0</v>
       </c>
       <c r="H33" s="8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I33" s="8">
         <v>0</v>
@@ -28548,7 +28548,7 @@
         <v>0</v>
       </c>
       <c r="L33" s="8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M33" s="8">
         <v>0</v>
@@ -28586,7 +28586,7 @@
         <v>0</v>
       </c>
       <c r="H34" s="8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I34" s="8">
         <v>0</v>
@@ -28598,7 +28598,7 @@
         <v>0</v>
       </c>
       <c r="L34" s="8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M34" s="8">
         <v>0</v>
@@ -28636,7 +28636,7 @@
         <v>0</v>
       </c>
       <c r="H35" s="8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I35" s="8">
         <v>0</v>
@@ -28648,7 +28648,7 @@
         <v>0</v>
       </c>
       <c r="L35" s="8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M35" s="8">
         <v>0</v>
@@ -28686,7 +28686,7 @@
         <v>0</v>
       </c>
       <c r="H36" s="8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I36" s="8">
         <v>0</v>
@@ -28698,7 +28698,7 @@
         <v>0</v>
       </c>
       <c r="L36" s="8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M36" s="8">
         <v>0</v>
@@ -28736,7 +28736,7 @@
         <v>0</v>
       </c>
       <c r="H37" s="8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I37" s="8">
         <v>0</v>
@@ -28748,7 +28748,7 @@
         <v>0</v>
       </c>
       <c r="L37" s="8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M37" s="8">
         <v>0</v>
@@ -28786,7 +28786,7 @@
         <v>0</v>
       </c>
       <c r="H38" s="8">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I38" s="8">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         <v>0</v>
       </c>
       <c r="L38" s="8">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M38" s="8">
         <v>0</v>
@@ -28836,7 +28836,7 @@
         <v>0</v>
       </c>
       <c r="H39" s="8">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I39" s="8">
         <v>0</v>
@@ -28848,7 +28848,7 @@
         <v>0</v>
       </c>
       <c r="L39" s="8">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M39" s="8">
         <v>0</v>
@@ -28886,7 +28886,7 @@
         <v>0</v>
       </c>
       <c r="H40" s="8">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I40" s="8">
         <v>0</v>
@@ -28898,7 +28898,7 @@
         <v>0</v>
       </c>
       <c r="L40" s="8">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M40" s="8">
         <v>0</v>
@@ -28936,7 +28936,7 @@
         <v>0</v>
       </c>
       <c r="H41" s="8">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I41" s="8">
         <v>0</v>
@@ -28948,7 +28948,7 @@
         <v>0</v>
       </c>
       <c r="L41" s="8">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M41" s="8">
         <v>0</v>
@@ -28986,7 +28986,7 @@
         <v>0</v>
       </c>
       <c r="H42" s="8">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I42" s="8">
         <v>0</v>
@@ -28998,7 +28998,7 @@
         <v>0</v>
       </c>
       <c r="L42" s="8">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M42" s="8">
         <v>0</v>
@@ -29036,7 +29036,7 @@
         <v>0</v>
       </c>
       <c r="H43" s="8">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I43" s="8">
         <v>0</v>
@@ -29048,7 +29048,7 @@
         <v>0</v>
       </c>
       <c r="L43" s="8">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M43" s="8">
         <v>0</v>
@@ -29086,7 +29086,7 @@
         <v>0</v>
       </c>
       <c r="H44" s="8">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I44" s="8">
         <v>0</v>
@@ -29098,7 +29098,7 @@
         <v>0</v>
       </c>
       <c r="L44" s="8">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M44" s="8">
         <v>0</v>
@@ -29136,7 +29136,7 @@
         <v>0</v>
       </c>
       <c r="H45" s="8">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I45" s="8">
         <v>0</v>
@@ -29148,7 +29148,7 @@
         <v>0</v>
       </c>
       <c r="L45" s="8">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M45" s="8">
         <v>0</v>
@@ -29186,7 +29186,7 @@
         <v>0</v>
       </c>
       <c r="H46" s="8">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I46" s="8">
         <v>0</v>
@@ -29198,7 +29198,7 @@
         <v>0</v>
       </c>
       <c r="L46" s="8">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M46" s="8">
         <v>0</v>
@@ -29236,7 +29236,7 @@
         <v>0</v>
       </c>
       <c r="H47" s="8">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I47" s="8">
         <v>0</v>
@@ -29248,7 +29248,7 @@
         <v>0</v>
       </c>
       <c r="L47" s="8">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M47" s="8">
         <v>0</v>
@@ -29286,7 +29286,7 @@
         <v>0</v>
       </c>
       <c r="H48" s="8">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I48" s="8">
         <v>0</v>
@@ -29298,7 +29298,7 @@
         <v>0</v>
       </c>
       <c r="L48" s="8">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="M48" s="8">
         <v>0</v>
@@ -29336,7 +29336,7 @@
         <v>0</v>
       </c>
       <c r="H49" s="8">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I49" s="8">
         <v>0</v>
@@ -29348,7 +29348,7 @@
         <v>0</v>
       </c>
       <c r="L49" s="8">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="M49" s="8">
         <v>0</v>
@@ -29386,7 +29386,7 @@
         <v>0</v>
       </c>
       <c r="H50" s="8">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I50" s="8">
         <v>0</v>
@@ -29398,7 +29398,7 @@
         <v>0</v>
       </c>
       <c r="L50" s="8">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="M50" s="8">
         <v>0</v>
@@ -29436,7 +29436,7 @@
         <v>0</v>
       </c>
       <c r="H51" s="8">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I51" s="8">
         <v>0</v>
@@ -29448,7 +29448,7 @@
         <v>0</v>
       </c>
       <c r="L51" s="8">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="M51" s="8">
         <v>0</v>
@@ -29486,7 +29486,7 @@
         <v>0</v>
       </c>
       <c r="H52" s="8">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I52" s="8">
         <v>0</v>
@@ -29498,7 +29498,7 @@
         <v>0</v>
       </c>
       <c r="L52" s="8">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="M52" s="8">
         <v>0</v>
@@ -29536,7 +29536,7 @@
         <v>0</v>
       </c>
       <c r="H53" s="8">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I53" s="8">
         <v>0</v>
@@ -29548,7 +29548,7 @@
         <v>0</v>
       </c>
       <c r="L53" s="8">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="M53" s="8">
         <v>0</v>
@@ -29586,7 +29586,7 @@
         <v>0</v>
       </c>
       <c r="H54" s="8">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I54" s="8">
         <v>0</v>
@@ -29598,7 +29598,7 @@
         <v>0</v>
       </c>
       <c r="L54" s="8">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="M54" s="8">
         <v>0</v>
@@ -29636,7 +29636,7 @@
         <v>0</v>
       </c>
       <c r="H55" s="8">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I55" s="8">
         <v>0</v>
@@ -29648,7 +29648,7 @@
         <v>0</v>
       </c>
       <c r="L55" s="8">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="M55" s="8">
         <v>0</v>
@@ -29686,7 +29686,7 @@
         <v>0</v>
       </c>
       <c r="H56" s="8">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I56" s="8">
         <v>0</v>
@@ -29698,7 +29698,7 @@
         <v>0</v>
       </c>
       <c r="L56" s="8">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="M56" s="8">
         <v>0</v>
@@ -29736,7 +29736,7 @@
         <v>0</v>
       </c>
       <c r="H57" s="8">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I57" s="8">
         <v>0</v>
@@ -29748,7 +29748,7 @@
         <v>0</v>
       </c>
       <c r="L57" s="8">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="M57" s="8">
         <v>0</v>
@@ -29780,7 +29780,7 @@
         <v>0</v>
       </c>
       <c r="F58" s="8">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G58" s="8">
         <v>0</v>
@@ -29792,7 +29792,7 @@
         <v>0</v>
       </c>
       <c r="J58" s="8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K58" s="8">
         <v>0</v>
@@ -29804,7 +29804,7 @@
         <v>0</v>
       </c>
       <c r="N58" s="8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O58" s="12">
         <v>0</v>
@@ -29830,7 +29830,7 @@
         <v>0</v>
       </c>
       <c r="F59" s="8">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G59" s="8">
         <v>0</v>
@@ -29842,7 +29842,7 @@
         <v>0</v>
       </c>
       <c r="J59" s="8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K59" s="8">
         <v>0</v>
@@ -29854,7 +29854,7 @@
         <v>0</v>
       </c>
       <c r="N59" s="8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O59" s="12">
         <v>0</v>
@@ -29880,7 +29880,7 @@
         <v>0</v>
       </c>
       <c r="F60" s="8">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G60" s="8">
         <v>0</v>
@@ -29892,7 +29892,7 @@
         <v>0</v>
       </c>
       <c r="J60" s="8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K60" s="8">
         <v>0</v>
@@ -29904,7 +29904,7 @@
         <v>0</v>
       </c>
       <c r="N60" s="8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O60" s="12">
         <v>0</v>
@@ -29930,7 +29930,7 @@
         <v>0</v>
       </c>
       <c r="F61" s="8">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G61" s="8">
         <v>0</v>
@@ -29942,7 +29942,7 @@
         <v>0</v>
       </c>
       <c r="J61" s="8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K61" s="8">
         <v>0</v>
@@ -29954,7 +29954,7 @@
         <v>0</v>
       </c>
       <c r="N61" s="8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O61" s="12">
         <v>0</v>
@@ -29980,7 +29980,7 @@
         <v>0</v>
       </c>
       <c r="F62" s="8">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G62" s="8">
         <v>0</v>
@@ -29992,7 +29992,7 @@
         <v>0</v>
       </c>
       <c r="J62" s="8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K62" s="8">
         <v>0</v>
@@ -30004,7 +30004,7 @@
         <v>0</v>
       </c>
       <c r="N62" s="8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O62" s="12">
         <v>0</v>
@@ -30030,7 +30030,7 @@
         <v>0</v>
       </c>
       <c r="F63" s="8">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G63" s="8">
         <v>0</v>
@@ -30042,7 +30042,7 @@
         <v>0</v>
       </c>
       <c r="J63" s="8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K63" s="8">
         <v>0</v>
@@ -30054,7 +30054,7 @@
         <v>0</v>
       </c>
       <c r="N63" s="8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O63" s="12">
         <v>0</v>
@@ -30080,7 +30080,7 @@
         <v>0</v>
       </c>
       <c r="F64" s="8">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G64" s="8">
         <v>0</v>
@@ -30092,7 +30092,7 @@
         <v>0</v>
       </c>
       <c r="J64" s="8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K64" s="8">
         <v>0</v>
@@ -30104,7 +30104,7 @@
         <v>0</v>
       </c>
       <c r="N64" s="8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O64" s="12">
         <v>0</v>
@@ -30130,7 +30130,7 @@
         <v>0</v>
       </c>
       <c r="F65" s="8">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G65" s="8">
         <v>0</v>
@@ -30142,7 +30142,7 @@
         <v>0</v>
       </c>
       <c r="J65" s="8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K65" s="8">
         <v>0</v>
@@ -30154,7 +30154,7 @@
         <v>0</v>
       </c>
       <c r="N65" s="8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O65" s="12">
         <v>0</v>
@@ -30180,7 +30180,7 @@
         <v>0</v>
       </c>
       <c r="F66" s="8">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G66" s="8">
         <v>0</v>
@@ -30192,7 +30192,7 @@
         <v>0</v>
       </c>
       <c r="J66" s="8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K66" s="8">
         <v>0</v>
@@ -30204,7 +30204,7 @@
         <v>0</v>
       </c>
       <c r="N66" s="8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O66" s="12">
         <v>0</v>
@@ -30230,7 +30230,7 @@
         <v>0</v>
       </c>
       <c r="F67" s="8">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="G67" s="8">
         <v>0</v>
@@ -30242,7 +30242,7 @@
         <v>0</v>
       </c>
       <c r="J67" s="8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K67" s="8">
         <v>0</v>
@@ -30254,7 +30254,7 @@
         <v>0</v>
       </c>
       <c r="N67" s="8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O67" s="12">
         <v>0</v>
@@ -30280,7 +30280,7 @@
         <v>0</v>
       </c>
       <c r="F68" s="8">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="G68" s="8">
         <v>0</v>
@@ -30292,7 +30292,7 @@
         <v>0</v>
       </c>
       <c r="J68" s="8">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K68" s="8">
         <v>0</v>
@@ -30304,7 +30304,7 @@
         <v>0</v>
       </c>
       <c r="N68" s="8">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="O68" s="12">
         <v>0</v>
@@ -30330,7 +30330,7 @@
         <v>0</v>
       </c>
       <c r="F69" s="8">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="G69" s="8">
         <v>0</v>
@@ -30342,7 +30342,7 @@
         <v>0</v>
       </c>
       <c r="J69" s="8">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K69" s="8">
         <v>0</v>
@@ -30354,7 +30354,7 @@
         <v>0</v>
       </c>
       <c r="N69" s="8">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="O69" s="12">
         <v>0</v>
@@ -30380,7 +30380,7 @@
         <v>0</v>
       </c>
       <c r="F70" s="8">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="G70" s="8">
         <v>0</v>
@@ -30392,7 +30392,7 @@
         <v>0</v>
       </c>
       <c r="J70" s="8">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K70" s="8">
         <v>0</v>
@@ -30404,7 +30404,7 @@
         <v>0</v>
       </c>
       <c r="N70" s="8">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="O70" s="12">
         <v>0</v>
@@ -30430,7 +30430,7 @@
         <v>0</v>
       </c>
       <c r="F71" s="8">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="G71" s="8">
         <v>0</v>
@@ -30442,7 +30442,7 @@
         <v>0</v>
       </c>
       <c r="J71" s="8">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K71" s="8">
         <v>0</v>
@@ -30454,7 +30454,7 @@
         <v>0</v>
       </c>
       <c r="N71" s="8">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="O71" s="12">
         <v>0</v>
@@ -30480,7 +30480,7 @@
         <v>0</v>
       </c>
       <c r="F72" s="8">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G72" s="8">
         <v>0</v>
@@ -30492,7 +30492,7 @@
         <v>0</v>
       </c>
       <c r="J72" s="8">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K72" s="8">
         <v>0</v>
@@ -30504,7 +30504,7 @@
         <v>0</v>
       </c>
       <c r="N72" s="8">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="O72" s="12">
         <v>0</v>
@@ -30530,7 +30530,7 @@
         <v>0</v>
       </c>
       <c r="F73" s="8">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G73" s="8">
         <v>0</v>
@@ -30542,7 +30542,7 @@
         <v>0</v>
       </c>
       <c r="J73" s="8">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K73" s="8">
         <v>0</v>
@@ -30554,7 +30554,7 @@
         <v>0</v>
       </c>
       <c r="N73" s="8">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="O73" s="12">
         <v>0</v>
@@ -30580,7 +30580,7 @@
         <v>0</v>
       </c>
       <c r="F74" s="8">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G74" s="8">
         <v>0</v>
@@ -30592,7 +30592,7 @@
         <v>0</v>
       </c>
       <c r="J74" s="8">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K74" s="8">
         <v>0</v>
@@ -30604,7 +30604,7 @@
         <v>0</v>
       </c>
       <c r="N74" s="8">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="O74" s="12">
         <v>0</v>
@@ -30630,7 +30630,7 @@
         <v>0</v>
       </c>
       <c r="F75" s="8">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G75" s="8">
         <v>0</v>
@@ -30642,7 +30642,7 @@
         <v>0</v>
       </c>
       <c r="J75" s="8">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K75" s="8">
         <v>0</v>
@@ -30654,7 +30654,7 @@
         <v>0</v>
       </c>
       <c r="N75" s="8">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="O75" s="12">
         <v>0</v>
@@ -30680,7 +30680,7 @@
         <v>0</v>
       </c>
       <c r="F76" s="8">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G76" s="8">
         <v>0</v>
@@ -30692,7 +30692,7 @@
         <v>0</v>
       </c>
       <c r="J76" s="8">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K76" s="8">
         <v>0</v>
@@ -30704,7 +30704,7 @@
         <v>0</v>
       </c>
       <c r="N76" s="8">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="O76" s="12">
         <v>0</v>
@@ -30730,7 +30730,7 @@
         <v>0</v>
       </c>
       <c r="F77" s="8">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="G77" s="8">
         <v>0</v>
@@ -30742,7 +30742,7 @@
         <v>0</v>
       </c>
       <c r="J77" s="8">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K77" s="8">
         <v>0</v>
@@ -30754,7 +30754,7 @@
         <v>0</v>
       </c>
       <c r="N77" s="8">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="O77" s="12">
         <v>0</v>
@@ -30780,7 +30780,7 @@
         <v>0</v>
       </c>
       <c r="F78" s="8">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="G78" s="8">
         <v>0</v>
@@ -30792,7 +30792,7 @@
         <v>0</v>
       </c>
       <c r="J78" s="8">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="K78" s="8">
         <v>0</v>
@@ -30804,7 +30804,7 @@
         <v>0</v>
       </c>
       <c r="N78" s="8">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="O78" s="12">
         <v>0</v>
@@ -30830,7 +30830,7 @@
         <v>0</v>
       </c>
       <c r="F79" s="8">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="G79" s="8">
         <v>0</v>
@@ -30842,7 +30842,7 @@
         <v>0</v>
       </c>
       <c r="J79" s="8">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="K79" s="8">
         <v>0</v>
@@ -30854,7 +30854,7 @@
         <v>0</v>
       </c>
       <c r="N79" s="8">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="O79" s="12">
         <v>0</v>
@@ -30880,7 +30880,7 @@
         <v>0</v>
       </c>
       <c r="F80" s="8">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="G80" s="8">
         <v>0</v>
@@ -30892,7 +30892,7 @@
         <v>0</v>
       </c>
       <c r="J80" s="8">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="K80" s="8">
         <v>0</v>
@@ -30904,7 +30904,7 @@
         <v>0</v>
       </c>
       <c r="N80" s="8">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="O80" s="12">
         <v>0</v>
@@ -30930,7 +30930,7 @@
         <v>0</v>
       </c>
       <c r="F81" s="8">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="G81" s="8">
         <v>0</v>
@@ -30942,7 +30942,7 @@
         <v>0</v>
       </c>
       <c r="J81" s="8">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="K81" s="8">
         <v>0</v>
@@ -30954,7 +30954,7 @@
         <v>0</v>
       </c>
       <c r="N81" s="8">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="O81" s="12">
         <v>0</v>
@@ -30980,7 +30980,7 @@
         <v>0</v>
       </c>
       <c r="F82" s="8">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="G82" s="8">
         <v>0</v>
@@ -30992,7 +30992,7 @@
         <v>0</v>
       </c>
       <c r="J82" s="8">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="K82" s="8">
         <v>0</v>
@@ -31004,7 +31004,7 @@
         <v>0</v>
       </c>
       <c r="N82" s="8">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="O82" s="12">
         <v>0</v>
@@ -31030,7 +31030,7 @@
         <v>0</v>
       </c>
       <c r="F83" s="8">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G83" s="8">
         <v>0</v>
@@ -31042,7 +31042,7 @@
         <v>0</v>
       </c>
       <c r="J83" s="8">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="K83" s="8">
         <v>0</v>
@@ -31054,7 +31054,7 @@
         <v>0</v>
       </c>
       <c r="N83" s="8">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="O83" s="12">
         <v>0</v>
@@ -31080,7 +31080,7 @@
         <v>0</v>
       </c>
       <c r="F84" s="8">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G84" s="8">
         <v>0</v>
@@ -31092,7 +31092,7 @@
         <v>0</v>
       </c>
       <c r="J84" s="8">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="K84" s="8">
         <v>0</v>
@@ -31104,7 +31104,7 @@
         <v>0</v>
       </c>
       <c r="N84" s="8">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="O84" s="12">
         <v>0</v>
@@ -31130,7 +31130,7 @@
         <v>0</v>
       </c>
       <c r="F85" s="8">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G85" s="8">
         <v>0</v>
@@ -31142,7 +31142,7 @@
         <v>0</v>
       </c>
       <c r="J85" s="8">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="K85" s="8">
         <v>0</v>
@@ -31154,7 +31154,7 @@
         <v>0</v>
       </c>
       <c r="N85" s="8">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="O85" s="12">
         <v>0</v>
@@ -31180,7 +31180,7 @@
         <v>0</v>
       </c>
       <c r="F86" s="8">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G86" s="8">
         <v>0</v>
@@ -31192,7 +31192,7 @@
         <v>0</v>
       </c>
       <c r="J86" s="8">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="K86" s="8">
         <v>0</v>
@@ -31204,7 +31204,7 @@
         <v>0</v>
       </c>
       <c r="N86" s="8">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="O86" s="12">
         <v>0</v>
@@ -31229,8 +31229,8 @@
       <c r="E87" s="14">
         <v>0</v>
       </c>
-      <c r="F87" s="14">
-        <v>0</v>
+      <c r="F87" s="8">
+        <v>55</v>
       </c>
       <c r="G87" s="14">
         <v>0</v>
@@ -31241,8 +31241,8 @@
       <c r="I87" s="14">
         <v>0</v>
       </c>
-      <c r="J87" s="14">
-        <v>0</v>
+      <c r="J87" s="8">
+        <v>30</v>
       </c>
       <c r="K87" s="14">
         <v>0</v>
@@ -31253,8 +31253,8 @@
       <c r="M87" s="14">
         <v>0</v>
       </c>
-      <c r="N87" s="14">
-        <v>0</v>
+      <c r="N87" s="8">
+        <v>30</v>
       </c>
       <c r="O87" s="15">
         <v>0</v>

--- a/excels/config/difficulty_config.xlsx
+++ b/excels/config/difficulty_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="804" activeTab="3"/>
+    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="804" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="chapter_info" sheetId="7" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2649" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2769" uniqueCount="234">
   <si>
     <t>编号</t>
   </si>
@@ -648,6 +648,48 @@
   </si>
   <si>
     <t>npc_monster_elite_24</t>
+  </si>
+  <si>
+    <t>npc_monster_elite_25</t>
+  </si>
+  <si>
+    <t>npc_creature_boss_18|npc_creature_boss_18</t>
+  </si>
+  <si>
+    <t>npc_monster_elite_26</t>
+  </si>
+  <si>
+    <t>npc_creature_boss_19|npc_creature_boss_19</t>
+  </si>
+  <si>
+    <t>npc_monster_elite_27</t>
+  </si>
+  <si>
+    <t>npc_creature_boss_20|npc_creature_boss_20</t>
+  </si>
+  <si>
+    <t>npc_monster_elite_28</t>
+  </si>
+  <si>
+    <t>npc_creature_boss_21|npc_creature_boss_21</t>
+  </si>
+  <si>
+    <t>npc_monster_elite_29</t>
+  </si>
+  <si>
+    <t>npc_creature_boss_22|npc_creature_boss_22</t>
+  </si>
+  <si>
+    <t>npc_monster_elite_30</t>
+  </si>
+  <si>
+    <t>npc_monster_elite_31</t>
+  </si>
+  <si>
+    <t>npc_creature_boss_23|npc_creature_boss_23</t>
+  </si>
+  <si>
+    <t>npc_monster_elite_32</t>
   </si>
   <si>
     <t>无尽编号</t>
@@ -3432,12 +3474,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="4" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{130FA228-4F72-4D40-B610-16872C5EE684}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{664484A1-8524-4543-9BBA-65C2DF321698}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
     </tableStyle>
-    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{0EAC3957-3790-42C8-9A2D-52ABA6F75F5A}">
+    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{3F69403F-EAEE-44E0-80DA-441D1DD3D509}">
       <tableStyleElement type="wholeTable" dxfId="16"/>
       <tableStyleElement type="headerRow" dxfId="15"/>
       <tableStyleElement type="totalRow" dxfId="14"/>
@@ -3451,7 +3493,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="6"/>
       <tableStyleElement type="lastTotalCell" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{C38DB268-EAFB-4D55-A4CD-E3E6A1A33E16}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{A4DA3740-0F0D-4075-BC0B-9966CED108FF}">
       <tableStyleElement type="wholeTable" dxfId="26"/>
       <tableStyleElement type="headerRow" dxfId="25"/>
       <tableStyleElement type="totalRow" dxfId="24"/>
@@ -3463,7 +3505,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="18"/>
       <tableStyleElement type="lastTotalCell" dxfId="17"/>
     </tableStyle>
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{EE7C4030-C51F-4BE2-96FB-34DE3F4F7A0E}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{2EE56D57-EBDE-4C4F-856E-CAAAB0288E51}">
       <tableStyleElement type="wholeTable" dxfId="33"/>
       <tableStyleElement type="headerRow" dxfId="32"/>
       <tableStyleElement type="totalRow" dxfId="31"/>
@@ -4534,10 +4576,10 @@
   <sheetPr/>
   <dimension ref="A1:O298"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="I5" sqref="I5"/>
+      <selection pane="topRight" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4808,7 +4850,7 @@
         <v>60</v>
       </c>
       <c r="F6" s="8">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G6" s="8">
         <v>103</v>
@@ -4855,7 +4897,7 @@
         <v>62</v>
       </c>
       <c r="F7" s="8">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G7" s="8">
         <v>104</v>
@@ -18636,12 +18678,12 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AE87"/>
+  <dimension ref="A1:AE117"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
+      <selection pane="bottomLeft" activeCell="U97" sqref="U97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -26206,6 +26248,2596 @@
         <v>0|0|30|0</v>
       </c>
     </row>
+    <row r="88" customFormat="1" ht="30.5" customHeight="1" spans="1:31">
+      <c r="A88" s="13">
+        <v>86</v>
+      </c>
+      <c r="B88" s="8">
+        <v>40</v>
+      </c>
+      <c r="C88" s="8">
+        <v>1</v>
+      </c>
+      <c r="D88" s="8">
+        <v>1</v>
+      </c>
+      <c r="E88" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="F88" s="52">
+        <v>1000</v>
+      </c>
+      <c r="G88" s="55">
+        <v>50</v>
+      </c>
+      <c r="H88" s="53" t="str">
+        <f>__回合抗性!D88&amp;"|"&amp;__回合抗性!E88&amp;"|"&amp;__回合抗性!F88&amp;"|"&amp;__回合抗性!G88</f>
+        <v>|||</v>
+      </c>
+      <c r="I88" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="J88" s="8">
+        <v>0</v>
+      </c>
+      <c r="K88" s="61">
+        <v>150</v>
+      </c>
+      <c r="L88" s="54">
+        <v>1</v>
+      </c>
+      <c r="M88" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="N88" s="6">
+        <v>10</v>
+      </c>
+      <c r="O88" s="53" t="str">
+        <f>__回合抗性!H88&amp;"|"&amp;__回合抗性!I88&amp;"|"&amp;__回合抗性!J88&amp;"|"&amp;__回合抗性!K88</f>
+        <v>|||</v>
+      </c>
+      <c r="P88" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="8">
+        <v>2</v>
+      </c>
+      <c r="R88" s="8">
+        <v>2</v>
+      </c>
+      <c r="S88" s="8"/>
+      <c r="T88" s="8" t="str">
+        <f t="shared" ref="T88:T102" si="5">"npc_monster_normal_"&amp;B88&amp;"_"&amp;C88</f>
+        <v>npc_monster_normal_40_1</v>
+      </c>
+      <c r="U88" s="12"/>
+      <c r="W88" s="7"/>
+      <c r="X88" s="8">
+        <v>5</v>
+      </c>
+      <c r="Y88" s="12"/>
+      <c r="AA88" s="79">
+        <v>15000</v>
+      </c>
+      <c r="AB88" s="80">
+        <v>64</v>
+      </c>
+      <c r="AC88" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD88" s="6">
+        <v>10</v>
+      </c>
+      <c r="AE88" s="53" t="str">
+        <f>__回合抗性!L88&amp;"|"&amp;__回合抗性!M88&amp;"|"&amp;__回合抗性!N88&amp;"|"&amp;__回合抗性!O88</f>
+        <v>|||</v>
+      </c>
+    </row>
+    <row r="89" customFormat="1" ht="30.5" customHeight="1" spans="1:31">
+      <c r="A89" s="13">
+        <v>87</v>
+      </c>
+      <c r="B89" s="8">
+        <v>40</v>
+      </c>
+      <c r="C89" s="8">
+        <v>2</v>
+      </c>
+      <c r="D89" s="8">
+        <v>1</v>
+      </c>
+      <c r="E89" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="F89" s="52">
+        <v>1000</v>
+      </c>
+      <c r="G89" s="55">
+        <v>50</v>
+      </c>
+      <c r="H89" s="53" t="str">
+        <f>__回合抗性!D89&amp;"|"&amp;__回合抗性!E89&amp;"|"&amp;__回合抗性!F89&amp;"|"&amp;__回合抗性!G89</f>
+        <v>|||</v>
+      </c>
+      <c r="I89" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="J89" s="8">
+        <v>0</v>
+      </c>
+      <c r="K89" s="61">
+        <v>150</v>
+      </c>
+      <c r="L89" s="54">
+        <v>1</v>
+      </c>
+      <c r="M89" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="N89" s="6">
+        <v>10</v>
+      </c>
+      <c r="O89" s="53" t="str">
+        <f>__回合抗性!H89&amp;"|"&amp;__回合抗性!I89&amp;"|"&amp;__回合抗性!J89&amp;"|"&amp;__回合抗性!K89</f>
+        <v>|||</v>
+      </c>
+      <c r="P89" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="8">
+        <v>2</v>
+      </c>
+      <c r="R89" s="8">
+        <v>2</v>
+      </c>
+      <c r="S89" s="8"/>
+      <c r="T89" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>npc_monster_normal_40_2</v>
+      </c>
+      <c r="U89" s="12"/>
+      <c r="W89" s="7"/>
+      <c r="X89" s="8">
+        <v>6</v>
+      </c>
+      <c r="Y89" s="12"/>
+      <c r="AA89" s="79">
+        <v>15000</v>
+      </c>
+      <c r="AB89" s="80">
+        <v>64</v>
+      </c>
+      <c r="AC89" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD89" s="6">
+        <v>10</v>
+      </c>
+      <c r="AE89" s="53" t="str">
+        <f>__回合抗性!L89&amp;"|"&amp;__回合抗性!M89&amp;"|"&amp;__回合抗性!N89&amp;"|"&amp;__回合抗性!O89</f>
+        <v>|||</v>
+      </c>
+    </row>
+    <row r="90" customFormat="1" ht="30.5" customHeight="1" spans="1:31">
+      <c r="A90" s="13">
+        <v>88</v>
+      </c>
+      <c r="B90" s="8">
+        <v>40</v>
+      </c>
+      <c r="C90" s="8">
+        <v>3</v>
+      </c>
+      <c r="D90" s="8">
+        <v>1</v>
+      </c>
+      <c r="E90" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="F90" s="52">
+        <v>1000</v>
+      </c>
+      <c r="G90" s="55">
+        <v>50</v>
+      </c>
+      <c r="H90" s="53" t="str">
+        <f>__回合抗性!D90&amp;"|"&amp;__回合抗性!E90&amp;"|"&amp;__回合抗性!F90&amp;"|"&amp;__回合抗性!G90</f>
+        <v>|||</v>
+      </c>
+      <c r="I90" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="J90" s="8">
+        <v>3</v>
+      </c>
+      <c r="K90" s="61">
+        <v>150</v>
+      </c>
+      <c r="L90" s="54">
+        <v>1</v>
+      </c>
+      <c r="M90" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="N90" s="6">
+        <v>10</v>
+      </c>
+      <c r="O90" s="53" t="str">
+        <f>__回合抗性!H90&amp;"|"&amp;__回合抗性!I90&amp;"|"&amp;__回合抗性!J90&amp;"|"&amp;__回合抗性!K90</f>
+        <v>|||</v>
+      </c>
+      <c r="P90" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q90" s="8">
+        <v>2</v>
+      </c>
+      <c r="R90" s="8">
+        <v>2</v>
+      </c>
+      <c r="S90" s="8"/>
+      <c r="T90" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>npc_monster_normal_40_3</v>
+      </c>
+      <c r="U90" s="12"/>
+      <c r="W90" s="7"/>
+      <c r="X90" s="8">
+        <v>7</v>
+      </c>
+      <c r="Y90" s="12"/>
+      <c r="AA90" s="79">
+        <v>15000</v>
+      </c>
+      <c r="AB90" s="80">
+        <v>64</v>
+      </c>
+      <c r="AC90" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD90" s="6">
+        <v>10</v>
+      </c>
+      <c r="AE90" s="53" t="str">
+        <f>__回合抗性!L90&amp;"|"&amp;__回合抗性!M90&amp;"|"&amp;__回合抗性!N90&amp;"|"&amp;__回合抗性!O90</f>
+        <v>|||</v>
+      </c>
+    </row>
+    <row r="91" customFormat="1" ht="30.5" customHeight="1" spans="1:31">
+      <c r="A91" s="13">
+        <v>89</v>
+      </c>
+      <c r="B91" s="8">
+        <v>40</v>
+      </c>
+      <c r="C91" s="8">
+        <v>4</v>
+      </c>
+      <c r="D91" s="8">
+        <v>1</v>
+      </c>
+      <c r="E91" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="F91" s="52">
+        <v>1000</v>
+      </c>
+      <c r="G91" s="55">
+        <v>50</v>
+      </c>
+      <c r="H91" s="53" t="str">
+        <f>__回合抗性!D91&amp;"|"&amp;__回合抗性!E91&amp;"|"&amp;__回合抗性!F91&amp;"|"&amp;__回合抗性!G91</f>
+        <v>|||</v>
+      </c>
+      <c r="I91" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="J91" s="8">
+        <v>0</v>
+      </c>
+      <c r="K91" s="61">
+        <v>150</v>
+      </c>
+      <c r="L91" s="54">
+        <v>1</v>
+      </c>
+      <c r="M91" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="N91" s="6">
+        <v>10</v>
+      </c>
+      <c r="O91" s="53" t="str">
+        <f>__回合抗性!H91&amp;"|"&amp;__回合抗性!I91&amp;"|"&amp;__回合抗性!J91&amp;"|"&amp;__回合抗性!K91</f>
+        <v>|||</v>
+      </c>
+      <c r="P91" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="8">
+        <v>2</v>
+      </c>
+      <c r="R91" s="8">
+        <v>2</v>
+      </c>
+      <c r="S91" s="8"/>
+      <c r="T91" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>npc_monster_normal_40_4</v>
+      </c>
+      <c r="U91" s="12"/>
+      <c r="W91" s="7"/>
+      <c r="X91" s="8">
+        <v>8</v>
+      </c>
+      <c r="Y91" s="12"/>
+      <c r="AA91" s="79">
+        <v>15000</v>
+      </c>
+      <c r="AB91" s="80">
+        <v>64</v>
+      </c>
+      <c r="AC91" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD91" s="6">
+        <v>10</v>
+      </c>
+      <c r="AE91" s="53" t="str">
+        <f>__回合抗性!L91&amp;"|"&amp;__回合抗性!M91&amp;"|"&amp;__回合抗性!N91&amp;"|"&amp;__回合抗性!O91</f>
+        <v>|||</v>
+      </c>
+    </row>
+    <row r="92" customFormat="1" ht="30.5" customHeight="1" spans="1:31">
+      <c r="A92" s="13">
+        <v>90</v>
+      </c>
+      <c r="B92" s="8">
+        <v>40</v>
+      </c>
+      <c r="C92" s="8">
+        <v>5</v>
+      </c>
+      <c r="D92" s="8">
+        <v>1</v>
+      </c>
+      <c r="E92" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="F92" s="52">
+        <v>1000</v>
+      </c>
+      <c r="G92" s="55">
+        <v>50</v>
+      </c>
+      <c r="H92" s="53" t="str">
+        <f>__回合抗性!D92&amp;"|"&amp;__回合抗性!E92&amp;"|"&amp;__回合抗性!F92&amp;"|"&amp;__回合抗性!G92</f>
+        <v>|||</v>
+      </c>
+      <c r="I92" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="J92" s="8">
+        <v>0</v>
+      </c>
+      <c r="K92" s="61">
+        <v>150</v>
+      </c>
+      <c r="L92" s="54">
+        <v>1</v>
+      </c>
+      <c r="M92" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="N92" s="6">
+        <v>10</v>
+      </c>
+      <c r="O92" s="53" t="str">
+        <f>__回合抗性!H92&amp;"|"&amp;__回合抗性!I92&amp;"|"&amp;__回合抗性!J92&amp;"|"&amp;__回合抗性!K92</f>
+        <v>|||</v>
+      </c>
+      <c r="P92" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="8">
+        <v>2</v>
+      </c>
+      <c r="R92" s="8">
+        <v>2</v>
+      </c>
+      <c r="S92" s="8"/>
+      <c r="T92" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>npc_monster_normal_40_5</v>
+      </c>
+      <c r="U92" s="12"/>
+      <c r="W92" s="7"/>
+      <c r="X92" s="8">
+        <v>9</v>
+      </c>
+      <c r="Y92" s="12"/>
+      <c r="AA92" s="79">
+        <v>15000</v>
+      </c>
+      <c r="AB92" s="80">
+        <v>64</v>
+      </c>
+      <c r="AC92" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD92" s="6">
+        <v>10</v>
+      </c>
+      <c r="AE92" s="53" t="str">
+        <f>__回合抗性!L92&amp;"|"&amp;__回合抗性!M92&amp;"|"&amp;__回合抗性!N92&amp;"|"&amp;__回合抗性!O92</f>
+        <v>|||</v>
+      </c>
+    </row>
+    <row r="93" customFormat="1" ht="30.5" customHeight="1" spans="1:31">
+      <c r="A93" s="13">
+        <v>91</v>
+      </c>
+      <c r="B93" s="8">
+        <v>40</v>
+      </c>
+      <c r="C93" s="8">
+        <v>6</v>
+      </c>
+      <c r="D93" s="8">
+        <v>1</v>
+      </c>
+      <c r="E93" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="F93" s="52">
+        <v>1000</v>
+      </c>
+      <c r="G93" s="55">
+        <v>50</v>
+      </c>
+      <c r="H93" s="53" t="str">
+        <f>__回合抗性!D93&amp;"|"&amp;__回合抗性!E93&amp;"|"&amp;__回合抗性!F93&amp;"|"&amp;__回合抗性!G93</f>
+        <v>|||</v>
+      </c>
+      <c r="I93" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="J93" s="8">
+        <v>0</v>
+      </c>
+      <c r="K93" s="61">
+        <v>150</v>
+      </c>
+      <c r="L93" s="54">
+        <v>1</v>
+      </c>
+      <c r="M93" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="N93" s="6">
+        <v>10</v>
+      </c>
+      <c r="O93" s="53" t="str">
+        <f>__回合抗性!H93&amp;"|"&amp;__回合抗性!I93&amp;"|"&amp;__回合抗性!J93&amp;"|"&amp;__回合抗性!K93</f>
+        <v>|||</v>
+      </c>
+      <c r="P93" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="8">
+        <v>2</v>
+      </c>
+      <c r="R93" s="8">
+        <v>2</v>
+      </c>
+      <c r="S93" s="8"/>
+      <c r="T93" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>npc_monster_normal_40_6</v>
+      </c>
+      <c r="U93" s="15" t="str">
+        <f>"npc_monster_normal_"&amp;B93&amp;"_"&amp;C93&amp;"_a"</f>
+        <v>npc_monster_normal_40_6_a</v>
+      </c>
+      <c r="W93" s="7"/>
+      <c r="X93" s="8">
+        <v>9</v>
+      </c>
+      <c r="Y93" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA93" s="79">
+        <v>15000</v>
+      </c>
+      <c r="AB93" s="80">
+        <v>64</v>
+      </c>
+      <c r="AC93" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD93" s="6">
+        <v>10</v>
+      </c>
+      <c r="AE93" s="53" t="str">
+        <f>__回合抗性!L93&amp;"|"&amp;__回合抗性!M93&amp;"|"&amp;__回合抗性!N93&amp;"|"&amp;__回合抗性!O93</f>
+        <v>|||</v>
+      </c>
+    </row>
+    <row r="94" customFormat="1" ht="30.5" customHeight="1" spans="1:31">
+      <c r="A94" s="13">
+        <v>92</v>
+      </c>
+      <c r="B94" s="8">
+        <v>40</v>
+      </c>
+      <c r="C94" s="8">
+        <v>7</v>
+      </c>
+      <c r="D94" s="8">
+        <v>1</v>
+      </c>
+      <c r="E94" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="F94" s="52">
+        <v>1000</v>
+      </c>
+      <c r="G94" s="55">
+        <v>50</v>
+      </c>
+      <c r="H94" s="53" t="str">
+        <f>__回合抗性!D94&amp;"|"&amp;__回合抗性!E94&amp;"|"&amp;__回合抗性!F94&amp;"|"&amp;__回合抗性!G94</f>
+        <v>|||</v>
+      </c>
+      <c r="I94" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="J94" s="8">
+        <v>0</v>
+      </c>
+      <c r="K94" s="61">
+        <v>150</v>
+      </c>
+      <c r="L94" s="54">
+        <v>1</v>
+      </c>
+      <c r="M94" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="N94" s="6">
+        <v>10</v>
+      </c>
+      <c r="O94" s="53" t="str">
+        <f>__回合抗性!H94&amp;"|"&amp;__回合抗性!I94&amp;"|"&amp;__回合抗性!J94&amp;"|"&amp;__回合抗性!K94</f>
+        <v>|||</v>
+      </c>
+      <c r="P94" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="8">
+        <v>2</v>
+      </c>
+      <c r="R94" s="8">
+        <v>2</v>
+      </c>
+      <c r="S94" s="8"/>
+      <c r="T94" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>npc_monster_normal_40_7</v>
+      </c>
+      <c r="U94" s="12"/>
+      <c r="W94" s="7"/>
+      <c r="X94" s="8">
+        <v>11</v>
+      </c>
+      <c r="Y94" s="12"/>
+      <c r="AA94" s="79">
+        <v>15000</v>
+      </c>
+      <c r="AB94" s="80">
+        <v>64</v>
+      </c>
+      <c r="AC94" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD94" s="6">
+        <v>10</v>
+      </c>
+      <c r="AE94" s="53" t="str">
+        <f>__回合抗性!L94&amp;"|"&amp;__回合抗性!M94&amp;"|"&amp;__回合抗性!N94&amp;"|"&amp;__回合抗性!O94</f>
+        <v>|||</v>
+      </c>
+    </row>
+    <row r="95" customFormat="1" ht="30.5" customHeight="1" spans="1:31">
+      <c r="A95" s="13">
+        <v>93</v>
+      </c>
+      <c r="B95" s="8">
+        <v>40</v>
+      </c>
+      <c r="C95" s="8">
+        <v>8</v>
+      </c>
+      <c r="D95" s="8">
+        <v>1</v>
+      </c>
+      <c r="E95" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="F95" s="52">
+        <v>1000</v>
+      </c>
+      <c r="G95" s="55">
+        <v>50</v>
+      </c>
+      <c r="H95" s="53" t="str">
+        <f>__回合抗性!D95&amp;"|"&amp;__回合抗性!E95&amp;"|"&amp;__回合抗性!F95&amp;"|"&amp;__回合抗性!G95</f>
+        <v>|||</v>
+      </c>
+      <c r="I95" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="J95" s="8">
+        <v>3</v>
+      </c>
+      <c r="K95" s="61">
+        <v>150</v>
+      </c>
+      <c r="L95" s="54">
+        <v>1</v>
+      </c>
+      <c r="M95" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="N95" s="6">
+        <v>10</v>
+      </c>
+      <c r="O95" s="53" t="str">
+        <f>__回合抗性!H95&amp;"|"&amp;__回合抗性!I95&amp;"|"&amp;__回合抗性!J95&amp;"|"&amp;__回合抗性!K95</f>
+        <v>|||</v>
+      </c>
+      <c r="P95" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q95" s="8">
+        <v>2</v>
+      </c>
+      <c r="R95" s="8">
+        <v>2</v>
+      </c>
+      <c r="S95" s="8"/>
+      <c r="T95" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>npc_monster_normal_40_8</v>
+      </c>
+      <c r="U95" s="15" t="str">
+        <f>"npc_monster_normal_"&amp;B95&amp;"_"&amp;C95&amp;"_a"</f>
+        <v>npc_monster_normal_40_8_a</v>
+      </c>
+      <c r="W95" s="7"/>
+      <c r="X95" s="8">
+        <v>11</v>
+      </c>
+      <c r="Y95" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA95" s="79">
+        <v>15000</v>
+      </c>
+      <c r="AB95" s="80">
+        <v>64</v>
+      </c>
+      <c r="AC95" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD95" s="6">
+        <v>10</v>
+      </c>
+      <c r="AE95" s="53" t="str">
+        <f>__回合抗性!L95&amp;"|"&amp;__回合抗性!M95&amp;"|"&amp;__回合抗性!N95&amp;"|"&amp;__回合抗性!O95</f>
+        <v>|||</v>
+      </c>
+    </row>
+    <row r="96" customFormat="1" ht="30.5" customHeight="1" spans="1:31">
+      <c r="A96" s="13">
+        <v>94</v>
+      </c>
+      <c r="B96" s="8">
+        <v>40</v>
+      </c>
+      <c r="C96" s="8">
+        <v>9</v>
+      </c>
+      <c r="D96" s="8">
+        <v>1</v>
+      </c>
+      <c r="E96" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="F96" s="52">
+        <v>1000</v>
+      </c>
+      <c r="G96" s="55">
+        <v>50</v>
+      </c>
+      <c r="H96" s="53" t="str">
+        <f>__回合抗性!D96&amp;"|"&amp;__回合抗性!E96&amp;"|"&amp;__回合抗性!F96&amp;"|"&amp;__回合抗性!G96</f>
+        <v>|||</v>
+      </c>
+      <c r="I96" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="J96" s="8">
+        <v>0</v>
+      </c>
+      <c r="K96" s="61">
+        <v>150</v>
+      </c>
+      <c r="L96" s="54">
+        <v>1</v>
+      </c>
+      <c r="M96" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="N96" s="6">
+        <v>10</v>
+      </c>
+      <c r="O96" s="53" t="str">
+        <f>__回合抗性!H96&amp;"|"&amp;__回合抗性!I96&amp;"|"&amp;__回合抗性!J96&amp;"|"&amp;__回合抗性!K96</f>
+        <v>|||</v>
+      </c>
+      <c r="P96" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="8">
+        <v>2</v>
+      </c>
+      <c r="R96" s="8">
+        <v>2</v>
+      </c>
+      <c r="S96" s="8"/>
+      <c r="T96" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>npc_monster_normal_40_9</v>
+      </c>
+      <c r="U96" s="12"/>
+      <c r="W96" s="7"/>
+      <c r="X96" s="8">
+        <v>13</v>
+      </c>
+      <c r="Y96" s="12"/>
+      <c r="AA96" s="79">
+        <v>15000</v>
+      </c>
+      <c r="AB96" s="80">
+        <v>64</v>
+      </c>
+      <c r="AC96" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD96" s="6">
+        <v>10</v>
+      </c>
+      <c r="AE96" s="53" t="str">
+        <f>__回合抗性!L96&amp;"|"&amp;__回合抗性!M96&amp;"|"&amp;__回合抗性!N96&amp;"|"&amp;__回合抗性!O96</f>
+        <v>|||</v>
+      </c>
+    </row>
+    <row r="97" customFormat="1" ht="30.5" customHeight="1" spans="1:31">
+      <c r="A97" s="13">
+        <v>95</v>
+      </c>
+      <c r="B97" s="8">
+        <v>40</v>
+      </c>
+      <c r="C97" s="8">
+        <v>10</v>
+      </c>
+      <c r="D97" s="8">
+        <v>1</v>
+      </c>
+      <c r="E97" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="F97" s="52">
+        <v>1000</v>
+      </c>
+      <c r="G97" s="55">
+        <v>50</v>
+      </c>
+      <c r="H97" s="53" t="str">
+        <f>__回合抗性!D97&amp;"|"&amp;__回合抗性!E97&amp;"|"&amp;__回合抗性!F97&amp;"|"&amp;__回合抗性!G97</f>
+        <v>|||</v>
+      </c>
+      <c r="I97" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="J97" s="8">
+        <v>0</v>
+      </c>
+      <c r="K97" s="61">
+        <v>150</v>
+      </c>
+      <c r="L97" s="54">
+        <v>1</v>
+      </c>
+      <c r="M97" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="N97" s="6">
+        <v>10</v>
+      </c>
+      <c r="O97" s="53" t="str">
+        <f>__回合抗性!H97&amp;"|"&amp;__回合抗性!I97&amp;"|"&amp;__回合抗性!J97&amp;"|"&amp;__回合抗性!K97</f>
+        <v>|||</v>
+      </c>
+      <c r="P97" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="8">
+        <v>2</v>
+      </c>
+      <c r="R97" s="8">
+        <v>2</v>
+      </c>
+      <c r="S97" s="8"/>
+      <c r="T97" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>npc_monster_normal_40_10</v>
+      </c>
+      <c r="U97" s="12"/>
+      <c r="W97" s="7"/>
+      <c r="X97" s="8">
+        <v>14</v>
+      </c>
+      <c r="Y97" s="12"/>
+      <c r="AA97" s="79">
+        <v>15000</v>
+      </c>
+      <c r="AB97" s="80">
+        <v>64</v>
+      </c>
+      <c r="AC97" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD97" s="6">
+        <v>10</v>
+      </c>
+      <c r="AE97" s="53" t="str">
+        <f>__回合抗性!L97&amp;"|"&amp;__回合抗性!M97&amp;"|"&amp;__回合抗性!N97&amp;"|"&amp;__回合抗性!O97</f>
+        <v>|||</v>
+      </c>
+    </row>
+    <row r="98" customFormat="1" ht="30.5" customHeight="1" spans="1:31">
+      <c r="A98" s="13">
+        <v>96</v>
+      </c>
+      <c r="B98" s="8">
+        <v>40</v>
+      </c>
+      <c r="C98" s="8">
+        <v>11</v>
+      </c>
+      <c r="D98" s="8">
+        <v>1</v>
+      </c>
+      <c r="E98" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="F98" s="52">
+        <v>1000</v>
+      </c>
+      <c r="G98" s="55">
+        <v>50</v>
+      </c>
+      <c r="H98" s="53" t="str">
+        <f>__回合抗性!D98&amp;"|"&amp;__回合抗性!E98&amp;"|"&amp;__回合抗性!F98&amp;"|"&amp;__回合抗性!G98</f>
+        <v>|||</v>
+      </c>
+      <c r="I98" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="J98" s="8">
+        <v>0</v>
+      </c>
+      <c r="K98" s="61">
+        <v>150</v>
+      </c>
+      <c r="L98" s="54">
+        <v>1</v>
+      </c>
+      <c r="M98" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="N98" s="6">
+        <v>10</v>
+      </c>
+      <c r="O98" s="53" t="str">
+        <f>__回合抗性!H98&amp;"|"&amp;__回合抗性!I98&amp;"|"&amp;__回合抗性!J98&amp;"|"&amp;__回合抗性!K98</f>
+        <v>|||</v>
+      </c>
+      <c r="P98" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="8">
+        <v>2</v>
+      </c>
+      <c r="R98" s="8">
+        <v>2</v>
+      </c>
+      <c r="S98" s="8"/>
+      <c r="T98" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>npc_monster_normal_40_11</v>
+      </c>
+      <c r="U98" s="12"/>
+      <c r="W98" s="7"/>
+      <c r="X98" s="8">
+        <v>15</v>
+      </c>
+      <c r="Y98" s="12"/>
+      <c r="AA98" s="79">
+        <v>15000</v>
+      </c>
+      <c r="AB98" s="80">
+        <v>64</v>
+      </c>
+      <c r="AC98" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD98" s="6">
+        <v>10</v>
+      </c>
+      <c r="AE98" s="53" t="str">
+        <f>__回合抗性!L98&amp;"|"&amp;__回合抗性!M98&amp;"|"&amp;__回合抗性!N98&amp;"|"&amp;__回合抗性!O98</f>
+        <v>|||</v>
+      </c>
+    </row>
+    <row r="99" customFormat="1" ht="30.5" customHeight="1" spans="1:31">
+      <c r="A99" s="13">
+        <v>97</v>
+      </c>
+      <c r="B99" s="8">
+        <v>40</v>
+      </c>
+      <c r="C99" s="8">
+        <v>12</v>
+      </c>
+      <c r="D99" s="8">
+        <v>1</v>
+      </c>
+      <c r="E99" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="F99" s="52">
+        <v>1000</v>
+      </c>
+      <c r="G99" s="55">
+        <v>50</v>
+      </c>
+      <c r="H99" s="53" t="str">
+        <f>__回合抗性!D99&amp;"|"&amp;__回合抗性!E99&amp;"|"&amp;__回合抗性!F99&amp;"|"&amp;__回合抗性!G99</f>
+        <v>|||</v>
+      </c>
+      <c r="I99" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="J99" s="8">
+        <v>0</v>
+      </c>
+      <c r="K99" s="61">
+        <v>150</v>
+      </c>
+      <c r="L99" s="54">
+        <v>1</v>
+      </c>
+      <c r="M99" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="N99" s="6">
+        <v>10</v>
+      </c>
+      <c r="O99" s="53" t="str">
+        <f>__回合抗性!H99&amp;"|"&amp;__回合抗性!I99&amp;"|"&amp;__回合抗性!J99&amp;"|"&amp;__回合抗性!K99</f>
+        <v>|||</v>
+      </c>
+      <c r="P99" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="8">
+        <v>2</v>
+      </c>
+      <c r="R99" s="8">
+        <v>2</v>
+      </c>
+      <c r="S99" s="8"/>
+      <c r="T99" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>npc_monster_normal_40_12</v>
+      </c>
+      <c r="U99" s="12"/>
+      <c r="W99" s="7"/>
+      <c r="X99" s="8">
+        <v>16</v>
+      </c>
+      <c r="Y99" s="12"/>
+      <c r="AA99" s="79">
+        <v>15000</v>
+      </c>
+      <c r="AB99" s="80">
+        <v>64</v>
+      </c>
+      <c r="AC99" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD99" s="6">
+        <v>10</v>
+      </c>
+      <c r="AE99" s="53" t="str">
+        <f>__回合抗性!L99&amp;"|"&amp;__回合抗性!M99&amp;"|"&amp;__回合抗性!N99&amp;"|"&amp;__回合抗性!O99</f>
+        <v>|||</v>
+      </c>
+    </row>
+    <row r="100" customFormat="1" ht="30.5" customHeight="1" spans="1:31">
+      <c r="A100" s="13">
+        <v>98</v>
+      </c>
+      <c r="B100" s="8">
+        <v>40</v>
+      </c>
+      <c r="C100" s="8">
+        <v>13</v>
+      </c>
+      <c r="D100" s="8">
+        <v>1</v>
+      </c>
+      <c r="E100" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="F100" s="52">
+        <v>1000</v>
+      </c>
+      <c r="G100" s="55">
+        <v>50</v>
+      </c>
+      <c r="H100" s="53" t="str">
+        <f>__回合抗性!D100&amp;"|"&amp;__回合抗性!E100&amp;"|"&amp;__回合抗性!F100&amp;"|"&amp;__回合抗性!G100</f>
+        <v>|||</v>
+      </c>
+      <c r="I100" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="J100" s="8">
+        <v>3</v>
+      </c>
+      <c r="K100" s="61">
+        <v>150</v>
+      </c>
+      <c r="L100" s="54">
+        <v>1</v>
+      </c>
+      <c r="M100" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="N100" s="6">
+        <v>10</v>
+      </c>
+      <c r="O100" s="53" t="str">
+        <f>__回合抗性!H100&amp;"|"&amp;__回合抗性!I100&amp;"|"&amp;__回合抗性!J100&amp;"|"&amp;__回合抗性!K100</f>
+        <v>|||</v>
+      </c>
+      <c r="P100" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="8">
+        <v>2</v>
+      </c>
+      <c r="R100" s="8">
+        <v>2</v>
+      </c>
+      <c r="S100" s="8"/>
+      <c r="T100" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>npc_monster_normal_40_13</v>
+      </c>
+      <c r="U100" s="15" t="str">
+        <f>"npc_monster_normal_"&amp;B100&amp;"_"&amp;C100&amp;"_a"</f>
+        <v>npc_monster_normal_40_13_a</v>
+      </c>
+      <c r="W100" s="7"/>
+      <c r="X100" s="8">
+        <v>16</v>
+      </c>
+      <c r="Y100" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA100" s="79">
+        <v>15000</v>
+      </c>
+      <c r="AB100" s="80">
+        <v>64</v>
+      </c>
+      <c r="AC100" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD100" s="6">
+        <v>10</v>
+      </c>
+      <c r="AE100" s="53" t="str">
+        <f>__回合抗性!L100&amp;"|"&amp;__回合抗性!M100&amp;"|"&amp;__回合抗性!N100&amp;"|"&amp;__回合抗性!O100</f>
+        <v>|||</v>
+      </c>
+    </row>
+    <row r="101" customFormat="1" ht="30.5" customHeight="1" spans="1:31">
+      <c r="A101" s="13">
+        <v>99</v>
+      </c>
+      <c r="B101" s="8">
+        <v>40</v>
+      </c>
+      <c r="C101" s="8">
+        <v>14</v>
+      </c>
+      <c r="D101" s="8">
+        <v>1</v>
+      </c>
+      <c r="E101" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="F101" s="52">
+        <v>1000</v>
+      </c>
+      <c r="G101" s="55">
+        <v>50</v>
+      </c>
+      <c r="H101" s="53" t="str">
+        <f>__回合抗性!D101&amp;"|"&amp;__回合抗性!E101&amp;"|"&amp;__回合抗性!F101&amp;"|"&amp;__回合抗性!G101</f>
+        <v>|||</v>
+      </c>
+      <c r="I101" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="J101" s="8">
+        <v>0</v>
+      </c>
+      <c r="K101" s="61">
+        <v>150</v>
+      </c>
+      <c r="L101" s="54">
+        <v>1</v>
+      </c>
+      <c r="M101" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="N101" s="6">
+        <v>10</v>
+      </c>
+      <c r="O101" s="53" t="str">
+        <f>__回合抗性!H101&amp;"|"&amp;__回合抗性!I101&amp;"|"&amp;__回合抗性!J101&amp;"|"&amp;__回合抗性!K101</f>
+        <v>|||</v>
+      </c>
+      <c r="P101" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="8">
+        <v>2</v>
+      </c>
+      <c r="R101" s="8">
+        <v>2</v>
+      </c>
+      <c r="S101" s="8"/>
+      <c r="T101" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>npc_monster_normal_40_14</v>
+      </c>
+      <c r="U101" s="12"/>
+      <c r="W101" s="7"/>
+      <c r="X101" s="8">
+        <v>18</v>
+      </c>
+      <c r="Y101" s="12"/>
+      <c r="AA101" s="79">
+        <v>15000</v>
+      </c>
+      <c r="AB101" s="80">
+        <v>64</v>
+      </c>
+      <c r="AC101" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD101" s="6">
+        <v>10</v>
+      </c>
+      <c r="AE101" s="53" t="str">
+        <f>__回合抗性!L101&amp;"|"&amp;__回合抗性!M101&amp;"|"&amp;__回合抗性!N101&amp;"|"&amp;__回合抗性!O101</f>
+        <v>|||</v>
+      </c>
+    </row>
+    <row r="102" customFormat="1" ht="30.5" customHeight="1" spans="1:31">
+      <c r="A102" s="13">
+        <v>100</v>
+      </c>
+      <c r="B102" s="8">
+        <v>40</v>
+      </c>
+      <c r="C102" s="8">
+        <v>15</v>
+      </c>
+      <c r="D102" s="8">
+        <v>1</v>
+      </c>
+      <c r="E102" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="F102" s="52">
+        <v>1000</v>
+      </c>
+      <c r="G102" s="55">
+        <v>50</v>
+      </c>
+      <c r="H102" s="53" t="str">
+        <f>__回合抗性!D102&amp;"|"&amp;__回合抗性!E102&amp;"|"&amp;__回合抗性!F102&amp;"|"&amp;__回合抗性!G102</f>
+        <v>|||</v>
+      </c>
+      <c r="I102" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="J102" s="8">
+        <v>0</v>
+      </c>
+      <c r="K102" s="61">
+        <v>150</v>
+      </c>
+      <c r="L102" s="54">
+        <v>1</v>
+      </c>
+      <c r="M102" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="N102" s="6">
+        <v>10</v>
+      </c>
+      <c r="O102" s="53" t="str">
+        <f>__回合抗性!H102&amp;"|"&amp;__回合抗性!I102&amp;"|"&amp;__回合抗性!J102&amp;"|"&amp;__回合抗性!K102</f>
+        <v>|||</v>
+      </c>
+      <c r="P102" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="8">
+        <v>2</v>
+      </c>
+      <c r="R102" s="8">
+        <v>2</v>
+      </c>
+      <c r="S102" s="8"/>
+      <c r="T102" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>npc_monster_normal_40_15</v>
+      </c>
+      <c r="U102" s="15" t="str">
+        <f>"npc_monster_normal_"&amp;B102&amp;"_"&amp;C102&amp;"_a"</f>
+        <v>npc_monster_normal_40_15_a</v>
+      </c>
+      <c r="W102" s="7"/>
+      <c r="X102" s="8">
+        <v>18</v>
+      </c>
+      <c r="Y102" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA102" s="79">
+        <v>15000</v>
+      </c>
+      <c r="AB102" s="80">
+        <v>64</v>
+      </c>
+      <c r="AC102" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD102" s="6">
+        <v>10</v>
+      </c>
+      <c r="AE102" s="53" t="str">
+        <f>__回合抗性!L102&amp;"|"&amp;__回合抗性!M102&amp;"|"&amp;__回合抗性!N102&amp;"|"&amp;__回合抗性!O102</f>
+        <v>|||</v>
+      </c>
+    </row>
+    <row r="103" customFormat="1" ht="30.5" customHeight="1" spans="1:31">
+      <c r="A103" s="13">
+        <v>101</v>
+      </c>
+      <c r="B103" s="8">
+        <v>40</v>
+      </c>
+      <c r="C103" s="8">
+        <v>16</v>
+      </c>
+      <c r="D103" s="8">
+        <v>1</v>
+      </c>
+      <c r="E103" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="F103" s="52">
+        <v>1000</v>
+      </c>
+      <c r="G103" s="55">
+        <v>50</v>
+      </c>
+      <c r="H103" s="53" t="str">
+        <f>__回合抗性!D103&amp;"|"&amp;__回合抗性!E103&amp;"|"&amp;__回合抗性!F103&amp;"|"&amp;__回合抗性!G103</f>
+        <v>|||</v>
+      </c>
+      <c r="I103" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="J103" s="8">
+        <v>0</v>
+      </c>
+      <c r="K103" s="61">
+        <v>150</v>
+      </c>
+      <c r="L103" s="54">
+        <v>1</v>
+      </c>
+      <c r="M103" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="N103" s="6">
+        <v>10</v>
+      </c>
+      <c r="O103" s="53" t="str">
+        <f>__回合抗性!H103&amp;"|"&amp;__回合抗性!I103&amp;"|"&amp;__回合抗性!J103&amp;"|"&amp;__回合抗性!K103</f>
+        <v>|||</v>
+      </c>
+      <c r="P103" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q103" s="8">
+        <v>2</v>
+      </c>
+      <c r="R103" s="8">
+        <v>2</v>
+      </c>
+      <c r="S103" s="8"/>
+      <c r="T103" s="8" t="str">
+        <f>"npc_monster_normal_"&amp;B103&amp;"_"&amp;(C103-15)</f>
+        <v>npc_monster_normal_40_1</v>
+      </c>
+      <c r="U103" s="12"/>
+      <c r="W103" s="7"/>
+      <c r="X103" s="8">
+        <v>20</v>
+      </c>
+      <c r="Y103" s="12"/>
+      <c r="AA103" s="79">
+        <v>15000</v>
+      </c>
+      <c r="AB103" s="80">
+        <v>64</v>
+      </c>
+      <c r="AC103" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD103" s="6">
+        <v>10</v>
+      </c>
+      <c r="AE103" s="53" t="str">
+        <f>__回合抗性!L103&amp;"|"&amp;__回合抗性!M103&amp;"|"&amp;__回合抗性!N103&amp;"|"&amp;__回合抗性!O103</f>
+        <v>|||</v>
+      </c>
+    </row>
+    <row r="104" customFormat="1" ht="30.5" customHeight="1" spans="1:31">
+      <c r="A104" s="13">
+        <v>102</v>
+      </c>
+      <c r="B104" s="8">
+        <v>40</v>
+      </c>
+      <c r="C104" s="8">
+        <v>17</v>
+      </c>
+      <c r="D104" s="8">
+        <v>1</v>
+      </c>
+      <c r="E104" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="F104" s="52">
+        <v>1000</v>
+      </c>
+      <c r="G104" s="55">
+        <v>50</v>
+      </c>
+      <c r="H104" s="53" t="str">
+        <f>__回合抗性!D104&amp;"|"&amp;__回合抗性!E104&amp;"|"&amp;__回合抗性!F104&amp;"|"&amp;__回合抗性!G104</f>
+        <v>|||</v>
+      </c>
+      <c r="I104" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="J104" s="8">
+        <v>0</v>
+      </c>
+      <c r="K104" s="61">
+        <v>150</v>
+      </c>
+      <c r="L104" s="54">
+        <v>1</v>
+      </c>
+      <c r="M104" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="N104" s="6">
+        <v>10</v>
+      </c>
+      <c r="O104" s="53" t="str">
+        <f>__回合抗性!H104&amp;"|"&amp;__回合抗性!I104&amp;"|"&amp;__回合抗性!J104&amp;"|"&amp;__回合抗性!K104</f>
+        <v>|||</v>
+      </c>
+      <c r="P104" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q104" s="8">
+        <v>2</v>
+      </c>
+      <c r="R104" s="8">
+        <v>2</v>
+      </c>
+      <c r="S104" s="8"/>
+      <c r="T104" s="8" t="str">
+        <f t="shared" ref="T103:T117" si="6">"npc_monster_normal_"&amp;B104&amp;"_"&amp;(C104-15)</f>
+        <v>npc_monster_normal_40_2</v>
+      </c>
+      <c r="U104" s="12"/>
+      <c r="W104" s="7"/>
+      <c r="X104" s="8">
+        <v>20</v>
+      </c>
+      <c r="Y104" s="12"/>
+      <c r="AA104" s="79">
+        <v>15000</v>
+      </c>
+      <c r="AB104" s="80">
+        <v>64</v>
+      </c>
+      <c r="AC104" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD104" s="6">
+        <v>10</v>
+      </c>
+      <c r="AE104" s="53" t="str">
+        <f>__回合抗性!L104&amp;"|"&amp;__回合抗性!M104&amp;"|"&amp;__回合抗性!N104&amp;"|"&amp;__回合抗性!O104</f>
+        <v>|||</v>
+      </c>
+    </row>
+    <row r="105" customFormat="1" ht="30.5" customHeight="1" spans="1:31">
+      <c r="A105" s="13">
+        <v>103</v>
+      </c>
+      <c r="B105" s="8">
+        <v>40</v>
+      </c>
+      <c r="C105" s="8">
+        <v>18</v>
+      </c>
+      <c r="D105" s="8">
+        <v>1</v>
+      </c>
+      <c r="E105" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="F105" s="52">
+        <v>1000</v>
+      </c>
+      <c r="G105" s="55">
+        <v>50</v>
+      </c>
+      <c r="H105" s="53" t="str">
+        <f>__回合抗性!D105&amp;"|"&amp;__回合抗性!E105&amp;"|"&amp;__回合抗性!F105&amp;"|"&amp;__回合抗性!G105</f>
+        <v>|||</v>
+      </c>
+      <c r="I105" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="J105" s="8">
+        <v>5</v>
+      </c>
+      <c r="K105" s="61">
+        <v>150</v>
+      </c>
+      <c r="L105" s="54">
+        <v>1</v>
+      </c>
+      <c r="M105" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="N105" s="6">
+        <v>10</v>
+      </c>
+      <c r="O105" s="53" t="str">
+        <f>__回合抗性!H105&amp;"|"&amp;__回合抗性!I105&amp;"|"&amp;__回合抗性!J105&amp;"|"&amp;__回合抗性!K105</f>
+        <v>|||</v>
+      </c>
+      <c r="P105" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q105" s="8">
+        <v>2</v>
+      </c>
+      <c r="R105" s="8">
+        <v>2</v>
+      </c>
+      <c r="S105" s="8"/>
+      <c r="T105" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>npc_monster_normal_40_3</v>
+      </c>
+      <c r="U105" s="12"/>
+      <c r="W105" s="7"/>
+      <c r="X105" s="8">
+        <v>20</v>
+      </c>
+      <c r="Y105" s="12"/>
+      <c r="AA105" s="79">
+        <v>15000</v>
+      </c>
+      <c r="AB105" s="80">
+        <v>64</v>
+      </c>
+      <c r="AC105" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD105" s="6">
+        <v>10</v>
+      </c>
+      <c r="AE105" s="53" t="str">
+        <f>__回合抗性!L105&amp;"|"&amp;__回合抗性!M105&amp;"|"&amp;__回合抗性!N105&amp;"|"&amp;__回合抗性!O105</f>
+        <v>|||</v>
+      </c>
+    </row>
+    <row r="106" customFormat="1" ht="30.5" customHeight="1" spans="1:31">
+      <c r="A106" s="13">
+        <v>104</v>
+      </c>
+      <c r="B106" s="8">
+        <v>40</v>
+      </c>
+      <c r="C106" s="8">
+        <v>19</v>
+      </c>
+      <c r="D106" s="8">
+        <v>1</v>
+      </c>
+      <c r="E106" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="F106" s="52">
+        <v>1000</v>
+      </c>
+      <c r="G106" s="55">
+        <v>50</v>
+      </c>
+      <c r="H106" s="53" t="str">
+        <f>__回合抗性!D106&amp;"|"&amp;__回合抗性!E106&amp;"|"&amp;__回合抗性!F106&amp;"|"&amp;__回合抗性!G106</f>
+        <v>|||</v>
+      </c>
+      <c r="I106" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="J106" s="8">
+        <v>0</v>
+      </c>
+      <c r="K106" s="61">
+        <v>150</v>
+      </c>
+      <c r="L106" s="54">
+        <v>1</v>
+      </c>
+      <c r="M106" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="N106" s="6">
+        <v>10</v>
+      </c>
+      <c r="O106" s="53" t="str">
+        <f>__回合抗性!H106&amp;"|"&amp;__回合抗性!I106&amp;"|"&amp;__回合抗性!J106&amp;"|"&amp;__回合抗性!K106</f>
+        <v>|||</v>
+      </c>
+      <c r="P106" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q106" s="8">
+        <v>2</v>
+      </c>
+      <c r="R106" s="8">
+        <v>2</v>
+      </c>
+      <c r="S106" s="8"/>
+      <c r="T106" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>npc_monster_normal_40_4</v>
+      </c>
+      <c r="U106" s="12"/>
+      <c r="W106" s="7"/>
+      <c r="X106" s="8">
+        <v>20</v>
+      </c>
+      <c r="Y106" s="12"/>
+      <c r="AA106" s="79">
+        <v>15000</v>
+      </c>
+      <c r="AB106" s="80">
+        <v>64</v>
+      </c>
+      <c r="AC106" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD106" s="6">
+        <v>10</v>
+      </c>
+      <c r="AE106" s="53" t="str">
+        <f>__回合抗性!L106&amp;"|"&amp;__回合抗性!M106&amp;"|"&amp;__回合抗性!N106&amp;"|"&amp;__回合抗性!O106</f>
+        <v>|||</v>
+      </c>
+    </row>
+    <row r="107" customFormat="1" ht="30.5" customHeight="1" spans="1:31">
+      <c r="A107" s="13">
+        <v>105</v>
+      </c>
+      <c r="B107" s="8">
+        <v>40</v>
+      </c>
+      <c r="C107" s="8">
+        <v>20</v>
+      </c>
+      <c r="D107" s="8">
+        <v>1</v>
+      </c>
+      <c r="E107" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="F107" s="52">
+        <v>1000</v>
+      </c>
+      <c r="G107" s="55">
+        <v>50</v>
+      </c>
+      <c r="H107" s="53" t="str">
+        <f>__回合抗性!D107&amp;"|"&amp;__回合抗性!E107&amp;"|"&amp;__回合抗性!F107&amp;"|"&amp;__回合抗性!G107</f>
+        <v>|||</v>
+      </c>
+      <c r="I107" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="J107" s="8">
+        <v>0</v>
+      </c>
+      <c r="K107" s="61">
+        <v>150</v>
+      </c>
+      <c r="L107" s="54">
+        <v>1</v>
+      </c>
+      <c r="M107" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="N107" s="6">
+        <v>10</v>
+      </c>
+      <c r="O107" s="53" t="str">
+        <f>__回合抗性!H107&amp;"|"&amp;__回合抗性!I107&amp;"|"&amp;__回合抗性!J107&amp;"|"&amp;__回合抗性!K107</f>
+        <v>|||</v>
+      </c>
+      <c r="P107" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q107" s="8">
+        <v>2</v>
+      </c>
+      <c r="R107" s="8">
+        <v>2</v>
+      </c>
+      <c r="S107" s="8"/>
+      <c r="T107" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>npc_monster_normal_40_5</v>
+      </c>
+      <c r="U107" s="12"/>
+      <c r="W107" s="7"/>
+      <c r="X107" s="8">
+        <v>20</v>
+      </c>
+      <c r="Y107" s="12"/>
+      <c r="AA107" s="79">
+        <v>15000</v>
+      </c>
+      <c r="AB107" s="80">
+        <v>64</v>
+      </c>
+      <c r="AC107" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD107" s="6">
+        <v>10</v>
+      </c>
+      <c r="AE107" s="53" t="str">
+        <f>__回合抗性!L107&amp;"|"&amp;__回合抗性!M107&amp;"|"&amp;__回合抗性!N107&amp;"|"&amp;__回合抗性!O107</f>
+        <v>|||</v>
+      </c>
+    </row>
+    <row r="108" customFormat="1" ht="30.5" customHeight="1" spans="1:31">
+      <c r="A108" s="13">
+        <v>106</v>
+      </c>
+      <c r="B108" s="8">
+        <v>40</v>
+      </c>
+      <c r="C108" s="8">
+        <v>21</v>
+      </c>
+      <c r="D108" s="8">
+        <v>1</v>
+      </c>
+      <c r="E108" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="F108" s="52">
+        <v>1000</v>
+      </c>
+      <c r="G108" s="55">
+        <v>50</v>
+      </c>
+      <c r="H108" s="53" t="str">
+        <f>__回合抗性!D108&amp;"|"&amp;__回合抗性!E108&amp;"|"&amp;__回合抗性!F108&amp;"|"&amp;__回合抗性!G108</f>
+        <v>|||</v>
+      </c>
+      <c r="I108" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="J108" s="8">
+        <v>0</v>
+      </c>
+      <c r="K108" s="61">
+        <v>150</v>
+      </c>
+      <c r="L108" s="54">
+        <v>1</v>
+      </c>
+      <c r="M108" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="N108" s="6">
+        <v>10</v>
+      </c>
+      <c r="O108" s="53" t="str">
+        <f>__回合抗性!H108&amp;"|"&amp;__回合抗性!I108&amp;"|"&amp;__回合抗性!J108&amp;"|"&amp;__回合抗性!K108</f>
+        <v>|||</v>
+      </c>
+      <c r="P108" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q108" s="8">
+        <v>2</v>
+      </c>
+      <c r="R108" s="8">
+        <v>2</v>
+      </c>
+      <c r="S108" s="8"/>
+      <c r="T108" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>npc_monster_normal_40_6</v>
+      </c>
+      <c r="U108" s="15" t="str">
+        <f>"npc_monster_normal_"&amp;B108&amp;"_"&amp;(C108-15)&amp;"_a"</f>
+        <v>npc_monster_normal_40_6_a</v>
+      </c>
+      <c r="W108" s="7"/>
+      <c r="X108" s="8">
+        <v>18</v>
+      </c>
+      <c r="Y108" s="12">
+        <v>2</v>
+      </c>
+      <c r="AA108" s="79">
+        <v>15000</v>
+      </c>
+      <c r="AB108" s="80">
+        <v>64</v>
+      </c>
+      <c r="AC108" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD108" s="6">
+        <v>10</v>
+      </c>
+      <c r="AE108" s="53" t="str">
+        <f>__回合抗性!L108&amp;"|"&amp;__回合抗性!M108&amp;"|"&amp;__回合抗性!N108&amp;"|"&amp;__回合抗性!O108</f>
+        <v>|||</v>
+      </c>
+    </row>
+    <row r="109" customFormat="1" ht="30.5" customHeight="1" spans="1:31">
+      <c r="A109" s="13">
+        <v>107</v>
+      </c>
+      <c r="B109" s="8">
+        <v>40</v>
+      </c>
+      <c r="C109" s="8">
+        <v>22</v>
+      </c>
+      <c r="D109" s="8">
+        <v>1</v>
+      </c>
+      <c r="E109" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="F109" s="52">
+        <v>1000</v>
+      </c>
+      <c r="G109" s="55">
+        <v>50</v>
+      </c>
+      <c r="H109" s="53" t="str">
+        <f>__回合抗性!D109&amp;"|"&amp;__回合抗性!E109&amp;"|"&amp;__回合抗性!F109&amp;"|"&amp;__回合抗性!G109</f>
+        <v>|||</v>
+      </c>
+      <c r="I109" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="J109" s="8">
+        <v>0</v>
+      </c>
+      <c r="K109" s="61">
+        <v>150</v>
+      </c>
+      <c r="L109" s="54">
+        <v>1</v>
+      </c>
+      <c r="M109" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="N109" s="6">
+        <v>10</v>
+      </c>
+      <c r="O109" s="53" t="str">
+        <f>__回合抗性!H109&amp;"|"&amp;__回合抗性!I109&amp;"|"&amp;__回合抗性!J109&amp;"|"&amp;__回合抗性!K109</f>
+        <v>|||</v>
+      </c>
+      <c r="P109" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q109" s="8">
+        <v>2</v>
+      </c>
+      <c r="R109" s="8">
+        <v>2</v>
+      </c>
+      <c r="S109" s="8"/>
+      <c r="T109" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>npc_monster_normal_40_7</v>
+      </c>
+      <c r="U109" s="12"/>
+      <c r="W109" s="7"/>
+      <c r="X109" s="8">
+        <v>20</v>
+      </c>
+      <c r="Y109" s="12"/>
+      <c r="AA109" s="79">
+        <v>15000</v>
+      </c>
+      <c r="AB109" s="80">
+        <v>64</v>
+      </c>
+      <c r="AC109" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD109" s="6">
+        <v>10</v>
+      </c>
+      <c r="AE109" s="53" t="str">
+        <f>__回合抗性!L109&amp;"|"&amp;__回合抗性!M109&amp;"|"&amp;__回合抗性!N109&amp;"|"&amp;__回合抗性!O109</f>
+        <v>|||</v>
+      </c>
+    </row>
+    <row r="110" customFormat="1" ht="30.5" customHeight="1" spans="1:31">
+      <c r="A110" s="13">
+        <v>108</v>
+      </c>
+      <c r="B110" s="8">
+        <v>40</v>
+      </c>
+      <c r="C110" s="8">
+        <v>23</v>
+      </c>
+      <c r="D110" s="8">
+        <v>1</v>
+      </c>
+      <c r="E110" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="F110" s="52">
+        <v>1000</v>
+      </c>
+      <c r="G110" s="55">
+        <v>50</v>
+      </c>
+      <c r="H110" s="53" t="str">
+        <f>__回合抗性!D110&amp;"|"&amp;__回合抗性!E110&amp;"|"&amp;__回合抗性!F110&amp;"|"&amp;__回合抗性!G110</f>
+        <v>|||</v>
+      </c>
+      <c r="I110" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="J110" s="8">
+        <v>5</v>
+      </c>
+      <c r="K110" s="61">
+        <v>150</v>
+      </c>
+      <c r="L110" s="54">
+        <v>1</v>
+      </c>
+      <c r="M110" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="N110" s="6">
+        <v>10</v>
+      </c>
+      <c r="O110" s="53" t="str">
+        <f>__回合抗性!H110&amp;"|"&amp;__回合抗性!I110&amp;"|"&amp;__回合抗性!J110&amp;"|"&amp;__回合抗性!K110</f>
+        <v>|||</v>
+      </c>
+      <c r="P110" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q110" s="8">
+        <v>2</v>
+      </c>
+      <c r="R110" s="8">
+        <v>2</v>
+      </c>
+      <c r="S110" s="8"/>
+      <c r="T110" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>npc_monster_normal_40_8</v>
+      </c>
+      <c r="U110" s="15" t="str">
+        <f>"npc_monster_normal_"&amp;B110&amp;"_"&amp;(C110-15)&amp;"_a"</f>
+        <v>npc_monster_normal_40_8_a</v>
+      </c>
+      <c r="W110" s="7"/>
+      <c r="X110" s="8">
+        <v>18</v>
+      </c>
+      <c r="Y110" s="12">
+        <v>2</v>
+      </c>
+      <c r="AA110" s="79">
+        <v>15000</v>
+      </c>
+      <c r="AB110" s="80">
+        <v>64</v>
+      </c>
+      <c r="AC110" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD110" s="6">
+        <v>10</v>
+      </c>
+      <c r="AE110" s="53" t="str">
+        <f>__回合抗性!L110&amp;"|"&amp;__回合抗性!M110&amp;"|"&amp;__回合抗性!N110&amp;"|"&amp;__回合抗性!O110</f>
+        <v>|||</v>
+      </c>
+    </row>
+    <row r="111" customFormat="1" ht="30.5" customHeight="1" spans="1:31">
+      <c r="A111" s="13">
+        <v>109</v>
+      </c>
+      <c r="B111" s="8">
+        <v>40</v>
+      </c>
+      <c r="C111" s="8">
+        <v>24</v>
+      </c>
+      <c r="D111" s="8">
+        <v>1</v>
+      </c>
+      <c r="E111" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="F111" s="52">
+        <v>1000</v>
+      </c>
+      <c r="G111" s="55">
+        <v>50</v>
+      </c>
+      <c r="H111" s="53" t="str">
+        <f>__回合抗性!D111&amp;"|"&amp;__回合抗性!E111&amp;"|"&amp;__回合抗性!F111&amp;"|"&amp;__回合抗性!G111</f>
+        <v>|||</v>
+      </c>
+      <c r="I111" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="J111" s="8">
+        <v>0</v>
+      </c>
+      <c r="K111" s="61">
+        <v>150</v>
+      </c>
+      <c r="L111" s="54">
+        <v>1</v>
+      </c>
+      <c r="M111" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="N111" s="6">
+        <v>10</v>
+      </c>
+      <c r="O111" s="53" t="str">
+        <f>__回合抗性!H111&amp;"|"&amp;__回合抗性!I111&amp;"|"&amp;__回合抗性!J111&amp;"|"&amp;__回合抗性!K111</f>
+        <v>|||</v>
+      </c>
+      <c r="P111" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q111" s="8">
+        <v>2</v>
+      </c>
+      <c r="R111" s="8">
+        <v>2</v>
+      </c>
+      <c r="S111" s="8"/>
+      <c r="T111" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>npc_monster_normal_40_9</v>
+      </c>
+      <c r="U111" s="12"/>
+      <c r="W111" s="7"/>
+      <c r="X111" s="8">
+        <v>20</v>
+      </c>
+      <c r="Y111" s="12"/>
+      <c r="AA111" s="79">
+        <v>15000</v>
+      </c>
+      <c r="AB111" s="80">
+        <v>64</v>
+      </c>
+      <c r="AC111" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD111" s="6">
+        <v>10</v>
+      </c>
+      <c r="AE111" s="53" t="str">
+        <f>__回合抗性!L111&amp;"|"&amp;__回合抗性!M111&amp;"|"&amp;__回合抗性!N111&amp;"|"&amp;__回合抗性!O111</f>
+        <v>|||</v>
+      </c>
+    </row>
+    <row r="112" customFormat="1" ht="30.5" customHeight="1" spans="1:31">
+      <c r="A112" s="13">
+        <v>110</v>
+      </c>
+      <c r="B112" s="8">
+        <v>40</v>
+      </c>
+      <c r="C112" s="8">
+        <v>25</v>
+      </c>
+      <c r="D112" s="8">
+        <v>1</v>
+      </c>
+      <c r="E112" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="F112" s="52">
+        <v>1000</v>
+      </c>
+      <c r="G112" s="55">
+        <v>50</v>
+      </c>
+      <c r="H112" s="53" t="str">
+        <f>__回合抗性!D112&amp;"|"&amp;__回合抗性!E112&amp;"|"&amp;__回合抗性!F112&amp;"|"&amp;__回合抗性!G112</f>
+        <v>|||</v>
+      </c>
+      <c r="I112" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="J112" s="8">
+        <v>0</v>
+      </c>
+      <c r="K112" s="61">
+        <v>150</v>
+      </c>
+      <c r="L112" s="54">
+        <v>1</v>
+      </c>
+      <c r="M112" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="N112" s="6">
+        <v>10</v>
+      </c>
+      <c r="O112" s="53" t="str">
+        <f>__回合抗性!H112&amp;"|"&amp;__回合抗性!I112&amp;"|"&amp;__回合抗性!J112&amp;"|"&amp;__回合抗性!K112</f>
+        <v>|||</v>
+      </c>
+      <c r="P112" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q112" s="8">
+        <v>2</v>
+      </c>
+      <c r="R112" s="8">
+        <v>2</v>
+      </c>
+      <c r="S112" s="8"/>
+      <c r="T112" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>npc_monster_normal_40_10</v>
+      </c>
+      <c r="U112" s="12"/>
+      <c r="W112" s="7"/>
+      <c r="X112" s="8">
+        <v>20</v>
+      </c>
+      <c r="Y112" s="12"/>
+      <c r="AA112" s="79">
+        <v>15000</v>
+      </c>
+      <c r="AB112" s="80">
+        <v>64</v>
+      </c>
+      <c r="AC112" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD112" s="6">
+        <v>10</v>
+      </c>
+      <c r="AE112" s="53" t="str">
+        <f>__回合抗性!L112&amp;"|"&amp;__回合抗性!M112&amp;"|"&amp;__回合抗性!N112&amp;"|"&amp;__回合抗性!O112</f>
+        <v>|||</v>
+      </c>
+    </row>
+    <row r="113" customFormat="1" ht="30.5" customHeight="1" spans="1:31">
+      <c r="A113" s="13">
+        <v>111</v>
+      </c>
+      <c r="B113" s="8">
+        <v>40</v>
+      </c>
+      <c r="C113" s="8">
+        <v>26</v>
+      </c>
+      <c r="D113" s="8">
+        <v>1</v>
+      </c>
+      <c r="E113" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="F113" s="52">
+        <v>1000</v>
+      </c>
+      <c r="G113" s="55">
+        <v>50</v>
+      </c>
+      <c r="H113" s="53" t="str">
+        <f>__回合抗性!D113&amp;"|"&amp;__回合抗性!E113&amp;"|"&amp;__回合抗性!F113&amp;"|"&amp;__回合抗性!G113</f>
+        <v>|||</v>
+      </c>
+      <c r="I113" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="J113" s="8">
+        <v>0</v>
+      </c>
+      <c r="K113" s="61">
+        <v>150</v>
+      </c>
+      <c r="L113" s="54">
+        <v>1</v>
+      </c>
+      <c r="M113" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="N113" s="6">
+        <v>10</v>
+      </c>
+      <c r="O113" s="53" t="str">
+        <f>__回合抗性!H113&amp;"|"&amp;__回合抗性!I113&amp;"|"&amp;__回合抗性!J113&amp;"|"&amp;__回合抗性!K113</f>
+        <v>|||</v>
+      </c>
+      <c r="P113" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q113" s="8">
+        <v>2</v>
+      </c>
+      <c r="R113" s="8">
+        <v>2</v>
+      </c>
+      <c r="S113" s="8"/>
+      <c r="T113" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>npc_monster_normal_40_11</v>
+      </c>
+      <c r="U113" s="12"/>
+      <c r="W113" s="7"/>
+      <c r="X113" s="8">
+        <v>20</v>
+      </c>
+      <c r="Y113" s="12"/>
+      <c r="AA113" s="79">
+        <v>15000</v>
+      </c>
+      <c r="AB113" s="80">
+        <v>64</v>
+      </c>
+      <c r="AC113" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD113" s="6">
+        <v>10</v>
+      </c>
+      <c r="AE113" s="53" t="str">
+        <f>__回合抗性!L113&amp;"|"&amp;__回合抗性!M113&amp;"|"&amp;__回合抗性!N113&amp;"|"&amp;__回合抗性!O113</f>
+        <v>|||</v>
+      </c>
+    </row>
+    <row r="114" customFormat="1" ht="30.5" customHeight="1" spans="1:31">
+      <c r="A114" s="13">
+        <v>112</v>
+      </c>
+      <c r="B114" s="8">
+        <v>40</v>
+      </c>
+      <c r="C114" s="8">
+        <v>27</v>
+      </c>
+      <c r="D114" s="8">
+        <v>1</v>
+      </c>
+      <c r="E114" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="F114" s="52">
+        <v>1000</v>
+      </c>
+      <c r="G114" s="55">
+        <v>50</v>
+      </c>
+      <c r="H114" s="53" t="str">
+        <f>__回合抗性!D114&amp;"|"&amp;__回合抗性!E114&amp;"|"&amp;__回合抗性!F114&amp;"|"&amp;__回合抗性!G114</f>
+        <v>|||</v>
+      </c>
+      <c r="I114" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="J114" s="8">
+        <v>0</v>
+      </c>
+      <c r="K114" s="61">
+        <v>150</v>
+      </c>
+      <c r="L114" s="54">
+        <v>1</v>
+      </c>
+      <c r="M114" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="N114" s="6">
+        <v>10</v>
+      </c>
+      <c r="O114" s="53" t="str">
+        <f>__回合抗性!H114&amp;"|"&amp;__回合抗性!I114&amp;"|"&amp;__回合抗性!J114&amp;"|"&amp;__回合抗性!K114</f>
+        <v>|||</v>
+      </c>
+      <c r="P114" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q114" s="8">
+        <v>2</v>
+      </c>
+      <c r="R114" s="8">
+        <v>2</v>
+      </c>
+      <c r="S114" s="8"/>
+      <c r="T114" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>npc_monster_normal_40_12</v>
+      </c>
+      <c r="U114" s="12"/>
+      <c r="W114" s="7"/>
+      <c r="X114" s="8">
+        <v>20</v>
+      </c>
+      <c r="Y114" s="12"/>
+      <c r="AA114" s="79">
+        <v>15000</v>
+      </c>
+      <c r="AB114" s="80">
+        <v>64</v>
+      </c>
+      <c r="AC114" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD114" s="6">
+        <v>10</v>
+      </c>
+      <c r="AE114" s="53" t="str">
+        <f>__回合抗性!L114&amp;"|"&amp;__回合抗性!M114&amp;"|"&amp;__回合抗性!N114&amp;"|"&amp;__回合抗性!O114</f>
+        <v>|||</v>
+      </c>
+    </row>
+    <row r="115" customFormat="1" ht="30.5" customHeight="1" spans="1:31">
+      <c r="A115" s="13">
+        <v>113</v>
+      </c>
+      <c r="B115" s="8">
+        <v>40</v>
+      </c>
+      <c r="C115" s="8">
+        <v>28</v>
+      </c>
+      <c r="D115" s="8">
+        <v>1</v>
+      </c>
+      <c r="E115" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="F115" s="52">
+        <v>1000</v>
+      </c>
+      <c r="G115" s="55">
+        <v>50</v>
+      </c>
+      <c r="H115" s="53" t="str">
+        <f>__回合抗性!D115&amp;"|"&amp;__回合抗性!E115&amp;"|"&amp;__回合抗性!F115&amp;"|"&amp;__回合抗性!G115</f>
+        <v>|||</v>
+      </c>
+      <c r="I115" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="J115" s="8">
+        <v>5</v>
+      </c>
+      <c r="K115" s="61">
+        <v>150</v>
+      </c>
+      <c r="L115" s="54">
+        <v>1</v>
+      </c>
+      <c r="M115" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="N115" s="6">
+        <v>10</v>
+      </c>
+      <c r="O115" s="53" t="str">
+        <f>__回合抗性!H115&amp;"|"&amp;__回合抗性!I115&amp;"|"&amp;__回合抗性!J115&amp;"|"&amp;__回合抗性!K115</f>
+        <v>|||</v>
+      </c>
+      <c r="P115" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q115" s="8">
+        <v>2</v>
+      </c>
+      <c r="R115" s="8">
+        <v>2</v>
+      </c>
+      <c r="S115" s="8"/>
+      <c r="T115" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>npc_monster_normal_40_13</v>
+      </c>
+      <c r="U115" s="15" t="str">
+        <f>"npc_monster_normal_"&amp;B115&amp;"_"&amp;(C115-15)&amp;"_a"</f>
+        <v>npc_monster_normal_40_13_a</v>
+      </c>
+      <c r="W115" s="7"/>
+      <c r="X115" s="8">
+        <v>18</v>
+      </c>
+      <c r="Y115" s="12">
+        <v>2</v>
+      </c>
+      <c r="AA115" s="79">
+        <v>15000</v>
+      </c>
+      <c r="AB115" s="80">
+        <v>64</v>
+      </c>
+      <c r="AC115" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD115" s="6">
+        <v>10</v>
+      </c>
+      <c r="AE115" s="53" t="str">
+        <f>__回合抗性!L115&amp;"|"&amp;__回合抗性!M115&amp;"|"&amp;__回合抗性!N115&amp;"|"&amp;__回合抗性!O115</f>
+        <v>|||</v>
+      </c>
+    </row>
+    <row r="116" customFormat="1" ht="30.5" customHeight="1" spans="1:31">
+      <c r="A116" s="13">
+        <v>114</v>
+      </c>
+      <c r="B116" s="8">
+        <v>40</v>
+      </c>
+      <c r="C116" s="8">
+        <v>29</v>
+      </c>
+      <c r="D116" s="8">
+        <v>1</v>
+      </c>
+      <c r="E116" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="F116" s="52">
+        <v>1000</v>
+      </c>
+      <c r="G116" s="55">
+        <v>50</v>
+      </c>
+      <c r="H116" s="53" t="str">
+        <f>__回合抗性!D116&amp;"|"&amp;__回合抗性!E116&amp;"|"&amp;__回合抗性!F116&amp;"|"&amp;__回合抗性!G116</f>
+        <v>|||</v>
+      </c>
+      <c r="I116" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="J116" s="8">
+        <v>5</v>
+      </c>
+      <c r="K116" s="61">
+        <v>150</v>
+      </c>
+      <c r="L116" s="54">
+        <v>1</v>
+      </c>
+      <c r="M116" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="N116" s="6">
+        <v>10</v>
+      </c>
+      <c r="O116" s="53" t="str">
+        <f>__回合抗性!H116&amp;"|"&amp;__回合抗性!I116&amp;"|"&amp;__回合抗性!J116&amp;"|"&amp;__回合抗性!K116</f>
+        <v>|||</v>
+      </c>
+      <c r="P116" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q116" s="8">
+        <v>2</v>
+      </c>
+      <c r="R116" s="8">
+        <v>2</v>
+      </c>
+      <c r="S116" s="8"/>
+      <c r="T116" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>npc_monster_normal_40_14</v>
+      </c>
+      <c r="U116" s="12"/>
+      <c r="W116" s="7"/>
+      <c r="X116" s="8">
+        <v>20</v>
+      </c>
+      <c r="Y116" s="12"/>
+      <c r="AA116" s="79">
+        <v>15000</v>
+      </c>
+      <c r="AB116" s="80">
+        <v>64</v>
+      </c>
+      <c r="AC116" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD116" s="6">
+        <v>10</v>
+      </c>
+      <c r="AE116" s="53" t="str">
+        <f>__回合抗性!L116&amp;"|"&amp;__回合抗性!M116&amp;"|"&amp;__回合抗性!N116&amp;"|"&amp;__回合抗性!O116</f>
+        <v>|||</v>
+      </c>
+    </row>
+    <row r="117" customFormat="1" ht="30.5" customHeight="1" spans="1:31">
+      <c r="A117" s="13">
+        <v>115</v>
+      </c>
+      <c r="B117" s="8">
+        <v>40</v>
+      </c>
+      <c r="C117" s="14">
+        <v>30</v>
+      </c>
+      <c r="D117" s="14">
+        <v>1</v>
+      </c>
+      <c r="E117" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="F117" s="52">
+        <v>1000</v>
+      </c>
+      <c r="G117" s="55">
+        <v>50</v>
+      </c>
+      <c r="H117" s="53" t="str">
+        <f>__回合抗性!D117&amp;"|"&amp;__回合抗性!E117&amp;"|"&amp;__回合抗性!F117&amp;"|"&amp;__回合抗性!G117</f>
+        <v>|||</v>
+      </c>
+      <c r="I117" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="J117" s="14">
+        <v>5</v>
+      </c>
+      <c r="K117" s="61">
+        <v>150</v>
+      </c>
+      <c r="L117" s="54">
+        <v>1</v>
+      </c>
+      <c r="M117" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="N117" s="6">
+        <v>10</v>
+      </c>
+      <c r="O117" s="53" t="str">
+        <f>__回合抗性!H117&amp;"|"&amp;__回合抗性!I117&amp;"|"&amp;__回合抗性!J117&amp;"|"&amp;__回合抗性!K117</f>
+        <v>|||</v>
+      </c>
+      <c r="P117" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q117" s="14">
+        <v>2</v>
+      </c>
+      <c r="R117" s="14">
+        <v>2</v>
+      </c>
+      <c r="S117" s="14"/>
+      <c r="T117" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>npc_monster_normal_40_15</v>
+      </c>
+      <c r="U117" s="15" t="str">
+        <f>"npc_monster_normal_"&amp;B117&amp;"_"&amp;(C117-15)&amp;"_a"</f>
+        <v>npc_monster_normal_40_15_a</v>
+      </c>
+      <c r="W117" s="13"/>
+      <c r="X117" s="14">
+        <v>18</v>
+      </c>
+      <c r="Y117" s="15">
+        <v>2</v>
+      </c>
+      <c r="AA117" s="79">
+        <v>15000</v>
+      </c>
+      <c r="AB117" s="80">
+        <v>64</v>
+      </c>
+      <c r="AC117" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD117" s="6">
+        <v>10</v>
+      </c>
+      <c r="AE117" s="53" t="str">
+        <f>__回合抗性!L117&amp;"|"&amp;__回合抗性!M117&amp;"|"&amp;__回合抗性!N117&amp;"|"&amp;__回合抗性!O117</f>
+        <v>|||</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="C1:C87" etc:filterBottomFollowUsedRange="0">
     <extLst/>
@@ -26214,6 +28846,18 @@
     <mergeCell ref="W1:X1"/>
   </mergeCells>
   <conditionalFormatting sqref="B58:B87">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B88:B117">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -26226,6 +28870,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D58:D87">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D88:D117">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -26237,8 +28893,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B57 B88:B1048576">
-    <cfRule type="colorScale" priority="15">
+  <conditionalFormatting sqref="B1:B57 B118:B1048576">
+    <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -26249,8 +28905,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D57 D88:D1048576">
-    <cfRule type="colorScale" priority="21">
+  <conditionalFormatting sqref="D1:D57 D118:D1048576">
+    <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -26293,13 +28949,13 @@
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:12">
       <c r="A1" s="24" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="D1" s="27" t="s">
         <v>68</v>
@@ -26314,10 +28970,10 @@
         <v>72</v>
       </c>
       <c r="H1" s="27" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="I1" s="27" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="J1" s="27" t="s">
         <v>75</v>
@@ -26326,7 +28982,7 @@
         <v>76</v>
       </c>
       <c r="L1" s="38" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" ht="39" customHeight="1" spans="1:12">
@@ -26390,7 +29046,7 @@
         <v>160</v>
       </c>
       <c r="H3" s="34" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="I3" s="34">
         <v>10</v>
@@ -26428,7 +29084,7 @@
         <v>160</v>
       </c>
       <c r="H4" s="37" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="I4" s="37">
         <v>10</v>
@@ -26466,16 +29122,16 @@
         <v>160</v>
       </c>
       <c r="H5" s="34" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="I5" s="34">
         <v>10</v>
       </c>
       <c r="J5" s="34" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="K5" s="34" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="L5" s="40" t="s">
         <v>93</v>
@@ -26511,10 +29167,10 @@
         <v>107</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2" ht="43" customHeight="1" spans="1:3">
@@ -26927,40 +29583,40 @@
         <v>107</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="O1" s="9" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" ht="18.5" customHeight="1" spans="1:15">
@@ -26974,40 +29630,40 @@
         <v>131</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="O2" s="10" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3" ht="18.5" customHeight="1" spans="1:15">

--- a/excels/config/difficulty_config.xlsx
+++ b/excels/config/difficulty_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="804" activeTab="1"/>
+    <workbookView windowWidth="23145" windowHeight="12375" tabRatio="804" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="chapter_info" sheetId="7" r:id="rId1"/>

--- a/excels/config/difficulty_config.xlsx
+++ b/excels/config/difficulty_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23145" windowHeight="12375" tabRatio="804" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="804" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="chapter_info" sheetId="7" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <sheet name="__回合抗性" sheetId="10" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">map_info_round!$C$1:$C$117</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">map_info_round!$C$1:$C$147</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -3522,12 +3522,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="4" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{DAD4401A-745D-4751-8DE6-1A3FCB87D432}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{D6F4377A-24C8-4A2C-A485-0D2A817E0709}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
     </tableStyle>
-    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{270CFD74-B438-4744-BD95-0B7945535184}">
+    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{F01873F6-C875-4713-9D0A-475856089FF6}">
       <tableStyleElement type="wholeTable" dxfId="16"/>
       <tableStyleElement type="headerRow" dxfId="15"/>
       <tableStyleElement type="totalRow" dxfId="14"/>
@@ -3541,7 +3541,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="6"/>
       <tableStyleElement type="lastTotalCell" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{1C014834-B163-4B45-A064-0F6FD0CE5F97}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{4A6BAEB3-01A6-4781-8A5E-FC41EB8617D3}">
       <tableStyleElement type="wholeTable" dxfId="26"/>
       <tableStyleElement type="headerRow" dxfId="25"/>
       <tableStyleElement type="totalRow" dxfId="24"/>
@@ -3553,7 +3553,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="18"/>
       <tableStyleElement type="lastTotalCell" dxfId="17"/>
     </tableStyle>
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{9C88E0FC-D84D-4E98-9BDA-E4457C52229B}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{3D02DECF-9E71-42E9-B870-4A7E8A17B1C0}">
       <tableStyleElement type="wholeTable" dxfId="33"/>
       <tableStyleElement type="headerRow" dxfId="32"/>
       <tableStyleElement type="totalRow" dxfId="31"/>
@@ -4500,7 +4500,7 @@
   <sheetPr/>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
@@ -18813,10 +18813,10 @@
   <sheetPr/>
   <dimension ref="A1:AE147"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A129" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="S1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H149" sqref="H149"/>
+      <selection pane="bottomLeft" activeCell="AC29" sqref="AC29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -19043,7 +19043,7 @@
         <v>156</v>
       </c>
       <c r="F3" s="52">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="G3" s="52">
         <v>50</v>
@@ -19106,7 +19106,7 @@
         <v>159</v>
       </c>
       <c r="AD3" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE3" s="53" t="str">
         <f>__回合抗性!L3&amp;"|"&amp;__回合抗性!M3&amp;"|"&amp;__回合抗性!N3&amp;"|"&amp;__回合抗性!O3</f>
@@ -19130,7 +19130,7 @@
         <v>156</v>
       </c>
       <c r="F4" s="52">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="G4" s="54">
         <v>50</v>
@@ -19193,7 +19193,7 @@
         <v>159</v>
       </c>
       <c r="AD4" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE4" s="53" t="str">
         <f>__回合抗性!L4&amp;"|"&amp;__回合抗性!M4&amp;"|"&amp;__回合抗性!N4&amp;"|"&amp;__回合抗性!O4</f>
@@ -19217,7 +19217,7 @@
         <v>156</v>
       </c>
       <c r="F5" s="52">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="G5" s="54">
         <v>50</v>
@@ -19280,7 +19280,7 @@
         <v>159</v>
       </c>
       <c r="AD5" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE5" s="53" t="str">
         <f>__回合抗性!L5&amp;"|"&amp;__回合抗性!M5&amp;"|"&amp;__回合抗性!N5&amp;"|"&amp;__回合抗性!O5</f>
@@ -19304,7 +19304,7 @@
         <v>156</v>
       </c>
       <c r="F6" s="52">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="G6" s="54">
         <v>50</v>
@@ -19367,7 +19367,7 @@
         <v>159</v>
       </c>
       <c r="AD6" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE6" s="53" t="str">
         <f>__回合抗性!L6&amp;"|"&amp;__回合抗性!M6&amp;"|"&amp;__回合抗性!N6&amp;"|"&amp;__回合抗性!O6</f>
@@ -19391,7 +19391,7 @@
         <v>161</v>
       </c>
       <c r="F7" s="52">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="G7" s="54">
         <v>50</v>
@@ -19454,7 +19454,7 @@
         <v>159</v>
       </c>
       <c r="AD7" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE7" s="53" t="str">
         <f>__回合抗性!L7&amp;"|"&amp;__回合抗性!M7&amp;"|"&amp;__回合抗性!N7&amp;"|"&amp;__回合抗性!O7</f>
@@ -19478,7 +19478,7 @@
         <v>156</v>
       </c>
       <c r="F8" s="52">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="G8" s="54">
         <v>50</v>
@@ -19541,7 +19541,7 @@
         <v>159</v>
       </c>
       <c r="AD8" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE8" s="53" t="str">
         <f>__回合抗性!L8&amp;"|"&amp;__回合抗性!M8&amp;"|"&amp;__回合抗性!N8&amp;"|"&amp;__回合抗性!O8</f>
@@ -19565,7 +19565,7 @@
         <v>156</v>
       </c>
       <c r="F9" s="52">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="G9" s="54">
         <v>50</v>
@@ -19628,7 +19628,7 @@
         <v>159</v>
       </c>
       <c r="AD9" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE9" s="53" t="str">
         <f>__回合抗性!L9&amp;"|"&amp;__回合抗性!M9&amp;"|"&amp;__回合抗性!N9&amp;"|"&amp;__回合抗性!O9</f>
@@ -19652,7 +19652,7 @@
         <v>156</v>
       </c>
       <c r="F10" s="52">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="G10" s="54">
         <v>50</v>
@@ -19715,7 +19715,7 @@
         <v>159</v>
       </c>
       <c r="AD10" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE10" s="53" t="str">
         <f>__回合抗性!L10&amp;"|"&amp;__回合抗性!M10&amp;"|"&amp;__回合抗性!N10&amp;"|"&amp;__回合抗性!O10</f>
@@ -19739,7 +19739,7 @@
         <v>156</v>
       </c>
       <c r="F11" s="52">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="G11" s="54">
         <v>50</v>
@@ -19802,7 +19802,7 @@
         <v>159</v>
       </c>
       <c r="AD11" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE11" s="53" t="str">
         <f>__回合抗性!L11&amp;"|"&amp;__回合抗性!M11&amp;"|"&amp;__回合抗性!N11&amp;"|"&amp;__回合抗性!O11</f>
@@ -19826,7 +19826,7 @@
         <v>163</v>
       </c>
       <c r="F12" s="52">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="G12" s="54">
         <v>50</v>
@@ -19889,7 +19889,7 @@
         <v>159</v>
       </c>
       <c r="AD12" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE12" s="53" t="str">
         <f>__回合抗性!L12&amp;"|"&amp;__回合抗性!M12&amp;"|"&amp;__回合抗性!N12&amp;"|"&amp;__回合抗性!O12</f>
@@ -19913,7 +19913,7 @@
         <v>156</v>
       </c>
       <c r="F13" s="52">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="G13" s="54">
         <v>50</v>
@@ -19976,7 +19976,7 @@
         <v>159</v>
       </c>
       <c r="AD13" s="6">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AE13" s="53" t="str">
         <f>__回合抗性!L13&amp;"|"&amp;__回合抗性!M13&amp;"|"&amp;__回合抗性!N13&amp;"|"&amp;__回合抗性!O13</f>
@@ -20000,7 +20000,7 @@
         <v>156</v>
       </c>
       <c r="F14" s="52">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="G14" s="54">
         <v>50</v>
@@ -20063,7 +20063,7 @@
         <v>159</v>
       </c>
       <c r="AD14" s="6">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AE14" s="53" t="str">
         <f>__回合抗性!L14&amp;"|"&amp;__回合抗性!M14&amp;"|"&amp;__回合抗性!N14&amp;"|"&amp;__回合抗性!O14</f>
@@ -20087,7 +20087,7 @@
         <v>156</v>
       </c>
       <c r="F15" s="52">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="G15" s="54">
         <v>50</v>
@@ -20150,7 +20150,7 @@
         <v>159</v>
       </c>
       <c r="AD15" s="6">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AE15" s="53" t="str">
         <f>__回合抗性!L15&amp;"|"&amp;__回合抗性!M15&amp;"|"&amp;__回合抗性!N15&amp;"|"&amp;__回合抗性!O15</f>
@@ -20174,7 +20174,7 @@
         <v>156</v>
       </c>
       <c r="F16" s="52">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="G16" s="54">
         <v>50</v>
@@ -20237,7 +20237,7 @@
         <v>159</v>
       </c>
       <c r="AD16" s="6">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AE16" s="53" t="str">
         <f>__回合抗性!L16&amp;"|"&amp;__回合抗性!M16&amp;"|"&amp;__回合抗性!N16&amp;"|"&amp;__回合抗性!O16</f>
@@ -20261,7 +20261,7 @@
         <v>165</v>
       </c>
       <c r="F17" s="52">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="G17" s="54">
         <v>50</v>
@@ -20324,7 +20324,7 @@
         <v>159</v>
       </c>
       <c r="AD17" s="6">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AE17" s="53" t="str">
         <f>__回合抗性!L17&amp;"|"&amp;__回合抗性!M17&amp;"|"&amp;__回合抗性!N17&amp;"|"&amp;__回合抗性!O17</f>
@@ -20348,7 +20348,7 @@
         <v>156</v>
       </c>
       <c r="F18" s="52">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="G18" s="54">
         <v>50</v>
@@ -20411,7 +20411,7 @@
         <v>159</v>
       </c>
       <c r="AD18" s="6">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AE18" s="53" t="str">
         <f>__回合抗性!L18&amp;"|"&amp;__回合抗性!M18&amp;"|"&amp;__回合抗性!N18&amp;"|"&amp;__回合抗性!O18</f>
@@ -20435,7 +20435,7 @@
         <v>156</v>
       </c>
       <c r="F19" s="52">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="G19" s="54">
         <v>50</v>
@@ -20498,7 +20498,7 @@
         <v>159</v>
       </c>
       <c r="AD19" s="6">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AE19" s="53" t="str">
         <f>__回合抗性!L19&amp;"|"&amp;__回合抗性!M19&amp;"|"&amp;__回合抗性!N19&amp;"|"&amp;__回合抗性!O19</f>
@@ -20522,7 +20522,7 @@
         <v>156</v>
       </c>
       <c r="F20" s="52">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="G20" s="54">
         <v>50</v>
@@ -20585,7 +20585,7 @@
         <v>159</v>
       </c>
       <c r="AD20" s="6">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AE20" s="53" t="str">
         <f>__回合抗性!L20&amp;"|"&amp;__回合抗性!M20&amp;"|"&amp;__回合抗性!N20&amp;"|"&amp;__回合抗性!O20</f>
@@ -20609,7 +20609,7 @@
         <v>156</v>
       </c>
       <c r="F21" s="52">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="G21" s="54">
         <v>50</v>
@@ -20672,7 +20672,7 @@
         <v>159</v>
       </c>
       <c r="AD21" s="6">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AE21" s="53" t="str">
         <f>__回合抗性!L21&amp;"|"&amp;__回合抗性!M21&amp;"|"&amp;__回合抗性!N21&amp;"|"&amp;__回合抗性!O21</f>
@@ -20696,7 +20696,7 @@
         <v>168</v>
       </c>
       <c r="F22" s="52">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="G22" s="54">
         <v>50</v>
@@ -20759,7 +20759,7 @@
         <v>159</v>
       </c>
       <c r="AD22" s="6">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AE22" s="53" t="str">
         <f>__回合抗性!L22&amp;"|"&amp;__回合抗性!M22&amp;"|"&amp;__回合抗性!N22&amp;"|"&amp;__回合抗性!O22</f>
@@ -20837,16 +20837,16 @@
       <c r="Y23" s="12"/>
       <c r="Z23" s="71"/>
       <c r="AA23" s="77">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="AB23" s="78">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="AC23" s="6" t="s">
         <v>159</v>
       </c>
       <c r="AD23" s="6">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AE23" s="53" t="str">
         <f>__回合抗性!L23&amp;"|"&amp;__回合抗性!M23&amp;"|"&amp;__回合抗性!N23&amp;"|"&amp;__回合抗性!O23</f>
@@ -20924,16 +20924,16 @@
       <c r="Y24" s="12"/>
       <c r="Z24" s="71"/>
       <c r="AA24" s="77">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="AB24" s="78">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="AC24" s="6" t="s">
         <v>159</v>
       </c>
       <c r="AD24" s="6">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AE24" s="53" t="str">
         <f>__回合抗性!L24&amp;"|"&amp;__回合抗性!M24&amp;"|"&amp;__回合抗性!N24&amp;"|"&amp;__回合抗性!O24</f>
@@ -21011,16 +21011,16 @@
       <c r="Y25" s="12"/>
       <c r="Z25" s="71"/>
       <c r="AA25" s="77">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="AB25" s="78">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="AC25" s="6" t="s">
         <v>159</v>
       </c>
       <c r="AD25" s="6">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AE25" s="53" t="str">
         <f>__回合抗性!L25&amp;"|"&amp;__回合抗性!M25&amp;"|"&amp;__回合抗性!N25&amp;"|"&amp;__回合抗性!O25</f>
@@ -21098,16 +21098,16 @@
       <c r="Y26" s="12"/>
       <c r="Z26" s="71"/>
       <c r="AA26" s="77">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="AB26" s="78">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="AC26" s="6" t="s">
         <v>159</v>
       </c>
       <c r="AD26" s="6">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AE26" s="53" t="str">
         <f>__回合抗性!L26&amp;"|"&amp;__回合抗性!M26&amp;"|"&amp;__回合抗性!N26&amp;"|"&amp;__回合抗性!O26</f>
@@ -21185,16 +21185,16 @@
       <c r="Y27" s="12"/>
       <c r="Z27" s="71"/>
       <c r="AA27" s="77">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="AB27" s="78">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="AC27" s="6" t="s">
         <v>159</v>
       </c>
       <c r="AD27" s="6">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AE27" s="53" t="str">
         <f>__回合抗性!L27&amp;"|"&amp;__回合抗性!M27&amp;"|"&amp;__回合抗性!N27&amp;"|"&amp;__回合抗性!O27</f>
@@ -21279,7 +21279,7 @@
         <v>159</v>
       </c>
       <c r="AD28" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE28" s="53" t="str">
         <f>__回合抗性!L28&amp;"|"&amp;__回合抗性!M28&amp;"|"&amp;__回合抗性!N28&amp;"|"&amp;__回合抗性!O28</f>
@@ -21364,7 +21364,7 @@
         <v>159</v>
       </c>
       <c r="AD29" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE29" s="53" t="str">
         <f>__回合抗性!L29&amp;"|"&amp;__回合抗性!M29&amp;"|"&amp;__回合抗性!N29&amp;"|"&amp;__回合抗性!O29</f>
@@ -21449,7 +21449,7 @@
         <v>159</v>
       </c>
       <c r="AD30" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE30" s="53" t="str">
         <f>__回合抗性!L30&amp;"|"&amp;__回合抗性!M30&amp;"|"&amp;__回合抗性!N30&amp;"|"&amp;__回合抗性!O30</f>
@@ -21534,7 +21534,7 @@
         <v>159</v>
       </c>
       <c r="AD31" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE31" s="53" t="str">
         <f>__回合抗性!L31&amp;"|"&amp;__回合抗性!M31&amp;"|"&amp;__回合抗性!N31&amp;"|"&amp;__回合抗性!O31</f>
@@ -21619,7 +21619,7 @@
         <v>159</v>
       </c>
       <c r="AD32" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE32" s="53" t="str">
         <f>__回合抗性!L32&amp;"|"&amp;__回合抗性!M32&amp;"|"&amp;__回合抗性!N32&amp;"|"&amp;__回合抗性!O32</f>
@@ -21709,7 +21709,7 @@
         <v>159</v>
       </c>
       <c r="AD33" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE33" s="53" t="str">
         <f>__回合抗性!L33&amp;"|"&amp;__回合抗性!M33&amp;"|"&amp;__回合抗性!N33&amp;"|"&amp;__回合抗性!O33</f>
@@ -21794,7 +21794,7 @@
         <v>159</v>
       </c>
       <c r="AD34" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE34" s="53" t="str">
         <f>__回合抗性!L34&amp;"|"&amp;__回合抗性!M34&amp;"|"&amp;__回合抗性!N34&amp;"|"&amp;__回合抗性!O34</f>
@@ -21884,7 +21884,7 @@
         <v>159</v>
       </c>
       <c r="AD35" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE35" s="53" t="str">
         <f>__回合抗性!L35&amp;"|"&amp;__回合抗性!M35&amp;"|"&amp;__回合抗性!N35&amp;"|"&amp;__回合抗性!O35</f>
@@ -21969,7 +21969,7 @@
         <v>159</v>
       </c>
       <c r="AD36" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE36" s="53" t="str">
         <f>__回合抗性!L36&amp;"|"&amp;__回合抗性!M36&amp;"|"&amp;__回合抗性!N36&amp;"|"&amp;__回合抗性!O36</f>
@@ -22054,7 +22054,7 @@
         <v>159</v>
       </c>
       <c r="AD37" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE37" s="53" t="str">
         <f>__回合抗性!L37&amp;"|"&amp;__回合抗性!M37&amp;"|"&amp;__回合抗性!N37&amp;"|"&amp;__回合抗性!O37</f>
@@ -22139,7 +22139,7 @@
         <v>159</v>
       </c>
       <c r="AD38" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE38" s="53" t="str">
         <f>__回合抗性!L38&amp;"|"&amp;__回合抗性!M38&amp;"|"&amp;__回合抗性!N38&amp;"|"&amp;__回合抗性!O38</f>
@@ -22224,7 +22224,7 @@
         <v>159</v>
       </c>
       <c r="AD39" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE39" s="53" t="str">
         <f>__回合抗性!L39&amp;"|"&amp;__回合抗性!M39&amp;"|"&amp;__回合抗性!N39&amp;"|"&amp;__回合抗性!O39</f>
@@ -22314,7 +22314,7 @@
         <v>159</v>
       </c>
       <c r="AD40" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE40" s="53" t="str">
         <f>__回合抗性!L40&amp;"|"&amp;__回合抗性!M40&amp;"|"&amp;__回合抗性!N40&amp;"|"&amp;__回合抗性!O40</f>
@@ -22399,7 +22399,7 @@
         <v>159</v>
       </c>
       <c r="AD41" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE41" s="53" t="str">
         <f>__回合抗性!L41&amp;"|"&amp;__回合抗性!M41&amp;"|"&amp;__回合抗性!N41&amp;"|"&amp;__回合抗性!O41</f>
@@ -22489,7 +22489,7 @@
         <v>159</v>
       </c>
       <c r="AD42" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE42" s="53" t="str">
         <f>__回合抗性!L42&amp;"|"&amp;__回合抗性!M42&amp;"|"&amp;__回合抗性!N42&amp;"|"&amp;__回合抗性!O42</f>
@@ -22574,7 +22574,7 @@
         <v>159</v>
       </c>
       <c r="AD43" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE43" s="53" t="str">
         <f>__回合抗性!L43&amp;"|"&amp;__回合抗性!M43&amp;"|"&amp;__回合抗性!N43&amp;"|"&amp;__回合抗性!O43</f>
@@ -22659,7 +22659,7 @@
         <v>159</v>
       </c>
       <c r="AD44" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE44" s="53" t="str">
         <f>__回合抗性!L44&amp;"|"&amp;__回合抗性!M44&amp;"|"&amp;__回合抗性!N44&amp;"|"&amp;__回合抗性!O44</f>
@@ -22744,7 +22744,7 @@
         <v>159</v>
       </c>
       <c r="AD45" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE45" s="53" t="str">
         <f>__回合抗性!L45&amp;"|"&amp;__回合抗性!M45&amp;"|"&amp;__回合抗性!N45&amp;"|"&amp;__回合抗性!O45</f>
@@ -22829,7 +22829,7 @@
         <v>159</v>
       </c>
       <c r="AD46" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE46" s="53" t="str">
         <f>__回合抗性!L46&amp;"|"&amp;__回合抗性!M46&amp;"|"&amp;__回合抗性!N46&amp;"|"&amp;__回合抗性!O46</f>
@@ -22914,7 +22914,7 @@
         <v>159</v>
       </c>
       <c r="AD47" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE47" s="53" t="str">
         <f>__回合抗性!L47&amp;"|"&amp;__回合抗性!M47&amp;"|"&amp;__回合抗性!N47&amp;"|"&amp;__回合抗性!O47</f>
@@ -23004,7 +23004,7 @@
         <v>159</v>
       </c>
       <c r="AD48" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE48" s="53" t="str">
         <f>__回合抗性!L48&amp;"|"&amp;__回合抗性!M48&amp;"|"&amp;__回合抗性!N48&amp;"|"&amp;__回合抗性!O48</f>
@@ -23089,7 +23089,7 @@
         <v>159</v>
       </c>
       <c r="AD49" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE49" s="53" t="str">
         <f>__回合抗性!L49&amp;"|"&amp;__回合抗性!M49&amp;"|"&amp;__回合抗性!N49&amp;"|"&amp;__回合抗性!O49</f>
@@ -23179,7 +23179,7 @@
         <v>159</v>
       </c>
       <c r="AD50" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE50" s="53" t="str">
         <f>__回合抗性!L50&amp;"|"&amp;__回合抗性!M50&amp;"|"&amp;__回合抗性!N50&amp;"|"&amp;__回合抗性!O50</f>
@@ -23264,7 +23264,7 @@
         <v>159</v>
       </c>
       <c r="AD51" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE51" s="53" t="str">
         <f>__回合抗性!L51&amp;"|"&amp;__回合抗性!M51&amp;"|"&amp;__回合抗性!N51&amp;"|"&amp;__回合抗性!O51</f>
@@ -23349,7 +23349,7 @@
         <v>159</v>
       </c>
       <c r="AD52" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE52" s="53" t="str">
         <f>__回合抗性!L52&amp;"|"&amp;__回合抗性!M52&amp;"|"&amp;__回合抗性!N52&amp;"|"&amp;__回合抗性!O52</f>
@@ -23434,7 +23434,7 @@
         <v>159</v>
       </c>
       <c r="AD53" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE53" s="53" t="str">
         <f>__回合抗性!L53&amp;"|"&amp;__回合抗性!M53&amp;"|"&amp;__回合抗性!N53&amp;"|"&amp;__回合抗性!O53</f>
@@ -23519,7 +23519,7 @@
         <v>159</v>
       </c>
       <c r="AD54" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE54" s="53" t="str">
         <f>__回合抗性!L54&amp;"|"&amp;__回合抗性!M54&amp;"|"&amp;__回合抗性!N54&amp;"|"&amp;__回合抗性!O54</f>
@@ -23609,7 +23609,7 @@
         <v>159</v>
       </c>
       <c r="AD55" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE55" s="53" t="str">
         <f>__回合抗性!L55&amp;"|"&amp;__回合抗性!M55&amp;"|"&amp;__回合抗性!N55&amp;"|"&amp;__回合抗性!O55</f>
@@ -23694,7 +23694,7 @@
         <v>159</v>
       </c>
       <c r="AD56" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE56" s="53" t="str">
         <f>__回合抗性!L56&amp;"|"&amp;__回合抗性!M56&amp;"|"&amp;__回合抗性!N56&amp;"|"&amp;__回合抗性!O56</f>
@@ -23784,7 +23784,7 @@
         <v>159</v>
       </c>
       <c r="AD57" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE57" s="53" t="str">
         <f>__回合抗性!L57&amp;"|"&amp;__回合抗性!M57&amp;"|"&amp;__回合抗性!N57&amp;"|"&amp;__回合抗性!O57</f>
@@ -23869,7 +23869,7 @@
         <v>159</v>
       </c>
       <c r="AD58" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE58" s="53" t="str">
         <f>__回合抗性!L58&amp;"|"&amp;__回合抗性!M58&amp;"|"&amp;__回合抗性!N58&amp;"|"&amp;__回合抗性!O58</f>
@@ -23954,7 +23954,7 @@
         <v>159</v>
       </c>
       <c r="AD59" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE59" s="53" t="str">
         <f>__回合抗性!L59&amp;"|"&amp;__回合抗性!M59&amp;"|"&amp;__回合抗性!N59&amp;"|"&amp;__回合抗性!O59</f>
@@ -24039,7 +24039,7 @@
         <v>159</v>
       </c>
       <c r="AD60" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE60" s="53" t="str">
         <f>__回合抗性!L60&amp;"|"&amp;__回合抗性!M60&amp;"|"&amp;__回合抗性!N60&amp;"|"&amp;__回合抗性!O60</f>
@@ -24124,7 +24124,7 @@
         <v>159</v>
       </c>
       <c r="AD61" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE61" s="53" t="str">
         <f>__回合抗性!L61&amp;"|"&amp;__回合抗性!M61&amp;"|"&amp;__回合抗性!N61&amp;"|"&amp;__回合抗性!O61</f>
@@ -24209,7 +24209,7 @@
         <v>159</v>
       </c>
       <c r="AD62" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE62" s="53" t="str">
         <f>__回合抗性!L62&amp;"|"&amp;__回合抗性!M62&amp;"|"&amp;__回合抗性!N62&amp;"|"&amp;__回合抗性!O62</f>
@@ -24299,7 +24299,7 @@
         <v>159</v>
       </c>
       <c r="AD63" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE63" s="53" t="str">
         <f>__回合抗性!L63&amp;"|"&amp;__回合抗性!M63&amp;"|"&amp;__回合抗性!N63&amp;"|"&amp;__回合抗性!O63</f>
@@ -24384,7 +24384,7 @@
         <v>159</v>
       </c>
       <c r="AD64" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE64" s="53" t="str">
         <f>__回合抗性!L64&amp;"|"&amp;__回合抗性!M64&amp;"|"&amp;__回合抗性!N64&amp;"|"&amp;__回合抗性!O64</f>
@@ -24474,7 +24474,7 @@
         <v>159</v>
       </c>
       <c r="AD65" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE65" s="53" t="str">
         <f>__回合抗性!L65&amp;"|"&amp;__回合抗性!M65&amp;"|"&amp;__回合抗性!N65&amp;"|"&amp;__回合抗性!O65</f>
@@ -24559,7 +24559,7 @@
         <v>159</v>
       </c>
       <c r="AD66" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE66" s="53" t="str">
         <f>__回合抗性!L66&amp;"|"&amp;__回合抗性!M66&amp;"|"&amp;__回合抗性!N66&amp;"|"&amp;__回合抗性!O66</f>
@@ -24644,7 +24644,7 @@
         <v>159</v>
       </c>
       <c r="AD67" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE67" s="53" t="str">
         <f>__回合抗性!L67&amp;"|"&amp;__回合抗性!M67&amp;"|"&amp;__回合抗性!N67&amp;"|"&amp;__回合抗性!O67</f>
@@ -24729,7 +24729,7 @@
         <v>159</v>
       </c>
       <c r="AD68" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE68" s="53" t="str">
         <f>__回合抗性!L68&amp;"|"&amp;__回合抗性!M68&amp;"|"&amp;__回合抗性!N68&amp;"|"&amp;__回合抗性!O68</f>
@@ -24814,7 +24814,7 @@
         <v>159</v>
       </c>
       <c r="AD69" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE69" s="53" t="str">
         <f>__回合抗性!L69&amp;"|"&amp;__回合抗性!M69&amp;"|"&amp;__回合抗性!N69&amp;"|"&amp;__回合抗性!O69</f>
@@ -24904,7 +24904,7 @@
         <v>159</v>
       </c>
       <c r="AD70" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE70" s="53" t="str">
         <f>__回合抗性!L70&amp;"|"&amp;__回合抗性!M70&amp;"|"&amp;__回合抗性!N70&amp;"|"&amp;__回合抗性!O70</f>
@@ -24989,7 +24989,7 @@
         <v>159</v>
       </c>
       <c r="AD71" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE71" s="53" t="str">
         <f>__回合抗性!L71&amp;"|"&amp;__回合抗性!M71&amp;"|"&amp;__回合抗性!N71&amp;"|"&amp;__回合抗性!O71</f>
@@ -25079,7 +25079,7 @@
         <v>159</v>
       </c>
       <c r="AD72" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE72" s="53" t="str">
         <f>__回合抗性!L72&amp;"|"&amp;__回合抗性!M72&amp;"|"&amp;__回合抗性!N72&amp;"|"&amp;__回合抗性!O72</f>
@@ -25164,7 +25164,7 @@
         <v>159</v>
       </c>
       <c r="AD73" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE73" s="53" t="str">
         <f>__回合抗性!L73&amp;"|"&amp;__回合抗性!M73&amp;"|"&amp;__回合抗性!N73&amp;"|"&amp;__回合抗性!O73</f>
@@ -25249,7 +25249,7 @@
         <v>159</v>
       </c>
       <c r="AD74" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE74" s="53" t="str">
         <f>__回合抗性!L74&amp;"|"&amp;__回合抗性!M74&amp;"|"&amp;__回合抗性!N74&amp;"|"&amp;__回合抗性!O74</f>
@@ -25334,7 +25334,7 @@
         <v>159</v>
       </c>
       <c r="AD75" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE75" s="53" t="str">
         <f>__回合抗性!L75&amp;"|"&amp;__回合抗性!M75&amp;"|"&amp;__回合抗性!N75&amp;"|"&amp;__回合抗性!O75</f>
@@ -25419,7 +25419,7 @@
         <v>159</v>
       </c>
       <c r="AD76" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE76" s="53" t="str">
         <f>__回合抗性!L76&amp;"|"&amp;__回合抗性!M76&amp;"|"&amp;__回合抗性!N76&amp;"|"&amp;__回合抗性!O76</f>
@@ -25504,7 +25504,7 @@
         <v>159</v>
       </c>
       <c r="AD77" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE77" s="53" t="str">
         <f>__回合抗性!L77&amp;"|"&amp;__回合抗性!M77&amp;"|"&amp;__回合抗性!N77&amp;"|"&amp;__回合抗性!O77</f>
@@ -25594,7 +25594,7 @@
         <v>159</v>
       </c>
       <c r="AD78" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE78" s="53" t="str">
         <f>__回合抗性!L78&amp;"|"&amp;__回合抗性!M78&amp;"|"&amp;__回合抗性!N78&amp;"|"&amp;__回合抗性!O78</f>
@@ -25679,7 +25679,7 @@
         <v>159</v>
       </c>
       <c r="AD79" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE79" s="53" t="str">
         <f>__回合抗性!L79&amp;"|"&amp;__回合抗性!M79&amp;"|"&amp;__回合抗性!N79&amp;"|"&amp;__回合抗性!O79</f>
@@ -25769,7 +25769,7 @@
         <v>159</v>
       </c>
       <c r="AD80" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE80" s="53" t="str">
         <f>__回合抗性!L80&amp;"|"&amp;__回合抗性!M80&amp;"|"&amp;__回合抗性!N80&amp;"|"&amp;__回合抗性!O80</f>
@@ -25854,7 +25854,7 @@
         <v>159</v>
       </c>
       <c r="AD81" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE81" s="53" t="str">
         <f>__回合抗性!L81&amp;"|"&amp;__回合抗性!M81&amp;"|"&amp;__回合抗性!N81&amp;"|"&amp;__回合抗性!O81</f>
@@ -25939,7 +25939,7 @@
         <v>159</v>
       </c>
       <c r="AD82" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE82" s="53" t="str">
         <f>__回合抗性!L82&amp;"|"&amp;__回合抗性!M82&amp;"|"&amp;__回合抗性!N82&amp;"|"&amp;__回合抗性!O82</f>
@@ -26024,7 +26024,7 @@
         <v>159</v>
       </c>
       <c r="AD83" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE83" s="53" t="str">
         <f>__回合抗性!L83&amp;"|"&amp;__回合抗性!M83&amp;"|"&amp;__回合抗性!N83&amp;"|"&amp;__回合抗性!O83</f>
@@ -26109,7 +26109,7 @@
         <v>159</v>
       </c>
       <c r="AD84" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE84" s="53" t="str">
         <f>__回合抗性!L84&amp;"|"&amp;__回合抗性!M84&amp;"|"&amp;__回合抗性!N84&amp;"|"&amp;__回合抗性!O84</f>
@@ -26199,7 +26199,7 @@
         <v>159</v>
       </c>
       <c r="AD85" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE85" s="53" t="str">
         <f>__回合抗性!L85&amp;"|"&amp;__回合抗性!M85&amp;"|"&amp;__回合抗性!N85&amp;"|"&amp;__回合抗性!O85</f>
@@ -26284,7 +26284,7 @@
         <v>159</v>
       </c>
       <c r="AD86" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE86" s="53" t="str">
         <f>__回合抗性!L86&amp;"|"&amp;__回合抗性!M86&amp;"|"&amp;__回合抗性!N86&amp;"|"&amp;__回合抗性!O86</f>
@@ -26374,7 +26374,7 @@
         <v>159</v>
       </c>
       <c r="AD87" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE87" s="53" t="str">
         <f>__回合抗性!L87&amp;"|"&amp;__回合抗性!M87&amp;"|"&amp;__回合抗性!N87&amp;"|"&amp;__回合抗性!O87</f>
@@ -26459,7 +26459,7 @@
         <v>159</v>
       </c>
       <c r="AD88" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE88" s="53" t="str">
         <f>__回合抗性!L88&amp;"|"&amp;__回合抗性!M88&amp;"|"&amp;__回合抗性!N88&amp;"|"&amp;__回合抗性!O88</f>
@@ -26544,7 +26544,7 @@
         <v>159</v>
       </c>
       <c r="AD89" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE89" s="53" t="str">
         <f>__回合抗性!L89&amp;"|"&amp;__回合抗性!M89&amp;"|"&amp;__回合抗性!N89&amp;"|"&amp;__回合抗性!O89</f>
@@ -26629,7 +26629,7 @@
         <v>159</v>
       </c>
       <c r="AD90" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE90" s="53" t="str">
         <f>__回合抗性!L90&amp;"|"&amp;__回合抗性!M90&amp;"|"&amp;__回合抗性!N90&amp;"|"&amp;__回合抗性!O90</f>
@@ -26714,7 +26714,7 @@
         <v>159</v>
       </c>
       <c r="AD91" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE91" s="53" t="str">
         <f>__回合抗性!L91&amp;"|"&amp;__回合抗性!M91&amp;"|"&amp;__回合抗性!N91&amp;"|"&amp;__回合抗性!O91</f>
@@ -26799,7 +26799,7 @@
         <v>159</v>
       </c>
       <c r="AD92" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE92" s="53" t="str">
         <f>__回合抗性!L92&amp;"|"&amp;__回合抗性!M92&amp;"|"&amp;__回合抗性!N92&amp;"|"&amp;__回合抗性!O92</f>
@@ -26889,7 +26889,7 @@
         <v>159</v>
       </c>
       <c r="AD93" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE93" s="53" t="str">
         <f>__回合抗性!L93&amp;"|"&amp;__回合抗性!M93&amp;"|"&amp;__回合抗性!N93&amp;"|"&amp;__回合抗性!O93</f>
@@ -26974,7 +26974,7 @@
         <v>159</v>
       </c>
       <c r="AD94" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE94" s="53" t="str">
         <f>__回合抗性!L94&amp;"|"&amp;__回合抗性!M94&amp;"|"&amp;__回合抗性!N94&amp;"|"&amp;__回合抗性!O94</f>
@@ -27064,7 +27064,7 @@
         <v>159</v>
       </c>
       <c r="AD95" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE95" s="53" t="str">
         <f>__回合抗性!L95&amp;"|"&amp;__回合抗性!M95&amp;"|"&amp;__回合抗性!N95&amp;"|"&amp;__回合抗性!O95</f>
@@ -27149,7 +27149,7 @@
         <v>159</v>
       </c>
       <c r="AD96" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE96" s="53" t="str">
         <f>__回合抗性!L96&amp;"|"&amp;__回合抗性!M96&amp;"|"&amp;__回合抗性!N96&amp;"|"&amp;__回合抗性!O96</f>
@@ -27234,7 +27234,7 @@
         <v>159</v>
       </c>
       <c r="AD97" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE97" s="53" t="str">
         <f>__回合抗性!L97&amp;"|"&amp;__回合抗性!M97&amp;"|"&amp;__回合抗性!N97&amp;"|"&amp;__回合抗性!O97</f>
@@ -27319,7 +27319,7 @@
         <v>159</v>
       </c>
       <c r="AD98" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE98" s="53" t="str">
         <f>__回合抗性!L98&amp;"|"&amp;__回合抗性!M98&amp;"|"&amp;__回合抗性!N98&amp;"|"&amp;__回合抗性!O98</f>
@@ -27404,7 +27404,7 @@
         <v>159</v>
       </c>
       <c r="AD99" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE99" s="53" t="str">
         <f>__回合抗性!L99&amp;"|"&amp;__回合抗性!M99&amp;"|"&amp;__回合抗性!N99&amp;"|"&amp;__回合抗性!O99</f>
@@ -27494,7 +27494,7 @@
         <v>159</v>
       </c>
       <c r="AD100" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE100" s="53" t="str">
         <f>__回合抗性!L100&amp;"|"&amp;__回合抗性!M100&amp;"|"&amp;__回合抗性!N100&amp;"|"&amp;__回合抗性!O100</f>
@@ -27579,7 +27579,7 @@
         <v>159</v>
       </c>
       <c r="AD101" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE101" s="53" t="str">
         <f>__回合抗性!L101&amp;"|"&amp;__回合抗性!M101&amp;"|"&amp;__回合抗性!N101&amp;"|"&amp;__回合抗性!O101</f>
@@ -27669,7 +27669,7 @@
         <v>159</v>
       </c>
       <c r="AD102" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE102" s="53" t="str">
         <f>__回合抗性!L102&amp;"|"&amp;__回合抗性!M102&amp;"|"&amp;__回合抗性!N102&amp;"|"&amp;__回合抗性!O102</f>
@@ -27754,7 +27754,7 @@
         <v>159</v>
       </c>
       <c r="AD103" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE103" s="53" t="str">
         <f>__回合抗性!L103&amp;"|"&amp;__回合抗性!M103&amp;"|"&amp;__回合抗性!N103&amp;"|"&amp;__回合抗性!O103</f>
@@ -27839,7 +27839,7 @@
         <v>159</v>
       </c>
       <c r="AD104" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE104" s="53" t="str">
         <f>__回合抗性!L104&amp;"|"&amp;__回合抗性!M104&amp;"|"&amp;__回合抗性!N104&amp;"|"&amp;__回合抗性!O104</f>
@@ -27924,7 +27924,7 @@
         <v>159</v>
       </c>
       <c r="AD105" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE105" s="53" t="str">
         <f>__回合抗性!L105&amp;"|"&amp;__回合抗性!M105&amp;"|"&amp;__回合抗性!N105&amp;"|"&amp;__回合抗性!O105</f>
@@ -28009,7 +28009,7 @@
         <v>159</v>
       </c>
       <c r="AD106" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE106" s="53" t="str">
         <f>__回合抗性!L106&amp;"|"&amp;__回合抗性!M106&amp;"|"&amp;__回合抗性!N106&amp;"|"&amp;__回合抗性!O106</f>
@@ -28094,7 +28094,7 @@
         <v>159</v>
       </c>
       <c r="AD107" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE107" s="53" t="str">
         <f>__回合抗性!L107&amp;"|"&amp;__回合抗性!M107&amp;"|"&amp;__回合抗性!N107&amp;"|"&amp;__回合抗性!O107</f>
@@ -28184,7 +28184,7 @@
         <v>159</v>
       </c>
       <c r="AD108" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE108" s="53" t="str">
         <f>__回合抗性!L108&amp;"|"&amp;__回合抗性!M108&amp;"|"&amp;__回合抗性!N108&amp;"|"&amp;__回合抗性!O108</f>
@@ -28269,7 +28269,7 @@
         <v>159</v>
       </c>
       <c r="AD109" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE109" s="53" t="str">
         <f>__回合抗性!L109&amp;"|"&amp;__回合抗性!M109&amp;"|"&amp;__回合抗性!N109&amp;"|"&amp;__回合抗性!O109</f>
@@ -28359,7 +28359,7 @@
         <v>159</v>
       </c>
       <c r="AD110" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE110" s="53" t="str">
         <f>__回合抗性!L110&amp;"|"&amp;__回合抗性!M110&amp;"|"&amp;__回合抗性!N110&amp;"|"&amp;__回合抗性!O110</f>
@@ -28444,7 +28444,7 @@
         <v>159</v>
       </c>
       <c r="AD111" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE111" s="53" t="str">
         <f>__回合抗性!L111&amp;"|"&amp;__回合抗性!M111&amp;"|"&amp;__回合抗性!N111&amp;"|"&amp;__回合抗性!O111</f>
@@ -28529,7 +28529,7 @@
         <v>159</v>
       </c>
       <c r="AD112" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE112" s="53" t="str">
         <f>__回合抗性!L112&amp;"|"&amp;__回合抗性!M112&amp;"|"&amp;__回合抗性!N112&amp;"|"&amp;__回合抗性!O112</f>
@@ -28614,7 +28614,7 @@
         <v>159</v>
       </c>
       <c r="AD113" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE113" s="53" t="str">
         <f>__回合抗性!L113&amp;"|"&amp;__回合抗性!M113&amp;"|"&amp;__回合抗性!N113&amp;"|"&amp;__回合抗性!O113</f>
@@ -28699,7 +28699,7 @@
         <v>159</v>
       </c>
       <c r="AD114" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE114" s="53" t="str">
         <f>__回合抗性!L114&amp;"|"&amp;__回合抗性!M114&amp;"|"&amp;__回合抗性!N114&amp;"|"&amp;__回合抗性!O114</f>
@@ -28789,7 +28789,7 @@
         <v>159</v>
       </c>
       <c r="AD115" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE115" s="53" t="str">
         <f>__回合抗性!L115&amp;"|"&amp;__回合抗性!M115&amp;"|"&amp;__回合抗性!N115&amp;"|"&amp;__回合抗性!O115</f>
@@ -28874,7 +28874,7 @@
         <v>159</v>
       </c>
       <c r="AD116" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE116" s="53" t="str">
         <f>__回合抗性!L116&amp;"|"&amp;__回合抗性!M116&amp;"|"&amp;__回合抗性!N116&amp;"|"&amp;__回合抗性!O116</f>
@@ -28964,7 +28964,7 @@
         <v>159</v>
       </c>
       <c r="AD117" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE117" s="53" t="str">
         <f>__回合抗性!L117&amp;"|"&amp;__回合抗性!M117&amp;"|"&amp;__回合抗性!N117&amp;"|"&amp;__回合抗性!O117</f>
@@ -29049,7 +29049,7 @@
         <v>159</v>
       </c>
       <c r="AD118" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE118" s="53" t="str">
         <f>__回合抗性!L118&amp;"|"&amp;__回合抗性!M118&amp;"|"&amp;__回合抗性!N118&amp;"|"&amp;__回合抗性!O118</f>
@@ -29134,7 +29134,7 @@
         <v>159</v>
       </c>
       <c r="AD119" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE119" s="53" t="str">
         <f>__回合抗性!L119&amp;"|"&amp;__回合抗性!M119&amp;"|"&amp;__回合抗性!N119&amp;"|"&amp;__回合抗性!O119</f>
@@ -29219,7 +29219,7 @@
         <v>159</v>
       </c>
       <c r="AD120" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE120" s="53" t="str">
         <f>__回合抗性!L120&amp;"|"&amp;__回合抗性!M120&amp;"|"&amp;__回合抗性!N120&amp;"|"&amp;__回合抗性!O120</f>
@@ -29304,7 +29304,7 @@
         <v>159</v>
       </c>
       <c r="AD121" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE121" s="53" t="str">
         <f>__回合抗性!L121&amp;"|"&amp;__回合抗性!M121&amp;"|"&amp;__回合抗性!N121&amp;"|"&amp;__回合抗性!O121</f>
@@ -29389,7 +29389,7 @@
         <v>159</v>
       </c>
       <c r="AD122" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE122" s="53" t="str">
         <f>__回合抗性!L122&amp;"|"&amp;__回合抗性!M122&amp;"|"&amp;__回合抗性!N122&amp;"|"&amp;__回合抗性!O122</f>
@@ -29479,7 +29479,7 @@
         <v>159</v>
       </c>
       <c r="AD123" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE123" s="53" t="str">
         <f>__回合抗性!L123&amp;"|"&amp;__回合抗性!M123&amp;"|"&amp;__回合抗性!N123&amp;"|"&amp;__回合抗性!O123</f>
@@ -29564,7 +29564,7 @@
         <v>159</v>
       </c>
       <c r="AD124" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE124" s="53" t="str">
         <f>__回合抗性!L124&amp;"|"&amp;__回合抗性!M124&amp;"|"&amp;__回合抗性!N124&amp;"|"&amp;__回合抗性!O124</f>
@@ -29654,7 +29654,7 @@
         <v>159</v>
       </c>
       <c r="AD125" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE125" s="53" t="str">
         <f>__回合抗性!L125&amp;"|"&amp;__回合抗性!M125&amp;"|"&amp;__回合抗性!N125&amp;"|"&amp;__回合抗性!O125</f>
@@ -29739,7 +29739,7 @@
         <v>159</v>
       </c>
       <c r="AD126" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE126" s="53" t="str">
         <f>__回合抗性!L126&amp;"|"&amp;__回合抗性!M126&amp;"|"&amp;__回合抗性!N126&amp;"|"&amp;__回合抗性!O126</f>
@@ -29824,7 +29824,7 @@
         <v>159</v>
       </c>
       <c r="AD127" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE127" s="53" t="str">
         <f>__回合抗性!L127&amp;"|"&amp;__回合抗性!M127&amp;"|"&amp;__回合抗性!N127&amp;"|"&amp;__回合抗性!O127</f>
@@ -29909,7 +29909,7 @@
         <v>159</v>
       </c>
       <c r="AD128" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE128" s="53" t="str">
         <f>__回合抗性!L128&amp;"|"&amp;__回合抗性!M128&amp;"|"&amp;__回合抗性!N128&amp;"|"&amp;__回合抗性!O128</f>
@@ -29994,7 +29994,7 @@
         <v>159</v>
       </c>
       <c r="AD129" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE129" s="53" t="str">
         <f>__回合抗性!L129&amp;"|"&amp;__回合抗性!M129&amp;"|"&amp;__回合抗性!N129&amp;"|"&amp;__回合抗性!O129</f>
@@ -30084,7 +30084,7 @@
         <v>159</v>
       </c>
       <c r="AD130" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE130" s="53" t="str">
         <f>__回合抗性!L130&amp;"|"&amp;__回合抗性!M130&amp;"|"&amp;__回合抗性!N130&amp;"|"&amp;__回合抗性!O130</f>
@@ -30169,7 +30169,7 @@
         <v>159</v>
       </c>
       <c r="AD131" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE131" s="53" t="str">
         <f>__回合抗性!L131&amp;"|"&amp;__回合抗性!M131&amp;"|"&amp;__回合抗性!N131&amp;"|"&amp;__回合抗性!O131</f>
@@ -30259,7 +30259,7 @@
         <v>159</v>
       </c>
       <c r="AD132" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE132" s="53" t="str">
         <f>__回合抗性!L132&amp;"|"&amp;__回合抗性!M132&amp;"|"&amp;__回合抗性!N132&amp;"|"&amp;__回合抗性!O132</f>
@@ -30344,7 +30344,7 @@
         <v>159</v>
       </c>
       <c r="AD133" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE133" s="53" t="str">
         <f>__回合抗性!L133&amp;"|"&amp;__回合抗性!M133&amp;"|"&amp;__回合抗性!N133&amp;"|"&amp;__回合抗性!O133</f>
@@ -30429,7 +30429,7 @@
         <v>159</v>
       </c>
       <c r="AD134" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE134" s="53" t="str">
         <f>__回合抗性!L134&amp;"|"&amp;__回合抗性!M134&amp;"|"&amp;__回合抗性!N134&amp;"|"&amp;__回合抗性!O134</f>
@@ -30514,7 +30514,7 @@
         <v>159</v>
       </c>
       <c r="AD135" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE135" s="53" t="str">
         <f>__回合抗性!L135&amp;"|"&amp;__回合抗性!M135&amp;"|"&amp;__回合抗性!N135&amp;"|"&amp;__回合抗性!O135</f>
@@ -30599,7 +30599,7 @@
         <v>159</v>
       </c>
       <c r="AD136" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE136" s="53" t="str">
         <f>__回合抗性!L136&amp;"|"&amp;__回合抗性!M136&amp;"|"&amp;__回合抗性!N136&amp;"|"&amp;__回合抗性!O136</f>
@@ -30684,7 +30684,7 @@
         <v>159</v>
       </c>
       <c r="AD137" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE137" s="53" t="str">
         <f>__回合抗性!L137&amp;"|"&amp;__回合抗性!M137&amp;"|"&amp;__回合抗性!N137&amp;"|"&amp;__回合抗性!O137</f>
@@ -30774,7 +30774,7 @@
         <v>159</v>
       </c>
       <c r="AD138" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE138" s="53" t="str">
         <f>__回合抗性!L138&amp;"|"&amp;__回合抗性!M138&amp;"|"&amp;__回合抗性!N138&amp;"|"&amp;__回合抗性!O138</f>
@@ -30859,7 +30859,7 @@
         <v>159</v>
       </c>
       <c r="AD139" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE139" s="53" t="str">
         <f>__回合抗性!L139&amp;"|"&amp;__回合抗性!M139&amp;"|"&amp;__回合抗性!N139&amp;"|"&amp;__回合抗性!O139</f>
@@ -30949,7 +30949,7 @@
         <v>159</v>
       </c>
       <c r="AD140" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE140" s="53" t="str">
         <f>__回合抗性!L140&amp;"|"&amp;__回合抗性!M140&amp;"|"&amp;__回合抗性!N140&amp;"|"&amp;__回合抗性!O140</f>
@@ -31034,7 +31034,7 @@
         <v>159</v>
       </c>
       <c r="AD141" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE141" s="53" t="str">
         <f>__回合抗性!L141&amp;"|"&amp;__回合抗性!M141&amp;"|"&amp;__回合抗性!N141&amp;"|"&amp;__回合抗性!O141</f>
@@ -31119,7 +31119,7 @@
         <v>159</v>
       </c>
       <c r="AD142" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE142" s="53" t="str">
         <f>__回合抗性!L142&amp;"|"&amp;__回合抗性!M142&amp;"|"&amp;__回合抗性!N142&amp;"|"&amp;__回合抗性!O142</f>
@@ -31204,7 +31204,7 @@
         <v>159</v>
       </c>
       <c r="AD143" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE143" s="53" t="str">
         <f>__回合抗性!L143&amp;"|"&amp;__回合抗性!M143&amp;"|"&amp;__回合抗性!N143&amp;"|"&amp;__回合抗性!O143</f>
@@ -31289,7 +31289,7 @@
         <v>159</v>
       </c>
       <c r="AD144" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE144" s="53" t="str">
         <f>__回合抗性!L144&amp;"|"&amp;__回合抗性!M144&amp;"|"&amp;__回合抗性!N144&amp;"|"&amp;__回合抗性!O144</f>
@@ -31379,7 +31379,7 @@
         <v>159</v>
       </c>
       <c r="AD145" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE145" s="53" t="str">
         <f>__回合抗性!L145&amp;"|"&amp;__回合抗性!M145&amp;"|"&amp;__回合抗性!N145&amp;"|"&amp;__回合抗性!O145</f>
@@ -31464,7 +31464,7 @@
         <v>159</v>
       </c>
       <c r="AD146" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE146" s="53" t="str">
         <f>__回合抗性!L146&amp;"|"&amp;__回合抗性!M146&amp;"|"&amp;__回合抗性!N146&amp;"|"&amp;__回合抗性!O146</f>
@@ -31554,7 +31554,7 @@
         <v>159</v>
       </c>
       <c r="AD147" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE147" s="53" t="str">
         <f>__回合抗性!L147&amp;"|"&amp;__回合抗性!M147&amp;"|"&amp;__回合抗性!N147&amp;"|"&amp;__回合抗性!O147</f>
@@ -31562,7 +31562,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="C1:C117" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="C1:C147" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <mergeCells count="1">
@@ -31904,7 +31904,7 @@
   <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -32156,10 +32156,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="22">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="C23" s="23">
-        <v>64</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" ht="16.5" spans="1:3">
@@ -32167,10 +32167,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="22">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="C24" s="23">
-        <v>64</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" ht="16.5" spans="1:3">
@@ -32178,10 +32178,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="22">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="C25" s="23">
-        <v>64</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" ht="16.5" spans="1:3">
@@ -32189,10 +32189,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="22">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="C26" s="23">
-        <v>64</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" ht="16.5" spans="1:3">
@@ -32200,35 +32200,65 @@
         <v>25</v>
       </c>
       <c r="B27" s="22">
-        <v>15000</v>
+        <v>35000</v>
       </c>
       <c r="C27" s="23">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:1">
+      <c r="B28">
+        <v>40000</v>
+      </c>
+      <c r="C28">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
+      <c r="B29">
+        <v>45000</v>
+      </c>
+      <c r="C29">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="1:1">
+      <c r="B30">
+        <v>50000</v>
+      </c>
+      <c r="C30">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="1:1">
+      <c r="B31">
+        <v>55000</v>
+      </c>
+      <c r="C31">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32">
         <v>30</v>
+      </c>
+      <c r="B32">
+        <v>60000</v>
+      </c>
+      <c r="C32">
+        <v>190</v>
       </c>
     </row>
     <row r="33" spans="1:1">
@@ -32305,7 +32335,7 @@
   <dimension ref="A1:O147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="R106" sqref="R106"/>
     </sheetView>

--- a/excels/config/difficulty_config.xlsx
+++ b/excels/config/difficulty_config.xlsx
@@ -3522,12 +3522,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="4" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{D6F4377A-24C8-4A2C-A485-0D2A817E0709}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{1EF6D52E-06E4-4D5D-BB9F-9869957F2C84}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
     </tableStyle>
-    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{F01873F6-C875-4713-9D0A-475856089FF6}">
+    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{7A6B9AB0-3CD4-49A9-822E-2409DCDA5F6D}">
       <tableStyleElement type="wholeTable" dxfId="16"/>
       <tableStyleElement type="headerRow" dxfId="15"/>
       <tableStyleElement type="totalRow" dxfId="14"/>
@@ -3541,7 +3541,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="6"/>
       <tableStyleElement type="lastTotalCell" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{4A6BAEB3-01A6-4781-8A5E-FC41EB8617D3}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{B09CC9F5-FE72-4FD3-A727-7786BFE4EB74}">
       <tableStyleElement type="wholeTable" dxfId="26"/>
       <tableStyleElement type="headerRow" dxfId="25"/>
       <tableStyleElement type="totalRow" dxfId="24"/>
@@ -3553,7 +3553,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="18"/>
       <tableStyleElement type="lastTotalCell" dxfId="17"/>
     </tableStyle>
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{3D02DECF-9E71-42E9-B870-4A7E8A17B1C0}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{32E6C682-5D33-420E-B6A4-2AB247006A0C}">
       <tableStyleElement type="wholeTable" dxfId="33"/>
       <tableStyleElement type="headerRow" dxfId="32"/>
       <tableStyleElement type="totalRow" dxfId="31"/>
@@ -4712,7 +4712,7 @@
     <sheetView workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="F2" sqref="F2:F7"/>
+      <selection pane="topRight" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -18814,9 +18814,9 @@
   <dimension ref="A1:AE147"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="S1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="AC29" sqref="AC29"/>
+      <selection pane="bottomLeft" activeCell="AC151" sqref="AC151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -23859,8 +23859,8 @@
         <v>5</v>
       </c>
       <c r="Y58" s="12"/>
-      <c r="AA58" s="79">
-        <v>15000</v>
+      <c r="AA58" s="77">
+        <v>50</v>
       </c>
       <c r="AB58" s="80">
         <v>64</v>
@@ -23944,8 +23944,8 @@
         <v>6</v>
       </c>
       <c r="Y59" s="12"/>
-      <c r="AA59" s="79">
-        <v>15000</v>
+      <c r="AA59" s="77">
+        <v>75</v>
       </c>
       <c r="AB59" s="80">
         <v>64</v>
@@ -24029,8 +24029,8 @@
         <v>7</v>
       </c>
       <c r="Y60" s="12"/>
-      <c r="AA60" s="79">
-        <v>15000</v>
+      <c r="AA60" s="77">
+        <v>80</v>
       </c>
       <c r="AB60" s="80">
         <v>64</v>
@@ -24114,8 +24114,8 @@
         <v>8</v>
       </c>
       <c r="Y61" s="12"/>
-      <c r="AA61" s="79">
-        <v>15000</v>
+      <c r="AA61" s="77">
+        <v>90</v>
       </c>
       <c r="AB61" s="80">
         <v>64</v>
@@ -24199,8 +24199,8 @@
         <v>9</v>
       </c>
       <c r="Y62" s="12"/>
-      <c r="AA62" s="79">
-        <v>15000</v>
+      <c r="AA62" s="77">
+        <v>100</v>
       </c>
       <c r="AB62" s="80">
         <v>64</v>
@@ -24289,8 +24289,8 @@
       <c r="Y63" s="12">
         <v>1</v>
       </c>
-      <c r="AA63" s="79">
-        <v>15000</v>
+      <c r="AA63" s="77">
+        <v>200</v>
       </c>
       <c r="AB63" s="80">
         <v>64</v>
@@ -24374,8 +24374,8 @@
         <v>11</v>
       </c>
       <c r="Y64" s="12"/>
-      <c r="AA64" s="79">
-        <v>15000</v>
+      <c r="AA64" s="77">
+        <v>300</v>
       </c>
       <c r="AB64" s="80">
         <v>64</v>
@@ -24464,8 +24464,8 @@
       <c r="Y65" s="12">
         <v>1</v>
       </c>
-      <c r="AA65" s="79">
-        <v>15000</v>
+      <c r="AA65" s="77">
+        <v>500</v>
       </c>
       <c r="AB65" s="80">
         <v>64</v>
@@ -24549,8 +24549,8 @@
         <v>13</v>
       </c>
       <c r="Y66" s="12"/>
-      <c r="AA66" s="79">
-        <v>15000</v>
+      <c r="AA66" s="77">
+        <v>800</v>
       </c>
       <c r="AB66" s="80">
         <v>64</v>
@@ -24634,8 +24634,8 @@
         <v>14</v>
       </c>
       <c r="Y67" s="12"/>
-      <c r="AA67" s="79">
-        <v>15000</v>
+      <c r="AA67" s="77">
+        <v>1000</v>
       </c>
       <c r="AB67" s="80">
         <v>64</v>
@@ -24719,8 +24719,8 @@
         <v>15</v>
       </c>
       <c r="Y68" s="12"/>
-      <c r="AA68" s="79">
-        <v>15000</v>
+      <c r="AA68" s="77">
+        <v>2000</v>
       </c>
       <c r="AB68" s="80">
         <v>64</v>
@@ -24804,8 +24804,8 @@
         <v>16</v>
       </c>
       <c r="Y69" s="12"/>
-      <c r="AA69" s="79">
-        <v>15000</v>
+      <c r="AA69" s="77">
+        <v>2800</v>
       </c>
       <c r="AB69" s="80">
         <v>64</v>
@@ -24894,8 +24894,8 @@
       <c r="Y70" s="12">
         <v>1</v>
       </c>
-      <c r="AA70" s="79">
-        <v>15000</v>
+      <c r="AA70" s="77">
+        <v>3500</v>
       </c>
       <c r="AB70" s="80">
         <v>64</v>
@@ -24979,8 +24979,8 @@
         <v>18</v>
       </c>
       <c r="Y71" s="12"/>
-      <c r="AA71" s="79">
-        <v>15000</v>
+      <c r="AA71" s="77">
+        <v>4200</v>
       </c>
       <c r="AB71" s="80">
         <v>64</v>
@@ -25069,8 +25069,8 @@
       <c r="Y72" s="12">
         <v>1</v>
       </c>
-      <c r="AA72" s="79">
-        <v>15000</v>
+      <c r="AA72" s="77">
+        <v>5000</v>
       </c>
       <c r="AB72" s="80">
         <v>64</v>
@@ -25154,8 +25154,8 @@
         <v>20</v>
       </c>
       <c r="Y73" s="12"/>
-      <c r="AA73" s="79">
-        <v>15000</v>
+      <c r="AA73" s="77">
+        <v>6200</v>
       </c>
       <c r="AB73" s="80">
         <v>64</v>
@@ -25239,8 +25239,8 @@
         <v>20</v>
       </c>
       <c r="Y74" s="12"/>
-      <c r="AA74" s="79">
-        <v>15000</v>
+      <c r="AA74" s="77">
+        <v>7349</v>
       </c>
       <c r="AB74" s="80">
         <v>64</v>
@@ -25324,8 +25324,8 @@
         <v>20</v>
       </c>
       <c r="Y75" s="12"/>
-      <c r="AA75" s="79">
-        <v>15000</v>
+      <c r="AA75" s="77">
+        <v>9200</v>
       </c>
       <c r="AB75" s="80">
         <v>64</v>
@@ -25409,8 +25409,8 @@
         <v>20</v>
       </c>
       <c r="Y76" s="12"/>
-      <c r="AA76" s="79">
-        <v>15000</v>
+      <c r="AA76" s="77">
+        <v>12000</v>
       </c>
       <c r="AB76" s="80">
         <v>64</v>
@@ -25494,7 +25494,7 @@
         <v>20</v>
       </c>
       <c r="Y77" s="12"/>
-      <c r="AA77" s="79">
+      <c r="AA77" s="77">
         <v>15000</v>
       </c>
       <c r="AB77" s="80">
@@ -25584,7 +25584,7 @@
       <c r="Y78" s="12">
         <v>2</v>
       </c>
-      <c r="AA78" s="79">
+      <c r="AA78" s="77">
         <v>15000</v>
       </c>
       <c r="AB78" s="80">
@@ -25669,7 +25669,7 @@
         <v>20</v>
       </c>
       <c r="Y79" s="12"/>
-      <c r="AA79" s="79">
+      <c r="AA79" s="77">
         <v>15000</v>
       </c>
       <c r="AB79" s="80">
@@ -25759,7 +25759,7 @@
       <c r="Y80" s="12">
         <v>2</v>
       </c>
-      <c r="AA80" s="79">
+      <c r="AA80" s="77">
         <v>15000</v>
       </c>
       <c r="AB80" s="80">
@@ -25844,7 +25844,7 @@
         <v>20</v>
       </c>
       <c r="Y81" s="12"/>
-      <c r="AA81" s="79">
+      <c r="AA81" s="77">
         <v>15000</v>
       </c>
       <c r="AB81" s="80">
@@ -25929,7 +25929,7 @@
         <v>20</v>
       </c>
       <c r="Y82" s="12"/>
-      <c r="AA82" s="79">
+      <c r="AA82" s="77">
         <v>15000</v>
       </c>
       <c r="AB82" s="80">
@@ -26014,7 +26014,7 @@
         <v>20</v>
       </c>
       <c r="Y83" s="12"/>
-      <c r="AA83" s="79">
+      <c r="AA83" s="77">
         <v>15000</v>
       </c>
       <c r="AB83" s="80">
@@ -26099,7 +26099,7 @@
         <v>20</v>
       </c>
       <c r="Y84" s="12"/>
-      <c r="AA84" s="79">
+      <c r="AA84" s="77">
         <v>15000</v>
       </c>
       <c r="AB84" s="80">
@@ -26189,7 +26189,7 @@
       <c r="Y85" s="12">
         <v>2</v>
       </c>
-      <c r="AA85" s="79">
+      <c r="AA85" s="77">
         <v>15000</v>
       </c>
       <c r="AB85" s="80">
@@ -26274,7 +26274,7 @@
         <v>20</v>
       </c>
       <c r="Y86" s="12"/>
-      <c r="AA86" s="79">
+      <c r="AA86" s="77">
         <v>15000</v>
       </c>
       <c r="AB86" s="80">
@@ -26449,8 +26449,8 @@
         <v>5</v>
       </c>
       <c r="Y88" s="12"/>
-      <c r="AA88" s="79">
-        <v>15000</v>
+      <c r="AA88" s="77">
+        <v>50</v>
       </c>
       <c r="AB88" s="80">
         <v>64</v>
@@ -26534,8 +26534,8 @@
         <v>6</v>
       </c>
       <c r="Y89" s="12"/>
-      <c r="AA89" s="79">
-        <v>15000</v>
+      <c r="AA89" s="77">
+        <v>75</v>
       </c>
       <c r="AB89" s="80">
         <v>64</v>
@@ -26619,8 +26619,8 @@
         <v>7</v>
       </c>
       <c r="Y90" s="12"/>
-      <c r="AA90" s="79">
-        <v>15000</v>
+      <c r="AA90" s="77">
+        <v>80</v>
       </c>
       <c r="AB90" s="80">
         <v>64</v>
@@ -26704,8 +26704,8 @@
         <v>8</v>
       </c>
       <c r="Y91" s="12"/>
-      <c r="AA91" s="79">
-        <v>15000</v>
+      <c r="AA91" s="77">
+        <v>90</v>
       </c>
       <c r="AB91" s="80">
         <v>64</v>
@@ -26789,8 +26789,8 @@
         <v>9</v>
       </c>
       <c r="Y92" s="12"/>
-      <c r="AA92" s="79">
-        <v>15000</v>
+      <c r="AA92" s="77">
+        <v>100</v>
       </c>
       <c r="AB92" s="80">
         <v>64</v>
@@ -26879,8 +26879,8 @@
       <c r="Y93" s="12">
         <v>1</v>
       </c>
-      <c r="AA93" s="79">
-        <v>15000</v>
+      <c r="AA93" s="77">
+        <v>200</v>
       </c>
       <c r="AB93" s="80">
         <v>64</v>
@@ -26964,8 +26964,8 @@
         <v>11</v>
       </c>
       <c r="Y94" s="12"/>
-      <c r="AA94" s="79">
-        <v>15000</v>
+      <c r="AA94" s="77">
+        <v>300</v>
       </c>
       <c r="AB94" s="80">
         <v>64</v>
@@ -27054,8 +27054,8 @@
       <c r="Y95" s="12">
         <v>1</v>
       </c>
-      <c r="AA95" s="79">
-        <v>15000</v>
+      <c r="AA95" s="77">
+        <v>500</v>
       </c>
       <c r="AB95" s="80">
         <v>64</v>
@@ -27139,8 +27139,8 @@
         <v>13</v>
       </c>
       <c r="Y96" s="12"/>
-      <c r="AA96" s="79">
-        <v>15000</v>
+      <c r="AA96" s="77">
+        <v>800</v>
       </c>
       <c r="AB96" s="80">
         <v>64</v>
@@ -27224,8 +27224,8 @@
         <v>14</v>
       </c>
       <c r="Y97" s="12"/>
-      <c r="AA97" s="79">
-        <v>15000</v>
+      <c r="AA97" s="77">
+        <v>1000</v>
       </c>
       <c r="AB97" s="80">
         <v>64</v>
@@ -27309,8 +27309,8 @@
         <v>15</v>
       </c>
       <c r="Y98" s="12"/>
-      <c r="AA98" s="79">
-        <v>15000</v>
+      <c r="AA98" s="77">
+        <v>2000</v>
       </c>
       <c r="AB98" s="80">
         <v>64</v>
@@ -27394,8 +27394,8 @@
         <v>16</v>
       </c>
       <c r="Y99" s="12"/>
-      <c r="AA99" s="79">
-        <v>15000</v>
+      <c r="AA99" s="77">
+        <v>2800</v>
       </c>
       <c r="AB99" s="80">
         <v>64</v>
@@ -27484,8 +27484,8 @@
       <c r="Y100" s="12">
         <v>1</v>
       </c>
-      <c r="AA100" s="79">
-        <v>15000</v>
+      <c r="AA100" s="77">
+        <v>3500</v>
       </c>
       <c r="AB100" s="80">
         <v>64</v>
@@ -27569,8 +27569,8 @@
         <v>18</v>
       </c>
       <c r="Y101" s="12"/>
-      <c r="AA101" s="79">
-        <v>15000</v>
+      <c r="AA101" s="77">
+        <v>4200</v>
       </c>
       <c r="AB101" s="80">
         <v>64</v>
@@ -27659,8 +27659,8 @@
       <c r="Y102" s="12">
         <v>1</v>
       </c>
-      <c r="AA102" s="79">
-        <v>15000</v>
+      <c r="AA102" s="77">
+        <v>5000</v>
       </c>
       <c r="AB102" s="80">
         <v>64</v>
@@ -27744,8 +27744,8 @@
         <v>20</v>
       </c>
       <c r="Y103" s="12"/>
-      <c r="AA103" s="79">
-        <v>15000</v>
+      <c r="AA103" s="77">
+        <v>6200</v>
       </c>
       <c r="AB103" s="80">
         <v>64</v>
@@ -27829,8 +27829,8 @@
         <v>20</v>
       </c>
       <c r="Y104" s="12"/>
-      <c r="AA104" s="79">
-        <v>15000</v>
+      <c r="AA104" s="77">
+        <v>7349</v>
       </c>
       <c r="AB104" s="80">
         <v>64</v>
@@ -27914,8 +27914,8 @@
         <v>20</v>
       </c>
       <c r="Y105" s="12"/>
-      <c r="AA105" s="79">
-        <v>15000</v>
+      <c r="AA105" s="77">
+        <v>9200</v>
       </c>
       <c r="AB105" s="80">
         <v>64</v>
@@ -27999,8 +27999,8 @@
         <v>20</v>
       </c>
       <c r="Y106" s="12"/>
-      <c r="AA106" s="79">
-        <v>15000</v>
+      <c r="AA106" s="77">
+        <v>12000</v>
       </c>
       <c r="AB106" s="80">
         <v>64</v>
@@ -28084,7 +28084,7 @@
         <v>20</v>
       </c>
       <c r="Y107" s="12"/>
-      <c r="AA107" s="79">
+      <c r="AA107" s="77">
         <v>15000</v>
       </c>
       <c r="AB107" s="80">
@@ -28174,7 +28174,7 @@
       <c r="Y108" s="12">
         <v>2</v>
       </c>
-      <c r="AA108" s="79">
+      <c r="AA108" s="77">
         <v>15000</v>
       </c>
       <c r="AB108" s="80">
@@ -28259,7 +28259,7 @@
         <v>20</v>
       </c>
       <c r="Y109" s="12"/>
-      <c r="AA109" s="79">
+      <c r="AA109" s="77">
         <v>15000</v>
       </c>
       <c r="AB109" s="80">
@@ -28349,7 +28349,7 @@
       <c r="Y110" s="12">
         <v>2</v>
       </c>
-      <c r="AA110" s="79">
+      <c r="AA110" s="77">
         <v>15000</v>
       </c>
       <c r="AB110" s="80">
@@ -28434,7 +28434,7 @@
         <v>20</v>
       </c>
       <c r="Y111" s="12"/>
-      <c r="AA111" s="79">
+      <c r="AA111" s="77">
         <v>15000</v>
       </c>
       <c r="AB111" s="80">
@@ -28519,7 +28519,7 @@
         <v>20</v>
       </c>
       <c r="Y112" s="12"/>
-      <c r="AA112" s="79">
+      <c r="AA112" s="77">
         <v>15000</v>
       </c>
       <c r="AB112" s="80">
@@ -28604,7 +28604,7 @@
         <v>20</v>
       </c>
       <c r="Y113" s="12"/>
-      <c r="AA113" s="79">
+      <c r="AA113" s="77">
         <v>15000</v>
       </c>
       <c r="AB113" s="80">
@@ -28689,7 +28689,7 @@
         <v>20</v>
       </c>
       <c r="Y114" s="12"/>
-      <c r="AA114" s="79">
+      <c r="AA114" s="77">
         <v>15000</v>
       </c>
       <c r="AB114" s="80">
@@ -28779,7 +28779,7 @@
       <c r="Y115" s="12">
         <v>2</v>
       </c>
-      <c r="AA115" s="79">
+      <c r="AA115" s="77">
         <v>15000</v>
       </c>
       <c r="AB115" s="80">
@@ -28864,7 +28864,7 @@
         <v>20</v>
       </c>
       <c r="Y116" s="12"/>
-      <c r="AA116" s="79">
+      <c r="AA116" s="77">
         <v>15000</v>
       </c>
       <c r="AB116" s="80">
@@ -29039,8 +29039,8 @@
         <v>5</v>
       </c>
       <c r="Y118" s="12"/>
-      <c r="AA118" s="79">
-        <v>15000</v>
+      <c r="AA118" s="77">
+        <v>50</v>
       </c>
       <c r="AB118" s="80">
         <v>64</v>
@@ -29124,8 +29124,8 @@
         <v>6</v>
       </c>
       <c r="Y119" s="12"/>
-      <c r="AA119" s="79">
-        <v>15000</v>
+      <c r="AA119" s="77">
+        <v>75</v>
       </c>
       <c r="AB119" s="80">
         <v>64</v>
@@ -29209,8 +29209,8 @@
         <v>7</v>
       </c>
       <c r="Y120" s="12"/>
-      <c r="AA120" s="79">
-        <v>15000</v>
+      <c r="AA120" s="77">
+        <v>80</v>
       </c>
       <c r="AB120" s="80">
         <v>64</v>
@@ -29294,8 +29294,8 @@
         <v>8</v>
       </c>
       <c r="Y121" s="12"/>
-      <c r="AA121" s="79">
-        <v>15000</v>
+      <c r="AA121" s="77">
+        <v>90</v>
       </c>
       <c r="AB121" s="80">
         <v>64</v>
@@ -29379,8 +29379,8 @@
         <v>9</v>
       </c>
       <c r="Y122" s="12"/>
-      <c r="AA122" s="79">
-        <v>15000</v>
+      <c r="AA122" s="77">
+        <v>100</v>
       </c>
       <c r="AB122" s="80">
         <v>64</v>
@@ -29469,8 +29469,8 @@
       <c r="Y123" s="12">
         <v>1</v>
       </c>
-      <c r="AA123" s="79">
-        <v>15000</v>
+      <c r="AA123" s="77">
+        <v>200</v>
       </c>
       <c r="AB123" s="80">
         <v>64</v>
@@ -29554,8 +29554,8 @@
         <v>11</v>
       </c>
       <c r="Y124" s="12"/>
-      <c r="AA124" s="79">
-        <v>15000</v>
+      <c r="AA124" s="77">
+        <v>300</v>
       </c>
       <c r="AB124" s="80">
         <v>64</v>
@@ -29644,8 +29644,8 @@
       <c r="Y125" s="12">
         <v>1</v>
       </c>
-      <c r="AA125" s="79">
-        <v>15000</v>
+      <c r="AA125" s="77">
+        <v>500</v>
       </c>
       <c r="AB125" s="80">
         <v>64</v>
@@ -29729,8 +29729,8 @@
         <v>13</v>
       </c>
       <c r="Y126" s="12"/>
-      <c r="AA126" s="79">
-        <v>15000</v>
+      <c r="AA126" s="77">
+        <v>800</v>
       </c>
       <c r="AB126" s="80">
         <v>64</v>
@@ -29814,8 +29814,8 @@
         <v>14</v>
       </c>
       <c r="Y127" s="12"/>
-      <c r="AA127" s="79">
-        <v>15000</v>
+      <c r="AA127" s="77">
+        <v>1000</v>
       </c>
       <c r="AB127" s="80">
         <v>64</v>
@@ -29899,8 +29899,8 @@
         <v>15</v>
       </c>
       <c r="Y128" s="12"/>
-      <c r="AA128" s="79">
-        <v>15000</v>
+      <c r="AA128" s="77">
+        <v>2000</v>
       </c>
       <c r="AB128" s="80">
         <v>64</v>
@@ -29984,8 +29984,8 @@
         <v>16</v>
       </c>
       <c r="Y129" s="12"/>
-      <c r="AA129" s="79">
-        <v>15000</v>
+      <c r="AA129" s="77">
+        <v>2800</v>
       </c>
       <c r="AB129" s="80">
         <v>64</v>
@@ -30074,8 +30074,8 @@
       <c r="Y130" s="12">
         <v>1</v>
       </c>
-      <c r="AA130" s="79">
-        <v>15000</v>
+      <c r="AA130" s="77">
+        <v>3500</v>
       </c>
       <c r="AB130" s="80">
         <v>64</v>
@@ -30159,8 +30159,8 @@
         <v>18</v>
       </c>
       <c r="Y131" s="12"/>
-      <c r="AA131" s="79">
-        <v>15000</v>
+      <c r="AA131" s="77">
+        <v>4200</v>
       </c>
       <c r="AB131" s="80">
         <v>64</v>
@@ -30249,8 +30249,8 @@
       <c r="Y132" s="12">
         <v>1</v>
       </c>
-      <c r="AA132" s="79">
-        <v>15000</v>
+      <c r="AA132" s="77">
+        <v>5000</v>
       </c>
       <c r="AB132" s="80">
         <v>64</v>
@@ -30334,8 +30334,8 @@
         <v>20</v>
       </c>
       <c r="Y133" s="12"/>
-      <c r="AA133" s="79">
-        <v>15000</v>
+      <c r="AA133" s="77">
+        <v>6200</v>
       </c>
       <c r="AB133" s="80">
         <v>64</v>
@@ -30419,8 +30419,8 @@
         <v>20</v>
       </c>
       <c r="Y134" s="12"/>
-      <c r="AA134" s="79">
-        <v>15000</v>
+      <c r="AA134" s="77">
+        <v>7349</v>
       </c>
       <c r="AB134" s="80">
         <v>64</v>
@@ -30504,8 +30504,8 @@
         <v>20</v>
       </c>
       <c r="Y135" s="12"/>
-      <c r="AA135" s="79">
-        <v>15000</v>
+      <c r="AA135" s="77">
+        <v>9200</v>
       </c>
       <c r="AB135" s="80">
         <v>64</v>
@@ -30589,8 +30589,8 @@
         <v>20</v>
       </c>
       <c r="Y136" s="12"/>
-      <c r="AA136" s="79">
-        <v>15000</v>
+      <c r="AA136" s="77">
+        <v>12000</v>
       </c>
       <c r="AB136" s="80">
         <v>64</v>
@@ -30674,7 +30674,7 @@
         <v>20</v>
       </c>
       <c r="Y137" s="12"/>
-      <c r="AA137" s="79">
+      <c r="AA137" s="77">
         <v>15000</v>
       </c>
       <c r="AB137" s="80">
@@ -30764,7 +30764,7 @@
       <c r="Y138" s="12">
         <v>2</v>
       </c>
-      <c r="AA138" s="79">
+      <c r="AA138" s="77">
         <v>15000</v>
       </c>
       <c r="AB138" s="80">
@@ -30849,7 +30849,7 @@
         <v>20</v>
       </c>
       <c r="Y139" s="12"/>
-      <c r="AA139" s="79">
+      <c r="AA139" s="77">
         <v>15000</v>
       </c>
       <c r="AB139" s="80">
@@ -30939,7 +30939,7 @@
       <c r="Y140" s="12">
         <v>2</v>
       </c>
-      <c r="AA140" s="79">
+      <c r="AA140" s="77">
         <v>15000</v>
       </c>
       <c r="AB140" s="80">
@@ -31024,7 +31024,7 @@
         <v>20</v>
       </c>
       <c r="Y141" s="12"/>
-      <c r="AA141" s="79">
+      <c r="AA141" s="77">
         <v>15000</v>
       </c>
       <c r="AB141" s="80">
@@ -31109,7 +31109,7 @@
         <v>20</v>
       </c>
       <c r="Y142" s="12"/>
-      <c r="AA142" s="79">
+      <c r="AA142" s="77">
         <v>15000</v>
       </c>
       <c r="AB142" s="80">
@@ -31194,7 +31194,7 @@
         <v>20</v>
       </c>
       <c r="Y143" s="12"/>
-      <c r="AA143" s="79">
+      <c r="AA143" s="77">
         <v>15000</v>
       </c>
       <c r="AB143" s="80">
@@ -31279,7 +31279,7 @@
         <v>20</v>
       </c>
       <c r="Y144" s="12"/>
-      <c r="AA144" s="79">
+      <c r="AA144" s="77">
         <v>15000</v>
       </c>
       <c r="AB144" s="80">
@@ -31369,7 +31369,7 @@
       <c r="Y145" s="12">
         <v>2</v>
       </c>
-      <c r="AA145" s="79">
+      <c r="AA145" s="77">
         <v>15000</v>
       </c>
       <c r="AB145" s="80">
@@ -31454,7 +31454,7 @@
         <v>20</v>
       </c>
       <c r="Y146" s="12"/>
-      <c r="AA146" s="79">
+      <c r="AA146" s="77">
         <v>15000</v>
       </c>
       <c r="AB146" s="80">

--- a/excels/config/difficulty_config.xlsx
+++ b/excels/config/difficulty_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="13395" tabRatio="804" activeTab="4"/>
+    <workbookView windowWidth="27945" windowHeight="13395" tabRatio="804" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="chapter_info" sheetId="7" r:id="rId1"/>
@@ -4366,12 +4366,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="4" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{2CBD3837-19EF-41EC-B075-CE8BE72AD7C0}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{050A52C6-74C9-4D31-BF6A-3143B7693BF7}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
     </tableStyle>
-    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{0E0B834A-BC85-49FE-A40A-DF841AC3E846}">
+    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{1622D7C9-F4FC-4267-9889-BE813000CF4F}">
       <tableStyleElement type="wholeTable" dxfId="16"/>
       <tableStyleElement type="headerRow" dxfId="15"/>
       <tableStyleElement type="totalRow" dxfId="14"/>
@@ -4385,7 +4385,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="6"/>
       <tableStyleElement type="lastTotalCell" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{0C409946-6AF2-4904-B9FC-65CA5F52EF38}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{EE97E696-4816-41B2-BB83-9C59F15FC31B}">
       <tableStyleElement type="wholeTable" dxfId="26"/>
       <tableStyleElement type="headerRow" dxfId="25"/>
       <tableStyleElement type="totalRow" dxfId="24"/>
@@ -4397,7 +4397,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="18"/>
       <tableStyleElement type="lastTotalCell" dxfId="17"/>
     </tableStyle>
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{85EDFA52-8FB1-422E-8E85-26F166E30FA2}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{55F85EF3-DB2C-4B84-9F76-048340E51B35}">
       <tableStyleElement type="wholeTable" dxfId="33"/>
       <tableStyleElement type="headerRow" dxfId="32"/>
       <tableStyleElement type="totalRow" dxfId="31"/>
@@ -5553,10 +5553,10 @@
   <sheetPr/>
   <dimension ref="A1:O298"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="D11" sqref="D11"/>
+      <selection pane="topRight" activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5720,7 +5720,7 @@
       <c r="A4" s="7">
         <v>102</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C4" s="8">
@@ -5767,7 +5767,7 @@
       <c r="A5" s="7">
         <v>103</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C5" s="8">
@@ -5814,7 +5814,7 @@
       <c r="A6" s="7">
         <v>104</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C6" s="8">
@@ -5861,7 +5861,7 @@
       <c r="A7" s="7">
         <v>105</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C7" s="8">
@@ -5908,7 +5908,7 @@
       <c r="A8" s="7">
         <v>106</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="8">
@@ -5955,7 +5955,7 @@
       <c r="A9" s="7">
         <v>107</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="8">
@@ -6002,7 +6002,7 @@
       <c r="A10" s="7">
         <v>108</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="8">
@@ -6050,7 +6050,7 @@
         <v>109</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" s="8">
         <v>2</v>
@@ -6097,7 +6097,7 @@
         <v>110</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C12" s="8">
         <v>2</v>
@@ -6144,7 +6144,7 @@
         <v>111</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" s="8">
         <v>2</v>
@@ -6191,7 +6191,7 @@
         <v>112</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" s="8">
         <v>2</v>
@@ -6238,7 +6238,7 @@
         <v>113</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" s="8">
         <v>2</v>
@@ -6285,7 +6285,7 @@
         <v>114</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" s="8">
         <v>2</v>
@@ -6332,7 +6332,7 @@
         <v>115</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17" s="8">
         <v>2</v>
@@ -6379,7 +6379,7 @@
         <v>116</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C18" s="8">
         <v>2</v>
@@ -6426,7 +6426,7 @@
         <v>117</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C19" s="8">
         <v>3</v>
@@ -6473,7 +6473,7 @@
         <v>118</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C20" s="8">
         <v>3</v>
@@ -6520,7 +6520,7 @@
         <v>119</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C21" s="8">
         <v>3</v>
@@ -6567,7 +6567,7 @@
         <v>120</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C22" s="8">
         <v>3</v>
@@ -6614,7 +6614,7 @@
         <v>121</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C23" s="8">
         <v>3</v>
@@ -6661,7 +6661,7 @@
         <v>122</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C24" s="8">
         <v>3</v>
@@ -6708,7 +6708,7 @@
         <v>123</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C25" s="8">
         <v>3</v>
@@ -6755,7 +6755,7 @@
         <v>124</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C26" s="8">
         <v>3</v>
@@ -6802,7 +6802,7 @@
         <v>125</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C27" s="8">
         <v>4</v>
@@ -6849,7 +6849,7 @@
         <v>126</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C28" s="8">
         <v>4</v>
@@ -6896,7 +6896,7 @@
         <v>127</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C29" s="8">
         <v>4</v>
@@ -6943,7 +6943,7 @@
         <v>128</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C30" s="8">
         <v>4</v>
@@ -6990,7 +6990,7 @@
         <v>129</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C31" s="8">
         <v>4</v>
@@ -7037,7 +7037,7 @@
         <v>130</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C32" s="8">
         <v>4</v>
@@ -7084,7 +7084,7 @@
         <v>131</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C33" s="8">
         <v>4</v>
@@ -7131,7 +7131,7 @@
         <v>132</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C34" s="8">
         <v>4</v>
@@ -7178,7 +7178,7 @@
         <v>133</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C35" s="8">
         <v>5</v>
@@ -7225,7 +7225,7 @@
         <v>134</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C36" s="8">
         <v>5</v>
@@ -7272,7 +7272,7 @@
         <v>135</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C37" s="8">
         <v>5</v>
@@ -7319,7 +7319,7 @@
         <v>136</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C38" s="8">
         <v>5</v>
@@ -7366,7 +7366,7 @@
         <v>137</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C39" s="8">
         <v>5</v>
@@ -7413,7 +7413,7 @@
         <v>138</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C40" s="8">
         <v>5</v>
@@ -7460,7 +7460,7 @@
         <v>139</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C41" s="8">
         <v>5</v>
@@ -7507,7 +7507,7 @@
         <v>140</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C42" s="8">
         <v>5</v>
@@ -7554,7 +7554,7 @@
         <v>201</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C43" s="8">
         <v>1</v>
@@ -7601,7 +7601,7 @@
         <v>202</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C44" s="8">
         <v>1</v>
@@ -7648,7 +7648,7 @@
         <v>203</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C45" s="8">
         <v>1</v>
@@ -7695,7 +7695,7 @@
         <v>204</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C46" s="8">
         <v>1</v>
@@ -7742,7 +7742,7 @@
         <v>205</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C47" s="8">
         <v>1</v>
@@ -7789,7 +7789,7 @@
         <v>206</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C48" s="8">
         <v>1</v>
@@ -7836,7 +7836,7 @@
         <v>207</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C49" s="8">
         <v>1</v>
@@ -7883,7 +7883,7 @@
         <v>208</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C50" s="8">
         <v>1</v>
@@ -7930,7 +7930,7 @@
         <v>209</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C51" s="8">
         <v>2</v>
@@ -7977,7 +7977,7 @@
         <v>210</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C52" s="8">
         <v>2</v>
@@ -8024,7 +8024,7 @@
         <v>211</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C53" s="8">
         <v>2</v>
@@ -8071,7 +8071,7 @@
         <v>212</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C54" s="8">
         <v>2</v>
@@ -8118,7 +8118,7 @@
         <v>213</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C55" s="8">
         <v>2</v>
@@ -8165,7 +8165,7 @@
         <v>214</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C56" s="8">
         <v>2</v>
@@ -8212,7 +8212,7 @@
         <v>215</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C57" s="8">
         <v>2</v>
@@ -8259,7 +8259,7 @@
         <v>216</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C58" s="8">
         <v>2</v>
@@ -8306,7 +8306,7 @@
         <v>217</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C59" s="8">
         <v>3</v>
@@ -8353,7 +8353,7 @@
         <v>218</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C60" s="8">
         <v>3</v>
@@ -8400,7 +8400,7 @@
         <v>219</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C61" s="8">
         <v>3</v>
@@ -8447,7 +8447,7 @@
         <v>220</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C62" s="8">
         <v>3</v>
@@ -8494,7 +8494,7 @@
         <v>221</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C63" s="8">
         <v>3</v>
@@ -8541,7 +8541,7 @@
         <v>222</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C64" s="8">
         <v>3</v>
@@ -8588,7 +8588,7 @@
         <v>223</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C65" s="8">
         <v>3</v>
@@ -8635,7 +8635,7 @@
         <v>224</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C66" s="8">
         <v>3</v>
@@ -8682,7 +8682,7 @@
         <v>225</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C67" s="8">
         <v>4</v>
@@ -8729,7 +8729,7 @@
         <v>226</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C68" s="8">
         <v>4</v>
@@ -8776,7 +8776,7 @@
         <v>227</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C69" s="8">
         <v>4</v>
@@ -8823,7 +8823,7 @@
         <v>228</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C70" s="8">
         <v>4</v>
@@ -8870,7 +8870,7 @@
         <v>229</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C71" s="8">
         <v>4</v>
@@ -8917,7 +8917,7 @@
         <v>230</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C72" s="8">
         <v>4</v>
@@ -8964,7 +8964,7 @@
         <v>231</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C73" s="8">
         <v>4</v>
@@ -9011,7 +9011,7 @@
         <v>232</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C74" s="8">
         <v>4</v>
@@ -9058,7 +9058,7 @@
         <v>233</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C75" s="8">
         <v>5</v>
@@ -9105,7 +9105,7 @@
         <v>234</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C76" s="8">
         <v>5</v>
@@ -9152,7 +9152,7 @@
         <v>235</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C77" s="8">
         <v>5</v>
@@ -9199,7 +9199,7 @@
         <v>236</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C78" s="8">
         <v>5</v>
@@ -9246,7 +9246,7 @@
         <v>237</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C79" s="8">
         <v>5</v>
@@ -9293,7 +9293,7 @@
         <v>238</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C80" s="8">
         <v>5</v>
@@ -9340,7 +9340,7 @@
         <v>239</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C81" s="8">
         <v>5</v>
@@ -9387,7 +9387,7 @@
         <v>240</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C82" s="8">
         <v>5</v>
@@ -9434,7 +9434,7 @@
         <v>241</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C83" s="8">
         <v>6</v>
@@ -9481,7 +9481,7 @@
         <v>242</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C84" s="8">
         <v>6</v>
@@ -9528,7 +9528,7 @@
         <v>243</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C85" s="8">
         <v>6</v>
@@ -9575,7 +9575,7 @@
         <v>244</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C86" s="8">
         <v>6</v>
@@ -9622,7 +9622,7 @@
         <v>245</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C87" s="8">
         <v>6</v>
@@ -9669,7 +9669,7 @@
         <v>246</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C88" s="8">
         <v>6</v>
@@ -9716,7 +9716,7 @@
         <v>247</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C89" s="8">
         <v>6</v>
@@ -9763,7 +9763,7 @@
         <v>248</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C90" s="8">
         <v>6</v>
@@ -9810,7 +9810,7 @@
         <v>249</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C91" s="8">
         <v>7</v>
@@ -9857,7 +9857,7 @@
         <v>250</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C92" s="8">
         <v>7</v>
@@ -9904,7 +9904,7 @@
         <v>251</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C93" s="8">
         <v>7</v>
@@ -9951,7 +9951,7 @@
         <v>252</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C94" s="8">
         <v>7</v>
@@ -9998,7 +9998,7 @@
         <v>253</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C95" s="8">
         <v>7</v>
@@ -10045,7 +10045,7 @@
         <v>254</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C96" s="8">
         <v>7</v>
@@ -10092,7 +10092,7 @@
         <v>255</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C97" s="8">
         <v>7</v>
@@ -10139,7 +10139,7 @@
         <v>256</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C98" s="8">
         <v>7</v>
@@ -10186,7 +10186,7 @@
         <v>257</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C99" s="8">
         <v>8</v>
@@ -10233,7 +10233,7 @@
         <v>258</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C100" s="8">
         <v>8</v>
@@ -10280,7 +10280,7 @@
         <v>259</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C101" s="8">
         <v>8</v>
@@ -10327,7 +10327,7 @@
         <v>260</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C102" s="8">
         <v>8</v>
@@ -10374,7 +10374,7 @@
         <v>261</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C103" s="8">
         <v>8</v>
@@ -10421,7 +10421,7 @@
         <v>262</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C104" s="8">
         <v>8</v>
@@ -10468,7 +10468,7 @@
         <v>263</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C105" s="8">
         <v>8</v>
@@ -10515,7 +10515,7 @@
         <v>264</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C106" s="8">
         <v>8</v>
@@ -10562,7 +10562,7 @@
         <v>301</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C107" s="8">
         <v>1</v>
@@ -10609,7 +10609,7 @@
         <v>302</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C108" s="8">
         <v>1</v>
@@ -10656,7 +10656,7 @@
         <v>303</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C109" s="8">
         <v>1</v>
@@ -10703,7 +10703,7 @@
         <v>304</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C110" s="8">
         <v>1</v>
@@ -10750,7 +10750,7 @@
         <v>305</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C111" s="8">
         <v>1</v>
@@ -10797,7 +10797,7 @@
         <v>306</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C112" s="8">
         <v>1</v>
@@ -10844,7 +10844,7 @@
         <v>307</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C113" s="8">
         <v>1</v>
@@ -10891,7 +10891,7 @@
         <v>308</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C114" s="8">
         <v>1</v>
@@ -10938,7 +10938,7 @@
         <v>309</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C115" s="8">
         <v>2</v>
@@ -10985,7 +10985,7 @@
         <v>310</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C116" s="8">
         <v>2</v>
@@ -11032,7 +11032,7 @@
         <v>311</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C117" s="8">
         <v>2</v>
@@ -11079,7 +11079,7 @@
         <v>312</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C118" s="8">
         <v>2</v>
@@ -11126,7 +11126,7 @@
         <v>313</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C119" s="8">
         <v>2</v>
@@ -11173,7 +11173,7 @@
         <v>314</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C120" s="8">
         <v>2</v>
@@ -11220,7 +11220,7 @@
         <v>315</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C121" s="8">
         <v>2</v>
@@ -11267,7 +11267,7 @@
         <v>316</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C122" s="8">
         <v>2</v>
@@ -11314,7 +11314,7 @@
         <v>317</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C123" s="8">
         <v>3</v>
@@ -11361,7 +11361,7 @@
         <v>318</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C124" s="8">
         <v>3</v>
@@ -11408,7 +11408,7 @@
         <v>319</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C125" s="8">
         <v>3</v>
@@ -11455,7 +11455,7 @@
         <v>320</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C126" s="8">
         <v>3</v>
@@ -11502,7 +11502,7 @@
         <v>321</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C127" s="8">
         <v>3</v>
@@ -11549,7 +11549,7 @@
         <v>322</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C128" s="8">
         <v>3</v>
@@ -11596,7 +11596,7 @@
         <v>323</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C129" s="8">
         <v>3</v>
@@ -11643,7 +11643,7 @@
         <v>324</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C130" s="8">
         <v>3</v>
@@ -11690,7 +11690,7 @@
         <v>325</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C131" s="8">
         <v>4</v>
@@ -11737,7 +11737,7 @@
         <v>326</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C132" s="8">
         <v>4</v>
@@ -11784,7 +11784,7 @@
         <v>327</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C133" s="8">
         <v>4</v>
@@ -11831,7 +11831,7 @@
         <v>328</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C134" s="8">
         <v>4</v>
@@ -11878,7 +11878,7 @@
         <v>329</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C135" s="8">
         <v>4</v>
@@ -11925,7 +11925,7 @@
         <v>330</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C136" s="8">
         <v>4</v>
@@ -11972,7 +11972,7 @@
         <v>331</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C137" s="8">
         <v>4</v>
@@ -12019,7 +12019,7 @@
         <v>332</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C138" s="8">
         <v>4</v>
@@ -12066,7 +12066,7 @@
         <v>333</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C139" s="8">
         <v>5</v>
@@ -12113,7 +12113,7 @@
         <v>334</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C140" s="8">
         <v>5</v>
@@ -12160,7 +12160,7 @@
         <v>335</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C141" s="8">
         <v>5</v>
@@ -12207,7 +12207,7 @@
         <v>336</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C142" s="8">
         <v>5</v>
@@ -12254,7 +12254,7 @@
         <v>337</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C143" s="8">
         <v>5</v>
@@ -12301,7 +12301,7 @@
         <v>338</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C144" s="8">
         <v>5</v>
@@ -12348,7 +12348,7 @@
         <v>339</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C145" s="8">
         <v>5</v>
@@ -12395,7 +12395,7 @@
         <v>340</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C146" s="8">
         <v>5</v>
@@ -12442,7 +12442,7 @@
         <v>341</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C147" s="8">
         <v>6</v>
@@ -12489,7 +12489,7 @@
         <v>342</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C148" s="8">
         <v>6</v>
@@ -12536,7 +12536,7 @@
         <v>343</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C149" s="8">
         <v>6</v>
@@ -12583,7 +12583,7 @@
         <v>344</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C150" s="8">
         <v>6</v>
@@ -12630,7 +12630,7 @@
         <v>345</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C151" s="8">
         <v>6</v>
@@ -12677,7 +12677,7 @@
         <v>346</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C152" s="8">
         <v>6</v>
@@ -12724,7 +12724,7 @@
         <v>347</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C153" s="8">
         <v>6</v>
@@ -12771,7 +12771,7 @@
         <v>348</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C154" s="8">
         <v>6</v>
@@ -12818,7 +12818,7 @@
         <v>349</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C155" s="8">
         <v>7</v>
@@ -12865,7 +12865,7 @@
         <v>350</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C156" s="8">
         <v>7</v>
@@ -12912,7 +12912,7 @@
         <v>351</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C157" s="8">
         <v>7</v>
@@ -12959,7 +12959,7 @@
         <v>352</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C158" s="8">
         <v>7</v>
@@ -13006,7 +13006,7 @@
         <v>353</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C159" s="8">
         <v>7</v>
@@ -13053,7 +13053,7 @@
         <v>354</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C160" s="8">
         <v>7</v>
@@ -13100,7 +13100,7 @@
         <v>355</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C161" s="8">
         <v>7</v>
@@ -13147,7 +13147,7 @@
         <v>356</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C162" s="8">
         <v>7</v>
@@ -13194,7 +13194,7 @@
         <v>357</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C163" s="8">
         <v>8</v>
@@ -13241,7 +13241,7 @@
         <v>358</v>
       </c>
       <c r="B164" s="8" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C164" s="8">
         <v>8</v>
@@ -13288,7 +13288,7 @@
         <v>359</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C165" s="8">
         <v>8</v>
@@ -13335,7 +13335,7 @@
         <v>360</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C166" s="8">
         <v>8</v>
@@ -13382,7 +13382,7 @@
         <v>361</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C167" s="8">
         <v>8</v>
@@ -13429,7 +13429,7 @@
         <v>362</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C168" s="8">
         <v>8</v>
@@ -13476,7 +13476,7 @@
         <v>363</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C169" s="8">
         <v>8</v>
@@ -13523,7 +13523,7 @@
         <v>364</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C170" s="8">
         <v>8</v>
@@ -13570,7 +13570,7 @@
         <v>401</v>
       </c>
       <c r="B171" s="8" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C171" s="8">
         <v>1</v>
@@ -13617,7 +13617,7 @@
         <v>401</v>
       </c>
       <c r="B172" s="8" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C172" s="8">
         <v>1</v>
@@ -13664,7 +13664,7 @@
         <v>401</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C173" s="8">
         <v>1</v>
@@ -13711,7 +13711,7 @@
         <v>401</v>
       </c>
       <c r="B174" s="8" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C174" s="8">
         <v>1</v>
@@ -13758,7 +13758,7 @@
         <v>401</v>
       </c>
       <c r="B175" s="8" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C175" s="8">
         <v>1</v>
@@ -13805,7 +13805,7 @@
         <v>401</v>
       </c>
       <c r="B176" s="8" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C176" s="8">
         <v>1</v>
@@ -13852,7 +13852,7 @@
         <v>401</v>
       </c>
       <c r="B177" s="8" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C177" s="8">
         <v>1</v>
@@ -13899,7 +13899,7 @@
         <v>401</v>
       </c>
       <c r="B178" s="8" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C178" s="8">
         <v>1</v>
@@ -13946,7 +13946,7 @@
         <v>401</v>
       </c>
       <c r="B179" s="8" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C179" s="8">
         <v>2</v>
@@ -13993,7 +13993,7 @@
         <v>401</v>
       </c>
       <c r="B180" s="8" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C180" s="8">
         <v>2</v>
@@ -14040,7 +14040,7 @@
         <v>401</v>
       </c>
       <c r="B181" s="8" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C181" s="8">
         <v>2</v>
@@ -14087,7 +14087,7 @@
         <v>401</v>
       </c>
       <c r="B182" s="8" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C182" s="8">
         <v>2</v>
@@ -14134,7 +14134,7 @@
         <v>401</v>
       </c>
       <c r="B183" s="8" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C183" s="8">
         <v>2</v>
@@ -14181,7 +14181,7 @@
         <v>401</v>
       </c>
       <c r="B184" s="8" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C184" s="8">
         <v>2</v>
@@ -14228,7 +14228,7 @@
         <v>401</v>
       </c>
       <c r="B185" s="8" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C185" s="8">
         <v>2</v>
@@ -14275,7 +14275,7 @@
         <v>401</v>
       </c>
       <c r="B186" s="8" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C186" s="8">
         <v>2</v>
@@ -14322,7 +14322,7 @@
         <v>401</v>
       </c>
       <c r="B187" s="8" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C187" s="8">
         <v>3</v>
@@ -14369,7 +14369,7 @@
         <v>401</v>
       </c>
       <c r="B188" s="8" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C188" s="8">
         <v>3</v>
@@ -14416,7 +14416,7 @@
         <v>401</v>
       </c>
       <c r="B189" s="8" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C189" s="8">
         <v>3</v>
@@ -14463,7 +14463,7 @@
         <v>401</v>
       </c>
       <c r="B190" s="8" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C190" s="8">
         <v>3</v>
@@ -14510,7 +14510,7 @@
         <v>401</v>
       </c>
       <c r="B191" s="8" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C191" s="8">
         <v>3</v>
@@ -14557,7 +14557,7 @@
         <v>401</v>
       </c>
       <c r="B192" s="8" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C192" s="8">
         <v>3</v>
@@ -14604,7 +14604,7 @@
         <v>401</v>
       </c>
       <c r="B193" s="8" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C193" s="8">
         <v>3</v>
@@ -14651,7 +14651,7 @@
         <v>401</v>
       </c>
       <c r="B194" s="8" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C194" s="8">
         <v>3</v>
@@ -14698,7 +14698,7 @@
         <v>401</v>
       </c>
       <c r="B195" s="8" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C195" s="8">
         <v>4</v>
@@ -14745,7 +14745,7 @@
         <v>401</v>
       </c>
       <c r="B196" s="8" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C196" s="8">
         <v>4</v>
@@ -14792,7 +14792,7 @@
         <v>401</v>
       </c>
       <c r="B197" s="8" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C197" s="8">
         <v>4</v>
@@ -14839,7 +14839,7 @@
         <v>401</v>
       </c>
       <c r="B198" s="8" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C198" s="8">
         <v>4</v>
@@ -14886,7 +14886,7 @@
         <v>401</v>
       </c>
       <c r="B199" s="8" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C199" s="8">
         <v>4</v>
@@ -14933,7 +14933,7 @@
         <v>401</v>
       </c>
       <c r="B200" s="8" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C200" s="8">
         <v>4</v>
@@ -14980,7 +14980,7 @@
         <v>401</v>
       </c>
       <c r="B201" s="8" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C201" s="8">
         <v>4</v>
@@ -15027,7 +15027,7 @@
         <v>401</v>
       </c>
       <c r="B202" s="8" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C202" s="8">
         <v>4</v>
@@ -15074,7 +15074,7 @@
         <v>401</v>
       </c>
       <c r="B203" s="8" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C203" s="8">
         <v>5</v>
@@ -15121,7 +15121,7 @@
         <v>401</v>
       </c>
       <c r="B204" s="8" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C204" s="8">
         <v>5</v>
@@ -15168,7 +15168,7 @@
         <v>401</v>
       </c>
       <c r="B205" s="8" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C205" s="8">
         <v>5</v>
@@ -15215,7 +15215,7 @@
         <v>401</v>
       </c>
       <c r="B206" s="8" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C206" s="8">
         <v>5</v>
@@ -15262,7 +15262,7 @@
         <v>401</v>
       </c>
       <c r="B207" s="8" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C207" s="8">
         <v>5</v>
@@ -15309,7 +15309,7 @@
         <v>401</v>
       </c>
       <c r="B208" s="8" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C208" s="8">
         <v>5</v>
@@ -15356,7 +15356,7 @@
         <v>401</v>
       </c>
       <c r="B209" s="8" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C209" s="8">
         <v>5</v>
@@ -15403,7 +15403,7 @@
         <v>401</v>
       </c>
       <c r="B210" s="8" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C210" s="8">
         <v>5</v>
@@ -15450,7 +15450,7 @@
         <v>401</v>
       </c>
       <c r="B211" s="8" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C211" s="8">
         <v>6</v>
@@ -15497,7 +15497,7 @@
         <v>401</v>
       </c>
       <c r="B212" s="8" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C212" s="8">
         <v>6</v>
@@ -15544,7 +15544,7 @@
         <v>401</v>
       </c>
       <c r="B213" s="8" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C213" s="8">
         <v>6</v>
@@ -15591,7 +15591,7 @@
         <v>401</v>
       </c>
       <c r="B214" s="8" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C214" s="8">
         <v>6</v>
@@ -15638,7 +15638,7 @@
         <v>401</v>
       </c>
       <c r="B215" s="8" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C215" s="8">
         <v>6</v>
@@ -15685,7 +15685,7 @@
         <v>401</v>
       </c>
       <c r="B216" s="8" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C216" s="8">
         <v>6</v>
@@ -15732,7 +15732,7 @@
         <v>401</v>
       </c>
       <c r="B217" s="8" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C217" s="8">
         <v>6</v>
@@ -15779,7 +15779,7 @@
         <v>401</v>
       </c>
       <c r="B218" s="8" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C218" s="8">
         <v>6</v>
@@ -15826,7 +15826,7 @@
         <v>401</v>
       </c>
       <c r="B219" s="8" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C219" s="8">
         <v>7</v>
@@ -15873,7 +15873,7 @@
         <v>401</v>
       </c>
       <c r="B220" s="8" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C220" s="8">
         <v>7</v>
@@ -15920,7 +15920,7 @@
         <v>401</v>
       </c>
       <c r="B221" s="8" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C221" s="8">
         <v>7</v>
@@ -15967,7 +15967,7 @@
         <v>401</v>
       </c>
       <c r="B222" s="8" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C222" s="8">
         <v>7</v>
@@ -16014,7 +16014,7 @@
         <v>401</v>
       </c>
       <c r="B223" s="8" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C223" s="8">
         <v>7</v>
@@ -16061,7 +16061,7 @@
         <v>401</v>
       </c>
       <c r="B224" s="8" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C224" s="8">
         <v>7</v>
@@ -16108,7 +16108,7 @@
         <v>401</v>
       </c>
       <c r="B225" s="8" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C225" s="8">
         <v>7</v>
@@ -16155,7 +16155,7 @@
         <v>401</v>
       </c>
       <c r="B226" s="8" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C226" s="8">
         <v>7</v>
@@ -16202,7 +16202,7 @@
         <v>401</v>
       </c>
       <c r="B227" s="8" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C227" s="8">
         <v>8</v>
@@ -16249,7 +16249,7 @@
         <v>401</v>
       </c>
       <c r="B228" s="8" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C228" s="8">
         <v>8</v>
@@ -16296,7 +16296,7 @@
         <v>401</v>
       </c>
       <c r="B229" s="8" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C229" s="8">
         <v>8</v>
@@ -16343,7 +16343,7 @@
         <v>401</v>
       </c>
       <c r="B230" s="8" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C230" s="8">
         <v>8</v>
@@ -16390,7 +16390,7 @@
         <v>401</v>
       </c>
       <c r="B231" s="8" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C231" s="8">
         <v>8</v>
@@ -16437,7 +16437,7 @@
         <v>401</v>
       </c>
       <c r="B232" s="8" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C232" s="8">
         <v>8</v>
@@ -16484,7 +16484,7 @@
         <v>401</v>
       </c>
       <c r="B233" s="8" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C233" s="8">
         <v>8</v>
@@ -16531,7 +16531,7 @@
         <v>401</v>
       </c>
       <c r="B234" s="8" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C234" s="8">
         <v>8</v>
@@ -16578,7 +16578,7 @@
         <v>501</v>
       </c>
       <c r="B235" s="8" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C235" s="8">
         <v>1</v>
@@ -16625,7 +16625,7 @@
         <v>501</v>
       </c>
       <c r="B236" s="8" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C236" s="8">
         <v>1</v>
@@ -16672,7 +16672,7 @@
         <v>501</v>
       </c>
       <c r="B237" s="8" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C237" s="8">
         <v>1</v>
@@ -16719,7 +16719,7 @@
         <v>501</v>
       </c>
       <c r="B238" s="8" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C238" s="8">
         <v>1</v>
@@ -16766,7 +16766,7 @@
         <v>501</v>
       </c>
       <c r="B239" s="8" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C239" s="8">
         <v>1</v>
@@ -16813,7 +16813,7 @@
         <v>501</v>
       </c>
       <c r="B240" s="8" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C240" s="8">
         <v>1</v>
@@ -16860,7 +16860,7 @@
         <v>501</v>
       </c>
       <c r="B241" s="8" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C241" s="8">
         <v>1</v>
@@ -16907,7 +16907,7 @@
         <v>501</v>
       </c>
       <c r="B242" s="8" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C242" s="8">
         <v>1</v>
@@ -16954,7 +16954,7 @@
         <v>501</v>
       </c>
       <c r="B243" s="8" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C243" s="8">
         <v>2</v>
@@ -17001,7 +17001,7 @@
         <v>501</v>
       </c>
       <c r="B244" s="8" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C244" s="8">
         <v>2</v>
@@ -17048,7 +17048,7 @@
         <v>501</v>
       </c>
       <c r="B245" s="8" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C245" s="8">
         <v>2</v>
@@ -17095,7 +17095,7 @@
         <v>501</v>
       </c>
       <c r="B246" s="8" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C246" s="8">
         <v>2</v>
@@ -17142,7 +17142,7 @@
         <v>501</v>
       </c>
       <c r="B247" s="8" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C247" s="8">
         <v>2</v>
@@ -17189,7 +17189,7 @@
         <v>501</v>
       </c>
       <c r="B248" s="8" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C248" s="8">
         <v>2</v>
@@ -17236,7 +17236,7 @@
         <v>501</v>
       </c>
       <c r="B249" s="8" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C249" s="8">
         <v>2</v>
@@ -17283,7 +17283,7 @@
         <v>501</v>
       </c>
       <c r="B250" s="8" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C250" s="8">
         <v>2</v>
@@ -17330,7 +17330,7 @@
         <v>501</v>
       </c>
       <c r="B251" s="8" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C251" s="8">
         <v>3</v>
@@ -17377,7 +17377,7 @@
         <v>501</v>
       </c>
       <c r="B252" s="8" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C252" s="8">
         <v>3</v>
@@ -17424,7 +17424,7 @@
         <v>501</v>
       </c>
       <c r="B253" s="8" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C253" s="8">
         <v>3</v>
@@ -17471,7 +17471,7 @@
         <v>501</v>
       </c>
       <c r="B254" s="8" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C254" s="8">
         <v>3</v>
@@ -17518,7 +17518,7 @@
         <v>501</v>
       </c>
       <c r="B255" s="8" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C255" s="8">
         <v>3</v>
@@ -17565,7 +17565,7 @@
         <v>501</v>
       </c>
       <c r="B256" s="8" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C256" s="8">
         <v>3</v>
@@ -17612,7 +17612,7 @@
         <v>501</v>
       </c>
       <c r="B257" s="8" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C257" s="8">
         <v>3</v>
@@ -17659,7 +17659,7 @@
         <v>501</v>
       </c>
       <c r="B258" s="8" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C258" s="8">
         <v>3</v>
@@ -17706,7 +17706,7 @@
         <v>501</v>
       </c>
       <c r="B259" s="8" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C259" s="8">
         <v>4</v>
@@ -17753,7 +17753,7 @@
         <v>501</v>
       </c>
       <c r="B260" s="8" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C260" s="8">
         <v>4</v>
@@ -17800,7 +17800,7 @@
         <v>501</v>
       </c>
       <c r="B261" s="8" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C261" s="8">
         <v>4</v>
@@ -17847,7 +17847,7 @@
         <v>501</v>
       </c>
       <c r="B262" s="8" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C262" s="8">
         <v>4</v>
@@ -17894,7 +17894,7 @@
         <v>501</v>
       </c>
       <c r="B263" s="8" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C263" s="8">
         <v>4</v>
@@ -17941,7 +17941,7 @@
         <v>501</v>
       </c>
       <c r="B264" s="8" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C264" s="8">
         <v>4</v>
@@ -17988,7 +17988,7 @@
         <v>501</v>
       </c>
       <c r="B265" s="8" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C265" s="8">
         <v>4</v>
@@ -18035,7 +18035,7 @@
         <v>501</v>
       </c>
       <c r="B266" s="8" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C266" s="8">
         <v>4</v>
@@ -18082,7 +18082,7 @@
         <v>501</v>
       </c>
       <c r="B267" s="8" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C267" s="8">
         <v>5</v>
@@ -18129,7 +18129,7 @@
         <v>501</v>
       </c>
       <c r="B268" s="8" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C268" s="8">
         <v>5</v>
@@ -18176,7 +18176,7 @@
         <v>501</v>
       </c>
       <c r="B269" s="8" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C269" s="8">
         <v>5</v>
@@ -18223,7 +18223,7 @@
         <v>501</v>
       </c>
       <c r="B270" s="8" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C270" s="8">
         <v>5</v>
@@ -18270,7 +18270,7 @@
         <v>501</v>
       </c>
       <c r="B271" s="8" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C271" s="8">
         <v>5</v>
@@ -18317,7 +18317,7 @@
         <v>501</v>
       </c>
       <c r="B272" s="8" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C272" s="8">
         <v>5</v>
@@ -18364,7 +18364,7 @@
         <v>501</v>
       </c>
       <c r="B273" s="8" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C273" s="8">
         <v>5</v>
@@ -18411,7 +18411,7 @@
         <v>501</v>
       </c>
       <c r="B274" s="8" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C274" s="8">
         <v>5</v>
@@ -18458,7 +18458,7 @@
         <v>501</v>
       </c>
       <c r="B275" s="8" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C275" s="8">
         <v>6</v>
@@ -18505,7 +18505,7 @@
         <v>501</v>
       </c>
       <c r="B276" s="8" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C276" s="8">
         <v>6</v>
@@ -18552,7 +18552,7 @@
         <v>501</v>
       </c>
       <c r="B277" s="8" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C277" s="8">
         <v>6</v>
@@ -18599,7 +18599,7 @@
         <v>501</v>
       </c>
       <c r="B278" s="8" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C278" s="8">
         <v>6</v>
@@ -18646,7 +18646,7 @@
         <v>501</v>
       </c>
       <c r="B279" s="8" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C279" s="8">
         <v>6</v>
@@ -18693,7 +18693,7 @@
         <v>501</v>
       </c>
       <c r="B280" s="8" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C280" s="8">
         <v>6</v>
@@ -18740,7 +18740,7 @@
         <v>501</v>
       </c>
       <c r="B281" s="8" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C281" s="8">
         <v>6</v>
@@ -18787,7 +18787,7 @@
         <v>501</v>
       </c>
       <c r="B282" s="8" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C282" s="8">
         <v>6</v>
@@ -18834,7 +18834,7 @@
         <v>501</v>
       </c>
       <c r="B283" s="8" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C283" s="8">
         <v>7</v>
@@ -18881,7 +18881,7 @@
         <v>501</v>
       </c>
       <c r="B284" s="8" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C284" s="8">
         <v>7</v>
@@ -18928,7 +18928,7 @@
         <v>501</v>
       </c>
       <c r="B285" s="8" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C285" s="8">
         <v>7</v>
@@ -18975,7 +18975,7 @@
         <v>501</v>
       </c>
       <c r="B286" s="8" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C286" s="8">
         <v>7</v>
@@ -19022,7 +19022,7 @@
         <v>501</v>
       </c>
       <c r="B287" s="8" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C287" s="8">
         <v>7</v>
@@ -19069,7 +19069,7 @@
         <v>501</v>
       </c>
       <c r="B288" s="8" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C288" s="8">
         <v>7</v>
@@ -19116,7 +19116,7 @@
         <v>501</v>
       </c>
       <c r="B289" s="8" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C289" s="8">
         <v>7</v>
@@ -19163,7 +19163,7 @@
         <v>501</v>
       </c>
       <c r="B290" s="8" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C290" s="8">
         <v>7</v>
@@ -19210,7 +19210,7 @@
         <v>501</v>
       </c>
       <c r="B291" s="8" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C291" s="8">
         <v>8</v>
@@ -19257,7 +19257,7 @@
         <v>501</v>
       </c>
       <c r="B292" s="8" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C292" s="8">
         <v>8</v>
@@ -19304,7 +19304,7 @@
         <v>501</v>
       </c>
       <c r="B293" s="8" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C293" s="8">
         <v>8</v>
@@ -19351,7 +19351,7 @@
         <v>501</v>
       </c>
       <c r="B294" s="8" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C294" s="8">
         <v>8</v>
@@ -19398,7 +19398,7 @@
         <v>501</v>
       </c>
       <c r="B295" s="8" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C295" s="8">
         <v>8</v>
@@ -19445,7 +19445,7 @@
         <v>501</v>
       </c>
       <c r="B296" s="8" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C296" s="8">
         <v>8</v>
@@ -19492,7 +19492,7 @@
         <v>501</v>
       </c>
       <c r="B297" s="8" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C297" s="8">
         <v>8</v>
@@ -19538,8 +19538,8 @@
       <c r="A298" s="13">
         <v>501</v>
       </c>
-      <c r="B298" s="14" t="s">
-        <v>29</v>
+      <c r="B298" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="C298" s="14">
         <v>8</v>
@@ -32519,7 +32519,7 @@
   <sheetPr/>
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>

--- a/excels/config/difficulty_config.xlsx
+++ b/excels/config/difficulty_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12345" tabRatio="804"/>
+    <workbookView windowWidth="27945" windowHeight="12255" tabRatio="804"/>
   </bookViews>
   <sheets>
     <sheet name="chapter_info" sheetId="7" r:id="rId1"/>
@@ -4620,12 +4620,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="4" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{6F061A84-EAF4-4486-BDB0-6E1D13615CF6}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{36CB41B3-5050-4AFF-A54F-A27DF67A8B41}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
     </tableStyle>
-    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{121428B8-4568-455B-9E40-361E02511420}">
+    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{17B0EB82-666F-4865-9474-4CF29900808F}">
       <tableStyleElement type="wholeTable" dxfId="16"/>
       <tableStyleElement type="headerRow" dxfId="15"/>
       <tableStyleElement type="totalRow" dxfId="14"/>
@@ -4639,7 +4639,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="6"/>
       <tableStyleElement type="lastTotalCell" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{7D73983D-9DB4-424C-9571-F95593EF2C9F}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{AA099BC4-F123-4275-86F6-BF34683C6988}">
       <tableStyleElement type="wholeTable" dxfId="26"/>
       <tableStyleElement type="headerRow" dxfId="25"/>
       <tableStyleElement type="totalRow" dxfId="24"/>
@@ -4651,7 +4651,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="18"/>
       <tableStyleElement type="lastTotalCell" dxfId="17"/>
     </tableStyle>
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{E1DFA132-CD99-4AA6-B994-A96B3FA959B8}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{D7B0AB6E-8C38-4342-AF2C-E3E44EDF98DD}">
       <tableStyleElement type="wholeTable" dxfId="33"/>
       <tableStyleElement type="headerRow" dxfId="32"/>
       <tableStyleElement type="totalRow" dxfId="31"/>
@@ -4958,8 +4958,8 @@
   <sheetPr/>
   <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" topLeftCell="C32" workbookViewId="0">
+      <selection activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5337,10 +5337,10 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>600</v>
+        <v>231</v>
       </c>
       <c r="M8">
-        <v>580</v>
+        <v>651</v>
       </c>
       <c r="N8" s="98" t="s">
         <v>38</v>
@@ -5384,10 +5384,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="M9">
-        <v>450</v>
+        <v>495</v>
       </c>
       <c r="N9" s="98" t="s">
         <v>38</v>
@@ -5431,10 +5431,10 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1200</v>
+        <v>559</v>
       </c>
       <c r="M10">
-        <v>380</v>
+        <v>553</v>
       </c>
       <c r="N10" s="98" t="s">
         <v>38</v>
@@ -5478,10 +5478,10 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>400</v>
+        <v>967</v>
       </c>
       <c r="M11">
-        <v>250</v>
+        <v>537</v>
       </c>
       <c r="N11" s="98" t="s">
         <v>38</v>
@@ -5525,10 +5525,10 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>800</v>
+        <v>1195</v>
       </c>
       <c r="M12">
-        <v>160</v>
+        <v>420</v>
       </c>
       <c r="N12" s="98" t="s">
         <v>38</v>
@@ -5572,10 +5572,10 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>300</v>
+        <v>773</v>
       </c>
       <c r="M13">
-        <v>120</v>
+        <v>380</v>
       </c>
       <c r="N13" s="98" t="s">
         <v>38</v>
@@ -5619,10 +5619,10 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>600</v>
+        <v>390</v>
       </c>
       <c r="M14">
-        <v>80</v>
+        <v>228</v>
       </c>
       <c r="N14" s="98" t="s">
         <v>38</v>
@@ -5666,10 +5666,10 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>600</v>
+        <v>760</v>
       </c>
       <c r="M15">
-        <v>580</v>
+        <v>84</v>
       </c>
       <c r="N15" s="98" t="s">
         <v>38</v>
@@ -5713,10 +5713,10 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>600</v>
+        <v>1296</v>
       </c>
       <c r="M16">
-        <v>580</v>
+        <v>692</v>
       </c>
       <c r="N16" s="98" t="s">
         <v>48</v>
@@ -5760,10 +5760,10 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>200</v>
+        <v>862</v>
       </c>
       <c r="M17">
-        <v>450</v>
+        <v>572</v>
       </c>
       <c r="N17" s="98" t="s">
         <v>48</v>
@@ -5807,10 +5807,10 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1200</v>
+        <v>594</v>
       </c>
       <c r="M18">
-        <v>380</v>
+        <v>693</v>
       </c>
       <c r="N18" s="98" t="s">
         <v>48</v>
@@ -5854,10 +5854,10 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>400</v>
+        <v>229</v>
       </c>
       <c r="M19">
-        <v>250</v>
+        <v>580</v>
       </c>
       <c r="N19" s="98" t="s">
         <v>48</v>
@@ -5901,10 +5901,10 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>800</v>
+        <v>504</v>
       </c>
       <c r="M20">
-        <v>160</v>
+        <v>373</v>
       </c>
       <c r="N20" s="98" t="s">
         <v>48</v>
@@ -5948,10 +5948,10 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>300</v>
+        <v>351</v>
       </c>
       <c r="M21">
-        <v>120</v>
+        <v>280</v>
       </c>
       <c r="N21" s="98" t="s">
         <v>48</v>
@@ -5995,10 +5995,10 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>600</v>
+        <v>1036</v>
       </c>
       <c r="M22">
-        <v>80</v>
+        <v>471</v>
       </c>
       <c r="N22" s="98" t="s">
         <v>48</v>
@@ -6042,10 +6042,10 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M23">
-        <v>580</v>
+        <v>207</v>
       </c>
       <c r="N23" s="98" t="s">
         <v>48</v>
@@ -6089,10 +6089,10 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>600</v>
+        <v>489</v>
       </c>
       <c r="M24">
-        <v>580</v>
+        <v>693</v>
       </c>
       <c r="N24" s="98" t="s">
         <v>58</v>
@@ -6136,10 +6136,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>200</v>
+        <v>852</v>
       </c>
       <c r="M25">
-        <v>450</v>
+        <v>630</v>
       </c>
       <c r="N25" s="98" t="s">
         <v>58</v>
@@ -6183,10 +6183,10 @@
         <v>0</v>
       </c>
       <c r="L26">
-        <v>1200</v>
+        <v>1012</v>
       </c>
       <c r="M26">
-        <v>380</v>
+        <v>493</v>
       </c>
       <c r="N26" s="98" t="s">
         <v>58</v>
@@ -6230,10 +6230,10 @@
         <v>0</v>
       </c>
       <c r="L27">
-        <v>400</v>
+        <v>673</v>
       </c>
       <c r="M27">
-        <v>250</v>
+        <v>453</v>
       </c>
       <c r="N27" s="98" t="s">
         <v>58</v>
@@ -6277,10 +6277,10 @@
         <v>0</v>
       </c>
       <c r="L28">
-        <v>800</v>
+        <v>326</v>
       </c>
       <c r="M28">
-        <v>160</v>
+        <v>301</v>
       </c>
       <c r="N28" s="98" t="s">
         <v>58</v>
@@ -6324,10 +6324,10 @@
         <v>0</v>
       </c>
       <c r="L29">
-        <v>300</v>
+        <v>882</v>
       </c>
       <c r="M29">
-        <v>120</v>
+        <v>322</v>
       </c>
       <c r="N29" s="98" t="s">
         <v>58</v>
@@ -6371,10 +6371,10 @@
         <v>0</v>
       </c>
       <c r="L30">
-        <v>600</v>
+        <v>1131</v>
       </c>
       <c r="M30">
-        <v>80</v>
+        <v>260</v>
       </c>
       <c r="N30" s="98" t="s">
         <v>58</v>
@@ -6418,10 +6418,10 @@
         <v>0</v>
       </c>
       <c r="L31">
-        <v>600</v>
+        <v>783</v>
       </c>
       <c r="M31">
-        <v>580</v>
+        <v>117</v>
       </c>
       <c r="N31" s="98" t="s">
         <v>58</v>
@@ -6465,10 +6465,10 @@
         <v>0</v>
       </c>
       <c r="L32">
-        <v>600</v>
+        <v>112</v>
       </c>
       <c r="M32">
-        <v>580</v>
+        <v>657</v>
       </c>
       <c r="N32" s="98" t="s">
         <v>68</v>
@@ -6512,10 +6512,10 @@
         <v>0</v>
       </c>
       <c r="L33">
-        <v>200</v>
+        <v>598</v>
       </c>
       <c r="M33">
-        <v>450</v>
+        <v>634</v>
       </c>
       <c r="N33" s="98" t="s">
         <v>68</v>
@@ -6559,10 +6559,10 @@
         <v>0</v>
       </c>
       <c r="L34">
-        <v>1200</v>
+        <v>811</v>
       </c>
       <c r="M34">
-        <v>380</v>
+        <v>513</v>
       </c>
       <c r="N34" s="98" t="s">
         <v>68</v>
@@ -6606,10 +6606,10 @@
         <v>0</v>
       </c>
       <c r="L35">
-        <v>400</v>
+        <v>1278</v>
       </c>
       <c r="M35">
-        <v>250</v>
+        <v>640</v>
       </c>
       <c r="N35" s="98" t="s">
         <v>68</v>
@@ -6653,10 +6653,10 @@
         <v>0</v>
       </c>
       <c r="L36">
-        <v>800</v>
+        <v>1237</v>
       </c>
       <c r="M36">
-        <v>160</v>
+        <v>429</v>
       </c>
       <c r="N36" s="98" t="s">
         <v>68</v>
@@ -6700,10 +6700,10 @@
         <v>0</v>
       </c>
       <c r="L37">
-        <v>300</v>
+        <v>354</v>
       </c>
       <c r="M37">
-        <v>120</v>
+        <v>382</v>
       </c>
       <c r="N37" s="98" t="s">
         <v>68</v>
@@ -6747,10 +6747,10 @@
         <v>0</v>
       </c>
       <c r="L38">
-        <v>600</v>
+        <v>664</v>
       </c>
       <c r="M38">
-        <v>80</v>
+        <v>169</v>
       </c>
       <c r="N38" s="98" t="s">
         <v>68</v>
@@ -6794,10 +6794,10 @@
         <v>0</v>
       </c>
       <c r="L39">
-        <v>600</v>
+        <v>1053</v>
       </c>
       <c r="M39">
-        <v>580</v>
+        <v>160</v>
       </c>
       <c r="N39" s="98" t="s">
         <v>68</v>

--- a/excels/config/difficulty_config.xlsx
+++ b/excels/config/difficulty_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22185" windowHeight="10155" tabRatio="804" activeTab="3"/>
+    <workbookView windowWidth="27945" windowHeight="12255" tabRatio="804" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="chapter_info" sheetId="7" r:id="rId1"/>
@@ -4628,12 +4628,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="4" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{E878CA91-81C9-422F-B63E-CBD60FEE89ED}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{03FB6467-9DA8-495E-A55D-1EF53A25B62D}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
     </tableStyle>
-    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{7620E4C7-E6EB-4EEF-B53C-12D6972BE05B}">
+    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{E11E4352-2EE9-4929-B31E-A0660CFD3665}">
       <tableStyleElement type="wholeTable" dxfId="16"/>
       <tableStyleElement type="headerRow" dxfId="15"/>
       <tableStyleElement type="totalRow" dxfId="14"/>
@@ -4647,7 +4647,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="6"/>
       <tableStyleElement type="lastTotalCell" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{CFB94649-3EC6-4762-90D3-C32377131366}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{F7AF60BC-1D8E-428C-9857-C338BCA8AD53}">
       <tableStyleElement type="wholeTable" dxfId="26"/>
       <tableStyleElement type="headerRow" dxfId="25"/>
       <tableStyleElement type="totalRow" dxfId="24"/>
@@ -4659,7 +4659,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="18"/>
       <tableStyleElement type="lastTotalCell" dxfId="17"/>
     </tableStyle>
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{1509F358-5CEA-4A1F-8BBC-015B133BC37E}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{CD4D83F6-68BD-4076-BCE9-9095B68890ED}">
       <tableStyleElement type="wholeTable" dxfId="33"/>
       <tableStyleElement type="headerRow" dxfId="32"/>
       <tableStyleElement type="totalRow" dxfId="31"/>
@@ -4966,8 +4966,8 @@
   <sheetPr/>
   <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView topLeftCell="C17" workbookViewId="0">
-      <selection activeCell="N35" sqref="N35"/>
+    <sheetView topLeftCell="D28" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6826,7 +6826,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="2"/>
@@ -7131,10 +7131,10 @@
   <sheetPr/>
   <dimension ref="A1:P298"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" topLeftCell="L1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="G1" sqref="G1"/>
+      <selection pane="topRight" activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -22297,10 +22297,10 @@
   <sheetPr/>
   <dimension ref="A1:AE147"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="R1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C111" sqref="C111"/>
+      <selection pane="bottomLeft" activeCell="AA6" sqref="AA6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>

--- a/excels/config/difficulty_config.xlsx
+++ b/excels/config/difficulty_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255" tabRatio="804" activeTab="4"/>
+    <workbookView windowWidth="27945" windowHeight="12945" tabRatio="804" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="chapter_info" sheetId="7" r:id="rId1"/>
@@ -4628,12 +4628,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="4" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{03FB6467-9DA8-495E-A55D-1EF53A25B62D}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{3906398E-4617-46EC-B439-EBAF05CFF9D6}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
     </tableStyle>
-    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{E11E4352-2EE9-4929-B31E-A0660CFD3665}">
+    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{B0E637F6-8184-4EA4-85F6-543BAABE2FED}">
       <tableStyleElement type="wholeTable" dxfId="16"/>
       <tableStyleElement type="headerRow" dxfId="15"/>
       <tableStyleElement type="totalRow" dxfId="14"/>
@@ -4647,7 +4647,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="6"/>
       <tableStyleElement type="lastTotalCell" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{F7AF60BC-1D8E-428C-9857-C338BCA8AD53}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{B50E9C11-4C8A-484C-A151-2440248F7655}">
       <tableStyleElement type="wholeTable" dxfId="26"/>
       <tableStyleElement type="headerRow" dxfId="25"/>
       <tableStyleElement type="totalRow" dxfId="24"/>
@@ -4659,7 +4659,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="18"/>
       <tableStyleElement type="lastTotalCell" dxfId="17"/>
     </tableStyle>
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{CD4D83F6-68BD-4076-BCE9-9095B68890ED}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{F973048F-AAB1-4975-84AE-02BF0A5299C4}">
       <tableStyleElement type="wholeTable" dxfId="33"/>
       <tableStyleElement type="headerRow" dxfId="32"/>
       <tableStyleElement type="totalRow" dxfId="31"/>
@@ -4967,7 +4967,7 @@
   <dimension ref="A1:O39"/>
   <sheetViews>
     <sheetView topLeftCell="D28" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6826,7 +6826,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="2"/>
@@ -6923,7 +6923,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:C2"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="7"/>
@@ -7134,7 +7134,7 @@
     <sheetView workbookViewId="0">
       <pane xSplit="2" topLeftCell="L1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="Q3" sqref="Q3"/>
+      <selection pane="topRight" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -22297,10 +22297,10 @@
   <sheetPr/>
   <dimension ref="A1:AE147"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="R1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="AA6" sqref="AA6"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -35160,7 +35160,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -35390,7 +35390,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F36" sqref="F36"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/excels/config/difficulty_config.xlsx
+++ b/excels/config/difficulty_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255" tabRatio="804" activeTab="4"/>
+    <workbookView windowWidth="27945" windowHeight="11895" tabRatio="804" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="chapter_info" sheetId="7" r:id="rId1"/>
@@ -4640,12 +4640,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="4" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{DFD1C1B9-FE69-48A3-95AB-1E51E076BEA4}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{073FC207-2BA9-4F44-937F-31E8837ACA6A}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
     </tableStyle>
-    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{75C5391A-7EDB-4FCA-8D8B-E135C7DC2961}">
+    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{812D6598-39B2-4610-A8B1-DA227DACAC76}">
       <tableStyleElement type="wholeTable" dxfId="16"/>
       <tableStyleElement type="headerRow" dxfId="15"/>
       <tableStyleElement type="totalRow" dxfId="14"/>
@@ -4659,7 +4659,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="6"/>
       <tableStyleElement type="lastTotalCell" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{E71E3159-F6AA-4866-AD6C-DE90640DA77A}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{310F8FBA-D5F1-47DA-A7B1-CF9F76543743}">
       <tableStyleElement type="wholeTable" dxfId="26"/>
       <tableStyleElement type="headerRow" dxfId="25"/>
       <tableStyleElement type="totalRow" dxfId="24"/>
@@ -4671,7 +4671,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="18"/>
       <tableStyleElement type="lastTotalCell" dxfId="17"/>
     </tableStyle>
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{68A8F8CA-1218-4A67-86BE-708EEF0EF984}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{3126A559-0C2C-4B1F-A70B-4F6C400AB1A8}">
       <tableStyleElement type="wholeTable" dxfId="33"/>
       <tableStyleElement type="headerRow" dxfId="32"/>
       <tableStyleElement type="totalRow" dxfId="31"/>
@@ -12679,10 +12679,10 @@
   <sheetPr/>
   <dimension ref="A1:P298"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" topLeftCell="L1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="E5" sqref="E5"/>
+      <selection pane="topRight" activeCell="E149" sqref="E149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -12864,11 +12864,11 @@
       <c r="D4" s="46">
         <v>2</v>
       </c>
-      <c r="E4" s="46" t="s">
-        <v>109</v>
-      </c>
-      <c r="F4" s="46">
-        <v>20</v>
+      <c r="E4" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="F4" s="44">
+        <v>10</v>
       </c>
       <c r="G4" s="46">
         <v>10</v>
@@ -12914,11 +12914,11 @@
       <c r="D5" s="46">
         <v>3</v>
       </c>
-      <c r="E5" s="46" t="s">
-        <v>111</v>
-      </c>
-      <c r="F5" s="46">
-        <v>30</v>
+      <c r="E5" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="F5" s="44">
+        <v>10</v>
       </c>
       <c r="G5" s="46">
         <v>5</v>
@@ -12964,11 +12964,11 @@
       <c r="D6" s="46">
         <v>4</v>
       </c>
-      <c r="E6" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="F6" s="46">
-        <v>40</v>
+      <c r="E6" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="F6" s="44">
+        <v>10</v>
       </c>
       <c r="G6" s="46">
         <v>5</v>
@@ -13014,11 +13014,11 @@
       <c r="D7" s="46">
         <v>5</v>
       </c>
-      <c r="E7" s="46" t="s">
-        <v>115</v>
-      </c>
-      <c r="F7" s="46">
-        <v>50</v>
+      <c r="E7" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="F7" s="44">
+        <v>10</v>
       </c>
       <c r="G7" s="46">
         <v>5</v>
@@ -13064,7 +13064,7 @@
       <c r="D8" s="46">
         <v>6</v>
       </c>
-      <c r="E8" s="46" t="s">
+      <c r="E8" s="44" t="s">
         <v>107</v>
       </c>
       <c r="F8" s="46">
@@ -27845,7 +27845,7 @@
   <sheetPr/>
   <dimension ref="A1:AE147"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="E8" sqref="A1:AE147"/>

--- a/excels/config/difficulty_config.xlsx
+++ b/excels/config/difficulty_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="11895" tabRatio="804" activeTab="3"/>
+    <workbookView windowWidth="27945" windowHeight="11805" tabRatio="804"/>
   </bookViews>
   <sheets>
     <sheet name="chapter_info" sheetId="7" r:id="rId1"/>
@@ -139,7 +139,7 @@
     <t>20202|null</t>
   </si>
   <si>
-    <t>1003|100001|1201</t>
+    <t>1003|100001|1005</t>
   </si>
   <si>
     <t>c2</t>
@@ -4640,12 +4640,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="4" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{073FC207-2BA9-4F44-937F-31E8837ACA6A}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{0BB4310F-5CBC-4685-B2BA-8438C539D15F}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
     </tableStyle>
-    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{812D6598-39B2-4610-A8B1-DA227DACAC76}">
+    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{99017D36-CC1F-43E9-BED1-673B7ACC7A06}">
       <tableStyleElement type="wholeTable" dxfId="16"/>
       <tableStyleElement type="headerRow" dxfId="15"/>
       <tableStyleElement type="totalRow" dxfId="14"/>
@@ -4659,7 +4659,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="6"/>
       <tableStyleElement type="lastTotalCell" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{310F8FBA-D5F1-47DA-A7B1-CF9F76543743}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{BF1AD1F9-96E3-4825-8806-237157B39099}">
       <tableStyleElement type="wholeTable" dxfId="26"/>
       <tableStyleElement type="headerRow" dxfId="25"/>
       <tableStyleElement type="totalRow" dxfId="24"/>
@@ -4671,7 +4671,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="18"/>
       <tableStyleElement type="lastTotalCell" dxfId="17"/>
     </tableStyle>
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{3126A559-0C2C-4B1F-A70B-4F6C400AB1A8}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{CEAA1A7B-2DCD-4B06-A6AF-170A16785EDF}">
       <tableStyleElement type="wholeTable" dxfId="33"/>
       <tableStyleElement type="headerRow" dxfId="32"/>
       <tableStyleElement type="totalRow" dxfId="31"/>
@@ -10514,8 +10514,8 @@
   <sheetPr/>
   <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView topLeftCell="D28" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="C26" workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -12679,7 +12679,7 @@
   <sheetPr/>
   <dimension ref="A1:P298"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+    <sheetView topLeftCell="A129" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
       <selection pane="topRight" activeCell="E149" sqref="E149"/>
